--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -838,7 +838,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -856,8 +856,13 @@
       <sz val="11.0"/>
       <i val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +883,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="D3D3D3"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF0000"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -962,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -976,6 +998,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -888,18 +888,18 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="CD4F39"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="CD4F39"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="CD4F39"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -1316,10 +1316,10 @@
       <c r="AM3" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN3" t="s" s="8">
+      <c r="AN3" t="s">
         <v>37</v>
       </c>
-      <c r="AO3" s="8"/>
+      <c r="AO3"/>
       <c r="AP3" t="s">
         <v>162</v>
       </c>
@@ -1445,10 +1445,10 @@
       <c r="AM4" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN4" t="s" s="8">
+      <c r="AN4" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" s="8"/>
+      <c r="AO4"/>
       <c r="AP4" t="s">
         <v>163</v>
       </c>
@@ -1574,10 +1574,10 @@
       <c r="AM5" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN5" t="s" s="8">
+      <c r="AN5" t="s">
         <v>37</v>
       </c>
-      <c r="AO5" s="8"/>
+      <c r="AO5"/>
       <c r="AP5" t="s">
         <v>164</v>
       </c>
@@ -1703,10 +1703,10 @@
       <c r="AM6" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN6" t="s" s="8">
+      <c r="AN6" t="s">
         <v>37</v>
       </c>
-      <c r="AO6" s="8"/>
+      <c r="AO6"/>
       <c r="AP6" t="s">
         <v>165</v>
       </c>
@@ -1832,10 +1832,10 @@
       <c r="AM7" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN7" t="s" s="8">
+      <c r="AN7" t="s">
         <v>37</v>
       </c>
-      <c r="AO7" s="8"/>
+      <c r="AO7"/>
       <c r="AP7" t="s">
         <v>166</v>
       </c>
@@ -1961,10 +1961,10 @@
       <c r="AM8" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN8" t="s" s="8">
+      <c r="AN8" t="s">
         <v>37</v>
       </c>
-      <c r="AO8" s="8"/>
+      <c r="AO8"/>
       <c r="AP8" t="s">
         <v>167</v>
       </c>
@@ -2090,10 +2090,10 @@
       <c r="AM9" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN9" t="s" s="8">
+      <c r="AN9" t="s">
         <v>37</v>
       </c>
-      <c r="AO9" s="8"/>
+      <c r="AO9"/>
       <c r="AP9" t="s">
         <v>168</v>
       </c>
@@ -2219,10 +2219,10 @@
       <c r="AM10" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN10" t="s" s="8">
+      <c r="AN10" t="s">
         <v>37</v>
       </c>
-      <c r="AO10" s="8"/>
+      <c r="AO10"/>
       <c r="AP10" t="s">
         <v>47</v>
       </c>
@@ -2348,10 +2348,10 @@
       <c r="AM11" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN11" t="s" s="8">
+      <c r="AN11" t="s">
         <v>37</v>
       </c>
-      <c r="AO11" s="8"/>
+      <c r="AO11"/>
       <c r="AP11" t="s">
         <v>169</v>
       </c>
@@ -2477,10 +2477,10 @@
       <c r="AM12" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN12" t="s" s="8">
+      <c r="AN12" t="s">
         <v>37</v>
       </c>
-      <c r="AO12" s="8"/>
+      <c r="AO12"/>
       <c r="AP12" t="s">
         <v>170</v>
       </c>
@@ -2606,10 +2606,10 @@
       <c r="AM13" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN13" t="s" s="8">
+      <c r="AN13" t="s">
         <v>37</v>
       </c>
-      <c r="AO13" s="8"/>
+      <c r="AO13"/>
       <c r="AP13" t="s">
         <v>171</v>
       </c>
@@ -2735,10 +2735,10 @@
       <c r="AM14" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN14" t="s" s="8">
+      <c r="AN14" t="s">
         <v>37</v>
       </c>
-      <c r="AO14" s="8"/>
+      <c r="AO14"/>
       <c r="AP14" t="s">
         <v>172</v>
       </c>
@@ -2864,10 +2864,10 @@
       <c r="AM15" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN15" t="s" s="8">
+      <c r="AN15" t="s">
         <v>37</v>
       </c>
-      <c r="AO15" s="8"/>
+      <c r="AO15"/>
       <c r="AP15" t="s">
         <v>173</v>
       </c>
@@ -2993,10 +2993,10 @@
       <c r="AM16" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN16" t="s" s="8">
+      <c r="AN16" t="s">
         <v>37</v>
       </c>
-      <c r="AO16" s="8"/>
+      <c r="AO16"/>
       <c r="AP16" t="s">
         <v>174</v>
       </c>
@@ -3122,10 +3122,10 @@
       <c r="AM17" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN17" t="s" s="8">
+      <c r="AN17" t="s">
         <v>37</v>
       </c>
-      <c r="AO17" s="8"/>
+      <c r="AO17"/>
       <c r="AP17" t="s">
         <v>175</v>
       </c>
@@ -3251,10 +3251,10 @@
       <c r="AM18" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN18" t="s" s="8">
+      <c r="AN18" t="s">
         <v>37</v>
       </c>
-      <c r="AO18" s="8"/>
+      <c r="AO18"/>
       <c r="AP18" t="s">
         <v>176</v>
       </c>
@@ -3380,10 +3380,10 @@
       <c r="AM19" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN19" t="s" s="8">
+      <c r="AN19" t="s">
         <v>37</v>
       </c>
-      <c r="AO19" s="8"/>
+      <c r="AO19"/>
       <c r="AP19" t="s">
         <v>177</v>
       </c>
@@ -3509,10 +3509,10 @@
       <c r="AM20" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN20" t="s" s="8">
+      <c r="AN20" t="s">
         <v>37</v>
       </c>
-      <c r="AO20" s="8"/>
+      <c r="AO20"/>
       <c r="AP20" t="s">
         <v>178</v>
       </c>
@@ -3638,10 +3638,10 @@
       <c r="AM21" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN21" t="s" s="8">
+      <c r="AN21" t="s">
         <v>37</v>
       </c>
-      <c r="AO21" s="8"/>
+      <c r="AO21"/>
       <c r="AP21" t="s">
         <v>179</v>
       </c>
@@ -3767,10 +3767,10 @@
       <c r="AM22" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN22" t="s" s="8">
+      <c r="AN22" t="s">
         <v>37</v>
       </c>
-      <c r="AO22" s="8"/>
+      <c r="AO22"/>
       <c r="AP22" t="s">
         <v>129</v>
       </c>
@@ -3896,10 +3896,10 @@
       <c r="AM23" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN23" t="s" s="8">
+      <c r="AN23" t="s">
         <v>37</v>
       </c>
-      <c r="AO23" s="8"/>
+      <c r="AO23"/>
       <c r="AP23" t="s">
         <v>180</v>
       </c>
@@ -4025,10 +4025,10 @@
       <c r="AM24" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN24" t="s" s="8">
+      <c r="AN24" t="s">
         <v>37</v>
       </c>
-      <c r="AO24" s="8"/>
+      <c r="AO24"/>
       <c r="AP24" t="s">
         <v>181</v>
       </c>
@@ -4154,10 +4154,10 @@
       <c r="AM25" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN25" t="s" s="8">
+      <c r="AN25" t="s">
         <v>37</v>
       </c>
-      <c r="AO25" s="8"/>
+      <c r="AO25"/>
       <c r="AP25" t="s">
         <v>182</v>
       </c>
@@ -4283,10 +4283,10 @@
       <c r="AM26" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN26" t="s" s="8">
+      <c r="AN26" t="s">
         <v>37</v>
       </c>
-      <c r="AO26" s="8"/>
+      <c r="AO26"/>
       <c r="AP26" t="s">
         <v>183</v>
       </c>
@@ -4379,8 +4379,8 @@
       <c r="AB27" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
       <c r="AE27" t="n">
         <v>0.0</v>
       </c>
@@ -4408,10 +4408,10 @@
       <c r="AM27" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN27" t="s" s="8">
+      <c r="AN27" t="s">
         <v>37</v>
       </c>
-      <c r="AO27" s="8"/>
+      <c r="AO27"/>
       <c r="AP27" t="s">
         <v>64</v>
       </c>
@@ -4537,10 +4537,10 @@
       <c r="AM28" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN28" t="s" s="8">
+      <c r="AN28" t="s">
         <v>37</v>
       </c>
-      <c r="AO28" s="8"/>
+      <c r="AO28"/>
       <c r="AP28" t="s">
         <v>184</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="Y29" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z29" s="8"/>
+      <c r="Z29"/>
       <c r="AA29" t="n">
         <v>3.0</v>
       </c>
@@ -4664,10 +4664,10 @@
       <c r="AM29" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN29" t="s" s="8">
+      <c r="AN29" t="s">
         <v>37</v>
       </c>
-      <c r="AO29" s="8"/>
+      <c r="AO29"/>
       <c r="AP29" t="s">
         <v>185</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="AA30" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB30" s="8"/>
+      <c r="AB30"/>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
@@ -4791,10 +4791,10 @@
       <c r="AM30" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN30" t="s" s="8">
+      <c r="AN30" t="s">
         <v>37</v>
       </c>
-      <c r="AO30" s="8"/>
+      <c r="AO30"/>
       <c r="AP30" t="s">
         <v>186</v>
       </c>
@@ -4920,10 +4920,10 @@
       <c r="AM31" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN31" t="s" s="8">
+      <c r="AN31" t="s">
         <v>37</v>
       </c>
-      <c r="AO31" s="8"/>
+      <c r="AO31"/>
       <c r="AP31" t="s">
         <v>187</v>
       </c>
@@ -5049,10 +5049,10 @@
       <c r="AM32" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN32" t="s" s="8">
+      <c r="AN32" t="s">
         <v>37</v>
       </c>
-      <c r="AO32" s="8"/>
+      <c r="AO32"/>
       <c r="AP32" t="s">
         <v>188</v>
       </c>
@@ -5178,10 +5178,10 @@
       <c r="AM33" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN33" t="s" s="8">
+      <c r="AN33" t="s">
         <v>37</v>
       </c>
-      <c r="AO33" s="8"/>
+      <c r="AO33"/>
       <c r="AP33" t="s">
         <v>189</v>
       </c>
@@ -5268,11 +5268,11 @@
       <c r="Z34" t="n">
         <v>282.0</v>
       </c>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
       <c r="AF34" t="n">
         <v>1.0</v>
       </c>
@@ -5297,10 +5297,10 @@
       <c r="AM34" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN34" t="s" s="8">
+      <c r="AN34" t="s">
         <v>37</v>
       </c>
-      <c r="AO34" s="8"/>
+      <c r="AO34"/>
       <c r="AP34" t="s">
         <v>190</v>
       </c>
@@ -5426,10 +5426,10 @@
       <c r="AM35" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN35" t="s" s="8">
+      <c r="AN35" t="s">
         <v>37</v>
       </c>
-      <c r="AO35" s="8"/>
+      <c r="AO35"/>
       <c r="AP35" t="s">
         <v>191</v>
       </c>
@@ -5555,10 +5555,10 @@
       <c r="AM36" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN36" t="s" s="8">
+      <c r="AN36" t="s">
         <v>37</v>
       </c>
-      <c r="AO36" s="8"/>
+      <c r="AO36"/>
       <c r="AP36" t="s">
         <v>104</v>
       </c>
@@ -5684,10 +5684,10 @@
       <c r="AM37" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN37" t="s" s="8">
+      <c r="AN37" t="s">
         <v>37</v>
       </c>
-      <c r="AO37" s="8"/>
+      <c r="AO37"/>
       <c r="AP37" t="s">
         <v>192</v>
       </c>
@@ -5813,10 +5813,10 @@
       <c r="AM38" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN38" t="s" s="8">
+      <c r="AN38" t="s">
         <v>37</v>
       </c>
-      <c r="AO38" s="8"/>
+      <c r="AO38"/>
       <c r="AP38" t="s">
         <v>193</v>
       </c>
@@ -5909,8 +5909,8 @@
       <c r="AB39" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
       <c r="AE39" t="n">
         <v>1.0</v>
       </c>
@@ -5938,10 +5938,10 @@
       <c r="AM39" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN39" t="s" s="8">
+      <c r="AN39" t="s">
         <v>37</v>
       </c>
-      <c r="AO39" s="8"/>
+      <c r="AO39"/>
       <c r="AP39" t="s">
         <v>194</v>
       </c>
@@ -6067,10 +6067,10 @@
       <c r="AM40" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN40" t="s" s="8">
+      <c r="AN40" t="s">
         <v>37</v>
       </c>
-      <c r="AO40" s="8"/>
+      <c r="AO40"/>
       <c r="AP40" t="s">
         <v>195</v>
       </c>
@@ -6196,10 +6196,10 @@
       <c r="AM41" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN41" t="s" s="8">
+      <c r="AN41" t="s">
         <v>37</v>
       </c>
-      <c r="AO41" s="8"/>
+      <c r="AO41"/>
       <c r="AP41" t="s">
         <v>196</v>
       </c>
@@ -6325,10 +6325,10 @@
       <c r="AM42" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN42" t="s" s="8">
+      <c r="AN42" t="s">
         <v>37</v>
       </c>
-      <c r="AO42" s="8"/>
+      <c r="AO42"/>
       <c r="AP42" t="s">
         <v>197</v>
       </c>
@@ -6454,10 +6454,10 @@
       <c r="AM43" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN43" t="s" s="8">
+      <c r="AN43" t="s">
         <v>37</v>
       </c>
-      <c r="AO43" s="8"/>
+      <c r="AO43"/>
       <c r="AP43" t="s">
         <v>198</v>
       </c>
@@ -6583,10 +6583,10 @@
       <c r="AM44" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN44" t="s" s="8">
+      <c r="AN44" t="s">
         <v>37</v>
       </c>
-      <c r="AO44" s="8"/>
+      <c r="AO44"/>
       <c r="AP44" t="s">
         <v>199</v>
       </c>
@@ -6712,10 +6712,10 @@
       <c r="AM45" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN45" t="s" s="8">
+      <c r="AN45" t="s">
         <v>37</v>
       </c>
-      <c r="AO45" s="8"/>
+      <c r="AO45"/>
       <c r="AP45" t="s">
         <v>200</v>
       </c>
@@ -6841,10 +6841,10 @@
       <c r="AM46" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN46" t="s" s="8">
+      <c r="AN46" t="s">
         <v>37</v>
       </c>
-      <c r="AO46" s="8"/>
+      <c r="AO46"/>
       <c r="AP46" t="s">
         <v>201</v>
       </c>
@@ -6970,10 +6970,10 @@
       <c r="AM47" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN47" t="s" s="8">
+      <c r="AN47" t="s">
         <v>37</v>
       </c>
-      <c r="AO47" s="8"/>
+      <c r="AO47"/>
       <c r="AP47" t="s">
         <v>202</v>
       </c>
@@ -7099,10 +7099,10 @@
       <c r="AM48" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN48" t="s" s="8">
+      <c r="AN48" t="s">
         <v>37</v>
       </c>
-      <c r="AO48" s="8"/>
+      <c r="AO48"/>
       <c r="AP48" t="s">
         <v>84</v>
       </c>
@@ -7228,10 +7228,10 @@
       <c r="AM49" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN49" t="s" s="8">
+      <c r="AN49" t="s">
         <v>37</v>
       </c>
-      <c r="AO49" s="8"/>
+      <c r="AO49"/>
       <c r="AP49" t="s">
         <v>85</v>
       </c>
@@ -7357,10 +7357,10 @@
       <c r="AM50" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN50" t="s" s="8">
+      <c r="AN50" t="s">
         <v>37</v>
       </c>
-      <c r="AO50" s="8"/>
+      <c r="AO50"/>
       <c r="AP50" t="s">
         <v>203</v>
       </c>
@@ -7486,10 +7486,10 @@
       <c r="AM51" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN51" t="s" s="8">
+      <c r="AN51" t="s">
         <v>37</v>
       </c>
-      <c r="AO51" s="8"/>
+      <c r="AO51"/>
       <c r="AP51" t="s">
         <v>204</v>
       </c>
@@ -7615,10 +7615,10 @@
       <c r="AM52" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN52" t="s" s="8">
+      <c r="AN52" t="s">
         <v>37</v>
       </c>
-      <c r="AO52" s="8"/>
+      <c r="AO52"/>
       <c r="AP52" t="s">
         <v>205</v>
       </c>
@@ -7744,10 +7744,10 @@
       <c r="AM53" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN53" t="s" s="8">
+      <c r="AN53" t="s">
         <v>37</v>
       </c>
-      <c r="AO53" s="8"/>
+      <c r="AO53"/>
       <c r="AP53" t="s">
         <v>206</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="AP54" t="s">
         <v>207</v>
       </c>
-      <c r="AQ54" t="s" s="8">
+      <c r="AQ54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
       <c r="AA55" t="n">
         <v>2.0</v>
       </c>
-      <c r="AB55" s="8"/>
+      <c r="AB55"/>
       <c r="AC55" t="n">
         <v>1.0</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="AP55" t="s">
         <v>193</v>
       </c>
-      <c r="AQ55" t="s" s="8">
+      <c r="AQ55" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
       <c r="AP56" t="s">
         <v>208</v>
       </c>
-      <c r="AQ56" t="s" s="8">
+      <c r="AQ56" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       <c r="AP57" t="s">
         <v>209</v>
       </c>
-      <c r="AQ57" t="s" s="8">
+      <c r="AQ57" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       <c r="AA58" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB58" s="8"/>
+      <c r="AB58"/>
       <c r="AC58" t="n">
         <v>1.0</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="AP58" t="s">
         <v>210</v>
       </c>
-      <c r="AQ58" t="s" s="8">
+      <c r="AQ58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8488,7 +8488,7 @@
       <c r="AA59" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB59" s="8"/>
+      <c r="AB59"/>
       <c r="AC59" t="n">
         <v>1.0</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="AP59" t="s">
         <v>211</v>
       </c>
-      <c r="AQ59" t="s" s="8">
+      <c r="AQ59" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8617,7 +8617,7 @@
       <c r="AA60" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB60" s="8"/>
+      <c r="AB60"/>
       <c r="AC60" t="n">
         <v>1.0</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="AP60" t="s">
         <v>212</v>
       </c>
-      <c r="AQ60" t="s" s="8">
+      <c r="AQ60" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       <c r="AP61" t="s">
         <v>213</v>
       </c>
-      <c r="AQ61" t="s" s="8">
+      <c r="AQ61" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       <c r="AA62" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB62" s="8"/>
+      <c r="AB62"/>
       <c r="AC62" t="n">
         <v>1.0</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="AP62" t="s">
         <v>214</v>
       </c>
-      <c r="AQ62" t="s" s="8">
+      <c r="AQ62" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="AB63" t="n">
         <v>9.0</v>
       </c>
-      <c r="AC63" s="8"/>
+      <c r="AC63"/>
       <c r="AD63" t="n">
         <v>1.0</v>
       </c>
@@ -9049,7 +9049,7 @@
       <c r="AP63" t="s">
         <v>215</v>
       </c>
-      <c r="AQ63" t="s" s="8">
+      <c r="AQ63" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
       <c r="AA64" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB64" s="8"/>
+      <c r="AB64"/>
       <c r="AC64" t="n">
         <v>1.0</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="AP64" t="s">
         <v>216</v>
       </c>
-      <c r="AQ64" t="s" s="8">
+      <c r="AQ64" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9264,7 +9264,7 @@
       <c r="AA65" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB65" s="8"/>
+      <c r="AB65"/>
       <c r="AC65" t="n">
         <v>1.0</v>
       </c>
@@ -9307,7 +9307,7 @@
       <c r="AP65" t="s">
         <v>217</v>
       </c>
-      <c r="AQ65" t="s" s="8">
+      <c r="AQ65" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9393,8 +9393,8 @@
       <c r="AA66" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="8"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
       <c r="AD66" t="n">
         <v>1.0</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="AP66" t="s">
         <v>218</v>
       </c>
-      <c r="AQ66" t="s" s="8">
+      <c r="AQ66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
       <c r="AA67" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB67" s="8"/>
+      <c r="AB67" s="12"/>
       <c r="AC67" t="n">
         <v>1.0</v>
       </c>
@@ -9563,7 +9563,7 @@
       <c r="AP67" t="s">
         <v>219</v>
       </c>
-      <c r="AQ67" t="s" s="8">
+      <c r="AQ67" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9649,7 +9649,7 @@
       <c r="AA68" t="n">
         <v>10.0</v>
       </c>
-      <c r="AB68" s="8"/>
+      <c r="AB68"/>
       <c r="AC68" t="n">
         <v>1.0</v>
       </c>
@@ -9692,7 +9692,7 @@
       <c r="AP68" t="s">
         <v>220</v>
       </c>
-      <c r="AQ68" t="s" s="8">
+      <c r="AQ68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       <c r="AB69" t="n">
         <v>21.0</v>
       </c>
-      <c r="AC69" s="8"/>
+      <c r="AC69"/>
       <c r="AD69" t="n">
         <v>1.0</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="AP69" t="s">
         <v>221</v>
       </c>
-      <c r="AQ69" t="s" s="8">
+      <c r="AQ69" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9907,8 +9907,8 @@
       <c r="AA70" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB70" s="8"/>
-      <c r="AC70" s="8"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
       <c r="AD70" t="n">
         <v>1.0</v>
       </c>
@@ -9948,7 +9948,7 @@
       <c r="AP70" t="s">
         <v>222</v>
       </c>
-      <c r="AQ70" t="s" s="8">
+      <c r="AQ70" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10034,11 +10034,11 @@
       <c r="AA71" t="n">
         <v>3.0</v>
       </c>
-      <c r="AB71" s="8"/>
+      <c r="AB71"/>
       <c r="AC71" t="n">
         <v>1.0</v>
       </c>
-      <c r="AD71" s="8"/>
+      <c r="AD71"/>
       <c r="AE71" t="n">
         <v>0.0</v>
       </c>
@@ -10075,7 +10075,7 @@
       <c r="AP71" t="s">
         <v>223</v>
       </c>
-      <c r="AQ71" t="s" s="8">
+      <c r="AQ71" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       <c r="AA72" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB72" s="8"/>
+      <c r="AB72"/>
       <c r="AC72" t="n">
         <v>1.0</v>
       </c>
@@ -10204,7 +10204,7 @@
       <c r="AP72" t="s">
         <v>224</v>
       </c>
-      <c r="AQ72" t="s" s="8">
+      <c r="AQ72" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10293,7 +10293,7 @@
       <c r="AB73" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC73" s="8"/>
+      <c r="AC73"/>
       <c r="AD73" t="n">
         <v>1.0</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="AP73" t="s">
         <v>225</v>
       </c>
-      <c r="AQ73" t="s" s="8">
+      <c r="AQ73" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       <c r="AA74" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB74" s="8"/>
+      <c r="AB74"/>
       <c r="AC74" t="n">
         <v>1.0</v>
       </c>
@@ -10462,7 +10462,7 @@
       <c r="AP74" t="s">
         <v>226</v>
       </c>
-      <c r="AQ74" t="s" s="8">
+      <c r="AQ74" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="AB75" t="n">
         <v>15.0</v>
       </c>
-      <c r="AC75" s="8"/>
+      <c r="AC75"/>
       <c r="AD75" t="n">
         <v>1.0</v>
       </c>
@@ -10591,7 +10591,7 @@
       <c r="AP75" t="s">
         <v>227</v>
       </c>
-      <c r="AQ75" t="s" s="8">
+      <c r="AQ75" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10680,8 +10680,8 @@
       <c r="AB76" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC76" s="8"/>
-      <c r="AD76" s="8"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
       <c r="AE76" t="n">
         <v>0.0</v>
       </c>
@@ -10718,7 +10718,7 @@
       <c r="AP76" t="s">
         <v>228</v>
       </c>
-      <c r="AQ76" t="s" s="8">
+      <c r="AQ76" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="AA77" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB77" s="8"/>
+      <c r="AB77"/>
       <c r="AC77" t="n">
         <v>2.0</v>
       </c>
@@ -10847,7 +10847,7 @@
       <c r="AP77" t="s">
         <v>229</v>
       </c>
-      <c r="AQ77" t="s" s="8">
+      <c r="AQ77" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       <c r="AB78" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC78" s="8"/>
+      <c r="AC78"/>
       <c r="AD78" t="n">
         <v>1.0</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="AP78" t="s">
         <v>230</v>
       </c>
-      <c r="AQ78" t="s" s="8">
+      <c r="AQ78" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
       <c r="AA79" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB79" s="8"/>
+      <c r="AB79"/>
       <c r="AC79" t="n">
         <v>1.0</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="AP79" t="s">
         <v>188</v>
       </c>
-      <c r="AQ79" t="s" s="8">
+      <c r="AQ79" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       <c r="AA80" t="n">
         <v>13.0</v>
       </c>
-      <c r="AB80" s="8"/>
+      <c r="AB80"/>
       <c r="AC80" t="n">
         <v>1.0</v>
       </c>
@@ -11234,7 +11234,7 @@
       <c r="AP80" t="s">
         <v>231</v>
       </c>
-      <c r="AQ80" t="s" s="8">
+      <c r="AQ80" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11365,7 +11365,7 @@
       <c r="AP81" t="s">
         <v>232</v>
       </c>
-      <c r="AQ81" t="s" s="8">
+      <c r="AQ81" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11454,7 +11454,7 @@
       <c r="AB82" t="n">
         <v>13.0</v>
       </c>
-      <c r="AC82" s="8"/>
+      <c r="AC82"/>
       <c r="AD82" t="n">
         <v>1.0</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="AP82" t="s">
         <v>233</v>
       </c>
-      <c r="AQ82" t="s" s="8">
+      <c r="AQ82" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11583,7 +11583,7 @@
       <c r="AB83" t="n">
         <v>8.0</v>
       </c>
-      <c r="AC83" s="8"/>
+      <c r="AC83"/>
       <c r="AD83" t="n">
         <v>1.0</v>
       </c>
@@ -11623,7 +11623,7 @@
       <c r="AP83" t="s">
         <v>234</v>
       </c>
-      <c r="AQ83" t="s" s="8">
+      <c r="AQ83" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11709,7 +11709,7 @@
       <c r="AA84" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB84" s="8"/>
+      <c r="AB84"/>
       <c r="AC84" t="n">
         <v>1.0</v>
       </c>
@@ -11752,7 +11752,7 @@
       <c r="AP84" t="s">
         <v>235</v>
       </c>
-      <c r="AQ84" t="s" s="8">
+      <c r="AQ84" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       <c r="AA85" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB85" s="8"/>
+      <c r="AB85"/>
       <c r="AC85" t="n">
         <v>1.0</v>
       </c>
@@ -11881,7 +11881,7 @@
       <c r="AP85" t="s">
         <v>236</v>
       </c>
-      <c r="AQ85" t="s" s="8">
+      <c r="AQ85" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
       <c r="AB86" t="n">
         <v>7.0</v>
       </c>
-      <c r="AC86" s="8"/>
+      <c r="AC86"/>
       <c r="AD86" t="n">
         <v>1.0</v>
       </c>
@@ -12010,7 +12010,7 @@
       <c r="AP86" t="s">
         <v>237</v>
       </c>
-      <c r="AQ86" t="s" s="8">
+      <c r="AQ86" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       <c r="AA87" t="n">
         <v>10.0</v>
       </c>
-      <c r="AB87" s="8"/>
+      <c r="AB87" s="12"/>
       <c r="AC87" t="n">
         <v>1.0</v>
       </c>
@@ -12139,7 +12139,7 @@
       <c r="AP87" t="s">
         <v>238</v>
       </c>
-      <c r="AQ87" t="s" s="8">
+      <c r="AQ87" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       <c r="AA88" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB88" s="8"/>
+      <c r="AB88"/>
       <c r="AC88" t="n">
         <v>1.0</v>
       </c>
@@ -12268,7 +12268,7 @@
       <c r="AP88" t="s">
         <v>239</v>
       </c>
-      <c r="AQ88" t="s" s="8">
+      <c r="AQ88" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12348,7 +12348,7 @@
       <c r="Y89" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z89" s="8"/>
+      <c r="Z89"/>
       <c r="AA89" t="n">
         <v>34.0</v>
       </c>
@@ -12397,7 +12397,7 @@
       <c r="AP89" t="s">
         <v>240</v>
       </c>
-      <c r="AQ89" t="s" s="8">
+      <c r="AQ89" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12477,11 +12477,11 @@
       <c r="Y90" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z90" s="8"/>
+      <c r="Z90"/>
       <c r="AA90" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB90" s="8"/>
+      <c r="AB90"/>
       <c r="AC90" t="n">
         <v>1.0</v>
       </c>
@@ -12524,7 +12524,7 @@
       <c r="AP90" t="s">
         <v>185</v>
       </c>
-      <c r="AQ90" t="s" s="8">
+      <c r="AQ90" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12610,7 +12610,7 @@
       <c r="AA91" t="n">
         <v>8.0</v>
       </c>
-      <c r="AB91" s="8"/>
+      <c r="AB91"/>
       <c r="AC91" t="n">
         <v>1.0</v>
       </c>
@@ -12653,7 +12653,7 @@
       <c r="AP91" t="s">
         <v>241</v>
       </c>
-      <c r="AQ91" t="s" s="8">
+      <c r="AQ91" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12739,7 +12739,7 @@
       <c r="AA92" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB92" s="8"/>
+      <c r="AB92"/>
       <c r="AC92" t="n">
         <v>1.0</v>
       </c>
@@ -12782,7 +12782,7 @@
       <c r="AP92" t="s">
         <v>242</v>
       </c>
-      <c r="AQ92" t="s" s="8">
+      <c r="AQ92" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12871,7 +12871,7 @@
       <c r="AB93" t="n">
         <v>9.0</v>
       </c>
-      <c r="AC93" s="8"/>
+      <c r="AC93"/>
       <c r="AD93" t="n">
         <v>2.0</v>
       </c>
@@ -12911,7 +12911,7 @@
       <c r="AP93" t="s">
         <v>150</v>
       </c>
-      <c r="AQ93" t="s" s="8">
+      <c r="AQ93" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12997,7 +12997,7 @@
       <c r="AA94" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB94" s="8"/>
+      <c r="AB94"/>
       <c r="AC94" t="n">
         <v>1.0</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="AP94" t="s">
         <v>243</v>
       </c>
-      <c r="AQ94" t="s" s="8">
+      <c r="AQ94" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13129,7 +13129,7 @@
       <c r="AB95" t="n">
         <v>14.0</v>
       </c>
-      <c r="AC95" s="8"/>
+      <c r="AC95"/>
       <c r="AD95" t="n">
         <v>1.0</v>
       </c>
@@ -13169,7 +13169,7 @@
       <c r="AP95" t="s">
         <v>244</v>
       </c>
-      <c r="AQ95" t="s" s="8">
+      <c r="AQ95" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13255,7 +13255,7 @@
       <c r="AA96" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB96" s="8"/>
+      <c r="AB96"/>
       <c r="AC96" t="n">
         <v>1.0</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="AP96" t="s">
         <v>245</v>
       </c>
-      <c r="AQ96" t="s" s="8">
+      <c r="AQ96" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13381,8 +13381,8 @@
       <c r="Z97" t="n">
         <v>467.0</v>
       </c>
-      <c r="AA97" s="8"/>
-      <c r="AB97" s="8"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
       <c r="AC97" t="n">
         <v>1.0</v>
       </c>
@@ -13425,7 +13425,7 @@
       <c r="AP97" t="s">
         <v>246</v>
       </c>
-      <c r="AQ97" t="s" s="8">
+      <c r="AQ97" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13511,8 +13511,8 @@
       <c r="AA98" t="n">
         <v>18.0</v>
       </c>
-      <c r="AB98" s="8"/>
-      <c r="AC98" s="8"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
       <c r="AD98" t="n">
         <v>1.0</v>
       </c>
@@ -13552,7 +13552,7 @@
       <c r="AP98" t="s">
         <v>154</v>
       </c>
-      <c r="AQ98" t="s" s="8">
+      <c r="AQ98" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
       <c r="AA99" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB99" s="8"/>
+      <c r="AB99"/>
       <c r="AC99" t="n">
         <v>1.0</v>
       </c>
@@ -13681,7 +13681,7 @@
       <c r="AP99" t="s">
         <v>247</v>
       </c>
-      <c r="AQ99" t="s" s="8">
+      <c r="AQ99" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13767,7 +13767,7 @@
       <c r="AA100" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB100" s="8"/>
+      <c r="AB100"/>
       <c r="AC100" t="n">
         <v>1.0</v>
       </c>
@@ -13810,7 +13810,7 @@
       <c r="AP100" t="s">
         <v>248</v>
       </c>
-      <c r="AQ100" t="s" s="8">
+      <c r="AQ100" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13896,11 +13896,11 @@
       <c r="AA101" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB101" s="8"/>
+      <c r="AB101"/>
       <c r="AC101" t="n">
         <v>1.0</v>
       </c>
-      <c r="AD101" s="8"/>
+      <c r="AD101"/>
       <c r="AE101" t="n">
         <v>0.0</v>
       </c>
@@ -13937,7 +13937,7 @@
       <c r="AP101" t="s">
         <v>249</v>
       </c>
-      <c r="AQ101" t="s" s="8">
+      <c r="AQ101" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14023,7 +14023,7 @@
       <c r="AA102" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB102" s="8"/>
+      <c r="AB102"/>
       <c r="AC102" t="n">
         <v>1.0</v>
       </c>
@@ -14066,7 +14066,7 @@
       <c r="AP102" t="s">
         <v>250</v>
       </c>
-      <c r="AQ102" t="s" s="8">
+      <c r="AQ102" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       <c r="AB103" t="n">
         <v>15.0</v>
       </c>
-      <c r="AC103" s="8"/>
+      <c r="AC103"/>
       <c r="AD103" t="n">
         <v>1.0</v>
       </c>
@@ -14195,7 +14195,7 @@
       <c r="AP103" t="s">
         <v>251</v>
       </c>
-      <c r="AQ103" t="s" s="8">
+      <c r="AQ103" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       <c r="AA104" t="n">
         <v>3.0</v>
       </c>
-      <c r="AB104" s="8"/>
+      <c r="AB104"/>
       <c r="AC104" t="n">
         <v>1.0</v>
       </c>
@@ -14324,7 +14324,7 @@
       <c r="AP104" t="s">
         <v>245</v>
       </c>
-      <c r="AQ104" t="s" s="8">
+      <c r="AQ104" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
       <c r="AB105" t="n">
         <v>9.0</v>
       </c>
-      <c r="AC105" s="8"/>
+      <c r="AC105"/>
       <c r="AD105" t="n">
         <v>1.0</v>
       </c>
@@ -14453,7 +14453,7 @@
       <c r="AP105" t="s">
         <v>252</v>
       </c>
-      <c r="AQ105" t="s" s="8">
+      <c r="AQ105" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14584,7 +14584,7 @@
       <c r="AP106" t="s">
         <v>253</v>
       </c>
-      <c r="AQ106" t="s" s="8">
+      <c r="AQ106" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14670,7 +14670,7 @@
       <c r="AA107" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB107" s="8"/>
+      <c r="AB107"/>
       <c r="AC107" t="n">
         <v>1.0</v>
       </c>
@@ -14701,7 +14701,7 @@
       <c r="AL107" t="n">
         <v>0.0</v>
       </c>
-      <c r="AM107" s="8"/>
+      <c r="AM107"/>
       <c r="AN107" t="s">
         <v>160</v>
       </c>
@@ -14711,7 +14711,7 @@
       <c r="AP107" t="s">
         <v>254</v>
       </c>
-      <c r="AQ107" t="s" s="8">
+      <c r="AQ107" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       <c r="AA108" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB108" s="8"/>
+      <c r="AB108"/>
       <c r="AC108" t="n">
         <v>1.0</v>
       </c>
@@ -14840,7 +14840,7 @@
       <c r="AP108" t="s">
         <v>255</v>
       </c>
-      <c r="AQ108" t="s" s="8">
+      <c r="AQ108" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14929,7 +14929,7 @@
       <c r="AB109" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC109" s="8"/>
+      <c r="AC109"/>
       <c r="AD109" t="n">
         <v>1.0</v>
       </c>
@@ -14969,7 +14969,7 @@
       <c r="AP109" t="s">
         <v>256</v>
       </c>
-      <c r="AQ109" t="s" s="8">
+      <c r="AQ109" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15058,7 +15058,7 @@
       <c r="AB110" t="n">
         <v>15.0</v>
       </c>
-      <c r="AC110" s="8"/>
+      <c r="AC110"/>
       <c r="AD110" t="n">
         <v>1.0</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="AP110" t="s">
         <v>257</v>
       </c>
-      <c r="AQ110" t="s" s="8">
+      <c r="AQ110" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15184,7 +15184,7 @@
       <c r="AA111" t="n">
         <v>26.0</v>
       </c>
-      <c r="AB111" s="8"/>
+      <c r="AB111"/>
       <c r="AC111" t="n">
         <v>3.0</v>
       </c>
@@ -15227,7 +15227,7 @@
       <c r="AP111" t="s">
         <v>258</v>
       </c>
-      <c r="AQ111" t="s" s="8">
+      <c r="AQ111" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15358,7 +15358,7 @@
       <c r="AP112" t="s">
         <v>259</v>
       </c>
-      <c r="AQ112" t="s" s="8">
+      <c r="AQ112" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15444,7 +15444,7 @@
       <c r="AA113" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB113" s="8"/>
+      <c r="AB113"/>
       <c r="AC113" t="n">
         <v>1.0</v>
       </c>
@@ -15487,7 +15487,7 @@
       <c r="AP113" t="s">
         <v>260</v>
       </c>
-      <c r="AQ113" t="s" s="8">
+      <c r="AQ113" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
       <c r="AA114" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB114" s="8"/>
+      <c r="AB114"/>
       <c r="AC114" t="n">
         <v>0.0</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="AP114" t="s">
         <v>148</v>
       </c>
-      <c r="AQ114" t="s" s="8">
+      <c r="AQ114" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15747,7 +15747,7 @@
       <c r="AP115" t="s">
         <v>140</v>
       </c>
-      <c r="AQ115" t="s" s="8">
+      <c r="AQ115" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15833,7 +15833,7 @@
       <c r="AA116" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB116" s="8"/>
+      <c r="AB116"/>
       <c r="AC116" t="n">
         <v>1.0</v>
       </c>
@@ -15876,7 +15876,7 @@
       <c r="AP116" t="s">
         <v>261</v>
       </c>
-      <c r="AQ116" t="s" s="8">
+      <c r="AQ116" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15962,7 +15962,7 @@
       <c r="AA117" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB117" s="8"/>
+      <c r="AB117"/>
       <c r="AC117" t="n">
         <v>1.0</v>
       </c>
@@ -16005,7 +16005,7 @@
       <c r="AP117" t="s">
         <v>262</v>
       </c>
-      <c r="AQ117" t="s" s="8">
+      <c r="AQ117" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       <c r="AA118" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB118" s="8"/>
+      <c r="AB118"/>
       <c r="AC118" t="n">
         <v>1.0</v>
       </c>
@@ -16134,7 +16134,7 @@
       <c r="AP118" t="s">
         <v>263</v>
       </c>
-      <c r="AQ118" t="s" s="8">
+      <c r="AQ118" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16265,7 +16265,7 @@
       <c r="AP119" t="s">
         <v>264</v>
       </c>
-      <c r="AQ119" t="s" s="8">
+      <c r="AQ119" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16351,7 +16351,7 @@
       <c r="AA120" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB120" s="8"/>
+      <c r="AB120"/>
       <c r="AC120" t="n">
         <v>1.0</v>
       </c>
@@ -16394,7 +16394,7 @@
       <c r="AP120" t="s">
         <v>265</v>
       </c>
-      <c r="AQ120" t="s" s="8">
+      <c r="AQ120" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16480,7 +16480,7 @@
       <c r="AA121" t="n">
         <v>9.0</v>
       </c>
-      <c r="AB121" s="8"/>
+      <c r="AB121"/>
       <c r="AC121" t="n">
         <v>1.0</v>
       </c>
@@ -16523,7 +16523,7 @@
       <c r="AP121" t="s">
         <v>97</v>
       </c>
-      <c r="AQ121" t="s" s="8">
+      <c r="AQ121" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16609,7 +16609,7 @@
       <c r="AA122" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB122" s="8"/>
+      <c r="AB122"/>
       <c r="AC122" t="n">
         <v>1.0</v>
       </c>
@@ -16652,7 +16652,7 @@
       <c r="AP122" t="s">
         <v>266</v>
       </c>
-      <c r="AQ122" t="s" s="8">
+      <c r="AQ122" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16738,7 +16738,7 @@
       <c r="AA123" t="n">
         <v>9.0</v>
       </c>
-      <c r="AB123" s="8"/>
+      <c r="AB123"/>
       <c r="AC123" t="n">
         <v>1.0</v>
       </c>
@@ -16781,7 +16781,7 @@
       <c r="AP123" t="s">
         <v>267</v>
       </c>
-      <c r="AQ123" t="s" s="8">
+      <c r="AQ123" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16867,7 +16867,7 @@
       <c r="AA124" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB124" s="8"/>
+      <c r="AB124"/>
       <c r="AC124" t="n">
         <v>2.0</v>
       </c>
@@ -16910,7 +16910,7 @@
       <c r="AP124" t="s">
         <v>153</v>
       </c>
-      <c r="AQ124" t="s" s="8">
+      <c r="AQ124" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16996,7 +16996,7 @@
       <c r="AA125" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB125" s="8"/>
+      <c r="AB125"/>
       <c r="AC125" t="n">
         <v>1.0</v>
       </c>
@@ -17039,7 +17039,7 @@
       <c r="AP125" t="s">
         <v>268</v>
       </c>
-      <c r="AQ125" t="s" s="8">
+      <c r="AQ125" t="s">
         <v>37</v>
       </c>
     </row>
@@ -17161,10 +17161,10 @@
       <c r="AM126" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN126" t="s" s="8">
+      <c r="AN126" t="s">
         <v>37</v>
       </c>
-      <c r="AO126" s="8"/>
+      <c r="AO126"/>
       <c r="AP126" t="s">
         <v>269</v>
       </c>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -859,7 +859,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <b val="true"/>
+      <i val="true"/>
     </font>
   </fonts>
   <fills count="8">
@@ -888,18 +888,18 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="CD4F39"/>
+        <fgColor rgb="FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="CD4F39"/>
+        <fgColor rgb="FF0000"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CD4F39"/>
+        <fgColor rgb="FF0000"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -1316,10 +1316,10 @@
       <c r="AM3" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO3"/>
+      <c r="AO3" s="8"/>
       <c r="AP3" t="s">
         <v>162</v>
       </c>
@@ -1445,10 +1445,10 @@
       <c r="AM4" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO4"/>
+      <c r="AO4" s="8"/>
       <c r="AP4" t="s">
         <v>163</v>
       </c>
@@ -1574,10 +1574,10 @@
       <c r="AM5" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO5"/>
+      <c r="AO5" s="8"/>
       <c r="AP5" t="s">
         <v>164</v>
       </c>
@@ -1703,10 +1703,10 @@
       <c r="AM6" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN6" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO6"/>
+      <c r="AO6" s="8"/>
       <c r="AP6" t="s">
         <v>165</v>
       </c>
@@ -1832,10 +1832,10 @@
       <c r="AM7" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO7"/>
+      <c r="AO7" s="8"/>
       <c r="AP7" t="s">
         <v>166</v>
       </c>
@@ -1961,10 +1961,10 @@
       <c r="AM8" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO8"/>
+      <c r="AO8" s="8"/>
       <c r="AP8" t="s">
         <v>167</v>
       </c>
@@ -2090,10 +2090,10 @@
       <c r="AM9" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AN9" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO9"/>
+      <c r="AO9" s="8"/>
       <c r="AP9" t="s">
         <v>168</v>
       </c>
@@ -2219,10 +2219,10 @@
       <c r="AM10" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AN10" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO10"/>
+      <c r="AO10" s="8"/>
       <c r="AP10" t="s">
         <v>47</v>
       </c>
@@ -2348,10 +2348,10 @@
       <c r="AM11" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AN11" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO11"/>
+      <c r="AO11" s="8"/>
       <c r="AP11" t="s">
         <v>169</v>
       </c>
@@ -2477,10 +2477,10 @@
       <c r="AM12" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AN12" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO12"/>
+      <c r="AO12" s="8"/>
       <c r="AP12" t="s">
         <v>170</v>
       </c>
@@ -2606,10 +2606,10 @@
       <c r="AM13" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AN13" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO13"/>
+      <c r="AO13" s="8"/>
       <c r="AP13" t="s">
         <v>171</v>
       </c>
@@ -2735,10 +2735,10 @@
       <c r="AM14" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AN14" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO14"/>
+      <c r="AO14" s="8"/>
       <c r="AP14" t="s">
         <v>172</v>
       </c>
@@ -2864,10 +2864,10 @@
       <c r="AM15" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AN15" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO15"/>
+      <c r="AO15" s="8"/>
       <c r="AP15" t="s">
         <v>173</v>
       </c>
@@ -2993,10 +2993,10 @@
       <c r="AM16" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AN16" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO16"/>
+      <c r="AO16" s="8"/>
       <c r="AP16" t="s">
         <v>174</v>
       </c>
@@ -3122,10 +3122,10 @@
       <c r="AM17" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AN17" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO17"/>
+      <c r="AO17" s="8"/>
       <c r="AP17" t="s">
         <v>175</v>
       </c>
@@ -3251,10 +3251,10 @@
       <c r="AM18" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AN18" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO18"/>
+      <c r="AO18" s="8"/>
       <c r="AP18" t="s">
         <v>176</v>
       </c>
@@ -3380,10 +3380,10 @@
       <c r="AM19" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AN19" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO19"/>
+      <c r="AO19" s="8"/>
       <c r="AP19" t="s">
         <v>177</v>
       </c>
@@ -3509,10 +3509,10 @@
       <c r="AM20" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AN20" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO20"/>
+      <c r="AO20" s="8"/>
       <c r="AP20" t="s">
         <v>178</v>
       </c>
@@ -3638,10 +3638,10 @@
       <c r="AM21" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AN21" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO21"/>
+      <c r="AO21" s="8"/>
       <c r="AP21" t="s">
         <v>179</v>
       </c>
@@ -3767,10 +3767,10 @@
       <c r="AM22" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AN22" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO22"/>
+      <c r="AO22" s="8"/>
       <c r="AP22" t="s">
         <v>129</v>
       </c>
@@ -3896,10 +3896,10 @@
       <c r="AM23" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AN23" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO23"/>
+      <c r="AO23" s="8"/>
       <c r="AP23" t="s">
         <v>180</v>
       </c>
@@ -4025,10 +4025,10 @@
       <c r="AM24" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AN24" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO24"/>
+      <c r="AO24" s="8"/>
       <c r="AP24" t="s">
         <v>181</v>
       </c>
@@ -4154,10 +4154,10 @@
       <c r="AM25" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AN25" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO25"/>
+      <c r="AO25" s="8"/>
       <c r="AP25" t="s">
         <v>182</v>
       </c>
@@ -4283,10 +4283,10 @@
       <c r="AM26" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AN26" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO26"/>
+      <c r="AO26" s="8"/>
       <c r="AP26" t="s">
         <v>183</v>
       </c>
@@ -4379,8 +4379,8 @@
       <c r="AB27" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC27"/>
-      <c r="AD27"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
       <c r="AE27" t="n">
         <v>0.0</v>
       </c>
@@ -4408,10 +4408,10 @@
       <c r="AM27" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AN27" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO27"/>
+      <c r="AO27" s="8"/>
       <c r="AP27" t="s">
         <v>64</v>
       </c>
@@ -4537,10 +4537,10 @@
       <c r="AM28" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AN28" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO28"/>
+      <c r="AO28" s="8"/>
       <c r="AP28" t="s">
         <v>184</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="Y29" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z29"/>
+      <c r="Z29" s="8"/>
       <c r="AA29" t="n">
         <v>3.0</v>
       </c>
@@ -4664,10 +4664,10 @@
       <c r="AM29" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AN29" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO29"/>
+      <c r="AO29" s="8"/>
       <c r="AP29" t="s">
         <v>185</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="AA30" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB30"/>
+      <c r="AB30" s="8"/>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
@@ -4791,10 +4791,10 @@
       <c r="AM30" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AN30" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO30"/>
+      <c r="AO30" s="8"/>
       <c r="AP30" t="s">
         <v>186</v>
       </c>
@@ -4920,10 +4920,10 @@
       <c r="AM31" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AN31" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO31"/>
+      <c r="AO31" s="8"/>
       <c r="AP31" t="s">
         <v>187</v>
       </c>
@@ -5049,10 +5049,10 @@
       <c r="AM32" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AN32" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO32"/>
+      <c r="AO32" s="8"/>
       <c r="AP32" t="s">
         <v>188</v>
       </c>
@@ -5178,10 +5178,10 @@
       <c r="AM33" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN33" t="s">
+      <c r="AN33" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO33"/>
+      <c r="AO33" s="8"/>
       <c r="AP33" t="s">
         <v>189</v>
       </c>
@@ -5268,11 +5268,11 @@
       <c r="Z34" t="n">
         <v>282.0</v>
       </c>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
       <c r="AF34" t="n">
         <v>1.0</v>
       </c>
@@ -5297,10 +5297,10 @@
       <c r="AM34" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AN34" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO34"/>
+      <c r="AO34" s="8"/>
       <c r="AP34" t="s">
         <v>190</v>
       </c>
@@ -5426,10 +5426,10 @@
       <c r="AM35" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AN35" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO35"/>
+      <c r="AO35" s="8"/>
       <c r="AP35" t="s">
         <v>191</v>
       </c>
@@ -5555,10 +5555,10 @@
       <c r="AM36" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN36" t="s">
+      <c r="AN36" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO36"/>
+      <c r="AO36" s="8"/>
       <c r="AP36" t="s">
         <v>104</v>
       </c>
@@ -5684,10 +5684,10 @@
       <c r="AM37" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AN37" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO37"/>
+      <c r="AO37" s="8"/>
       <c r="AP37" t="s">
         <v>192</v>
       </c>
@@ -5813,10 +5813,10 @@
       <c r="AM38" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN38" t="s">
+      <c r="AN38" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO38"/>
+      <c r="AO38" s="8"/>
       <c r="AP38" t="s">
         <v>193</v>
       </c>
@@ -5909,8 +5909,8 @@
       <c r="AB39" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC39"/>
-      <c r="AD39"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
       <c r="AE39" t="n">
         <v>1.0</v>
       </c>
@@ -5938,10 +5938,10 @@
       <c r="AM39" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AN39" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO39"/>
+      <c r="AO39" s="8"/>
       <c r="AP39" t="s">
         <v>194</v>
       </c>
@@ -6067,10 +6067,10 @@
       <c r="AM40" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN40" t="s">
+      <c r="AN40" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO40"/>
+      <c r="AO40" s="8"/>
       <c r="AP40" t="s">
         <v>195</v>
       </c>
@@ -6196,10 +6196,10 @@
       <c r="AM41" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN41" t="s">
+      <c r="AN41" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO41"/>
+      <c r="AO41" s="8"/>
       <c r="AP41" t="s">
         <v>196</v>
       </c>
@@ -6325,10 +6325,10 @@
       <c r="AM42" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN42" t="s">
+      <c r="AN42" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO42"/>
+      <c r="AO42" s="8"/>
       <c r="AP42" t="s">
         <v>197</v>
       </c>
@@ -6454,10 +6454,10 @@
       <c r="AM43" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN43" t="s">
+      <c r="AN43" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO43"/>
+      <c r="AO43" s="8"/>
       <c r="AP43" t="s">
         <v>198</v>
       </c>
@@ -6583,10 +6583,10 @@
       <c r="AM44" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN44" t="s">
+      <c r="AN44" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO44"/>
+      <c r="AO44" s="8"/>
       <c r="AP44" t="s">
         <v>199</v>
       </c>
@@ -6712,10 +6712,10 @@
       <c r="AM45" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN45" t="s">
+      <c r="AN45" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO45"/>
+      <c r="AO45" s="8"/>
       <c r="AP45" t="s">
         <v>200</v>
       </c>
@@ -6841,10 +6841,10 @@
       <c r="AM46" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN46" t="s">
+      <c r="AN46" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO46"/>
+      <c r="AO46" s="8"/>
       <c r="AP46" t="s">
         <v>201</v>
       </c>
@@ -6970,10 +6970,10 @@
       <c r="AM47" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN47" t="s">
+      <c r="AN47" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO47"/>
+      <c r="AO47" s="8"/>
       <c r="AP47" t="s">
         <v>202</v>
       </c>
@@ -7099,10 +7099,10 @@
       <c r="AM48" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN48" t="s">
+      <c r="AN48" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO48"/>
+      <c r="AO48" s="8"/>
       <c r="AP48" t="s">
         <v>84</v>
       </c>
@@ -7228,10 +7228,10 @@
       <c r="AM49" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN49" t="s">
+      <c r="AN49" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO49"/>
+      <c r="AO49" s="8"/>
       <c r="AP49" t="s">
         <v>85</v>
       </c>
@@ -7357,10 +7357,10 @@
       <c r="AM50" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN50" t="s">
+      <c r="AN50" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO50"/>
+      <c r="AO50" s="8"/>
       <c r="AP50" t="s">
         <v>203</v>
       </c>
@@ -7486,10 +7486,10 @@
       <c r="AM51" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN51" t="s">
+      <c r="AN51" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO51"/>
+      <c r="AO51" s="8"/>
       <c r="AP51" t="s">
         <v>204</v>
       </c>
@@ -7615,10 +7615,10 @@
       <c r="AM52" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN52" t="s">
+      <c r="AN52" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO52"/>
+      <c r="AO52" s="8"/>
       <c r="AP52" t="s">
         <v>205</v>
       </c>
@@ -7744,10 +7744,10 @@
       <c r="AM53" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN53" t="s">
+      <c r="AN53" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO53"/>
+      <c r="AO53" s="8"/>
       <c r="AP53" t="s">
         <v>206</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="AP54" t="s">
         <v>207</v>
       </c>
-      <c r="AQ54" t="s">
+      <c r="AQ54" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
       <c r="AA55" t="n">
         <v>2.0</v>
       </c>
-      <c r="AB55"/>
+      <c r="AB55" s="8"/>
       <c r="AC55" t="n">
         <v>1.0</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="AP55" t="s">
         <v>193</v>
       </c>
-      <c r="AQ55" t="s">
+      <c r="AQ55" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
       <c r="AP56" t="s">
         <v>208</v>
       </c>
-      <c r="AQ56" t="s">
+      <c r="AQ56" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       <c r="AP57" t="s">
         <v>209</v>
       </c>
-      <c r="AQ57" t="s">
+      <c r="AQ57" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       <c r="AA58" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB58"/>
+      <c r="AB58" s="8"/>
       <c r="AC58" t="n">
         <v>1.0</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="AP58" t="s">
         <v>210</v>
       </c>
-      <c r="AQ58" t="s">
+      <c r="AQ58" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -8488,7 +8488,7 @@
       <c r="AA59" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB59"/>
+      <c r="AB59" s="8"/>
       <c r="AC59" t="n">
         <v>1.0</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="AP59" t="s">
         <v>211</v>
       </c>
-      <c r="AQ59" t="s">
+      <c r="AQ59" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -8617,7 +8617,7 @@
       <c r="AA60" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB60"/>
+      <c r="AB60" s="8"/>
       <c r="AC60" t="n">
         <v>1.0</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="AP60" t="s">
         <v>212</v>
       </c>
-      <c r="AQ60" t="s">
+      <c r="AQ60" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       <c r="AP61" t="s">
         <v>213</v>
       </c>
-      <c r="AQ61" t="s">
+      <c r="AQ61" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       <c r="AA62" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB62"/>
+      <c r="AB62" s="8"/>
       <c r="AC62" t="n">
         <v>1.0</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="AP62" t="s">
         <v>214</v>
       </c>
-      <c r="AQ62" t="s">
+      <c r="AQ62" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="AB63" t="n">
         <v>9.0</v>
       </c>
-      <c r="AC63"/>
+      <c r="AC63" s="8"/>
       <c r="AD63" t="n">
         <v>1.0</v>
       </c>
@@ -9049,7 +9049,7 @@
       <c r="AP63" t="s">
         <v>215</v>
       </c>
-      <c r="AQ63" t="s">
+      <c r="AQ63" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
       <c r="AA64" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB64"/>
+      <c r="AB64" s="8"/>
       <c r="AC64" t="n">
         <v>1.0</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="AP64" t="s">
         <v>216</v>
       </c>
-      <c r="AQ64" t="s">
+      <c r="AQ64" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -9264,7 +9264,7 @@
       <c r="AA65" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB65"/>
+      <c r="AB65" s="8"/>
       <c r="AC65" t="n">
         <v>1.0</v>
       </c>
@@ -9307,7 +9307,7 @@
       <c r="AP65" t="s">
         <v>217</v>
       </c>
-      <c r="AQ65" t="s">
+      <c r="AQ65" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -9393,8 +9393,8 @@
       <c r="AA66" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB66"/>
-      <c r="AC66"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
       <c r="AD66" t="n">
         <v>1.0</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="AP66" t="s">
         <v>218</v>
       </c>
-      <c r="AQ66" t="s">
+      <c r="AQ66" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
       <c r="AA67" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB67" s="12"/>
+      <c r="AB67" s="8"/>
       <c r="AC67" t="n">
         <v>1.0</v>
       </c>
@@ -9563,7 +9563,7 @@
       <c r="AP67" t="s">
         <v>219</v>
       </c>
-      <c r="AQ67" t="s">
+      <c r="AQ67" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -9649,7 +9649,7 @@
       <c r="AA68" t="n">
         <v>10.0</v>
       </c>
-      <c r="AB68"/>
+      <c r="AB68" s="8"/>
       <c r="AC68" t="n">
         <v>1.0</v>
       </c>
@@ -9692,7 +9692,7 @@
       <c r="AP68" t="s">
         <v>220</v>
       </c>
-      <c r="AQ68" t="s">
+      <c r="AQ68" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       <c r="AB69" t="n">
         <v>21.0</v>
       </c>
-      <c r="AC69"/>
+      <c r="AC69" s="8"/>
       <c r="AD69" t="n">
         <v>1.0</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="AP69" t="s">
         <v>221</v>
       </c>
-      <c r="AQ69" t="s">
+      <c r="AQ69" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -9907,8 +9907,8 @@
       <c r="AA70" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB70"/>
-      <c r="AC70"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
       <c r="AD70" t="n">
         <v>1.0</v>
       </c>
@@ -9948,7 +9948,7 @@
       <c r="AP70" t="s">
         <v>222</v>
       </c>
-      <c r="AQ70" t="s">
+      <c r="AQ70" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -10034,11 +10034,11 @@
       <c r="AA71" t="n">
         <v>3.0</v>
       </c>
-      <c r="AB71"/>
+      <c r="AB71" s="8"/>
       <c r="AC71" t="n">
         <v>1.0</v>
       </c>
-      <c r="AD71"/>
+      <c r="AD71" s="8"/>
       <c r="AE71" t="n">
         <v>0.0</v>
       </c>
@@ -10075,7 +10075,7 @@
       <c r="AP71" t="s">
         <v>223</v>
       </c>
-      <c r="AQ71" t="s">
+      <c r="AQ71" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       <c r="AA72" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB72"/>
+      <c r="AB72" s="8"/>
       <c r="AC72" t="n">
         <v>1.0</v>
       </c>
@@ -10204,7 +10204,7 @@
       <c r="AP72" t="s">
         <v>224</v>
       </c>
-      <c r="AQ72" t="s">
+      <c r="AQ72" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -10293,7 +10293,7 @@
       <c r="AB73" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC73"/>
+      <c r="AC73" s="8"/>
       <c r="AD73" t="n">
         <v>1.0</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="AP73" t="s">
         <v>225</v>
       </c>
-      <c r="AQ73" t="s">
+      <c r="AQ73" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       <c r="AA74" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB74"/>
+      <c r="AB74" s="8"/>
       <c r="AC74" t="n">
         <v>1.0</v>
       </c>
@@ -10462,7 +10462,7 @@
       <c r="AP74" t="s">
         <v>226</v>
       </c>
-      <c r="AQ74" t="s">
+      <c r="AQ74" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="AB75" t="n">
         <v>15.0</v>
       </c>
-      <c r="AC75"/>
+      <c r="AC75" s="8"/>
       <c r="AD75" t="n">
         <v>1.0</v>
       </c>
@@ -10591,7 +10591,7 @@
       <c r="AP75" t="s">
         <v>227</v>
       </c>
-      <c r="AQ75" t="s">
+      <c r="AQ75" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -10680,8 +10680,8 @@
       <c r="AB76" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC76"/>
-      <c r="AD76"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
       <c r="AE76" t="n">
         <v>0.0</v>
       </c>
@@ -10718,7 +10718,7 @@
       <c r="AP76" t="s">
         <v>228</v>
       </c>
-      <c r="AQ76" t="s">
+      <c r="AQ76" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="AA77" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB77"/>
+      <c r="AB77" s="8"/>
       <c r="AC77" t="n">
         <v>2.0</v>
       </c>
@@ -10847,7 +10847,7 @@
       <c r="AP77" t="s">
         <v>229</v>
       </c>
-      <c r="AQ77" t="s">
+      <c r="AQ77" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       <c r="AB78" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC78"/>
+      <c r="AC78" s="8"/>
       <c r="AD78" t="n">
         <v>1.0</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="AP78" t="s">
         <v>230</v>
       </c>
-      <c r="AQ78" t="s">
+      <c r="AQ78" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
       <c r="AA79" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB79"/>
+      <c r="AB79" s="8"/>
       <c r="AC79" t="n">
         <v>1.0</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="AP79" t="s">
         <v>188</v>
       </c>
-      <c r="AQ79" t="s">
+      <c r="AQ79" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       <c r="AA80" t="n">
         <v>13.0</v>
       </c>
-      <c r="AB80"/>
+      <c r="AB80" s="8"/>
       <c r="AC80" t="n">
         <v>1.0</v>
       </c>
@@ -11234,7 +11234,7 @@
       <c r="AP80" t="s">
         <v>231</v>
       </c>
-      <c r="AQ80" t="s">
+      <c r="AQ80" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -11365,7 +11365,7 @@
       <c r="AP81" t="s">
         <v>232</v>
       </c>
-      <c r="AQ81" t="s">
+      <c r="AQ81" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -11454,7 +11454,7 @@
       <c r="AB82" t="n">
         <v>13.0</v>
       </c>
-      <c r="AC82"/>
+      <c r="AC82" s="8"/>
       <c r="AD82" t="n">
         <v>1.0</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="AP82" t="s">
         <v>233</v>
       </c>
-      <c r="AQ82" t="s">
+      <c r="AQ82" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -11583,7 +11583,7 @@
       <c r="AB83" t="n">
         <v>8.0</v>
       </c>
-      <c r="AC83"/>
+      <c r="AC83" s="8"/>
       <c r="AD83" t="n">
         <v>1.0</v>
       </c>
@@ -11623,7 +11623,7 @@
       <c r="AP83" t="s">
         <v>234</v>
       </c>
-      <c r="AQ83" t="s">
+      <c r="AQ83" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -11709,7 +11709,7 @@
       <c r="AA84" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB84"/>
+      <c r="AB84" s="8"/>
       <c r="AC84" t="n">
         <v>1.0</v>
       </c>
@@ -11752,7 +11752,7 @@
       <c r="AP84" t="s">
         <v>235</v>
       </c>
-      <c r="AQ84" t="s">
+      <c r="AQ84" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       <c r="AA85" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB85"/>
+      <c r="AB85" s="8"/>
       <c r="AC85" t="n">
         <v>1.0</v>
       </c>
@@ -11881,7 +11881,7 @@
       <c r="AP85" t="s">
         <v>236</v>
       </c>
-      <c r="AQ85" t="s">
+      <c r="AQ85" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
       <c r="AB86" t="n">
         <v>7.0</v>
       </c>
-      <c r="AC86"/>
+      <c r="AC86" s="8"/>
       <c r="AD86" t="n">
         <v>1.0</v>
       </c>
@@ -12010,7 +12010,7 @@
       <c r="AP86" t="s">
         <v>237</v>
       </c>
-      <c r="AQ86" t="s">
+      <c r="AQ86" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       <c r="AA87" t="n">
         <v>10.0</v>
       </c>
-      <c r="AB87" s="12"/>
+      <c r="AB87" s="8"/>
       <c r="AC87" t="n">
         <v>1.0</v>
       </c>
@@ -12139,7 +12139,7 @@
       <c r="AP87" t="s">
         <v>238</v>
       </c>
-      <c r="AQ87" t="s">
+      <c r="AQ87" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       <c r="AA88" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB88"/>
+      <c r="AB88" s="8"/>
       <c r="AC88" t="n">
         <v>1.0</v>
       </c>
@@ -12268,7 +12268,7 @@
       <c r="AP88" t="s">
         <v>239</v>
       </c>
-      <c r="AQ88" t="s">
+      <c r="AQ88" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -12348,7 +12348,7 @@
       <c r="Y89" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z89"/>
+      <c r="Z89" s="8"/>
       <c r="AA89" t="n">
         <v>34.0</v>
       </c>
@@ -12397,7 +12397,7 @@
       <c r="AP89" t="s">
         <v>240</v>
       </c>
-      <c r="AQ89" t="s">
+      <c r="AQ89" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -12477,11 +12477,11 @@
       <c r="Y90" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z90"/>
+      <c r="Z90" s="8"/>
       <c r="AA90" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB90"/>
+      <c r="AB90" s="8"/>
       <c r="AC90" t="n">
         <v>1.0</v>
       </c>
@@ -12524,7 +12524,7 @@
       <c r="AP90" t="s">
         <v>185</v>
       </c>
-      <c r="AQ90" t="s">
+      <c r="AQ90" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -12610,7 +12610,7 @@
       <c r="AA91" t="n">
         <v>8.0</v>
       </c>
-      <c r="AB91"/>
+      <c r="AB91" s="8"/>
       <c r="AC91" t="n">
         <v>1.0</v>
       </c>
@@ -12653,7 +12653,7 @@
       <c r="AP91" t="s">
         <v>241</v>
       </c>
-      <c r="AQ91" t="s">
+      <c r="AQ91" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -12739,7 +12739,7 @@
       <c r="AA92" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB92"/>
+      <c r="AB92" s="8"/>
       <c r="AC92" t="n">
         <v>1.0</v>
       </c>
@@ -12782,7 +12782,7 @@
       <c r="AP92" t="s">
         <v>242</v>
       </c>
-      <c r="AQ92" t="s">
+      <c r="AQ92" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -12871,7 +12871,7 @@
       <c r="AB93" t="n">
         <v>9.0</v>
       </c>
-      <c r="AC93"/>
+      <c r="AC93" s="8"/>
       <c r="AD93" t="n">
         <v>2.0</v>
       </c>
@@ -12911,7 +12911,7 @@
       <c r="AP93" t="s">
         <v>150</v>
       </c>
-      <c r="AQ93" t="s">
+      <c r="AQ93" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -12997,7 +12997,7 @@
       <c r="AA94" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB94"/>
+      <c r="AB94" s="8"/>
       <c r="AC94" t="n">
         <v>1.0</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="AP94" t="s">
         <v>243</v>
       </c>
-      <c r="AQ94" t="s">
+      <c r="AQ94" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -13129,7 +13129,7 @@
       <c r="AB95" t="n">
         <v>14.0</v>
       </c>
-      <c r="AC95"/>
+      <c r="AC95" s="8"/>
       <c r="AD95" t="n">
         <v>1.0</v>
       </c>
@@ -13169,7 +13169,7 @@
       <c r="AP95" t="s">
         <v>244</v>
       </c>
-      <c r="AQ95" t="s">
+      <c r="AQ95" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -13255,7 +13255,7 @@
       <c r="AA96" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB96"/>
+      <c r="AB96" s="8"/>
       <c r="AC96" t="n">
         <v>1.0</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="AP96" t="s">
         <v>245</v>
       </c>
-      <c r="AQ96" t="s">
+      <c r="AQ96" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -13381,8 +13381,8 @@
       <c r="Z97" t="n">
         <v>467.0</v>
       </c>
-      <c r="AA97"/>
-      <c r="AB97"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="8"/>
       <c r="AC97" t="n">
         <v>1.0</v>
       </c>
@@ -13425,7 +13425,7 @@
       <c r="AP97" t="s">
         <v>246</v>
       </c>
-      <c r="AQ97" t="s">
+      <c r="AQ97" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -13511,8 +13511,8 @@
       <c r="AA98" t="n">
         <v>18.0</v>
       </c>
-      <c r="AB98"/>
-      <c r="AC98"/>
+      <c r="AB98" s="8"/>
+      <c r="AC98" s="8"/>
       <c r="AD98" t="n">
         <v>1.0</v>
       </c>
@@ -13552,7 +13552,7 @@
       <c r="AP98" t="s">
         <v>154</v>
       </c>
-      <c r="AQ98" t="s">
+      <c r="AQ98" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
       <c r="AA99" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB99"/>
+      <c r="AB99" s="8"/>
       <c r="AC99" t="n">
         <v>1.0</v>
       </c>
@@ -13681,7 +13681,7 @@
       <c r="AP99" t="s">
         <v>247</v>
       </c>
-      <c r="AQ99" t="s">
+      <c r="AQ99" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -13767,7 +13767,7 @@
       <c r="AA100" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB100"/>
+      <c r="AB100" s="8"/>
       <c r="AC100" t="n">
         <v>1.0</v>
       </c>
@@ -13810,7 +13810,7 @@
       <c r="AP100" t="s">
         <v>248</v>
       </c>
-      <c r="AQ100" t="s">
+      <c r="AQ100" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -13896,11 +13896,11 @@
       <c r="AA101" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB101"/>
+      <c r="AB101" s="8"/>
       <c r="AC101" t="n">
         <v>1.0</v>
       </c>
-      <c r="AD101"/>
+      <c r="AD101" s="8"/>
       <c r="AE101" t="n">
         <v>0.0</v>
       </c>
@@ -13937,7 +13937,7 @@
       <c r="AP101" t="s">
         <v>249</v>
       </c>
-      <c r="AQ101" t="s">
+      <c r="AQ101" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -14023,7 +14023,7 @@
       <c r="AA102" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB102"/>
+      <c r="AB102" s="8"/>
       <c r="AC102" t="n">
         <v>1.0</v>
       </c>
@@ -14066,7 +14066,7 @@
       <c r="AP102" t="s">
         <v>250</v>
       </c>
-      <c r="AQ102" t="s">
+      <c r="AQ102" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       <c r="AB103" t="n">
         <v>15.0</v>
       </c>
-      <c r="AC103"/>
+      <c r="AC103" s="8"/>
       <c r="AD103" t="n">
         <v>1.0</v>
       </c>
@@ -14195,7 +14195,7 @@
       <c r="AP103" t="s">
         <v>251</v>
       </c>
-      <c r="AQ103" t="s">
+      <c r="AQ103" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       <c r="AA104" t="n">
         <v>3.0</v>
       </c>
-      <c r="AB104"/>
+      <c r="AB104" s="8"/>
       <c r="AC104" t="n">
         <v>1.0</v>
       </c>
@@ -14324,7 +14324,7 @@
       <c r="AP104" t="s">
         <v>245</v>
       </c>
-      <c r="AQ104" t="s">
+      <c r="AQ104" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
       <c r="AB105" t="n">
         <v>9.0</v>
       </c>
-      <c r="AC105"/>
+      <c r="AC105" s="8"/>
       <c r="AD105" t="n">
         <v>1.0</v>
       </c>
@@ -14453,7 +14453,7 @@
       <c r="AP105" t="s">
         <v>252</v>
       </c>
-      <c r="AQ105" t="s">
+      <c r="AQ105" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -14584,7 +14584,7 @@
       <c r="AP106" t="s">
         <v>253</v>
       </c>
-      <c r="AQ106" t="s">
+      <c r="AQ106" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -14670,7 +14670,7 @@
       <c r="AA107" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB107"/>
+      <c r="AB107" s="8"/>
       <c r="AC107" t="n">
         <v>1.0</v>
       </c>
@@ -14701,7 +14701,7 @@
       <c r="AL107" t="n">
         <v>0.0</v>
       </c>
-      <c r="AM107"/>
+      <c r="AM107" s="8"/>
       <c r="AN107" t="s">
         <v>160</v>
       </c>
@@ -14711,7 +14711,7 @@
       <c r="AP107" t="s">
         <v>254</v>
       </c>
-      <c r="AQ107" t="s">
+      <c r="AQ107" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       <c r="AA108" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB108"/>
+      <c r="AB108" s="8"/>
       <c r="AC108" t="n">
         <v>1.0</v>
       </c>
@@ -14840,7 +14840,7 @@
       <c r="AP108" t="s">
         <v>255</v>
       </c>
-      <c r="AQ108" t="s">
+      <c r="AQ108" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -14929,7 +14929,7 @@
       <c r="AB109" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC109"/>
+      <c r="AC109" s="8"/>
       <c r="AD109" t="n">
         <v>1.0</v>
       </c>
@@ -14969,7 +14969,7 @@
       <c r="AP109" t="s">
         <v>256</v>
       </c>
-      <c r="AQ109" t="s">
+      <c r="AQ109" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -15058,7 +15058,7 @@
       <c r="AB110" t="n">
         <v>15.0</v>
       </c>
-      <c r="AC110"/>
+      <c r="AC110" s="8"/>
       <c r="AD110" t="n">
         <v>1.0</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="AP110" t="s">
         <v>257</v>
       </c>
-      <c r="AQ110" t="s">
+      <c r="AQ110" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -15184,7 +15184,7 @@
       <c r="AA111" t="n">
         <v>26.0</v>
       </c>
-      <c r="AB111"/>
+      <c r="AB111" s="8"/>
       <c r="AC111" t="n">
         <v>3.0</v>
       </c>
@@ -15227,7 +15227,7 @@
       <c r="AP111" t="s">
         <v>258</v>
       </c>
-      <c r="AQ111" t="s">
+      <c r="AQ111" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -15358,7 +15358,7 @@
       <c r="AP112" t="s">
         <v>259</v>
       </c>
-      <c r="AQ112" t="s">
+      <c r="AQ112" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -15444,7 +15444,7 @@
       <c r="AA113" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB113"/>
+      <c r="AB113" s="8"/>
       <c r="AC113" t="n">
         <v>1.0</v>
       </c>
@@ -15487,7 +15487,7 @@
       <c r="AP113" t="s">
         <v>260</v>
       </c>
-      <c r="AQ113" t="s">
+      <c r="AQ113" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
       <c r="AA114" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB114"/>
+      <c r="AB114" s="8"/>
       <c r="AC114" t="n">
         <v>0.0</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="AP114" t="s">
         <v>148</v>
       </c>
-      <c r="AQ114" t="s">
+      <c r="AQ114" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -15747,7 +15747,7 @@
       <c r="AP115" t="s">
         <v>140</v>
       </c>
-      <c r="AQ115" t="s">
+      <c r="AQ115" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -15833,7 +15833,7 @@
       <c r="AA116" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB116"/>
+      <c r="AB116" s="8"/>
       <c r="AC116" t="n">
         <v>1.0</v>
       </c>
@@ -15876,7 +15876,7 @@
       <c r="AP116" t="s">
         <v>261</v>
       </c>
-      <c r="AQ116" t="s">
+      <c r="AQ116" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -15962,7 +15962,7 @@
       <c r="AA117" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB117"/>
+      <c r="AB117" s="8"/>
       <c r="AC117" t="n">
         <v>1.0</v>
       </c>
@@ -16005,7 +16005,7 @@
       <c r="AP117" t="s">
         <v>262</v>
       </c>
-      <c r="AQ117" t="s">
+      <c r="AQ117" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       <c r="AA118" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB118"/>
+      <c r="AB118" s="8"/>
       <c r="AC118" t="n">
         <v>1.0</v>
       </c>
@@ -16134,7 +16134,7 @@
       <c r="AP118" t="s">
         <v>263</v>
       </c>
-      <c r="AQ118" t="s">
+      <c r="AQ118" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -16265,7 +16265,7 @@
       <c r="AP119" t="s">
         <v>264</v>
       </c>
-      <c r="AQ119" t="s">
+      <c r="AQ119" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -16351,7 +16351,7 @@
       <c r="AA120" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB120"/>
+      <c r="AB120" s="8"/>
       <c r="AC120" t="n">
         <v>1.0</v>
       </c>
@@ -16394,7 +16394,7 @@
       <c r="AP120" t="s">
         <v>265</v>
       </c>
-      <c r="AQ120" t="s">
+      <c r="AQ120" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -16480,7 +16480,7 @@
       <c r="AA121" t="n">
         <v>9.0</v>
       </c>
-      <c r="AB121"/>
+      <c r="AB121" s="8"/>
       <c r="AC121" t="n">
         <v>1.0</v>
       </c>
@@ -16523,7 +16523,7 @@
       <c r="AP121" t="s">
         <v>97</v>
       </c>
-      <c r="AQ121" t="s">
+      <c r="AQ121" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -16609,7 +16609,7 @@
       <c r="AA122" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB122"/>
+      <c r="AB122" s="8"/>
       <c r="AC122" t="n">
         <v>1.0</v>
       </c>
@@ -16652,7 +16652,7 @@
       <c r="AP122" t="s">
         <v>266</v>
       </c>
-      <c r="AQ122" t="s">
+      <c r="AQ122" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -16738,7 +16738,7 @@
       <c r="AA123" t="n">
         <v>9.0</v>
       </c>
-      <c r="AB123"/>
+      <c r="AB123" s="8"/>
       <c r="AC123" t="n">
         <v>1.0</v>
       </c>
@@ -16781,7 +16781,7 @@
       <c r="AP123" t="s">
         <v>267</v>
       </c>
-      <c r="AQ123" t="s">
+      <c r="AQ123" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -16867,7 +16867,7 @@
       <c r="AA124" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB124"/>
+      <c r="AB124" s="8"/>
       <c r="AC124" t="n">
         <v>2.0</v>
       </c>
@@ -16910,7 +16910,7 @@
       <c r="AP124" t="s">
         <v>153</v>
       </c>
-      <c r="AQ124" t="s">
+      <c r="AQ124" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -16996,7 +16996,7 @@
       <c r="AA125" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB125"/>
+      <c r="AB125" s="8"/>
       <c r="AC125" t="n">
         <v>1.0</v>
       </c>
@@ -17039,7 +17039,7 @@
       <c r="AP125" t="s">
         <v>268</v>
       </c>
-      <c r="AQ125" t="s">
+      <c r="AQ125" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -17161,10 +17161,10 @@
       <c r="AM126" t="n">
         <v>1.0</v>
       </c>
-      <c r="AN126" t="s">
+      <c r="AN126" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="AO126"/>
+      <c r="AO126" s="8"/>
       <c r="AP126" t="s">
         <v>269</v>
       </c>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -1403,7 +1403,7 @@
       <c r="Y4" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" t="n" s="12">
         <v>434.0</v>
       </c>
       <c r="AA4" t="n">
@@ -1592,7 +1592,7 @@
       <c r="B6" t="n">
         <v>1.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="n" s="12">
         <v>37.0</v>
       </c>
       <c r="D6" t="n">
@@ -1661,7 +1661,7 @@
       <c r="Y6" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" t="n" s="12">
         <v>410.0</v>
       </c>
       <c r="AA6" t="n">
@@ -2177,7 +2177,7 @@
       <c r="Y10" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10" t="n" s="12">
         <v>483.0</v>
       </c>
       <c r="AA10" t="n">
@@ -3683,10 +3683,10 @@
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" t="n" s="12">
         <v>7.2</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" t="n" s="12">
         <v>8.9</v>
       </c>
       <c r="N22" t="n">
@@ -4328,7 +4328,7 @@
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" t="n" s="12">
         <v>7.8</v>
       </c>
       <c r="M27" t="n">
@@ -4349,7 +4349,7 @@
       <c r="R27" t="n">
         <v>1.0</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27" t="n" s="12">
         <v>24.0</v>
       </c>
       <c r="T27" t="n">
@@ -5384,7 +5384,7 @@
       <c r="Y35" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="Z35" t="n" s="12">
         <v>443.0</v>
       </c>
       <c r="AA35" t="n">
@@ -5864,10 +5864,10 @@
       <c r="M39" t="n">
         <v>1.64</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39" t="n" s="12">
         <v>158.0</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39" t="n" s="12">
         <v>104.0</v>
       </c>
       <c r="P39" t="n">
@@ -5900,7 +5900,7 @@
       <c r="Y39" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="Z39" t="n" s="12">
         <v>410.0</v>
       </c>
       <c r="AA39" t="n">
@@ -6124,7 +6124,7 @@
       <c r="O41" t="n">
         <v>38.0</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41" t="n" s="12">
         <v>1.8</v>
       </c>
       <c r="Q41" t="n">
@@ -6262,7 +6262,7 @@
       <c r="R42" t="n">
         <v>1.0</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42" t="n" s="12">
         <v>1.0</v>
       </c>
       <c r="T42" t="n">
@@ -6631,7 +6631,7 @@
       <c r="L45" t="n">
         <v>3.64</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" t="n" s="12">
         <v>4.59</v>
       </c>
       <c r="N45" t="n">
@@ -6670,7 +6670,7 @@
       <c r="Y45" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="Z45" t="n" s="12">
         <v>592.0</v>
       </c>
       <c r="AA45" t="n">
@@ -7276,7 +7276,7 @@
       <c r="L50" t="n">
         <v>1.7</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50" t="n" s="12">
         <v>3.72</v>
       </c>
       <c r="N50" t="n">
@@ -8671,7 +8671,7 @@
       <c r="B61" t="n">
         <v>1.0</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" t="n" s="12">
         <v>32.0</v>
       </c>
       <c r="D61" t="n">
@@ -8829,10 +8829,10 @@
       <c r="K62" t="n">
         <v>0.0</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62" t="n" s="12">
         <v>7.4</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" t="n" s="12">
         <v>4.7</v>
       </c>
       <c r="N62" t="n">
@@ -9108,7 +9108,7 @@
       <c r="R64" t="n">
         <v>1.0</v>
       </c>
-      <c r="S64" t="n">
+      <c r="S64" t="n" s="12">
         <v>19.0</v>
       </c>
       <c r="T64" t="n">
@@ -9601,10 +9601,10 @@
       <c r="K68" t="n">
         <v>1.0</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68" t="n" s="12">
         <v>12.0</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" t="n" s="12">
         <v>4.2</v>
       </c>
       <c r="N68" t="n">
@@ -9733,7 +9733,7 @@
       <c r="L69" t="n">
         <v>4.1</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" t="n" s="12">
         <v>6.4</v>
       </c>
       <c r="N69" t="n">
@@ -9775,10 +9775,10 @@
       <c r="Z69" t="n">
         <v>240.0</v>
       </c>
-      <c r="AA69" t="n">
+      <c r="AA69" t="n" s="12">
         <v>36.0</v>
       </c>
-      <c r="AB69" t="n">
+      <c r="AB69" t="n" s="12">
         <v>21.0</v>
       </c>
       <c r="AC69" s="8"/>
@@ -9901,7 +9901,7 @@
       <c r="Y70" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="Z70" t="n" s="12">
         <v>480.0</v>
       </c>
       <c r="AA70" t="n">
@@ -10086,7 +10086,7 @@
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" t="n" s="12">
         <v>37.0</v>
       </c>
       <c r="D72" t="n">
@@ -10287,7 +10287,7 @@
       <c r="Z73" t="n">
         <v>74.0</v>
       </c>
-      <c r="AA73" t="n">
+      <c r="AA73" t="n" s="12">
         <v>23.0</v>
       </c>
       <c r="AB73" t="n">
@@ -10545,7 +10545,7 @@
       <c r="Z75" t="n">
         <v>164.0</v>
       </c>
-      <c r="AA75" t="n">
+      <c r="AA75" t="n" s="12">
         <v>27.0</v>
       </c>
       <c r="AB75" t="n">
@@ -10674,7 +10674,7 @@
       <c r="Z76" t="n">
         <v>147.0</v>
       </c>
-      <c r="AA76" t="n">
+      <c r="AA76" t="n" s="12">
         <v>23.0</v>
       </c>
       <c r="AB76" t="n">
@@ -11017,7 +11017,7 @@
       <c r="L79" t="n">
         <v>4.0</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M79" t="n" s="12">
         <v>4.2</v>
       </c>
       <c r="N79" t="n">
@@ -11317,7 +11317,7 @@
       <c r="Z81" t="n">
         <v>130.0</v>
       </c>
-      <c r="AA81" t="n">
+      <c r="AA81" t="n" s="12">
         <v>49.0</v>
       </c>
       <c r="AB81" t="n">
@@ -11376,7 +11376,7 @@
       <c r="B82" t="n">
         <v>1.0</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" t="n" s="12">
         <v>38.0</v>
       </c>
       <c r="D82" t="n">
@@ -11448,7 +11448,7 @@
       <c r="Z82" t="n">
         <v>150.0</v>
       </c>
-      <c r="AA82" t="n">
+      <c r="AA82" t="n" s="12">
         <v>26.0</v>
       </c>
       <c r="AB82" t="n">
@@ -11796,7 +11796,7 @@
       <c r="M85" t="n">
         <v>1.0</v>
       </c>
-      <c r="N85" t="n">
+      <c r="N85" t="n" s="12">
         <v>163.0</v>
       </c>
       <c r="O85" t="n">
@@ -12183,10 +12183,10 @@
       <c r="M88" t="n">
         <v>0.9</v>
       </c>
-      <c r="N88" t="n">
+      <c r="N88" t="n" s="12">
         <v>169.0</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O88" t="n" s="12">
         <v>103.0</v>
       </c>
       <c r="P88" t="n">
@@ -12349,10 +12349,10 @@
         <v>1.0</v>
       </c>
       <c r="Z89" s="8"/>
-      <c r="AA89" t="n">
+      <c r="AA89" t="n" s="12">
         <v>34.0</v>
       </c>
-      <c r="AB89" t="n">
+      <c r="AB89" t="n" s="12">
         <v>21.0</v>
       </c>
       <c r="AC89" t="n">
@@ -13123,7 +13123,7 @@
       <c r="Z95" t="n">
         <v>172.0</v>
       </c>
-      <c r="AA95" t="n">
+      <c r="AA95" t="n" s="12">
         <v>29.0</v>
       </c>
       <c r="AB95" t="n">
@@ -13378,7 +13378,7 @@
       <c r="Y97" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z97" t="n">
+      <c r="Z97" t="n" s="12">
         <v>467.0</v>
       </c>
       <c r="AA97" s="8"/>
@@ -13821,7 +13821,7 @@
       <c r="B101" t="n">
         <v>1.0</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" t="n" s="12">
         <v>38.0</v>
       </c>
       <c r="D101" t="n">
@@ -14107,7 +14107,7 @@
       <c r="L103" t="n">
         <v>4.6</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M103" t="n" s="12">
         <v>4.1</v>
       </c>
       <c r="N103" t="n">
@@ -14149,7 +14149,7 @@
       <c r="Z103" t="n">
         <v>114.0</v>
       </c>
-      <c r="AA103" t="n">
+      <c r="AA103" t="n" s="12">
         <v>27.0</v>
       </c>
       <c r="AB103" t="n">
@@ -14275,7 +14275,7 @@
       <c r="Y104" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z104" t="n">
+      <c r="Z104" t="n" s="12">
         <v>436.0</v>
       </c>
       <c r="AA104" t="n">
@@ -14598,7 +14598,7 @@
       <c r="C107" t="n">
         <v>51.0</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" t="n" s="12">
         <v>144.0</v>
       </c>
       <c r="E107" t="n">
@@ -14722,7 +14722,7 @@
       <c r="B108" t="n">
         <v>1.0</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" t="n" s="12">
         <v>32.0</v>
       </c>
       <c r="D108" t="n">
@@ -14851,7 +14851,7 @@
       <c r="B109" t="n">
         <v>1.0</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" t="n" s="12">
         <v>78.0</v>
       </c>
       <c r="D109" t="n">
@@ -14923,7 +14923,7 @@
       <c r="Z109" t="n">
         <v>133.0</v>
       </c>
-      <c r="AA109" t="n">
+      <c r="AA109" t="n" s="12">
         <v>24.0</v>
       </c>
       <c r="AB109" t="n">
@@ -15007,10 +15007,10 @@
       <c r="K110" t="n">
         <v>0.0</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L110" t="n" s="12">
         <v>6.9</v>
       </c>
-      <c r="M110" t="n">
+      <c r="M110" t="n" s="12">
         <v>3.9</v>
       </c>
       <c r="N110" t="n">
@@ -15052,7 +15052,7 @@
       <c r="Z110" t="n">
         <v>155.0</v>
       </c>
-      <c r="AA110" t="n">
+      <c r="AA110" t="n" s="12">
         <v>27.0</v>
       </c>
       <c r="AB110" t="n">
@@ -15181,7 +15181,7 @@
       <c r="Z111" t="n">
         <v>192.0</v>
       </c>
-      <c r="AA111" t="n">
+      <c r="AA111" t="n" s="12">
         <v>26.0</v>
       </c>
       <c r="AB111" s="8"/>
@@ -15241,7 +15241,7 @@
       <c r="C112" t="n">
         <v>72.0</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" t="n" s="12">
         <v>126.0</v>
       </c>
       <c r="E112" t="n">
@@ -15369,7 +15369,7 @@
       <c r="B113" t="n">
         <v>1.0</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" t="n" s="12">
         <v>22.0</v>
       </c>
       <c r="D113" t="n">
@@ -16016,7 +16016,7 @@
       <c r="B118" t="n">
         <v>1.0</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" t="n" s="12">
         <v>24.0</v>
       </c>
       <c r="D118" t="n">
@@ -16175,7 +16175,7 @@
       <c r="L119" t="n">
         <v>4.1</v>
       </c>
-      <c r="M119" t="n">
+      <c r="M119" t="n" s="12">
         <v>4.3</v>
       </c>
       <c r="N119" t="n">
@@ -16276,7 +16276,7 @@
       <c r="B120" t="n">
         <v>1.0</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" t="n" s="12">
         <v>25.0</v>
       </c>
       <c r="D120" t="n">
@@ -16840,7 +16840,7 @@
       <c r="R124" t="n">
         <v>1.0</v>
       </c>
-      <c r="S124" t="n">
+      <c r="S124" t="n" s="12">
         <v>24.0</v>
       </c>
       <c r="T124" t="n">
@@ -16951,7 +16951,7 @@
       <c r="L125" t="n">
         <v>2.3</v>
       </c>
-      <c r="M125" t="n">
+      <c r="M125" t="n" s="12">
         <v>3.9</v>
       </c>
       <c r="N125" t="n">
@@ -16990,7 +16990,7 @@
       <c r="Y125" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z125" t="n">
+      <c r="Z125" t="n" s="12">
         <v>526.0</v>
       </c>
       <c r="AA125" t="n">

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="272">
   <si>
     <t>Пациент</t>
   </si>
@@ -828,9 +828,6 @@
   </si>
   <si>
     <t>лет</t>
-  </si>
-  <si>
-    <t>Пропущенные значения</t>
   </si>
 </sst>
 </file>
@@ -888,18 +885,18 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="EE5C42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="EE5C42"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="EE5C42"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -1011,13 +1008,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="A2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.0" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="4.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.17578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="4.84375" customWidth="true" bestFit="true"/>
@@ -1062,11 +1059,7 @@
     <col min="43" max="43" width="4.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="8">
-        <v>272</v>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="274">
   <si>
     <t>Пациент</t>
   </si>
@@ -828,6 +828,12 @@
   </si>
   <si>
     <t>лет</t>
+  </si>
+  <si>
+    <t>Пропущенные значения</t>
+  </si>
+  <si>
+    <t>Выбросы</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1020,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="4.43359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.17578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="4.84375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.75390625" customWidth="true" bestFit="true"/>
@@ -1059,7 +1065,14 @@
     <col min="43" max="43" width="4.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s" s="8">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s" s="12">
+        <v>273</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="A1" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="306">
   <si>
     <t>Пациент</t>
   </si>
@@ -134,6 +134,99 @@
     <t>PCI</t>
   </si>
   <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1 тип</t>
+  </si>
+  <si>
+    <t>2 тип</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>0,85</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>1,05</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,65</t>
+  </si>
+  <si>
+    <t>0,78</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>0,58</t>
+  </si>
+  <si>
+    <t>1,09</t>
+  </si>
+  <si>
+    <t>1,38</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>0,59</t>
+  </si>
+  <si>
+    <t>1,24</t>
+  </si>
+  <si>
+    <t>0,75</t>
+  </si>
+  <si>
+    <t>0,88</t>
+  </si>
+  <si>
+    <t>0, 92</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
     <t>19.02.2009</t>
   </si>
   <si>
@@ -491,15 +584,18 @@
     <t>25.02.2012</t>
   </si>
   <si>
-    <t>29.03.2013</t>
-  </si>
-  <si>
     <t>bms</t>
   </si>
   <si>
     <t>des</t>
   </si>
   <si>
+    <t xml:space="preserve">des </t>
+  </si>
+  <si>
+    <t>des_bms</t>
+  </si>
+  <si>
     <t>20.02.2010</t>
   </si>
   <si>
@@ -566,6 +662,9 @@
     <t>30.03.2013</t>
   </si>
   <si>
+    <t>18.09.2012</t>
+  </si>
+  <si>
     <t>31.05.2013</t>
   </si>
   <si>
@@ -821,19 +920,16 @@
     <t>25.02.2013</t>
   </si>
   <si>
-    <t>02.04.2013</t>
-  </si>
-  <si>
     <t>ок</t>
   </si>
   <si>
     <t>лет</t>
   </si>
   <si>
-    <t>Пропущенные значения</t>
-  </si>
-  <si>
-    <t>Выбросы</t>
+    <t>??????????? ????????</t>
+  </si>
+  <si>
+    <t>???????</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1116,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.4921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.17578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="4.84375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.75390625" customWidth="true" bestFit="true"/>
@@ -1067,10 +1163,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s" s="12">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
@@ -1208,8 +1304,8 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" t="n">
         <v>54.0</v>
@@ -1217,8 +1313,8 @@
       <c r="D3" t="n">
         <v>75.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
+      <c r="E3" t="s">
+        <v>43</v>
       </c>
       <c r="F3" t="n">
         <v>3.0</v>
@@ -1250,8 +1346,8 @@
       <c r="O3" t="n">
         <v>36.0</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.5</v>
+      <c r="P3" t="s">
+        <v>46</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1275,7 +1371,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1327,18 +1423,18 @@
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AQ3" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
       <c r="C4" t="n">
         <v>51.0</v>
@@ -1346,8 +1442,8 @@
       <c r="D4" t="n">
         <v>56.0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
+      <c r="E4" t="s">
+        <v>43</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1379,8 +1475,8 @@
       <c r="O4" t="n">
         <v>45.0</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.2</v>
+      <c r="P4" t="s">
+        <v>47</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1404,7 +1500,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1456,18 +1552,18 @@
       </c>
       <c r="AO4" s="8"/>
       <c r="AP4" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="AQ4" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.0</v>
+      <c r="B5" t="s">
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>56.0</v>
@@ -1475,8 +1571,8 @@
       <c r="D5" t="n">
         <v>83.0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
+      <c r="E5" t="s">
+        <v>43</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1508,8 +1604,8 @@
       <c r="O5" t="n">
         <v>85.0</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.5</v>
+      <c r="P5" t="s">
+        <v>46</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -1533,7 +1629,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -1585,18 +1681,18 @@
       </c>
       <c r="AO5" s="8"/>
       <c r="AP5" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="AQ5" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
+      <c r="B6" t="s">
+        <v>40</v>
       </c>
       <c r="C6" t="n" s="12">
         <v>37.0</v>
@@ -1604,8 +1700,8 @@
       <c r="D6" t="n">
         <v>79.0</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
+      <c r="E6" t="s">
+        <v>43</v>
       </c>
       <c r="F6" t="n">
         <v>3.0</v>
@@ -1637,8 +1733,8 @@
       <c r="O6" t="n">
         <v>49.0</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.3</v>
+      <c r="P6" t="s">
+        <v>48</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -1662,7 +1758,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -1714,18 +1810,18 @@
       </c>
       <c r="AO6" s="8"/>
       <c r="AP6" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="AQ6" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.0</v>
+      <c r="B7" t="s">
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>57.0</v>
@@ -1733,8 +1829,8 @@
       <c r="D7" t="n">
         <v>75.0</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.0</v>
+      <c r="E7" t="s">
+        <v>43</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -1766,8 +1862,8 @@
       <c r="O7" t="n">
         <v>43.0</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.2</v>
+      <c r="P7" t="s">
+        <v>47</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -1791,7 +1887,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -1843,18 +1939,18 @@
       </c>
       <c r="AO7" s="8"/>
       <c r="AP7" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="AQ7" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="n">
-        <v>1.0</v>
+      <c r="B8" t="s">
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>44.0</v>
@@ -1862,8 +1958,8 @@
       <c r="D8" t="n">
         <v>61.0</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
       <c r="F8" t="n">
         <v>3.0</v>
@@ -1895,8 +1991,8 @@
       <c r="O8" t="n">
         <v>53.0</v>
       </c>
-      <c r="P8" t="n">
-        <v>0.85</v>
+      <c r="P8" t="s">
+        <v>49</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -1920,7 +2016,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -1972,18 +2068,18 @@
       </c>
       <c r="AO8" s="8"/>
       <c r="AP8" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="AQ8" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.0</v>
+      <c r="B9" t="s">
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>56.0</v>
@@ -1991,8 +2087,8 @@
       <c r="D9" t="n">
         <v>81.0</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
+      <c r="E9" t="s">
+        <v>43</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2024,8 +2120,8 @@
       <c r="O9" t="n">
         <v>70.0</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.8</v>
+      <c r="P9" t="s">
+        <v>50</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2049,7 +2145,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2101,18 +2197,18 @@
       </c>
       <c r="AO9" s="8"/>
       <c r="AP9" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AQ9" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="n">
-        <v>1.0</v>
+      <c r="B10" t="s">
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>59.0</v>
@@ -2120,8 +2216,8 @@
       <c r="D10" t="n">
         <v>66.0</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
+      <c r="E10" t="s">
+        <v>43</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2153,8 +2249,8 @@
       <c r="O10" t="n">
         <v>40.0</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.3</v>
+      <c r="P10" t="s">
+        <v>48</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2178,7 +2274,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2230,18 +2326,18 @@
       </c>
       <c r="AO10" s="8"/>
       <c r="AP10" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AQ10" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.0</v>
+      <c r="B11" t="s">
+        <v>41</v>
       </c>
       <c r="C11" t="n">
         <v>59.0</v>
@@ -2249,8 +2345,8 @@
       <c r="D11" t="n">
         <v>84.0</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.0</v>
+      <c r="E11" t="s">
+        <v>43</v>
       </c>
       <c r="F11" t="n">
         <v>3.0</v>
@@ -2282,8 +2378,8 @@
       <c r="O11" t="n">
         <v>45.0</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.3</v>
+      <c r="P11" t="s">
+        <v>48</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2307,7 +2403,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2359,18 +2455,18 @@
       </c>
       <c r="AO11" s="8"/>
       <c r="AP11" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AQ11" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="n">
-        <v>1.0</v>
+      <c r="B12" t="s">
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>59.0</v>
@@ -2378,8 +2474,8 @@
       <c r="D12" t="n">
         <v>86.0</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
+      <c r="E12" t="s">
+        <v>43</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -2411,8 +2507,8 @@
       <c r="O12" t="n">
         <v>39.0</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.7</v>
+      <c r="P12" t="s">
+        <v>51</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2436,7 +2532,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2488,18 +2584,18 @@
       </c>
       <c r="AO12" s="8"/>
       <c r="AP12" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="AQ12" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="n">
-        <v>1.0</v>
+      <c r="B13" t="s">
+        <v>40</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -2507,8 +2603,8 @@
       <c r="D13" t="n">
         <v>84.0</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
+      <c r="E13" t="s">
+        <v>43</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -2540,8 +2636,8 @@
       <c r="O13" t="n">
         <v>45.0</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.05</v>
+      <c r="P13" t="s">
+        <v>52</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -2565,7 +2661,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -2617,18 +2713,18 @@
       </c>
       <c r="AO13" s="8"/>
       <c r="AP13" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AQ13" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="n">
-        <v>1.0</v>
+      <c r="B14" t="s">
+        <v>40</v>
       </c>
       <c r="C14" t="n">
         <v>66.0</v>
@@ -2636,8 +2732,8 @@
       <c r="D14" t="n">
         <v>88.0</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.0</v>
+      <c r="E14" t="s">
+        <v>43</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -2669,8 +2765,8 @@
       <c r="O14" t="n">
         <v>40.0</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.2</v>
+      <c r="P14" t="s">
+        <v>47</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -2694,7 +2790,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -2746,18 +2842,18 @@
       </c>
       <c r="AO14" s="8"/>
       <c r="AP14" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="AQ14" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.0</v>
+      <c r="B15" t="s">
+        <v>40</v>
       </c>
       <c r="C15" t="n">
         <v>60.0</v>
@@ -2765,8 +2861,8 @@
       <c r="D15" t="n">
         <v>59.0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
+      <c r="E15" t="s">
+        <v>43</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -2798,8 +2894,8 @@
       <c r="O15" t="n">
         <v>75.0</v>
       </c>
-      <c r="P15" t="n">
-        <v>0.8</v>
+      <c r="P15" t="s">
+        <v>50</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -2823,7 +2919,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -2875,18 +2971,18 @@
       </c>
       <c r="AO15" s="8"/>
       <c r="AP15" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="AQ15" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="n">
-        <v>1.0</v>
+      <c r="B16" t="s">
+        <v>40</v>
       </c>
       <c r="C16" t="n">
         <v>55.0</v>
@@ -2894,8 +2990,8 @@
       <c r="D16" t="n">
         <v>74.0</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
+      <c r="E16" t="s">
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>3.0</v>
@@ -2927,8 +3023,8 @@
       <c r="O16" t="n">
         <v>45.0</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.2</v>
+      <c r="P16" t="s">
+        <v>47</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -2952,7 +3048,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3004,18 +3100,18 @@
       </c>
       <c r="AO16" s="8"/>
       <c r="AP16" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="AQ16" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.0</v>
+      <c r="B17" t="s">
+        <v>41</v>
       </c>
       <c r="C17" t="n">
         <v>63.0</v>
@@ -3023,8 +3119,8 @@
       <c r="D17" t="n">
         <v>89.0</v>
       </c>
-      <c r="E17" t="n">
-        <v>1.0</v>
+      <c r="E17" t="s">
+        <v>42</v>
       </c>
       <c r="F17" t="n">
         <v>3.0</v>
@@ -3056,8 +3152,8 @@
       <c r="O17" t="n">
         <v>62.0</v>
       </c>
-      <c r="P17" t="n">
-        <v>0.7</v>
+      <c r="P17" t="s">
+        <v>51</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3081,7 +3177,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3133,18 +3229,18 @@
       </c>
       <c r="AO17" s="8"/>
       <c r="AP17" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AQ17" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="n">
-        <v>1.0</v>
+      <c r="B18" t="s">
+        <v>40</v>
       </c>
       <c r="C18" t="n">
         <v>58.0</v>
@@ -3152,8 +3248,8 @@
       <c r="D18" t="n">
         <v>71.0</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.0</v>
+      <c r="E18" t="s">
+        <v>43</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -3185,8 +3281,8 @@
       <c r="O18" t="n">
         <v>37.0</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.0</v>
+      <c r="P18" t="s">
+        <v>42</v>
       </c>
       <c r="Q18" t="n">
         <v>1.0</v>
@@ -3210,7 +3306,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3262,18 +3358,18 @@
       </c>
       <c r="AO18" s="8"/>
       <c r="AP18" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AQ18" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>1.0</v>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
       <c r="C19" t="n">
         <v>53.0</v>
@@ -3281,8 +3377,8 @@
       <c r="D19" t="n">
         <v>74.0</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.0</v>
+      <c r="E19" t="s">
+        <v>43</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -3314,8 +3410,8 @@
       <c r="O19" t="n">
         <v>53.0</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.0</v>
+      <c r="P19" t="s">
+        <v>42</v>
       </c>
       <c r="Q19" t="n">
         <v>1.0</v>
@@ -3339,7 +3435,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3391,18 +3487,18 @@
       </c>
       <c r="AO19" s="8"/>
       <c r="AP19" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="AQ19" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="n">
-        <v>1.0</v>
+      <c r="B20" t="s">
+        <v>40</v>
       </c>
       <c r="C20" t="n">
         <v>62.0</v>
@@ -3410,8 +3506,8 @@
       <c r="D20" t="n">
         <v>79.0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.0</v>
+      <c r="E20" t="s">
+        <v>43</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -3443,8 +3539,8 @@
       <c r="O20" t="n">
         <v>63.0</v>
       </c>
-      <c r="P20" t="n">
-        <v>0.7</v>
+      <c r="P20" t="s">
+        <v>51</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3468,7 +3564,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -3520,18 +3616,18 @@
       </c>
       <c r="AO20" s="8"/>
       <c r="AP20" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AQ20" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="n">
-        <v>1.0</v>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
       <c r="C21" t="n">
         <v>55.0</v>
@@ -3539,8 +3635,8 @@
       <c r="D21" t="n">
         <v>102.0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.0</v>
+      <c r="E21" t="s">
+        <v>43</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -3572,8 +3668,8 @@
       <c r="O21" t="n">
         <v>42.0</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.8</v>
+      <c r="P21" t="s">
+        <v>50</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -3597,7 +3693,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -3649,18 +3745,18 @@
       </c>
       <c r="AO21" s="8"/>
       <c r="AP21" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AQ21" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="n">
-        <v>1.0</v>
+      <c r="B22" t="s">
+        <v>40</v>
       </c>
       <c r="C22" t="n">
         <v>59.0</v>
@@ -3668,8 +3764,8 @@
       <c r="D22" t="n">
         <v>71.0</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.0</v>
+      <c r="E22" t="s">
+        <v>43</v>
       </c>
       <c r="F22" t="n">
         <v>3.0</v>
@@ -3701,8 +3797,8 @@
       <c r="O22" t="n">
         <v>34.0</v>
       </c>
-      <c r="P22" t="n">
-        <v>0.8</v>
+      <c r="P22" t="s">
+        <v>50</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -3726,7 +3822,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -3778,18 +3874,18 @@
       </c>
       <c r="AO22" s="8"/>
       <c r="AP22" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="AQ22" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="n">
-        <v>0.0</v>
+      <c r="B23" t="s">
+        <v>41</v>
       </c>
       <c r="C23" t="n">
         <v>59.0</v>
@@ -3797,8 +3893,8 @@
       <c r="D23" t="n">
         <v>64.0</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.0</v>
+      <c r="E23" t="s">
+        <v>43</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -3830,8 +3926,8 @@
       <c r="O23" t="n">
         <v>54.0</v>
       </c>
-      <c r="P23" t="n">
-        <v>0.9</v>
+      <c r="P23" t="s">
+        <v>53</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -3855,7 +3951,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -3907,18 +4003,18 @@
       </c>
       <c r="AO23" s="8"/>
       <c r="AP23" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AQ23" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="n">
-        <v>1.0</v>
+      <c r="B24" t="s">
+        <v>40</v>
       </c>
       <c r="C24" t="n">
         <v>60.0</v>
@@ -3926,8 +4022,8 @@
       <c r="D24" t="n">
         <v>64.0</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.0</v>
+      <c r="E24" t="s">
+        <v>43</v>
       </c>
       <c r="F24" t="n">
         <v>3.0</v>
@@ -3959,8 +4055,8 @@
       <c r="O24" t="n">
         <v>56.0</v>
       </c>
-      <c r="P24" t="n">
-        <v>0.9</v>
+      <c r="P24" t="s">
+        <v>53</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -3984,7 +4080,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4036,18 +4132,18 @@
       </c>
       <c r="AO24" s="8"/>
       <c r="AP24" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AQ24" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.0</v>
+      <c r="B25" t="s">
+        <v>41</v>
       </c>
       <c r="C25" t="n">
         <v>52.0</v>
@@ -4055,8 +4151,8 @@
       <c r="D25" t="n">
         <v>61.0</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.0</v>
+      <c r="E25" t="s">
+        <v>43</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -4088,8 +4184,8 @@
       <c r="O25" t="n">
         <v>51.0</v>
       </c>
-      <c r="P25" t="n">
-        <v>0.6</v>
+      <c r="P25" t="s">
+        <v>54</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4113,7 +4209,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4165,18 +4261,18 @@
       </c>
       <c r="AO25" s="8"/>
       <c r="AP25" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AQ25" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="n">
-        <v>1.0</v>
+      <c r="B26" t="s">
+        <v>40</v>
       </c>
       <c r="C26" t="n">
         <v>63.0</v>
@@ -4184,8 +4280,8 @@
       <c r="D26" t="n">
         <v>71.0</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.0</v>
+      <c r="E26" t="s">
+        <v>43</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -4217,8 +4313,8 @@
       <c r="O26" t="n">
         <v>58.0</v>
       </c>
-      <c r="P26" t="n">
-        <v>0.8</v>
+      <c r="P26" t="s">
+        <v>50</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4242,7 +4338,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4294,18 +4390,18 @@
       </c>
       <c r="AO26" s="8"/>
       <c r="AP26" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="AQ26" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="n">
-        <v>1.0</v>
+      <c r="B27" t="s">
+        <v>40</v>
       </c>
       <c r="C27" t="n">
         <v>58.0</v>
@@ -4313,8 +4409,8 @@
       <c r="D27" t="n">
         <v>93.0</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.0</v>
+      <c r="E27" t="s">
+        <v>43</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -4346,8 +4442,8 @@
       <c r="O27" t="n">
         <v>39.0</v>
       </c>
-      <c r="P27" t="n">
-        <v>0.65</v>
+      <c r="P27" t="s">
+        <v>55</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4371,7 +4467,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4419,18 +4515,18 @@
       </c>
       <c r="AO27" s="8"/>
       <c r="AP27" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="AQ27" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="n">
-        <v>1.0</v>
+      <c r="B28" t="s">
+        <v>40</v>
       </c>
       <c r="C28" t="n">
         <v>59.0</v>
@@ -4438,8 +4534,8 @@
       <c r="D28" t="n">
         <v>80.0</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
+      <c r="E28" t="s">
+        <v>43</v>
       </c>
       <c r="F28" t="n">
         <v>3.0</v>
@@ -4471,8 +4567,8 @@
       <c r="O28" t="n">
         <v>36.0</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.2</v>
+      <c r="P28" t="s">
+        <v>47</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4496,7 +4592,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -4548,18 +4644,18 @@
       </c>
       <c r="AO28" s="8"/>
       <c r="AP28" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AQ28" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="n">
-        <v>1.0</v>
+      <c r="B29" t="s">
+        <v>40</v>
       </c>
       <c r="C29" t="n">
         <v>57.0</v>
@@ -4567,8 +4663,8 @@
       <c r="D29" t="n">
         <v>79.0</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
+      <c r="E29" t="s">
+        <v>43</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -4600,8 +4696,8 @@
       <c r="O29" t="n">
         <v>55.0</v>
       </c>
-      <c r="P29" t="n">
-        <v>0.78</v>
+      <c r="P29" t="s">
+        <v>56</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -4625,7 +4721,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -4675,18 +4771,18 @@
       </c>
       <c r="AO29" s="8"/>
       <c r="AP29" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AQ29" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="n">
-        <v>1.0</v>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
       <c r="C30" t="n">
         <v>63.0</v>
@@ -4694,8 +4790,8 @@
       <c r="D30" t="n">
         <v>70.0</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
+      <c r="E30" t="s">
+        <v>43</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -4727,8 +4823,8 @@
       <c r="O30" t="n">
         <v>64.0</v>
       </c>
-      <c r="P30" t="n">
-        <v>0.7</v>
+      <c r="P30" t="s">
+        <v>51</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -4752,7 +4848,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -4802,18 +4898,18 @@
       </c>
       <c r="AO30" s="8"/>
       <c r="AP30" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AQ30" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="n">
-        <v>1.0</v>
+      <c r="B31" t="s">
+        <v>40</v>
       </c>
       <c r="C31" t="n">
         <v>57.0</v>
@@ -4821,8 +4917,8 @@
       <c r="D31" t="n">
         <v>66.0</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
+      <c r="E31" t="s">
+        <v>43</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -4854,8 +4950,8 @@
       <c r="O31" t="n">
         <v>52.0</v>
       </c>
-      <c r="P31" t="n">
-        <v>1.1</v>
+      <c r="P31" t="s">
+        <v>57</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -4879,7 +4975,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -4931,18 +5027,18 @@
       </c>
       <c r="AO31" s="8"/>
       <c r="AP31" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AQ31" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="n">
-        <v>1.0</v>
+      <c r="B32" t="s">
+        <v>40</v>
       </c>
       <c r="C32" t="n">
         <v>61.0</v>
@@ -4950,8 +5046,8 @@
       <c r="D32" t="n">
         <v>45.0</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.0</v>
+      <c r="E32" t="s">
+        <v>43</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -4983,8 +5079,8 @@
       <c r="O32" t="n">
         <v>81.0</v>
       </c>
-      <c r="P32" t="n">
-        <v>0.58</v>
+      <c r="P32" t="s">
+        <v>58</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5008,7 +5104,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5060,18 +5156,18 @@
       </c>
       <c r="AO32" s="8"/>
       <c r="AP32" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="AQ32" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="n">
-        <v>1.0</v>
+      <c r="B33" t="s">
+        <v>40</v>
       </c>
       <c r="C33" t="n">
         <v>53.0</v>
@@ -5079,8 +5175,8 @@
       <c r="D33" t="n">
         <v>92.0</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
+      <c r="E33" t="s">
+        <v>43</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -5112,8 +5208,8 @@
       <c r="O33" t="n">
         <v>40.0</v>
       </c>
-      <c r="P33" t="n">
-        <v>1.1</v>
+      <c r="P33" t="s">
+        <v>57</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5137,7 +5233,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5189,18 +5285,18 @@
       </c>
       <c r="AO33" s="8"/>
       <c r="AP33" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="AQ33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="n">
-        <v>0.0</v>
+      <c r="B34" t="s">
+        <v>41</v>
       </c>
       <c r="C34" t="n">
         <v>57.0</v>
@@ -5208,8 +5304,8 @@
       <c r="D34" t="n">
         <v>103.0</v>
       </c>
-      <c r="E34" t="n">
-        <v>1.0</v>
+      <c r="E34" t="s">
+        <v>42</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -5241,8 +5337,8 @@
       <c r="O34" t="n">
         <v>73.0</v>
       </c>
-      <c r="P34" t="n">
-        <v>0.8</v>
+      <c r="P34" t="s">
+        <v>50</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5266,7 +5362,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5308,18 +5404,18 @@
       </c>
       <c r="AO34" s="8"/>
       <c r="AP34" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="AQ34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="n">
-        <v>1.0</v>
+      <c r="B35" t="s">
+        <v>40</v>
       </c>
       <c r="C35" t="n">
         <v>57.0</v>
@@ -5327,8 +5423,8 @@
       <c r="D35" t="n">
         <v>75.0</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.0</v>
+      <c r="E35" t="s">
+        <v>43</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -5360,8 +5456,8 @@
       <c r="O35" t="n">
         <v>45.0</v>
       </c>
-      <c r="P35" t="n">
-        <v>1.1</v>
+      <c r="P35" t="s">
+        <v>57</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5385,7 +5481,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5437,18 +5533,18 @@
       </c>
       <c r="AO35" s="8"/>
       <c r="AP35" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AQ35" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="n">
-        <v>1.0</v>
+      <c r="B36" t="s">
+        <v>40</v>
       </c>
       <c r="C36" t="n">
         <v>52.0</v>
@@ -5456,8 +5552,8 @@
       <c r="D36" t="n">
         <v>65.0</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.0</v>
+      <c r="E36" t="s">
+        <v>43</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
@@ -5489,8 +5585,8 @@
       <c r="O36" t="n">
         <v>54.0</v>
       </c>
-      <c r="P36" t="n">
-        <v>0.9</v>
+      <c r="P36" t="s">
+        <v>53</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -5514,7 +5610,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -5566,18 +5662,18 @@
       </c>
       <c r="AO36" s="8"/>
       <c r="AP36" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="AQ36" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="n">
-        <v>0.0</v>
+      <c r="B37" t="s">
+        <v>41</v>
       </c>
       <c r="C37" t="n">
         <v>61.0</v>
@@ -5585,8 +5681,8 @@
       <c r="D37" t="n">
         <v>53.0</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.0</v>
+      <c r="E37" t="s">
+        <v>43</v>
       </c>
       <c r="F37" t="n">
         <v>3.0</v>
@@ -5618,8 +5714,8 @@
       <c r="O37" t="n">
         <v>42.0</v>
       </c>
-      <c r="P37" t="n">
-        <v>1.09</v>
+      <c r="P37" t="s">
+        <v>59</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -5643,7 +5739,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -5695,18 +5791,18 @@
       </c>
       <c r="AO37" s="8"/>
       <c r="AP37" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="AQ37" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="n">
-        <v>1.0</v>
+      <c r="B38" t="s">
+        <v>40</v>
       </c>
       <c r="C38" t="n">
         <v>62.0</v>
@@ -5714,8 +5810,8 @@
       <c r="D38" t="n">
         <v>57.0</v>
       </c>
-      <c r="E38" t="n">
-        <v>1.0</v>
+      <c r="E38" t="s">
+        <v>44</v>
       </c>
       <c r="F38" t="n">
         <v>3.0</v>
@@ -5747,8 +5843,8 @@
       <c r="O38" t="n">
         <v>66.0</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.38</v>
+      <c r="P38" t="s">
+        <v>60</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -5772,7 +5868,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -5824,18 +5920,18 @@
       </c>
       <c r="AO38" s="8"/>
       <c r="AP38" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AQ38" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
-        <v>1.0</v>
+      <c r="B39" t="s">
+        <v>40</v>
       </c>
       <c r="C39" t="n">
         <v>61.0</v>
@@ -5843,8 +5939,8 @@
       <c r="D39" t="n">
         <v>76.0</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.0</v>
+      <c r="E39" t="s">
+        <v>43</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -5876,8 +5972,8 @@
       <c r="O39" t="n" s="12">
         <v>104.0</v>
       </c>
-      <c r="P39" t="n">
-        <v>0.5</v>
+      <c r="P39" t="s">
+        <v>46</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -5901,7 +5997,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -5949,18 +6045,18 @@
       </c>
       <c r="AO39" s="8"/>
       <c r="AP39" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AQ39" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>1.0</v>
+      <c r="B40" t="s">
+        <v>40</v>
       </c>
       <c r="C40" t="n">
         <v>58.0</v>
@@ -5968,8 +6064,8 @@
       <c r="D40" t="n">
         <v>81.5</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.0</v>
+      <c r="E40" t="s">
+        <v>43</v>
       </c>
       <c r="F40" t="n">
         <v>3.0</v>
@@ -6001,8 +6097,8 @@
       <c r="O40" t="n">
         <v>45.0</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.0</v>
+      <c r="P40" t="s">
+        <v>42</v>
       </c>
       <c r="Q40" t="n">
         <v>1.0</v>
@@ -6026,7 +6122,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6078,18 +6174,18 @@
       </c>
       <c r="AO40" s="8"/>
       <c r="AP40" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="AQ40" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="n">
-        <v>1.0</v>
+      <c r="B41" t="s">
+        <v>40</v>
       </c>
       <c r="C41" t="n">
         <v>53.0</v>
@@ -6097,8 +6193,8 @@
       <c r="D41" t="n">
         <v>105.0</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.0</v>
+      <c r="E41" t="s">
+        <v>43</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -6130,8 +6226,8 @@
       <c r="O41" t="n">
         <v>38.0</v>
       </c>
-      <c r="P41" t="n" s="12">
-        <v>1.8</v>
+      <c r="P41" t="s">
+        <v>61</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6155,7 +6251,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6207,18 +6303,18 @@
       </c>
       <c r="AO41" s="8"/>
       <c r="AP41" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="AQ41" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="n">
-        <v>0.0</v>
+      <c r="B42" t="s">
+        <v>41</v>
       </c>
       <c r="C42" t="n">
         <v>48.0</v>
@@ -6226,8 +6322,8 @@
       <c r="D42" t="n">
         <v>68.0</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.0</v>
+      <c r="E42" t="s">
+        <v>43</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -6259,8 +6355,8 @@
       <c r="O42" t="n">
         <v>37.0</v>
       </c>
-      <c r="P42" t="n">
-        <v>1.7</v>
+      <c r="P42" t="s">
+        <v>62</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6284,7 +6380,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6336,18 +6432,18 @@
       </c>
       <c r="AO42" s="8"/>
       <c r="AP42" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AQ42" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="n">
-        <v>1.0</v>
+      <c r="B43" t="s">
+        <v>40</v>
       </c>
       <c r="C43" t="n">
         <v>51.0</v>
@@ -6355,8 +6451,8 @@
       <c r="D43" t="n">
         <v>86.0</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.0</v>
+      <c r="E43" t="s">
+        <v>43</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -6388,8 +6484,8 @@
       <c r="O43" t="n">
         <v>80.0</v>
       </c>
-      <c r="P43" t="n">
-        <v>0.7</v>
+      <c r="P43" t="s">
+        <v>51</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6413,7 +6509,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6465,18 +6561,18 @@
       </c>
       <c r="AO43" s="8"/>
       <c r="AP43" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AQ43" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="n">
-        <v>0.0</v>
+      <c r="B44" t="s">
+        <v>41</v>
       </c>
       <c r="C44" t="n">
         <v>56.0</v>
@@ -6484,8 +6580,8 @@
       <c r="D44" t="n">
         <v>76.0</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.0</v>
+      <c r="E44" t="s">
+        <v>43</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -6517,8 +6613,8 @@
       <c r="O44" t="n">
         <v>40.0</v>
       </c>
-      <c r="P44" t="n">
-        <v>1.2</v>
+      <c r="P44" t="s">
+        <v>47</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -6542,7 +6638,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -6594,18 +6690,18 @@
       </c>
       <c r="AO44" s="8"/>
       <c r="AP44" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AQ44" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" t="n">
-        <v>0.0</v>
+      <c r="B45" t="s">
+        <v>41</v>
       </c>
       <c r="C45" t="n">
         <v>64.0</v>
@@ -6613,8 +6709,8 @@
       <c r="D45" t="n">
         <v>73.0</v>
       </c>
-      <c r="E45" t="n">
-        <v>1.0</v>
+      <c r="E45" t="s">
+        <v>45</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -6646,8 +6742,8 @@
       <c r="O45" t="n">
         <v>36.0</v>
       </c>
-      <c r="P45" t="n">
-        <v>0.7</v>
+      <c r="P45" t="s">
+        <v>51</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -6671,7 +6767,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -6723,18 +6819,18 @@
       </c>
       <c r="AO45" s="8"/>
       <c r="AP45" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AQ45" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="n">
-        <v>1.0</v>
+      <c r="B46" t="s">
+        <v>40</v>
       </c>
       <c r="C46" t="n">
         <v>59.0</v>
@@ -6742,8 +6838,8 @@
       <c r="D46" t="n">
         <v>60.5</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.0</v>
+      <c r="E46" t="s">
+        <v>43</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -6775,8 +6871,8 @@
       <c r="O46" t="n">
         <v>77.0</v>
       </c>
-      <c r="P46" t="n">
-        <v>0.59</v>
+      <c r="P46" t="s">
+        <v>63</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -6800,7 +6896,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -6852,18 +6948,18 @@
       </c>
       <c r="AO46" s="8"/>
       <c r="AP46" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="AQ46" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="n">
-        <v>1.0</v>
+      <c r="B47" t="s">
+        <v>40</v>
       </c>
       <c r="C47" t="n">
         <v>56.0</v>
@@ -6871,8 +6967,8 @@
       <c r="D47" t="n">
         <v>70.5</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.0</v>
+      <c r="E47" t="s">
+        <v>43</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -6904,8 +7000,8 @@
       <c r="O47" t="n">
         <v>62.0</v>
       </c>
-      <c r="P47" t="n">
-        <v>1.24</v>
+      <c r="P47" t="s">
+        <v>64</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -6929,7 +7025,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -6981,18 +7077,18 @@
       </c>
       <c r="AO47" s="8"/>
       <c r="AP47" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="AQ47" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="n">
-        <v>1.0</v>
+      <c r="B48" t="s">
+        <v>40</v>
       </c>
       <c r="C48" t="n">
         <v>64.0</v>
@@ -7000,8 +7096,8 @@
       <c r="D48" t="n">
         <v>56.0</v>
       </c>
-      <c r="E48" t="n">
-        <v>0.0</v>
+      <c r="E48" t="s">
+        <v>43</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -7033,8 +7129,8 @@
       <c r="O48" t="n">
         <v>54.0</v>
       </c>
-      <c r="P48" t="n">
-        <v>0.9</v>
+      <c r="P48" t="s">
+        <v>53</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7058,7 +7154,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7110,18 +7206,18 @@
       </c>
       <c r="AO48" s="8"/>
       <c r="AP48" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="AQ48" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="n">
-        <v>1.0</v>
+      <c r="B49" t="s">
+        <v>40</v>
       </c>
       <c r="C49" t="n">
         <v>60.0</v>
@@ -7129,8 +7225,8 @@
       <c r="D49" t="n">
         <v>61.0</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.0</v>
+      <c r="E49" t="s">
+        <v>43</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -7162,8 +7258,8 @@
       <c r="O49" t="n">
         <v>52.0</v>
       </c>
-      <c r="P49" t="n">
-        <v>0.75</v>
+      <c r="P49" t="s">
+        <v>65</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7187,7 +7283,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7239,18 +7335,18 @@
       </c>
       <c r="AO49" s="8"/>
       <c r="AP49" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="AQ49" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B50" t="n">
-        <v>0.0</v>
+      <c r="B50" t="s">
+        <v>41</v>
       </c>
       <c r="C50" t="n">
         <v>65.0</v>
@@ -7258,8 +7354,8 @@
       <c r="D50" t="n">
         <v>77.0</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.0</v>
+      <c r="E50" t="s">
+        <v>43</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -7291,8 +7387,8 @@
       <c r="O50" t="n">
         <v>48.0</v>
       </c>
-      <c r="P50" t="n">
-        <v>1.1</v>
+      <c r="P50" t="s">
+        <v>57</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7316,7 +7412,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7368,18 +7464,18 @@
       </c>
       <c r="AO50" s="8"/>
       <c r="AP50" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="AQ50" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" t="n">
-        <v>1.0</v>
+      <c r="B51" t="s">
+        <v>40</v>
       </c>
       <c r="C51" t="n">
         <v>65.0</v>
@@ -7387,8 +7483,8 @@
       <c r="D51" t="n">
         <v>65.0</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.0</v>
+      <c r="E51" t="s">
+        <v>43</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -7420,8 +7516,8 @@
       <c r="O51" t="n">
         <v>23.0</v>
       </c>
-      <c r="P51" t="n">
-        <v>1.2</v>
+      <c r="P51" t="s">
+        <v>47</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7445,7 +7541,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7497,18 +7593,18 @@
       </c>
       <c r="AO51" s="8"/>
       <c r="AP51" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="AQ51" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="n">
-        <v>1.0</v>
+      <c r="B52" t="s">
+        <v>40</v>
       </c>
       <c r="C52" t="n">
         <v>68.0</v>
@@ -7516,8 +7612,8 @@
       <c r="D52" t="n">
         <v>67.0</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.0</v>
+      <c r="E52" t="s">
+        <v>43</v>
       </c>
       <c r="F52" t="n">
         <v>3.0</v>
@@ -7549,8 +7645,8 @@
       <c r="O52" t="n">
         <v>61.0</v>
       </c>
-      <c r="P52" t="n">
-        <v>0.78</v>
+      <c r="P52" t="s">
+        <v>56</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -7574,7 +7670,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -7626,18 +7722,18 @@
       </c>
       <c r="AO52" s="8"/>
       <c r="AP52" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="AQ52" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B53" t="n">
-        <v>1.0</v>
+      <c r="B53" t="s">
+        <v>40</v>
       </c>
       <c r="C53" t="n">
         <v>54.0</v>
@@ -7645,8 +7741,8 @@
       <c r="D53" t="n">
         <v>76.0</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.0</v>
+      <c r="E53" t="s">
+        <v>43</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -7678,8 +7774,8 @@
       <c r="O53" t="n">
         <v>50.0</v>
       </c>
-      <c r="P53" t="n">
-        <v>0.88</v>
+      <c r="P53" t="s">
+        <v>66</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -7703,7 +7799,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -7755,18 +7851,18 @@
       </c>
       <c r="AO53" s="8"/>
       <c r="AP53" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="AQ53" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>39</v>
       </c>
-      <c r="B54" t="n">
-        <v>1.0</v>
+      <c r="B54" t="s">
+        <v>42</v>
       </c>
       <c r="C54" t="n">
         <v>66.0</v>
@@ -7774,8 +7870,8 @@
       <c r="D54" t="n">
         <v>71.0</v>
       </c>
-      <c r="E54" t="n">
-        <v>0.0</v>
+      <c r="E54" t="s">
+        <v>43</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -7807,8 +7903,8 @@
       <c r="O54" t="n">
         <v>54.0</v>
       </c>
-      <c r="P54" t="n">
-        <v>0.92</v>
+      <c r="P54" t="s">
+        <v>67</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -7832,7 +7928,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -7880,13 +7976,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="AQ54" t="s" s="8">
         <v>37</v>
@@ -7896,8 +7992,8 @@
       <c r="A55" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="n">
-        <v>1.0</v>
+      <c r="B55" t="s">
+        <v>42</v>
       </c>
       <c r="C55" t="n">
         <v>62.0</v>
@@ -7905,8 +8001,8 @@
       <c r="D55" t="n">
         <v>57.0</v>
       </c>
-      <c r="E55" t="n">
-        <v>1.0</v>
+      <c r="E55" t="s">
+        <v>42</v>
       </c>
       <c r="F55" t="n">
         <v>3.0</v>
@@ -7938,8 +8034,8 @@
       <c r="O55" t="n">
         <v>60.0</v>
       </c>
-      <c r="P55" t="n">
-        <v>1.1</v>
+      <c r="P55" t="s">
+        <v>57</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -7963,7 +8059,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8009,13 +8105,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AQ55" t="s" s="8">
         <v>37</v>
@@ -8025,8 +8121,8 @@
       <c r="A56" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="n">
-        <v>1.0</v>
+      <c r="B56" t="s">
+        <v>42</v>
       </c>
       <c r="C56" t="n">
         <v>55.0</v>
@@ -8034,8 +8130,8 @@
       <c r="D56" t="n">
         <v>89.0</v>
       </c>
-      <c r="E56" t="n">
-        <v>1.0</v>
+      <c r="E56" t="s">
+        <v>42</v>
       </c>
       <c r="F56" t="n">
         <v>3.0</v>
@@ -8067,8 +8163,8 @@
       <c r="O56" t="n">
         <v>39.0</v>
       </c>
-      <c r="P56" t="n">
-        <v>1.3</v>
+      <c r="P56" t="s">
+        <v>48</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8092,7 +8188,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8140,13 +8236,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="AQ56" t="s" s="8">
         <v>37</v>
@@ -8156,8 +8252,8 @@
       <c r="A57" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="n">
-        <v>1.0</v>
+      <c r="B57" t="s">
+        <v>42</v>
       </c>
       <c r="C57" t="n">
         <v>53.0</v>
@@ -8165,8 +8261,8 @@
       <c r="D57" t="n">
         <v>118.0</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.0</v>
+      <c r="E57" t="s">
+        <v>43</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -8198,8 +8294,8 @@
       <c r="O57" t="n">
         <v>42.0</v>
       </c>
-      <c r="P57" t="n">
-        <v>1.2</v>
+      <c r="P57" t="s">
+        <v>47</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8223,7 +8319,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8271,13 +8367,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AQ57" t="s" s="8">
         <v>37</v>
@@ -8287,8 +8383,8 @@
       <c r="A58" t="s">
         <v>39</v>
       </c>
-      <c r="B58" t="n">
-        <v>1.0</v>
+      <c r="B58" t="s">
+        <v>42</v>
       </c>
       <c r="C58" t="n">
         <v>60.0</v>
@@ -8296,8 +8392,8 @@
       <c r="D58" t="n">
         <v>71.0</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.0</v>
+      <c r="E58" t="s">
+        <v>43</v>
       </c>
       <c r="F58" t="n">
         <v>2.0</v>
@@ -8329,8 +8425,8 @@
       <c r="O58" t="n">
         <v>76.0</v>
       </c>
-      <c r="P58" t="n">
-        <v>0.7</v>
+      <c r="P58" t="s">
+        <v>68</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8354,7 +8450,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8400,13 +8496,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="AQ58" t="s" s="8">
         <v>37</v>
@@ -8416,8 +8512,8 @@
       <c r="A59" t="s">
         <v>39</v>
       </c>
-      <c r="B59" t="n">
-        <v>1.0</v>
+      <c r="B59" t="s">
+        <v>42</v>
       </c>
       <c r="C59" t="n">
         <v>54.0</v>
@@ -8425,8 +8521,8 @@
       <c r="D59" t="n">
         <v>67.0</v>
       </c>
-      <c r="E59" t="n">
-        <v>0.0</v>
+      <c r="E59" t="s">
+        <v>43</v>
       </c>
       <c r="F59" t="n">
         <v>3.0</v>
@@ -8458,8 +8554,8 @@
       <c r="O59" t="n">
         <v>62.0</v>
       </c>
-      <c r="P59" t="n">
-        <v>0.9</v>
+      <c r="P59" t="s">
+        <v>53</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8483,7 +8579,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -8514,7 +8610,7 @@
         <v>0.0</v>
       </c>
       <c r="AI59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ59" t="n">
         <v>1.0</v>
@@ -8529,13 +8625,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AQ59" t="s" s="8">
         <v>37</v>
@@ -8545,8 +8641,8 @@
       <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" t="n">
-        <v>1.0</v>
+      <c r="B60" t="s">
+        <v>42</v>
       </c>
       <c r="C60" t="n">
         <v>65.0</v>
@@ -8554,8 +8650,8 @@
       <c r="D60" t="n">
         <v>70.0</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.0</v>
+      <c r="E60" t="s">
+        <v>43</v>
       </c>
       <c r="F60" t="n">
         <v>3.0</v>
@@ -8587,8 +8683,8 @@
       <c r="O60" t="n">
         <v>73.0</v>
       </c>
-      <c r="P60" t="n">
-        <v>0.8</v>
+      <c r="P60" t="s">
+        <v>50</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -8612,7 +8708,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -8658,13 +8754,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="AQ60" t="s" s="8">
         <v>37</v>
@@ -8674,8 +8770,8 @@
       <c r="A61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" t="n">
-        <v>1.0</v>
+      <c r="B61" t="s">
+        <v>42</v>
       </c>
       <c r="C61" t="n" s="12">
         <v>32.0</v>
@@ -8683,8 +8779,8 @@
       <c r="D61" t="n">
         <v>100.0</v>
       </c>
-      <c r="E61" t="n">
-        <v>0.0</v>
+      <c r="E61" t="s">
+        <v>43</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -8716,8 +8812,8 @@
       <c r="O61" t="n">
         <v>83.0</v>
       </c>
-      <c r="P61" t="n">
-        <v>1.0</v>
+      <c r="P61" t="s">
+        <v>42</v>
       </c>
       <c r="Q61" t="n">
         <v>2.0</v>
@@ -8741,7 +8837,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -8789,13 +8885,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="AQ61" t="s" s="8">
         <v>37</v>
@@ -8805,8 +8901,8 @@
       <c r="A62" t="s">
         <v>39</v>
       </c>
-      <c r="B62" t="n">
-        <v>0.0</v>
+      <c r="B62" t="s">
+        <v>43</v>
       </c>
       <c r="C62" t="n">
         <v>69.0</v>
@@ -8814,8 +8910,8 @@
       <c r="D62" t="n">
         <v>55.0</v>
       </c>
-      <c r="E62" t="n">
-        <v>0.0</v>
+      <c r="E62" t="s">
+        <v>43</v>
       </c>
       <c r="F62" t="n">
         <v>3.0</v>
@@ -8847,8 +8943,8 @@
       <c r="O62" t="n">
         <v>84.0</v>
       </c>
-      <c r="P62" t="n">
-        <v>0.9</v>
+      <c r="P62" t="s">
+        <v>53</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -8872,7 +8968,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -8918,13 +9014,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="AQ62" t="s" s="8">
         <v>37</v>
@@ -8934,8 +9030,8 @@
       <c r="A63" t="s">
         <v>39</v>
       </c>
-      <c r="B63" t="n">
-        <v>1.0</v>
+      <c r="B63" t="s">
+        <v>42</v>
       </c>
       <c r="C63" t="n">
         <v>66.0</v>
@@ -8943,8 +9039,8 @@
       <c r="D63" t="n">
         <v>67.0</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.0</v>
+      <c r="E63" t="s">
+        <v>43</v>
       </c>
       <c r="F63" t="n">
         <v>3.0</v>
@@ -8976,8 +9072,8 @@
       <c r="O63" t="n">
         <v>52.0</v>
       </c>
-      <c r="P63" t="n">
-        <v>1.2</v>
+      <c r="P63" t="s">
+        <v>47</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9001,7 +9097,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9047,13 +9143,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="AQ63" t="s" s="8">
         <v>37</v>
@@ -9063,8 +9159,8 @@
       <c r="A64" t="s">
         <v>39</v>
       </c>
-      <c r="B64" t="n">
-        <v>1.0</v>
+      <c r="B64" t="s">
+        <v>42</v>
       </c>
       <c r="C64" t="n">
         <v>51.0</v>
@@ -9072,8 +9168,8 @@
       <c r="D64" t="n">
         <v>98.0</v>
       </c>
-      <c r="E64" t="n">
-        <v>0.0</v>
+      <c r="E64" t="s">
+        <v>43</v>
       </c>
       <c r="F64" t="n">
         <v>3.0</v>
@@ -9093,7 +9189,7 @@
       <c r="K64" t="n">
         <v>0.0</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64" t="n" s="12">
         <v>6.2</v>
       </c>
       <c r="M64" t="n">
@@ -9105,8 +9201,8 @@
       <c r="O64" t="n">
         <v>37.0</v>
       </c>
-      <c r="P64" t="n">
-        <v>1.3</v>
+      <c r="P64" t="s">
+        <v>48</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9130,7 +9226,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9176,13 +9272,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="AQ64" t="s" s="8">
         <v>37</v>
@@ -9192,8 +9288,8 @@
       <c r="A65" t="s">
         <v>39</v>
       </c>
-      <c r="B65" t="n">
-        <v>1.0</v>
+      <c r="B65" t="s">
+        <v>42</v>
       </c>
       <c r="C65" t="n">
         <v>59.0</v>
@@ -9201,8 +9297,8 @@
       <c r="D65" t="n">
         <v>87.0</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.0</v>
+      <c r="E65" t="s">
+        <v>43</v>
       </c>
       <c r="F65" t="n">
         <v>2.0</v>
@@ -9234,8 +9330,8 @@
       <c r="O65" t="n">
         <v>81.0</v>
       </c>
-      <c r="P65" t="n">
-        <v>0.9</v>
+      <c r="P65" t="s">
+        <v>53</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9259,7 +9355,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9305,13 +9401,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="AQ65" t="s" s="8">
         <v>37</v>
@@ -9321,8 +9417,8 @@
       <c r="A66" t="s">
         <v>39</v>
       </c>
-      <c r="B66" t="n">
-        <v>1.0</v>
+      <c r="B66" t="s">
+        <v>42</v>
       </c>
       <c r="C66" t="n">
         <v>66.0</v>
@@ -9330,8 +9426,8 @@
       <c r="D66" t="n">
         <v>80.0</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.0</v>
+      <c r="E66" t="s">
+        <v>43</v>
       </c>
       <c r="F66" t="n">
         <v>3.0</v>
@@ -9363,8 +9459,8 @@
       <c r="O66" t="n">
         <v>42.0</v>
       </c>
-      <c r="P66" t="n">
-        <v>1.3</v>
+      <c r="P66" t="s">
+        <v>48</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9388,7 +9484,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9432,13 +9528,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="AQ66" t="s" s="8">
         <v>37</v>
@@ -9448,8 +9544,8 @@
       <c r="A67" t="s">
         <v>39</v>
       </c>
-      <c r="B67" t="n">
-        <v>1.0</v>
+      <c r="B67" t="s">
+        <v>42</v>
       </c>
       <c r="C67" t="n">
         <v>57.0</v>
@@ -9457,8 +9553,8 @@
       <c r="D67" t="n">
         <v>83.0</v>
       </c>
-      <c r="E67" t="n">
-        <v>0.0</v>
+      <c r="E67" t="s">
+        <v>43</v>
       </c>
       <c r="F67" t="n">
         <v>3.0</v>
@@ -9490,8 +9586,8 @@
       <c r="O67" t="n">
         <v>37.0</v>
       </c>
-      <c r="P67" t="n">
-        <v>1.3</v>
+      <c r="P67" t="s">
+        <v>48</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -9515,7 +9611,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -9561,13 +9657,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="AQ67" t="s" s="8">
         <v>37</v>
@@ -9577,8 +9673,8 @@
       <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B68" t="n">
-        <v>1.0</v>
+      <c r="B68" t="s">
+        <v>42</v>
       </c>
       <c r="C68" t="n">
         <v>75.0</v>
@@ -9586,8 +9682,8 @@
       <c r="D68" t="n">
         <v>76.0</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.0</v>
+      <c r="E68" t="s">
+        <v>43</v>
       </c>
       <c r="F68" t="n">
         <v>3.0</v>
@@ -9619,8 +9715,8 @@
       <c r="O68" t="n">
         <v>43.0</v>
       </c>
-      <c r="P68" t="n">
-        <v>1.2</v>
+      <c r="P68" t="s">
+        <v>47</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -9644,7 +9740,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -9690,13 +9786,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AQ68" t="s" s="8">
         <v>37</v>
@@ -9706,8 +9802,8 @@
       <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B69" t="n">
-        <v>1.0</v>
+      <c r="B69" t="s">
+        <v>42</v>
       </c>
       <c r="C69" t="n">
         <v>64.0</v>
@@ -9715,8 +9811,8 @@
       <c r="D69" t="n">
         <v>95.0</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.0</v>
+      <c r="E69" t="s">
+        <v>43</v>
       </c>
       <c r="F69" t="n">
         <v>3.0</v>
@@ -9748,8 +9844,8 @@
       <c r="O69" t="n">
         <v>38.0</v>
       </c>
-      <c r="P69" t="n">
-        <v>1.2</v>
+      <c r="P69" t="s">
+        <v>47</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -9773,7 +9869,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -9804,7 +9900,7 @@
         <v>0.0</v>
       </c>
       <c r="AI69" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ69" t="n">
         <v>1.0</v>
@@ -9819,13 +9915,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AQ69" t="s" s="8">
         <v>37</v>
@@ -9835,8 +9931,8 @@
       <c r="A70" t="s">
         <v>39</v>
       </c>
-      <c r="B70" t="n">
-        <v>1.0</v>
+      <c r="B70" t="s">
+        <v>42</v>
       </c>
       <c r="C70" t="n">
         <v>44.0</v>
@@ -9844,8 +9940,8 @@
       <c r="D70" t="n">
         <v>85.0</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.0</v>
+      <c r="E70" t="s">
+        <v>43</v>
       </c>
       <c r="F70" t="n">
         <v>3.0</v>
@@ -9877,8 +9973,8 @@
       <c r="O70" t="n">
         <v>54.0</v>
       </c>
-      <c r="P70" t="n">
-        <v>1.3</v>
+      <c r="P70" t="s">
+        <v>48</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -9902,7 +9998,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -9946,13 +10042,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="AQ70" t="s" s="8">
         <v>37</v>
@@ -9962,8 +10058,8 @@
       <c r="A71" t="s">
         <v>39</v>
       </c>
-      <c r="B71" t="n">
-        <v>1.0</v>
+      <c r="B71" t="s">
+        <v>42</v>
       </c>
       <c r="C71" t="n">
         <v>53.0</v>
@@ -9971,8 +10067,8 @@
       <c r="D71" t="n">
         <v>67.0</v>
       </c>
-      <c r="E71" t="n">
-        <v>0.0</v>
+      <c r="E71" t="s">
+        <v>43</v>
       </c>
       <c r="F71" t="n">
         <v>3.0</v>
@@ -10004,8 +10100,8 @@
       <c r="O71" t="n">
         <v>43.0</v>
       </c>
-      <c r="P71" t="n">
-        <v>1.3</v>
+      <c r="P71" t="s">
+        <v>48</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10029,7 +10125,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10073,13 +10169,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AQ71" t="s" s="8">
         <v>37</v>
@@ -10089,8 +10185,8 @@
       <c r="A72" t="s">
         <v>39</v>
       </c>
-      <c r="B72" t="n">
-        <v>0.0</v>
+      <c r="B72" t="s">
+        <v>43</v>
       </c>
       <c r="C72" t="n" s="12">
         <v>37.0</v>
@@ -10098,8 +10194,8 @@
       <c r="D72" t="n">
         <v>55.0</v>
       </c>
-      <c r="E72" t="n">
-        <v>0.0</v>
+      <c r="E72" t="s">
+        <v>43</v>
       </c>
       <c r="F72" t="n">
         <v>2.0</v>
@@ -10131,8 +10227,8 @@
       <c r="O72" t="n">
         <v>40.0</v>
       </c>
-      <c r="P72" t="n">
-        <v>1.4</v>
+      <c r="P72" t="s">
+        <v>69</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10156,7 +10252,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10202,13 +10298,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="AQ72" t="s" s="8">
         <v>37</v>
@@ -10218,8 +10314,8 @@
       <c r="A73" t="s">
         <v>39</v>
       </c>
-      <c r="B73" t="n">
-        <v>0.0</v>
+      <c r="B73" t="s">
+        <v>43</v>
       </c>
       <c r="C73" t="n">
         <v>66.0</v>
@@ -10227,8 +10323,8 @@
       <c r="D73" t="n">
         <v>62.0</v>
       </c>
-      <c r="E73" t="n">
-        <v>0.0</v>
+      <c r="E73" t="s">
+        <v>43</v>
       </c>
       <c r="F73" t="n">
         <v>3.0</v>
@@ -10260,8 +10356,8 @@
       <c r="O73" t="n">
         <v>46.0</v>
       </c>
-      <c r="P73" t="n">
-        <v>1.0</v>
+      <c r="P73" t="s">
+        <v>42</v>
       </c>
       <c r="Q73" t="n">
         <v>0.0</v>
@@ -10285,7 +10381,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10331,13 +10427,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="AQ73" t="s" s="8">
         <v>37</v>
@@ -10347,8 +10443,8 @@
       <c r="A74" t="s">
         <v>39</v>
       </c>
-      <c r="B74" t="n">
-        <v>1.0</v>
+      <c r="B74" t="s">
+        <v>42</v>
       </c>
       <c r="C74" t="n">
         <v>53.0</v>
@@ -10356,8 +10452,8 @@
       <c r="D74" t="n">
         <v>60.0</v>
       </c>
-      <c r="E74" t="n">
-        <v>0.0</v>
+      <c r="E74" t="s">
+        <v>43</v>
       </c>
       <c r="F74" t="n">
         <v>3.0</v>
@@ -10389,8 +10485,8 @@
       <c r="O74" t="n">
         <v>45.0</v>
       </c>
-      <c r="P74" t="n">
-        <v>1.1</v>
+      <c r="P74" t="s">
+        <v>57</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10414,7 +10510,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10460,13 +10556,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="AQ74" t="s" s="8">
         <v>37</v>
@@ -10476,8 +10572,8 @@
       <c r="A75" t="s">
         <v>39</v>
       </c>
-      <c r="B75" t="n">
-        <v>1.0</v>
+      <c r="B75" t="s">
+        <v>42</v>
       </c>
       <c r="C75" t="n">
         <v>67.0</v>
@@ -10485,8 +10581,8 @@
       <c r="D75" t="n">
         <v>87.0</v>
       </c>
-      <c r="E75" t="n">
-        <v>0.0</v>
+      <c r="E75" t="s">
+        <v>43</v>
       </c>
       <c r="F75" t="n">
         <v>3.0</v>
@@ -10518,8 +10614,8 @@
       <c r="O75" t="n">
         <v>38.0</v>
       </c>
-      <c r="P75" t="n">
-        <v>1.3</v>
+      <c r="P75" t="s">
+        <v>48</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -10543,7 +10639,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -10589,13 +10685,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="AQ75" t="s" s="8">
         <v>37</v>
@@ -10605,8 +10701,8 @@
       <c r="A76" t="s">
         <v>39</v>
       </c>
-      <c r="B76" t="n">
-        <v>1.0</v>
+      <c r="B76" t="s">
+        <v>42</v>
       </c>
       <c r="C76" t="n">
         <v>58.0</v>
@@ -10614,8 +10710,8 @@
       <c r="D76" t="n">
         <v>60.0</v>
       </c>
-      <c r="E76" t="n">
-        <v>0.0</v>
+      <c r="E76" t="s">
+        <v>43</v>
       </c>
       <c r="F76" t="n">
         <v>3.0</v>
@@ -10647,8 +10743,8 @@
       <c r="O76" t="n">
         <v>37.0</v>
       </c>
-      <c r="P76" t="n">
-        <v>1.2</v>
+      <c r="P76" t="s">
+        <v>47</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -10672,7 +10768,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -10716,13 +10812,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="AQ76" t="s" s="8">
         <v>37</v>
@@ -10732,8 +10828,8 @@
       <c r="A77" t="s">
         <v>39</v>
       </c>
-      <c r="B77" t="n">
-        <v>1.0</v>
+      <c r="B77" t="s">
+        <v>42</v>
       </c>
       <c r="C77" t="n">
         <v>66.0</v>
@@ -10741,8 +10837,8 @@
       <c r="D77" t="n">
         <v>69.0</v>
       </c>
-      <c r="E77" t="n">
-        <v>0.0</v>
+      <c r="E77" t="s">
+        <v>43</v>
       </c>
       <c r="F77" t="n">
         <v>3.0</v>
@@ -10774,8 +10870,8 @@
       <c r="O77" t="n">
         <v>37.0</v>
       </c>
-      <c r="P77" t="n">
-        <v>1.3</v>
+      <c r="P77" t="s">
+        <v>48</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -10799,7 +10895,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -10845,13 +10941,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="AQ77" t="s" s="8">
         <v>37</v>
@@ -10861,8 +10957,8 @@
       <c r="A78" t="s">
         <v>39</v>
       </c>
-      <c r="B78" t="n">
-        <v>1.0</v>
+      <c r="B78" t="s">
+        <v>42</v>
       </c>
       <c r="C78" t="n">
         <v>52.0</v>
@@ -10870,8 +10966,8 @@
       <c r="D78" t="n">
         <v>115.0</v>
       </c>
-      <c r="E78" t="n">
-        <v>0.0</v>
+      <c r="E78" t="s">
+        <v>43</v>
       </c>
       <c r="F78" t="n">
         <v>3.0</v>
@@ -10903,8 +10999,8 @@
       <c r="O78" t="n">
         <v>56.0</v>
       </c>
-      <c r="P78" t="n">
-        <v>1.1</v>
+      <c r="P78" t="s">
+        <v>57</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -10928,7 +11024,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -10974,13 +11070,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="AQ78" t="s" s="8">
         <v>37</v>
@@ -10990,8 +11086,8 @@
       <c r="A79" t="s">
         <v>39</v>
       </c>
-      <c r="B79" t="n">
-        <v>0.0</v>
+      <c r="B79" t="s">
+        <v>43</v>
       </c>
       <c r="C79" t="n">
         <v>61.0</v>
@@ -10999,8 +11095,8 @@
       <c r="D79" t="n">
         <v>45.0</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.0</v>
+      <c r="E79" t="s">
+        <v>43</v>
       </c>
       <c r="F79" t="n">
         <v>3.0</v>
@@ -11032,8 +11128,8 @@
       <c r="O79" t="n">
         <v>81.0</v>
       </c>
-      <c r="P79" t="n">
-        <v>0.9</v>
+      <c r="P79" t="s">
+        <v>53</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11057,7 +11153,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11103,13 +11199,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="AQ79" t="s" s="8">
         <v>37</v>
@@ -11119,8 +11215,8 @@
       <c r="A80" t="s">
         <v>39</v>
       </c>
-      <c r="B80" t="n">
-        <v>0.0</v>
+      <c r="B80" t="s">
+        <v>43</v>
       </c>
       <c r="C80" t="n">
         <v>57.0</v>
@@ -11128,8 +11224,8 @@
       <c r="D80" t="n">
         <v>79.0</v>
       </c>
-      <c r="E80" t="n">
-        <v>0.0</v>
+      <c r="E80" t="s">
+        <v>43</v>
       </c>
       <c r="F80" t="n">
         <v>3.0</v>
@@ -11161,8 +11257,8 @@
       <c r="O80" t="n">
         <v>85.0</v>
       </c>
-      <c r="P80" t="n">
-        <v>0.75</v>
+      <c r="P80" t="s">
+        <v>70</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11186,7 +11282,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11217,7 +11313,7 @@
         <v>0.0</v>
       </c>
       <c r="AI80" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ80" t="n">
         <v>1.0</v>
@@ -11232,13 +11328,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="AQ80" t="s" s="8">
         <v>37</v>
@@ -11248,8 +11344,8 @@
       <c r="A81" t="s">
         <v>39</v>
       </c>
-      <c r="B81" t="n">
-        <v>1.0</v>
+      <c r="B81" t="s">
+        <v>42</v>
       </c>
       <c r="C81" t="n">
         <v>62.0</v>
@@ -11257,8 +11353,8 @@
       <c r="D81" t="n">
         <v>62.0</v>
       </c>
-      <c r="E81" t="n">
-        <v>0.0</v>
+      <c r="E81" t="s">
+        <v>43</v>
       </c>
       <c r="F81" t="n">
         <v>2.0</v>
@@ -11290,8 +11386,8 @@
       <c r="O81" t="n">
         <v>49.0</v>
       </c>
-      <c r="P81" t="n">
-        <v>1.1</v>
+      <c r="P81" t="s">
+        <v>57</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11315,7 +11411,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11363,13 +11459,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AQ81" t="s" s="8">
         <v>37</v>
@@ -11379,8 +11475,8 @@
       <c r="A82" t="s">
         <v>39</v>
       </c>
-      <c r="B82" t="n">
-        <v>1.0</v>
+      <c r="B82" t="s">
+        <v>42</v>
       </c>
       <c r="C82" t="n" s="12">
         <v>38.0</v>
@@ -11388,8 +11484,8 @@
       <c r="D82" t="n">
         <v>93.0</v>
       </c>
-      <c r="E82" t="n">
-        <v>0.0</v>
+      <c r="E82" t="s">
+        <v>43</v>
       </c>
       <c r="F82" t="n">
         <v>2.0</v>
@@ -11421,8 +11517,8 @@
       <c r="O82" t="n">
         <v>68.0</v>
       </c>
-      <c r="P82" t="n">
-        <v>1.0</v>
+      <c r="P82" t="s">
+        <v>42</v>
       </c>
       <c r="Q82" t="n">
         <v>2.0</v>
@@ -11446,7 +11542,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11492,13 +11588,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AQ82" t="s" s="8">
         <v>37</v>
@@ -11508,8 +11604,8 @@
       <c r="A83" t="s">
         <v>39</v>
       </c>
-      <c r="B83" t="n">
-        <v>1.0</v>
+      <c r="B83" t="s">
+        <v>42</v>
       </c>
       <c r="C83" t="n">
         <v>60.0</v>
@@ -11517,8 +11613,8 @@
       <c r="D83" t="n">
         <v>81.0</v>
       </c>
-      <c r="E83" t="n">
-        <v>0.0</v>
+      <c r="E83" t="s">
+        <v>43</v>
       </c>
       <c r="F83" t="n">
         <v>3.0</v>
@@ -11550,8 +11646,8 @@
       <c r="O83" t="n">
         <v>57.0</v>
       </c>
-      <c r="P83" t="n">
-        <v>0.9</v>
+      <c r="P83" t="s">
+        <v>53</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -11575,7 +11671,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -11621,13 +11717,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="AQ83" t="s" s="8">
         <v>37</v>
@@ -11637,8 +11733,8 @@
       <c r="A84" t="s">
         <v>39</v>
       </c>
-      <c r="B84" t="n">
-        <v>0.0</v>
+      <c r="B84" t="s">
+        <v>43</v>
       </c>
       <c r="C84" t="n">
         <v>57.0</v>
@@ -11646,8 +11742,8 @@
       <c r="D84" t="n">
         <v>68.0</v>
       </c>
-      <c r="E84" t="n">
-        <v>0.0</v>
+      <c r="E84" t="s">
+        <v>43</v>
       </c>
       <c r="F84" t="n">
         <v>2.0</v>
@@ -11679,8 +11775,8 @@
       <c r="O84" t="n">
         <v>43.0</v>
       </c>
-      <c r="P84" t="n">
-        <v>1.4</v>
+      <c r="P84" t="s">
+        <v>69</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -11704,7 +11800,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -11750,13 +11846,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="AQ84" t="s" s="8">
         <v>37</v>
@@ -11766,8 +11862,8 @@
       <c r="A85" t="s">
         <v>39</v>
       </c>
-      <c r="B85" t="n">
-        <v>1.0</v>
+      <c r="B85" t="s">
+        <v>42</v>
       </c>
       <c r="C85" t="n">
         <v>60.0</v>
@@ -11775,8 +11871,8 @@
       <c r="D85" t="n">
         <v>69.0</v>
       </c>
-      <c r="E85" t="n">
-        <v>0.0</v>
+      <c r="E85" t="s">
+        <v>43</v>
       </c>
       <c r="F85" t="n">
         <v>3.0</v>
@@ -11808,8 +11904,8 @@
       <c r="O85" t="n">
         <v>75.0</v>
       </c>
-      <c r="P85" t="n">
-        <v>0.8</v>
+      <c r="P85" t="s">
+        <v>50</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -11833,7 +11929,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -11879,13 +11975,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="AQ85" t="s" s="8">
         <v>37</v>
@@ -11895,8 +11991,8 @@
       <c r="A86" t="s">
         <v>39</v>
       </c>
-      <c r="B86" t="n">
-        <v>0.0</v>
+      <c r="B86" t="s">
+        <v>43</v>
       </c>
       <c r="C86" t="n">
         <v>63.0</v>
@@ -11904,8 +12000,8 @@
       <c r="D86" t="n">
         <v>58.0</v>
       </c>
-      <c r="E86" t="n">
-        <v>0.0</v>
+      <c r="E86" t="s">
+        <v>43</v>
       </c>
       <c r="F86" t="n">
         <v>3.0</v>
@@ -11937,8 +12033,8 @@
       <c r="O86" t="n">
         <v>35.0</v>
       </c>
-      <c r="P86" t="n">
-        <v>1.3</v>
+      <c r="P86" t="s">
+        <v>48</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -11962,7 +12058,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -11993,7 +12089,7 @@
         <v>0.0</v>
       </c>
       <c r="AI86" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ86" t="n">
         <v>1.0</v>
@@ -12008,13 +12104,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="AQ86" t="s" s="8">
         <v>37</v>
@@ -12024,8 +12120,8 @@
       <c r="A87" t="s">
         <v>39</v>
       </c>
-      <c r="B87" t="n">
-        <v>1.0</v>
+      <c r="B87" t="s">
+        <v>42</v>
       </c>
       <c r="C87" t="n">
         <v>55.0</v>
@@ -12033,8 +12129,8 @@
       <c r="D87" t="n">
         <v>122.0</v>
       </c>
-      <c r="E87" t="n">
-        <v>1.0</v>
+      <c r="E87" t="s">
+        <v>42</v>
       </c>
       <c r="F87" t="n">
         <v>3.0</v>
@@ -12066,8 +12162,8 @@
       <c r="O87" t="n">
         <v>52.0</v>
       </c>
-      <c r="P87" t="n">
-        <v>1.1</v>
+      <c r="P87" t="s">
+        <v>57</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12091,7 +12187,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12137,13 +12233,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AQ87" t="s" s="8">
         <v>37</v>
@@ -12153,8 +12249,8 @@
       <c r="A88" t="s">
         <v>39</v>
       </c>
-      <c r="B88" t="n">
-        <v>0.0</v>
+      <c r="B88" t="s">
+        <v>43</v>
       </c>
       <c r="C88" t="n">
         <v>57.0</v>
@@ -12162,8 +12258,8 @@
       <c r="D88" t="n">
         <v>74.0</v>
       </c>
-      <c r="E88" t="n">
-        <v>0.0</v>
+      <c r="E88" t="s">
+        <v>43</v>
       </c>
       <c r="F88" t="n">
         <v>3.0</v>
@@ -12195,8 +12291,8 @@
       <c r="O88" t="n" s="12">
         <v>103.0</v>
       </c>
-      <c r="P88" t="n">
-        <v>0.5</v>
+      <c r="P88" t="s">
+        <v>46</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12220,7 +12316,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12266,13 +12362,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="AQ88" t="s" s="8">
         <v>37</v>
@@ -12282,8 +12378,8 @@
       <c r="A89" t="s">
         <v>39</v>
       </c>
-      <c r="B89" t="n">
-        <v>1.0</v>
+      <c r="B89" t="s">
+        <v>42</v>
       </c>
       <c r="C89" t="n">
         <v>59.0</v>
@@ -12291,8 +12387,8 @@
       <c r="D89" t="n">
         <v>75.0</v>
       </c>
-      <c r="E89" t="n">
-        <v>0.0</v>
+      <c r="E89" t="s">
+        <v>43</v>
       </c>
       <c r="F89" t="n">
         <v>3.0</v>
@@ -12324,8 +12420,8 @@
       <c r="O89" t="n">
         <v>48.0</v>
       </c>
-      <c r="P89" t="n">
-        <v>1.1</v>
+      <c r="P89" t="s">
+        <v>57</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12349,7 +12445,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12395,13 +12491,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="AQ89" t="s" s="8">
         <v>37</v>
@@ -12411,8 +12507,8 @@
       <c r="A90" t="s">
         <v>39</v>
       </c>
-      <c r="B90" t="n">
-        <v>1.0</v>
+      <c r="B90" t="s">
+        <v>42</v>
       </c>
       <c r="C90" t="n">
         <v>57.0</v>
@@ -12420,8 +12516,8 @@
       <c r="D90" t="n">
         <v>79.0</v>
       </c>
-      <c r="E90" t="n">
-        <v>0.0</v>
+      <c r="E90" t="s">
+        <v>43</v>
       </c>
       <c r="F90" t="n">
         <v>2.0</v>
@@ -12453,8 +12549,8 @@
       <c r="O90" t="n">
         <v>45.0</v>
       </c>
-      <c r="P90" t="n">
-        <v>1.1</v>
+      <c r="P90" t="s">
+        <v>57</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12478,7 +12574,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -12522,13 +12618,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AQ90" t="s" s="8">
         <v>37</v>
@@ -12538,8 +12634,8 @@
       <c r="A91" t="s">
         <v>39</v>
       </c>
-      <c r="B91" t="n">
-        <v>1.0</v>
+      <c r="B91" t="s">
+        <v>42</v>
       </c>
       <c r="C91" t="n">
         <v>65.0</v>
@@ -12547,8 +12643,8 @@
       <c r="D91" t="n">
         <v>63.0</v>
       </c>
-      <c r="E91" t="n">
-        <v>0.0</v>
+      <c r="E91" t="s">
+        <v>43</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -12580,8 +12676,8 @@
       <c r="O91" t="n">
         <v>42.0</v>
       </c>
-      <c r="P91" t="n">
-        <v>1.2</v>
+      <c r="P91" t="s">
+        <v>47</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -12605,7 +12701,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -12651,13 +12747,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AQ91" t="s" s="8">
         <v>37</v>
@@ -12667,8 +12763,8 @@
       <c r="A92" t="s">
         <v>39</v>
       </c>
-      <c r="B92" t="n">
-        <v>1.0</v>
+      <c r="B92" t="s">
+        <v>42</v>
       </c>
       <c r="C92" t="n">
         <v>63.0</v>
@@ -12676,8 +12772,8 @@
       <c r="D92" t="n">
         <v>85.0</v>
       </c>
-      <c r="E92" t="n">
-        <v>0.0</v>
+      <c r="E92" t="s">
+        <v>43</v>
       </c>
       <c r="F92" t="n">
         <v>3.0</v>
@@ -12709,8 +12805,8 @@
       <c r="O92" t="n">
         <v>50.0</v>
       </c>
-      <c r="P92" t="n">
-        <v>1.1</v>
+      <c r="P92" t="s">
+        <v>57</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -12734,7 +12830,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -12780,13 +12876,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="AQ92" t="s" s="8">
         <v>37</v>
@@ -12796,8 +12892,8 @@
       <c r="A93" t="s">
         <v>39</v>
       </c>
-      <c r="B93" t="n">
-        <v>1.0</v>
+      <c r="B93" t="s">
+        <v>42</v>
       </c>
       <c r="C93" t="n">
         <v>65.0</v>
@@ -12805,8 +12901,8 @@
       <c r="D93" t="n">
         <v>104.0</v>
       </c>
-      <c r="E93" t="n">
-        <v>0.0</v>
+      <c r="E93" t="s">
+        <v>43</v>
       </c>
       <c r="F93" t="n">
         <v>3.0</v>
@@ -12838,8 +12934,8 @@
       <c r="O93" t="n">
         <v>38.0</v>
       </c>
-      <c r="P93" t="n">
-        <v>1.2</v>
+      <c r="P93" t="s">
+        <v>47</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -12863,7 +12959,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -12909,13 +13005,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="AQ93" t="s" s="8">
         <v>37</v>
@@ -12925,8 +13021,8 @@
       <c r="A94" t="s">
         <v>39</v>
       </c>
-      <c r="B94" t="n">
-        <v>1.0</v>
+      <c r="B94" t="s">
+        <v>42</v>
       </c>
       <c r="C94" t="n">
         <v>43.0</v>
@@ -12934,8 +13030,8 @@
       <c r="D94" t="n">
         <v>67.0</v>
       </c>
-      <c r="E94" t="n">
-        <v>0.0</v>
+      <c r="E94" t="s">
+        <v>43</v>
       </c>
       <c r="F94" t="n">
         <v>2.0</v>
@@ -12967,8 +13063,8 @@
       <c r="O94" t="n">
         <v>52.0</v>
       </c>
-      <c r="P94" t="n">
-        <v>0.9</v>
+      <c r="P94" t="s">
+        <v>53</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -12992,7 +13088,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13038,13 +13134,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="AQ94" t="s" s="8">
         <v>37</v>
@@ -13054,8 +13150,8 @@
       <c r="A95" t="s">
         <v>39</v>
       </c>
-      <c r="B95" t="n">
-        <v>1.0</v>
+      <c r="B95" t="s">
+        <v>42</v>
       </c>
       <c r="C95" t="n">
         <v>72.0</v>
@@ -13063,8 +13159,8 @@
       <c r="D95" t="n">
         <v>83.0</v>
       </c>
-      <c r="E95" t="n">
-        <v>0.0</v>
+      <c r="E95" t="s">
+        <v>43</v>
       </c>
       <c r="F95" t="n">
         <v>3.0</v>
@@ -13096,8 +13192,8 @@
       <c r="O95" t="n">
         <v>61.0</v>
       </c>
-      <c r="P95" t="n">
-        <v>1.0</v>
+      <c r="P95" t="s">
+        <v>42</v>
       </c>
       <c r="Q95" t="n">
         <v>1.0</v>
@@ -13121,7 +13217,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13167,13 +13263,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="AQ95" t="s" s="8">
         <v>37</v>
@@ -13183,8 +13279,8 @@
       <c r="A96" t="s">
         <v>39</v>
       </c>
-      <c r="B96" t="n">
-        <v>1.0</v>
+      <c r="B96" t="s">
+        <v>42</v>
       </c>
       <c r="C96" t="n">
         <v>64.0</v>
@@ -13192,8 +13288,8 @@
       <c r="D96" t="n">
         <v>75.0</v>
       </c>
-      <c r="E96" t="n">
-        <v>0.0</v>
+      <c r="E96" t="s">
+        <v>43</v>
       </c>
       <c r="F96" t="n">
         <v>3.0</v>
@@ -13225,8 +13321,8 @@
       <c r="O96" t="n">
         <v>71.0</v>
       </c>
-      <c r="P96" t="n">
-        <v>0.9</v>
+      <c r="P96" t="s">
+        <v>53</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13240,17 +13336,11 @@
       <c r="T96" t="n">
         <v>1.0</v>
       </c>
-      <c r="U96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W96" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
       <c r="X96" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13296,13 +13386,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AQ96" t="s" s="8">
         <v>37</v>
@@ -13312,8 +13402,8 @@
       <c r="A97" t="s">
         <v>39</v>
       </c>
-      <c r="B97" t="n">
-        <v>0.0</v>
+      <c r="B97" t="s">
+        <v>43</v>
       </c>
       <c r="C97" t="n">
         <v>49.0</v>
@@ -13321,8 +13411,8 @@
       <c r="D97" t="n">
         <v>92.0</v>
       </c>
-      <c r="E97" t="n">
-        <v>1.0</v>
+      <c r="E97" t="s">
+        <v>42</v>
       </c>
       <c r="F97" t="n">
         <v>3.0</v>
@@ -13354,8 +13444,8 @@
       <c r="O97" t="n">
         <v>78.0</v>
       </c>
-      <c r="P97" t="n">
-        <v>0.8</v>
+      <c r="P97" t="s">
+        <v>50</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13379,7 +13469,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13408,7 +13498,7 @@
         <v>0.0</v>
       </c>
       <c r="AI97" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ97" t="n">
         <v>1.0</v>
@@ -13423,13 +13513,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="AQ97" t="s" s="8">
         <v>37</v>
@@ -13439,8 +13529,8 @@
       <c r="A98" t="s">
         <v>39</v>
       </c>
-      <c r="B98" t="n">
-        <v>0.0</v>
+      <c r="B98" t="s">
+        <v>43</v>
       </c>
       <c r="C98" t="n">
         <v>72.0</v>
@@ -13448,8 +13538,8 @@
       <c r="D98" t="n">
         <v>59.0</v>
       </c>
-      <c r="E98" t="n">
-        <v>0.0</v>
+      <c r="E98" t="s">
+        <v>43</v>
       </c>
       <c r="F98" t="n">
         <v>3.0</v>
@@ -13478,11 +13568,11 @@
       <c r="N98" t="n">
         <v>138.0</v>
       </c>
-      <c r="O98" t="n">
+      <c r="O98" t="n" s="12">
         <v>90.0</v>
       </c>
-      <c r="P98" t="n">
-        <v>0.7</v>
+      <c r="P98" t="s">
+        <v>51</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13506,7 +13596,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -13550,13 +13640,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="AQ98" t="s" s="8">
         <v>37</v>
@@ -13566,8 +13656,8 @@
       <c r="A99" t="s">
         <v>39</v>
       </c>
-      <c r="B99" t="n">
-        <v>1.0</v>
+      <c r="B99" t="s">
+        <v>42</v>
       </c>
       <c r="C99" t="n">
         <v>62.0</v>
@@ -13575,8 +13665,8 @@
       <c r="D99" t="n">
         <v>118.0</v>
       </c>
-      <c r="E99" t="n">
-        <v>0.0</v>
+      <c r="E99" t="s">
+        <v>43</v>
       </c>
       <c r="F99" t="n">
         <v>2.0</v>
@@ -13608,8 +13698,8 @@
       <c r="O99" t="n">
         <v>49.0</v>
       </c>
-      <c r="P99" t="n">
-        <v>1.1</v>
+      <c r="P99" t="s">
+        <v>57</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -13633,7 +13723,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -13679,13 +13769,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="AQ99" t="s" s="8">
         <v>37</v>
@@ -13695,8 +13785,8 @@
       <c r="A100" t="s">
         <v>39</v>
       </c>
-      <c r="B100" t="n">
-        <v>1.0</v>
+      <c r="B100" t="s">
+        <v>42</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -13704,8 +13794,8 @@
       <c r="D100" t="n">
         <v>91.0</v>
       </c>
-      <c r="E100" t="n">
-        <v>0.0</v>
+      <c r="E100" t="s">
+        <v>43</v>
       </c>
       <c r="F100" t="n">
         <v>3.0</v>
@@ -13737,8 +13827,8 @@
       <c r="O100" t="n">
         <v>55.0</v>
       </c>
-      <c r="P100" t="n">
-        <v>0.9</v>
+      <c r="P100" t="s">
+        <v>53</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -13762,7 +13852,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -13808,13 +13898,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="AQ100" t="s" s="8">
         <v>37</v>
@@ -13824,8 +13914,8 @@
       <c r="A101" t="s">
         <v>39</v>
       </c>
-      <c r="B101" t="n">
-        <v>1.0</v>
+      <c r="B101" t="s">
+        <v>42</v>
       </c>
       <c r="C101" t="n" s="12">
         <v>38.0</v>
@@ -13833,8 +13923,8 @@
       <c r="D101" t="n">
         <v>82.0</v>
       </c>
-      <c r="E101" t="n">
-        <v>0.0</v>
+      <c r="E101" t="s">
+        <v>43</v>
       </c>
       <c r="F101" t="n">
         <v>3.0</v>
@@ -13866,8 +13956,8 @@
       <c r="O101" t="n">
         <v>41.0</v>
       </c>
-      <c r="P101" t="n">
-        <v>1.3</v>
+      <c r="P101" t="s">
+        <v>48</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -13891,7 +13981,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -13935,13 +14025,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="AQ101" t="s" s="8">
         <v>37</v>
@@ -13951,8 +14041,8 @@
       <c r="A102" t="s">
         <v>39</v>
       </c>
-      <c r="B102" t="n">
-        <v>1.0</v>
+      <c r="B102" t="s">
+        <v>42</v>
       </c>
       <c r="C102" t="n">
         <v>58.0</v>
@@ -13960,8 +14050,8 @@
       <c r="D102" t="n">
         <v>91.0</v>
       </c>
-      <c r="E102" t="n">
-        <v>0.0</v>
+      <c r="E102" t="s">
+        <v>43</v>
       </c>
       <c r="F102" t="n">
         <v>3.0</v>
@@ -13993,8 +14083,8 @@
       <c r="O102" t="n">
         <v>48.0</v>
       </c>
-      <c r="P102" t="n">
-        <v>1.1</v>
+      <c r="P102" t="s">
+        <v>57</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14018,7 +14108,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14064,13 +14154,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="AQ102" t="s" s="8">
         <v>37</v>
@@ -14080,8 +14170,8 @@
       <c r="A103" t="s">
         <v>39</v>
       </c>
-      <c r="B103" t="n">
-        <v>1.0</v>
+      <c r="B103" t="s">
+        <v>42</v>
       </c>
       <c r="C103" t="n">
         <v>61.0</v>
@@ -14089,8 +14179,8 @@
       <c r="D103" t="n">
         <v>57.0</v>
       </c>
-      <c r="E103" t="n">
-        <v>0.0</v>
+      <c r="E103" t="s">
+        <v>43</v>
       </c>
       <c r="F103" t="n">
         <v>3.0</v>
@@ -14122,8 +14212,8 @@
       <c r="O103" t="n">
         <v>58.0</v>
       </c>
-      <c r="P103" t="n">
-        <v>1.2</v>
+      <c r="P103" t="s">
+        <v>47</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14147,7 +14237,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14193,13 +14283,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="AQ103" t="s" s="8">
         <v>37</v>
@@ -14209,8 +14299,8 @@
       <c r="A104" t="s">
         <v>39</v>
       </c>
-      <c r="B104" t="n">
-        <v>1.0</v>
+      <c r="B104" t="s">
+        <v>42</v>
       </c>
       <c r="C104" t="n">
         <v>64.0</v>
@@ -14218,8 +14308,8 @@
       <c r="D104" t="n">
         <v>64.0</v>
       </c>
-      <c r="E104" t="n">
-        <v>0.0</v>
+      <c r="E104" t="s">
+        <v>43</v>
       </c>
       <c r="F104" t="n">
         <v>3.0</v>
@@ -14251,8 +14341,8 @@
       <c r="O104" t="n">
         <v>55.0</v>
       </c>
-      <c r="P104" t="n">
-        <v>1.1</v>
+      <c r="P104" t="s">
+        <v>57</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14276,7 +14366,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14322,13 +14412,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AQ104" t="s" s="8">
         <v>37</v>
@@ -14338,8 +14428,8 @@
       <c r="A105" t="s">
         <v>39</v>
       </c>
-      <c r="B105" t="n">
-        <v>1.0</v>
+      <c r="B105" t="s">
+        <v>42</v>
       </c>
       <c r="C105" t="n">
         <v>60.0</v>
@@ -14347,8 +14437,8 @@
       <c r="D105" t="n">
         <v>106.0</v>
       </c>
-      <c r="E105" t="n">
-        <v>0.0</v>
+      <c r="E105" t="s">
+        <v>43</v>
       </c>
       <c r="F105" t="n">
         <v>3.0</v>
@@ -14380,8 +14470,8 @@
       <c r="O105" t="n">
         <v>48.0</v>
       </c>
-      <c r="P105" t="n">
-        <v>0.9</v>
+      <c r="P105" t="s">
+        <v>53</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14405,7 +14495,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14451,13 +14541,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="AQ105" t="s" s="8">
         <v>37</v>
@@ -14467,8 +14557,8 @@
       <c r="A106" t="s">
         <v>39</v>
       </c>
-      <c r="B106" t="n">
-        <v>0.0</v>
+      <c r="B106" t="s">
+        <v>43</v>
       </c>
       <c r="C106" t="n">
         <v>76.0</v>
@@ -14476,8 +14566,8 @@
       <c r="D106" t="n">
         <v>78.0</v>
       </c>
-      <c r="E106" t="n">
-        <v>0.0</v>
+      <c r="E106" t="s">
+        <v>43</v>
       </c>
       <c r="F106" t="n">
         <v>3.0</v>
@@ -14509,8 +14599,8 @@
       <c r="O106" t="n">
         <v>69.0</v>
       </c>
-      <c r="P106" t="n">
-        <v>1.1</v>
+      <c r="P106" t="s">
+        <v>57</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -14534,7 +14624,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -14582,13 +14672,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="AQ106" t="s" s="8">
         <v>37</v>
@@ -14598,8 +14688,8 @@
       <c r="A107" t="s">
         <v>39</v>
       </c>
-      <c r="B107" t="n">
-        <v>1.0</v>
+      <c r="B107" t="s">
+        <v>42</v>
       </c>
       <c r="C107" t="n">
         <v>51.0</v>
@@ -14607,8 +14697,8 @@
       <c r="D107" t="n" s="12">
         <v>144.0</v>
       </c>
-      <c r="E107" t="n">
-        <v>0.0</v>
+      <c r="E107" t="s">
+        <v>43</v>
       </c>
       <c r="F107" t="n">
         <v>3.0</v>
@@ -14640,8 +14730,8 @@
       <c r="O107" t="n">
         <v>45.0</v>
       </c>
-      <c r="P107" t="n">
-        <v>1.0</v>
+      <c r="P107" t="s">
+        <v>42</v>
       </c>
       <c r="Q107" t="n">
         <v>1.0</v>
@@ -14665,7 +14755,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -14709,13 +14799,13 @@
       </c>
       <c r="AM107" s="8"/>
       <c r="AN107" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="AQ107" t="s" s="8">
         <v>37</v>
@@ -14725,8 +14815,8 @@
       <c r="A108" t="s">
         <v>39</v>
       </c>
-      <c r="B108" t="n">
-        <v>1.0</v>
+      <c r="B108" t="s">
+        <v>42</v>
       </c>
       <c r="C108" t="n" s="12">
         <v>32.0</v>
@@ -14734,8 +14824,8 @@
       <c r="D108" t="n">
         <v>86.0</v>
       </c>
-      <c r="E108" t="n">
-        <v>0.0</v>
+      <c r="E108" t="s">
+        <v>43</v>
       </c>
       <c r="F108" t="n">
         <v>3.0</v>
@@ -14767,8 +14857,8 @@
       <c r="O108" t="n">
         <v>54.0</v>
       </c>
-      <c r="P108" t="n">
-        <v>0.9</v>
+      <c r="P108" t="s">
+        <v>53</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -14792,7 +14882,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -14838,13 +14928,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="AQ108" t="s" s="8">
         <v>37</v>
@@ -14854,8 +14944,8 @@
       <c r="A109" t="s">
         <v>39</v>
       </c>
-      <c r="B109" t="n">
-        <v>1.0</v>
+      <c r="B109" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="C109" t="n" s="12">
         <v>78.0</v>
@@ -14863,8 +14953,8 @@
       <c r="D109" t="n">
         <v>72.0</v>
       </c>
-      <c r="E109" t="n">
-        <v>0.0</v>
+      <c r="E109" t="s">
+        <v>43</v>
       </c>
       <c r="F109" t="n">
         <v>3.0</v>
@@ -14896,8 +14986,8 @@
       <c r="O109" t="n">
         <v>73.0</v>
       </c>
-      <c r="P109" t="n">
-        <v>0.8</v>
+      <c r="P109" t="s">
+        <v>50</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -14921,7 +15011,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -14967,13 +15057,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="AQ109" t="s" s="8">
         <v>37</v>
@@ -14983,8 +15073,8 @@
       <c r="A110" t="s">
         <v>39</v>
       </c>
-      <c r="B110" t="n">
-        <v>1.0</v>
+      <c r="B110" t="s">
+        <v>42</v>
       </c>
       <c r="C110" t="n">
         <v>57.0</v>
@@ -14992,8 +15082,8 @@
       <c r="D110" t="n">
         <v>93.0</v>
       </c>
-      <c r="E110" t="n">
-        <v>0.0</v>
+      <c r="E110" t="s">
+        <v>43</v>
       </c>
       <c r="F110" t="n">
         <v>3.0</v>
@@ -15025,8 +15115,8 @@
       <c r="O110" t="n">
         <v>51.0</v>
       </c>
-      <c r="P110" t="n">
-        <v>1.1</v>
+      <c r="P110" t="s">
+        <v>57</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15050,7 +15140,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15096,13 +15186,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AQ110" t="s" s="8">
         <v>37</v>
@@ -15112,8 +15202,8 @@
       <c r="A111" t="s">
         <v>39</v>
       </c>
-      <c r="B111" t="n">
-        <v>0.0</v>
+      <c r="B111" t="s">
+        <v>43</v>
       </c>
       <c r="C111" t="n">
         <v>57.0</v>
@@ -15121,8 +15211,8 @@
       <c r="D111" t="n">
         <v>93.0</v>
       </c>
-      <c r="E111" t="n">
-        <v>0.0</v>
+      <c r="E111" t="s">
+        <v>43</v>
       </c>
       <c r="F111" t="n">
         <v>3.0</v>
@@ -15154,8 +15244,8 @@
       <c r="O111" t="n">
         <v>46.0</v>
       </c>
-      <c r="P111" t="n">
-        <v>1.2</v>
+      <c r="P111" t="s">
+        <v>47</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15179,7 +15269,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15210,7 +15300,7 @@
         <v>0.0</v>
       </c>
       <c r="AI111" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ111" t="n">
         <v>1.0</v>
@@ -15225,13 +15315,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="AQ111" t="s" s="8">
         <v>37</v>
@@ -15241,8 +15331,8 @@
       <c r="A112" t="s">
         <v>39</v>
       </c>
-      <c r="B112" t="n">
-        <v>1.0</v>
+      <c r="B112" t="s">
+        <v>42</v>
       </c>
       <c r="C112" t="n">
         <v>72.0</v>
@@ -15250,8 +15340,8 @@
       <c r="D112" t="n" s="12">
         <v>126.0</v>
       </c>
-      <c r="E112" t="n">
-        <v>1.0</v>
+      <c r="E112" t="s">
+        <v>42</v>
       </c>
       <c r="F112" t="n">
         <v>3.0</v>
@@ -15283,8 +15373,8 @@
       <c r="O112" t="n">
         <v>37.0</v>
       </c>
-      <c r="P112" t="n">
-        <v>1.4</v>
+      <c r="P112" t="s">
+        <v>69</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15308,7 +15398,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15356,13 +15446,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="AQ112" t="s" s="8">
         <v>37</v>
@@ -15372,8 +15462,8 @@
       <c r="A113" t="s">
         <v>39</v>
       </c>
-      <c r="B113" t="n">
-        <v>1.0</v>
+      <c r="B113" t="s">
+        <v>42</v>
       </c>
       <c r="C113" t="n" s="12">
         <v>22.0</v>
@@ -15381,8 +15471,8 @@
       <c r="D113" t="n">
         <v>97.0</v>
       </c>
-      <c r="E113" t="n">
-        <v>0.0</v>
+      <c r="E113" t="s">
+        <v>43</v>
       </c>
       <c r="F113" t="n">
         <v>3.0</v>
@@ -15414,8 +15504,8 @@
       <c r="O113" t="n">
         <v>45.0</v>
       </c>
-      <c r="P113" t="n">
-        <v>0.9</v>
+      <c r="P113" t="s">
+        <v>53</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15439,7 +15529,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15485,13 +15575,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="AQ113" t="s" s="8">
         <v>37</v>
@@ -15501,8 +15591,8 @@
       <c r="A114" t="s">
         <v>39</v>
       </c>
-      <c r="B114" t="n">
-        <v>1.0</v>
+      <c r="B114" t="s">
+        <v>42</v>
       </c>
       <c r="C114" t="n">
         <v>45.0</v>
@@ -15510,8 +15600,8 @@
       <c r="D114" t="n">
         <v>89.0</v>
       </c>
-      <c r="E114" t="n">
-        <v>0.0</v>
+      <c r="E114" t="s">
+        <v>43</v>
       </c>
       <c r="F114" t="n">
         <v>3.0</v>
@@ -15543,8 +15633,8 @@
       <c r="O114" t="n">
         <v>55.0</v>
       </c>
-      <c r="P114" t="n">
-        <v>1.1</v>
+      <c r="P114" t="s">
+        <v>57</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -15568,7 +15658,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -15614,13 +15704,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="AQ114" t="s" s="8">
         <v>37</v>
@@ -15630,8 +15720,8 @@
       <c r="A115" t="s">
         <v>39</v>
       </c>
-      <c r="B115" t="n">
-        <v>1.0</v>
+      <c r="B115" t="s">
+        <v>42</v>
       </c>
       <c r="C115" t="n">
         <v>68.0</v>
@@ -15639,8 +15729,8 @@
       <c r="D115" t="n">
         <v>80.0</v>
       </c>
-      <c r="E115" t="n">
-        <v>0.0</v>
+      <c r="E115" t="s">
+        <v>43</v>
       </c>
       <c r="F115" t="n">
         <v>2.0</v>
@@ -15672,8 +15762,8 @@
       <c r="O115" t="n">
         <v>48.0</v>
       </c>
-      <c r="P115" t="n">
-        <v>1.2</v>
+      <c r="P115" t="s">
+        <v>47</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -15697,7 +15787,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -15745,13 +15835,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="AQ115" t="s" s="8">
         <v>37</v>
@@ -15761,8 +15851,8 @@
       <c r="A116" t="s">
         <v>39</v>
       </c>
-      <c r="B116" t="n">
-        <v>1.0</v>
+      <c r="B116" t="s">
+        <v>42</v>
       </c>
       <c r="C116" t="n">
         <v>57.0</v>
@@ -15770,8 +15860,8 @@
       <c r="D116" t="n">
         <v>75.0</v>
       </c>
-      <c r="E116" t="n">
-        <v>0.0</v>
+      <c r="E116" t="s">
+        <v>43</v>
       </c>
       <c r="F116" t="n">
         <v>3.0</v>
@@ -15803,8 +15893,8 @@
       <c r="O116" t="n">
         <v>65.0</v>
       </c>
-      <c r="P116" t="n">
-        <v>0.8</v>
+      <c r="P116" t="s">
+        <v>50</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -15828,7 +15918,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -15874,13 +15964,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="AQ116" t="s" s="8">
         <v>37</v>
@@ -15890,8 +15980,8 @@
       <c r="A117" t="s">
         <v>39</v>
       </c>
-      <c r="B117" t="n">
-        <v>1.0</v>
+      <c r="B117" t="s">
+        <v>42</v>
       </c>
       <c r="C117" t="n">
         <v>57.0</v>
@@ -15899,8 +15989,8 @@
       <c r="D117" t="n">
         <v>69.0</v>
       </c>
-      <c r="E117" t="n">
-        <v>0.0</v>
+      <c r="E117" t="s">
+        <v>43</v>
       </c>
       <c r="F117" t="n">
         <v>3.0</v>
@@ -15932,8 +16022,8 @@
       <c r="O117" t="n">
         <v>35.0</v>
       </c>
-      <c r="P117" t="n">
-        <v>1.2</v>
+      <c r="P117" t="s">
+        <v>47</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -15957,7 +16047,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16003,13 +16093,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="AQ117" t="s" s="8">
         <v>37</v>
@@ -16019,8 +16109,8 @@
       <c r="A118" t="s">
         <v>39</v>
       </c>
-      <c r="B118" t="n">
-        <v>1.0</v>
+      <c r="B118" t="s">
+        <v>42</v>
       </c>
       <c r="C118" t="n" s="12">
         <v>24.0</v>
@@ -16028,8 +16118,8 @@
       <c r="D118" t="n">
         <v>106.0</v>
       </c>
-      <c r="E118" t="n">
-        <v>0.0</v>
+      <c r="E118" t="s">
+        <v>43</v>
       </c>
       <c r="F118" t="n">
         <v>3.0</v>
@@ -16061,8 +16151,8 @@
       <c r="O118" t="n">
         <v>49.0</v>
       </c>
-      <c r="P118" t="n">
-        <v>0.8</v>
+      <c r="P118" t="s">
+        <v>50</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16086,7 +16176,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16132,13 +16222,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="AQ118" t="s" s="8">
         <v>37</v>
@@ -16148,8 +16238,8 @@
       <c r="A119" t="s">
         <v>39</v>
       </c>
-      <c r="B119" t="n">
-        <v>1.0</v>
+      <c r="B119" t="s">
+        <v>42</v>
       </c>
       <c r="C119" t="n">
         <v>57.0</v>
@@ -16157,8 +16247,8 @@
       <c r="D119" t="n">
         <v>110.0</v>
       </c>
-      <c r="E119" t="n">
-        <v>1.0</v>
+      <c r="E119" t="s">
+        <v>42</v>
       </c>
       <c r="F119" t="n">
         <v>3.0</v>
@@ -16190,8 +16280,8 @@
       <c r="O119" t="n">
         <v>51.0</v>
       </c>
-      <c r="P119" t="n">
-        <v>0.9</v>
+      <c r="P119" t="s">
+        <v>53</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16215,7 +16305,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16263,13 +16353,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="AQ119" t="s" s="8">
         <v>37</v>
@@ -16279,8 +16369,8 @@
       <c r="A120" t="s">
         <v>39</v>
       </c>
-      <c r="B120" t="n">
-        <v>1.0</v>
+      <c r="B120" t="s">
+        <v>42</v>
       </c>
       <c r="C120" t="n" s="12">
         <v>25.0</v>
@@ -16288,8 +16378,8 @@
       <c r="D120" t="n">
         <v>108.0</v>
       </c>
-      <c r="E120" t="n">
-        <v>0.0</v>
+      <c r="E120" t="s">
+        <v>43</v>
       </c>
       <c r="F120" t="n">
         <v>3.0</v>
@@ -16321,8 +16411,8 @@
       <c r="O120" t="n">
         <v>61.0</v>
       </c>
-      <c r="P120" t="n">
-        <v>0.8</v>
+      <c r="P120" t="s">
+        <v>50</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16346,7 +16436,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16392,13 +16482,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AQ120" t="s" s="8">
         <v>37</v>
@@ -16408,8 +16498,8 @@
       <c r="A121" t="s">
         <v>39</v>
       </c>
-      <c r="B121" t="n">
-        <v>1.0</v>
+      <c r="B121" t="s">
+        <v>42</v>
       </c>
       <c r="C121" t="n">
         <v>61.0</v>
@@ -16417,8 +16507,8 @@
       <c r="D121" t="n">
         <v>82.0</v>
       </c>
-      <c r="E121" t="n">
-        <v>0.0</v>
+      <c r="E121" t="s">
+        <v>43</v>
       </c>
       <c r="F121" t="n">
         <v>3.0</v>
@@ -16450,8 +16540,8 @@
       <c r="O121" t="n">
         <v>39.0</v>
       </c>
-      <c r="P121" t="n">
-        <v>1.2</v>
+      <c r="P121" t="s">
+        <v>47</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16475,7 +16565,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -16521,13 +16611,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="AQ121" t="s" s="8">
         <v>37</v>
@@ -16537,8 +16627,8 @@
       <c r="A122" t="s">
         <v>39</v>
       </c>
-      <c r="B122" t="n">
-        <v>1.0</v>
+      <c r="B122" t="s">
+        <v>42</v>
       </c>
       <c r="C122" t="n">
         <v>62.0</v>
@@ -16546,8 +16636,8 @@
       <c r="D122" t="n">
         <v>97.0</v>
       </c>
-      <c r="E122" t="n">
-        <v>0.0</v>
+      <c r="E122" t="s">
+        <v>43</v>
       </c>
       <c r="F122" t="n">
         <v>3.0</v>
@@ -16579,8 +16669,8 @@
       <c r="O122" t="n">
         <v>46.0</v>
       </c>
-      <c r="P122" t="n">
-        <v>1.1</v>
+      <c r="P122" t="s">
+        <v>57</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -16604,7 +16694,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -16650,13 +16740,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="AQ122" t="s" s="8">
         <v>37</v>
@@ -16666,8 +16756,8 @@
       <c r="A123" t="s">
         <v>39</v>
       </c>
-      <c r="B123" t="n">
-        <v>1.0</v>
+      <c r="B123" t="s">
+        <v>42</v>
       </c>
       <c r="C123" t="n">
         <v>56.0</v>
@@ -16675,8 +16765,8 @@
       <c r="D123" t="n">
         <v>104.0</v>
       </c>
-      <c r="E123" t="n">
-        <v>0.0</v>
+      <c r="E123" t="s">
+        <v>43</v>
       </c>
       <c r="F123" t="n">
         <v>3.0</v>
@@ -16708,8 +16798,8 @@
       <c r="O123" t="n">
         <v>57.0</v>
       </c>
-      <c r="P123" t="n">
-        <v>1.2</v>
+      <c r="P123" t="s">
+        <v>47</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -16733,7 +16823,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -16779,13 +16869,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="AQ123" t="s" s="8">
         <v>37</v>
@@ -16795,8 +16885,8 @@
       <c r="A124" t="s">
         <v>39</v>
       </c>
-      <c r="B124" t="n">
-        <v>1.0</v>
+      <c r="B124" t="s">
+        <v>42</v>
       </c>
       <c r="C124" t="n">
         <v>58.0</v>
@@ -16804,8 +16894,8 @@
       <c r="D124" t="n">
         <v>93.0</v>
       </c>
-      <c r="E124" t="n">
-        <v>0.0</v>
+      <c r="E124" t="s">
+        <v>43</v>
       </c>
       <c r="F124" t="n">
         <v>3.0</v>
@@ -16837,8 +16927,8 @@
       <c r="O124" t="n">
         <v>39.0</v>
       </c>
-      <c r="P124" t="n">
-        <v>1.2</v>
+      <c r="P124" t="s">
+        <v>47</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -16862,7 +16952,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -16908,13 +16998,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AQ124" t="s" s="8">
         <v>37</v>
@@ -16924,8 +17014,8 @@
       <c r="A125" t="s">
         <v>39</v>
       </c>
-      <c r="B125" t="n">
-        <v>1.0</v>
+      <c r="B125" t="s">
+        <v>42</v>
       </c>
       <c r="C125" t="n">
         <v>40.0</v>
@@ -16933,8 +17023,8 @@
       <c r="D125" t="n">
         <v>83.0</v>
       </c>
-      <c r="E125" t="n">
-        <v>0.0</v>
+      <c r="E125" t="s">
+        <v>43</v>
       </c>
       <c r="F125" t="n">
         <v>3.0</v>
@@ -16966,8 +17056,8 @@
       <c r="O125" t="n">
         <v>39.0</v>
       </c>
-      <c r="P125" t="n">
-        <v>1.3</v>
+      <c r="P125" t="s">
+        <v>48</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -16991,7 +17081,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17037,145 +17127,16 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="AQ125" t="s" s="8">
         <v>37</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>38</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="M126" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="N126" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="O126" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="P126" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S126" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="T126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V126" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X126" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>301.0</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AN126" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="AO126" s="8"/>
-      <c r="AP126" t="s">
-        <v>269</v>
-      </c>
-      <c r="AQ126" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="367">
   <si>
     <t>Пациент</t>
   </si>
@@ -134,6 +134,9 @@
     <t>PCI</t>
   </si>
   <si>
+    <t>паркетный</t>
+  </si>
+  <si>
     <t>М</t>
   </si>
   <si>
@@ -144,6 +147,186 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>центнер</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>81,5</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>60,5</t>
+  </si>
+  <si>
+    <t>70,5</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>108</t>
   </si>
   <si>
     <t>1 тип</t>
@@ -1117,9 +1300,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="4.84375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.75390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.87890625" customWidth="true" bestFit="true"/>
@@ -1163,10 +1346,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="12">
-        <v>305</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
@@ -1310,11 +1493,11 @@
       <c r="C3" t="n">
         <v>54.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>75.0</v>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>3.0</v>
@@ -1347,7 +1530,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1371,7 +1554,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1423,10 +1606,10 @@
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="AQ3" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
@@ -1434,16 +1617,14 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.0</v>
+        <v>41</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" t="s">
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1476,7 +1657,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1500,7 +1681,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1552,10 +1733,10 @@
       </c>
       <c r="AO4" s="8"/>
       <c r="AP4" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="AQ4" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
@@ -1563,16 +1744,16 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>56.0</v>
       </c>
-      <c r="D5" t="n">
-        <v>83.0</v>
+      <c r="D5" t="s">
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1605,7 +1786,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -1629,7 +1810,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -1681,10 +1862,10 @@
       </c>
       <c r="AO5" s="8"/>
       <c r="AP5" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="AQ5" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6">
@@ -1692,16 +1873,16 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n" s="12">
         <v>37.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>79.0</v>
+      <c r="D6" t="s">
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
         <v>3.0</v>
@@ -1734,7 +1915,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -1758,7 +1939,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -1810,10 +1991,10 @@
       </c>
       <c r="AO6" s="8"/>
       <c r="AP6" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="AQ6" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7">
@@ -1821,16 +2002,16 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>57.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>75.0</v>
+      <c r="D7" t="s">
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -1863,7 +2044,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -1887,7 +2068,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -1939,10 +2120,10 @@
       </c>
       <c r="AO7" s="8"/>
       <c r="AP7" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="AQ7" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8">
@@ -1950,16 +2131,16 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>44.0</v>
       </c>
-      <c r="D8" t="n">
-        <v>61.0</v>
+      <c r="D8" t="s">
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
         <v>3.0</v>
@@ -1992,7 +2173,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2016,7 +2197,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2068,10 +2249,10 @@
       </c>
       <c r="AO8" s="8"/>
       <c r="AP8" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="AQ8" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9">
@@ -2079,16 +2260,14 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>81.0</v>
+        <v>42</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2121,7 +2300,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2145,7 +2324,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2197,27 +2376,27 @@
       </c>
       <c r="AO9" s="8"/>
       <c r="AP9" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="AQ9" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
+      <c r="B10" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="C10" t="n">
         <v>59.0</v>
       </c>
-      <c r="D10" t="n">
-        <v>66.0</v>
+      <c r="D10" t="s">
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2250,7 +2429,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2274,7 +2453,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2326,10 +2505,10 @@
       </c>
       <c r="AO10" s="8"/>
       <c r="AP10" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AQ10" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11">
@@ -2337,16 +2516,16 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>59.0</v>
       </c>
-      <c r="D11" t="n">
-        <v>84.0</v>
+      <c r="D11" t="s">
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
         <v>3.0</v>
@@ -2379,7 +2558,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2403,7 +2582,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2455,10 +2634,10 @@
       </c>
       <c r="AO11" s="8"/>
       <c r="AP11" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="AQ11" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12">
@@ -2466,16 +2645,16 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
         <v>59.0</v>
       </c>
-      <c r="D12" t="n">
-        <v>86.0</v>
+      <c r="D12" t="s">
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -2508,7 +2687,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2532,7 +2711,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2584,10 +2763,10 @@
       </c>
       <c r="AO12" s="8"/>
       <c r="AP12" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="AQ12" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
@@ -2595,16 +2774,16 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
       </c>
-      <c r="D13" t="n">
-        <v>84.0</v>
+      <c r="D13" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -2637,7 +2816,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -2661,7 +2840,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -2713,10 +2892,10 @@
       </c>
       <c r="AO13" s="8"/>
       <c r="AP13" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="AQ13" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14">
@@ -2724,16 +2903,16 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
         <v>66.0</v>
       </c>
-      <c r="D14" t="n">
-        <v>88.0</v>
+      <c r="D14" t="s">
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -2766,7 +2945,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -2790,7 +2969,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -2842,10 +3021,10 @@
       </c>
       <c r="AO14" s="8"/>
       <c r="AP14" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="AQ14" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15">
@@ -2853,16 +3032,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
         <v>60.0</v>
       </c>
-      <c r="D15" t="n">
-        <v>59.0</v>
+      <c r="D15" t="s">
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -2895,7 +3074,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -2919,7 +3098,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -2971,10 +3150,10 @@
       </c>
       <c r="AO15" s="8"/>
       <c r="AP15" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="AQ15" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16">
@@ -2982,16 +3161,16 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
         <v>55.0</v>
       </c>
-      <c r="D16" t="n">
-        <v>74.0</v>
+      <c r="D16" t="s">
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
         <v>3.0</v>
@@ -3024,7 +3203,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3048,7 +3227,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3100,10 +3279,10 @@
       </c>
       <c r="AO16" s="8"/>
       <c r="AP16" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="AQ16" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17">
@@ -3111,16 +3290,16 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="n">
         <v>63.0</v>
       </c>
-      <c r="D17" t="n">
-        <v>89.0</v>
+      <c r="D17" t="s">
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
         <v>3.0</v>
@@ -3153,7 +3332,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3177,7 +3356,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3229,10 +3408,10 @@
       </c>
       <c r="AO17" s="8"/>
       <c r="AP17" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="AQ17" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18">
@@ -3240,16 +3419,16 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
         <v>58.0</v>
       </c>
-      <c r="D18" t="n">
-        <v>71.0</v>
+      <c r="D18" t="s">
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -3282,7 +3461,7 @@
         <v>37.0</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" t="n">
         <v>1.0</v>
@@ -3306,7 +3485,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3358,10 +3537,10 @@
       </c>
       <c r="AO18" s="8"/>
       <c r="AP18" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="AQ18" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19">
@@ -3369,16 +3548,16 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
         <v>53.0</v>
       </c>
-      <c r="D19" t="n">
-        <v>74.0</v>
+      <c r="D19" t="s">
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -3411,7 +3590,7 @@
         <v>53.0</v>
       </c>
       <c r="P19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q19" t="n">
         <v>1.0</v>
@@ -3435,7 +3614,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3487,10 +3666,10 @@
       </c>
       <c r="AO19" s="8"/>
       <c r="AP19" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="AQ19" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20">
@@ -3498,16 +3677,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
         <v>62.0</v>
       </c>
-      <c r="D20" t="n">
-        <v>79.0</v>
+      <c r="D20" t="s">
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -3540,7 +3719,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3564,7 +3743,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -3616,10 +3795,10 @@
       </c>
       <c r="AO20" s="8"/>
       <c r="AP20" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="AQ20" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21">
@@ -3627,16 +3806,16 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
         <v>55.0</v>
       </c>
-      <c r="D21" t="n">
-        <v>102.0</v>
+      <c r="D21" t="s">
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -3669,7 +3848,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -3693,7 +3872,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -3745,10 +3924,10 @@
       </c>
       <c r="AO21" s="8"/>
       <c r="AP21" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AQ21" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22">
@@ -3756,16 +3935,16 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="n">
         <v>59.0</v>
       </c>
-      <c r="D22" t="n">
-        <v>71.0</v>
+      <c r="D22" t="s">
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
         <v>3.0</v>
@@ -3798,7 +3977,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -3822,7 +4001,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -3874,10 +4053,10 @@
       </c>
       <c r="AO22" s="8"/>
       <c r="AP22" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="AQ22" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23">
@@ -3885,16 +4064,16 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="n">
         <v>59.0</v>
       </c>
-      <c r="D23" t="n">
-        <v>64.0</v>
+      <c r="D23" t="s">
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -3927,7 +4106,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -3951,7 +4130,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4003,10 +4182,10 @@
       </c>
       <c r="AO23" s="8"/>
       <c r="AP23" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="AQ23" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24">
@@ -4014,16 +4193,16 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
         <v>60.0</v>
       </c>
-      <c r="D24" t="n">
-        <v>64.0</v>
+      <c r="D24" t="s">
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="n">
         <v>3.0</v>
@@ -4056,7 +4235,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4080,7 +4259,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4132,10 +4311,10 @@
       </c>
       <c r="AO24" s="8"/>
       <c r="AP24" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="AQ24" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25">
@@ -4143,16 +4322,16 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="n">
         <v>52.0</v>
       </c>
-      <c r="D25" t="n">
-        <v>61.0</v>
+      <c r="D25" t="s">
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -4185,7 +4364,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4209,7 +4388,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4261,10 +4440,10 @@
       </c>
       <c r="AO25" s="8"/>
       <c r="AP25" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="AQ25" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26">
@@ -4272,16 +4451,16 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
         <v>63.0</v>
       </c>
-      <c r="D26" t="n">
-        <v>71.0</v>
+      <c r="D26" t="s">
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -4314,7 +4493,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4338,7 +4517,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4390,10 +4569,10 @@
       </c>
       <c r="AO26" s="8"/>
       <c r="AP26" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="AQ26" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27">
@@ -4401,16 +4580,16 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="n">
         <v>58.0</v>
       </c>
-      <c r="D27" t="n">
-        <v>93.0</v>
+      <c r="D27" t="s">
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -4443,7 +4622,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4467,7 +4646,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4515,10 +4694,10 @@
       </c>
       <c r="AO27" s="8"/>
       <c r="AP27" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="AQ27" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28">
@@ -4526,16 +4705,16 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="n">
         <v>59.0</v>
       </c>
-      <c r="D28" t="n">
-        <v>80.0</v>
+      <c r="D28" t="s">
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
         <v>3.0</v>
@@ -4568,7 +4747,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4592,7 +4771,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -4644,10 +4823,10 @@
       </c>
       <c r="AO28" s="8"/>
       <c r="AP28" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="AQ28" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29">
@@ -4655,16 +4834,16 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="n">
         <v>57.0</v>
       </c>
-      <c r="D29" t="n">
-        <v>79.0</v>
+      <c r="D29" t="s">
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -4697,7 +4876,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -4721,7 +4900,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -4771,10 +4950,10 @@
       </c>
       <c r="AO29" s="8"/>
       <c r="AP29" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="AQ29" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30">
@@ -4782,16 +4961,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="n">
         <v>63.0</v>
       </c>
-      <c r="D30" t="n">
-        <v>70.0</v>
+      <c r="D30" t="s">
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -4824,7 +5003,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -4848,7 +5027,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -4898,10 +5077,10 @@
       </c>
       <c r="AO30" s="8"/>
       <c r="AP30" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="AQ30" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31">
@@ -4909,16 +5088,16 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="n">
         <v>57.0</v>
       </c>
-      <c r="D31" t="n">
-        <v>66.0</v>
+      <c r="D31" t="s">
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -4951,7 +5130,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -4975,7 +5154,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5027,10 +5206,10 @@
       </c>
       <c r="AO31" s="8"/>
       <c r="AP31" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="AQ31" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32">
@@ -5038,16 +5217,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="n">
         <v>61.0</v>
       </c>
-      <c r="D32" t="n">
-        <v>45.0</v>
+      <c r="D32" t="s">
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -5080,7 +5259,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5104,7 +5283,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5156,10 +5335,10 @@
       </c>
       <c r="AO32" s="8"/>
       <c r="AP32" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="AQ32" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33">
@@ -5167,16 +5346,16 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="n">
         <v>53.0</v>
       </c>
-      <c r="D33" t="n">
-        <v>92.0</v>
+      <c r="D33" t="s">
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -5209,7 +5388,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5233,7 +5412,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5285,10 +5464,10 @@
       </c>
       <c r="AO33" s="8"/>
       <c r="AP33" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="AQ33" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34">
@@ -5296,16 +5475,16 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="n">
         <v>57.0</v>
       </c>
-      <c r="D34" t="n">
-        <v>103.0</v>
+      <c r="D34" t="s">
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -5338,7 +5517,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5362,7 +5541,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5404,10 +5583,10 @@
       </c>
       <c r="AO34" s="8"/>
       <c r="AP34" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="AQ34" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35">
@@ -5415,16 +5594,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="n">
         <v>57.0</v>
       </c>
-      <c r="D35" t="n">
-        <v>75.0</v>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -5457,7 +5636,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5481,7 +5660,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5533,10 +5712,10 @@
       </c>
       <c r="AO35" s="8"/>
       <c r="AP35" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="AQ35" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36">
@@ -5544,16 +5723,16 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n">
         <v>52.0</v>
       </c>
-      <c r="D36" t="n">
-        <v>65.0</v>
+      <c r="D36" t="s">
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
@@ -5586,7 +5765,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -5610,7 +5789,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -5662,10 +5841,10 @@
       </c>
       <c r="AO36" s="8"/>
       <c r="AP36" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="AQ36" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37">
@@ -5673,16 +5852,16 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="n">
         <v>61.0</v>
       </c>
-      <c r="D37" t="n">
-        <v>53.0</v>
+      <c r="D37" t="s">
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="n">
         <v>3.0</v>
@@ -5715,7 +5894,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -5739,7 +5918,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -5791,10 +5970,10 @@
       </c>
       <c r="AO37" s="8"/>
       <c r="AP37" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="AQ37" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38">
@@ -5802,16 +5981,16 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="n">
         <v>62.0</v>
       </c>
-      <c r="D38" t="n">
-        <v>57.0</v>
+      <c r="D38" t="s">
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F38" t="n">
         <v>3.0</v>
@@ -5844,7 +6023,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -5868,7 +6047,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -5920,10 +6099,10 @@
       </c>
       <c r="AO38" s="8"/>
       <c r="AP38" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="AQ38" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
@@ -5931,16 +6110,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n">
         <v>61.0</v>
       </c>
-      <c r="D39" t="n">
-        <v>76.0</v>
+      <c r="D39" t="s">
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -5973,7 +6152,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -5997,7 +6176,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6045,10 +6224,10 @@
       </c>
       <c r="AO39" s="8"/>
       <c r="AP39" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="AQ39" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40">
@@ -6056,16 +6235,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="n">
         <v>58.0</v>
       </c>
-      <c r="D40" t="n">
-        <v>81.5</v>
+      <c r="D40" t="s">
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="n">
         <v>3.0</v>
@@ -6098,7 +6277,7 @@
         <v>45.0</v>
       </c>
       <c r="P40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q40" t="n">
         <v>1.0</v>
@@ -6122,7 +6301,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6174,10 +6353,10 @@
       </c>
       <c r="AO40" s="8"/>
       <c r="AP40" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="AQ40" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
@@ -6185,16 +6364,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="n">
         <v>53.0</v>
       </c>
-      <c r="D41" t="n">
-        <v>105.0</v>
+      <c r="D41" t="s">
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -6227,7 +6406,7 @@
         <v>38.0</v>
       </c>
       <c r="P41" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6251,7 +6430,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6303,10 +6482,10 @@
       </c>
       <c r="AO41" s="8"/>
       <c r="AP41" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="AQ41" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
@@ -6314,16 +6493,16 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="n">
         <v>48.0</v>
       </c>
-      <c r="D42" t="n">
-        <v>68.0</v>
+      <c r="D42" t="s">
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -6356,7 +6535,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6380,7 +6559,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6432,10 +6611,10 @@
       </c>
       <c r="AO42" s="8"/>
       <c r="AP42" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="AQ42" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
@@ -6443,16 +6622,16 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" t="n">
         <v>51.0</v>
       </c>
-      <c r="D43" t="n">
-        <v>86.0</v>
+      <c r="D43" t="s">
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -6485,7 +6664,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6509,7 +6688,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6561,10 +6740,10 @@
       </c>
       <c r="AO43" s="8"/>
       <c r="AP43" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="AQ43" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
@@ -6572,16 +6751,16 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" t="n">
         <v>56.0</v>
       </c>
-      <c r="D44" t="n">
-        <v>76.0</v>
+      <c r="D44" t="s">
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -6614,7 +6793,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -6638,7 +6817,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -6690,10 +6869,10 @@
       </c>
       <c r="AO44" s="8"/>
       <c r="AP44" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="AQ44" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45">
@@ -6701,16 +6880,16 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="n">
         <v>64.0</v>
       </c>
-      <c r="D45" t="n">
-        <v>73.0</v>
+      <c r="D45" t="s">
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -6743,7 +6922,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -6767,7 +6946,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -6819,10 +6998,10 @@
       </c>
       <c r="AO45" s="8"/>
       <c r="AP45" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="AQ45" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46">
@@ -6830,16 +7009,16 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" t="n">
         <v>59.0</v>
       </c>
-      <c r="D46" t="n">
-        <v>60.5</v>
+      <c r="D46" t="s">
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -6872,7 +7051,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -6896,7 +7075,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -6948,10 +7127,10 @@
       </c>
       <c r="AO46" s="8"/>
       <c r="AP46" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="AQ46" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
@@ -6959,16 +7138,16 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" t="n">
         <v>56.0</v>
       </c>
-      <c r="D47" t="n">
-        <v>70.5</v>
+      <c r="D47" t="s">
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -7001,7 +7180,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7025,7 +7204,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7077,10 +7256,10 @@
       </c>
       <c r="AO47" s="8"/>
       <c r="AP47" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AQ47" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48">
@@ -7088,16 +7267,16 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" t="n">
         <v>64.0</v>
       </c>
-      <c r="D48" t="n">
-        <v>56.0</v>
+      <c r="D48" t="s">
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -7130,7 +7309,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7154,7 +7333,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7206,10 +7385,10 @@
       </c>
       <c r="AO48" s="8"/>
       <c r="AP48" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="AQ48" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49">
@@ -7217,16 +7396,16 @@
         <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" t="n">
         <v>60.0</v>
       </c>
-      <c r="D49" t="n">
-        <v>61.0</v>
+      <c r="D49" t="s">
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -7259,7 +7438,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7283,7 +7462,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7335,10 +7514,10 @@
       </c>
       <c r="AO49" s="8"/>
       <c r="AP49" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="AQ49" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50">
@@ -7346,16 +7525,16 @@
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" t="n">
         <v>65.0</v>
       </c>
-      <c r="D50" t="n">
-        <v>77.0</v>
+      <c r="D50" t="s">
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -7388,7 +7567,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7412,7 +7591,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7464,10 +7643,10 @@
       </c>
       <c r="AO50" s="8"/>
       <c r="AP50" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AQ50" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51">
@@ -7475,16 +7654,16 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" t="n">
         <v>65.0</v>
       </c>
-      <c r="D51" t="n">
-        <v>65.0</v>
+      <c r="D51" t="s">
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -7517,7 +7696,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7541,7 +7720,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7593,10 +7772,10 @@
       </c>
       <c r="AO51" s="8"/>
       <c r="AP51" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AQ51" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52">
@@ -7604,16 +7783,16 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C52" t="n">
         <v>68.0</v>
       </c>
-      <c r="D52" t="n">
-        <v>67.0</v>
+      <c r="D52" t="s">
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="n">
         <v>3.0</v>
@@ -7646,7 +7825,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -7670,7 +7849,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -7722,10 +7901,10 @@
       </c>
       <c r="AO52" s="8"/>
       <c r="AP52" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="AQ52" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53">
@@ -7733,16 +7912,16 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
         <v>54.0</v>
       </c>
-      <c r="D53" t="n">
-        <v>76.0</v>
+      <c r="D53" t="s">
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -7775,7 +7954,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -7799,7 +7978,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -7851,10 +8030,10 @@
       </c>
       <c r="AO53" s="8"/>
       <c r="AP53" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="AQ53" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54">
@@ -7862,16 +8041,16 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="n">
         <v>66.0</v>
       </c>
-      <c r="D54" t="n">
-        <v>71.0</v>
+      <c r="D54" t="s">
+        <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -7904,7 +8083,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -7928,7 +8107,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -7976,13 +8155,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="AQ54" t="s" s="8">
         <v>37</v>
@@ -7993,16 +8172,16 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="n">
         <v>62.0</v>
       </c>
-      <c r="D55" t="n">
-        <v>57.0</v>
+      <c r="D55" t="s">
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F55" t="n">
         <v>3.0</v>
@@ -8035,7 +8214,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8059,7 +8238,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8105,13 +8284,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="AQ55" t="s" s="8">
         <v>37</v>
@@ -8122,16 +8301,16 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" t="n">
         <v>55.0</v>
       </c>
-      <c r="D56" t="n">
-        <v>89.0</v>
+      <c r="D56" t="s">
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" t="n">
         <v>3.0</v>
@@ -8164,7 +8343,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8188,7 +8367,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8236,13 +8415,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="AQ56" t="s" s="8">
         <v>37</v>
@@ -8253,16 +8432,16 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" t="n">
         <v>53.0</v>
       </c>
-      <c r="D57" t="n">
-        <v>118.0</v>
+      <c r="D57" t="s">
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -8295,7 +8474,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8319,7 +8498,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8367,13 +8546,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="AQ57" t="s" s="8">
         <v>37</v>
@@ -8384,16 +8563,16 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C58" t="n">
         <v>60.0</v>
       </c>
-      <c r="D58" t="n">
-        <v>71.0</v>
+      <c r="D58" t="s">
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="n">
         <v>2.0</v>
@@ -8426,7 +8605,7 @@
         <v>76.0</v>
       </c>
       <c r="P58" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8450,7 +8629,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8496,13 +8675,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="AQ58" t="s" s="8">
         <v>37</v>
@@ -8513,16 +8692,16 @@
         <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" t="n">
         <v>54.0</v>
       </c>
-      <c r="D59" t="n">
-        <v>67.0</v>
+      <c r="D59" t="s">
+        <v>79</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="n">
         <v>3.0</v>
@@ -8555,7 +8734,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8579,7 +8758,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -8625,13 +8804,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="AQ59" t="s" s="8">
         <v>37</v>
@@ -8642,16 +8821,16 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C60" t="n">
         <v>65.0</v>
       </c>
-      <c r="D60" t="n">
-        <v>70.0</v>
+      <c r="D60" t="s">
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="n">
         <v>3.0</v>
@@ -8684,7 +8863,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -8708,7 +8887,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -8754,13 +8933,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="AQ60" t="s" s="8">
         <v>37</v>
@@ -8771,16 +8950,16 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" t="n" s="12">
         <v>32.0</v>
       </c>
-      <c r="D61" t="n">
-        <v>100.0</v>
+      <c r="D61" t="s">
+        <v>81</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -8813,7 +8992,7 @@
         <v>83.0</v>
       </c>
       <c r="P61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q61" t="n">
         <v>2.0</v>
@@ -8837,7 +9016,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -8885,13 +9064,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="AQ61" t="s" s="8">
         <v>37</v>
@@ -8902,16 +9081,16 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" t="n">
         <v>69.0</v>
       </c>
-      <c r="D62" t="n">
-        <v>55.0</v>
+      <c r="D62" t="s">
+        <v>82</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="n">
         <v>3.0</v>
@@ -8944,7 +9123,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -8968,7 +9147,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9014,13 +9193,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="AQ62" t="s" s="8">
         <v>37</v>
@@ -9031,16 +9210,16 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C63" t="n">
         <v>66.0</v>
       </c>
-      <c r="D63" t="n">
-        <v>67.0</v>
+      <c r="D63" t="s">
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="n">
         <v>3.0</v>
@@ -9073,7 +9252,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9097,7 +9276,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9143,13 +9322,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="AQ63" t="s" s="8">
         <v>37</v>
@@ -9160,16 +9339,16 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" t="n">
         <v>51.0</v>
       </c>
-      <c r="D64" t="n">
-        <v>98.0</v>
+      <c r="D64" t="s">
+        <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="n">
         <v>3.0</v>
@@ -9202,7 +9381,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9226,7 +9405,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9272,13 +9451,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="AQ64" t="s" s="8">
         <v>37</v>
@@ -9289,16 +9468,16 @@
         <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" t="n">
         <v>59.0</v>
       </c>
-      <c r="D65" t="n">
-        <v>87.0</v>
+      <c r="D65" t="s">
+        <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="n">
         <v>2.0</v>
@@ -9331,7 +9510,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9355,7 +9534,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9401,13 +9580,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="AQ65" t="s" s="8">
         <v>37</v>
@@ -9418,16 +9597,16 @@
         <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C66" t="n">
         <v>66.0</v>
       </c>
-      <c r="D66" t="n">
-        <v>80.0</v>
+      <c r="D66" t="s">
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="n">
         <v>3.0</v>
@@ -9460,7 +9639,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9484,7 +9663,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9528,13 +9707,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="AQ66" t="s" s="8">
         <v>37</v>
@@ -9545,16 +9724,16 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C67" t="n">
         <v>57.0</v>
       </c>
-      <c r="D67" t="n">
-        <v>83.0</v>
+      <c r="D67" t="s">
+        <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="n">
         <v>3.0</v>
@@ -9587,7 +9766,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -9611,7 +9790,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -9657,13 +9836,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="AQ67" t="s" s="8">
         <v>37</v>
@@ -9674,16 +9853,16 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C68" t="n">
         <v>75.0</v>
       </c>
-      <c r="D68" t="n">
-        <v>76.0</v>
+      <c r="D68" t="s">
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="n">
         <v>3.0</v>
@@ -9716,7 +9895,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -9740,7 +9919,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -9786,13 +9965,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="AQ68" t="s" s="8">
         <v>37</v>
@@ -9803,16 +9982,16 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C69" t="n">
         <v>64.0</v>
       </c>
-      <c r="D69" t="n">
-        <v>95.0</v>
+      <c r="D69" t="s">
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="n">
         <v>3.0</v>
@@ -9845,7 +10024,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -9869,7 +10048,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -9915,13 +10094,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="AQ69" t="s" s="8">
         <v>37</v>
@@ -9932,16 +10111,16 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C70" t="n">
         <v>44.0</v>
       </c>
-      <c r="D70" t="n">
-        <v>85.0</v>
+      <c r="D70" t="s">
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="n">
         <v>3.0</v>
@@ -9974,7 +10153,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -9998,7 +10177,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10042,13 +10221,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="AQ70" t="s" s="8">
         <v>37</v>
@@ -10059,16 +10238,16 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" t="n">
         <v>53.0</v>
       </c>
-      <c r="D71" t="n">
-        <v>67.0</v>
+      <c r="D71" t="s">
+        <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="n">
         <v>3.0</v>
@@ -10101,7 +10280,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10125,7 +10304,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10169,13 +10348,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="AQ71" t="s" s="8">
         <v>37</v>
@@ -10186,16 +10365,16 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72" t="n" s="12">
         <v>37.0</v>
       </c>
-      <c r="D72" t="n">
-        <v>55.0</v>
+      <c r="D72" t="s">
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="n">
         <v>2.0</v>
@@ -10228,7 +10407,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10252,7 +10431,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10298,13 +10477,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="AQ72" t="s" s="8">
         <v>37</v>
@@ -10315,16 +10494,16 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C73" t="n">
         <v>66.0</v>
       </c>
-      <c r="D73" t="n">
-        <v>62.0</v>
+      <c r="D73" t="s">
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="n">
         <v>3.0</v>
@@ -10357,7 +10536,7 @@
         <v>46.0</v>
       </c>
       <c r="P73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q73" t="n">
         <v>0.0</v>
@@ -10381,7 +10560,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10427,13 +10606,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="AQ73" t="s" s="8">
         <v>37</v>
@@ -10444,16 +10623,16 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C74" t="n">
         <v>53.0</v>
       </c>
-      <c r="D74" t="n">
-        <v>60.0</v>
+      <c r="D74" t="s">
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="n">
         <v>3.0</v>
@@ -10486,7 +10665,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10510,7 +10689,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10556,13 +10735,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="AQ74" t="s" s="8">
         <v>37</v>
@@ -10573,16 +10752,16 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" t="n">
         <v>67.0</v>
       </c>
-      <c r="D75" t="n">
-        <v>87.0</v>
+      <c r="D75" t="s">
+        <v>84</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="n">
         <v>3.0</v>
@@ -10615,7 +10794,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -10639,7 +10818,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -10685,13 +10864,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="AQ75" t="s" s="8">
         <v>37</v>
@@ -10702,16 +10881,16 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C76" t="n">
         <v>58.0</v>
       </c>
-      <c r="D76" t="n">
-        <v>60.0</v>
+      <c r="D76" t="s">
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="n">
         <v>3.0</v>
@@ -10744,7 +10923,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -10768,7 +10947,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -10812,13 +10991,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="AQ76" t="s" s="8">
         <v>37</v>
@@ -10829,16 +11008,16 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C77" t="n">
         <v>66.0</v>
       </c>
-      <c r="D77" t="n">
-        <v>69.0</v>
+      <c r="D77" t="s">
+        <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="n">
         <v>3.0</v>
@@ -10871,7 +11050,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -10895,7 +11074,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -10941,13 +11120,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="AQ77" t="s" s="8">
         <v>37</v>
@@ -10958,16 +11137,16 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C78" t="n">
         <v>52.0</v>
       </c>
-      <c r="D78" t="n">
-        <v>115.0</v>
+      <c r="D78" t="s">
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="n">
         <v>3.0</v>
@@ -11000,7 +11179,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11024,7 +11203,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11070,13 +11249,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="AQ78" t="s" s="8">
         <v>37</v>
@@ -11087,16 +11266,16 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C79" t="n">
         <v>61.0</v>
       </c>
-      <c r="D79" t="n">
-        <v>45.0</v>
+      <c r="D79" t="s">
+        <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="n">
         <v>3.0</v>
@@ -11129,7 +11308,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11153,7 +11332,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11199,13 +11378,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="AQ79" t="s" s="8">
         <v>37</v>
@@ -11216,16 +11395,16 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" t="n">
         <v>57.0</v>
       </c>
-      <c r="D80" t="n">
-        <v>79.0</v>
+      <c r="D80" t="s">
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="n">
         <v>3.0</v>
@@ -11258,7 +11437,7 @@
         <v>85.0</v>
       </c>
       <c r="P80" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11282,7 +11461,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11328,13 +11507,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="AQ80" t="s" s="8">
         <v>37</v>
@@ -11345,16 +11524,16 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n">
         <v>62.0</v>
       </c>
-      <c r="D81" t="n">
-        <v>62.0</v>
+      <c r="D81" t="s">
+        <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="n">
         <v>2.0</v>
@@ -11387,7 +11566,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11411,7 +11590,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11459,13 +11638,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="AQ81" t="s" s="8">
         <v>37</v>
@@ -11476,16 +11655,16 @@
         <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C82" t="n" s="12">
         <v>38.0</v>
       </c>
-      <c r="D82" t="n">
-        <v>93.0</v>
+      <c r="D82" t="s">
+        <v>61</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="n">
         <v>2.0</v>
@@ -11518,7 +11697,7 @@
         <v>68.0</v>
       </c>
       <c r="P82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q82" t="n">
         <v>2.0</v>
@@ -11542,7 +11721,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11588,13 +11767,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="AQ82" t="s" s="8">
         <v>37</v>
@@ -11605,16 +11784,16 @@
         <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83" t="n">
         <v>60.0</v>
       </c>
-      <c r="D83" t="n">
-        <v>81.0</v>
+      <c r="D83" t="s">
+        <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="n">
         <v>3.0</v>
@@ -11647,7 +11826,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -11671,7 +11850,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -11717,13 +11896,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="AQ83" t="s" s="8">
         <v>37</v>
@@ -11734,16 +11913,16 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" t="n">
         <v>57.0</v>
       </c>
-      <c r="D84" t="n">
-        <v>68.0</v>
+      <c r="D84" t="s">
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="n">
         <v>2.0</v>
@@ -11776,7 +11955,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -11800,7 +11979,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -11846,13 +12025,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="AQ84" t="s" s="8">
         <v>37</v>
@@ -11863,16 +12042,16 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C85" t="n">
         <v>60.0</v>
       </c>
-      <c r="D85" t="n">
-        <v>69.0</v>
+      <c r="D85" t="s">
+        <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="n">
         <v>3.0</v>
@@ -11905,7 +12084,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -11929,7 +12108,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -11975,13 +12154,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="AQ85" t="s" s="8">
         <v>37</v>
@@ -11992,16 +12171,16 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C86" t="n">
         <v>63.0</v>
       </c>
-      <c r="D86" t="n">
-        <v>58.0</v>
+      <c r="D86" t="s">
+        <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="n">
         <v>3.0</v>
@@ -12034,7 +12213,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12058,7 +12237,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12104,13 +12283,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="AQ86" t="s" s="8">
         <v>37</v>
@@ -12121,16 +12300,16 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C87" t="n">
         <v>55.0</v>
       </c>
-      <c r="D87" t="n">
-        <v>122.0</v>
+      <c r="D87" t="s">
+        <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F87" t="n">
         <v>3.0</v>
@@ -12163,7 +12342,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12187,7 +12366,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12233,13 +12412,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="AQ87" t="s" s="8">
         <v>37</v>
@@ -12250,16 +12429,16 @@
         <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C88" t="n">
         <v>57.0</v>
       </c>
-      <c r="D88" t="n">
-        <v>74.0</v>
+      <c r="D88" t="s">
+        <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="n">
         <v>3.0</v>
@@ -12292,7 +12471,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12316,7 +12495,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12362,13 +12541,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="AQ88" t="s" s="8">
         <v>37</v>
@@ -12379,16 +12558,16 @@
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C89" t="n">
         <v>59.0</v>
       </c>
-      <c r="D89" t="n">
-        <v>75.0</v>
+      <c r="D89" t="s">
+        <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="n">
         <v>3.0</v>
@@ -12421,7 +12600,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12445,7 +12624,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12491,13 +12670,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="AQ89" t="s" s="8">
         <v>37</v>
@@ -12508,16 +12687,16 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C90" t="n">
         <v>57.0</v>
       </c>
-      <c r="D90" t="n">
-        <v>79.0</v>
+      <c r="D90" t="s">
+        <v>48</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="n">
         <v>2.0</v>
@@ -12550,7 +12729,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12574,7 +12753,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -12618,13 +12797,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="AQ90" t="s" s="8">
         <v>37</v>
@@ -12635,16 +12814,16 @@
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C91" t="n">
         <v>65.0</v>
       </c>
-      <c r="D91" t="n">
-        <v>63.0</v>
+      <c r="D91" t="s">
+        <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -12677,7 +12856,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -12701,7 +12880,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -12747,13 +12926,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="AQ91" t="s" s="8">
         <v>37</v>
@@ -12764,16 +12943,16 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C92" t="n">
         <v>63.0</v>
       </c>
-      <c r="D92" t="n">
-        <v>85.0</v>
+      <c r="D92" t="s">
+        <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="n">
         <v>3.0</v>
@@ -12806,7 +12985,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -12830,7 +13009,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -12876,13 +13055,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="AQ92" t="s" s="8">
         <v>37</v>
@@ -12893,16 +13072,16 @@
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C93" t="n">
         <v>65.0</v>
       </c>
-      <c r="D93" t="n">
-        <v>104.0</v>
+      <c r="D93" t="s">
+        <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="n">
         <v>3.0</v>
@@ -12935,7 +13114,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -12959,7 +13138,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13005,13 +13184,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="AQ93" t="s" s="8">
         <v>37</v>
@@ -13022,16 +13201,16 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C94" t="n">
         <v>43.0</v>
       </c>
-      <c r="D94" t="n">
-        <v>67.0</v>
+      <c r="D94" t="s">
+        <v>79</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="n">
         <v>2.0</v>
@@ -13064,7 +13243,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13088,7 +13267,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13134,13 +13313,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="AQ94" t="s" s="8">
         <v>37</v>
@@ -13151,16 +13330,16 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C95" t="n">
         <v>72.0</v>
       </c>
-      <c r="D95" t="n">
-        <v>83.0</v>
+      <c r="D95" t="s">
+        <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="n">
         <v>3.0</v>
@@ -13193,7 +13372,7 @@
         <v>61.0</v>
       </c>
       <c r="P95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q95" t="n">
         <v>1.0</v>
@@ -13217,7 +13396,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13263,13 +13442,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="AQ95" t="s" s="8">
         <v>37</v>
@@ -13280,16 +13459,16 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C96" t="n">
         <v>64.0</v>
       </c>
-      <c r="D96" t="n">
-        <v>75.0</v>
+      <c r="D96" t="s">
+        <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="n">
         <v>3.0</v>
@@ -13322,7 +13501,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13340,7 +13519,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
       <c r="X96" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13386,13 +13565,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="AQ96" t="s" s="8">
         <v>37</v>
@@ -13403,16 +13582,16 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C97" t="n">
         <v>49.0</v>
       </c>
-      <c r="D97" t="n">
-        <v>92.0</v>
+      <c r="D97" t="s">
+        <v>65</v>
       </c>
       <c r="E97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F97" t="n">
         <v>3.0</v>
@@ -13445,7 +13624,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13469,7 +13648,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13513,13 +13692,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="AQ97" t="s" s="8">
         <v>37</v>
@@ -13530,16 +13709,16 @@
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C98" t="n">
         <v>72.0</v>
       </c>
-      <c r="D98" t="n">
-        <v>59.0</v>
+      <c r="D98" t="s">
+        <v>55</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="n">
         <v>3.0</v>
@@ -13572,7 +13751,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13596,7 +13775,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -13640,13 +13819,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="AQ98" t="s" s="8">
         <v>37</v>
@@ -13657,16 +13836,16 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C99" t="n">
         <v>62.0</v>
       </c>
-      <c r="D99" t="n">
-        <v>118.0</v>
+      <c r="D99" t="s">
+        <v>80</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="n">
         <v>2.0</v>
@@ -13699,7 +13878,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -13723,7 +13902,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -13769,13 +13948,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="AQ99" t="s" s="8">
         <v>37</v>
@@ -13786,16 +13965,16 @@
         <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
       </c>
-      <c r="D100" t="n">
-        <v>91.0</v>
+      <c r="D100" t="s">
+        <v>95</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="n">
         <v>3.0</v>
@@ -13828,7 +14007,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -13852,7 +14031,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -13898,13 +14077,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="AQ100" t="s" s="8">
         <v>37</v>
@@ -13915,16 +14094,16 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C101" t="n" s="12">
         <v>38.0</v>
       </c>
-      <c r="D101" t="n">
-        <v>82.0</v>
+      <c r="D101" t="s">
+        <v>96</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="n">
         <v>3.0</v>
@@ -13957,7 +14136,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -13981,7 +14160,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14025,13 +14204,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="AQ101" t="s" s="8">
         <v>37</v>
@@ -14042,16 +14221,16 @@
         <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C102" t="n">
         <v>58.0</v>
       </c>
-      <c r="D102" t="n">
-        <v>91.0</v>
+      <c r="D102" t="s">
+        <v>95</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="n">
         <v>3.0</v>
@@ -14084,7 +14263,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14108,7 +14287,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14154,13 +14333,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="AQ102" t="s" s="8">
         <v>37</v>
@@ -14171,16 +14350,16 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C103" t="n">
         <v>61.0</v>
       </c>
-      <c r="D103" t="n">
-        <v>57.0</v>
+      <c r="D103" t="s">
+        <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="n">
         <v>3.0</v>
@@ -14213,7 +14392,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14237,7 +14416,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14283,13 +14462,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="AQ103" t="s" s="8">
         <v>37</v>
@@ -14300,16 +14479,16 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" t="n">
         <v>64.0</v>
       </c>
-      <c r="D104" t="n">
-        <v>64.0</v>
+      <c r="D104" t="s">
+        <v>60</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="n">
         <v>3.0</v>
@@ -14342,7 +14521,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14366,7 +14545,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14412,13 +14591,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="AQ104" t="s" s="8">
         <v>37</v>
@@ -14429,16 +14608,16 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C105" t="n">
         <v>60.0</v>
       </c>
-      <c r="D105" t="n">
-        <v>106.0</v>
+      <c r="D105" t="s">
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="n">
         <v>3.0</v>
@@ -14471,7 +14650,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14495,7 +14674,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14541,13 +14720,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="AQ105" t="s" s="8">
         <v>37</v>
@@ -14558,16 +14737,16 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C106" t="n">
         <v>76.0</v>
       </c>
-      <c r="D106" t="n">
-        <v>78.0</v>
+      <c r="D106" t="s">
+        <v>98</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="n">
         <v>3.0</v>
@@ -14600,7 +14779,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -14624,7 +14803,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -14672,13 +14851,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="AQ106" t="s" s="8">
         <v>37</v>
@@ -14689,16 +14868,16 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C107" t="n">
         <v>51.0</v>
       </c>
-      <c r="D107" t="n" s="12">
-        <v>144.0</v>
+      <c r="D107" t="s">
+        <v>99</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="n">
         <v>3.0</v>
@@ -14731,7 +14910,7 @@
         <v>45.0</v>
       </c>
       <c r="P107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q107" t="n">
         <v>1.0</v>
@@ -14755,7 +14934,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -14799,13 +14978,13 @@
       </c>
       <c r="AM107" s="8"/>
       <c r="AN107" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="AQ107" t="s" s="8">
         <v>37</v>
@@ -14816,16 +14995,16 @@
         <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C108" t="n" s="12">
         <v>32.0</v>
       </c>
-      <c r="D108" t="n">
-        <v>86.0</v>
+      <c r="D108" t="s">
+        <v>74</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="n">
         <v>3.0</v>
@@ -14858,7 +15037,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -14882,7 +15061,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -14928,13 +15107,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="AQ108" t="s" s="8">
         <v>37</v>
@@ -14950,11 +15129,11 @@
       <c r="C109" t="n" s="12">
         <v>78.0</v>
       </c>
-      <c r="D109" t="n">
-        <v>72.0</v>
+      <c r="D109" t="s">
+        <v>100</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="n">
         <v>3.0</v>
@@ -14987,7 +15166,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15011,7 +15190,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15057,13 +15236,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="AQ109" t="s" s="8">
         <v>37</v>
@@ -15074,16 +15253,16 @@
         <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C110" t="n">
         <v>57.0</v>
       </c>
-      <c r="D110" t="n">
-        <v>93.0</v>
+      <c r="D110" t="s">
+        <v>61</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="n">
         <v>3.0</v>
@@ -15116,7 +15295,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15140,7 +15319,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15186,13 +15365,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="AQ110" t="s" s="8">
         <v>37</v>
@@ -15203,16 +15382,16 @@
         <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C111" t="n">
         <v>57.0</v>
       </c>
-      <c r="D111" t="n">
-        <v>93.0</v>
+      <c r="D111" t="s">
+        <v>61</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="n">
         <v>3.0</v>
@@ -15245,7 +15424,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15269,7 +15448,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15315,13 +15494,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="AQ111" t="s" s="8">
         <v>37</v>
@@ -15332,16 +15511,16 @@
         <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C112" t="n">
         <v>72.0</v>
       </c>
-      <c r="D112" t="n" s="12">
-        <v>126.0</v>
+      <c r="D112" t="s">
+        <v>101</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" t="n">
         <v>3.0</v>
@@ -15374,7 +15553,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15398,7 +15577,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15446,13 +15625,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="AQ112" t="s" s="8">
         <v>37</v>
@@ -15463,16 +15642,16 @@
         <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C113" t="n" s="12">
         <v>22.0</v>
       </c>
-      <c r="D113" t="n">
-        <v>97.0</v>
+      <c r="D113" t="s">
+        <v>102</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="n">
         <v>3.0</v>
@@ -15505,7 +15684,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15529,7 +15708,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15575,13 +15754,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="AQ113" t="s" s="8">
         <v>37</v>
@@ -15592,16 +15771,16 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C114" t="n">
         <v>45.0</v>
       </c>
-      <c r="D114" t="n">
-        <v>89.0</v>
+      <c r="D114" t="s">
+        <v>57</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="n">
         <v>3.0</v>
@@ -15634,7 +15813,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -15658,7 +15837,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -15704,13 +15883,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="AQ114" t="s" s="8">
         <v>37</v>
@@ -15721,16 +15900,16 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C115" t="n">
         <v>68.0</v>
       </c>
-      <c r="D115" t="n">
-        <v>80.0</v>
+      <c r="D115" t="s">
+        <v>62</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="n">
         <v>2.0</v>
@@ -15763,7 +15942,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -15787,7 +15966,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -15835,13 +16014,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="AQ115" t="s" s="8">
         <v>37</v>
@@ -15852,16 +16031,16 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C116" t="n">
         <v>57.0</v>
       </c>
-      <c r="D116" t="n">
-        <v>75.0</v>
+      <c r="D116" t="s">
+        <v>45</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F116" t="n">
         <v>3.0</v>
@@ -15894,7 +16073,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -15918,7 +16097,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -15964,13 +16143,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="AQ116" t="s" s="8">
         <v>37</v>
@@ -15981,16 +16160,16 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C117" t="n">
         <v>57.0</v>
       </c>
-      <c r="D117" t="n">
-        <v>69.0</v>
+      <c r="D117" t="s">
+        <v>89</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="n">
         <v>3.0</v>
@@ -16023,7 +16202,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16047,7 +16226,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16093,13 +16272,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="AQ117" t="s" s="8">
         <v>37</v>
@@ -16110,16 +16289,16 @@
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C118" t="n" s="12">
         <v>24.0</v>
       </c>
-      <c r="D118" t="n">
-        <v>106.0</v>
+      <c r="D118" t="s">
+        <v>97</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" t="n">
         <v>3.0</v>
@@ -16152,7 +16331,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16176,7 +16355,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16222,13 +16401,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="AQ118" t="s" s="8">
         <v>37</v>
@@ -16239,16 +16418,16 @@
         <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C119" t="n">
         <v>57.0</v>
       </c>
-      <c r="D119" t="n">
-        <v>110.0</v>
+      <c r="D119" t="s">
+        <v>103</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F119" t="n">
         <v>3.0</v>
@@ -16281,7 +16460,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16305,7 +16484,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16353,13 +16532,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="AQ119" t="s" s="8">
         <v>37</v>
@@ -16370,16 +16549,16 @@
         <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C120" t="n" s="12">
         <v>25.0</v>
       </c>
-      <c r="D120" t="n">
-        <v>108.0</v>
+      <c r="D120" t="s">
+        <v>104</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F120" t="n">
         <v>3.0</v>
@@ -16412,7 +16591,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16436,7 +16615,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16482,13 +16661,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="AQ120" t="s" s="8">
         <v>37</v>
@@ -16499,16 +16678,16 @@
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C121" t="n">
         <v>61.0</v>
       </c>
-      <c r="D121" t="n">
-        <v>82.0</v>
+      <c r="D121" t="s">
+        <v>96</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F121" t="n">
         <v>3.0</v>
@@ -16541,7 +16720,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16565,7 +16744,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -16611,13 +16790,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="AQ121" t="s" s="8">
         <v>37</v>
@@ -16628,16 +16807,16 @@
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C122" t="n">
         <v>62.0</v>
       </c>
-      <c r="D122" t="n">
-        <v>97.0</v>
+      <c r="D122" t="s">
+        <v>102</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F122" t="n">
         <v>3.0</v>
@@ -16670,7 +16849,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -16694,7 +16873,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -16740,13 +16919,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="AQ122" t="s" s="8">
         <v>37</v>
@@ -16757,16 +16936,16 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C123" t="n">
         <v>56.0</v>
       </c>
-      <c r="D123" t="n">
-        <v>104.0</v>
+      <c r="D123" t="s">
+        <v>94</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F123" t="n">
         <v>3.0</v>
@@ -16799,7 +16978,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -16823,7 +17002,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -16869,13 +17048,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="AQ123" t="s" s="8">
         <v>37</v>
@@ -16886,16 +17065,16 @@
         <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C124" t="n">
         <v>58.0</v>
       </c>
-      <c r="D124" t="n">
-        <v>93.0</v>
+      <c r="D124" t="s">
+        <v>61</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F124" t="n">
         <v>3.0</v>
@@ -16928,7 +17107,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -16952,7 +17131,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -16998,13 +17177,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="AQ124" t="s" s="8">
         <v>37</v>
@@ -17015,16 +17194,16 @@
         <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
-      </c>
-      <c r="C125" t="n">
+        <v>43</v>
+      </c>
+      <c r="C125" t="n" s="12">
         <v>40.0</v>
       </c>
-      <c r="D125" t="n">
-        <v>83.0</v>
+      <c r="D125" t="s">
+        <v>47</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F125" t="n">
         <v>3.0</v>
@@ -17057,7 +17236,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17081,7 +17260,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17127,13 +17306,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="AQ125" t="s" s="8">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="274">
   <si>
     <t>Пациент</t>
   </si>
@@ -134,282 +134,6 @@
     <t>PCI</t>
   </si>
   <si>
-    <t>паркетный</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>центнер</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>81,5</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>60,5</t>
-  </si>
-  <si>
-    <t>70,5</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>1 тип</t>
-  </si>
-  <si>
-    <t>2 тип</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>0,85</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>1,05</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>0,65</t>
-  </si>
-  <si>
-    <t>0,78</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>0,58</t>
-  </si>
-  <si>
-    <t>1,09</t>
-  </si>
-  <si>
-    <t>1,38</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>0,59</t>
-  </si>
-  <si>
-    <t>1,24</t>
-  </si>
-  <si>
-    <t>0,75</t>
-  </si>
-  <si>
-    <t>0,88</t>
-  </si>
-  <si>
-    <t>0, 92</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>19.02.2009</t>
   </si>
   <si>
@@ -767,18 +491,15 @@
     <t>25.02.2012</t>
   </si>
   <si>
+    <t>29.03.2013</t>
+  </si>
+  <si>
     <t>bms</t>
   </si>
   <si>
     <t>des</t>
   </si>
   <si>
-    <t xml:space="preserve">des </t>
-  </si>
-  <si>
-    <t>des_bms</t>
-  </si>
-  <si>
     <t>20.02.2010</t>
   </si>
   <si>
@@ -845,9 +566,6 @@
     <t>30.03.2013</t>
   </si>
   <si>
-    <t>18.09.2012</t>
-  </si>
-  <si>
     <t>31.05.2013</t>
   </si>
   <si>
@@ -1101,6 +819,9 @@
   </si>
   <si>
     <t>25.02.2013</t>
+  </si>
+  <si>
+    <t>02.04.2013</t>
   </si>
   <si>
     <t>ок</t>
@@ -1300,9 +1021,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.84375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.75390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.87890625" customWidth="true" bestFit="true"/>
@@ -1346,10 +1067,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="12">
-        <v>366</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
@@ -1487,17 +1208,17 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
+      <c r="B3" t="n">
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
         <v>54.0</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
+      <c r="D3" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
         <v>3.0</v>
@@ -1529,8 +1250,8 @@
       <c r="O3" t="n">
         <v>36.0</v>
       </c>
-      <c r="P3" t="s">
-        <v>107</v>
+      <c r="P3" t="n">
+        <v>0.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1554,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1606,25 +1327,27 @@
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="AQ3" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1656,8 +1379,8 @@
       <c r="O4" t="n">
         <v>45.0</v>
       </c>
-      <c r="P4" t="s">
-        <v>108</v>
+      <c r="P4" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1681,7 +1404,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1733,27 +1456,27 @@
       </c>
       <c r="AO4" s="8"/>
       <c r="AP4" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="AQ4" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
+      <c r="B5" t="n">
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
         <v>56.0</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
+      <c r="D5" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1785,8 +1508,8 @@
       <c r="O5" t="n">
         <v>85.0</v>
       </c>
-      <c r="P5" t="s">
-        <v>107</v>
+      <c r="P5" t="n">
+        <v>0.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -1810,7 +1533,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -1862,27 +1585,27 @@
       </c>
       <c r="AO5" s="8"/>
       <c r="AP5" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="AQ5" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
+      <c r="B6" t="n">
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="12">
         <v>37.0</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
+      <c r="D6" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
       <c r="F6" t="n">
         <v>3.0</v>
@@ -1914,8 +1637,8 @@
       <c r="O6" t="n">
         <v>49.0</v>
       </c>
-      <c r="P6" t="s">
-        <v>109</v>
+      <c r="P6" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -1939,7 +1662,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -1991,27 +1714,27 @@
       </c>
       <c r="AO6" s="8"/>
       <c r="AP6" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="AQ6" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
+      <c r="B7" t="n">
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
         <v>57.0</v>
       </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
+      <c r="D7" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -2043,8 +1766,8 @@
       <c r="O7" t="n">
         <v>43.0</v>
       </c>
-      <c r="P7" t="s">
-        <v>108</v>
+      <c r="P7" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2068,7 +1791,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2120,27 +1843,27 @@
       </c>
       <c r="AO7" s="8"/>
       <c r="AP7" t="s">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="AQ7" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
+      <c r="B8" t="n">
+        <v>1.0</v>
       </c>
       <c r="C8" t="n">
         <v>44.0</v>
       </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
+      <c r="D8" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
         <v>3.0</v>
@@ -2172,8 +1895,8 @@
       <c r="O8" t="n">
         <v>53.0</v>
       </c>
-      <c r="P8" t="s">
-        <v>110</v>
+      <c r="P8" t="n">
+        <v>0.85</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2197,7 +1920,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2249,25 +1972,27 @@
       </c>
       <c r="AO8" s="8"/>
       <c r="AP8" t="s">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="AQ8" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2299,8 +2024,8 @@
       <c r="O9" t="n">
         <v>70.0</v>
       </c>
-      <c r="P9" t="s">
-        <v>111</v>
+      <c r="P9" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2324,7 +2049,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2376,27 +2101,27 @@
       </c>
       <c r="AO9" s="8"/>
       <c r="AP9" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="AQ9" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>37</v>
+      <c r="B10" t="n">
+        <v>1.0</v>
       </c>
       <c r="C10" t="n">
         <v>59.0</v>
       </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
+      <c r="D10" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2428,8 +2153,8 @@
       <c r="O10" t="n">
         <v>40.0</v>
       </c>
-      <c r="P10" t="s">
-        <v>109</v>
+      <c r="P10" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2453,7 +2178,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2505,27 +2230,27 @@
       </c>
       <c r="AO10" s="8"/>
       <c r="AP10" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="AQ10" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
+      <c r="B11" t="n">
+        <v>0.0</v>
       </c>
       <c r="C11" t="n">
         <v>59.0</v>
       </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
+      <c r="D11" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
       </c>
       <c r="F11" t="n">
         <v>3.0</v>
@@ -2557,8 +2282,8 @@
       <c r="O11" t="n">
         <v>45.0</v>
       </c>
-      <c r="P11" t="s">
-        <v>109</v>
+      <c r="P11" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2582,7 +2307,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2634,27 +2359,27 @@
       </c>
       <c r="AO11" s="8"/>
       <c r="AP11" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="AQ11" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
+      <c r="B12" t="n">
+        <v>1.0</v>
       </c>
       <c r="C12" t="n">
         <v>59.0</v>
       </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
+      <c r="D12" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -2686,8 +2411,8 @@
       <c r="O12" t="n">
         <v>39.0</v>
       </c>
-      <c r="P12" t="s">
-        <v>112</v>
+      <c r="P12" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2711,7 +2436,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2763,27 +2488,27 @@
       </c>
       <c r="AO12" s="8"/>
       <c r="AP12" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="AQ12" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
+      <c r="B13" t="n">
+        <v>1.0</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
       </c>
-      <c r="D13" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
+      <c r="D13" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -2815,8 +2540,8 @@
       <c r="O13" t="n">
         <v>45.0</v>
       </c>
-      <c r="P13" t="s">
-        <v>113</v>
+      <c r="P13" t="n">
+        <v>1.05</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -2840,7 +2565,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -2892,27 +2617,27 @@
       </c>
       <c r="AO13" s="8"/>
       <c r="AP13" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="AQ13" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
+      <c r="B14" t="n">
+        <v>1.0</v>
       </c>
       <c r="C14" t="n">
         <v>66.0</v>
       </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
+      <c r="D14" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -2944,8 +2669,8 @@
       <c r="O14" t="n">
         <v>40.0</v>
       </c>
-      <c r="P14" t="s">
-        <v>108</v>
+      <c r="P14" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -2969,7 +2694,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3021,27 +2746,27 @@
       </c>
       <c r="AO14" s="8"/>
       <c r="AP14" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="AQ14" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
+      <c r="B15" t="n">
+        <v>1.0</v>
       </c>
       <c r="C15" t="n">
         <v>60.0</v>
       </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
+      <c r="D15" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -3073,8 +2798,8 @@
       <c r="O15" t="n">
         <v>75.0</v>
       </c>
-      <c r="P15" t="s">
-        <v>111</v>
+      <c r="P15" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3098,7 +2823,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3150,27 +2875,27 @@
       </c>
       <c r="AO15" s="8"/>
       <c r="AP15" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="AQ15" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
+      <c r="B16" t="n">
+        <v>1.0</v>
       </c>
       <c r="C16" t="n">
         <v>55.0</v>
       </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
+      <c r="D16" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
         <v>3.0</v>
@@ -3202,8 +2927,8 @@
       <c r="O16" t="n">
         <v>45.0</v>
       </c>
-      <c r="P16" t="s">
-        <v>108</v>
+      <c r="P16" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3227,7 +2952,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3279,27 +3004,27 @@
       </c>
       <c r="AO16" s="8"/>
       <c r="AP16" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="AQ16" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
+      <c r="B17" t="n">
+        <v>0.0</v>
       </c>
       <c r="C17" t="n">
         <v>63.0</v>
       </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
+      <c r="D17" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
       </c>
       <c r="F17" t="n">
         <v>3.0</v>
@@ -3331,8 +3056,8 @@
       <c r="O17" t="n">
         <v>62.0</v>
       </c>
-      <c r="P17" t="s">
-        <v>112</v>
+      <c r="P17" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3356,7 +3081,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3408,27 +3133,27 @@
       </c>
       <c r="AO17" s="8"/>
       <c r="AP17" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="AQ17" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
+      <c r="B18" t="n">
+        <v>1.0</v>
       </c>
       <c r="C18" t="n">
         <v>58.0</v>
       </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
+      <c r="D18" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -3460,8 +3185,8 @@
       <c r="O18" t="n">
         <v>37.0</v>
       </c>
-      <c r="P18" t="s">
-        <v>43</v>
+      <c r="P18" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q18" t="n">
         <v>1.0</v>
@@ -3485,7 +3210,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3537,27 +3262,27 @@
       </c>
       <c r="AO18" s="8"/>
       <c r="AP18" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="AQ18" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
+      <c r="B19" t="n">
+        <v>1.0</v>
       </c>
       <c r="C19" t="n">
         <v>53.0</v>
       </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
+      <c r="D19" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -3589,8 +3314,8 @@
       <c r="O19" t="n">
         <v>53.0</v>
       </c>
-      <c r="P19" t="s">
-        <v>43</v>
+      <c r="P19" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q19" t="n">
         <v>1.0</v>
@@ -3614,7 +3339,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3666,27 +3391,27 @@
       </c>
       <c r="AO19" s="8"/>
       <c r="AP19" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="AQ19" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
+      <c r="B20" t="n">
+        <v>1.0</v>
       </c>
       <c r="C20" t="n">
         <v>62.0</v>
       </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
+      <c r="D20" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -3718,8 +3443,8 @@
       <c r="O20" t="n">
         <v>63.0</v>
       </c>
-      <c r="P20" t="s">
-        <v>112</v>
+      <c r="P20" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3743,7 +3468,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -3795,27 +3520,27 @@
       </c>
       <c r="AO20" s="8"/>
       <c r="AP20" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="AQ20" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
+      <c r="B21" t="n">
+        <v>1.0</v>
       </c>
       <c r="C21" t="n">
         <v>55.0</v>
       </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
+      <c r="D21" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -3847,8 +3572,8 @@
       <c r="O21" t="n">
         <v>42.0</v>
       </c>
-      <c r="P21" t="s">
-        <v>111</v>
+      <c r="P21" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -3872,7 +3597,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -3924,27 +3649,27 @@
       </c>
       <c r="AO21" s="8"/>
       <c r="AP21" t="s">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="AQ21" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
+      <c r="B22" t="n">
+        <v>1.0</v>
       </c>
       <c r="C22" t="n">
         <v>59.0</v>
       </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
+      <c r="D22" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
         <v>3.0</v>
@@ -3976,8 +3701,8 @@
       <c r="O22" t="n">
         <v>34.0</v>
       </c>
-      <c r="P22" t="s">
-        <v>111</v>
+      <c r="P22" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4001,7 +3726,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4053,27 +3778,27 @@
       </c>
       <c r="AO22" s="8"/>
       <c r="AP22" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="AQ22" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
+      <c r="B23" t="n">
+        <v>0.0</v>
       </c>
       <c r="C23" t="n">
         <v>59.0</v>
       </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
+      <c r="D23" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -4105,8 +3830,8 @@
       <c r="O23" t="n">
         <v>54.0</v>
       </c>
-      <c r="P23" t="s">
-        <v>114</v>
+      <c r="P23" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4130,7 +3855,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4182,27 +3907,27 @@
       </c>
       <c r="AO23" s="8"/>
       <c r="AP23" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="AQ23" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
-        <v>41</v>
+      <c r="B24" t="n">
+        <v>1.0</v>
       </c>
       <c r="C24" t="n">
         <v>60.0</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
+      <c r="D24" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
         <v>3.0</v>
@@ -4234,8 +3959,8 @@
       <c r="O24" t="n">
         <v>56.0</v>
       </c>
-      <c r="P24" t="s">
-        <v>114</v>
+      <c r="P24" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4259,7 +3984,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4311,27 +4036,27 @@
       </c>
       <c r="AO24" s="8"/>
       <c r="AP24" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="AQ24" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>42</v>
+      <c r="B25" t="n">
+        <v>0.0</v>
       </c>
       <c r="C25" t="n">
         <v>52.0</v>
       </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
+      <c r="D25" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -4363,8 +4088,8 @@
       <c r="O25" t="n">
         <v>51.0</v>
       </c>
-      <c r="P25" t="s">
-        <v>115</v>
+      <c r="P25" t="n">
+        <v>0.6</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4388,7 +4113,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4440,27 +4165,27 @@
       </c>
       <c r="AO25" s="8"/>
       <c r="AP25" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="AQ25" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
+      <c r="B26" t="n">
+        <v>1.0</v>
       </c>
       <c r="C26" t="n">
         <v>63.0</v>
       </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
+      <c r="D26" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -4492,8 +4217,8 @@
       <c r="O26" t="n">
         <v>58.0</v>
       </c>
-      <c r="P26" t="s">
-        <v>111</v>
+      <c r="P26" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4517,7 +4242,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4569,27 +4294,27 @@
       </c>
       <c r="AO26" s="8"/>
       <c r="AP26" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="AQ26" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
-        <v>41</v>
+      <c r="B27" t="n">
+        <v>1.0</v>
       </c>
       <c r="C27" t="n">
         <v>58.0</v>
       </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
+      <c r="D27" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -4621,8 +4346,8 @@
       <c r="O27" t="n">
         <v>39.0</v>
       </c>
-      <c r="P27" t="s">
-        <v>116</v>
+      <c r="P27" t="n">
+        <v>0.65</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4646,7 +4371,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4694,27 +4419,27 @@
       </c>
       <c r="AO27" s="8"/>
       <c r="AP27" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="AQ27" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
+      <c r="B28" t="n">
+        <v>1.0</v>
       </c>
       <c r="C28" t="n">
         <v>59.0</v>
       </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
+      <c r="D28" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
         <v>3.0</v>
@@ -4746,8 +4471,8 @@
       <c r="O28" t="n">
         <v>36.0</v>
       </c>
-      <c r="P28" t="s">
-        <v>108</v>
+      <c r="P28" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4771,7 +4496,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -4823,27 +4548,27 @@
       </c>
       <c r="AO28" s="8"/>
       <c r="AP28" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="AQ28" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s">
-        <v>41</v>
+      <c r="B29" t="n">
+        <v>1.0</v>
       </c>
       <c r="C29" t="n">
         <v>57.0</v>
       </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
+      <c r="D29" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -4875,8 +4600,8 @@
       <c r="O29" t="n">
         <v>55.0</v>
       </c>
-      <c r="P29" t="s">
-        <v>117</v>
+      <c r="P29" t="n">
+        <v>0.78</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -4900,7 +4625,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -4950,27 +4675,27 @@
       </c>
       <c r="AO29" s="8"/>
       <c r="AP29" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="AQ29" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
-        <v>41</v>
+      <c r="B30" t="n">
+        <v>1.0</v>
       </c>
       <c r="C30" t="n">
         <v>63.0</v>
       </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>44</v>
+      <c r="D30" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -5002,8 +4727,8 @@
       <c r="O30" t="n">
         <v>64.0</v>
       </c>
-      <c r="P30" t="s">
-        <v>112</v>
+      <c r="P30" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5027,7 +4752,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5077,27 +4802,27 @@
       </c>
       <c r="AO30" s="8"/>
       <c r="AP30" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="AQ30" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
-        <v>41</v>
+      <c r="B31" t="n">
+        <v>1.0</v>
       </c>
       <c r="C31" t="n">
         <v>57.0</v>
       </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
+      <c r="D31" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -5129,8 +4854,8 @@
       <c r="O31" t="n">
         <v>52.0</v>
       </c>
-      <c r="P31" t="s">
-        <v>118</v>
+      <c r="P31" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5154,7 +4879,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5206,27 +4931,27 @@
       </c>
       <c r="AO31" s="8"/>
       <c r="AP31" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="AQ31" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
-        <v>41</v>
+      <c r="B32" t="n">
+        <v>1.0</v>
       </c>
       <c r="C32" t="n">
         <v>61.0</v>
       </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
+      <c r="D32" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -5258,8 +4983,8 @@
       <c r="O32" t="n">
         <v>81.0</v>
       </c>
-      <c r="P32" t="s">
-        <v>119</v>
+      <c r="P32" t="n">
+        <v>0.58</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5283,7 +5008,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5335,27 +5060,27 @@
       </c>
       <c r="AO32" s="8"/>
       <c r="AP32" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="AQ32" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
-        <v>41</v>
+      <c r="B33" t="n">
+        <v>1.0</v>
       </c>
       <c r="C33" t="n">
         <v>53.0</v>
       </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
+      <c r="D33" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -5387,8 +5112,8 @@
       <c r="O33" t="n">
         <v>40.0</v>
       </c>
-      <c r="P33" t="s">
-        <v>118</v>
+      <c r="P33" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5412,7 +5137,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5464,27 +5189,27 @@
       </c>
       <c r="AO33" s="8"/>
       <c r="AP33" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="AQ33" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>42</v>
+      <c r="B34" t="n">
+        <v>0.0</v>
       </c>
       <c r="C34" t="n">
         <v>57.0</v>
       </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" t="s">
-        <v>43</v>
+      <c r="D34" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.0</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -5516,8 +5241,8 @@
       <c r="O34" t="n">
         <v>73.0</v>
       </c>
-      <c r="P34" t="s">
-        <v>111</v>
+      <c r="P34" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5541,7 +5266,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5583,27 +5308,27 @@
       </c>
       <c r="AO34" s="8"/>
       <c r="AP34" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="AQ34" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
+      <c r="B35" t="n">
+        <v>1.0</v>
       </c>
       <c r="C35" t="n">
         <v>57.0</v>
       </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
+      <c r="D35" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -5635,8 +5360,8 @@
       <c r="O35" t="n">
         <v>45.0</v>
       </c>
-      <c r="P35" t="s">
-        <v>118</v>
+      <c r="P35" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5660,7 +5385,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5712,27 +5437,27 @@
       </c>
       <c r="AO35" s="8"/>
       <c r="AP35" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="AQ35" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>41</v>
+      <c r="B36" t="n">
+        <v>1.0</v>
       </c>
       <c r="C36" t="n">
         <v>52.0</v>
       </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
+      <c r="D36" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
@@ -5764,8 +5489,8 @@
       <c r="O36" t="n">
         <v>54.0</v>
       </c>
-      <c r="P36" t="s">
-        <v>114</v>
+      <c r="P36" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -5789,7 +5514,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -5841,27 +5566,27 @@
       </c>
       <c r="AO36" s="8"/>
       <c r="AP36" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="AQ36" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>42</v>
+      <c r="B37" t="n">
+        <v>0.0</v>
       </c>
       <c r="C37" t="n">
         <v>61.0</v>
       </c>
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
+      <c r="D37" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
       </c>
       <c r="F37" t="n">
         <v>3.0</v>
@@ -5893,8 +5618,8 @@
       <c r="O37" t="n">
         <v>42.0</v>
       </c>
-      <c r="P37" t="s">
-        <v>120</v>
+      <c r="P37" t="n">
+        <v>1.09</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -5918,7 +5643,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -5970,27 +5695,27 @@
       </c>
       <c r="AO37" s="8"/>
       <c r="AP37" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="AQ37" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>41</v>
+      <c r="B38" t="n">
+        <v>1.0</v>
       </c>
       <c r="C38" t="n">
         <v>62.0</v>
       </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" t="s">
-        <v>105</v>
+      <c r="D38" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.0</v>
       </c>
       <c r="F38" t="n">
         <v>3.0</v>
@@ -6022,8 +5747,8 @@
       <c r="O38" t="n">
         <v>66.0</v>
       </c>
-      <c r="P38" t="s">
-        <v>121</v>
+      <c r="P38" t="n">
+        <v>1.38</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6047,7 +5772,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6099,27 +5824,27 @@
       </c>
       <c r="AO38" s="8"/>
       <c r="AP38" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="AQ38" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>41</v>
+      <c r="B39" t="n">
+        <v>1.0</v>
       </c>
       <c r="C39" t="n">
         <v>61.0</v>
       </c>
-      <c r="D39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
+      <c r="D39" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -6151,8 +5876,8 @@
       <c r="O39" t="n" s="12">
         <v>104.0</v>
       </c>
-      <c r="P39" t="s">
-        <v>107</v>
+      <c r="P39" t="n">
+        <v>0.5</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6176,7 +5901,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6224,27 +5949,27 @@
       </c>
       <c r="AO39" s="8"/>
       <c r="AP39" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="AQ39" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>41</v>
+      <c r="B40" t="n">
+        <v>1.0</v>
       </c>
       <c r="C40" t="n">
         <v>58.0</v>
       </c>
-      <c r="D40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
+      <c r="D40" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
         <v>3.0</v>
@@ -6276,8 +6001,8 @@
       <c r="O40" t="n">
         <v>45.0</v>
       </c>
-      <c r="P40" t="s">
-        <v>43</v>
+      <c r="P40" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q40" t="n">
         <v>1.0</v>
@@ -6301,7 +6026,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6353,27 +6078,27 @@
       </c>
       <c r="AO40" s="8"/>
       <c r="AP40" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="AQ40" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>41</v>
+      <c r="B41" t="n">
+        <v>1.0</v>
       </c>
       <c r="C41" t="n">
         <v>53.0</v>
       </c>
-      <c r="D41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
+      <c r="D41" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -6405,8 +6130,8 @@
       <c r="O41" t="n">
         <v>38.0</v>
       </c>
-      <c r="P41" t="s">
-        <v>122</v>
+      <c r="P41" t="n" s="12">
+        <v>1.8</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6430,7 +6155,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6482,27 +6207,27 @@
       </c>
       <c r="AO41" s="8"/>
       <c r="AP41" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="AQ41" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
+      <c r="B42" t="n">
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
         <v>48.0</v>
       </c>
-      <c r="D42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
+      <c r="D42" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -6534,8 +6259,8 @@
       <c r="O42" t="n">
         <v>37.0</v>
       </c>
-      <c r="P42" t="s">
-        <v>123</v>
+      <c r="P42" t="n">
+        <v>1.7</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6559,7 +6284,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6611,27 +6336,27 @@
       </c>
       <c r="AO42" s="8"/>
       <c r="AP42" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="AQ42" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s">
-        <v>41</v>
+      <c r="B43" t="n">
+        <v>1.0</v>
       </c>
       <c r="C43" t="n">
         <v>51.0</v>
       </c>
-      <c r="D43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" t="s">
-        <v>44</v>
+      <c r="D43" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -6663,8 +6388,8 @@
       <c r="O43" t="n">
         <v>80.0</v>
       </c>
-      <c r="P43" t="s">
-        <v>112</v>
+      <c r="P43" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6688,7 +6413,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6740,27 +6465,27 @@
       </c>
       <c r="AO43" s="8"/>
       <c r="AP43" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="AQ43" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
-        <v>42</v>
+      <c r="B44" t="n">
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
         <v>56.0</v>
       </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" t="s">
-        <v>44</v>
+      <c r="D44" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -6792,8 +6517,8 @@
       <c r="O44" t="n">
         <v>40.0</v>
       </c>
-      <c r="P44" t="s">
-        <v>108</v>
+      <c r="P44" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -6817,7 +6542,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -6869,27 +6594,27 @@
       </c>
       <c r="AO44" s="8"/>
       <c r="AP44" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="AQ44" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" t="s">
-        <v>42</v>
+      <c r="B45" t="n">
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
         <v>64.0</v>
       </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" t="s">
-        <v>106</v>
+      <c r="D45" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.0</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -6921,8 +6646,8 @@
       <c r="O45" t="n">
         <v>36.0</v>
       </c>
-      <c r="P45" t="s">
-        <v>112</v>
+      <c r="P45" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -6946,7 +6671,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -6998,27 +6723,27 @@
       </c>
       <c r="AO45" s="8"/>
       <c r="AP45" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="AQ45" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s">
-        <v>41</v>
+      <c r="B46" t="n">
+        <v>1.0</v>
       </c>
       <c r="C46" t="n">
         <v>59.0</v>
       </c>
-      <c r="D46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
+      <c r="D46" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -7050,8 +6775,8 @@
       <c r="O46" t="n">
         <v>77.0</v>
       </c>
-      <c r="P46" t="s">
-        <v>124</v>
+      <c r="P46" t="n">
+        <v>0.59</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7075,7 +6800,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7127,27 +6852,27 @@
       </c>
       <c r="AO46" s="8"/>
       <c r="AP46" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="AQ46" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
-        <v>41</v>
+      <c r="B47" t="n">
+        <v>1.0</v>
       </c>
       <c r="C47" t="n">
         <v>56.0</v>
       </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" t="s">
-        <v>44</v>
+      <c r="D47" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -7179,8 +6904,8 @@
       <c r="O47" t="n">
         <v>62.0</v>
       </c>
-      <c r="P47" t="s">
-        <v>125</v>
+      <c r="P47" t="n">
+        <v>1.24</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7204,7 +6929,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7256,27 +6981,27 @@
       </c>
       <c r="AO47" s="8"/>
       <c r="AP47" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="AQ47" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
-        <v>41</v>
+      <c r="B48" t="n">
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
         <v>64.0</v>
       </c>
-      <c r="D48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" t="s">
-        <v>44</v>
+      <c r="D48" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -7308,8 +7033,8 @@
       <c r="O48" t="n">
         <v>54.0</v>
       </c>
-      <c r="P48" t="s">
-        <v>114</v>
+      <c r="P48" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7333,7 +7058,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7385,27 +7110,27 @@
       </c>
       <c r="AO48" s="8"/>
       <c r="AP48" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="AQ48" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s">
-        <v>41</v>
+      <c r="B49" t="n">
+        <v>1.0</v>
       </c>
       <c r="C49" t="n">
         <v>60.0</v>
       </c>
-      <c r="D49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" t="s">
-        <v>44</v>
+      <c r="D49" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -7437,8 +7162,8 @@
       <c r="O49" t="n">
         <v>52.0</v>
       </c>
-      <c r="P49" t="s">
-        <v>126</v>
+      <c r="P49" t="n">
+        <v>0.75</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7462,7 +7187,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7514,27 +7239,27 @@
       </c>
       <c r="AO49" s="8"/>
       <c r="AP49" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="AQ49" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B50" t="s">
-        <v>42</v>
+      <c r="B50" t="n">
+        <v>0.0</v>
       </c>
       <c r="C50" t="n">
         <v>65.0</v>
       </c>
-      <c r="D50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" t="s">
-        <v>44</v>
+      <c r="D50" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -7566,8 +7291,8 @@
       <c r="O50" t="n">
         <v>48.0</v>
       </c>
-      <c r="P50" t="s">
-        <v>118</v>
+      <c r="P50" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7591,7 +7316,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7643,27 +7368,27 @@
       </c>
       <c r="AO50" s="8"/>
       <c r="AP50" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="AQ50" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" t="s">
-        <v>41</v>
+      <c r="B51" t="n">
+        <v>1.0</v>
       </c>
       <c r="C51" t="n">
         <v>65.0</v>
       </c>
-      <c r="D51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" t="s">
-        <v>44</v>
+      <c r="D51" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -7695,8 +7420,8 @@
       <c r="O51" t="n">
         <v>23.0</v>
       </c>
-      <c r="P51" t="s">
-        <v>108</v>
+      <c r="P51" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7720,7 +7445,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7772,27 +7497,27 @@
       </c>
       <c r="AO51" s="8"/>
       <c r="AP51" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="AQ51" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="s">
-        <v>41</v>
+      <c r="B52" t="n">
+        <v>1.0</v>
       </c>
       <c r="C52" t="n">
         <v>68.0</v>
       </c>
-      <c r="D52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" t="s">
-        <v>44</v>
+      <c r="D52" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0</v>
       </c>
       <c r="F52" t="n">
         <v>3.0</v>
@@ -7824,8 +7549,8 @@
       <c r="O52" t="n">
         <v>61.0</v>
       </c>
-      <c r="P52" t="s">
-        <v>117</v>
+      <c r="P52" t="n">
+        <v>0.78</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -7849,7 +7574,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -7901,27 +7626,27 @@
       </c>
       <c r="AO52" s="8"/>
       <c r="AP52" t="s">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="AQ52" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B53" t="s">
-        <v>41</v>
+      <c r="B53" t="n">
+        <v>1.0</v>
       </c>
       <c r="C53" t="n">
         <v>54.0</v>
       </c>
-      <c r="D53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" t="s">
-        <v>44</v>
+      <c r="D53" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -7953,8 +7678,8 @@
       <c r="O53" t="n">
         <v>50.0</v>
       </c>
-      <c r="P53" t="s">
-        <v>127</v>
+      <c r="P53" t="n">
+        <v>0.88</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -7978,7 +7703,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8030,27 +7755,27 @@
       </c>
       <c r="AO53" s="8"/>
       <c r="AP53" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="AQ53" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>39</v>
       </c>
-      <c r="B54" t="s">
-        <v>43</v>
+      <c r="B54" t="n">
+        <v>1.0</v>
       </c>
       <c r="C54" t="n">
         <v>66.0</v>
       </c>
-      <c r="D54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
+      <c r="D54" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -8082,8 +7807,8 @@
       <c r="O54" t="n">
         <v>54.0</v>
       </c>
-      <c r="P54" t="s">
-        <v>128</v>
+      <c r="P54" t="n">
+        <v>0.92</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8107,7 +7832,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8155,13 +7880,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="AQ54" t="s" s="8">
         <v>37</v>
@@ -8171,17 +7896,17 @@
       <c r="A55" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
-        <v>43</v>
+      <c r="B55" t="n">
+        <v>1.0</v>
       </c>
       <c r="C55" t="n">
         <v>62.0</v>
       </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" t="s">
-        <v>43</v>
+      <c r="D55" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.0</v>
       </c>
       <c r="F55" t="n">
         <v>3.0</v>
@@ -8213,8 +7938,8 @@
       <c r="O55" t="n">
         <v>60.0</v>
       </c>
-      <c r="P55" t="s">
-        <v>118</v>
+      <c r="P55" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8238,7 +7963,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8284,13 +8009,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="AQ55" t="s" s="8">
         <v>37</v>
@@ -8300,17 +8025,17 @@
       <c r="A56" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="s">
-        <v>43</v>
+      <c r="B56" t="n">
+        <v>1.0</v>
       </c>
       <c r="C56" t="n">
         <v>55.0</v>
       </c>
-      <c r="D56" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" t="s">
-        <v>43</v>
+      <c r="D56" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.0</v>
       </c>
       <c r="F56" t="n">
         <v>3.0</v>
@@ -8342,8 +8067,8 @@
       <c r="O56" t="n">
         <v>39.0</v>
       </c>
-      <c r="P56" t="s">
-        <v>109</v>
+      <c r="P56" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8367,7 +8092,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8415,13 +8140,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="AQ56" t="s" s="8">
         <v>37</v>
@@ -8431,17 +8156,17 @@
       <c r="A57" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
-        <v>43</v>
+      <c r="B57" t="n">
+        <v>1.0</v>
       </c>
       <c r="C57" t="n">
         <v>53.0</v>
       </c>
-      <c r="D57" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" t="s">
-        <v>44</v>
+      <c r="D57" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -8473,8 +8198,8 @@
       <c r="O57" t="n">
         <v>42.0</v>
       </c>
-      <c r="P57" t="s">
-        <v>108</v>
+      <c r="P57" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8498,7 +8223,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8546,13 +8271,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="AQ57" t="s" s="8">
         <v>37</v>
@@ -8562,17 +8287,17 @@
       <c r="A58" t="s">
         <v>39</v>
       </c>
-      <c r="B58" t="s">
-        <v>43</v>
+      <c r="B58" t="n">
+        <v>1.0</v>
       </c>
       <c r="C58" t="n">
         <v>60.0</v>
       </c>
-      <c r="D58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" t="s">
-        <v>44</v>
+      <c r="D58" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0</v>
       </c>
       <c r="F58" t="n">
         <v>2.0</v>
@@ -8604,8 +8329,8 @@
       <c r="O58" t="n">
         <v>76.0</v>
       </c>
-      <c r="P58" t="s">
-        <v>129</v>
+      <c r="P58" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8629,7 +8354,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8675,13 +8400,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="AQ58" t="s" s="8">
         <v>37</v>
@@ -8691,17 +8416,17 @@
       <c r="A59" t="s">
         <v>39</v>
       </c>
-      <c r="B59" t="s">
-        <v>43</v>
+      <c r="B59" t="n">
+        <v>1.0</v>
       </c>
       <c r="C59" t="n">
         <v>54.0</v>
       </c>
-      <c r="D59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" t="s">
-        <v>44</v>
+      <c r="D59" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
         <v>3.0</v>
@@ -8733,8 +8458,8 @@
       <c r="O59" t="n">
         <v>62.0</v>
       </c>
-      <c r="P59" t="s">
-        <v>114</v>
+      <c r="P59" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8758,7 +8483,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -8789,7 +8514,7 @@
         <v>0.0</v>
       </c>
       <c r="AI59" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ59" t="n">
         <v>1.0</v>
@@ -8804,13 +8529,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="AQ59" t="s" s="8">
         <v>37</v>
@@ -8820,17 +8545,17 @@
       <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" t="s">
-        <v>43</v>
+      <c r="B60" t="n">
+        <v>1.0</v>
       </c>
       <c r="C60" t="n">
         <v>65.0</v>
       </c>
-      <c r="D60" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" t="s">
-        <v>44</v>
+      <c r="D60" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0</v>
       </c>
       <c r="F60" t="n">
         <v>3.0</v>
@@ -8862,8 +8587,8 @@
       <c r="O60" t="n">
         <v>73.0</v>
       </c>
-      <c r="P60" t="s">
-        <v>111</v>
+      <c r="P60" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -8887,7 +8612,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -8933,13 +8658,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="AQ60" t="s" s="8">
         <v>37</v>
@@ -8949,17 +8674,17 @@
       <c r="A61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" t="s">
-        <v>43</v>
+      <c r="B61" t="n">
+        <v>1.0</v>
       </c>
       <c r="C61" t="n" s="12">
         <v>32.0</v>
       </c>
-      <c r="D61" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" t="s">
-        <v>44</v>
+      <c r="D61" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -8991,8 +8716,8 @@
       <c r="O61" t="n">
         <v>83.0</v>
       </c>
-      <c r="P61" t="s">
-        <v>43</v>
+      <c r="P61" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q61" t="n">
         <v>2.0</v>
@@ -9016,7 +8741,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9064,13 +8789,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="AQ61" t="s" s="8">
         <v>37</v>
@@ -9080,17 +8805,17 @@
       <c r="A62" t="s">
         <v>39</v>
       </c>
-      <c r="B62" t="s">
-        <v>44</v>
+      <c r="B62" t="n">
+        <v>0.0</v>
       </c>
       <c r="C62" t="n">
         <v>69.0</v>
       </c>
-      <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" t="s">
-        <v>44</v>
+      <c r="D62" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0</v>
       </c>
       <c r="F62" t="n">
         <v>3.0</v>
@@ -9122,8 +8847,8 @@
       <c r="O62" t="n">
         <v>84.0</v>
       </c>
-      <c r="P62" t="s">
-        <v>114</v>
+      <c r="P62" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9147,7 +8872,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9193,13 +8918,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="AQ62" t="s" s="8">
         <v>37</v>
@@ -9209,17 +8934,17 @@
       <c r="A63" t="s">
         <v>39</v>
       </c>
-      <c r="B63" t="s">
-        <v>43</v>
+      <c r="B63" t="n">
+        <v>1.0</v>
       </c>
       <c r="C63" t="n">
         <v>66.0</v>
       </c>
-      <c r="D63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" t="s">
-        <v>44</v>
+      <c r="D63" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0</v>
       </c>
       <c r="F63" t="n">
         <v>3.0</v>
@@ -9251,8 +8976,8 @@
       <c r="O63" t="n">
         <v>52.0</v>
       </c>
-      <c r="P63" t="s">
-        <v>108</v>
+      <c r="P63" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9276,7 +9001,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9322,13 +9047,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="AQ63" t="s" s="8">
         <v>37</v>
@@ -9338,17 +9063,17 @@
       <c r="A64" t="s">
         <v>39</v>
       </c>
-      <c r="B64" t="s">
-        <v>43</v>
+      <c r="B64" t="n">
+        <v>1.0</v>
       </c>
       <c r="C64" t="n">
         <v>51.0</v>
       </c>
-      <c r="D64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E64" t="s">
-        <v>44</v>
+      <c r="D64" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0</v>
       </c>
       <c r="F64" t="n">
         <v>3.0</v>
@@ -9368,7 +9093,7 @@
       <c r="K64" t="n">
         <v>0.0</v>
       </c>
-      <c r="L64" t="n" s="12">
+      <c r="L64" t="n">
         <v>6.2</v>
       </c>
       <c r="M64" t="n">
@@ -9380,8 +9105,8 @@
       <c r="O64" t="n">
         <v>37.0</v>
       </c>
-      <c r="P64" t="s">
-        <v>109</v>
+      <c r="P64" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9405,7 +9130,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9451,13 +9176,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="AQ64" t="s" s="8">
         <v>37</v>
@@ -9467,17 +9192,17 @@
       <c r="A65" t="s">
         <v>39</v>
       </c>
-      <c r="B65" t="s">
-        <v>43</v>
+      <c r="B65" t="n">
+        <v>1.0</v>
       </c>
       <c r="C65" t="n">
         <v>59.0</v>
       </c>
-      <c r="D65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" t="s">
-        <v>44</v>
+      <c r="D65" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
       </c>
       <c r="F65" t="n">
         <v>2.0</v>
@@ -9509,8 +9234,8 @@
       <c r="O65" t="n">
         <v>81.0</v>
       </c>
-      <c r="P65" t="s">
-        <v>114</v>
+      <c r="P65" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9534,7 +9259,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9580,13 +9305,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="AQ65" t="s" s="8">
         <v>37</v>
@@ -9596,17 +9321,17 @@
       <c r="A66" t="s">
         <v>39</v>
       </c>
-      <c r="B66" t="s">
-        <v>43</v>
+      <c r="B66" t="n">
+        <v>1.0</v>
       </c>
       <c r="C66" t="n">
         <v>66.0</v>
       </c>
-      <c r="D66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" t="s">
-        <v>44</v>
+      <c r="D66" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
       </c>
       <c r="F66" t="n">
         <v>3.0</v>
@@ -9638,8 +9363,8 @@
       <c r="O66" t="n">
         <v>42.0</v>
       </c>
-      <c r="P66" t="s">
-        <v>109</v>
+      <c r="P66" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9663,7 +9388,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9707,13 +9432,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="AQ66" t="s" s="8">
         <v>37</v>
@@ -9723,17 +9448,17 @@
       <c r="A67" t="s">
         <v>39</v>
       </c>
-      <c r="B67" t="s">
-        <v>43</v>
+      <c r="B67" t="n">
+        <v>1.0</v>
       </c>
       <c r="C67" t="n">
         <v>57.0</v>
       </c>
-      <c r="D67" t="s">
-        <v>47</v>
-      </c>
-      <c r="E67" t="s">
-        <v>44</v>
+      <c r="D67" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0</v>
       </c>
       <c r="F67" t="n">
         <v>3.0</v>
@@ -9765,8 +9490,8 @@
       <c r="O67" t="n">
         <v>37.0</v>
       </c>
-      <c r="P67" t="s">
-        <v>109</v>
+      <c r="P67" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -9790,7 +9515,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -9836,13 +9561,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c r="AQ67" t="s" s="8">
         <v>37</v>
@@ -9852,17 +9577,17 @@
       <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B68" t="s">
-        <v>43</v>
+      <c r="B68" t="n">
+        <v>1.0</v>
       </c>
       <c r="C68" t="n">
         <v>75.0</v>
       </c>
-      <c r="D68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" t="s">
-        <v>44</v>
+      <c r="D68" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0</v>
       </c>
       <c r="F68" t="n">
         <v>3.0</v>
@@ -9894,8 +9619,8 @@
       <c r="O68" t="n">
         <v>43.0</v>
       </c>
-      <c r="P68" t="s">
-        <v>108</v>
+      <c r="P68" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -9919,7 +9644,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -9965,13 +9690,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="AQ68" t="s" s="8">
         <v>37</v>
@@ -9981,17 +9706,17 @@
       <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B69" t="s">
-        <v>43</v>
+      <c r="B69" t="n">
+        <v>1.0</v>
       </c>
       <c r="C69" t="n">
         <v>64.0</v>
       </c>
-      <c r="D69" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" t="s">
-        <v>44</v>
+      <c r="D69" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0</v>
       </c>
       <c r="F69" t="n">
         <v>3.0</v>
@@ -10023,8 +9748,8 @@
       <c r="O69" t="n">
         <v>38.0</v>
       </c>
-      <c r="P69" t="s">
-        <v>108</v>
+      <c r="P69" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10048,7 +9773,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10079,7 +9804,7 @@
         <v>0.0</v>
       </c>
       <c r="AI69" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ69" t="n">
         <v>1.0</v>
@@ -10094,13 +9819,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="AQ69" t="s" s="8">
         <v>37</v>
@@ -10110,17 +9835,17 @@
       <c r="A70" t="s">
         <v>39</v>
       </c>
-      <c r="B70" t="s">
-        <v>43</v>
+      <c r="B70" t="n">
+        <v>1.0</v>
       </c>
       <c r="C70" t="n">
         <v>44.0</v>
       </c>
-      <c r="D70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" t="s">
-        <v>44</v>
+      <c r="D70" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0</v>
       </c>
       <c r="F70" t="n">
         <v>3.0</v>
@@ -10152,8 +9877,8 @@
       <c r="O70" t="n">
         <v>54.0</v>
       </c>
-      <c r="P70" t="s">
-        <v>109</v>
+      <c r="P70" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10177,7 +9902,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10221,13 +9946,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="AQ70" t="s" s="8">
         <v>37</v>
@@ -10237,17 +9962,17 @@
       <c r="A71" t="s">
         <v>39</v>
       </c>
-      <c r="B71" t="s">
-        <v>43</v>
+      <c r="B71" t="n">
+        <v>1.0</v>
       </c>
       <c r="C71" t="n">
         <v>53.0</v>
       </c>
-      <c r="D71" t="s">
-        <v>79</v>
-      </c>
-      <c r="E71" t="s">
-        <v>44</v>
+      <c r="D71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0</v>
       </c>
       <c r="F71" t="n">
         <v>3.0</v>
@@ -10279,8 +10004,8 @@
       <c r="O71" t="n">
         <v>43.0</v>
       </c>
-      <c r="P71" t="s">
-        <v>109</v>
+      <c r="P71" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10304,7 +10029,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10348,13 +10073,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="AQ71" t="s" s="8">
         <v>37</v>
@@ -10364,17 +10089,17 @@
       <c r="A72" t="s">
         <v>39</v>
       </c>
-      <c r="B72" t="s">
-        <v>44</v>
+      <c r="B72" t="n">
+        <v>0.0</v>
       </c>
       <c r="C72" t="n" s="12">
         <v>37.0</v>
       </c>
-      <c r="D72" t="s">
-        <v>82</v>
-      </c>
-      <c r="E72" t="s">
-        <v>44</v>
+      <c r="D72" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0</v>
       </c>
       <c r="F72" t="n">
         <v>2.0</v>
@@ -10406,8 +10131,8 @@
       <c r="O72" t="n">
         <v>40.0</v>
       </c>
-      <c r="P72" t="s">
-        <v>130</v>
+      <c r="P72" t="n">
+        <v>1.4</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10431,7 +10156,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10477,13 +10202,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="AQ72" t="s" s="8">
         <v>37</v>
@@ -10493,17 +10218,17 @@
       <c r="A73" t="s">
         <v>39</v>
       </c>
-      <c r="B73" t="s">
-        <v>44</v>
+      <c r="B73" t="n">
+        <v>0.0</v>
       </c>
       <c r="C73" t="n">
         <v>66.0</v>
       </c>
-      <c r="D73" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" t="s">
-        <v>44</v>
+      <c r="D73" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0</v>
       </c>
       <c r="F73" t="n">
         <v>3.0</v>
@@ -10535,8 +10260,8 @@
       <c r="O73" t="n">
         <v>46.0</v>
       </c>
-      <c r="P73" t="s">
-        <v>43</v>
+      <c r="P73" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q73" t="n">
         <v>0.0</v>
@@ -10560,7 +10285,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10606,13 +10331,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="AQ73" t="s" s="8">
         <v>37</v>
@@ -10622,17 +10347,17 @@
       <c r="A74" t="s">
         <v>39</v>
       </c>
-      <c r="B74" t="s">
-        <v>43</v>
+      <c r="B74" t="n">
+        <v>1.0</v>
       </c>
       <c r="C74" t="n">
         <v>53.0</v>
       </c>
-      <c r="D74" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" t="s">
-        <v>44</v>
+      <c r="D74" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0</v>
       </c>
       <c r="F74" t="n">
         <v>3.0</v>
@@ -10664,8 +10389,8 @@
       <c r="O74" t="n">
         <v>45.0</v>
       </c>
-      <c r="P74" t="s">
-        <v>118</v>
+      <c r="P74" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10689,7 +10414,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10735,13 +10460,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="AQ74" t="s" s="8">
         <v>37</v>
@@ -10751,17 +10476,17 @@
       <c r="A75" t="s">
         <v>39</v>
       </c>
-      <c r="B75" t="s">
-        <v>43</v>
+      <c r="B75" t="n">
+        <v>1.0</v>
       </c>
       <c r="C75" t="n">
         <v>67.0</v>
       </c>
-      <c r="D75" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" t="s">
-        <v>44</v>
+      <c r="D75" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0</v>
       </c>
       <c r="F75" t="n">
         <v>3.0</v>
@@ -10793,8 +10518,8 @@
       <c r="O75" t="n">
         <v>38.0</v>
       </c>
-      <c r="P75" t="s">
-        <v>109</v>
+      <c r="P75" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -10818,7 +10543,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -10864,13 +10589,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="AQ75" t="s" s="8">
         <v>37</v>
@@ -10880,17 +10605,17 @@
       <c r="A76" t="s">
         <v>39</v>
       </c>
-      <c r="B76" t="s">
-        <v>43</v>
+      <c r="B76" t="n">
+        <v>1.0</v>
       </c>
       <c r="C76" t="n">
         <v>58.0</v>
       </c>
-      <c r="D76" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" t="s">
-        <v>44</v>
+      <c r="D76" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0</v>
       </c>
       <c r="F76" t="n">
         <v>3.0</v>
@@ -10922,8 +10647,8 @@
       <c r="O76" t="n">
         <v>37.0</v>
       </c>
-      <c r="P76" t="s">
-        <v>108</v>
+      <c r="P76" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -10947,7 +10672,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -10991,13 +10716,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="AQ76" t="s" s="8">
         <v>37</v>
@@ -11007,17 +10732,17 @@
       <c r="A77" t="s">
         <v>39</v>
       </c>
-      <c r="B77" t="s">
-        <v>43</v>
+      <c r="B77" t="n">
+        <v>1.0</v>
       </c>
       <c r="C77" t="n">
         <v>66.0</v>
       </c>
-      <c r="D77" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" t="s">
-        <v>44</v>
+      <c r="D77" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0</v>
       </c>
       <c r="F77" t="n">
         <v>3.0</v>
@@ -11049,8 +10774,8 @@
       <c r="O77" t="n">
         <v>37.0</v>
       </c>
-      <c r="P77" t="s">
-        <v>109</v>
+      <c r="P77" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11074,7 +10799,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11120,13 +10845,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="AQ77" t="s" s="8">
         <v>37</v>
@@ -11136,17 +10861,17 @@
       <c r="A78" t="s">
         <v>39</v>
       </c>
-      <c r="B78" t="s">
-        <v>43</v>
+      <c r="B78" t="n">
+        <v>1.0</v>
       </c>
       <c r="C78" t="n">
         <v>52.0</v>
       </c>
-      <c r="D78" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" t="s">
-        <v>44</v>
+      <c r="D78" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0</v>
       </c>
       <c r="F78" t="n">
         <v>3.0</v>
@@ -11178,8 +10903,8 @@
       <c r="O78" t="n">
         <v>56.0</v>
       </c>
-      <c r="P78" t="s">
-        <v>118</v>
+      <c r="P78" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11203,7 +10928,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11249,13 +10974,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="AQ78" t="s" s="8">
         <v>37</v>
@@ -11265,17 +10990,17 @@
       <c r="A79" t="s">
         <v>39</v>
       </c>
-      <c r="B79" t="s">
-        <v>44</v>
+      <c r="B79" t="n">
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
         <v>61.0</v>
       </c>
-      <c r="D79" t="s">
-        <v>64</v>
-      </c>
-      <c r="E79" t="s">
-        <v>44</v>
+      <c r="D79" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
         <v>3.0</v>
@@ -11307,8 +11032,8 @@
       <c r="O79" t="n">
         <v>81.0</v>
       </c>
-      <c r="P79" t="s">
-        <v>114</v>
+      <c r="P79" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11332,7 +11057,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11378,13 +11103,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="AQ79" t="s" s="8">
         <v>37</v>
@@ -11394,17 +11119,17 @@
       <c r="A80" t="s">
         <v>39</v>
       </c>
-      <c r="B80" t="s">
-        <v>44</v>
+      <c r="B80" t="n">
+        <v>0.0</v>
       </c>
       <c r="C80" t="n">
         <v>57.0</v>
       </c>
-      <c r="D80" t="s">
-        <v>48</v>
-      </c>
-      <c r="E80" t="s">
-        <v>44</v>
+      <c r="D80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
       </c>
       <c r="F80" t="n">
         <v>3.0</v>
@@ -11436,8 +11161,8 @@
       <c r="O80" t="n">
         <v>85.0</v>
       </c>
-      <c r="P80" t="s">
-        <v>131</v>
+      <c r="P80" t="n">
+        <v>0.75</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11461,7 +11186,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11492,7 +11217,7 @@
         <v>0.0</v>
       </c>
       <c r="AI80" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ80" t="n">
         <v>1.0</v>
@@ -11507,13 +11232,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="AQ80" t="s" s="8">
         <v>37</v>
@@ -11523,17 +11248,17 @@
       <c r="A81" t="s">
         <v>39</v>
       </c>
-      <c r="B81" t="s">
-        <v>43</v>
+      <c r="B81" t="n">
+        <v>1.0</v>
       </c>
       <c r="C81" t="n">
         <v>62.0</v>
       </c>
-      <c r="D81" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" t="s">
-        <v>44</v>
+      <c r="D81" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0</v>
       </c>
       <c r="F81" t="n">
         <v>2.0</v>
@@ -11565,8 +11290,8 @@
       <c r="O81" t="n">
         <v>49.0</v>
       </c>
-      <c r="P81" t="s">
-        <v>118</v>
+      <c r="P81" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11590,7 +11315,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11638,13 +11363,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="AQ81" t="s" s="8">
         <v>37</v>
@@ -11654,17 +11379,17 @@
       <c r="A82" t="s">
         <v>39</v>
       </c>
-      <c r="B82" t="s">
-        <v>43</v>
+      <c r="B82" t="n">
+        <v>1.0</v>
       </c>
       <c r="C82" t="n" s="12">
         <v>38.0</v>
       </c>
-      <c r="D82" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82" t="s">
-        <v>44</v>
+      <c r="D82" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0</v>
       </c>
       <c r="F82" t="n">
         <v>2.0</v>
@@ -11696,8 +11421,8 @@
       <c r="O82" t="n">
         <v>68.0</v>
       </c>
-      <c r="P82" t="s">
-        <v>43</v>
+      <c r="P82" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q82" t="n">
         <v>2.0</v>
@@ -11721,7 +11446,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11767,13 +11492,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="AQ82" t="s" s="8">
         <v>37</v>
@@ -11783,17 +11508,17 @@
       <c r="A83" t="s">
         <v>39</v>
       </c>
-      <c r="B83" t="s">
-        <v>43</v>
+      <c r="B83" t="n">
+        <v>1.0</v>
       </c>
       <c r="C83" t="n">
         <v>60.0</v>
       </c>
-      <c r="D83" t="s">
-        <v>50</v>
-      </c>
-      <c r="E83" t="s">
-        <v>44</v>
+      <c r="D83" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
       </c>
       <c r="F83" t="n">
         <v>3.0</v>
@@ -11825,8 +11550,8 @@
       <c r="O83" t="n">
         <v>57.0</v>
       </c>
-      <c r="P83" t="s">
-        <v>114</v>
+      <c r="P83" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -11850,7 +11575,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -11896,13 +11621,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="AQ83" t="s" s="8">
         <v>37</v>
@@ -11912,17 +11637,17 @@
       <c r="A84" t="s">
         <v>39</v>
       </c>
-      <c r="B84" t="s">
-        <v>44</v>
+      <c r="B84" t="n">
+        <v>0.0</v>
       </c>
       <c r="C84" t="n">
         <v>57.0</v>
       </c>
-      <c r="D84" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" t="s">
-        <v>44</v>
+      <c r="D84" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0</v>
       </c>
       <c r="F84" t="n">
         <v>2.0</v>
@@ -11954,8 +11679,8 @@
       <c r="O84" t="n">
         <v>43.0</v>
       </c>
-      <c r="P84" t="s">
-        <v>130</v>
+      <c r="P84" t="n">
+        <v>1.4</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -11979,7 +11704,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12025,13 +11750,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="AQ84" t="s" s="8">
         <v>37</v>
@@ -12041,17 +11766,17 @@
       <c r="A85" t="s">
         <v>39</v>
       </c>
-      <c r="B85" t="s">
-        <v>43</v>
+      <c r="B85" t="n">
+        <v>1.0</v>
       </c>
       <c r="C85" t="n">
         <v>60.0</v>
       </c>
-      <c r="D85" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" t="s">
-        <v>44</v>
+      <c r="D85" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
       </c>
       <c r="F85" t="n">
         <v>3.0</v>
@@ -12083,8 +11808,8 @@
       <c r="O85" t="n">
         <v>75.0</v>
       </c>
-      <c r="P85" t="s">
-        <v>111</v>
+      <c r="P85" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12108,7 +11833,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12154,13 +11879,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="AQ85" t="s" s="8">
         <v>37</v>
@@ -12170,17 +11895,17 @@
       <c r="A86" t="s">
         <v>39</v>
       </c>
-      <c r="B86" t="s">
-        <v>44</v>
+      <c r="B86" t="n">
+        <v>0.0</v>
       </c>
       <c r="C86" t="n">
         <v>63.0</v>
       </c>
-      <c r="D86" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" t="s">
-        <v>44</v>
+      <c r="D86" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0</v>
       </c>
       <c r="F86" t="n">
         <v>3.0</v>
@@ -12212,8 +11937,8 @@
       <c r="O86" t="n">
         <v>35.0</v>
       </c>
-      <c r="P86" t="s">
-        <v>109</v>
+      <c r="P86" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12237,7 +11962,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12268,7 +11993,7 @@
         <v>0.0</v>
       </c>
       <c r="AI86" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ86" t="n">
         <v>1.0</v>
@@ -12283,13 +12008,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="AQ86" t="s" s="8">
         <v>37</v>
@@ -12299,17 +12024,17 @@
       <c r="A87" t="s">
         <v>39</v>
       </c>
-      <c r="B87" t="s">
-        <v>43</v>
+      <c r="B87" t="n">
+        <v>1.0</v>
       </c>
       <c r="C87" t="n">
         <v>55.0</v>
       </c>
-      <c r="D87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" t="s">
-        <v>43</v>
+      <c r="D87" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.0</v>
       </c>
       <c r="F87" t="n">
         <v>3.0</v>
@@ -12341,8 +12066,8 @@
       <c r="O87" t="n">
         <v>52.0</v>
       </c>
-      <c r="P87" t="s">
-        <v>118</v>
+      <c r="P87" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12366,7 +12091,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12412,13 +12137,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="AQ87" t="s" s="8">
         <v>37</v>
@@ -12428,17 +12153,17 @@
       <c r="A88" t="s">
         <v>39</v>
       </c>
-      <c r="B88" t="s">
-        <v>44</v>
+      <c r="B88" t="n">
+        <v>0.0</v>
       </c>
       <c r="C88" t="n">
         <v>57.0</v>
       </c>
-      <c r="D88" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" t="s">
-        <v>44</v>
+      <c r="D88" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0</v>
       </c>
       <c r="F88" t="n">
         <v>3.0</v>
@@ -12470,8 +12195,8 @@
       <c r="O88" t="n" s="12">
         <v>103.0</v>
       </c>
-      <c r="P88" t="s">
-        <v>107</v>
+      <c r="P88" t="n">
+        <v>0.5</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12495,7 +12220,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12541,13 +12266,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="AQ88" t="s" s="8">
         <v>37</v>
@@ -12557,17 +12282,17 @@
       <c r="A89" t="s">
         <v>39</v>
       </c>
-      <c r="B89" t="s">
-        <v>43</v>
+      <c r="B89" t="n">
+        <v>1.0</v>
       </c>
       <c r="C89" t="n">
         <v>59.0</v>
       </c>
-      <c r="D89" t="s">
-        <v>45</v>
-      </c>
-      <c r="E89" t="s">
-        <v>44</v>
+      <c r="D89" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0</v>
       </c>
       <c r="F89" t="n">
         <v>3.0</v>
@@ -12599,8 +12324,8 @@
       <c r="O89" t="n">
         <v>48.0</v>
       </c>
-      <c r="P89" t="s">
-        <v>118</v>
+      <c r="P89" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12624,7 +12349,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12670,13 +12395,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="AQ89" t="s" s="8">
         <v>37</v>
@@ -12686,17 +12411,17 @@
       <c r="A90" t="s">
         <v>39</v>
       </c>
-      <c r="B90" t="s">
-        <v>43</v>
+      <c r="B90" t="n">
+        <v>1.0</v>
       </c>
       <c r="C90" t="n">
         <v>57.0</v>
       </c>
-      <c r="D90" t="s">
-        <v>48</v>
-      </c>
-      <c r="E90" t="s">
-        <v>44</v>
+      <c r="D90" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0</v>
       </c>
       <c r="F90" t="n">
         <v>2.0</v>
@@ -12728,8 +12453,8 @@
       <c r="O90" t="n">
         <v>45.0</v>
       </c>
-      <c r="P90" t="s">
-        <v>118</v>
+      <c r="P90" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12753,7 +12478,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -12797,13 +12522,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="AQ90" t="s" s="8">
         <v>37</v>
@@ -12813,17 +12538,17 @@
       <c r="A91" t="s">
         <v>39</v>
       </c>
-      <c r="B91" t="s">
-        <v>43</v>
+      <c r="B91" t="n">
+        <v>1.0</v>
       </c>
       <c r="C91" t="n">
         <v>65.0</v>
       </c>
-      <c r="D91" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" t="s">
-        <v>44</v>
+      <c r="D91" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -12855,8 +12580,8 @@
       <c r="O91" t="n">
         <v>42.0</v>
       </c>
-      <c r="P91" t="s">
-        <v>108</v>
+      <c r="P91" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -12880,7 +12605,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -12926,13 +12651,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="AQ91" t="s" s="8">
         <v>37</v>
@@ -12942,17 +12667,17 @@
       <c r="A92" t="s">
         <v>39</v>
       </c>
-      <c r="B92" t="s">
-        <v>43</v>
+      <c r="B92" t="n">
+        <v>1.0</v>
       </c>
       <c r="C92" t="n">
         <v>63.0</v>
       </c>
-      <c r="D92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" t="s">
-        <v>44</v>
+      <c r="D92" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0</v>
       </c>
       <c r="F92" t="n">
         <v>3.0</v>
@@ -12984,8 +12709,8 @@
       <c r="O92" t="n">
         <v>50.0</v>
       </c>
-      <c r="P92" t="s">
-        <v>118</v>
+      <c r="P92" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13009,7 +12734,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13055,13 +12780,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="AQ92" t="s" s="8">
         <v>37</v>
@@ -13071,17 +12796,17 @@
       <c r="A93" t="s">
         <v>39</v>
       </c>
-      <c r="B93" t="s">
-        <v>43</v>
+      <c r="B93" t="n">
+        <v>1.0</v>
       </c>
       <c r="C93" t="n">
         <v>65.0</v>
       </c>
-      <c r="D93" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" t="s">
-        <v>44</v>
+      <c r="D93" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0</v>
       </c>
       <c r="F93" t="n">
         <v>3.0</v>
@@ -13113,8 +12838,8 @@
       <c r="O93" t="n">
         <v>38.0</v>
       </c>
-      <c r="P93" t="s">
-        <v>108</v>
+      <c r="P93" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13138,7 +12863,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13184,13 +12909,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="AQ93" t="s" s="8">
         <v>37</v>
@@ -13200,17 +12925,17 @@
       <c r="A94" t="s">
         <v>39</v>
       </c>
-      <c r="B94" t="s">
-        <v>43</v>
+      <c r="B94" t="n">
+        <v>1.0</v>
       </c>
       <c r="C94" t="n">
         <v>43.0</v>
       </c>
-      <c r="D94" t="s">
-        <v>79</v>
-      </c>
-      <c r="E94" t="s">
-        <v>44</v>
+      <c r="D94" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0</v>
       </c>
       <c r="F94" t="n">
         <v>2.0</v>
@@ -13242,8 +12967,8 @@
       <c r="O94" t="n">
         <v>52.0</v>
       </c>
-      <c r="P94" t="s">
-        <v>114</v>
+      <c r="P94" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13267,7 +12992,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13313,13 +13038,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="AQ94" t="s" s="8">
         <v>37</v>
@@ -13329,17 +13054,17 @@
       <c r="A95" t="s">
         <v>39</v>
       </c>
-      <c r="B95" t="s">
-        <v>43</v>
+      <c r="B95" t="n">
+        <v>1.0</v>
       </c>
       <c r="C95" t="n">
         <v>72.0</v>
       </c>
-      <c r="D95" t="s">
-        <v>47</v>
-      </c>
-      <c r="E95" t="s">
-        <v>44</v>
+      <c r="D95" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0</v>
       </c>
       <c r="F95" t="n">
         <v>3.0</v>
@@ -13371,8 +13096,8 @@
       <c r="O95" t="n">
         <v>61.0</v>
       </c>
-      <c r="P95" t="s">
-        <v>43</v>
+      <c r="P95" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q95" t="n">
         <v>1.0</v>
@@ -13396,7 +13121,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13442,13 +13167,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="AQ95" t="s" s="8">
         <v>37</v>
@@ -13458,17 +13183,17 @@
       <c r="A96" t="s">
         <v>39</v>
       </c>
-      <c r="B96" t="s">
-        <v>43</v>
+      <c r="B96" t="n">
+        <v>1.0</v>
       </c>
       <c r="C96" t="n">
         <v>64.0</v>
       </c>
-      <c r="D96" t="s">
-        <v>45</v>
-      </c>
-      <c r="E96" t="s">
-        <v>44</v>
+      <c r="D96" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0</v>
       </c>
       <c r="F96" t="n">
         <v>3.0</v>
@@ -13500,8 +13225,8 @@
       <c r="O96" t="n">
         <v>71.0</v>
       </c>
-      <c r="P96" t="s">
-        <v>114</v>
+      <c r="P96" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13515,11 +13240,17 @@
       <c r="T96" t="n">
         <v>1.0</v>
       </c>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
+      <c r="U96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.0</v>
+      </c>
       <c r="X96" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13565,13 +13296,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c r="AQ96" t="s" s="8">
         <v>37</v>
@@ -13581,17 +13312,17 @@
       <c r="A97" t="s">
         <v>39</v>
       </c>
-      <c r="B97" t="s">
-        <v>44</v>
+      <c r="B97" t="n">
+        <v>0.0</v>
       </c>
       <c r="C97" t="n">
         <v>49.0</v>
       </c>
-      <c r="D97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E97" t="s">
-        <v>43</v>
+      <c r="D97" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.0</v>
       </c>
       <c r="F97" t="n">
         <v>3.0</v>
@@ -13623,8 +13354,8 @@
       <c r="O97" t="n">
         <v>78.0</v>
       </c>
-      <c r="P97" t="s">
-        <v>111</v>
+      <c r="P97" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13648,7 +13379,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13677,7 +13408,7 @@
         <v>0.0</v>
       </c>
       <c r="AI97" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ97" t="n">
         <v>1.0</v>
@@ -13692,13 +13423,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="AQ97" t="s" s="8">
         <v>37</v>
@@ -13708,17 +13439,17 @@
       <c r="A98" t="s">
         <v>39</v>
       </c>
-      <c r="B98" t="s">
-        <v>44</v>
+      <c r="B98" t="n">
+        <v>0.0</v>
       </c>
       <c r="C98" t="n">
         <v>72.0</v>
       </c>
-      <c r="D98" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" t="s">
-        <v>44</v>
+      <c r="D98" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0</v>
       </c>
       <c r="F98" t="n">
         <v>3.0</v>
@@ -13747,11 +13478,11 @@
       <c r="N98" t="n">
         <v>138.0</v>
       </c>
-      <c r="O98" t="n" s="12">
+      <c r="O98" t="n">
         <v>90.0</v>
       </c>
-      <c r="P98" t="s">
-        <v>112</v>
+      <c r="P98" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13775,7 +13506,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -13819,13 +13550,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="AQ98" t="s" s="8">
         <v>37</v>
@@ -13835,17 +13566,17 @@
       <c r="A99" t="s">
         <v>39</v>
       </c>
-      <c r="B99" t="s">
-        <v>43</v>
+      <c r="B99" t="n">
+        <v>1.0</v>
       </c>
       <c r="C99" t="n">
         <v>62.0</v>
       </c>
-      <c r="D99" t="s">
-        <v>80</v>
-      </c>
-      <c r="E99" t="s">
-        <v>44</v>
+      <c r="D99" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0</v>
       </c>
       <c r="F99" t="n">
         <v>2.0</v>
@@ -13877,8 +13608,8 @@
       <c r="O99" t="n">
         <v>49.0</v>
       </c>
-      <c r="P99" t="s">
-        <v>118</v>
+      <c r="P99" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -13902,7 +13633,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -13948,13 +13679,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="AQ99" t="s" s="8">
         <v>37</v>
@@ -13964,17 +13695,17 @@
       <c r="A100" t="s">
         <v>39</v>
       </c>
-      <c r="B100" t="s">
-        <v>43</v>
+      <c r="B100" t="n">
+        <v>1.0</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
       </c>
-      <c r="D100" t="s">
-        <v>95</v>
-      </c>
-      <c r="E100" t="s">
-        <v>44</v>
+      <c r="D100" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0</v>
       </c>
       <c r="F100" t="n">
         <v>3.0</v>
@@ -14006,8 +13737,8 @@
       <c r="O100" t="n">
         <v>55.0</v>
       </c>
-      <c r="P100" t="s">
-        <v>114</v>
+      <c r="P100" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14031,7 +13762,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14077,13 +13808,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="AQ100" t="s" s="8">
         <v>37</v>
@@ -14093,17 +13824,17 @@
       <c r="A101" t="s">
         <v>39</v>
       </c>
-      <c r="B101" t="s">
-        <v>43</v>
+      <c r="B101" t="n">
+        <v>1.0</v>
       </c>
       <c r="C101" t="n" s="12">
         <v>38.0</v>
       </c>
-      <c r="D101" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" t="s">
-        <v>44</v>
+      <c r="D101" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0</v>
       </c>
       <c r="F101" t="n">
         <v>3.0</v>
@@ -14135,8 +13866,8 @@
       <c r="O101" t="n">
         <v>41.0</v>
       </c>
-      <c r="P101" t="s">
-        <v>109</v>
+      <c r="P101" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14160,7 +13891,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14204,13 +13935,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="AQ101" t="s" s="8">
         <v>37</v>
@@ -14220,17 +13951,17 @@
       <c r="A102" t="s">
         <v>39</v>
       </c>
-      <c r="B102" t="s">
-        <v>43</v>
+      <c r="B102" t="n">
+        <v>1.0</v>
       </c>
       <c r="C102" t="n">
         <v>58.0</v>
       </c>
-      <c r="D102" t="s">
-        <v>95</v>
-      </c>
-      <c r="E102" t="s">
-        <v>44</v>
+      <c r="D102" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
         <v>3.0</v>
@@ -14262,8 +13993,8 @@
       <c r="O102" t="n">
         <v>48.0</v>
       </c>
-      <c r="P102" t="s">
-        <v>118</v>
+      <c r="P102" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14287,7 +14018,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14333,13 +14064,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="AQ102" t="s" s="8">
         <v>37</v>
@@ -14349,17 +14080,17 @@
       <c r="A103" t="s">
         <v>39</v>
       </c>
-      <c r="B103" t="s">
-        <v>43</v>
+      <c r="B103" t="n">
+        <v>1.0</v>
       </c>
       <c r="C103" t="n">
         <v>61.0</v>
       </c>
-      <c r="D103" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103" t="s">
-        <v>44</v>
+      <c r="D103" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0</v>
       </c>
       <c r="F103" t="n">
         <v>3.0</v>
@@ -14391,8 +14122,8 @@
       <c r="O103" t="n">
         <v>58.0</v>
       </c>
-      <c r="P103" t="s">
-        <v>108</v>
+      <c r="P103" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14416,7 +14147,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14462,13 +14193,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP103" t="s">
         <v>251</v>
-      </c>
-      <c r="AO103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP103" t="s">
-        <v>345</v>
       </c>
       <c r="AQ103" t="s" s="8">
         <v>37</v>
@@ -14478,17 +14209,17 @@
       <c r="A104" t="s">
         <v>39</v>
       </c>
-      <c r="B104" t="s">
-        <v>43</v>
+      <c r="B104" t="n">
+        <v>1.0</v>
       </c>
       <c r="C104" t="n">
         <v>64.0</v>
       </c>
-      <c r="D104" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104" t="s">
-        <v>44</v>
+      <c r="D104" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0</v>
       </c>
       <c r="F104" t="n">
         <v>3.0</v>
@@ -14520,8 +14251,8 @@
       <c r="O104" t="n">
         <v>55.0</v>
       </c>
-      <c r="P104" t="s">
-        <v>118</v>
+      <c r="P104" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14545,7 +14276,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14591,13 +14322,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c r="AQ104" t="s" s="8">
         <v>37</v>
@@ -14607,17 +14338,17 @@
       <c r="A105" t="s">
         <v>39</v>
       </c>
-      <c r="B105" t="s">
-        <v>43</v>
+      <c r="B105" t="n">
+        <v>1.0</v>
       </c>
       <c r="C105" t="n">
         <v>60.0</v>
       </c>
-      <c r="D105" t="s">
-        <v>97</v>
-      </c>
-      <c r="E105" t="s">
-        <v>44</v>
+      <c r="D105" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0</v>
       </c>
       <c r="F105" t="n">
         <v>3.0</v>
@@ -14649,8 +14380,8 @@
       <c r="O105" t="n">
         <v>48.0</v>
       </c>
-      <c r="P105" t="s">
-        <v>114</v>
+      <c r="P105" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14674,7 +14405,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14720,13 +14451,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="AQ105" t="s" s="8">
         <v>37</v>
@@ -14736,17 +14467,17 @@
       <c r="A106" t="s">
         <v>39</v>
       </c>
-      <c r="B106" t="s">
-        <v>44</v>
+      <c r="B106" t="n">
+        <v>0.0</v>
       </c>
       <c r="C106" t="n">
         <v>76.0</v>
       </c>
-      <c r="D106" t="s">
-        <v>98</v>
-      </c>
-      <c r="E106" t="s">
-        <v>44</v>
+      <c r="D106" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0</v>
       </c>
       <c r="F106" t="n">
         <v>3.0</v>
@@ -14778,8 +14509,8 @@
       <c r="O106" t="n">
         <v>69.0</v>
       </c>
-      <c r="P106" t="s">
-        <v>118</v>
+      <c r="P106" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -14803,7 +14534,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -14851,13 +14582,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="AQ106" t="s" s="8">
         <v>37</v>
@@ -14867,17 +14598,17 @@
       <c r="A107" t="s">
         <v>39</v>
       </c>
-      <c r="B107" t="s">
-        <v>43</v>
+      <c r="B107" t="n">
+        <v>1.0</v>
       </c>
       <c r="C107" t="n">
         <v>51.0</v>
       </c>
-      <c r="D107" t="s">
-        <v>99</v>
-      </c>
-      <c r="E107" t="s">
-        <v>44</v>
+      <c r="D107" t="n" s="12">
+        <v>144.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0</v>
       </c>
       <c r="F107" t="n">
         <v>3.0</v>
@@ -14909,8 +14640,8 @@
       <c r="O107" t="n">
         <v>45.0</v>
       </c>
-      <c r="P107" t="s">
-        <v>43</v>
+      <c r="P107" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q107" t="n">
         <v>1.0</v>
@@ -14934,7 +14665,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -14978,13 +14709,13 @@
       </c>
       <c r="AM107" s="8"/>
       <c r="AN107" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
       <c r="AQ107" t="s" s="8">
         <v>37</v>
@@ -14994,17 +14725,17 @@
       <c r="A108" t="s">
         <v>39</v>
       </c>
-      <c r="B108" t="s">
-        <v>43</v>
+      <c r="B108" t="n">
+        <v>1.0</v>
       </c>
       <c r="C108" t="n" s="12">
         <v>32.0</v>
       </c>
-      <c r="D108" t="s">
-        <v>74</v>
-      </c>
-      <c r="E108" t="s">
-        <v>44</v>
+      <c r="D108" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0</v>
       </c>
       <c r="F108" t="n">
         <v>3.0</v>
@@ -15036,8 +14767,8 @@
       <c r="O108" t="n">
         <v>54.0</v>
       </c>
-      <c r="P108" t="s">
-        <v>114</v>
+      <c r="P108" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15061,7 +14792,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15107,13 +14838,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="AQ108" t="s" s="8">
         <v>37</v>
@@ -15123,17 +14854,17 @@
       <c r="A109" t="s">
         <v>39</v>
       </c>
-      <c r="B109" t="s" s="8">
-        <v>37</v>
+      <c r="B109" t="n">
+        <v>1.0</v>
       </c>
       <c r="C109" t="n" s="12">
         <v>78.0</v>
       </c>
-      <c r="D109" t="s">
-        <v>100</v>
-      </c>
-      <c r="E109" t="s">
-        <v>44</v>
+      <c r="D109" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0</v>
       </c>
       <c r="F109" t="n">
         <v>3.0</v>
@@ -15165,8 +14896,8 @@
       <c r="O109" t="n">
         <v>73.0</v>
       </c>
-      <c r="P109" t="s">
-        <v>111</v>
+      <c r="P109" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15190,7 +14921,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15236,13 +14967,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="AQ109" t="s" s="8">
         <v>37</v>
@@ -15252,17 +14983,17 @@
       <c r="A110" t="s">
         <v>39</v>
       </c>
-      <c r="B110" t="s">
-        <v>43</v>
+      <c r="B110" t="n">
+        <v>1.0</v>
       </c>
       <c r="C110" t="n">
         <v>57.0</v>
       </c>
-      <c r="D110" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" t="s">
-        <v>44</v>
+      <c r="D110" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0</v>
       </c>
       <c r="F110" t="n">
         <v>3.0</v>
@@ -15294,8 +15025,8 @@
       <c r="O110" t="n">
         <v>51.0</v>
       </c>
-      <c r="P110" t="s">
-        <v>118</v>
+      <c r="P110" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15319,7 +15050,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15365,13 +15096,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="AQ110" t="s" s="8">
         <v>37</v>
@@ -15381,17 +15112,17 @@
       <c r="A111" t="s">
         <v>39</v>
       </c>
-      <c r="B111" t="s">
-        <v>44</v>
+      <c r="B111" t="n">
+        <v>0.0</v>
       </c>
       <c r="C111" t="n">
         <v>57.0</v>
       </c>
-      <c r="D111" t="s">
-        <v>61</v>
-      </c>
-      <c r="E111" t="s">
-        <v>44</v>
+      <c r="D111" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0</v>
       </c>
       <c r="F111" t="n">
         <v>3.0</v>
@@ -15423,8 +15154,8 @@
       <c r="O111" t="n">
         <v>46.0</v>
       </c>
-      <c r="P111" t="s">
-        <v>108</v>
+      <c r="P111" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15448,7 +15179,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15479,7 +15210,7 @@
         <v>0.0</v>
       </c>
       <c r="AI111" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ111" t="n">
         <v>1.0</v>
@@ -15494,13 +15225,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="AQ111" t="s" s="8">
         <v>37</v>
@@ -15510,17 +15241,17 @@
       <c r="A112" t="s">
         <v>39</v>
       </c>
-      <c r="B112" t="s">
-        <v>43</v>
+      <c r="B112" t="n">
+        <v>1.0</v>
       </c>
       <c r="C112" t="n">
         <v>72.0</v>
       </c>
-      <c r="D112" t="s">
-        <v>101</v>
-      </c>
-      <c r="E112" t="s">
-        <v>43</v>
+      <c r="D112" t="n" s="12">
+        <v>126.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.0</v>
       </c>
       <c r="F112" t="n">
         <v>3.0</v>
@@ -15552,8 +15283,8 @@
       <c r="O112" t="n">
         <v>37.0</v>
       </c>
-      <c r="P112" t="s">
-        <v>130</v>
+      <c r="P112" t="n">
+        <v>1.4</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15577,7 +15308,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15625,13 +15356,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="AQ112" t="s" s="8">
         <v>37</v>
@@ -15641,17 +15372,17 @@
       <c r="A113" t="s">
         <v>39</v>
       </c>
-      <c r="B113" t="s">
-        <v>43</v>
+      <c r="B113" t="n">
+        <v>1.0</v>
       </c>
       <c r="C113" t="n" s="12">
         <v>22.0</v>
       </c>
-      <c r="D113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E113" t="s">
-        <v>44</v>
+      <c r="D113" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0</v>
       </c>
       <c r="F113" t="n">
         <v>3.0</v>
@@ -15683,8 +15414,8 @@
       <c r="O113" t="n">
         <v>45.0</v>
       </c>
-      <c r="P113" t="s">
-        <v>114</v>
+      <c r="P113" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15708,7 +15439,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15754,13 +15485,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="AQ113" t="s" s="8">
         <v>37</v>
@@ -15770,17 +15501,17 @@
       <c r="A114" t="s">
         <v>39</v>
       </c>
-      <c r="B114" t="s">
-        <v>43</v>
+      <c r="B114" t="n">
+        <v>1.0</v>
       </c>
       <c r="C114" t="n">
         <v>45.0</v>
       </c>
-      <c r="D114" t="s">
-        <v>57</v>
-      </c>
-      <c r="E114" t="s">
-        <v>44</v>
+      <c r="D114" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0</v>
       </c>
       <c r="F114" t="n">
         <v>3.0</v>
@@ -15812,8 +15543,8 @@
       <c r="O114" t="n">
         <v>55.0</v>
       </c>
-      <c r="P114" t="s">
-        <v>118</v>
+      <c r="P114" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -15837,7 +15568,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -15883,13 +15614,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="AQ114" t="s" s="8">
         <v>37</v>
@@ -15899,17 +15630,17 @@
       <c r="A115" t="s">
         <v>39</v>
       </c>
-      <c r="B115" t="s">
-        <v>43</v>
+      <c r="B115" t="n">
+        <v>1.0</v>
       </c>
       <c r="C115" t="n">
         <v>68.0</v>
       </c>
-      <c r="D115" t="s">
-        <v>62</v>
-      </c>
-      <c r="E115" t="s">
-        <v>44</v>
+      <c r="D115" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0</v>
       </c>
       <c r="F115" t="n">
         <v>2.0</v>
@@ -15941,8 +15672,8 @@
       <c r="O115" t="n">
         <v>48.0</v>
       </c>
-      <c r="P115" t="s">
-        <v>108</v>
+      <c r="P115" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -15966,7 +15697,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16014,13 +15745,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="AQ115" t="s" s="8">
         <v>37</v>
@@ -16030,17 +15761,17 @@
       <c r="A116" t="s">
         <v>39</v>
       </c>
-      <c r="B116" t="s">
-        <v>43</v>
+      <c r="B116" t="n">
+        <v>1.0</v>
       </c>
       <c r="C116" t="n">
         <v>57.0</v>
       </c>
-      <c r="D116" t="s">
-        <v>45</v>
-      </c>
-      <c r="E116" t="s">
-        <v>44</v>
+      <c r="D116" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0</v>
       </c>
       <c r="F116" t="n">
         <v>3.0</v>
@@ -16072,8 +15803,8 @@
       <c r="O116" t="n">
         <v>65.0</v>
       </c>
-      <c r="P116" t="s">
-        <v>111</v>
+      <c r="P116" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16097,7 +15828,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16143,13 +15874,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="AQ116" t="s" s="8">
         <v>37</v>
@@ -16159,17 +15890,17 @@
       <c r="A117" t="s">
         <v>39</v>
       </c>
-      <c r="B117" t="s">
-        <v>43</v>
+      <c r="B117" t="n">
+        <v>1.0</v>
       </c>
       <c r="C117" t="n">
         <v>57.0</v>
       </c>
-      <c r="D117" t="s">
-        <v>89</v>
-      </c>
-      <c r="E117" t="s">
-        <v>44</v>
+      <c r="D117" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0</v>
       </c>
       <c r="F117" t="n">
         <v>3.0</v>
@@ -16201,8 +15932,8 @@
       <c r="O117" t="n">
         <v>35.0</v>
       </c>
-      <c r="P117" t="s">
-        <v>108</v>
+      <c r="P117" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16226,7 +15957,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16272,13 +16003,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="AQ117" t="s" s="8">
         <v>37</v>
@@ -16288,17 +16019,17 @@
       <c r="A118" t="s">
         <v>39</v>
       </c>
-      <c r="B118" t="s">
-        <v>43</v>
+      <c r="B118" t="n">
+        <v>1.0</v>
       </c>
       <c r="C118" t="n" s="12">
         <v>24.0</v>
       </c>
-      <c r="D118" t="s">
-        <v>97</v>
-      </c>
-      <c r="E118" t="s">
-        <v>44</v>
+      <c r="D118" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0</v>
       </c>
       <c r="F118" t="n">
         <v>3.0</v>
@@ -16330,8 +16061,8 @@
       <c r="O118" t="n">
         <v>49.0</v>
       </c>
-      <c r="P118" t="s">
-        <v>111</v>
+      <c r="P118" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16355,7 +16086,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16401,13 +16132,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="AQ118" t="s" s="8">
         <v>37</v>
@@ -16417,17 +16148,17 @@
       <c r="A119" t="s">
         <v>39</v>
       </c>
-      <c r="B119" t="s">
-        <v>43</v>
+      <c r="B119" t="n">
+        <v>1.0</v>
       </c>
       <c r="C119" t="n">
         <v>57.0</v>
       </c>
-      <c r="D119" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" t="s">
-        <v>43</v>
+      <c r="D119" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.0</v>
       </c>
       <c r="F119" t="n">
         <v>3.0</v>
@@ -16459,8 +16190,8 @@
       <c r="O119" t="n">
         <v>51.0</v>
       </c>
-      <c r="P119" t="s">
-        <v>114</v>
+      <c r="P119" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16484,7 +16215,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16532,13 +16263,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="AQ119" t="s" s="8">
         <v>37</v>
@@ -16548,17 +16279,17 @@
       <c r="A120" t="s">
         <v>39</v>
       </c>
-      <c r="B120" t="s">
-        <v>43</v>
+      <c r="B120" t="n">
+        <v>1.0</v>
       </c>
       <c r="C120" t="n" s="12">
         <v>25.0</v>
       </c>
-      <c r="D120" t="s">
-        <v>104</v>
-      </c>
-      <c r="E120" t="s">
-        <v>44</v>
+      <c r="D120" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0</v>
       </c>
       <c r="F120" t="n">
         <v>3.0</v>
@@ -16590,8 +16321,8 @@
       <c r="O120" t="n">
         <v>61.0</v>
       </c>
-      <c r="P120" t="s">
-        <v>111</v>
+      <c r="P120" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16615,7 +16346,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16661,13 +16392,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
       <c r="AQ120" t="s" s="8">
         <v>37</v>
@@ -16677,17 +16408,17 @@
       <c r="A121" t="s">
         <v>39</v>
       </c>
-      <c r="B121" t="s">
-        <v>43</v>
+      <c r="B121" t="n">
+        <v>1.0</v>
       </c>
       <c r="C121" t="n">
         <v>61.0</v>
       </c>
-      <c r="D121" t="s">
-        <v>96</v>
-      </c>
-      <c r="E121" t="s">
-        <v>44</v>
+      <c r="D121" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0</v>
       </c>
       <c r="F121" t="n">
         <v>3.0</v>
@@ -16719,8 +16450,8 @@
       <c r="O121" t="n">
         <v>39.0</v>
       </c>
-      <c r="P121" t="s">
-        <v>108</v>
+      <c r="P121" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16744,7 +16475,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -16790,13 +16521,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="AQ121" t="s" s="8">
         <v>37</v>
@@ -16806,17 +16537,17 @@
       <c r="A122" t="s">
         <v>39</v>
       </c>
-      <c r="B122" t="s">
-        <v>43</v>
+      <c r="B122" t="n">
+        <v>1.0</v>
       </c>
       <c r="C122" t="n">
         <v>62.0</v>
       </c>
-      <c r="D122" t="s">
-        <v>102</v>
-      </c>
-      <c r="E122" t="s">
-        <v>44</v>
+      <c r="D122" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
         <v>3.0</v>
@@ -16848,8 +16579,8 @@
       <c r="O122" t="n">
         <v>46.0</v>
       </c>
-      <c r="P122" t="s">
-        <v>118</v>
+      <c r="P122" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -16873,7 +16604,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -16919,13 +16650,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="AQ122" t="s" s="8">
         <v>37</v>
@@ -16935,17 +16666,17 @@
       <c r="A123" t="s">
         <v>39</v>
       </c>
-      <c r="B123" t="s">
-        <v>43</v>
+      <c r="B123" t="n">
+        <v>1.0</v>
       </c>
       <c r="C123" t="n">
         <v>56.0</v>
       </c>
-      <c r="D123" t="s">
-        <v>94</v>
-      </c>
-      <c r="E123" t="s">
-        <v>44</v>
+      <c r="D123" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0</v>
       </c>
       <c r="F123" t="n">
         <v>3.0</v>
@@ -16977,8 +16708,8 @@
       <c r="O123" t="n">
         <v>57.0</v>
       </c>
-      <c r="P123" t="s">
-        <v>108</v>
+      <c r="P123" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17002,7 +16733,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17048,13 +16779,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="AQ123" t="s" s="8">
         <v>37</v>
@@ -17064,17 +16795,17 @@
       <c r="A124" t="s">
         <v>39</v>
       </c>
-      <c r="B124" t="s">
-        <v>43</v>
+      <c r="B124" t="n">
+        <v>1.0</v>
       </c>
       <c r="C124" t="n">
         <v>58.0</v>
       </c>
-      <c r="D124" t="s">
-        <v>61</v>
-      </c>
-      <c r="E124" t="s">
-        <v>44</v>
+      <c r="D124" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0</v>
       </c>
       <c r="F124" t="n">
         <v>3.0</v>
@@ -17106,8 +16837,8 @@
       <c r="O124" t="n">
         <v>39.0</v>
       </c>
-      <c r="P124" t="s">
-        <v>108</v>
+      <c r="P124" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17131,7 +16862,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17177,13 +16908,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="AQ124" t="s" s="8">
         <v>37</v>
@@ -17193,17 +16924,17 @@
       <c r="A125" t="s">
         <v>39</v>
       </c>
-      <c r="B125" t="s">
-        <v>43</v>
-      </c>
-      <c r="C125" t="n" s="12">
+      <c r="B125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C125" t="n">
         <v>40.0</v>
       </c>
-      <c r="D125" t="s">
-        <v>47</v>
-      </c>
-      <c r="E125" t="s">
-        <v>44</v>
+      <c r="D125" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0</v>
       </c>
       <c r="F125" t="n">
         <v>3.0</v>
@@ -17235,8 +16966,8 @@
       <c r="O125" t="n">
         <v>39.0</v>
       </c>
-      <c r="P125" t="s">
-        <v>109</v>
+      <c r="P125" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17260,7 +16991,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17306,16 +17037,145 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="AQ125" t="s" s="8">
         <v>37</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N126" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X126" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN126" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="AO126" s="8"/>
+      <c r="AP126" t="s">
+        <v>269</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="385">
   <si>
     <t>Пациент</t>
   </si>
@@ -137,6 +137,12 @@
     <t>паркетный</t>
   </si>
   <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -371,6 +377,12 @@
     <t>108</t>
   </si>
   <si>
+    <t>1 тип</t>
+  </si>
+  <si>
+    <t>2 тип</t>
+  </si>
+  <si>
     <t>0,5</t>
   </si>
   <si>
@@ -1148,7 +1160,7 @@
     <t>Пропущенные значения</t>
   </si>
   <si>
-    <t>Исправления</t>
+    <t>??????????????????????</t>
   </si>
   <si>
     <t>Опечатки</t>
@@ -1499,8 +1511,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.4921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.75390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
@@ -1545,16 +1557,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C1" t="s" s="48">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D1" t="s" s="68">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
@@ -1692,17 +1704,17 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s" s="48">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>3.0</v>
@@ -1735,7 +1747,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1759,7 +1771,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1811,27 +1823,27 @@
       </c>
       <c r="AO3"/>
       <c r="AP3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AQ3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s" s="28">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1864,7 +1876,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1888,7 +1900,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1940,27 +1952,27 @@
       </c>
       <c r="AO4"/>
       <c r="AP4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AQ4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s" s="28">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1993,7 +2005,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -2017,7 +2029,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -2069,27 +2081,27 @@
       </c>
       <c r="AO5"/>
       <c r="AP5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AQ5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s" s="28">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s" s="68">
-        <v>45</v>
+      <c r="C6" t="s">
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
         <v>3.0</v>
@@ -2122,7 +2134,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -2146,7 +2158,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2198,27 +2210,27 @@
       </c>
       <c r="AO6"/>
       <c r="AP6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AQ6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s" s="28">
+      <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -2251,7 +2263,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2275,7 +2287,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2327,27 +2339,27 @@
       </c>
       <c r="AO7"/>
       <c r="AP7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AQ7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s" s="28">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
         <v>3.0</v>
@@ -2380,7 +2392,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2404,7 +2416,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2456,27 +2468,27 @@
       </c>
       <c r="AO8"/>
       <c r="AP8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AQ8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s" s="28">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="48">
-        <v>48</v>
+      <c r="C9" t="s">
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2509,7 +2521,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2533,7 +2545,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2585,27 +2597,27 @@
       </c>
       <c r="AO9"/>
       <c r="AP9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2638,7 +2650,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2662,7 +2674,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2714,27 +2726,27 @@
       </c>
       <c r="AO10"/>
       <c r="AP10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AQ10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s" s="28">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
         <v>3.0</v>
@@ -2767,7 +2779,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2791,7 +2803,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2843,27 +2855,27 @@
       </c>
       <c r="AO11"/>
       <c r="AP11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AQ11" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s" s="28">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -2896,7 +2908,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2920,7 +2932,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2972,27 +2984,27 @@
       </c>
       <c r="AO12"/>
       <c r="AP12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AQ12" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s" s="28">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -3025,7 +3037,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -3049,7 +3061,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -3101,27 +3113,27 @@
       </c>
       <c r="AO13"/>
       <c r="AP13" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AQ13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="28">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -3154,7 +3166,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -3178,7 +3190,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3230,27 +3242,27 @@
       </c>
       <c r="AO14"/>
       <c r="AP14" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AQ14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s" s="28">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -3283,7 +3295,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3307,7 +3319,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3359,27 +3371,27 @@
       </c>
       <c r="AO15"/>
       <c r="AP15" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AQ15" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s" s="28">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
         <v>3.0</v>
@@ -3412,7 +3424,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3436,7 +3448,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3488,27 +3500,27 @@
       </c>
       <c r="AO16"/>
       <c r="AP16" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AQ16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s" s="28">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
         <v>3.0</v>
@@ -3541,7 +3553,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3565,7 +3577,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3617,27 +3629,27 @@
       </c>
       <c r="AO17"/>
       <c r="AP17" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AQ17" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s" s="28">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -3670,7 +3682,7 @@
         <v>37.0</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q18" t="n">
         <v>1.0</v>
@@ -3694,7 +3706,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3746,27 +3758,27 @@
       </c>
       <c r="AO18"/>
       <c r="AP18" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AQ18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s" s="28">
+      <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -3799,7 +3811,7 @@
         <v>53.0</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q19" t="n">
         <v>1.0</v>
@@ -3823,7 +3835,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3875,27 +3887,27 @@
       </c>
       <c r="AO19"/>
       <c r="AP19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AQ19" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s" s="28">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -3928,7 +3940,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3952,7 +3964,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -4004,27 +4016,27 @@
       </c>
       <c r="AO20"/>
       <c r="AP20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AQ20" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="28">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -4057,7 +4069,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -4081,7 +4093,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4133,27 +4145,27 @@
       </c>
       <c r="AO21"/>
       <c r="AP21" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AQ21" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s" s="28">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
         <v>3.0</v>
@@ -4186,7 +4198,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4210,7 +4222,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4262,27 +4274,27 @@
       </c>
       <c r="AO22"/>
       <c r="AP22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AQ22" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s" s="28">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -4315,7 +4327,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4339,7 +4351,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4391,27 +4403,27 @@
       </c>
       <c r="AO23"/>
       <c r="AP23" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AQ23" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s" s="28">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" t="n">
         <v>3.0</v>
@@ -4444,7 +4456,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4468,7 +4480,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4520,27 +4532,27 @@
       </c>
       <c r="AO24"/>
       <c r="AP24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AQ24" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s" s="28">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -4573,7 +4585,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4597,7 +4609,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4649,27 +4661,27 @@
       </c>
       <c r="AO25"/>
       <c r="AP25" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AQ25" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s" s="28">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -4702,7 +4714,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4726,7 +4738,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4778,27 +4790,27 @@
       </c>
       <c r="AO26"/>
       <c r="AP26" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AQ26" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s" s="28">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -4831,7 +4843,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4855,7 +4867,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4903,27 +4915,27 @@
       </c>
       <c r="AO27"/>
       <c r="AP27" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AQ27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s" s="28">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
         <v>3.0</v>
@@ -4956,7 +4968,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4980,7 +4992,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -5032,27 +5044,27 @@
       </c>
       <c r="AO28"/>
       <c r="AP28" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AQ28" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s" s="28">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -5085,7 +5097,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -5109,7 +5121,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5159,27 +5171,27 @@
       </c>
       <c r="AO29"/>
       <c r="AP29" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AQ29" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s" s="28">
+      <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -5212,7 +5224,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5236,7 +5248,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5286,27 +5298,27 @@
       </c>
       <c r="AO30"/>
       <c r="AP30" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AQ30" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s" s="28">
+      <c r="B31" t="s">
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -5339,7 +5351,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5363,7 +5375,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5415,27 +5427,27 @@
       </c>
       <c r="AO31"/>
       <c r="AP31" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AQ31" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s" s="28">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -5468,7 +5480,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5492,7 +5504,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5544,27 +5556,27 @@
       </c>
       <c r="AO32"/>
       <c r="AP32" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AQ32" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s" s="28">
+      <c r="B33" t="s">
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -5597,7 +5609,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5621,7 +5633,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5673,27 +5685,27 @@
       </c>
       <c r="AO33"/>
       <c r="AP33" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AQ33" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s" s="28">
+      <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -5726,7 +5738,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5750,7 +5762,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5792,27 +5804,27 @@
       </c>
       <c r="AO34"/>
       <c r="AP34" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AQ34" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s" s="28">
+      <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -5845,7 +5857,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5869,7 +5881,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5921,27 +5933,27 @@
       </c>
       <c r="AO35"/>
       <c r="AP35" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AQ35" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s" s="28">
+      <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
@@ -5974,7 +5986,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -5998,7 +6010,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -6050,27 +6062,27 @@
       </c>
       <c r="AO36"/>
       <c r="AP36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AQ36" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s" s="28">
+      <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F37" t="n">
         <v>3.0</v>
@@ -6103,7 +6115,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -6127,7 +6139,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6179,27 +6191,27 @@
       </c>
       <c r="AO37"/>
       <c r="AP37" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AQ37" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s" s="28">
+      <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" t="s" s="28">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
       </c>
       <c r="F38" t="n">
         <v>3.0</v>
@@ -6232,7 +6244,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6256,7 +6268,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6308,27 +6320,27 @@
       </c>
       <c r="AO38"/>
       <c r="AP38" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AQ38" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s" s="28">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -6361,7 +6373,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6385,7 +6397,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6433,27 +6445,27 @@
       </c>
       <c r="AO39"/>
       <c r="AP39" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AQ39" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="28">
+      <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F40" t="n">
         <v>3.0</v>
@@ -6486,7 +6498,7 @@
         <v>45.0</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q40" t="n">
         <v>1.0</v>
@@ -6510,7 +6522,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6562,27 +6574,27 @@
       </c>
       <c r="AO40"/>
       <c r="AP40" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AQ40" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s" s="28">
+      <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -6615,7 +6627,7 @@
         <v>38.0</v>
       </c>
       <c r="P41" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6639,7 +6651,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6691,27 +6703,27 @@
       </c>
       <c r="AO41"/>
       <c r="AP41" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AQ41" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s" s="28">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -6744,7 +6756,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6768,7 +6780,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6820,27 +6832,27 @@
       </c>
       <c r="AO42"/>
       <c r="AP42" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AQ42" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s" s="28">
+      <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -6873,7 +6885,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6897,7 +6909,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6949,27 +6961,27 @@
       </c>
       <c r="AO43"/>
       <c r="AP43" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AQ43" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s" s="28">
+      <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
         <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" t="s">
-        <v>42</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -7002,7 +7014,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -7026,7 +7038,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -7078,27 +7090,27 @@
       </c>
       <c r="AO44"/>
       <c r="AP44" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AQ44" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" t="s" s="28">
+      <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" t="s" s="28">
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -7131,7 +7143,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7155,7 +7167,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7207,27 +7219,27 @@
       </c>
       <c r="AO45"/>
       <c r="AP45" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AQ45" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s" s="28">
+      <c r="B46" t="s">
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -7260,7 +7272,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7284,7 +7296,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7336,27 +7348,27 @@
       </c>
       <c r="AO46"/>
       <c r="AP46" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AQ46" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s" s="28">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
       <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
         <v>44</v>
-      </c>
-      <c r="D47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" t="s">
-        <v>42</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -7389,7 +7401,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7413,7 +7425,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7465,27 +7477,27 @@
       </c>
       <c r="AO47"/>
       <c r="AP47" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AQ47" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s" s="28">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
         <v>44</v>
-      </c>
-      <c r="E48" t="s">
-        <v>42</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -7518,7 +7530,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7542,7 +7554,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7594,27 +7606,27 @@
       </c>
       <c r="AO48"/>
       <c r="AP48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AQ48" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s" s="28">
+      <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -7647,7 +7659,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7671,7 +7683,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7723,27 +7735,27 @@
       </c>
       <c r="AO49"/>
       <c r="AP49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AQ49" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B50" t="s" s="28">
+      <c r="B50" t="s">
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -7776,7 +7788,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7800,7 +7812,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7852,27 +7864,27 @@
       </c>
       <c r="AO50"/>
       <c r="AP50" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AQ50" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" t="s" s="28">
+      <c r="B51" t="s">
         <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -7905,7 +7917,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7929,7 +7941,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7981,27 +7993,27 @@
       </c>
       <c r="AO51"/>
       <c r="AP51" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AQ51" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="s" s="28">
+      <c r="B52" t="s">
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F52" t="n">
         <v>3.0</v>
@@ -8034,7 +8046,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -8058,7 +8070,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -8110,27 +8122,27 @@
       </c>
       <c r="AO52"/>
       <c r="AP52" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AQ52" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B53" t="s" s="28">
+      <c r="B53" t="s">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -8163,7 +8175,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -8187,7 +8199,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8239,10 +8251,10 @@
       </c>
       <c r="AO53"/>
       <c r="AP53" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AQ53" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54">
@@ -8250,16 +8262,16 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -8292,7 +8304,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8316,7 +8328,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8364,13 +8376,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8381,16 +8393,16 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F55" t="n">
         <v>3.0</v>
@@ -8423,7 +8435,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8447,7 +8459,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8493,13 +8505,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8510,16 +8522,16 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F56" t="n">
         <v>3.0</v>
@@ -8552,7 +8564,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8576,7 +8588,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8624,13 +8636,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8641,16 +8653,16 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -8683,7 +8695,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8707,7 +8719,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8755,13 +8767,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8772,16 +8784,16 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F58" t="n">
         <v>2.0</v>
@@ -8814,7 +8826,7 @@
         <v>76.0</v>
       </c>
       <c r="P58" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8838,7 +8850,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8884,13 +8896,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8901,16 +8913,16 @@
         <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F59" t="n">
         <v>3.0</v>
@@ -8943,7 +8955,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8967,7 +8979,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -9013,13 +9025,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -9030,16 +9042,16 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F60" t="n">
         <v>3.0</v>
@@ -9072,7 +9084,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -9096,7 +9108,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9142,13 +9154,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9159,16 +9171,16 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" t="s" s="68">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -9201,7 +9213,7 @@
         <v>83.0</v>
       </c>
       <c r="P61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q61" t="n">
         <v>2.0</v>
@@ -9225,7 +9237,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9273,13 +9285,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9290,16 +9302,16 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F62" t="n">
         <v>3.0</v>
@@ -9332,7 +9344,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9356,7 +9368,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9402,13 +9414,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9419,16 +9431,16 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" t="n">
         <v>3.0</v>
@@ -9461,7 +9473,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9485,7 +9497,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9531,13 +9543,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9548,16 +9560,16 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F64" t="n">
         <v>3.0</v>
@@ -9590,7 +9602,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9614,7 +9626,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9660,13 +9672,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9677,16 +9689,16 @@
         <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F65" t="n">
         <v>2.0</v>
@@ -9719,7 +9731,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9743,7 +9755,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9789,13 +9801,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9806,16 +9818,16 @@
         <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F66" t="n">
         <v>3.0</v>
@@ -9848,7 +9860,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9872,7 +9884,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9916,13 +9928,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9933,16 +9945,16 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F67" t="n">
         <v>3.0</v>
@@ -9975,7 +9987,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -9999,7 +10011,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -10045,13 +10057,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -10062,16 +10074,16 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F68" t="n">
         <v>3.0</v>
@@ -10104,7 +10116,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -10128,7 +10140,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10174,13 +10186,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10191,16 +10203,16 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F69" t="n">
         <v>3.0</v>
@@ -10233,7 +10245,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10257,7 +10269,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10303,13 +10315,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10320,16 +10332,16 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F70" t="n">
         <v>3.0</v>
@@ -10362,7 +10374,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10386,7 +10398,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10430,13 +10442,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10447,16 +10459,16 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F71" t="n">
         <v>3.0</v>
@@ -10489,7 +10501,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10513,7 +10525,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10557,13 +10569,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10574,16 +10586,16 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" t="s" s="68">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F72" t="n">
         <v>2.0</v>
@@ -10616,7 +10628,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10640,7 +10652,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10686,13 +10698,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10703,16 +10715,16 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F73" t="n">
         <v>3.0</v>
@@ -10745,7 +10757,7 @@
         <v>46.0</v>
       </c>
       <c r="P73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q73" t="n">
         <v>0.0</v>
@@ -10769,7 +10781,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10815,13 +10827,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10832,16 +10844,16 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F74" t="n">
         <v>3.0</v>
@@ -10874,7 +10886,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10898,7 +10910,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10944,13 +10956,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -10961,16 +10973,16 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F75" t="n">
         <v>3.0</v>
@@ -11003,7 +11015,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -11027,7 +11039,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -11073,13 +11085,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -11090,16 +11102,16 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F76" t="n">
         <v>3.0</v>
@@ -11132,7 +11144,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -11156,7 +11168,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11200,13 +11212,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11217,16 +11229,16 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F77" t="n">
         <v>3.0</v>
@@ -11259,7 +11271,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11283,7 +11295,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11329,13 +11341,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11346,16 +11358,16 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F78" t="n">
         <v>3.0</v>
@@ -11388,7 +11400,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11412,7 +11424,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11458,13 +11470,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11475,16 +11487,16 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F79" t="n">
         <v>3.0</v>
@@ -11517,7 +11529,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11541,7 +11553,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11587,13 +11599,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11604,16 +11616,16 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D80" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F80" t="n">
         <v>3.0</v>
@@ -11646,7 +11658,7 @@
         <v>85.0</v>
       </c>
       <c r="P80" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11670,7 +11682,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11716,13 +11728,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11733,16 +11745,16 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F81" t="n">
         <v>2.0</v>
@@ -11775,7 +11787,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11799,7 +11811,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11847,13 +11859,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11864,16 +11876,16 @@
         <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" t="s" s="68">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>71</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F82" t="n">
         <v>2.0</v>
@@ -11906,7 +11918,7 @@
         <v>68.0</v>
       </c>
       <c r="P82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q82" t="n">
         <v>2.0</v>
@@ -11930,7 +11942,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11976,13 +11988,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -11993,16 +12005,16 @@
         <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F83" t="n">
         <v>3.0</v>
@@ -12035,7 +12047,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -12059,7 +12071,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -12105,13 +12117,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -12122,16 +12134,16 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F84" t="n">
         <v>2.0</v>
@@ -12164,7 +12176,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -12188,7 +12200,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12234,13 +12246,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12251,16 +12263,16 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F85" t="n">
         <v>3.0</v>
@@ -12293,7 +12305,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12317,7 +12329,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12363,13 +12375,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12380,16 +12392,16 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D86" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F86" t="n">
         <v>3.0</v>
@@ -12422,7 +12434,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12446,7 +12458,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12492,13 +12504,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12509,16 +12521,16 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F87" t="n">
         <v>3.0</v>
@@ -12551,7 +12563,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12575,7 +12587,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12621,13 +12633,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12638,16 +12650,16 @@
         <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F88" t="n">
         <v>3.0</v>
@@ -12680,7 +12692,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12704,7 +12716,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12750,13 +12762,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12767,16 +12779,16 @@
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F89" t="n">
         <v>3.0</v>
@@ -12809,7 +12821,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12833,7 +12845,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12879,13 +12891,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12896,16 +12908,16 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F90" t="n">
         <v>2.0</v>
@@ -12938,7 +12950,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12962,7 +12974,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -13006,13 +13018,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -13023,16 +13035,16 @@
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -13065,7 +13077,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -13089,7 +13101,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13135,13 +13147,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13152,16 +13164,16 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F92" t="n">
         <v>3.0</v>
@@ -13194,7 +13206,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13218,7 +13230,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13264,13 +13276,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13281,16 +13293,16 @@
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F93" t="n">
         <v>3.0</v>
@@ -13323,7 +13335,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13347,7 +13359,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13393,13 +13405,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13410,16 +13422,16 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" t="s">
         <v>70</v>
       </c>
-      <c r="D94" t="s">
-        <v>68</v>
-      </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F94" t="n">
         <v>2.0</v>
@@ -13452,7 +13464,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13476,7 +13488,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13522,13 +13534,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13539,16 +13551,16 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D95" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F95" t="n">
         <v>3.0</v>
@@ -13581,7 +13593,7 @@
         <v>61.0</v>
       </c>
       <c r="P95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q95" t="n">
         <v>1.0</v>
@@ -13605,7 +13617,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13651,13 +13663,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13668,16 +13680,16 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F96" t="n">
         <v>3.0</v>
@@ -13710,7 +13722,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13728,7 +13740,7 @@
       <c r="V96"/>
       <c r="W96"/>
       <c r="X96" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13774,13 +13786,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13791,16 +13803,16 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D97" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F97" t="n">
         <v>3.0</v>
@@ -13833,7 +13845,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13857,7 +13869,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13901,13 +13913,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13918,16 +13930,16 @@
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F98" t="n">
         <v>3.0</v>
@@ -13960,7 +13972,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13984,7 +13996,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -14028,13 +14040,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -14045,16 +14057,16 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F99" t="n">
         <v>2.0</v>
@@ -14087,7 +14099,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -14111,7 +14123,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14157,13 +14169,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14174,16 +14186,16 @@
         <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F100" t="n">
         <v>3.0</v>
@@ -14216,7 +14228,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14240,7 +14252,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14286,13 +14298,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14303,16 +14315,16 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C101" t="s" s="68">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="C101" t="s">
+        <v>71</v>
       </c>
       <c r="D101" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F101" t="n">
         <v>3.0</v>
@@ -14345,7 +14357,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14369,7 +14381,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14413,13 +14425,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14430,16 +14442,16 @@
         <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F102" t="n">
         <v>3.0</v>
@@ -14472,7 +14484,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14496,7 +14508,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14542,13 +14554,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14559,16 +14571,16 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F103" t="n">
         <v>3.0</v>
@@ -14601,7 +14613,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14625,7 +14637,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14671,13 +14683,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14688,16 +14700,16 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F104" t="n">
         <v>3.0</v>
@@ -14730,7 +14742,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14754,7 +14766,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14800,13 +14812,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14817,16 +14829,16 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D105" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F105" t="n">
         <v>3.0</v>
@@ -14859,7 +14871,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14883,7 +14895,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14929,13 +14941,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14946,16 +14958,16 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F106" t="n">
         <v>3.0</v>
@@ -14988,7 +15000,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -15012,7 +15024,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -15060,13 +15072,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -15077,16 +15089,16 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F107" t="n">
         <v>3.0</v>
@@ -15119,7 +15131,7 @@
         <v>45.0</v>
       </c>
       <c r="P107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q107" t="n">
         <v>1.0</v>
@@ -15143,7 +15155,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15187,13 +15199,13 @@
       </c>
       <c r="AM107"/>
       <c r="AN107" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15204,16 +15216,16 @@
         <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" t="s" s="68">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C108" t="s">
+        <v>67</v>
       </c>
       <c r="D108" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F108" t="n">
         <v>3.0</v>
@@ -15246,7 +15258,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15270,7 +15282,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15316,13 +15328,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15332,17 +15344,17 @@
       <c r="A109" t="s">
         <v>39</v>
       </c>
-      <c r="B109" t="s" s="8">
+      <c r="B109" t="s">
         <v>37</v>
       </c>
-      <c r="C109" t="s" s="68">
-        <v>74</v>
+      <c r="C109" t="s">
+        <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F109" t="n">
         <v>3.0</v>
@@ -15375,7 +15387,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15399,7 +15411,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15445,13 +15457,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15462,16 +15474,16 @@
         <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D110" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F110" t="n">
         <v>3.0</v>
@@ -15504,7 +15516,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15528,7 +15540,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15574,13 +15586,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15591,16 +15603,16 @@
         <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D111" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F111" t="n">
         <v>3.0</v>
@@ -15633,7 +15645,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15657,7 +15669,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15703,13 +15715,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15720,16 +15732,16 @@
         <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F112" t="n">
         <v>3.0</v>
@@ -15762,7 +15774,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15786,7 +15798,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15834,13 +15846,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15851,16 +15863,16 @@
         <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113" t="s" s="68">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="C113" t="s">
+        <v>77</v>
       </c>
       <c r="D113" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F113" t="n">
         <v>3.0</v>
@@ -15893,7 +15905,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15917,7 +15929,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15963,13 +15975,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -15980,16 +15992,16 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D114" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F114" t="n">
         <v>3.0</v>
@@ -16022,7 +16034,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -16046,7 +16058,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -16092,13 +16104,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -16109,16 +16121,16 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D115" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F115" t="n">
         <v>2.0</v>
@@ -16151,7 +16163,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -16175,7 +16187,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16223,13 +16235,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16240,16 +16252,16 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D116" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F116" t="n">
         <v>3.0</v>
@@ -16282,7 +16294,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16306,7 +16318,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16352,13 +16364,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16369,16 +16381,16 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D117" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F117" t="n">
         <v>3.0</v>
@@ -16411,7 +16423,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16435,7 +16447,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16481,13 +16493,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16498,16 +16510,16 @@
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" t="s" s="68">
-        <v>77</v>
+        <v>43</v>
+      </c>
+      <c r="C118" t="s">
+        <v>79</v>
       </c>
       <c r="D118" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F118" t="n">
         <v>3.0</v>
@@ -16540,7 +16552,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16564,7 +16576,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16610,13 +16622,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16627,16 +16639,16 @@
         <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F119" t="n">
         <v>3.0</v>
@@ -16669,7 +16681,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16693,7 +16705,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16741,13 +16753,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16758,16 +16770,16 @@
         <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" t="s" s="68">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="C120" t="s">
+        <v>80</v>
       </c>
       <c r="D120" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F120" t="n">
         <v>3.0</v>
@@ -16800,7 +16812,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16824,7 +16836,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16870,13 +16882,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16887,16 +16899,16 @@
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D121" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F121" t="n">
         <v>3.0</v>
@@ -16929,7 +16941,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16953,7 +16965,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -16999,13 +17011,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -17016,16 +17028,16 @@
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D122" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F122" t="n">
         <v>3.0</v>
@@ -17058,7 +17070,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -17082,7 +17094,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -17128,13 +17140,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17145,16 +17157,16 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" t="s">
         <v>44</v>
-      </c>
-      <c r="D123" t="s">
-        <v>110</v>
-      </c>
-      <c r="E123" t="s">
-        <v>42</v>
       </c>
       <c r="F123" t="n">
         <v>3.0</v>
@@ -17187,7 +17199,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17211,7 +17223,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17257,13 +17269,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17274,16 +17286,16 @@
         <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D124" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F124" t="n">
         <v>3.0</v>
@@ -17316,7 +17328,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17340,7 +17352,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17386,13 +17398,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17403,16 +17415,16 @@
         <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
-      </c>
-      <c r="C125" t="s" s="68">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="C125" t="s">
+        <v>81</v>
       </c>
       <c r="D125" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F125" t="n">
         <v>3.0</v>
@@ -17445,7 +17457,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17469,7 +17481,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17515,13 +17527,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="381">
   <si>
     <t>Пациент</t>
   </si>
@@ -137,12 +137,6 @@
     <t>паркетный</t>
   </si>
   <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -377,12 +371,6 @@
     <t>108</t>
   </si>
   <si>
-    <t>1 тип</t>
-  </si>
-  <si>
-    <t>2 тип</t>
-  </si>
-  <si>
     <t>0,5</t>
   </si>
   <si>
@@ -1160,7 +1148,7 @@
     <t>Пропущенные значения</t>
   </si>
   <si>
-    <t>??????????????????????</t>
+    <t>Исправления</t>
   </si>
   <si>
     <t>Опечатки</t>
@@ -1511,8 +1499,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.91015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.4921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.75390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
@@ -1557,16 +1545,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C1" t="s" s="48">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D1" t="s" s="68">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
@@ -1704,17 +1692,17 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="48">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
         <v>3.0</v>
@@ -1747,7 +1735,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1771,7 +1759,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1823,27 +1811,27 @@
       </c>
       <c r="AO3"/>
       <c r="AP3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AQ3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="28">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="8">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1876,7 +1864,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1900,7 +1888,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1952,27 +1940,27 @@
       </c>
       <c r="AO4"/>
       <c r="AP4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AQ4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -2005,7 +1993,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -2029,7 +2017,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -2081,27 +2069,27 @@
       </c>
       <c r="AO5"/>
       <c r="AP5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AQ5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="28">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
+      <c r="C6" t="s" s="68">
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
         <v>3.0</v>
@@ -2134,7 +2122,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -2158,7 +2146,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2210,27 +2198,27 @@
       </c>
       <c r="AO6"/>
       <c r="AP6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AQ6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -2263,7 +2251,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2287,7 +2275,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2339,27 +2327,27 @@
       </c>
       <c r="AO7"/>
       <c r="AP7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AQ7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
         <v>3.0</v>
@@ -2392,7 +2380,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2416,7 +2404,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2468,27 +2456,27 @@
       </c>
       <c r="AO8"/>
       <c r="AP8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AQ8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="28">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
+      <c r="C9" t="s" s="48">
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2521,7 +2509,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2545,7 +2533,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2597,27 +2585,27 @@
       </c>
       <c r="AO9"/>
       <c r="AP9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AQ9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="8">
         <v>37</v>
       </c>
       <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2650,7 +2638,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2674,7 +2662,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2726,27 +2714,27 @@
       </c>
       <c r="AO10"/>
       <c r="AP10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AQ10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
         <v>3.0</v>
@@ -2779,7 +2767,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2803,7 +2791,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2855,27 +2843,27 @@
       </c>
       <c r="AO11"/>
       <c r="AP11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AQ11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
+        <v>49</v>
+      </c>
+      <c r="D12" t="s" s="48">
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -2908,7 +2896,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2932,7 +2920,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2984,27 +2972,27 @@
       </c>
       <c r="AO12"/>
       <c r="AP12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AQ12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="8">
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -3037,7 +3025,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -3061,7 +3049,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -3113,27 +3101,27 @@
       </c>
       <c r="AO13"/>
       <c r="AP13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AQ13" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -3166,7 +3154,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -3190,7 +3178,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3242,27 +3230,27 @@
       </c>
       <c r="AO14"/>
       <c r="AP14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AQ14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -3295,7 +3283,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3319,7 +3307,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3371,27 +3359,27 @@
       </c>
       <c r="AO15"/>
       <c r="AP15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AQ15" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
         <v>3.0</v>
@@ -3424,7 +3412,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3448,7 +3436,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3500,27 +3488,27 @@
       </c>
       <c r="AO16"/>
       <c r="AP16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
         <v>3.0</v>
@@ -3553,7 +3541,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3577,7 +3565,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3629,27 +3617,27 @@
       </c>
       <c r="AO17"/>
       <c r="AP17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AQ17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -3682,7 +3670,7 @@
         <v>37.0</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q18" t="n">
         <v>1.0</v>
@@ -3706,7 +3694,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3758,27 +3746,27 @@
       </c>
       <c r="AO18"/>
       <c r="AP18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AQ18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -3811,7 +3799,7 @@
         <v>53.0</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q19" t="n">
         <v>1.0</v>
@@ -3835,7 +3823,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3887,27 +3875,27 @@
       </c>
       <c r="AO19"/>
       <c r="AP19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AQ19" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -3940,7 +3928,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3964,7 +3952,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -4016,27 +4004,27 @@
       </c>
       <c r="AO20"/>
       <c r="AP20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AQ20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -4069,7 +4057,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -4093,7 +4081,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4145,27 +4133,27 @@
       </c>
       <c r="AO21"/>
       <c r="AP21" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AQ21" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n">
         <v>3.0</v>
@@ -4198,7 +4186,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4222,7 +4210,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4274,27 +4262,27 @@
       </c>
       <c r="AO22"/>
       <c r="AP22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AQ22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -4327,7 +4315,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4351,7 +4339,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4403,27 +4391,27 @@
       </c>
       <c r="AO23"/>
       <c r="AP23" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AQ23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" t="n">
         <v>3.0</v>
@@ -4456,7 +4444,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4480,7 +4468,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4532,27 +4520,27 @@
       </c>
       <c r="AO24"/>
       <c r="AP24" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AQ24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -4585,7 +4573,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4609,7 +4597,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4661,27 +4649,27 @@
       </c>
       <c r="AO25"/>
       <c r="AP25" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AQ25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -4714,7 +4702,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4738,7 +4726,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4790,27 +4778,27 @@
       </c>
       <c r="AO26"/>
       <c r="AP26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AQ26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -4843,7 +4831,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4867,7 +4855,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4915,27 +4903,27 @@
       </c>
       <c r="AO27"/>
       <c r="AP27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AQ27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" t="n">
         <v>3.0</v>
@@ -4968,7 +4956,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4992,7 +4980,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -5044,27 +5032,27 @@
       </c>
       <c r="AO28"/>
       <c r="AP28" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AQ28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -5097,7 +5085,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -5121,7 +5109,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5171,27 +5159,27 @@
       </c>
       <c r="AO29"/>
       <c r="AP29" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ29" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -5224,7 +5212,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5248,7 +5236,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5298,27 +5286,27 @@
       </c>
       <c r="AO30"/>
       <c r="AP30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AQ30" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -5351,7 +5339,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5375,7 +5363,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5427,27 +5415,27 @@
       </c>
       <c r="AO31"/>
       <c r="AP31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AQ31" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -5480,7 +5468,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5504,7 +5492,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5556,27 +5544,27 @@
       </c>
       <c r="AO32"/>
       <c r="AP32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AQ32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -5609,7 +5597,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5633,7 +5621,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5685,27 +5673,27 @@
       </c>
       <c r="AO33"/>
       <c r="AP33" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AQ33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -5738,7 +5726,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5762,7 +5750,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5804,27 +5792,27 @@
       </c>
       <c r="AO34"/>
       <c r="AP34" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AQ34" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -5857,7 +5845,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5881,7 +5869,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5933,27 +5921,27 @@
       </c>
       <c r="AO35"/>
       <c r="AP35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AQ35" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
@@ -5986,7 +5974,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -6010,7 +5998,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -6062,27 +6050,27 @@
       </c>
       <c r="AO36"/>
       <c r="AP36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AQ36" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37" t="n">
         <v>3.0</v>
@@ -6115,7 +6103,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -6139,7 +6127,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6191,27 +6179,27 @@
       </c>
       <c r="AO37"/>
       <c r="AP37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AQ37" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>121</v>
+        <v>46</v>
+      </c>
+      <c r="E38" t="s" s="28">
+        <v>41</v>
       </c>
       <c r="F38" t="n">
         <v>3.0</v>
@@ -6244,7 +6232,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6268,7 +6256,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6320,27 +6308,27 @@
       </c>
       <c r="AO38"/>
       <c r="AP38" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AQ38" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -6373,7 +6361,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6397,7 +6385,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6445,27 +6433,27 @@
       </c>
       <c r="AO39"/>
       <c r="AP39" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AQ39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F40" t="n">
         <v>3.0</v>
@@ -6498,7 +6486,7 @@
         <v>45.0</v>
       </c>
       <c r="P40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q40" t="n">
         <v>1.0</v>
@@ -6522,7 +6510,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6574,27 +6562,27 @@
       </c>
       <c r="AO40"/>
       <c r="AP40" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AQ40" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -6627,7 +6615,7 @@
         <v>38.0</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6651,7 +6639,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6703,27 +6691,27 @@
       </c>
       <c r="AO41"/>
       <c r="AP41" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AQ41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -6756,7 +6744,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6780,7 +6768,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6832,27 +6820,27 @@
       </c>
       <c r="AO42"/>
       <c r="AP42" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AQ42" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -6885,7 +6873,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6909,7 +6897,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6961,27 +6949,27 @@
       </c>
       <c r="AO43"/>
       <c r="AP43" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AQ43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -7014,7 +7002,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -7038,7 +7026,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -7090,27 +7078,27 @@
       </c>
       <c r="AO44"/>
       <c r="AP44" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AQ44" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="E45" t="s" s="28">
+        <v>42</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -7143,7 +7131,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7167,7 +7155,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7219,27 +7207,27 @@
       </c>
       <c r="AO45"/>
       <c r="AP45" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AQ45" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -7272,7 +7260,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7296,7 +7284,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7348,27 +7336,27 @@
       </c>
       <c r="AO46"/>
       <c r="AP46" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AQ46" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -7401,7 +7389,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7425,7 +7413,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7477,27 +7465,27 @@
       </c>
       <c r="AO47"/>
       <c r="AP47" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AQ47" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -7530,7 +7518,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7554,7 +7542,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7606,27 +7594,27 @@
       </c>
       <c r="AO48"/>
       <c r="AP48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AQ48" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -7659,7 +7647,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7683,7 +7671,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7735,27 +7723,27 @@
       </c>
       <c r="AO49"/>
       <c r="AP49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AQ49" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="28">
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -7788,7 +7776,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7812,7 +7800,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7864,27 +7852,27 @@
       </c>
       <c r="AO50"/>
       <c r="AP50" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AQ50" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -7917,7 +7905,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7941,7 +7929,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7993,27 +7981,27 @@
       </c>
       <c r="AO51"/>
       <c r="AP51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AQ51" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F52" t="n">
         <v>3.0</v>
@@ -8046,7 +8034,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -8070,7 +8058,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -8122,27 +8110,27 @@
       </c>
       <c r="AO52"/>
       <c r="AP52" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AQ52" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="28">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -8175,7 +8163,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -8199,7 +8187,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8251,10 +8239,10 @@
       </c>
       <c r="AO53"/>
       <c r="AP53" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AQ53" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54">
@@ -8262,16 +8250,16 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -8304,7 +8292,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8328,7 +8316,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8376,13 +8364,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8393,16 +8381,16 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F55" t="n">
         <v>3.0</v>
@@ -8435,7 +8423,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8459,7 +8447,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8505,13 +8493,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8522,16 +8510,16 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F56" t="n">
         <v>3.0</v>
@@ -8564,7 +8552,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8588,7 +8576,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8636,13 +8624,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8653,16 +8641,16 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -8695,7 +8683,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8719,7 +8707,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8767,13 +8755,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8784,16 +8772,16 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F58" t="n">
         <v>2.0</v>
@@ -8826,7 +8814,7 @@
         <v>76.0</v>
       </c>
       <c r="P58" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8850,7 +8838,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8896,13 +8884,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8913,16 +8901,16 @@
         <v>39</v>
       </c>
       <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
         <v>43</v>
       </c>
-      <c r="C59" t="s">
-        <v>45</v>
-      </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F59" t="n">
         <v>3.0</v>
@@ -8955,7 +8943,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8979,7 +8967,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -9025,13 +9013,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -9042,16 +9030,16 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F60" t="n">
         <v>3.0</v>
@@ -9084,7 +9072,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -9108,7 +9096,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9154,13 +9142,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9171,16 +9159,16 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C61" t="s" s="68">
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -9213,7 +9201,7 @@
         <v>83.0</v>
       </c>
       <c r="P61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q61" t="n">
         <v>2.0</v>
@@ -9237,7 +9225,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9285,13 +9273,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9302,16 +9290,16 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F62" t="n">
         <v>3.0</v>
@@ -9344,7 +9332,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9368,7 +9356,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9414,13 +9402,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9431,16 +9419,16 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F63" t="n">
         <v>3.0</v>
@@ -9473,7 +9461,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9497,7 +9485,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9543,13 +9531,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9560,16 +9548,16 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F64" t="n">
         <v>3.0</v>
@@ -9602,7 +9590,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9626,7 +9614,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9672,13 +9660,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9689,16 +9677,16 @@
         <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F65" t="n">
         <v>2.0</v>
@@ -9731,7 +9719,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9755,7 +9743,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9801,13 +9789,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9818,16 +9806,16 @@
         <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F66" t="n">
         <v>3.0</v>
@@ -9860,7 +9848,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9884,7 +9872,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9928,13 +9916,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9945,16 +9933,16 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F67" t="n">
         <v>3.0</v>
@@ -9987,7 +9975,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -10011,7 +9999,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -10057,13 +10045,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -10074,16 +10062,16 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F68" t="n">
         <v>3.0</v>
@@ -10116,7 +10104,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -10140,7 +10128,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10186,13 +10174,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10203,16 +10191,16 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F69" t="n">
         <v>3.0</v>
@@ -10245,7 +10233,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10269,7 +10257,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10315,13 +10303,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10332,16 +10320,16 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F70" t="n">
         <v>3.0</v>
@@ -10374,7 +10362,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10398,7 +10386,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10442,13 +10430,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10459,16 +10447,16 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F71" t="n">
         <v>3.0</v>
@@ -10501,7 +10489,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10525,7 +10513,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10569,13 +10557,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10586,16 +10574,16 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="C72" t="s" s="68">
+        <v>45</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F72" t="n">
         <v>2.0</v>
@@ -10628,7 +10616,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10652,7 +10640,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10698,13 +10686,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10715,16 +10703,16 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F73" t="n">
         <v>3.0</v>
@@ -10757,7 +10745,7 @@
         <v>46.0</v>
       </c>
       <c r="P73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q73" t="n">
         <v>0.0</v>
@@ -10781,7 +10769,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10827,13 +10815,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10844,16 +10832,16 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F74" t="n">
         <v>3.0</v>
@@ -10886,7 +10874,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10910,7 +10898,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10956,13 +10944,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -10973,16 +10961,16 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F75" t="n">
         <v>3.0</v>
@@ -11015,7 +11003,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -11039,7 +11027,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -11085,13 +11073,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -11102,16 +11090,16 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F76" t="n">
         <v>3.0</v>
@@ -11144,7 +11132,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -11168,7 +11156,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11212,13 +11200,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11229,16 +11217,16 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F77" t="n">
         <v>3.0</v>
@@ -11271,7 +11259,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11295,7 +11283,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11341,13 +11329,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11358,16 +11346,16 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F78" t="n">
         <v>3.0</v>
@@ -11400,7 +11388,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11424,7 +11412,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11470,13 +11458,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11487,16 +11475,16 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F79" t="n">
         <v>3.0</v>
@@ -11529,7 +11517,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11553,7 +11541,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11599,13 +11587,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11616,16 +11604,16 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F80" t="n">
         <v>3.0</v>
@@ -11658,7 +11646,7 @@
         <v>85.0</v>
       </c>
       <c r="P80" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11682,7 +11670,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11728,13 +11716,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11745,16 +11733,16 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F81" t="n">
         <v>2.0</v>
@@ -11787,7 +11775,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11811,7 +11799,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11859,13 +11847,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11876,16 +11864,16 @@
         <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="C82" t="s" s="68">
+        <v>69</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F82" t="n">
         <v>2.0</v>
@@ -11918,7 +11906,7 @@
         <v>68.0</v>
       </c>
       <c r="P82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q82" t="n">
         <v>2.0</v>
@@ -11942,7 +11930,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11988,13 +11976,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -12005,16 +11993,16 @@
         <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F83" t="n">
         <v>3.0</v>
@@ -12047,7 +12035,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -12071,7 +12059,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -12117,13 +12105,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -12134,16 +12122,16 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F84" t="n">
         <v>2.0</v>
@@ -12176,7 +12164,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -12200,7 +12188,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12246,13 +12234,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12263,16 +12251,16 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F85" t="n">
         <v>3.0</v>
@@ -12305,7 +12293,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12329,7 +12317,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12375,13 +12363,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12392,16 +12380,16 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F86" t="n">
         <v>3.0</v>
@@ -12434,7 +12422,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12458,7 +12446,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12504,13 +12492,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12521,16 +12509,16 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F87" t="n">
         <v>3.0</v>
@@ -12563,7 +12551,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12587,7 +12575,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12633,13 +12621,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12650,16 +12638,16 @@
         <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F88" t="n">
         <v>3.0</v>
@@ -12692,7 +12680,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12716,7 +12704,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12762,13 +12750,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12779,16 +12767,16 @@
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F89" t="n">
         <v>3.0</v>
@@ -12821,7 +12809,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12845,7 +12833,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12891,13 +12879,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12908,16 +12896,16 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F90" t="n">
         <v>2.0</v>
@@ -12950,7 +12938,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12974,7 +12962,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -13018,13 +13006,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -13035,16 +13023,16 @@
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -13077,7 +13065,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -13101,7 +13089,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13147,13 +13135,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13164,16 +13152,16 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F92" t="n">
         <v>3.0</v>
@@ -13206,7 +13194,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13230,7 +13218,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13276,13 +13264,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13293,16 +13281,16 @@
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F93" t="n">
         <v>3.0</v>
@@ -13335,7 +13323,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13359,7 +13347,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13405,13 +13393,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13422,16 +13410,16 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F94" t="n">
         <v>2.0</v>
@@ -13464,7 +13452,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13488,7 +13476,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13534,13 +13522,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13551,16 +13539,16 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F95" t="n">
         <v>3.0</v>
@@ -13593,7 +13581,7 @@
         <v>61.0</v>
       </c>
       <c r="P95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q95" t="n">
         <v>1.0</v>
@@ -13617,7 +13605,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13663,13 +13651,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13680,16 +13668,16 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F96" t="n">
         <v>3.0</v>
@@ -13722,7 +13710,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13740,7 +13728,7 @@
       <c r="V96"/>
       <c r="W96"/>
       <c r="X96" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13786,13 +13774,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13803,16 +13791,16 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F97" t="n">
         <v>3.0</v>
@@ -13845,7 +13833,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13869,7 +13857,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13913,13 +13901,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13930,16 +13918,16 @@
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F98" t="n">
         <v>3.0</v>
@@ -13972,7 +13960,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13996,7 +13984,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -14040,13 +14028,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -14057,16 +14045,16 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F99" t="n">
         <v>2.0</v>
@@ -14099,7 +14087,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -14123,7 +14111,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14169,13 +14157,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14186,16 +14174,16 @@
         <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F100" t="n">
         <v>3.0</v>
@@ -14228,7 +14216,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14252,7 +14240,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14298,13 +14286,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14315,16 +14303,16 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C101" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="C101" t="s" s="68">
+        <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F101" t="n">
         <v>3.0</v>
@@ -14357,7 +14345,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14381,7 +14369,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14425,13 +14413,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14442,16 +14430,16 @@
         <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F102" t="n">
         <v>3.0</v>
@@ -14484,7 +14472,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14508,7 +14496,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14554,13 +14542,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14571,16 +14559,16 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F103" t="n">
         <v>3.0</v>
@@ -14613,7 +14601,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14637,7 +14625,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14683,13 +14671,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14700,16 +14688,16 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F104" t="n">
         <v>3.0</v>
@@ -14742,7 +14730,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14766,7 +14754,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14812,13 +14800,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14829,16 +14817,16 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F105" t="n">
         <v>3.0</v>
@@ -14871,7 +14859,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14895,7 +14883,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14941,13 +14929,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14958,16 +14946,16 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D106" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F106" t="n">
         <v>3.0</v>
@@ -15000,7 +14988,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -15024,7 +15012,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -15072,13 +15060,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -15089,16 +15077,16 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
-      </c>
-      <c r="D107" t="s">
-        <v>116</v>
+        <v>61</v>
+      </c>
+      <c r="D107" t="s" s="68">
+        <v>114</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F107" t="n">
         <v>3.0</v>
@@ -15131,7 +15119,7 @@
         <v>45.0</v>
       </c>
       <c r="P107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q107" t="n">
         <v>1.0</v>
@@ -15155,7 +15143,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15199,13 +15187,13 @@
       </c>
       <c r="AM107"/>
       <c r="AN107" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15216,16 +15204,16 @@
         <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
-      </c>
-      <c r="C108" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C108" t="s" s="68">
+        <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F108" t="n">
         <v>3.0</v>
@@ -15258,7 +15246,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15282,7 +15270,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15328,13 +15316,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15344,17 +15332,17 @@
       <c r="A109" t="s">
         <v>39</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="C109" t="s">
-        <v>76</v>
+      <c r="C109" t="s" s="68">
+        <v>74</v>
       </c>
       <c r="D109" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F109" t="n">
         <v>3.0</v>
@@ -15387,7 +15375,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15411,7 +15399,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15457,13 +15445,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15474,16 +15462,16 @@
         <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D110" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F110" t="n">
         <v>3.0</v>
@@ -15516,7 +15504,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15540,7 +15528,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15586,13 +15574,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15603,16 +15591,16 @@
         <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F111" t="n">
         <v>3.0</v>
@@ -15645,7 +15633,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15669,7 +15657,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15715,13 +15703,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15732,16 +15720,16 @@
         <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>73</v>
-      </c>
-      <c r="D112" t="s">
-        <v>117</v>
+        <v>71</v>
+      </c>
+      <c r="D112" t="s" s="68">
+        <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F112" t="n">
         <v>3.0</v>
@@ -15774,7 +15762,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15798,7 +15786,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15846,13 +15834,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15863,16 +15851,16 @@
         <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
-      </c>
-      <c r="C113" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="C113" t="s" s="68">
+        <v>75</v>
       </c>
       <c r="D113" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F113" t="n">
         <v>3.0</v>
@@ -15905,7 +15893,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15929,7 +15917,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15975,13 +15963,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -15992,16 +15980,16 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D114" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F114" t="n">
         <v>3.0</v>
@@ -16034,7 +16022,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -16058,7 +16046,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -16104,13 +16092,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -16121,16 +16109,16 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F115" t="n">
         <v>2.0</v>
@@ -16163,7 +16151,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -16187,7 +16175,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16235,13 +16223,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16252,16 +16240,16 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F116" t="n">
         <v>3.0</v>
@@ -16294,7 +16282,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16318,7 +16306,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16364,13 +16352,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16381,16 +16369,16 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F117" t="n">
         <v>3.0</v>
@@ -16423,7 +16411,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16447,7 +16435,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16493,13 +16481,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16510,16 +16498,16 @@
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
-      </c>
-      <c r="C118" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="C118" t="s" s="68">
+        <v>77</v>
       </c>
       <c r="D118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F118" t="n">
         <v>3.0</v>
@@ -16552,7 +16540,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16576,7 +16564,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16622,13 +16610,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16639,16 +16627,16 @@
         <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F119" t="n">
         <v>3.0</v>
@@ -16681,7 +16669,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16705,7 +16693,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16753,13 +16741,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16770,16 +16758,16 @@
         <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
-      </c>
-      <c r="C120" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="C120" t="s" s="68">
+        <v>78</v>
       </c>
       <c r="D120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F120" t="n">
         <v>3.0</v>
@@ -16812,7 +16800,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16836,7 +16824,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16882,13 +16870,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16899,16 +16887,16 @@
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F121" t="n">
         <v>3.0</v>
@@ -16941,7 +16929,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16965,7 +16953,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -17011,13 +16999,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -17028,16 +17016,16 @@
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D122" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F122" t="n">
         <v>3.0</v>
@@ -17070,7 +17058,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -17094,7 +17082,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -17140,13 +17128,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17157,16 +17145,16 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D123" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F123" t="n">
         <v>3.0</v>
@@ -17199,7 +17187,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17223,7 +17211,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17269,13 +17257,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17286,16 +17274,16 @@
         <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D124" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F124" t="n">
         <v>3.0</v>
@@ -17328,7 +17316,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17352,7 +17340,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17398,13 +17386,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17415,16 +17403,16 @@
         <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
-      </c>
-      <c r="C125" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="C125" t="s" s="68">
+        <v>79</v>
       </c>
       <c r="D125" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F125" t="n">
         <v>3.0</v>
@@ -17457,7 +17445,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17481,7 +17469,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17527,13 +17515,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -4173,10 +4173,10 @@
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" t="n" s="68">
         <v>7.2</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" t="n" s="68">
         <v>8.9</v>
       </c>
       <c r="N22" t="n">
@@ -4818,7 +4818,7 @@
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" t="n" s="68">
         <v>7.8</v>
       </c>
       <c r="M27" t="n">
@@ -6354,10 +6354,10 @@
       <c r="M39" t="n">
         <v>1.64</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39" t="n" s="68">
         <v>158.0</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39" t="n" s="68">
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
@@ -7121,7 +7121,7 @@
       <c r="L45" t="n">
         <v>3.64</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" t="n" s="68">
         <v>4.59</v>
       </c>
       <c r="N45" t="n">
@@ -7766,7 +7766,7 @@
       <c r="L50" t="n">
         <v>1.7</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50" t="n" s="68">
         <v>3.72</v>
       </c>
       <c r="N50" t="n">
@@ -9319,10 +9319,10 @@
       <c r="K62" t="n">
         <v>0.0</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62" t="n" s="68">
         <v>7.4</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" t="n" s="68">
         <v>4.7</v>
       </c>
       <c r="N62" t="n">
@@ -9577,7 +9577,7 @@
       <c r="K64" t="n">
         <v>0.0</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64" t="n" s="68">
         <v>6.2</v>
       </c>
       <c r="M64" t="n">
@@ -10091,10 +10091,10 @@
       <c r="K68" t="n">
         <v>1.0</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68" t="n" s="68">
         <v>12.0</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" t="n" s="68">
         <v>4.2</v>
       </c>
       <c r="N68" t="n">
@@ -10223,7 +10223,7 @@
       <c r="L69" t="n">
         <v>4.1</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" t="n" s="68">
         <v>6.4</v>
       </c>
       <c r="N69" t="n">
@@ -11507,7 +11507,7 @@
       <c r="L79" t="n">
         <v>4.0</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M79" t="n" s="68">
         <v>4.2</v>
       </c>
       <c r="N79" t="n">
@@ -12286,7 +12286,7 @@
       <c r="M85" t="n">
         <v>1.0</v>
       </c>
-      <c r="N85" t="n">
+      <c r="N85" t="n" s="68">
         <v>163.0</v>
       </c>
       <c r="O85" t="n">
@@ -12673,10 +12673,10 @@
       <c r="M88" t="n">
         <v>0.9</v>
       </c>
-      <c r="N88" t="n">
+      <c r="N88" t="n" s="68">
         <v>169.0</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O88" t="n" s="68">
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
@@ -13956,7 +13956,7 @@
       <c r="N98" t="n">
         <v>138.0</v>
       </c>
-      <c r="O98" t="n">
+      <c r="O98" t="n" s="68">
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
@@ -14591,7 +14591,7 @@
       <c r="L103" t="n">
         <v>4.6</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M103" t="n" s="68">
         <v>4.1</v>
       </c>
       <c r="N103" t="n">
@@ -15491,10 +15491,10 @@
       <c r="K110" t="n">
         <v>0.0</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L110" t="n" s="68">
         <v>6.9</v>
       </c>
-      <c r="M110" t="n">
+      <c r="M110" t="n" s="68">
         <v>3.9</v>
       </c>
       <c r="N110" t="n">
@@ -16659,7 +16659,7 @@
       <c r="L119" t="n">
         <v>4.1</v>
       </c>
-      <c r="M119" t="n">
+      <c r="M119" t="n" s="68">
         <v>4.3</v>
       </c>
       <c r="N119" t="n">
@@ -17435,7 +17435,7 @@
       <c r="L125" t="n">
         <v>2.3</v>
       </c>
-      <c r="M125" t="n">
+      <c r="M125" t="n" s="68">
         <v>3.9</v>
       </c>
       <c r="N125" t="n">

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -1494,7 +1494,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A1" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -6614,7 +6617,7 @@
       <c r="O41" t="n">
         <v>38.0</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" t="s" s="68">
         <v>134</v>
       </c>
       <c r="Q41" t="n">
@@ -8291,7 +8294,7 @@
       <c r="O54" t="n">
         <v>54.0</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" t="s" s="48">
         <v>140</v>
       </c>
       <c r="Q54" t="n">

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -1896,7 +1896,7 @@
       <c r="Y4" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" t="n" s="68">
         <v>434.0</v>
       </c>
       <c r="AA4" t="n">
@@ -2154,7 +2154,7 @@
       <c r="Y6" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" t="n" s="68">
         <v>410.0</v>
       </c>
       <c r="AA6" t="n">
@@ -2670,7 +2670,7 @@
       <c r="Y10" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10" t="n" s="68">
         <v>483.0</v>
       </c>
       <c r="AA10" t="n">
@@ -4842,7 +4842,7 @@
       <c r="R27" t="n">
         <v>1.0</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27" t="n" s="68">
         <v>24.0</v>
       </c>
       <c r="T27" t="n">
@@ -5117,7 +5117,7 @@
       <c r="Y29" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z29"/>
+      <c r="Z29" s="8"/>
       <c r="AA29" t="n">
         <v>3.0</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="Y35" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="Z35" t="n" s="68">
         <v>443.0</v>
       </c>
       <c r="AA35" t="n">
@@ -6393,7 +6393,7 @@
       <c r="Y39" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="Z39" t="n" s="68">
         <v>410.0</v>
       </c>
       <c r="AA39" t="n">
@@ -6755,7 +6755,7 @@
       <c r="R42" t="n">
         <v>1.0</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42" t="n" s="68">
         <v>1.0</v>
       </c>
       <c r="T42" t="n">
@@ -7163,7 +7163,7 @@
       <c r="Y45" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="Z45" t="n" s="68">
         <v>592.0</v>
       </c>
       <c r="AA45" t="n">
@@ -9601,7 +9601,7 @@
       <c r="R64" t="n">
         <v>1.0</v>
       </c>
-      <c r="S64" t="n">
+      <c r="S64" t="n" s="68">
         <v>19.0</v>
       </c>
       <c r="T64" t="n">
@@ -10394,7 +10394,7 @@
       <c r="Y70" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="Z70" t="n" s="68">
         <v>480.0</v>
       </c>
       <c r="AA70" t="n">
@@ -12841,7 +12841,7 @@
       <c r="Y89" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z89"/>
+      <c r="Z89" s="8"/>
       <c r="AA89" t="n">
         <v>34.0</v>
       </c>
@@ -12970,7 +12970,7 @@
       <c r="Y90" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z90"/>
+      <c r="Z90" s="8"/>
       <c r="AA90" t="n">
         <v>6.0</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="Y97" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z97" t="n">
+      <c r="Z97" t="n" s="68">
         <v>467.0</v>
       </c>
       <c r="AA97"/>
@@ -14762,7 +14762,7 @@
       <c r="Y104" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z104" t="n">
+      <c r="Z104" t="n" s="68">
         <v>436.0</v>
       </c>
       <c r="AA104" t="n">
@@ -17327,7 +17327,7 @@
       <c r="R124" t="n">
         <v>1.0</v>
       </c>
-      <c r="S124" t="n">
+      <c r="S124" t="n" s="68">
         <v>24.0</v>
       </c>
       <c r="T124" t="n">
@@ -17477,7 +17477,7 @@
       <c r="Y125" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z125" t="n">
+      <c r="Z125" t="n" s="68">
         <v>526.0</v>
       </c>
       <c r="AA125" t="n">

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -5761,7 +5761,7 @@
       <c r="Z34" t="n">
         <v>282.0</v>
       </c>
-      <c r="AA34"/>
+      <c r="AA34" s="8"/>
       <c r="AB34"/>
       <c r="AC34"/>
       <c r="AD34"/>
@@ -10268,7 +10268,7 @@
       <c r="Z69" t="n">
         <v>240.0</v>
       </c>
-      <c r="AA69" t="n">
+      <c r="AA69" t="n" s="68">
         <v>36.0</v>
       </c>
       <c r="AB69" t="n">
@@ -10780,7 +10780,7 @@
       <c r="Z73" t="n">
         <v>74.0</v>
       </c>
-      <c r="AA73" t="n">
+      <c r="AA73" t="n" s="68">
         <v>23.0</v>
       </c>
       <c r="AB73" t="n">
@@ -11038,7 +11038,7 @@
       <c r="Z75" t="n">
         <v>164.0</v>
       </c>
-      <c r="AA75" t="n">
+      <c r="AA75" t="n" s="68">
         <v>27.0</v>
       </c>
       <c r="AB75" t="n">
@@ -11167,7 +11167,7 @@
       <c r="Z76" t="n">
         <v>147.0</v>
       </c>
-      <c r="AA76" t="n">
+      <c r="AA76" t="n" s="68">
         <v>23.0</v>
       </c>
       <c r="AB76" t="n">
@@ -11810,7 +11810,7 @@
       <c r="Z81" t="n">
         <v>130.0</v>
       </c>
-      <c r="AA81" t="n">
+      <c r="AA81" t="n" s="68">
         <v>49.0</v>
       </c>
       <c r="AB81" t="n">
@@ -11941,7 +11941,7 @@
       <c r="Z82" t="n">
         <v>150.0</v>
       </c>
-      <c r="AA82" t="n">
+      <c r="AA82" t="n" s="68">
         <v>26.0</v>
       </c>
       <c r="AB82" t="n">
@@ -12842,7 +12842,7 @@
         <v>1.0</v>
       </c>
       <c r="Z89" s="8"/>
-      <c r="AA89" t="n">
+      <c r="AA89" t="n" s="68">
         <v>34.0</v>
       </c>
       <c r="AB89" t="n">
@@ -13616,7 +13616,7 @@
       <c r="Z95" t="n">
         <v>172.0</v>
       </c>
-      <c r="AA95" t="n">
+      <c r="AA95" t="n" s="68">
         <v>29.0</v>
       </c>
       <c r="AB95" t="n">
@@ -13868,7 +13868,7 @@
       <c r="Z97" t="n" s="68">
         <v>467.0</v>
       </c>
-      <c r="AA97"/>
+      <c r="AA97" s="8"/>
       <c r="AB97"/>
       <c r="AC97" t="n">
         <v>1.0</v>
@@ -14636,7 +14636,7 @@
       <c r="Z103" t="n">
         <v>114.0</v>
       </c>
-      <c r="AA103" t="n">
+      <c r="AA103" t="n" s="68">
         <v>27.0</v>
       </c>
       <c r="AB103" t="n">
@@ -15410,7 +15410,7 @@
       <c r="Z109" t="n">
         <v>133.0</v>
       </c>
-      <c r="AA109" t="n">
+      <c r="AA109" t="n" s="68">
         <v>24.0</v>
       </c>
       <c r="AB109" t="n">
@@ -15539,7 +15539,7 @@
       <c r="Z110" t="n">
         <v>155.0</v>
       </c>
-      <c r="AA110" t="n">
+      <c r="AA110" t="n" s="68">
         <v>27.0</v>
       </c>
       <c r="AB110" t="n">
@@ -15668,7 +15668,7 @@
       <c r="Z111" t="n">
         <v>192.0</v>
       </c>
-      <c r="AA111" t="n">
+      <c r="AA111" t="n" s="68">
         <v>26.0</v>
       </c>
       <c r="AB111"/>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -5250,7 +5250,7 @@
       <c r="AA30" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB30"/>
+      <c r="AB30" s="8"/>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>282.0</v>
       </c>
       <c r="AA34" s="8"/>
-      <c r="AB34"/>
+      <c r="AB34" s="8"/>
       <c r="AC34"/>
       <c r="AD34"/>
       <c r="AE34"/>
@@ -8461,7 +8461,7 @@
       <c r="AA55" t="n">
         <v>2.0</v>
       </c>
-      <c r="AB55"/>
+      <c r="AB55" s="8"/>
       <c r="AC55" t="n">
         <v>1.0</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="AA58" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB58"/>
+      <c r="AB58" s="8"/>
       <c r="AC58" t="n">
         <v>1.0</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="AA59" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB59"/>
+      <c r="AB59" s="8"/>
       <c r="AC59" t="n">
         <v>1.0</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="AA60" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB60"/>
+      <c r="AB60" s="8"/>
       <c r="AC60" t="n">
         <v>1.0</v>
       </c>
@@ -9370,7 +9370,7 @@
       <c r="AA62" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB62"/>
+      <c r="AB62" s="8"/>
       <c r="AC62" t="n">
         <v>1.0</v>
       </c>
@@ -9628,7 +9628,7 @@
       <c r="AA64" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB64"/>
+      <c r="AB64" s="8"/>
       <c r="AC64" t="n">
         <v>1.0</v>
       </c>
@@ -9757,7 +9757,7 @@
       <c r="AA65" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB65"/>
+      <c r="AB65" s="8"/>
       <c r="AC65" t="n">
         <v>1.0</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="AA66" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB66"/>
+      <c r="AB66" s="8"/>
       <c r="AC66"/>
       <c r="AD66" t="n">
         <v>1.0</v>
@@ -10013,7 +10013,7 @@
       <c r="AA67" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB67"/>
+      <c r="AB67" s="8"/>
       <c r="AC67" t="n">
         <v>1.0</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="AA68" t="n">
         <v>10.0</v>
       </c>
-      <c r="AB68"/>
+      <c r="AB68" s="8"/>
       <c r="AC68" t="n">
         <v>1.0</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="AA69" t="n" s="68">
         <v>36.0</v>
       </c>
-      <c r="AB69" t="n">
+      <c r="AB69" t="n" s="68">
         <v>21.0</v>
       </c>
       <c r="AC69"/>
@@ -10400,7 +10400,7 @@
       <c r="AA70" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB70"/>
+      <c r="AB70" s="8"/>
       <c r="AC70"/>
       <c r="AD70" t="n">
         <v>1.0</v>
@@ -10527,7 +10527,7 @@
       <c r="AA71" t="n">
         <v>3.0</v>
       </c>
-      <c r="AB71"/>
+      <c r="AB71" s="8"/>
       <c r="AC71" t="n">
         <v>1.0</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="AA72" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB72"/>
+      <c r="AB72" s="8"/>
       <c r="AC72" t="n">
         <v>1.0</v>
       </c>
@@ -10912,7 +10912,7 @@
       <c r="AA74" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB74"/>
+      <c r="AB74" s="8"/>
       <c r="AC74" t="n">
         <v>1.0</v>
       </c>
@@ -11297,7 +11297,7 @@
       <c r="AA77" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB77"/>
+      <c r="AB77" s="8"/>
       <c r="AC77" t="n">
         <v>2.0</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="AA79" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB79"/>
+      <c r="AB79" s="8"/>
       <c r="AC79" t="n">
         <v>1.0</v>
       </c>
@@ -11684,7 +11684,7 @@
       <c r="AA80" t="n">
         <v>13.0</v>
       </c>
-      <c r="AB80"/>
+      <c r="AB80" s="8"/>
       <c r="AC80" t="n">
         <v>1.0</v>
       </c>
@@ -12202,7 +12202,7 @@
       <c r="AA84" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB84"/>
+      <c r="AB84" s="8"/>
       <c r="AC84" t="n">
         <v>1.0</v>
       </c>
@@ -12331,7 +12331,7 @@
       <c r="AA85" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB85"/>
+      <c r="AB85" s="8"/>
       <c r="AC85" t="n">
         <v>1.0</v>
       </c>
@@ -12589,7 +12589,7 @@
       <c r="AA87" t="n">
         <v>10.0</v>
       </c>
-      <c r="AB87"/>
+      <c r="AB87" s="8"/>
       <c r="AC87" t="n">
         <v>1.0</v>
       </c>
@@ -12718,7 +12718,7 @@
       <c r="AA88" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB88"/>
+      <c r="AB88" s="8"/>
       <c r="AC88" t="n">
         <v>1.0</v>
       </c>
@@ -12845,7 +12845,7 @@
       <c r="AA89" t="n" s="68">
         <v>34.0</v>
       </c>
-      <c r="AB89" t="n">
+      <c r="AB89" t="n" s="68">
         <v>21.0</v>
       </c>
       <c r="AC89" t="n">
@@ -12974,7 +12974,7 @@
       <c r="AA90" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB90"/>
+      <c r="AB90" s="8"/>
       <c r="AC90" t="n">
         <v>1.0</v>
       </c>
@@ -13103,7 +13103,7 @@
       <c r="AA91" t="n">
         <v>8.0</v>
       </c>
-      <c r="AB91"/>
+      <c r="AB91" s="8"/>
       <c r="AC91" t="n">
         <v>1.0</v>
       </c>
@@ -13232,7 +13232,7 @@
       <c r="AA92" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB92"/>
+      <c r="AB92" s="8"/>
       <c r="AC92" t="n">
         <v>1.0</v>
       </c>
@@ -13490,7 +13490,7 @@
       <c r="AA94" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB94"/>
+      <c r="AB94" s="8"/>
       <c r="AC94" t="n">
         <v>1.0</v>
       </c>
@@ -13742,7 +13742,7 @@
       <c r="AA96" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB96"/>
+      <c r="AB96" s="8"/>
       <c r="AC96" t="n">
         <v>1.0</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>467.0</v>
       </c>
       <c r="AA97" s="8"/>
-      <c r="AB97"/>
+      <c r="AB97" s="8"/>
       <c r="AC97" t="n">
         <v>1.0</v>
       </c>
@@ -13998,7 +13998,7 @@
       <c r="AA98" t="n">
         <v>18.0</v>
       </c>
-      <c r="AB98"/>
+      <c r="AB98" s="8"/>
       <c r="AC98"/>
       <c r="AD98" t="n">
         <v>1.0</v>
@@ -14125,7 +14125,7 @@
       <c r="AA99" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB99"/>
+      <c r="AB99" s="8"/>
       <c r="AC99" t="n">
         <v>1.0</v>
       </c>
@@ -14254,7 +14254,7 @@
       <c r="AA100" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB100"/>
+      <c r="AB100" s="8"/>
       <c r="AC100" t="n">
         <v>1.0</v>
       </c>
@@ -14383,7 +14383,7 @@
       <c r="AA101" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB101"/>
+      <c r="AB101" s="8"/>
       <c r="AC101" t="n">
         <v>1.0</v>
       </c>
@@ -14510,7 +14510,7 @@
       <c r="AA102" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB102"/>
+      <c r="AB102" s="8"/>
       <c r="AC102" t="n">
         <v>1.0</v>
       </c>
@@ -14768,7 +14768,7 @@
       <c r="AA104" t="n">
         <v>3.0</v>
       </c>
-      <c r="AB104"/>
+      <c r="AB104" s="8"/>
       <c r="AC104" t="n">
         <v>1.0</v>
       </c>
@@ -15157,7 +15157,7 @@
       <c r="AA107" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB107"/>
+      <c r="AB107" s="8"/>
       <c r="AC107" t="n">
         <v>1.0</v>
       </c>
@@ -15284,7 +15284,7 @@
       <c r="AA108" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB108"/>
+      <c r="AB108" s="8"/>
       <c r="AC108" t="n">
         <v>1.0</v>
       </c>
@@ -15671,7 +15671,7 @@
       <c r="AA111" t="n" s="68">
         <v>26.0</v>
       </c>
-      <c r="AB111"/>
+      <c r="AB111" s="8"/>
       <c r="AC111" t="n">
         <v>3.0</v>
       </c>
@@ -15931,7 +15931,7 @@
       <c r="AA113" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB113"/>
+      <c r="AB113" s="8"/>
       <c r="AC113" t="n">
         <v>1.0</v>
       </c>
@@ -16060,7 +16060,7 @@
       <c r="AA114" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB114"/>
+      <c r="AB114" s="8"/>
       <c r="AC114" t="n">
         <v>0.0</v>
       </c>
@@ -16320,7 +16320,7 @@
       <c r="AA116" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB116"/>
+      <c r="AB116" s="8"/>
       <c r="AC116" t="n">
         <v>1.0</v>
       </c>
@@ -16449,7 +16449,7 @@
       <c r="AA117" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB117"/>
+      <c r="AB117" s="8"/>
       <c r="AC117" t="n">
         <v>1.0</v>
       </c>
@@ -16578,7 +16578,7 @@
       <c r="AA118" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB118"/>
+      <c r="AB118" s="8"/>
       <c r="AC118" t="n">
         <v>1.0</v>
       </c>
@@ -16838,7 +16838,7 @@
       <c r="AA120" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB120"/>
+      <c r="AB120" s="8"/>
       <c r="AC120" t="n">
         <v>1.0</v>
       </c>
@@ -16967,7 +16967,7 @@
       <c r="AA121" t="n">
         <v>9.0</v>
       </c>
-      <c r="AB121"/>
+      <c r="AB121" s="8"/>
       <c r="AC121" t="n">
         <v>1.0</v>
       </c>
@@ -17096,7 +17096,7 @@
       <c r="AA122" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB122"/>
+      <c r="AB122" s="8"/>
       <c r="AC122" t="n">
         <v>1.0</v>
       </c>
@@ -17225,7 +17225,7 @@
       <c r="AA123" t="n">
         <v>9.0</v>
       </c>
-      <c r="AB123"/>
+      <c r="AB123" s="8"/>
       <c r="AC123" t="n">
         <v>1.0</v>
       </c>
@@ -17354,7 +17354,7 @@
       <c r="AA124" t="n">
         <v>6.0</v>
       </c>
-      <c r="AB124"/>
+      <c r="AB124" s="8"/>
       <c r="AC124" t="n">
         <v>2.0</v>
       </c>
@@ -17483,7 +17483,7 @@
       <c r="AA125" t="n">
         <v>4.0</v>
       </c>
-      <c r="AB125"/>
+      <c r="AB125" s="8"/>
       <c r="AC125" t="n">
         <v>1.0</v>
       </c>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="384">
   <si>
     <t>Пациент</t>
   </si>
@@ -369,6 +369,15 @@
   </si>
   <si>
     <t>108</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>три</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>0,5</t>
@@ -1548,16 +1557,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s" s="48">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s" s="68">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
@@ -1707,8 +1716,8 @@
       <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="n">
-        <v>3.0</v>
+      <c r="F3" t="s">
+        <v>119</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1738,7 +1747,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1762,7 +1771,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1814,10 +1823,10 @@
       </c>
       <c r="AO3"/>
       <c r="AP3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AQ3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
@@ -1836,8 +1845,8 @@
       <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.0</v>
+      <c r="F4" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1867,7 +1876,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1891,7 +1900,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1943,10 +1952,10 @@
       </c>
       <c r="AO4"/>
       <c r="AP4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AQ4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
@@ -1965,8 +1974,8 @@
       <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.0</v>
+      <c r="F5" t="s" s="48">
+        <v>120</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1996,7 +2005,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -2020,7 +2029,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -2072,10 +2081,10 @@
       </c>
       <c r="AO5"/>
       <c r="AP5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AQ5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
@@ -2094,8 +2103,8 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="n">
-        <v>3.0</v>
+      <c r="F6" t="s">
+        <v>119</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -2125,7 +2134,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -2149,7 +2158,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2201,10 +2210,10 @@
       </c>
       <c r="AO6"/>
       <c r="AP6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AQ6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
@@ -2223,8 +2232,8 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.0</v>
+      <c r="F7" t="s">
+        <v>121</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -2254,7 +2263,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2278,7 +2287,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2330,10 +2339,10 @@
       </c>
       <c r="AO7"/>
       <c r="AP7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AQ7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8">
@@ -2352,8 +2361,8 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.0</v>
+      <c r="F8" t="s">
+        <v>119</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -2383,7 +2392,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2407,7 +2416,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2459,10 +2468,10 @@
       </c>
       <c r="AO8"/>
       <c r="AP8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AQ8" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9">
@@ -2481,8 +2490,8 @@
       <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.0</v>
+      <c r="F9" t="s">
+        <v>119</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -2512,7 +2521,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2536,7 +2545,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2588,10 +2597,10 @@
       </c>
       <c r="AO9"/>
       <c r="AP9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AQ9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10">
@@ -2610,8 +2619,8 @@
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="n">
-        <v>3.0</v>
+      <c r="F10" t="s">
+        <v>119</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -2641,7 +2650,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2665,7 +2674,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2717,10 +2726,10 @@
       </c>
       <c r="AO10"/>
       <c r="AP10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AQ10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11">
@@ -2739,8 +2748,8 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.0</v>
+      <c r="F11" t="s">
+        <v>119</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -2770,7 +2779,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2794,7 +2803,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2846,10 +2855,10 @@
       </c>
       <c r="AO11"/>
       <c r="AP11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AQ11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12">
@@ -2868,8 +2877,8 @@
       <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="n">
-        <v>3.0</v>
+      <c r="F12" t="s">
+        <v>119</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -2899,7 +2908,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2923,7 +2932,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2975,10 +2984,10 @@
       </c>
       <c r="AO12"/>
       <c r="AP12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13">
@@ -2997,8 +3006,8 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="n">
-        <v>3.0</v>
+      <c r="F13" t="s">
+        <v>119</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -3028,7 +3037,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -3052,7 +3061,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -3104,10 +3113,10 @@
       </c>
       <c r="AO13"/>
       <c r="AP13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AQ13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14">
@@ -3126,8 +3135,8 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.0</v>
+      <c r="F14" t="s">
+        <v>121</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -3157,7 +3166,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -3181,7 +3190,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3233,10 +3242,10 @@
       </c>
       <c r="AO14"/>
       <c r="AP14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AQ14" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15">
@@ -3255,8 +3264,8 @@
       <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" t="n">
-        <v>2.0</v>
+      <c r="F15" t="s">
+        <v>121</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -3286,7 +3295,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3310,7 +3319,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3362,10 +3371,10 @@
       </c>
       <c r="AO15"/>
       <c r="AP15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AQ15" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16">
@@ -3384,8 +3393,8 @@
       <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="n">
-        <v>3.0</v>
+      <c r="F16" t="s">
+        <v>119</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -3415,7 +3424,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3439,7 +3448,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3491,10 +3500,10 @@
       </c>
       <c r="AO16"/>
       <c r="AP16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AQ16" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17">
@@ -3513,8 +3522,8 @@
       <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" t="n">
-        <v>3.0</v>
+      <c r="F17" t="s">
+        <v>119</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -3544,7 +3553,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3568,7 +3577,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3620,10 +3629,10 @@
       </c>
       <c r="AO17"/>
       <c r="AP17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AQ17" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18">
@@ -3642,8 +3651,8 @@
       <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="n">
-        <v>2.0</v>
+      <c r="F18" t="s">
+        <v>121</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -3697,7 +3706,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3749,10 +3758,10 @@
       </c>
       <c r="AO18"/>
       <c r="AP18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AQ18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19">
@@ -3771,8 +3780,8 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="F19" t="n">
-        <v>2.0</v>
+      <c r="F19" t="s">
+        <v>121</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -3826,7 +3835,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3878,10 +3887,10 @@
       </c>
       <c r="AO19"/>
       <c r="AP19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AQ19" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20">
@@ -3900,8 +3909,8 @@
       <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="n">
-        <v>2.0</v>
+      <c r="F20" t="s">
+        <v>121</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -3931,7 +3940,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3955,7 +3964,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -4007,10 +4016,10 @@
       </c>
       <c r="AO20"/>
       <c r="AP20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AQ20" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21">
@@ -4029,8 +4038,8 @@
       <c r="E21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="n">
-        <v>3.0</v>
+      <c r="F21" t="s">
+        <v>119</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
@@ -4060,7 +4069,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -4084,7 +4093,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4136,10 +4145,10 @@
       </c>
       <c r="AO21"/>
       <c r="AP21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AQ21" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22">
@@ -4158,8 +4167,8 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="n">
-        <v>3.0</v>
+      <c r="F22" t="s">
+        <v>119</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
@@ -4189,7 +4198,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4213,7 +4222,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4265,10 +4274,10 @@
       </c>
       <c r="AO22"/>
       <c r="AP22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AQ22" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23">
@@ -4287,8 +4296,8 @@
       <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" t="n">
-        <v>3.0</v>
+      <c r="F23" t="s">
+        <v>119</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -4318,7 +4327,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4342,7 +4351,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4394,10 +4403,10 @@
       </c>
       <c r="AO23"/>
       <c r="AP23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AQ23" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24">
@@ -4416,8 +4425,8 @@
       <c r="E24" t="s">
         <v>42</v>
       </c>
-      <c r="F24" t="n">
-        <v>3.0</v>
+      <c r="F24" t="s">
+        <v>119</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -4447,7 +4456,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4471,7 +4480,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4523,10 +4532,10 @@
       </c>
       <c r="AO24"/>
       <c r="AP24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AQ24" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25">
@@ -4545,8 +4554,8 @@
       <c r="E25" t="s">
         <v>42</v>
       </c>
-      <c r="F25" t="n">
-        <v>2.0</v>
+      <c r="F25" t="s">
+        <v>121</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -4576,7 +4585,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4600,7 +4609,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4652,10 +4661,10 @@
       </c>
       <c r="AO25"/>
       <c r="AP25" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AQ25" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26">
@@ -4674,8 +4683,8 @@
       <c r="E26" t="s">
         <v>42</v>
       </c>
-      <c r="F26" t="n">
-        <v>2.0</v>
+      <c r="F26" t="s">
+        <v>121</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -4705,7 +4714,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4729,7 +4738,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4781,10 +4790,10 @@
       </c>
       <c r="AO26"/>
       <c r="AP26" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AQ26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27">
@@ -4803,8 +4812,8 @@
       <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="F27" t="n">
-        <v>3.0</v>
+      <c r="F27" t="s">
+        <v>119</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -4834,7 +4843,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4858,7 +4867,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4906,10 +4915,10 @@
       </c>
       <c r="AO27"/>
       <c r="AP27" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AQ27" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28">
@@ -4928,8 +4937,8 @@
       <c r="E28" t="s">
         <v>42</v>
       </c>
-      <c r="F28" t="n">
-        <v>3.0</v>
+      <c r="F28" t="s">
+        <v>119</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -4959,7 +4968,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4983,7 +4992,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -5035,10 +5044,10 @@
       </c>
       <c r="AO28"/>
       <c r="AP28" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AQ28" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29">
@@ -5057,8 +5066,8 @@
       <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" t="n">
-        <v>2.0</v>
+      <c r="F29" t="s">
+        <v>121</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -5088,7 +5097,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -5112,7 +5121,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5162,10 +5171,10 @@
       </c>
       <c r="AO29"/>
       <c r="AP29" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AQ29" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30">
@@ -5184,8 +5193,8 @@
       <c r="E30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" t="n">
-        <v>2.0</v>
+      <c r="F30" t="s">
+        <v>121</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -5215,7 +5224,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5239,7 +5248,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5289,10 +5298,10 @@
       </c>
       <c r="AO30"/>
       <c r="AP30" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AQ30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31">
@@ -5311,8 +5320,8 @@
       <c r="E31" t="s">
         <v>42</v>
       </c>
-      <c r="F31" t="n">
-        <v>2.0</v>
+      <c r="F31" t="s">
+        <v>121</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -5342,7 +5351,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5366,7 +5375,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5418,10 +5427,10 @@
       </c>
       <c r="AO31"/>
       <c r="AP31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AQ31" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32">
@@ -5440,8 +5449,8 @@
       <c r="E32" t="s">
         <v>42</v>
       </c>
-      <c r="F32" t="n">
-        <v>3.0</v>
+      <c r="F32" t="s">
+        <v>119</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -5471,7 +5480,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5495,7 +5504,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5547,10 +5556,10 @@
       </c>
       <c r="AO32"/>
       <c r="AP32" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AQ32" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33">
@@ -5569,8 +5578,8 @@
       <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="F33" t="n">
-        <v>2.0</v>
+      <c r="F33" t="s">
+        <v>121</v>
       </c>
       <c r="G33" t="n">
         <v>0.0</v>
@@ -5600,7 +5609,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5624,7 +5633,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5676,10 +5685,10 @@
       </c>
       <c r="AO33"/>
       <c r="AP33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AQ33" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34">
@@ -5698,8 +5707,8 @@
       <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="F34" t="n">
-        <v>3.0</v>
+      <c r="F34" t="s">
+        <v>119</v>
       </c>
       <c r="G34" t="n">
         <v>0.0</v>
@@ -5729,7 +5738,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5753,7 +5762,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5795,10 +5804,10 @@
       </c>
       <c r="AO34"/>
       <c r="AP34" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AQ34" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35">
@@ -5817,8 +5826,8 @@
       <c r="E35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" t="n">
-        <v>2.0</v>
+      <c r="F35" t="s">
+        <v>121</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
@@ -5848,7 +5857,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5872,7 +5881,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5924,10 +5933,10 @@
       </c>
       <c r="AO35"/>
       <c r="AP35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AQ35" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36">
@@ -5946,8 +5955,8 @@
       <c r="E36" t="s">
         <v>42</v>
       </c>
-      <c r="F36" t="n">
-        <v>3.0</v>
+      <c r="F36" t="s">
+        <v>119</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
@@ -5977,7 +5986,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -6001,7 +6010,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -6053,10 +6062,10 @@
       </c>
       <c r="AO36"/>
       <c r="AP36" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ36" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
@@ -6075,8 +6084,8 @@
       <c r="E37" t="s">
         <v>42</v>
       </c>
-      <c r="F37" t="n">
-        <v>3.0</v>
+      <c r="F37" t="s">
+        <v>119</v>
       </c>
       <c r="G37" t="n">
         <v>0.0</v>
@@ -6106,7 +6115,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -6130,7 +6139,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6182,10 +6191,10 @@
       </c>
       <c r="AO37"/>
       <c r="AP37" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AQ37" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38">
@@ -6204,8 +6213,8 @@
       <c r="E38" t="s" s="28">
         <v>41</v>
       </c>
-      <c r="F38" t="n">
-        <v>3.0</v>
+      <c r="F38" t="s">
+        <v>119</v>
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
@@ -6235,7 +6244,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6259,7 +6268,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6311,10 +6320,10 @@
       </c>
       <c r="AO38"/>
       <c r="AP38" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AQ38" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39">
@@ -6333,8 +6342,8 @@
       <c r="E39" t="s">
         <v>42</v>
       </c>
-      <c r="F39" t="n">
-        <v>3.0</v>
+      <c r="F39" t="s">
+        <v>119</v>
       </c>
       <c r="G39" t="n">
         <v>0.0</v>
@@ -6364,7 +6373,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6388,7 +6397,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6436,10 +6445,10 @@
       </c>
       <c r="AO39"/>
       <c r="AP39" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AQ39" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40">
@@ -6458,8 +6467,8 @@
       <c r="E40" t="s">
         <v>42</v>
       </c>
-      <c r="F40" t="n">
-        <v>3.0</v>
+      <c r="F40" t="s">
+        <v>119</v>
       </c>
       <c r="G40" t="n">
         <v>0.0</v>
@@ -6513,7 +6522,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6565,10 +6574,10 @@
       </c>
       <c r="AO40"/>
       <c r="AP40" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AQ40" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41">
@@ -6587,8 +6596,8 @@
       <c r="E41" t="s">
         <v>42</v>
       </c>
-      <c r="F41" t="n">
-        <v>3.0</v>
+      <c r="F41" t="s">
+        <v>119</v>
       </c>
       <c r="G41" t="n">
         <v>0.0</v>
@@ -6618,7 +6627,7 @@
         <v>38.0</v>
       </c>
       <c r="P41" t="s" s="68">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6642,7 +6651,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6694,10 +6703,10 @@
       </c>
       <c r="AO41"/>
       <c r="AP41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AQ41" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
@@ -6716,8 +6725,8 @@
       <c r="E42" t="s">
         <v>42</v>
       </c>
-      <c r="F42" t="n">
-        <v>3.0</v>
+      <c r="F42" t="s">
+        <v>119</v>
       </c>
       <c r="G42" t="n">
         <v>0.0</v>
@@ -6747,7 +6756,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6771,7 +6780,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6823,10 +6832,10 @@
       </c>
       <c r="AO42"/>
       <c r="AP42" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AQ42" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
@@ -6845,8 +6854,8 @@
       <c r="E43" t="s">
         <v>42</v>
       </c>
-      <c r="F43" t="n">
-        <v>3.0</v>
+      <c r="F43" t="s">
+        <v>119</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
@@ -6876,7 +6885,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6900,7 +6909,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6952,10 +6961,10 @@
       </c>
       <c r="AO43"/>
       <c r="AP43" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AQ43" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
@@ -6974,8 +6983,8 @@
       <c r="E44" t="s">
         <v>42</v>
       </c>
-      <c r="F44" t="n">
-        <v>3.0</v>
+      <c r="F44" t="s">
+        <v>119</v>
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
@@ -7005,7 +7014,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -7029,7 +7038,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -7081,10 +7090,10 @@
       </c>
       <c r="AO44"/>
       <c r="AP44" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AQ44" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
@@ -7103,8 +7112,8 @@
       <c r="E45" t="s" s="28">
         <v>42</v>
       </c>
-      <c r="F45" t="n">
-        <v>3.0</v>
+      <c r="F45" t="s">
+        <v>119</v>
       </c>
       <c r="G45" t="n">
         <v>0.0</v>
@@ -7134,7 +7143,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7158,7 +7167,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7210,10 +7219,10 @@
       </c>
       <c r="AO45"/>
       <c r="AP45" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AQ45" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46">
@@ -7232,8 +7241,8 @@
       <c r="E46" t="s">
         <v>42</v>
       </c>
-      <c r="F46" t="n">
-        <v>3.0</v>
+      <c r="F46" t="s">
+        <v>119</v>
       </c>
       <c r="G46" t="n">
         <v>0.0</v>
@@ -7263,7 +7272,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7287,7 +7296,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7339,10 +7348,10 @@
       </c>
       <c r="AO46"/>
       <c r="AP46" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AQ46" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
@@ -7361,8 +7370,8 @@
       <c r="E47" t="s">
         <v>42</v>
       </c>
-      <c r="F47" t="n">
-        <v>3.0</v>
+      <c r="F47" t="s">
+        <v>119</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
@@ -7392,7 +7401,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7416,7 +7425,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7468,10 +7477,10 @@
       </c>
       <c r="AO47"/>
       <c r="AP47" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AQ47" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48">
@@ -7490,8 +7499,8 @@
       <c r="E48" t="s">
         <v>42</v>
       </c>
-      <c r="F48" t="n">
-        <v>3.0</v>
+      <c r="F48" t="s">
+        <v>119</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -7521,7 +7530,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7545,7 +7554,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7597,10 +7606,10 @@
       </c>
       <c r="AO48"/>
       <c r="AP48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AQ48" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49">
@@ -7619,8 +7628,8 @@
       <c r="E49" t="s">
         <v>42</v>
       </c>
-      <c r="F49" t="n">
-        <v>3.0</v>
+      <c r="F49" t="s">
+        <v>119</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -7650,7 +7659,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7674,7 +7683,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7726,10 +7735,10 @@
       </c>
       <c r="AO49"/>
       <c r="AP49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AQ49" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50">
@@ -7748,8 +7757,8 @@
       <c r="E50" t="s">
         <v>42</v>
       </c>
-      <c r="F50" t="n">
-        <v>3.0</v>
+      <c r="F50" t="s">
+        <v>119</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
@@ -7779,7 +7788,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7803,7 +7812,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7855,10 +7864,10 @@
       </c>
       <c r="AO50"/>
       <c r="AP50" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AQ50" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51">
@@ -7877,8 +7886,8 @@
       <c r="E51" t="s">
         <v>42</v>
       </c>
-      <c r="F51" t="n">
-        <v>2.0</v>
+      <c r="F51" t="s">
+        <v>121</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -7908,7 +7917,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7932,7 +7941,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7984,10 +7993,10 @@
       </c>
       <c r="AO51"/>
       <c r="AP51" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AQ51" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52">
@@ -8006,8 +8015,8 @@
       <c r="E52" t="s">
         <v>42</v>
       </c>
-      <c r="F52" t="n">
-        <v>3.0</v>
+      <c r="F52" t="s">
+        <v>119</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -8037,7 +8046,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -8061,7 +8070,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -8113,10 +8122,10 @@
       </c>
       <c r="AO52"/>
       <c r="AP52" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AQ52" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53">
@@ -8135,8 +8144,8 @@
       <c r="E53" t="s">
         <v>42</v>
       </c>
-      <c r="F53" t="n">
-        <v>2.0</v>
+      <c r="F53" t="s">
+        <v>121</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
@@ -8166,7 +8175,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -8190,7 +8199,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8242,10 +8251,10 @@
       </c>
       <c r="AO53"/>
       <c r="AP53" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AQ53" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54">
@@ -8264,8 +8273,8 @@
       <c r="E54" t="s">
         <v>42</v>
       </c>
-      <c r="F54" t="n">
-        <v>3.0</v>
+      <c r="F54" t="s">
+        <v>119</v>
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
@@ -8295,7 +8304,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s" s="48">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8319,7 +8328,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8367,13 +8376,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8395,8 +8404,8 @@
       <c r="E55" t="s">
         <v>41</v>
       </c>
-      <c r="F55" t="n">
-        <v>3.0</v>
+      <c r="F55" t="s">
+        <v>119</v>
       </c>
       <c r="G55" t="n">
         <v>0.0</v>
@@ -8426,7 +8435,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8450,7 +8459,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8496,13 +8505,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8524,8 +8533,8 @@
       <c r="E56" t="s">
         <v>41</v>
       </c>
-      <c r="F56" t="n">
-        <v>3.0</v>
+      <c r="F56" t="s">
+        <v>119</v>
       </c>
       <c r="G56" t="n">
         <v>1.0</v>
@@ -8555,7 +8564,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8579,7 +8588,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8627,13 +8636,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8655,8 +8664,8 @@
       <c r="E57" t="s">
         <v>42</v>
       </c>
-      <c r="F57" t="n">
-        <v>2.0</v>
+      <c r="F57" t="s">
+        <v>121</v>
       </c>
       <c r="G57" t="n">
         <v>0.0</v>
@@ -8686,7 +8695,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8710,7 +8719,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8758,13 +8767,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8786,8 +8795,8 @@
       <c r="E58" t="s">
         <v>42</v>
       </c>
-      <c r="F58" t="n">
-        <v>2.0</v>
+      <c r="F58" t="s">
+        <v>121</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -8817,7 +8826,7 @@
         <v>76.0</v>
       </c>
       <c r="P58" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8841,7 +8850,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8887,13 +8896,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8915,8 +8924,8 @@
       <c r="E59" t="s">
         <v>42</v>
       </c>
-      <c r="F59" t="n">
-        <v>3.0</v>
+      <c r="F59" t="s">
+        <v>119</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
@@ -8946,7 +8955,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8970,7 +8979,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -9016,13 +9025,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -9044,8 +9053,8 @@
       <c r="E60" t="s">
         <v>42</v>
       </c>
-      <c r="F60" t="n">
-        <v>3.0</v>
+      <c r="F60" t="s">
+        <v>119</v>
       </c>
       <c r="G60" t="n">
         <v>0.0</v>
@@ -9075,7 +9084,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -9099,7 +9108,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9145,13 +9154,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9173,8 +9182,8 @@
       <c r="E61" t="s">
         <v>42</v>
       </c>
-      <c r="F61" t="n">
-        <v>3.0</v>
+      <c r="F61" t="s">
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
@@ -9228,7 +9237,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9276,13 +9285,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9304,8 +9313,8 @@
       <c r="E62" t="s">
         <v>42</v>
       </c>
-      <c r="F62" t="n">
-        <v>3.0</v>
+      <c r="F62" t="s">
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
@@ -9335,7 +9344,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9359,7 +9368,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9405,13 +9414,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9433,8 +9442,8 @@
       <c r="E63" t="s">
         <v>42</v>
       </c>
-      <c r="F63" t="n">
-        <v>3.0</v>
+      <c r="F63" t="s">
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
@@ -9464,7 +9473,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9488,7 +9497,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9534,13 +9543,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9562,8 +9571,8 @@
       <c r="E64" t="s">
         <v>42</v>
       </c>
-      <c r="F64" t="n">
-        <v>3.0</v>
+      <c r="F64" t="s">
+        <v>119</v>
       </c>
       <c r="G64" t="n">
         <v>0.0</v>
@@ -9593,7 +9602,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9617,7 +9626,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9663,13 +9672,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9691,8 +9700,8 @@
       <c r="E65" t="s">
         <v>42</v>
       </c>
-      <c r="F65" t="n">
-        <v>2.0</v>
+      <c r="F65" t="s">
+        <v>121</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -9722,7 +9731,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9746,7 +9755,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9792,13 +9801,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9820,8 +9829,8 @@
       <c r="E66" t="s">
         <v>42</v>
       </c>
-      <c r="F66" t="n">
-        <v>3.0</v>
+      <c r="F66" t="s">
+        <v>119</v>
       </c>
       <c r="G66" t="n">
         <v>0.0</v>
@@ -9851,7 +9860,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9875,7 +9884,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9919,13 +9928,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9947,8 +9956,8 @@
       <c r="E67" t="s">
         <v>42</v>
       </c>
-      <c r="F67" t="n">
-        <v>3.0</v>
+      <c r="F67" t="s">
+        <v>119</v>
       </c>
       <c r="G67" t="n">
         <v>0.0</v>
@@ -9978,7 +9987,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -10002,7 +10011,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -10048,13 +10057,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -10076,8 +10085,8 @@
       <c r="E68" t="s">
         <v>42</v>
       </c>
-      <c r="F68" t="n">
-        <v>3.0</v>
+      <c r="F68" t="s">
+        <v>119</v>
       </c>
       <c r="G68" t="n">
         <v>0.0</v>
@@ -10107,7 +10116,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -10131,7 +10140,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10177,13 +10186,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10205,8 +10214,8 @@
       <c r="E69" t="s">
         <v>42</v>
       </c>
-      <c r="F69" t="n">
-        <v>3.0</v>
+      <c r="F69" t="s">
+        <v>119</v>
       </c>
       <c r="G69" t="n">
         <v>0.0</v>
@@ -10236,7 +10245,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10260,7 +10269,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10306,13 +10315,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10334,8 +10343,8 @@
       <c r="E70" t="s">
         <v>42</v>
       </c>
-      <c r="F70" t="n">
-        <v>3.0</v>
+      <c r="F70" t="s">
+        <v>119</v>
       </c>
       <c r="G70" t="n">
         <v>0.0</v>
@@ -10365,7 +10374,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10389,7 +10398,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10433,13 +10442,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10461,8 +10470,8 @@
       <c r="E71" t="s">
         <v>42</v>
       </c>
-      <c r="F71" t="n">
-        <v>3.0</v>
+      <c r="F71" t="s">
+        <v>119</v>
       </c>
       <c r="G71" t="n">
         <v>0.0</v>
@@ -10492,7 +10501,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10516,7 +10525,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10560,13 +10569,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10588,8 +10597,8 @@
       <c r="E72" t="s">
         <v>42</v>
       </c>
-      <c r="F72" t="n">
-        <v>2.0</v>
+      <c r="F72" t="s">
+        <v>121</v>
       </c>
       <c r="G72" t="n">
         <v>0.0</v>
@@ -10619,7 +10628,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10643,7 +10652,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10689,13 +10698,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10717,8 +10726,8 @@
       <c r="E73" t="s">
         <v>42</v>
       </c>
-      <c r="F73" t="n">
-        <v>3.0</v>
+      <c r="F73" t="s">
+        <v>119</v>
       </c>
       <c r="G73" t="n">
         <v>0.0</v>
@@ -10772,7 +10781,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10818,13 +10827,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10846,8 +10855,8 @@
       <c r="E74" t="s">
         <v>42</v>
       </c>
-      <c r="F74" t="n">
-        <v>3.0</v>
+      <c r="F74" t="s">
+        <v>119</v>
       </c>
       <c r="G74" t="n">
         <v>0.0</v>
@@ -10877,7 +10886,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10901,7 +10910,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10947,13 +10956,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -10975,8 +10984,8 @@
       <c r="E75" t="s">
         <v>42</v>
       </c>
-      <c r="F75" t="n">
-        <v>3.0</v>
+      <c r="F75" t="s">
+        <v>119</v>
       </c>
       <c r="G75" t="n">
         <v>0.0</v>
@@ -11006,7 +11015,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -11030,7 +11039,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -11076,13 +11085,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -11104,8 +11113,8 @@
       <c r="E76" t="s">
         <v>42</v>
       </c>
-      <c r="F76" t="n">
-        <v>3.0</v>
+      <c r="F76" t="s">
+        <v>119</v>
       </c>
       <c r="G76" t="n">
         <v>0.0</v>
@@ -11135,7 +11144,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -11159,7 +11168,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11203,13 +11212,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11231,8 +11240,8 @@
       <c r="E77" t="s">
         <v>42</v>
       </c>
-      <c r="F77" t="n">
-        <v>3.0</v>
+      <c r="F77" t="s">
+        <v>119</v>
       </c>
       <c r="G77" t="n">
         <v>0.0</v>
@@ -11262,7 +11271,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11286,7 +11295,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11332,13 +11341,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11360,8 +11369,8 @@
       <c r="E78" t="s">
         <v>42</v>
       </c>
-      <c r="F78" t="n">
-        <v>3.0</v>
+      <c r="F78" t="s">
+        <v>119</v>
       </c>
       <c r="G78" t="n">
         <v>0.0</v>
@@ -11391,7 +11400,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11415,7 +11424,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11461,13 +11470,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11489,8 +11498,8 @@
       <c r="E79" t="s">
         <v>42</v>
       </c>
-      <c r="F79" t="n">
-        <v>3.0</v>
+      <c r="F79" t="s">
+        <v>119</v>
       </c>
       <c r="G79" t="n">
         <v>0.0</v>
@@ -11520,7 +11529,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11544,7 +11553,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11590,13 +11599,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11618,8 +11627,8 @@
       <c r="E80" t="s">
         <v>42</v>
       </c>
-      <c r="F80" t="n">
-        <v>3.0</v>
+      <c r="F80" t="s">
+        <v>119</v>
       </c>
       <c r="G80" t="n">
         <v>0.0</v>
@@ -11649,7 +11658,7 @@
         <v>85.0</v>
       </c>
       <c r="P80" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11673,7 +11682,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11719,13 +11728,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11747,8 +11756,8 @@
       <c r="E81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" t="n">
-        <v>2.0</v>
+      <c r="F81" t="s">
+        <v>121</v>
       </c>
       <c r="G81" t="n">
         <v>0.0</v>
@@ -11778,7 +11787,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11802,7 +11811,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11850,13 +11859,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11878,8 +11887,8 @@
       <c r="E82" t="s">
         <v>42</v>
       </c>
-      <c r="F82" t="n">
-        <v>2.0</v>
+      <c r="F82" t="s">
+        <v>121</v>
       </c>
       <c r="G82" t="n">
         <v>0.0</v>
@@ -11933,7 +11942,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11979,13 +11988,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -12007,8 +12016,8 @@
       <c r="E83" t="s">
         <v>42</v>
       </c>
-      <c r="F83" t="n">
-        <v>3.0</v>
+      <c r="F83" t="s">
+        <v>119</v>
       </c>
       <c r="G83" t="n">
         <v>0.0</v>
@@ -12038,7 +12047,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -12062,7 +12071,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -12108,13 +12117,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -12136,8 +12145,8 @@
       <c r="E84" t="s">
         <v>42</v>
       </c>
-      <c r="F84" t="n">
-        <v>2.0</v>
+      <c r="F84" t="s">
+        <v>121</v>
       </c>
       <c r="G84" t="n">
         <v>0.0</v>
@@ -12167,7 +12176,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -12191,7 +12200,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12237,13 +12246,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12265,8 +12274,8 @@
       <c r="E85" t="s">
         <v>42</v>
       </c>
-      <c r="F85" t="n">
-        <v>3.0</v>
+      <c r="F85" t="s">
+        <v>119</v>
       </c>
       <c r="G85" t="n">
         <v>0.0</v>
@@ -12296,7 +12305,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12320,7 +12329,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12366,13 +12375,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12394,8 +12403,8 @@
       <c r="E86" t="s">
         <v>42</v>
       </c>
-      <c r="F86" t="n">
-        <v>3.0</v>
+      <c r="F86" t="s">
+        <v>119</v>
       </c>
       <c r="G86" t="n">
         <v>1.0</v>
@@ -12425,7 +12434,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12449,7 +12458,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12495,13 +12504,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12523,8 +12532,8 @@
       <c r="E87" t="s">
         <v>41</v>
       </c>
-      <c r="F87" t="n">
-        <v>3.0</v>
+      <c r="F87" t="s">
+        <v>119</v>
       </c>
       <c r="G87" t="n">
         <v>0.0</v>
@@ -12554,7 +12563,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12578,7 +12587,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12624,13 +12633,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12652,8 +12661,8 @@
       <c r="E88" t="s">
         <v>42</v>
       </c>
-      <c r="F88" t="n">
-        <v>3.0</v>
+      <c r="F88" t="s">
+        <v>119</v>
       </c>
       <c r="G88" t="n">
         <v>0.0</v>
@@ -12683,7 +12692,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12707,7 +12716,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12753,13 +12762,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12781,8 +12790,8 @@
       <c r="E89" t="s">
         <v>42</v>
       </c>
-      <c r="F89" t="n">
-        <v>3.0</v>
+      <c r="F89" t="s">
+        <v>119</v>
       </c>
       <c r="G89" t="n">
         <v>0.0</v>
@@ -12812,7 +12821,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12836,7 +12845,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12882,13 +12891,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12910,8 +12919,8 @@
       <c r="E90" t="s">
         <v>42</v>
       </c>
-      <c r="F90" t="n">
-        <v>2.0</v>
+      <c r="F90" t="s">
+        <v>121</v>
       </c>
       <c r="G90" t="n">
         <v>0.0</v>
@@ -12941,7 +12950,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12965,7 +12974,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -13009,13 +13018,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -13037,8 +13046,8 @@
       <c r="E91" t="s">
         <v>42</v>
       </c>
-      <c r="F91" t="n">
-        <v>2.0</v>
+      <c r="F91" t="s">
+        <v>121</v>
       </c>
       <c r="G91" t="n">
         <v>0.0</v>
@@ -13068,7 +13077,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -13092,7 +13101,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13138,13 +13147,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13166,8 +13175,8 @@
       <c r="E92" t="s">
         <v>42</v>
       </c>
-      <c r="F92" t="n">
-        <v>3.0</v>
+      <c r="F92" t="s">
+        <v>119</v>
       </c>
       <c r="G92" t="n">
         <v>0.0</v>
@@ -13197,7 +13206,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13221,7 +13230,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13267,13 +13276,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13295,8 +13304,8 @@
       <c r="E93" t="s">
         <v>42</v>
       </c>
-      <c r="F93" t="n">
-        <v>3.0</v>
+      <c r="F93" t="s">
+        <v>119</v>
       </c>
       <c r="G93" t="n">
         <v>0.0</v>
@@ -13326,7 +13335,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13350,7 +13359,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13396,13 +13405,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13424,8 +13433,8 @@
       <c r="E94" t="s">
         <v>42</v>
       </c>
-      <c r="F94" t="n">
-        <v>2.0</v>
+      <c r="F94" t="s">
+        <v>121</v>
       </c>
       <c r="G94" t="n">
         <v>0.0</v>
@@ -13455,7 +13464,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13479,7 +13488,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13525,13 +13534,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13553,8 +13562,8 @@
       <c r="E95" t="s">
         <v>42</v>
       </c>
-      <c r="F95" t="n">
-        <v>3.0</v>
+      <c r="F95" t="s">
+        <v>119</v>
       </c>
       <c r="G95" t="n">
         <v>0.0</v>
@@ -13608,7 +13617,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13654,13 +13663,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13682,8 +13691,8 @@
       <c r="E96" t="s">
         <v>42</v>
       </c>
-      <c r="F96" t="n">
-        <v>3.0</v>
+      <c r="F96" t="s">
+        <v>119</v>
       </c>
       <c r="G96" t="n">
         <v>0.0</v>
@@ -13713,7 +13722,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13731,7 +13740,7 @@
       <c r="V96"/>
       <c r="W96"/>
       <c r="X96" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13777,13 +13786,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13805,8 +13814,8 @@
       <c r="E97" t="s">
         <v>41</v>
       </c>
-      <c r="F97" t="n">
-        <v>3.0</v>
+      <c r="F97" t="s">
+        <v>119</v>
       </c>
       <c r="G97" t="n">
         <v>0.0</v>
@@ -13836,7 +13845,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13860,7 +13869,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13904,13 +13913,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13932,8 +13941,8 @@
       <c r="E98" t="s">
         <v>42</v>
       </c>
-      <c r="F98" t="n">
-        <v>3.0</v>
+      <c r="F98" t="s">
+        <v>119</v>
       </c>
       <c r="G98" t="n">
         <v>0.0</v>
@@ -13963,7 +13972,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13987,7 +13996,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -14031,13 +14040,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -14059,8 +14068,8 @@
       <c r="E99" t="s">
         <v>42</v>
       </c>
-      <c r="F99" t="n">
-        <v>2.0</v>
+      <c r="F99" t="s">
+        <v>121</v>
       </c>
       <c r="G99" t="n">
         <v>0.0</v>
@@ -14090,7 +14099,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -14114,7 +14123,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14160,13 +14169,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14188,8 +14197,8 @@
       <c r="E100" t="s">
         <v>42</v>
       </c>
-      <c r="F100" t="n">
-        <v>3.0</v>
+      <c r="F100" t="s">
+        <v>119</v>
       </c>
       <c r="G100" t="n">
         <v>0.0</v>
@@ -14219,7 +14228,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14243,7 +14252,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14289,13 +14298,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14317,8 +14326,8 @@
       <c r="E101" t="s">
         <v>42</v>
       </c>
-      <c r="F101" t="n">
-        <v>3.0</v>
+      <c r="F101" t="s">
+        <v>119</v>
       </c>
       <c r="G101" t="n">
         <v>0.0</v>
@@ -14348,7 +14357,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14372,7 +14381,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14416,13 +14425,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14444,8 +14453,8 @@
       <c r="E102" t="s">
         <v>42</v>
       </c>
-      <c r="F102" t="n">
-        <v>3.0</v>
+      <c r="F102" t="s">
+        <v>119</v>
       </c>
       <c r="G102" t="n">
         <v>0.0</v>
@@ -14475,7 +14484,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14499,7 +14508,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14545,13 +14554,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14573,8 +14582,8 @@
       <c r="E103" t="s">
         <v>42</v>
       </c>
-      <c r="F103" t="n">
-        <v>3.0</v>
+      <c r="F103" t="s">
+        <v>119</v>
       </c>
       <c r="G103" t="n">
         <v>1.0</v>
@@ -14604,7 +14613,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14628,7 +14637,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14674,13 +14683,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14702,8 +14711,8 @@
       <c r="E104" t="s">
         <v>42</v>
       </c>
-      <c r="F104" t="n">
-        <v>3.0</v>
+      <c r="F104" t="s">
+        <v>119</v>
       </c>
       <c r="G104" t="n">
         <v>0.0</v>
@@ -14733,7 +14742,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14757,7 +14766,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14803,13 +14812,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14831,8 +14840,8 @@
       <c r="E105" t="s">
         <v>42</v>
       </c>
-      <c r="F105" t="n">
-        <v>3.0</v>
+      <c r="F105" t="s">
+        <v>119</v>
       </c>
       <c r="G105" t="n">
         <v>0.0</v>
@@ -14862,7 +14871,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14886,7 +14895,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14932,13 +14941,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14960,8 +14969,8 @@
       <c r="E106" t="s">
         <v>42</v>
       </c>
-      <c r="F106" t="n">
-        <v>3.0</v>
+      <c r="F106" t="s">
+        <v>119</v>
       </c>
       <c r="G106" t="n">
         <v>0.0</v>
@@ -14991,7 +15000,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -15015,7 +15024,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -15063,13 +15072,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -15091,8 +15100,8 @@
       <c r="E107" t="s">
         <v>42</v>
       </c>
-      <c r="F107" t="n">
-        <v>3.0</v>
+      <c r="F107" t="s">
+        <v>119</v>
       </c>
       <c r="G107" t="n">
         <v>0.0</v>
@@ -15146,7 +15155,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15190,13 +15199,13 @@
       </c>
       <c r="AM107"/>
       <c r="AN107" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15218,8 +15227,8 @@
       <c r="E108" t="s">
         <v>42</v>
       </c>
-      <c r="F108" t="n">
-        <v>3.0</v>
+      <c r="F108" t="s">
+        <v>119</v>
       </c>
       <c r="G108" t="n">
         <v>0.0</v>
@@ -15249,7 +15258,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15273,7 +15282,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15319,13 +15328,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15347,8 +15356,8 @@
       <c r="E109" t="s">
         <v>42</v>
       </c>
-      <c r="F109" t="n">
-        <v>3.0</v>
+      <c r="F109" t="s">
+        <v>119</v>
       </c>
       <c r="G109" t="n">
         <v>0.0</v>
@@ -15378,7 +15387,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15402,7 +15411,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15448,13 +15457,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15476,8 +15485,8 @@
       <c r="E110" t="s">
         <v>42</v>
       </c>
-      <c r="F110" t="n">
-        <v>3.0</v>
+      <c r="F110" t="s">
+        <v>119</v>
       </c>
       <c r="G110" t="n">
         <v>0.0</v>
@@ -15507,7 +15516,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15531,7 +15540,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15577,13 +15586,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15605,8 +15614,8 @@
       <c r="E111" t="s">
         <v>42</v>
       </c>
-      <c r="F111" t="n">
-        <v>3.0</v>
+      <c r="F111" t="s">
+        <v>119</v>
       </c>
       <c r="G111" t="n">
         <v>0.0</v>
@@ -15636,7 +15645,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15660,7 +15669,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15706,13 +15715,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15734,8 +15743,8 @@
       <c r="E112" t="s">
         <v>41</v>
       </c>
-      <c r="F112" t="n">
-        <v>3.0</v>
+      <c r="F112" t="s">
+        <v>119</v>
       </c>
       <c r="G112" t="n">
         <v>0.0</v>
@@ -15765,7 +15774,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15789,7 +15798,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15837,13 +15846,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15865,8 +15874,8 @@
       <c r="E113" t="s">
         <v>42</v>
       </c>
-      <c r="F113" t="n">
-        <v>3.0</v>
+      <c r="F113" t="s">
+        <v>119</v>
       </c>
       <c r="G113" t="n">
         <v>0.0</v>
@@ -15896,7 +15905,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15920,7 +15929,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15966,13 +15975,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -15994,8 +16003,8 @@
       <c r="E114" t="s">
         <v>42</v>
       </c>
-      <c r="F114" t="n">
-        <v>3.0</v>
+      <c r="F114" t="s">
+        <v>119</v>
       </c>
       <c r="G114" t="n">
         <v>0.0</v>
@@ -16025,7 +16034,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -16049,7 +16058,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -16095,13 +16104,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -16123,8 +16132,8 @@
       <c r="E115" t="s">
         <v>42</v>
       </c>
-      <c r="F115" t="n">
-        <v>2.0</v>
+      <c r="F115" t="s">
+        <v>121</v>
       </c>
       <c r="G115" t="n">
         <v>0.0</v>
@@ -16154,7 +16163,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -16178,7 +16187,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16226,13 +16235,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16254,8 +16263,8 @@
       <c r="E116" t="s">
         <v>42</v>
       </c>
-      <c r="F116" t="n">
-        <v>3.0</v>
+      <c r="F116" t="s">
+        <v>119</v>
       </c>
       <c r="G116" t="n">
         <v>0.0</v>
@@ -16285,7 +16294,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16309,7 +16318,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16355,13 +16364,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16383,8 +16392,8 @@
       <c r="E117" t="s">
         <v>42</v>
       </c>
-      <c r="F117" t="n">
-        <v>3.0</v>
+      <c r="F117" t="s">
+        <v>119</v>
       </c>
       <c r="G117" t="n">
         <v>0.0</v>
@@ -16414,7 +16423,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16438,7 +16447,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16484,13 +16493,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16512,8 +16521,8 @@
       <c r="E118" t="s">
         <v>42</v>
       </c>
-      <c r="F118" t="n">
-        <v>3.0</v>
+      <c r="F118" t="s">
+        <v>119</v>
       </c>
       <c r="G118" t="n">
         <v>0.0</v>
@@ -16543,7 +16552,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16567,7 +16576,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16613,13 +16622,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16641,8 +16650,8 @@
       <c r="E119" t="s">
         <v>41</v>
       </c>
-      <c r="F119" t="n">
-        <v>3.0</v>
+      <c r="F119" t="s">
+        <v>119</v>
       </c>
       <c r="G119" t="n">
         <v>0.0</v>
@@ -16672,7 +16681,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16696,7 +16705,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16744,13 +16753,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16772,8 +16781,8 @@
       <c r="E120" t="s">
         <v>42</v>
       </c>
-      <c r="F120" t="n">
-        <v>3.0</v>
+      <c r="F120" t="s">
+        <v>119</v>
       </c>
       <c r="G120" t="n">
         <v>0.0</v>
@@ -16803,7 +16812,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16827,7 +16836,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16873,13 +16882,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16901,8 +16910,8 @@
       <c r="E121" t="s">
         <v>42</v>
       </c>
-      <c r="F121" t="n">
-        <v>3.0</v>
+      <c r="F121" t="s">
+        <v>119</v>
       </c>
       <c r="G121" t="n">
         <v>0.0</v>
@@ -16932,7 +16941,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16956,7 +16965,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -17002,13 +17011,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -17030,8 +17039,8 @@
       <c r="E122" t="s">
         <v>42</v>
       </c>
-      <c r="F122" t="n">
-        <v>3.0</v>
+      <c r="F122" t="s">
+        <v>119</v>
       </c>
       <c r="G122" t="n">
         <v>0.0</v>
@@ -17061,7 +17070,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -17085,7 +17094,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -17131,13 +17140,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17159,8 +17168,8 @@
       <c r="E123" t="s">
         <v>42</v>
       </c>
-      <c r="F123" t="n">
-        <v>3.0</v>
+      <c r="F123" t="s">
+        <v>119</v>
       </c>
       <c r="G123" t="n">
         <v>0.0</v>
@@ -17190,7 +17199,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17214,7 +17223,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17260,13 +17269,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17288,8 +17297,8 @@
       <c r="E124" t="s">
         <v>42</v>
       </c>
-      <c r="F124" t="n">
-        <v>3.0</v>
+      <c r="F124" t="s">
+        <v>119</v>
       </c>
       <c r="G124" t="n">
         <v>0.0</v>
@@ -17319,7 +17328,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17343,7 +17352,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17389,13 +17398,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17417,8 +17426,8 @@
       <c r="E125" t="s">
         <v>42</v>
       </c>
-      <c r="F125" t="n">
-        <v>3.0</v>
+      <c r="F125" t="s">
+        <v>119</v>
       </c>
       <c r="G125" t="n">
         <v>0.0</v>
@@ -17448,7 +17457,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17472,7 +17481,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17518,13 +17527,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="385">
   <si>
     <t>Пациент</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>ноль</t>
   </si>
   <si>
     <t>0,5</t>
@@ -1557,16 +1560,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C1" t="s" s="48">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D1" t="s" s="68">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
@@ -1719,8 +1722,8 @@
       <c r="F3" t="s">
         <v>119</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
       <c r="H3" t="n">
         <v>3.0</v>
@@ -1747,7 +1750,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1771,7 +1774,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1823,10 +1826,10 @@
       </c>
       <c r="AO3"/>
       <c r="AP3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AQ3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
@@ -1848,8 +1851,8 @@
       <c r="F4" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
+      <c r="G4" t="s">
+        <v>42</v>
       </c>
       <c r="H4" t="n">
         <v>3.0</v>
@@ -1876,7 +1879,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1900,7 +1903,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1952,10 +1955,10 @@
       </c>
       <c r="AO4"/>
       <c r="AP4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AQ4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
@@ -1977,8 +1980,8 @@
       <c r="F5" t="s" s="48">
         <v>120</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
+      <c r="G5" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="H5" t="n">
         <v>2.0</v>
@@ -2005,7 +2008,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -2029,7 +2032,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -2081,10 +2084,10 @@
       </c>
       <c r="AO5"/>
       <c r="AP5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AQ5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
@@ -2106,8 +2109,8 @@
       <c r="F6" t="s">
         <v>119</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
+      <c r="G6" t="s" s="48">
+        <v>122</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
@@ -2134,7 +2137,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -2158,7 +2161,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2210,10 +2213,10 @@
       </c>
       <c r="AO6"/>
       <c r="AP6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AQ6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
@@ -2235,8 +2238,8 @@
       <c r="F7" t="s">
         <v>121</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.0</v>
+      <c r="G7" t="s">
+        <v>42</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -2263,7 +2266,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2287,7 +2290,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2339,10 +2342,10 @@
       </c>
       <c r="AO7"/>
       <c r="AP7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AQ7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
@@ -2364,8 +2367,8 @@
       <c r="F8" t="s">
         <v>119</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.0</v>
+      <c r="G8" t="s">
+        <v>42</v>
       </c>
       <c r="H8" t="n">
         <v>2.0</v>
@@ -2392,7 +2395,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2416,7 +2419,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2468,10 +2471,10 @@
       </c>
       <c r="AO8"/>
       <c r="AP8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
@@ -2493,8 +2496,8 @@
       <c r="F9" t="s">
         <v>119</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
+      <c r="G9" t="s">
+        <v>42</v>
       </c>
       <c r="H9" t="n">
         <v>2.0</v>
@@ -2521,7 +2524,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2545,7 +2548,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2597,10 +2600,10 @@
       </c>
       <c r="AO9"/>
       <c r="AP9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
@@ -2622,8 +2625,8 @@
       <c r="F10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
+      <c r="G10" t="s">
+        <v>42</v>
       </c>
       <c r="H10" t="n">
         <v>3.0</v>
@@ -2650,7 +2653,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2674,7 +2677,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2726,10 +2729,10 @@
       </c>
       <c r="AO10"/>
       <c r="AP10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AQ10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11">
@@ -2751,8 +2754,8 @@
       <c r="F11" t="s">
         <v>119</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.0</v>
+      <c r="G11" t="s">
+        <v>42</v>
       </c>
       <c r="H11" t="n">
         <v>3.0</v>
@@ -2779,7 +2782,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2803,7 +2806,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2855,10 +2858,10 @@
       </c>
       <c r="AO11"/>
       <c r="AP11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12">
@@ -2880,8 +2883,8 @@
       <c r="F12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
+      <c r="G12" t="s">
+        <v>42</v>
       </c>
       <c r="H12" t="n">
         <v>3.0</v>
@@ -2908,7 +2911,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2932,7 +2935,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2984,10 +2987,10 @@
       </c>
       <c r="AO12"/>
       <c r="AP12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13">
@@ -3009,8 +3012,8 @@
       <c r="F13" t="s">
         <v>119</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.0</v>
+      <c r="G13" t="s">
+        <v>42</v>
       </c>
       <c r="H13" t="n">
         <v>2.0</v>
@@ -3037,7 +3040,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -3061,7 +3064,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -3113,10 +3116,10 @@
       </c>
       <c r="AO13"/>
       <c r="AP13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
@@ -3138,8 +3141,8 @@
       <c r="F14" t="s">
         <v>121</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.0</v>
+      <c r="G14" t="s">
+        <v>42</v>
       </c>
       <c r="H14" t="n">
         <v>3.0</v>
@@ -3166,7 +3169,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -3190,7 +3193,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3242,10 +3245,10 @@
       </c>
       <c r="AO14"/>
       <c r="AP14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15">
@@ -3267,8 +3270,8 @@
       <c r="F15" t="s">
         <v>121</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.0</v>
+      <c r="G15" t="s">
+        <v>42</v>
       </c>
       <c r="H15" t="n">
         <v>2.0</v>
@@ -3295,7 +3298,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3319,7 +3322,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3371,10 +3374,10 @@
       </c>
       <c r="AO15"/>
       <c r="AP15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16">
@@ -3396,8 +3399,8 @@
       <c r="F16" t="s">
         <v>119</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.0</v>
+      <c r="G16" t="s">
+        <v>42</v>
       </c>
       <c r="H16" t="n">
         <v>3.0</v>
@@ -3424,7 +3427,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3448,7 +3451,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3500,10 +3503,10 @@
       </c>
       <c r="AO16"/>
       <c r="AP16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17">
@@ -3525,8 +3528,8 @@
       <c r="F17" t="s">
         <v>119</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.0</v>
+      <c r="G17" t="s">
+        <v>42</v>
       </c>
       <c r="H17" t="n">
         <v>3.0</v>
@@ -3553,7 +3556,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3577,7 +3580,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3629,10 +3632,10 @@
       </c>
       <c r="AO17"/>
       <c r="AP17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18">
@@ -3654,8 +3657,8 @@
       <c r="F18" t="s">
         <v>121</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.0</v>
+      <c r="G18" t="s">
+        <v>42</v>
       </c>
       <c r="H18" t="n">
         <v>3.0</v>
@@ -3706,7 +3709,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3758,10 +3761,10 @@
       </c>
       <c r="AO18"/>
       <c r="AP18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19">
@@ -3783,8 +3786,8 @@
       <c r="F19" t="s">
         <v>121</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.0</v>
+      <c r="G19" t="s">
+        <v>42</v>
       </c>
       <c r="H19" t="n">
         <v>2.0</v>
@@ -3835,7 +3838,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3887,10 +3890,10 @@
       </c>
       <c r="AO19"/>
       <c r="AP19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20">
@@ -3912,8 +3915,8 @@
       <c r="F20" t="s">
         <v>121</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.0</v>
+      <c r="G20" t="s">
+        <v>42</v>
       </c>
       <c r="H20" t="n">
         <v>2.0</v>
@@ -3940,7 +3943,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3964,7 +3967,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -4016,10 +4019,10 @@
       </c>
       <c r="AO20"/>
       <c r="AP20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21">
@@ -4041,8 +4044,8 @@
       <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.0</v>
+      <c r="G21" t="s">
+        <v>41</v>
       </c>
       <c r="H21" t="n">
         <v>3.0</v>
@@ -4069,7 +4072,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -4093,7 +4096,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4145,10 +4148,10 @@
       </c>
       <c r="AO21"/>
       <c r="AP21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22">
@@ -4170,8 +4173,8 @@
       <c r="F22" t="s">
         <v>119</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.0</v>
+      <c r="G22" t="s">
+        <v>41</v>
       </c>
       <c r="H22" t="n">
         <v>2.0</v>
@@ -4198,7 +4201,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4222,7 +4225,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4274,10 +4277,10 @@
       </c>
       <c r="AO22"/>
       <c r="AP22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AQ22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23">
@@ -4299,8 +4302,8 @@
       <c r="F23" t="s">
         <v>119</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.0</v>
+      <c r="G23" t="s">
+        <v>42</v>
       </c>
       <c r="H23" t="n">
         <v>3.0</v>
@@ -4327,7 +4330,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4351,7 +4354,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4403,10 +4406,10 @@
       </c>
       <c r="AO23"/>
       <c r="AP23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24">
@@ -4428,8 +4431,8 @@
       <c r="F24" t="s">
         <v>119</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.0</v>
+      <c r="G24" t="s">
+        <v>42</v>
       </c>
       <c r="H24" t="n">
         <v>2.0</v>
@@ -4456,7 +4459,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4480,7 +4483,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4532,10 +4535,10 @@
       </c>
       <c r="AO24"/>
       <c r="AP24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25">
@@ -4557,8 +4560,8 @@
       <c r="F25" t="s">
         <v>121</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.0</v>
+      <c r="G25" t="s">
+        <v>42</v>
       </c>
       <c r="H25" t="n">
         <v>2.0</v>
@@ -4585,7 +4588,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4609,7 +4612,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4661,10 +4664,10 @@
       </c>
       <c r="AO25"/>
       <c r="AP25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26">
@@ -4686,8 +4689,8 @@
       <c r="F26" t="s">
         <v>121</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.0</v>
+      <c r="G26" t="s">
+        <v>42</v>
       </c>
       <c r="H26" t="n">
         <v>1.0</v>
@@ -4714,7 +4717,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4738,7 +4741,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4790,10 +4793,10 @@
       </c>
       <c r="AO26"/>
       <c r="AP26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27">
@@ -4815,8 +4818,8 @@
       <c r="F27" t="s">
         <v>119</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.0</v>
+      <c r="G27" t="s">
+        <v>42</v>
       </c>
       <c r="H27" t="n">
         <v>2.0</v>
@@ -4843,7 +4846,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4867,7 +4870,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4915,10 +4918,10 @@
       </c>
       <c r="AO27"/>
       <c r="AP27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28">
@@ -4940,8 +4943,8 @@
       <c r="F28" t="s">
         <v>119</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.0</v>
+      <c r="G28" t="s">
+        <v>42</v>
       </c>
       <c r="H28" t="n">
         <v>2.0</v>
@@ -4968,7 +4971,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4992,7 +4995,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -5044,10 +5047,10 @@
       </c>
       <c r="AO28"/>
       <c r="AP28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29">
@@ -5069,8 +5072,8 @@
       <c r="F29" t="s">
         <v>121</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.0</v>
+      <c r="G29" t="s">
+        <v>42</v>
       </c>
       <c r="H29" t="n">
         <v>3.0</v>
@@ -5097,7 +5100,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -5121,7 +5124,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5171,10 +5174,10 @@
       </c>
       <c r="AO29"/>
       <c r="AP29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ29" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30">
@@ -5196,8 +5199,8 @@
       <c r="F30" t="s">
         <v>121</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.0</v>
+      <c r="G30" t="s">
+        <v>42</v>
       </c>
       <c r="H30" t="n">
         <v>2.0</v>
@@ -5224,7 +5227,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5248,7 +5251,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5298,10 +5301,10 @@
       </c>
       <c r="AO30"/>
       <c r="AP30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31">
@@ -5323,8 +5326,8 @@
       <c r="F31" t="s">
         <v>121</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.0</v>
+      <c r="G31" t="s">
+        <v>42</v>
       </c>
       <c r="H31" t="n">
         <v>1.0</v>
@@ -5351,7 +5354,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5375,7 +5378,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5427,10 +5430,10 @@
       </c>
       <c r="AO31"/>
       <c r="AP31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ31" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32">
@@ -5452,8 +5455,8 @@
       <c r="F32" t="s">
         <v>119</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.0</v>
+      <c r="G32" t="s">
+        <v>42</v>
       </c>
       <c r="H32" t="n">
         <v>1.0</v>
@@ -5480,7 +5483,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5504,7 +5507,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5556,10 +5559,10 @@
       </c>
       <c r="AO32"/>
       <c r="AP32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AQ32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33">
@@ -5581,8 +5584,8 @@
       <c r="F33" t="s">
         <v>121</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.0</v>
+      <c r="G33" t="s">
+        <v>42</v>
       </c>
       <c r="H33" t="n">
         <v>1.0</v>
@@ -5609,7 +5612,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5633,7 +5636,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5685,10 +5688,10 @@
       </c>
       <c r="AO33"/>
       <c r="AP33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AQ33" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34">
@@ -5710,8 +5713,8 @@
       <c r="F34" t="s">
         <v>119</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.0</v>
+      <c r="G34" t="s">
+        <v>42</v>
       </c>
       <c r="H34" t="n">
         <v>3.0</v>
@@ -5738,7 +5741,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5762,7 +5765,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5804,10 +5807,10 @@
       </c>
       <c r="AO34"/>
       <c r="AP34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AQ34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35">
@@ -5829,8 +5832,8 @@
       <c r="F35" t="s">
         <v>121</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.0</v>
+      <c r="G35" t="s">
+        <v>42</v>
       </c>
       <c r="H35" t="n">
         <v>3.0</v>
@@ -5857,7 +5860,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5881,7 +5884,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5933,10 +5936,10 @@
       </c>
       <c r="AO35"/>
       <c r="AP35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AQ35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36">
@@ -5958,8 +5961,8 @@
       <c r="F36" t="s">
         <v>119</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.0</v>
+      <c r="G36" t="s">
+        <v>42</v>
       </c>
       <c r="H36" t="n">
         <v>3.0</v>
@@ -5986,7 +5989,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -6010,7 +6013,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -6062,10 +6065,10 @@
       </c>
       <c r="AO36"/>
       <c r="AP36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AQ36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37">
@@ -6087,8 +6090,8 @@
       <c r="F37" t="s">
         <v>119</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.0</v>
+      <c r="G37" t="s">
+        <v>42</v>
       </c>
       <c r="H37" t="n">
         <v>2.0</v>
@@ -6115,7 +6118,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -6139,7 +6142,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6191,10 +6194,10 @@
       </c>
       <c r="AO37"/>
       <c r="AP37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AQ37" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
@@ -6216,8 +6219,8 @@
       <c r="F38" t="s">
         <v>119</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.0</v>
+      <c r="G38" t="s">
+        <v>42</v>
       </c>
       <c r="H38" t="n">
         <v>2.0</v>
@@ -6244,7 +6247,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6268,7 +6271,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6320,10 +6323,10 @@
       </c>
       <c r="AO38"/>
       <c r="AP38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AQ38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
@@ -6345,8 +6348,8 @@
       <c r="F39" t="s">
         <v>119</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.0</v>
+      <c r="G39" t="s">
+        <v>42</v>
       </c>
       <c r="H39" t="n">
         <v>3.0</v>
@@ -6373,7 +6376,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6397,7 +6400,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6445,10 +6448,10 @@
       </c>
       <c r="AO39"/>
       <c r="AP39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AQ39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40">
@@ -6470,8 +6473,8 @@
       <c r="F40" t="s">
         <v>119</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.0</v>
+      <c r="G40" t="s">
+        <v>42</v>
       </c>
       <c r="H40" t="n">
         <v>3.0</v>
@@ -6522,7 +6525,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6574,10 +6577,10 @@
       </c>
       <c r="AO40"/>
       <c r="AP40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AQ40" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41">
@@ -6599,8 +6602,8 @@
       <c r="F41" t="s">
         <v>119</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.0</v>
+      <c r="G41" t="s">
+        <v>42</v>
       </c>
       <c r="H41" t="n">
         <v>3.0</v>
@@ -6627,7 +6630,7 @@
         <v>38.0</v>
       </c>
       <c r="P41" t="s" s="68">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6651,7 +6654,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6703,10 +6706,10 @@
       </c>
       <c r="AO41"/>
       <c r="AP41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AQ41" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
@@ -6728,8 +6731,8 @@
       <c r="F42" t="s">
         <v>119</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.0</v>
+      <c r="G42" t="s">
+        <v>42</v>
       </c>
       <c r="H42" t="n">
         <v>3.0</v>
@@ -6756,7 +6759,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6780,7 +6783,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6832,10 +6835,10 @@
       </c>
       <c r="AO42"/>
       <c r="AP42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AQ42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43">
@@ -6857,8 +6860,8 @@
       <c r="F43" t="s">
         <v>119</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.0</v>
+      <c r="G43" t="s">
+        <v>42</v>
       </c>
       <c r="H43" t="n">
         <v>3.0</v>
@@ -6885,7 +6888,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6909,7 +6912,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6961,10 +6964,10 @@
       </c>
       <c r="AO43"/>
       <c r="AP43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AQ43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44">
@@ -6986,8 +6989,8 @@
       <c r="F44" t="s">
         <v>119</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.0</v>
+      <c r="G44" t="s">
+        <v>42</v>
       </c>
       <c r="H44" t="n">
         <v>3.0</v>
@@ -7014,7 +7017,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -7038,7 +7041,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -7090,10 +7093,10 @@
       </c>
       <c r="AO44"/>
       <c r="AP44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AQ44" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
@@ -7115,8 +7118,8 @@
       <c r="F45" t="s">
         <v>119</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.0</v>
+      <c r="G45" t="s">
+        <v>42</v>
       </c>
       <c r="H45" t="n">
         <v>3.0</v>
@@ -7143,7 +7146,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7167,7 +7170,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7219,10 +7222,10 @@
       </c>
       <c r="AO45"/>
       <c r="AP45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AQ45" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
@@ -7244,8 +7247,8 @@
       <c r="F46" t="s">
         <v>119</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.0</v>
+      <c r="G46" t="s">
+        <v>42</v>
       </c>
       <c r="H46" t="n">
         <v>3.0</v>
@@ -7272,7 +7275,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7296,7 +7299,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7348,10 +7351,10 @@
       </c>
       <c r="AO46"/>
       <c r="AP46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AQ46" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47">
@@ -7373,8 +7376,8 @@
       <c r="F47" t="s">
         <v>119</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.0</v>
+      <c r="G47" t="s">
+        <v>42</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
@@ -7401,7 +7404,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7425,7 +7428,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7477,10 +7480,10 @@
       </c>
       <c r="AO47"/>
       <c r="AP47" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
@@ -7502,8 +7505,8 @@
       <c r="F48" t="s">
         <v>119</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.0</v>
+      <c r="G48" t="s">
+        <v>42</v>
       </c>
       <c r="H48" t="n">
         <v>2.0</v>
@@ -7530,7 +7533,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7554,7 +7557,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7606,10 +7609,10 @@
       </c>
       <c r="AO48"/>
       <c r="AP48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ48" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
@@ -7631,8 +7634,8 @@
       <c r="F49" t="s">
         <v>119</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.0</v>
+      <c r="G49" t="s">
+        <v>42</v>
       </c>
       <c r="H49" t="n">
         <v>1.0</v>
@@ -7659,7 +7662,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7683,7 +7686,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7735,10 +7738,10 @@
       </c>
       <c r="AO49"/>
       <c r="AP49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
@@ -7760,8 +7763,8 @@
       <c r="F50" t="s">
         <v>119</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.0</v>
+      <c r="G50" t="s">
+        <v>42</v>
       </c>
       <c r="H50" t="n">
         <v>3.0</v>
@@ -7788,7 +7791,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7812,7 +7815,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7864,10 +7867,10 @@
       </c>
       <c r="AO50"/>
       <c r="AP50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51">
@@ -7889,8 +7892,8 @@
       <c r="F51" t="s">
         <v>121</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.0</v>
+      <c r="G51" t="s">
+        <v>42</v>
       </c>
       <c r="H51" t="n">
         <v>3.0</v>
@@ -7917,7 +7920,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7941,7 +7944,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7993,10 +7996,10 @@
       </c>
       <c r="AO51"/>
       <c r="AP51" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ51" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52">
@@ -8018,8 +8021,8 @@
       <c r="F52" t="s">
         <v>119</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.0</v>
+      <c r="G52" t="s">
+        <v>42</v>
       </c>
       <c r="H52" t="n">
         <v>2.0</v>
@@ -8046,7 +8049,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -8070,7 +8073,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -8122,10 +8125,10 @@
       </c>
       <c r="AO52"/>
       <c r="AP52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53">
@@ -8147,8 +8150,8 @@
       <c r="F53" t="s">
         <v>121</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.0</v>
+      <c r="G53" t="s">
+        <v>42</v>
       </c>
       <c r="H53" t="n">
         <v>3.0</v>
@@ -8175,7 +8178,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -8199,7 +8202,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8251,10 +8254,10 @@
       </c>
       <c r="AO53"/>
       <c r="AP53" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AQ53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54">
@@ -8276,8 +8279,8 @@
       <c r="F54" t="s">
         <v>119</v>
       </c>
-      <c r="G54" t="n">
-        <v>0.0</v>
+      <c r="G54" t="s">
+        <v>42</v>
       </c>
       <c r="H54" t="n">
         <v>3.0</v>
@@ -8304,7 +8307,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s" s="48">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8328,7 +8331,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8376,13 +8379,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8407,8 +8410,8 @@
       <c r="F55" t="s">
         <v>119</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.0</v>
+      <c r="G55" t="s">
+        <v>42</v>
       </c>
       <c r="H55" t="n">
         <v>1.0</v>
@@ -8435,7 +8438,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8459,7 +8462,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8505,13 +8508,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8536,8 +8539,8 @@
       <c r="F56" t="s">
         <v>119</v>
       </c>
-      <c r="G56" t="n">
-        <v>1.0</v>
+      <c r="G56" t="s">
+        <v>41</v>
       </c>
       <c r="H56" t="n">
         <v>0.0</v>
@@ -8564,7 +8567,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8588,7 +8591,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8636,13 +8639,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8667,8 +8670,8 @@
       <c r="F57" t="s">
         <v>121</v>
       </c>
-      <c r="G57" t="n">
-        <v>0.0</v>
+      <c r="G57" t="s">
+        <v>42</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
@@ -8695,7 +8698,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8719,7 +8722,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8767,13 +8770,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8798,8 +8801,8 @@
       <c r="F58" t="s">
         <v>121</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.0</v>
+      <c r="G58" t="s">
+        <v>42</v>
       </c>
       <c r="H58" t="n">
         <v>3.0</v>
@@ -8826,7 +8829,7 @@
         <v>76.0</v>
       </c>
       <c r="P58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8850,7 +8853,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8896,13 +8899,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8927,8 +8930,8 @@
       <c r="F59" t="s">
         <v>119</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.0</v>
+      <c r="G59" t="s">
+        <v>42</v>
       </c>
       <c r="H59" t="n">
         <v>0.0</v>
@@ -8955,7 +8958,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8979,7 +8982,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -9025,13 +9028,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -9056,8 +9059,8 @@
       <c r="F60" t="s">
         <v>119</v>
       </c>
-      <c r="G60" t="n">
-        <v>0.0</v>
+      <c r="G60" t="s">
+        <v>42</v>
       </c>
       <c r="H60" t="n">
         <v>1.0</v>
@@ -9084,7 +9087,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -9108,7 +9111,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9154,13 +9157,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9185,8 +9188,8 @@
       <c r="F61" t="s">
         <v>119</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.0</v>
+      <c r="G61" t="s">
+        <v>42</v>
       </c>
       <c r="H61" t="n">
         <v>0.0</v>
@@ -9237,7 +9240,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9285,13 +9288,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9316,8 +9319,8 @@
       <c r="F62" t="s">
         <v>119</v>
       </c>
-      <c r="G62" t="n">
-        <v>0.0</v>
+      <c r="G62" t="s">
+        <v>42</v>
       </c>
       <c r="H62" t="n">
         <v>2.0</v>
@@ -9344,7 +9347,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9368,7 +9371,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9414,13 +9417,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9445,8 +9448,8 @@
       <c r="F63" t="s">
         <v>119</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.0</v>
+      <c r="G63" t="s">
+        <v>42</v>
       </c>
       <c r="H63" t="n">
         <v>0.0</v>
@@ -9473,7 +9476,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9497,7 +9500,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9543,13 +9546,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9574,8 +9577,8 @@
       <c r="F64" t="s">
         <v>119</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.0</v>
+      <c r="G64" t="s">
+        <v>42</v>
       </c>
       <c r="H64" t="n">
         <v>3.0</v>
@@ -9602,7 +9605,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9626,7 +9629,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9672,13 +9675,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9703,8 +9706,8 @@
       <c r="F65" t="s">
         <v>121</v>
       </c>
-      <c r="G65" t="n">
-        <v>0.0</v>
+      <c r="G65" t="s">
+        <v>42</v>
       </c>
       <c r="H65" t="n">
         <v>3.0</v>
@@ -9731,7 +9734,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9755,7 +9758,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9801,13 +9804,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9832,8 +9835,8 @@
       <c r="F66" t="s">
         <v>119</v>
       </c>
-      <c r="G66" t="n">
-        <v>0.0</v>
+      <c r="G66" t="s">
+        <v>42</v>
       </c>
       <c r="H66" t="n">
         <v>1.0</v>
@@ -9860,7 +9863,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9884,7 +9887,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9928,13 +9931,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9959,8 +9962,8 @@
       <c r="F67" t="s">
         <v>119</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.0</v>
+      <c r="G67" t="s">
+        <v>42</v>
       </c>
       <c r="H67" t="n">
         <v>3.0</v>
@@ -9987,7 +9990,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -10011,7 +10014,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -10057,13 +10060,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -10088,8 +10091,8 @@
       <c r="F68" t="s">
         <v>119</v>
       </c>
-      <c r="G68" t="n">
-        <v>0.0</v>
+      <c r="G68" t="s">
+        <v>42</v>
       </c>
       <c r="H68" t="n">
         <v>3.0</v>
@@ -10116,7 +10119,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -10140,7 +10143,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10186,13 +10189,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10217,8 +10220,8 @@
       <c r="F69" t="s">
         <v>119</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.0</v>
+      <c r="G69" t="s">
+        <v>42</v>
       </c>
       <c r="H69" t="n">
         <v>1.0</v>
@@ -10245,7 +10248,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10269,7 +10272,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10315,13 +10318,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10346,8 +10349,8 @@
       <c r="F70" t="s">
         <v>119</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.0</v>
+      <c r="G70" t="s">
+        <v>42</v>
       </c>
       <c r="H70" t="n">
         <v>0.0</v>
@@ -10374,7 +10377,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10398,7 +10401,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10442,13 +10445,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10473,8 +10476,8 @@
       <c r="F71" t="s">
         <v>119</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.0</v>
+      <c r="G71" t="s">
+        <v>42</v>
       </c>
       <c r="H71" t="n">
         <v>3.0</v>
@@ -10501,7 +10504,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10525,7 +10528,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10569,13 +10572,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10600,8 +10603,8 @@
       <c r="F72" t="s">
         <v>121</v>
       </c>
-      <c r="G72" t="n">
-        <v>0.0</v>
+      <c r="G72" t="s">
+        <v>42</v>
       </c>
       <c r="H72" t="n">
         <v>0.0</v>
@@ -10628,7 +10631,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10652,7 +10655,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10698,13 +10701,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10729,8 +10732,8 @@
       <c r="F73" t="s">
         <v>119</v>
       </c>
-      <c r="G73" t="n">
-        <v>0.0</v>
+      <c r="G73" t="s">
+        <v>42</v>
       </c>
       <c r="H73" t="n">
         <v>1.0</v>
@@ -10781,7 +10784,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10827,13 +10830,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10858,8 +10861,8 @@
       <c r="F74" t="s">
         <v>119</v>
       </c>
-      <c r="G74" t="n">
-        <v>0.0</v>
+      <c r="G74" t="s">
+        <v>42</v>
       </c>
       <c r="H74" t="n">
         <v>2.0</v>
@@ -10886,7 +10889,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10910,7 +10913,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10956,13 +10959,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -10987,8 +10990,8 @@
       <c r="F75" t="s">
         <v>119</v>
       </c>
-      <c r="G75" t="n">
-        <v>0.0</v>
+      <c r="G75" t="s">
+        <v>42</v>
       </c>
       <c r="H75" t="n">
         <v>3.0</v>
@@ -11015,7 +11018,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -11039,7 +11042,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -11085,13 +11088,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -11116,8 +11119,8 @@
       <c r="F76" t="s">
         <v>119</v>
       </c>
-      <c r="G76" t="n">
-        <v>0.0</v>
+      <c r="G76" t="s">
+        <v>42</v>
       </c>
       <c r="H76" t="n">
         <v>1.0</v>
@@ -11144,7 +11147,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -11168,7 +11171,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11212,13 +11215,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11243,8 +11246,8 @@
       <c r="F77" t="s">
         <v>119</v>
       </c>
-      <c r="G77" t="n">
-        <v>0.0</v>
+      <c r="G77" t="s">
+        <v>42</v>
       </c>
       <c r="H77" t="n">
         <v>2.0</v>
@@ -11271,7 +11274,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11295,7 +11298,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11341,13 +11344,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11372,8 +11375,8 @@
       <c r="F78" t="s">
         <v>119</v>
       </c>
-      <c r="G78" t="n">
-        <v>0.0</v>
+      <c r="G78" t="s">
+        <v>42</v>
       </c>
       <c r="H78" t="n">
         <v>3.0</v>
@@ -11400,7 +11403,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11424,7 +11427,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11470,13 +11473,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11501,8 +11504,8 @@
       <c r="F79" t="s">
         <v>119</v>
       </c>
-      <c r="G79" t="n">
-        <v>0.0</v>
+      <c r="G79" t="s">
+        <v>42</v>
       </c>
       <c r="H79" t="n">
         <v>1.0</v>
@@ -11529,7 +11532,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11553,7 +11556,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11599,13 +11602,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11630,8 +11633,8 @@
       <c r="F80" t="s">
         <v>119</v>
       </c>
-      <c r="G80" t="n">
-        <v>0.0</v>
+      <c r="G80" t="s">
+        <v>42</v>
       </c>
       <c r="H80" t="n">
         <v>1.0</v>
@@ -11658,7 +11661,7 @@
         <v>85.0</v>
       </c>
       <c r="P80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11682,7 +11685,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11728,13 +11731,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11759,8 +11762,8 @@
       <c r="F81" t="s">
         <v>121</v>
       </c>
-      <c r="G81" t="n">
-        <v>0.0</v>
+      <c r="G81" t="s">
+        <v>42</v>
       </c>
       <c r="H81" t="n">
         <v>2.0</v>
@@ -11787,7 +11790,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11811,7 +11814,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11859,13 +11862,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11890,8 +11893,8 @@
       <c r="F82" t="s">
         <v>121</v>
       </c>
-      <c r="G82" t="n">
-        <v>0.0</v>
+      <c r="G82" t="s">
+        <v>42</v>
       </c>
       <c r="H82" t="n">
         <v>2.0</v>
@@ -11942,7 +11945,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11988,13 +11991,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -12019,8 +12022,8 @@
       <c r="F83" t="s">
         <v>119</v>
       </c>
-      <c r="G83" t="n">
-        <v>0.0</v>
+      <c r="G83" t="s">
+        <v>42</v>
       </c>
       <c r="H83" t="n">
         <v>2.0</v>
@@ -12047,7 +12050,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -12071,7 +12074,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -12117,13 +12120,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -12148,8 +12151,8 @@
       <c r="F84" t="s">
         <v>121</v>
       </c>
-      <c r="G84" t="n">
-        <v>0.0</v>
+      <c r="G84" t="s">
+        <v>42</v>
       </c>
       <c r="H84" t="n">
         <v>3.0</v>
@@ -12176,7 +12179,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -12200,7 +12203,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12246,13 +12249,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12277,8 +12280,8 @@
       <c r="F85" t="s">
         <v>119</v>
       </c>
-      <c r="G85" t="n">
-        <v>0.0</v>
+      <c r="G85" t="s">
+        <v>42</v>
       </c>
       <c r="H85" t="n">
         <v>2.0</v>
@@ -12305,7 +12308,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12329,7 +12332,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12375,13 +12378,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12406,8 +12409,8 @@
       <c r="F86" t="s">
         <v>119</v>
       </c>
-      <c r="G86" t="n">
-        <v>1.0</v>
+      <c r="G86" t="s">
+        <v>41</v>
       </c>
       <c r="H86" t="n">
         <v>3.0</v>
@@ -12434,7 +12437,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12458,7 +12461,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12504,13 +12507,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12535,8 +12538,8 @@
       <c r="F87" t="s">
         <v>119</v>
       </c>
-      <c r="G87" t="n">
-        <v>0.0</v>
+      <c r="G87" t="s">
+        <v>42</v>
       </c>
       <c r="H87" t="n">
         <v>3.0</v>
@@ -12563,7 +12566,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12587,7 +12590,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12633,13 +12636,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12664,8 +12667,8 @@
       <c r="F88" t="s">
         <v>119</v>
       </c>
-      <c r="G88" t="n">
-        <v>0.0</v>
+      <c r="G88" t="s">
+        <v>42</v>
       </c>
       <c r="H88" t="n">
         <v>0.0</v>
@@ -12692,7 +12695,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12716,7 +12719,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12762,13 +12765,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12793,8 +12796,8 @@
       <c r="F89" t="s">
         <v>119</v>
       </c>
-      <c r="G89" t="n">
-        <v>0.0</v>
+      <c r="G89" t="s">
+        <v>42</v>
       </c>
       <c r="H89" t="n">
         <v>3.0</v>
@@ -12821,7 +12824,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12845,7 +12848,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12891,13 +12894,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12922,8 +12925,8 @@
       <c r="F90" t="s">
         <v>121</v>
       </c>
-      <c r="G90" t="n">
-        <v>0.0</v>
+      <c r="G90" t="s">
+        <v>42</v>
       </c>
       <c r="H90" t="n">
         <v>3.0</v>
@@ -12950,7 +12953,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12974,7 +12977,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -13018,13 +13021,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -13049,8 +13052,8 @@
       <c r="F91" t="s">
         <v>121</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.0</v>
+      <c r="G91" t="s">
+        <v>42</v>
       </c>
       <c r="H91" t="n">
         <v>3.0</v>
@@ -13077,7 +13080,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -13101,7 +13104,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13147,13 +13150,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13178,8 +13181,8 @@
       <c r="F92" t="s">
         <v>119</v>
       </c>
-      <c r="G92" t="n">
-        <v>0.0</v>
+      <c r="G92" t="s">
+        <v>42</v>
       </c>
       <c r="H92" t="n">
         <v>3.0</v>
@@ -13206,7 +13209,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13230,7 +13233,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13276,13 +13279,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13307,8 +13310,8 @@
       <c r="F93" t="s">
         <v>119</v>
       </c>
-      <c r="G93" t="n">
-        <v>0.0</v>
+      <c r="G93" t="s">
+        <v>42</v>
       </c>
       <c r="H93" t="n">
         <v>3.0</v>
@@ -13335,7 +13338,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13359,7 +13362,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13405,13 +13408,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13436,8 +13439,8 @@
       <c r="F94" t="s">
         <v>121</v>
       </c>
-      <c r="G94" t="n">
-        <v>0.0</v>
+      <c r="G94" t="s">
+        <v>42</v>
       </c>
       <c r="H94" t="n">
         <v>1.0</v>
@@ -13464,7 +13467,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13488,7 +13491,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13534,13 +13537,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13565,8 +13568,8 @@
       <c r="F95" t="s">
         <v>119</v>
       </c>
-      <c r="G95" t="n">
-        <v>0.0</v>
+      <c r="G95" t="s">
+        <v>42</v>
       </c>
       <c r="H95" t="n">
         <v>3.0</v>
@@ -13617,7 +13620,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13663,13 +13666,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13694,8 +13697,8 @@
       <c r="F96" t="s">
         <v>119</v>
       </c>
-      <c r="G96" t="n">
-        <v>0.0</v>
+      <c r="G96" t="s">
+        <v>42</v>
       </c>
       <c r="H96" t="n">
         <v>3.0</v>
@@ -13722,7 +13725,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13740,7 +13743,7 @@
       <c r="V96"/>
       <c r="W96"/>
       <c r="X96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13786,13 +13789,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13817,8 +13820,8 @@
       <c r="F97" t="s">
         <v>119</v>
       </c>
-      <c r="G97" t="n">
-        <v>0.0</v>
+      <c r="G97" t="s">
+        <v>42</v>
       </c>
       <c r="H97" t="n">
         <v>2.0</v>
@@ -13845,7 +13848,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13869,7 +13872,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13913,13 +13916,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13944,8 +13947,8 @@
       <c r="F98" t="s">
         <v>119</v>
       </c>
-      <c r="G98" t="n">
-        <v>0.0</v>
+      <c r="G98" t="s">
+        <v>42</v>
       </c>
       <c r="H98" t="n">
         <v>0.0</v>
@@ -13972,7 +13975,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13996,7 +13999,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -14040,13 +14043,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -14071,8 +14074,8 @@
       <c r="F99" t="s">
         <v>121</v>
       </c>
-      <c r="G99" t="n">
-        <v>0.0</v>
+      <c r="G99" t="s">
+        <v>42</v>
       </c>
       <c r="H99" t="n">
         <v>3.0</v>
@@ -14099,7 +14102,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -14123,7 +14126,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14169,13 +14172,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14200,8 +14203,8 @@
       <c r="F100" t="s">
         <v>119</v>
       </c>
-      <c r="G100" t="n">
-        <v>0.0</v>
+      <c r="G100" t="s">
+        <v>42</v>
       </c>
       <c r="H100" t="n">
         <v>3.0</v>
@@ -14228,7 +14231,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14252,7 +14255,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14298,13 +14301,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14329,8 +14332,8 @@
       <c r="F101" t="s">
         <v>119</v>
       </c>
-      <c r="G101" t="n">
-        <v>0.0</v>
+      <c r="G101" t="s">
+        <v>42</v>
       </c>
       <c r="H101" t="n">
         <v>3.0</v>
@@ -14357,7 +14360,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14381,7 +14384,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14425,13 +14428,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14456,8 +14459,8 @@
       <c r="F102" t="s">
         <v>119</v>
       </c>
-      <c r="G102" t="n">
-        <v>0.0</v>
+      <c r="G102" t="s">
+        <v>42</v>
       </c>
       <c r="H102" t="n">
         <v>3.0</v>
@@ -14484,7 +14487,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14508,7 +14511,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14554,13 +14557,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14585,8 +14588,8 @@
       <c r="F103" t="s">
         <v>119</v>
       </c>
-      <c r="G103" t="n">
-        <v>1.0</v>
+      <c r="G103" t="s">
+        <v>41</v>
       </c>
       <c r="H103" t="n">
         <v>1.0</v>
@@ -14613,7 +14616,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14637,7 +14640,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14683,13 +14686,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14714,8 +14717,8 @@
       <c r="F104" t="s">
         <v>119</v>
       </c>
-      <c r="G104" t="n">
-        <v>0.0</v>
+      <c r="G104" t="s">
+        <v>42</v>
       </c>
       <c r="H104" t="n">
         <v>1.0</v>
@@ -14742,7 +14745,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14766,7 +14769,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14812,13 +14815,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14843,8 +14846,8 @@
       <c r="F105" t="s">
         <v>119</v>
       </c>
-      <c r="G105" t="n">
-        <v>0.0</v>
+      <c r="G105" t="s">
+        <v>42</v>
       </c>
       <c r="H105" t="n">
         <v>3.0</v>
@@ -14871,7 +14874,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14895,7 +14898,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14941,13 +14944,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14972,8 +14975,8 @@
       <c r="F106" t="s">
         <v>119</v>
       </c>
-      <c r="G106" t="n">
-        <v>0.0</v>
+      <c r="G106" t="s">
+        <v>42</v>
       </c>
       <c r="H106" t="n">
         <v>3.0</v>
@@ -15000,7 +15003,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -15024,7 +15027,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -15072,13 +15075,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -15103,8 +15106,8 @@
       <c r="F107" t="s">
         <v>119</v>
       </c>
-      <c r="G107" t="n">
-        <v>0.0</v>
+      <c r="G107" t="s">
+        <v>42</v>
       </c>
       <c r="H107" t="n">
         <v>3.0</v>
@@ -15155,7 +15158,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15199,13 +15202,13 @@
       </c>
       <c r="AM107"/>
       <c r="AN107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15230,8 +15233,8 @@
       <c r="F108" t="s">
         <v>119</v>
       </c>
-      <c r="G108" t="n">
-        <v>0.0</v>
+      <c r="G108" t="s">
+        <v>42</v>
       </c>
       <c r="H108" t="n">
         <v>3.0</v>
@@ -15258,7 +15261,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15282,7 +15285,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15328,13 +15331,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15359,8 +15362,8 @@
       <c r="F109" t="s">
         <v>119</v>
       </c>
-      <c r="G109" t="n">
-        <v>0.0</v>
+      <c r="G109" t="s">
+        <v>42</v>
       </c>
       <c r="H109" t="n">
         <v>3.0</v>
@@ -15387,7 +15390,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15411,7 +15414,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15457,13 +15460,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15488,8 +15491,8 @@
       <c r="F110" t="s">
         <v>119</v>
       </c>
-      <c r="G110" t="n">
-        <v>0.0</v>
+      <c r="G110" t="s">
+        <v>42</v>
       </c>
       <c r="H110" t="n">
         <v>3.0</v>
@@ -15516,7 +15519,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15540,7 +15543,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15586,13 +15589,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15617,8 +15620,8 @@
       <c r="F111" t="s">
         <v>119</v>
       </c>
-      <c r="G111" t="n">
-        <v>0.0</v>
+      <c r="G111" t="s">
+        <v>42</v>
       </c>
       <c r="H111" t="n">
         <v>3.0</v>
@@ -15645,7 +15648,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15669,7 +15672,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15715,13 +15718,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15746,8 +15749,8 @@
       <c r="F112" t="s">
         <v>119</v>
       </c>
-      <c r="G112" t="n">
-        <v>0.0</v>
+      <c r="G112" t="s">
+        <v>42</v>
       </c>
       <c r="H112" t="n">
         <v>3.0</v>
@@ -15774,7 +15777,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15798,7 +15801,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15846,13 +15849,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15877,8 +15880,8 @@
       <c r="F113" t="s">
         <v>119</v>
       </c>
-      <c r="G113" t="n">
-        <v>0.0</v>
+      <c r="G113" t="s">
+        <v>42</v>
       </c>
       <c r="H113" t="n">
         <v>0.0</v>
@@ -15905,7 +15908,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15929,7 +15932,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15975,13 +15978,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -16006,8 +16009,8 @@
       <c r="F114" t="s">
         <v>119</v>
       </c>
-      <c r="G114" t="n">
-        <v>0.0</v>
+      <c r="G114" t="s">
+        <v>42</v>
       </c>
       <c r="H114" t="n">
         <v>0.0</v>
@@ -16034,7 +16037,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -16058,7 +16061,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -16104,13 +16107,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -16135,8 +16138,8 @@
       <c r="F115" t="s">
         <v>121</v>
       </c>
-      <c r="G115" t="n">
-        <v>0.0</v>
+      <c r="G115" t="s">
+        <v>42</v>
       </c>
       <c r="H115" t="n">
         <v>3.0</v>
@@ -16163,7 +16166,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -16187,7 +16190,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16235,13 +16238,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16266,8 +16269,8 @@
       <c r="F116" t="s">
         <v>119</v>
       </c>
-      <c r="G116" t="n">
-        <v>0.0</v>
+      <c r="G116" t="s">
+        <v>42</v>
       </c>
       <c r="H116" t="n">
         <v>0.0</v>
@@ -16294,7 +16297,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16318,7 +16321,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16364,13 +16367,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16395,8 +16398,8 @@
       <c r="F117" t="s">
         <v>119</v>
       </c>
-      <c r="G117" t="n">
-        <v>0.0</v>
+      <c r="G117" t="s">
+        <v>42</v>
       </c>
       <c r="H117" t="n">
         <v>0.0</v>
@@ -16423,7 +16426,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16447,7 +16450,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16493,13 +16496,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16524,8 +16527,8 @@
       <c r="F118" t="s">
         <v>119</v>
       </c>
-      <c r="G118" t="n">
-        <v>0.0</v>
+      <c r="G118" t="s">
+        <v>42</v>
       </c>
       <c r="H118" t="n">
         <v>0.0</v>
@@ -16552,7 +16555,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16576,7 +16579,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16622,13 +16625,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16653,8 +16656,8 @@
       <c r="F119" t="s">
         <v>119</v>
       </c>
-      <c r="G119" t="n">
-        <v>0.0</v>
+      <c r="G119" t="s">
+        <v>42</v>
       </c>
       <c r="H119" t="n">
         <v>3.0</v>
@@ -16681,7 +16684,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16705,7 +16708,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16753,13 +16756,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16784,8 +16787,8 @@
       <c r="F120" t="s">
         <v>119</v>
       </c>
-      <c r="G120" t="n">
-        <v>0.0</v>
+      <c r="G120" t="s">
+        <v>42</v>
       </c>
       <c r="H120" t="n">
         <v>3.0</v>
@@ -16812,7 +16815,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16836,7 +16839,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16882,13 +16885,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16913,8 +16916,8 @@
       <c r="F121" t="s">
         <v>119</v>
       </c>
-      <c r="G121" t="n">
-        <v>0.0</v>
+      <c r="G121" t="s">
+        <v>42</v>
       </c>
       <c r="H121" t="n">
         <v>3.0</v>
@@ -16941,7 +16944,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16965,7 +16968,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -17011,13 +17014,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -17042,8 +17045,8 @@
       <c r="F122" t="s">
         <v>119</v>
       </c>
-      <c r="G122" t="n">
-        <v>0.0</v>
+      <c r="G122" t="s">
+        <v>42</v>
       </c>
       <c r="H122" t="n">
         <v>2.0</v>
@@ -17070,7 +17073,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -17094,7 +17097,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -17140,13 +17143,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17171,8 +17174,8 @@
       <c r="F123" t="s">
         <v>119</v>
       </c>
-      <c r="G123" t="n">
-        <v>0.0</v>
+      <c r="G123" t="s">
+        <v>42</v>
       </c>
       <c r="H123" t="n">
         <v>0.0</v>
@@ -17199,7 +17202,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17223,7 +17226,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17269,13 +17272,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17300,8 +17303,8 @@
       <c r="F124" t="s">
         <v>119</v>
       </c>
-      <c r="G124" t="n">
-        <v>0.0</v>
+      <c r="G124" t="s">
+        <v>42</v>
       </c>
       <c r="H124" t="n">
         <v>1.0</v>
@@ -17328,7 +17331,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17352,7 +17355,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17398,13 +17401,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17429,8 +17432,8 @@
       <c r="F125" t="s">
         <v>119</v>
       </c>
-      <c r="G125" t="n">
-        <v>0.0</v>
+      <c r="G125" t="s">
+        <v>42</v>
       </c>
       <c r="H125" t="n">
         <v>0.0</v>
@@ -17457,7 +17460,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17481,7 +17484,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17527,13 +17530,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -2628,9 +2628,7 @@
       <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" t="n">
         <v>1.0</v>
       </c>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="386">
   <si>
     <t>Пациент</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>ноль</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
   <si>
     <t>0,5</t>
@@ -1521,7 +1524,7 @@
     <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.87890625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.58984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="4.67578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="5.54296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="9.515625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="33.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="20.6484375" customWidth="true" bestFit="true"/>
@@ -1560,16 +1563,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s" s="48">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s" s="68">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
@@ -1728,8 +1731,8 @@
       <c r="H3" t="n">
         <v>3.0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
+      <c r="I3" t="s">
+        <v>42</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -1750,7 +1753,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1774,7 +1777,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1826,10 +1829,10 @@
       </c>
       <c r="AO3"/>
       <c r="AP3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AQ3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -1857,8 +1860,8 @@
       <c r="H4" t="n">
         <v>3.0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
+      <c r="I4" t="s">
+        <v>42</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
@@ -1879,7 +1882,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1903,7 +1906,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1955,10 +1958,10 @@
       </c>
       <c r="AO4"/>
       <c r="AP4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AQ4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
@@ -1986,8 +1989,8 @@
       <c r="H5" t="n">
         <v>2.0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
+      <c r="I5" t="s">
+        <v>42</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
@@ -2008,7 +2011,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -2032,7 +2035,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -2084,10 +2087,10 @@
       </c>
       <c r="AO5"/>
       <c r="AP5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AQ5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
@@ -2115,8 +2118,8 @@
       <c r="H6" t="n">
         <v>2.0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
+      <c r="I6" t="s">
+        <v>42</v>
       </c>
       <c r="J6" t="n">
         <v>0.0</v>
@@ -2137,7 +2140,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -2161,7 +2164,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2213,10 +2216,10 @@
       </c>
       <c r="AO6"/>
       <c r="AP6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AQ6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -2244,8 +2247,8 @@
       <c r="H7" t="n">
         <v>2.0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
+      <c r="I7" t="s">
+        <v>42</v>
       </c>
       <c r="J7" t="n">
         <v>0.0</v>
@@ -2266,7 +2269,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2290,7 +2293,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2342,10 +2345,10 @@
       </c>
       <c r="AO7"/>
       <c r="AP7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
@@ -2373,8 +2376,8 @@
       <c r="H8" t="n">
         <v>2.0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.0</v>
+      <c r="I8" t="s">
+        <v>42</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
@@ -2395,7 +2398,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2419,7 +2422,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2471,10 +2474,10 @@
       </c>
       <c r="AO8"/>
       <c r="AP8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9">
@@ -2502,8 +2505,8 @@
       <c r="H9" t="n">
         <v>2.0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.0</v>
+      <c r="I9" t="s">
+        <v>41</v>
       </c>
       <c r="J9" t="n">
         <v>0.0</v>
@@ -2524,7 +2527,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2548,7 +2551,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2600,10 +2603,10 @@
       </c>
       <c r="AO9"/>
       <c r="AP9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10">
@@ -2629,8 +2632,8 @@
         <v>42</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" t="n">
-        <v>1.0</v>
+      <c r="I10" t="s">
+        <v>41</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
@@ -2651,7 +2654,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2675,7 +2678,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2727,10 +2730,10 @@
       </c>
       <c r="AO10"/>
       <c r="AP10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11">
@@ -2758,8 +2761,8 @@
       <c r="H11" t="n">
         <v>3.0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
+      <c r="I11" t="s" s="48">
+        <v>123</v>
       </c>
       <c r="J11" t="n">
         <v>0.0</v>
@@ -2780,7 +2783,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2804,7 +2807,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2856,10 +2859,10 @@
       </c>
       <c r="AO11"/>
       <c r="AP11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12">
@@ -2887,8 +2890,8 @@
       <c r="H12" t="n">
         <v>3.0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
+      <c r="I12" t="s">
+        <v>42</v>
       </c>
       <c r="J12" t="n">
         <v>1.0</v>
@@ -2909,7 +2912,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2933,7 +2936,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2985,10 +2988,10 @@
       </c>
       <c r="AO12"/>
       <c r="AP12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13">
@@ -3016,8 +3019,8 @@
       <c r="H13" t="n">
         <v>2.0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.0</v>
+      <c r="I13" t="s">
+        <v>42</v>
       </c>
       <c r="J13" t="n">
         <v>0.0</v>
@@ -3038,7 +3041,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -3062,7 +3065,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -3114,10 +3117,10 @@
       </c>
       <c r="AO13"/>
       <c r="AP13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14">
@@ -3145,8 +3148,8 @@
       <c r="H14" t="n">
         <v>3.0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0.0</v>
+      <c r="I14" t="s">
+        <v>42</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
@@ -3167,7 +3170,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -3191,7 +3194,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3243,10 +3246,10 @@
       </c>
       <c r="AO14"/>
       <c r="AP14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15">
@@ -3274,8 +3277,8 @@
       <c r="H15" t="n">
         <v>2.0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.0</v>
+      <c r="I15" t="s">
+        <v>41</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
@@ -3296,7 +3299,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3320,7 +3323,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3372,10 +3375,10 @@
       </c>
       <c r="AO15"/>
       <c r="AP15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16">
@@ -3403,8 +3406,8 @@
       <c r="H16" t="n">
         <v>3.0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.0</v>
+      <c r="I16" t="s">
+        <v>42</v>
       </c>
       <c r="J16" t="n">
         <v>1.0</v>
@@ -3425,7 +3428,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3449,7 +3452,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3501,10 +3504,10 @@
       </c>
       <c r="AO16"/>
       <c r="AP16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17">
@@ -3532,8 +3535,8 @@
       <c r="H17" t="n">
         <v>3.0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1.0</v>
+      <c r="I17" t="s">
+        <v>41</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
@@ -3554,7 +3557,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3578,7 +3581,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3630,10 +3633,10 @@
       </c>
       <c r="AO17"/>
       <c r="AP17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18">
@@ -3661,8 +3664,8 @@
       <c r="H18" t="n">
         <v>3.0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0.0</v>
+      <c r="I18" t="s">
+        <v>42</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
@@ -3707,7 +3710,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3759,10 +3762,10 @@
       </c>
       <c r="AO18"/>
       <c r="AP18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19">
@@ -3790,8 +3793,8 @@
       <c r="H19" t="n">
         <v>2.0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.0</v>
+      <c r="I19" t="s">
+        <v>42</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
@@ -3836,7 +3839,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3888,10 +3891,10 @@
       </c>
       <c r="AO19"/>
       <c r="AP19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20">
@@ -3919,8 +3922,8 @@
       <c r="H20" t="n">
         <v>2.0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0.0</v>
+      <c r="I20" t="s">
+        <v>42</v>
       </c>
       <c r="J20" t="n">
         <v>0.0</v>
@@ -3941,7 +3944,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3965,7 +3968,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -4017,10 +4020,10 @@
       </c>
       <c r="AO20"/>
       <c r="AP20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21">
@@ -4048,8 +4051,8 @@
       <c r="H21" t="n">
         <v>3.0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.0</v>
+      <c r="I21" t="s">
+        <v>42</v>
       </c>
       <c r="J21" t="n">
         <v>0.0</v>
@@ -4070,7 +4073,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -4094,7 +4097,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4146,10 +4149,10 @@
       </c>
       <c r="AO21"/>
       <c r="AP21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22">
@@ -4177,8 +4180,8 @@
       <c r="H22" t="n">
         <v>2.0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0.0</v>
+      <c r="I22" t="s">
+        <v>42</v>
       </c>
       <c r="J22" t="n">
         <v>1.0</v>
@@ -4199,7 +4202,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4223,7 +4226,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4275,10 +4278,10 @@
       </c>
       <c r="AO22"/>
       <c r="AP22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23">
@@ -4306,8 +4309,8 @@
       <c r="H23" t="n">
         <v>3.0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.0</v>
+      <c r="I23" t="s">
+        <v>42</v>
       </c>
       <c r="J23" t="n">
         <v>0.0</v>
@@ -4328,7 +4331,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4352,7 +4355,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4404,10 +4407,10 @@
       </c>
       <c r="AO23"/>
       <c r="AP23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24">
@@ -4435,8 +4438,8 @@
       <c r="H24" t="n">
         <v>2.0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0.0</v>
+      <c r="I24" t="s">
+        <v>42</v>
       </c>
       <c r="J24" t="n">
         <v>0.0</v>
@@ -4457,7 +4460,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4481,7 +4484,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4533,10 +4536,10 @@
       </c>
       <c r="AO24"/>
       <c r="AP24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25">
@@ -4564,8 +4567,8 @@
       <c r="H25" t="n">
         <v>2.0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0.0</v>
+      <c r="I25" t="s">
+        <v>42</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
@@ -4586,7 +4589,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4610,7 +4613,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4662,10 +4665,10 @@
       </c>
       <c r="AO25"/>
       <c r="AP25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
@@ -4693,8 +4696,8 @@
       <c r="H26" t="n">
         <v>1.0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0.0</v>
+      <c r="I26" t="s">
+        <v>42</v>
       </c>
       <c r="J26" t="n">
         <v>1.0</v>
@@ -4715,7 +4718,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4739,7 +4742,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4791,10 +4794,10 @@
       </c>
       <c r="AO26"/>
       <c r="AP26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27">
@@ -4822,8 +4825,8 @@
       <c r="H27" t="n">
         <v>2.0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0.0</v>
+      <c r="I27" t="s">
+        <v>42</v>
       </c>
       <c r="J27" t="n">
         <v>1.0</v>
@@ -4844,7 +4847,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4868,7 +4871,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4916,10 +4919,10 @@
       </c>
       <c r="AO27"/>
       <c r="AP27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28">
@@ -4947,8 +4950,8 @@
       <c r="H28" t="n">
         <v>2.0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0.0</v>
+      <c r="I28" t="s">
+        <v>42</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
@@ -4969,7 +4972,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4993,7 +4996,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -5045,10 +5048,10 @@
       </c>
       <c r="AO28"/>
       <c r="AP28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29">
@@ -5076,8 +5079,8 @@
       <c r="H29" t="n">
         <v>3.0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.0</v>
+      <c r="I29" t="s">
+        <v>42</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
@@ -5098,7 +5101,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -5122,7 +5125,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5172,10 +5175,10 @@
       </c>
       <c r="AO29"/>
       <c r="AP29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30">
@@ -5203,8 +5206,8 @@
       <c r="H30" t="n">
         <v>2.0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0.0</v>
+      <c r="I30" t="s">
+        <v>42</v>
       </c>
       <c r="J30" t="n">
         <v>1.0</v>
@@ -5225,7 +5228,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5249,7 +5252,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5299,10 +5302,10 @@
       </c>
       <c r="AO30"/>
       <c r="AP30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31">
@@ -5330,8 +5333,8 @@
       <c r="H31" t="n">
         <v>1.0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0.0</v>
+      <c r="I31" t="s">
+        <v>42</v>
       </c>
       <c r="J31" t="n">
         <v>1.0</v>
@@ -5352,7 +5355,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5376,7 +5379,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5428,10 +5431,10 @@
       </c>
       <c r="AO31"/>
       <c r="AP31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AQ31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32">
@@ -5459,8 +5462,8 @@
       <c r="H32" t="n">
         <v>1.0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0.0</v>
+      <c r="I32" t="s">
+        <v>42</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
@@ -5481,7 +5484,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5505,7 +5508,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5557,10 +5560,10 @@
       </c>
       <c r="AO32"/>
       <c r="AP32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AQ32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33">
@@ -5588,8 +5591,8 @@
       <c r="H33" t="n">
         <v>1.0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0.0</v>
+      <c r="I33" t="s">
+        <v>42</v>
       </c>
       <c r="J33" t="n">
         <v>0.0</v>
@@ -5610,7 +5613,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5634,7 +5637,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5686,10 +5689,10 @@
       </c>
       <c r="AO33"/>
       <c r="AP33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AQ33" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34">
@@ -5717,8 +5720,8 @@
       <c r="H34" t="n">
         <v>3.0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0.0</v>
+      <c r="I34" t="s">
+        <v>42</v>
       </c>
       <c r="J34" t="n">
         <v>0.0</v>
@@ -5739,7 +5742,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5763,7 +5766,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5805,10 +5808,10 @@
       </c>
       <c r="AO34"/>
       <c r="AP34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AQ34" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35">
@@ -5836,8 +5839,8 @@
       <c r="H35" t="n">
         <v>3.0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0.0</v>
+      <c r="I35" t="s">
+        <v>42</v>
       </c>
       <c r="J35" t="n">
         <v>1.0</v>
@@ -5858,7 +5861,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5882,7 +5885,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5934,10 +5937,10 @@
       </c>
       <c r="AO35"/>
       <c r="AP35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AQ35" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36">
@@ -5965,8 +5968,8 @@
       <c r="H36" t="n">
         <v>3.0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0.0</v>
+      <c r="I36" t="s">
+        <v>42</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
@@ -5987,7 +5990,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -6011,7 +6014,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -6063,10 +6066,10 @@
       </c>
       <c r="AO36"/>
       <c r="AP36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AQ36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37">
@@ -6094,8 +6097,8 @@
       <c r="H37" t="n">
         <v>2.0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0.0</v>
+      <c r="I37" t="s">
+        <v>42</v>
       </c>
       <c r="J37" t="n">
         <v>0.0</v>
@@ -6116,7 +6119,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -6140,7 +6143,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6192,10 +6195,10 @@
       </c>
       <c r="AO37"/>
       <c r="AP37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AQ37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38">
@@ -6223,8 +6226,8 @@
       <c r="H38" t="n">
         <v>2.0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0.0</v>
+      <c r="I38" t="s">
+        <v>42</v>
       </c>
       <c r="J38" t="n">
         <v>0.0</v>
@@ -6245,7 +6248,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6269,7 +6272,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6321,10 +6324,10 @@
       </c>
       <c r="AO38"/>
       <c r="AP38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AQ38" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39">
@@ -6352,8 +6355,8 @@
       <c r="H39" t="n">
         <v>3.0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0.0</v>
+      <c r="I39" t="s">
+        <v>42</v>
       </c>
       <c r="J39" t="n">
         <v>0.0</v>
@@ -6374,7 +6377,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6398,7 +6401,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6446,10 +6449,10 @@
       </c>
       <c r="AO39"/>
       <c r="AP39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AQ39" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
@@ -6477,8 +6480,8 @@
       <c r="H40" t="n">
         <v>3.0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0.0</v>
+      <c r="I40" t="s">
+        <v>42</v>
       </c>
       <c r="J40" t="n">
         <v>0.0</v>
@@ -6523,7 +6526,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6575,10 +6578,10 @@
       </c>
       <c r="AO40"/>
       <c r="AP40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AQ40" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41">
@@ -6606,8 +6609,8 @@
       <c r="H41" t="n">
         <v>3.0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0.0</v>
+      <c r="I41" t="s">
+        <v>42</v>
       </c>
       <c r="J41" t="n">
         <v>1.0</v>
@@ -6628,7 +6631,7 @@
         <v>38.0</v>
       </c>
       <c r="P41" t="s" s="68">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6652,7 +6655,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6704,10 +6707,10 @@
       </c>
       <c r="AO41"/>
       <c r="AP41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AQ41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42">
@@ -6735,8 +6738,8 @@
       <c r="H42" t="n">
         <v>3.0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0.0</v>
+      <c r="I42" t="s">
+        <v>42</v>
       </c>
       <c r="J42" t="n">
         <v>0.0</v>
@@ -6757,7 +6760,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6781,7 +6784,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6833,10 +6836,10 @@
       </c>
       <c r="AO42"/>
       <c r="AP42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AQ42" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
@@ -6864,8 +6867,8 @@
       <c r="H43" t="n">
         <v>3.0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0.0</v>
+      <c r="I43" t="s">
+        <v>42</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
@@ -6886,7 +6889,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6910,7 +6913,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6962,10 +6965,10 @@
       </c>
       <c r="AO43"/>
       <c r="AP43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AQ43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
@@ -6993,8 +6996,8 @@
       <c r="H44" t="n">
         <v>3.0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0.0</v>
+      <c r="I44" t="s">
+        <v>42</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
@@ -7015,7 +7018,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -7039,7 +7042,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -7091,10 +7094,10 @@
       </c>
       <c r="AO44"/>
       <c r="AP44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AQ44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
@@ -7122,8 +7125,8 @@
       <c r="H45" t="n">
         <v>3.0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1.0</v>
+      <c r="I45" t="s">
+        <v>41</v>
       </c>
       <c r="J45" t="n">
         <v>0.0</v>
@@ -7144,7 +7147,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7168,7 +7171,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7220,10 +7223,10 @@
       </c>
       <c r="AO45"/>
       <c r="AP45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AQ45" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46">
@@ -7251,8 +7254,8 @@
       <c r="H46" t="n">
         <v>3.0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0.0</v>
+      <c r="I46" t="s">
+        <v>42</v>
       </c>
       <c r="J46" t="n">
         <v>0.0</v>
@@ -7273,7 +7276,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7297,7 +7300,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7349,10 +7352,10 @@
       </c>
       <c r="AO46"/>
       <c r="AP46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47">
@@ -7380,8 +7383,8 @@
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0.0</v>
+      <c r="I47" t="s">
+        <v>42</v>
       </c>
       <c r="J47" t="n">
         <v>1.0</v>
@@ -7402,7 +7405,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7426,7 +7429,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7478,10 +7481,10 @@
       </c>
       <c r="AO47"/>
       <c r="AP47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
@@ -7509,8 +7512,8 @@
       <c r="H48" t="n">
         <v>2.0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0.0</v>
+      <c r="I48" t="s">
+        <v>42</v>
       </c>
       <c r="J48" t="n">
         <v>0.0</v>
@@ -7531,7 +7534,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7555,7 +7558,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7607,10 +7610,10 @@
       </c>
       <c r="AO48"/>
       <c r="AP48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ48" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49">
@@ -7638,8 +7641,8 @@
       <c r="H49" t="n">
         <v>1.0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1.0</v>
+      <c r="I49" t="s">
+        <v>41</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -7660,7 +7663,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7684,7 +7687,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7736,10 +7739,10 @@
       </c>
       <c r="AO49"/>
       <c r="AP49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AQ49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50">
@@ -7767,8 +7770,8 @@
       <c r="H50" t="n">
         <v>3.0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1.0</v>
+      <c r="I50" t="s">
+        <v>41</v>
       </c>
       <c r="J50" t="n">
         <v>1.0</v>
@@ -7789,7 +7792,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7813,7 +7816,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7865,10 +7868,10 @@
       </c>
       <c r="AO50"/>
       <c r="AP50" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ50" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51">
@@ -7896,8 +7899,8 @@
       <c r="H51" t="n">
         <v>3.0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0.0</v>
+      <c r="I51" t="s">
+        <v>42</v>
       </c>
       <c r="J51" t="n">
         <v>0.0</v>
@@ -7918,7 +7921,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7942,7 +7945,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7994,10 +7997,10 @@
       </c>
       <c r="AO51"/>
       <c r="AP51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ51" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52">
@@ -8025,8 +8028,8 @@
       <c r="H52" t="n">
         <v>2.0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0.0</v>
+      <c r="I52" t="s">
+        <v>42</v>
       </c>
       <c r="J52" t="n">
         <v>0.0</v>
@@ -8047,7 +8050,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -8071,7 +8074,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -8123,10 +8126,10 @@
       </c>
       <c r="AO52"/>
       <c r="AP52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AQ52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53">
@@ -8154,8 +8157,8 @@
       <c r="H53" t="n">
         <v>3.0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0.0</v>
+      <c r="I53" t="s">
+        <v>42</v>
       </c>
       <c r="J53" t="n">
         <v>0.0</v>
@@ -8176,7 +8179,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -8200,7 +8203,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8252,10 +8255,10 @@
       </c>
       <c r="AO53"/>
       <c r="AP53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AQ53" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54">
@@ -8283,8 +8286,8 @@
       <c r="H54" t="n">
         <v>3.0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0.0</v>
+      <c r="I54" t="s">
+        <v>42</v>
       </c>
       <c r="J54" t="n">
         <v>0.0</v>
@@ -8305,7 +8308,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s" s="48">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8329,7 +8332,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8377,13 +8380,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8414,8 +8417,8 @@
       <c r="H55" t="n">
         <v>1.0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0.0</v>
+      <c r="I55" t="s">
+        <v>42</v>
       </c>
       <c r="J55" t="n">
         <v>0.0</v>
@@ -8436,7 +8439,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8460,7 +8463,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8506,13 +8509,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8543,8 +8546,8 @@
       <c r="H56" t="n">
         <v>0.0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0.0</v>
+      <c r="I56" t="s">
+        <v>42</v>
       </c>
       <c r="J56" t="n">
         <v>1.0</v>
@@ -8565,7 +8568,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8589,7 +8592,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8637,13 +8640,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8674,8 +8677,8 @@
       <c r="H57" t="n">
         <v>0.0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0.0</v>
+      <c r="I57" t="s">
+        <v>42</v>
       </c>
       <c r="J57" t="n">
         <v>1.0</v>
@@ -8696,7 +8699,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8720,7 +8723,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8768,13 +8771,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8805,8 +8808,8 @@
       <c r="H58" t="n">
         <v>3.0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0.0</v>
+      <c r="I58" t="s">
+        <v>42</v>
       </c>
       <c r="J58" t="n">
         <v>0.0</v>
@@ -8827,7 +8830,7 @@
         <v>76.0</v>
       </c>
       <c r="P58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8851,7 +8854,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8897,13 +8900,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8934,8 +8937,8 @@
       <c r="H59" t="n">
         <v>0.0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1.0</v>
+      <c r="I59" t="s">
+        <v>41</v>
       </c>
       <c r="J59" t="n">
         <v>0.0</v>
@@ -8956,7 +8959,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8980,7 +8983,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -9026,13 +9029,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -9063,8 +9066,8 @@
       <c r="H60" t="n">
         <v>1.0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0.0</v>
+      <c r="I60" t="s">
+        <v>42</v>
       </c>
       <c r="J60" t="n">
         <v>0.0</v>
@@ -9085,7 +9088,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -9109,7 +9112,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9155,13 +9158,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9192,8 +9195,8 @@
       <c r="H61" t="n">
         <v>0.0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.0</v>
+      <c r="I61" t="s">
+        <v>42</v>
       </c>
       <c r="J61" t="n">
         <v>0.0</v>
@@ -9238,7 +9241,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9286,13 +9289,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9323,8 +9326,8 @@
       <c r="H62" t="n">
         <v>2.0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0.0</v>
+      <c r="I62" t="s">
+        <v>42</v>
       </c>
       <c r="J62" t="n">
         <v>0.0</v>
@@ -9345,7 +9348,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9369,7 +9372,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9415,13 +9418,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9452,8 +9455,8 @@
       <c r="H63" t="n">
         <v>0.0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1.0</v>
+      <c r="I63" t="s">
+        <v>41</v>
       </c>
       <c r="J63" t="n">
         <v>0.0</v>
@@ -9474,7 +9477,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9498,7 +9501,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9544,13 +9547,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9581,8 +9584,8 @@
       <c r="H64" t="n">
         <v>3.0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1.0</v>
+      <c r="I64" t="s">
+        <v>41</v>
       </c>
       <c r="J64" t="n">
         <v>1.0</v>
@@ -9603,7 +9606,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9627,7 +9630,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9673,13 +9676,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9710,8 +9713,8 @@
       <c r="H65" t="n">
         <v>3.0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0.0</v>
+      <c r="I65" t="s">
+        <v>42</v>
       </c>
       <c r="J65" t="n">
         <v>1.0</v>
@@ -9732,7 +9735,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9756,7 +9759,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9802,13 +9805,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9839,8 +9842,8 @@
       <c r="H66" t="n">
         <v>1.0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1.0</v>
+      <c r="I66" t="s">
+        <v>41</v>
       </c>
       <c r="J66" t="n">
         <v>1.0</v>
@@ -9861,7 +9864,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9885,7 +9888,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9929,13 +9932,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9966,8 +9969,8 @@
       <c r="H67" t="n">
         <v>3.0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0.0</v>
+      <c r="I67" t="s">
+        <v>42</v>
       </c>
       <c r="J67" t="n">
         <v>0.0</v>
@@ -9988,7 +9991,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -10012,7 +10015,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -10058,13 +10061,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -10095,8 +10098,8 @@
       <c r="H68" t="n">
         <v>3.0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0.0</v>
+      <c r="I68" t="s">
+        <v>42</v>
       </c>
       <c r="J68" t="n">
         <v>0.0</v>
@@ -10117,7 +10120,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -10141,7 +10144,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10187,13 +10190,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10224,8 +10227,8 @@
       <c r="H69" t="n">
         <v>1.0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0.0</v>
+      <c r="I69" t="s">
+        <v>42</v>
       </c>
       <c r="J69" t="n">
         <v>1.0</v>
@@ -10246,7 +10249,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10270,7 +10273,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10316,13 +10319,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10353,8 +10356,8 @@
       <c r="H70" t="n">
         <v>0.0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0.0</v>
+      <c r="I70" t="s">
+        <v>42</v>
       </c>
       <c r="J70" t="n">
         <v>0.0</v>
@@ -10375,7 +10378,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10399,7 +10402,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10443,13 +10446,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10480,8 +10483,8 @@
       <c r="H71" t="n">
         <v>3.0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0.0</v>
+      <c r="I71" t="s">
+        <v>42</v>
       </c>
       <c r="J71" t="n">
         <v>0.0</v>
@@ -10502,7 +10505,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10526,7 +10529,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10570,13 +10573,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10607,8 +10610,8 @@
       <c r="H72" t="n">
         <v>0.0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0.0</v>
+      <c r="I72" t="s">
+        <v>42</v>
       </c>
       <c r="J72" t="n">
         <v>0.0</v>
@@ -10629,7 +10632,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10653,7 +10656,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10699,13 +10702,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10736,8 +10739,8 @@
       <c r="H73" t="n">
         <v>1.0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0.0</v>
+      <c r="I73" t="s">
+        <v>42</v>
       </c>
       <c r="J73" t="n">
         <v>0.0</v>
@@ -10782,7 +10785,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10828,13 +10831,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10865,8 +10868,8 @@
       <c r="H74" t="n">
         <v>2.0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1.0</v>
+      <c r="I74" t="s">
+        <v>41</v>
       </c>
       <c r="J74" t="n">
         <v>0.0</v>
@@ -10887,7 +10890,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10911,7 +10914,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10957,13 +10960,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -10994,8 +10997,8 @@
       <c r="H75" t="n">
         <v>3.0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0.0</v>
+      <c r="I75" t="s">
+        <v>42</v>
       </c>
       <c r="J75" t="n">
         <v>1.0</v>
@@ -11016,7 +11019,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -11040,7 +11043,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -11086,13 +11089,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -11123,8 +11126,8 @@
       <c r="H76" t="n">
         <v>1.0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0.0</v>
+      <c r="I76" t="s">
+        <v>42</v>
       </c>
       <c r="J76" t="n">
         <v>0.0</v>
@@ -11145,7 +11148,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -11169,7 +11172,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11213,13 +11216,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11250,8 +11253,8 @@
       <c r="H77" t="n">
         <v>2.0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1.0</v>
+      <c r="I77" t="s">
+        <v>41</v>
       </c>
       <c r="J77" t="n">
         <v>0.0</v>
@@ -11272,7 +11275,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11296,7 +11299,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11342,13 +11345,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11379,8 +11382,8 @@
       <c r="H78" t="n">
         <v>3.0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0.0</v>
+      <c r="I78" t="s">
+        <v>42</v>
       </c>
       <c r="J78" t="n">
         <v>0.0</v>
@@ -11401,7 +11404,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11425,7 +11428,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11471,13 +11474,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11508,8 +11511,8 @@
       <c r="H79" t="n">
         <v>1.0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0.0</v>
+      <c r="I79" t="s">
+        <v>42</v>
       </c>
       <c r="J79" t="n">
         <v>0.0</v>
@@ -11530,7 +11533,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11554,7 +11557,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11600,13 +11603,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11637,8 +11640,8 @@
       <c r="H80" t="n">
         <v>1.0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1.0</v>
+      <c r="I80" t="s">
+        <v>41</v>
       </c>
       <c r="J80" t="n">
         <v>0.0</v>
@@ -11659,7 +11662,7 @@
         <v>85.0</v>
       </c>
       <c r="P80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11683,7 +11686,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11729,13 +11732,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11766,8 +11769,8 @@
       <c r="H81" t="n">
         <v>2.0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0.0</v>
+      <c r="I81" t="s">
+        <v>42</v>
       </c>
       <c r="J81" t="n">
         <v>1.0</v>
@@ -11788,7 +11791,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11812,7 +11815,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11860,13 +11863,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11897,8 +11900,8 @@
       <c r="H82" t="n">
         <v>2.0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0.0</v>
+      <c r="I82" t="s">
+        <v>42</v>
       </c>
       <c r="J82" t="n">
         <v>0.0</v>
@@ -11943,7 +11946,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11989,13 +11992,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -12026,8 +12029,8 @@
       <c r="H83" t="n">
         <v>2.0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0.0</v>
+      <c r="I83" t="s">
+        <v>42</v>
       </c>
       <c r="J83" t="n">
         <v>0.0</v>
@@ -12048,7 +12051,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -12072,7 +12075,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -12118,13 +12121,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -12155,8 +12158,8 @@
       <c r="H84" t="n">
         <v>3.0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0.0</v>
+      <c r="I84" t="s">
+        <v>42</v>
       </c>
       <c r="J84" t="n">
         <v>0.0</v>
@@ -12177,7 +12180,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -12201,7 +12204,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12247,13 +12250,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12284,8 +12287,8 @@
       <c r="H85" t="n">
         <v>2.0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0.0</v>
+      <c r="I85" t="s">
+        <v>42</v>
       </c>
       <c r="J85" t="n">
         <v>0.0</v>
@@ -12306,7 +12309,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12330,7 +12333,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12376,13 +12379,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12413,8 +12416,8 @@
       <c r="H86" t="n">
         <v>3.0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0.0</v>
+      <c r="I86" t="s">
+        <v>42</v>
       </c>
       <c r="J86" t="n">
         <v>0.0</v>
@@ -12435,7 +12438,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12459,7 +12462,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12505,13 +12508,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12542,8 +12545,8 @@
       <c r="H87" t="n">
         <v>3.0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0.0</v>
+      <c r="I87" t="s">
+        <v>42</v>
       </c>
       <c r="J87" t="n">
         <v>0.0</v>
@@ -12564,7 +12567,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12588,7 +12591,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12634,13 +12637,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12671,8 +12674,8 @@
       <c r="H88" t="n">
         <v>0.0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0.0</v>
+      <c r="I88" t="s">
+        <v>42</v>
       </c>
       <c r="J88" t="n">
         <v>0.0</v>
@@ -12693,7 +12696,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12717,7 +12720,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12763,13 +12766,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12800,8 +12803,8 @@
       <c r="H89" t="n">
         <v>3.0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0.0</v>
+      <c r="I89" t="s">
+        <v>42</v>
       </c>
       <c r="J89" t="n">
         <v>1.0</v>
@@ -12822,7 +12825,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12846,7 +12849,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12892,13 +12895,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12929,8 +12932,8 @@
       <c r="H90" t="n">
         <v>3.0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0.0</v>
+      <c r="I90" t="s">
+        <v>42</v>
       </c>
       <c r="J90" t="n">
         <v>0.0</v>
@@ -12951,7 +12954,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12975,7 +12978,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -13019,13 +13022,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -13056,8 +13059,8 @@
       <c r="H91" t="n">
         <v>3.0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1.0</v>
+      <c r="I91" t="s">
+        <v>41</v>
       </c>
       <c r="J91" t="n">
         <v>0.0</v>
@@ -13078,7 +13081,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -13102,7 +13105,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13148,13 +13151,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13185,8 +13188,8 @@
       <c r="H92" t="n">
         <v>3.0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0.0</v>
+      <c r="I92" t="s">
+        <v>42</v>
       </c>
       <c r="J92" t="n">
         <v>0.0</v>
@@ -13207,7 +13210,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13231,7 +13234,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13277,13 +13280,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13314,8 +13317,8 @@
       <c r="H93" t="n">
         <v>3.0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0.0</v>
+      <c r="I93" t="s">
+        <v>42</v>
       </c>
       <c r="J93" t="n">
         <v>0.0</v>
@@ -13336,7 +13339,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13360,7 +13363,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13406,13 +13409,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13443,8 +13446,8 @@
       <c r="H94" t="n">
         <v>1.0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0.0</v>
+      <c r="I94" t="s">
+        <v>42</v>
       </c>
       <c r="J94" t="n">
         <v>0.0</v>
@@ -13465,7 +13468,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13489,7 +13492,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13535,13 +13538,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13572,8 +13575,8 @@
       <c r="H95" t="n">
         <v>3.0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0.0</v>
+      <c r="I95" t="s">
+        <v>42</v>
       </c>
       <c r="J95" t="n">
         <v>0.0</v>
@@ -13618,7 +13621,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13664,13 +13667,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13701,8 +13704,8 @@
       <c r="H96" t="n">
         <v>3.0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0.0</v>
+      <c r="I96" t="s">
+        <v>42</v>
       </c>
       <c r="J96" t="n">
         <v>0.0</v>
@@ -13723,7 +13726,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13741,7 +13744,7 @@
       <c r="V96"/>
       <c r="W96"/>
       <c r="X96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13787,13 +13790,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13824,8 +13827,8 @@
       <c r="H97" t="n">
         <v>2.0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0.0</v>
+      <c r="I97" t="s">
+        <v>42</v>
       </c>
       <c r="J97" t="n">
         <v>0.0</v>
@@ -13846,7 +13849,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13870,7 +13873,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13914,13 +13917,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13951,8 +13954,8 @@
       <c r="H98" t="n">
         <v>0.0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0.0</v>
+      <c r="I98" t="s">
+        <v>42</v>
       </c>
       <c r="J98" t="n">
         <v>0.0</v>
@@ -13973,7 +13976,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13997,7 +14000,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -14041,13 +14044,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -14078,8 +14081,8 @@
       <c r="H99" t="n">
         <v>3.0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1.0</v>
+      <c r="I99" t="s">
+        <v>41</v>
       </c>
       <c r="J99" t="n">
         <v>0.0</v>
@@ -14100,7 +14103,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -14124,7 +14127,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14170,13 +14173,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14207,8 +14210,8 @@
       <c r="H100" t="n">
         <v>3.0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0.0</v>
+      <c r="I100" t="s">
+        <v>42</v>
       </c>
       <c r="J100" t="n">
         <v>1.0</v>
@@ -14229,7 +14232,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14253,7 +14256,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14299,13 +14302,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14336,8 +14339,8 @@
       <c r="H101" t="n">
         <v>3.0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0.0</v>
+      <c r="I101" t="s">
+        <v>42</v>
       </c>
       <c r="J101" t="n">
         <v>0.0</v>
@@ -14358,7 +14361,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14382,7 +14385,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14426,13 +14429,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14463,8 +14466,8 @@
       <c r="H102" t="n">
         <v>3.0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0.0</v>
+      <c r="I102" t="s">
+        <v>42</v>
       </c>
       <c r="J102" t="n">
         <v>0.0</v>
@@ -14485,7 +14488,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14509,7 +14512,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14555,13 +14558,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14592,8 +14595,8 @@
       <c r="H103" t="n">
         <v>1.0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0.0</v>
+      <c r="I103" t="s">
+        <v>42</v>
       </c>
       <c r="J103" t="n">
         <v>0.0</v>
@@ -14614,7 +14617,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14638,7 +14641,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14684,13 +14687,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14721,8 +14724,8 @@
       <c r="H104" t="n">
         <v>1.0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0.0</v>
+      <c r="I104" t="s">
+        <v>42</v>
       </c>
       <c r="J104" t="n">
         <v>0.0</v>
@@ -14743,7 +14746,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14767,7 +14770,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14813,13 +14816,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14850,8 +14853,8 @@
       <c r="H105" t="n">
         <v>3.0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0.0</v>
+      <c r="I105" t="s">
+        <v>42</v>
       </c>
       <c r="J105" t="n">
         <v>1.0</v>
@@ -14872,7 +14875,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14896,7 +14899,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14942,13 +14945,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14979,8 +14982,8 @@
       <c r="H106" t="n">
         <v>3.0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0.0</v>
+      <c r="I106" t="s">
+        <v>42</v>
       </c>
       <c r="J106" t="n">
         <v>0.0</v>
@@ -15001,7 +15004,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -15025,7 +15028,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -15073,13 +15076,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -15110,8 +15113,8 @@
       <c r="H107" t="n">
         <v>3.0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1.0</v>
+      <c r="I107" t="s">
+        <v>41</v>
       </c>
       <c r="J107" t="n">
         <v>0.0</v>
@@ -15156,7 +15159,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15200,13 +15203,13 @@
       </c>
       <c r="AM107"/>
       <c r="AN107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15237,8 +15240,8 @@
       <c r="H108" t="n">
         <v>3.0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0.0</v>
+      <c r="I108" t="s">
+        <v>42</v>
       </c>
       <c r="J108" t="n">
         <v>0.0</v>
@@ -15259,7 +15262,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15283,7 +15286,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15329,13 +15332,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15366,8 +15369,8 @@
       <c r="H109" t="n">
         <v>3.0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0.0</v>
+      <c r="I109" t="s">
+        <v>42</v>
       </c>
       <c r="J109" t="n">
         <v>0.0</v>
@@ -15388,7 +15391,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15412,7 +15415,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15458,13 +15461,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15495,8 +15498,8 @@
       <c r="H110" t="n">
         <v>3.0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0.0</v>
+      <c r="I110" t="s">
+        <v>42</v>
       </c>
       <c r="J110" t="n">
         <v>0.0</v>
@@ -15517,7 +15520,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15541,7 +15544,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15587,13 +15590,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15624,8 +15627,8 @@
       <c r="H111" t="n">
         <v>3.0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0.0</v>
+      <c r="I111" t="s">
+        <v>42</v>
       </c>
       <c r="J111" t="n">
         <v>0.0</v>
@@ -15646,7 +15649,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15670,7 +15673,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15716,13 +15719,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15753,8 +15756,8 @@
       <c r="H112" t="n">
         <v>3.0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0.0</v>
+      <c r="I112" t="s">
+        <v>42</v>
       </c>
       <c r="J112" t="n">
         <v>0.0</v>
@@ -15775,7 +15778,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15799,7 +15802,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15847,13 +15850,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15884,8 +15887,8 @@
       <c r="H113" t="n">
         <v>0.0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0.0</v>
+      <c r="I113" t="s">
+        <v>42</v>
       </c>
       <c r="J113" t="n">
         <v>0.0</v>
@@ -15906,7 +15909,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15930,7 +15933,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15976,13 +15979,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -16013,8 +16016,8 @@
       <c r="H114" t="n">
         <v>0.0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0.0</v>
+      <c r="I114" t="s">
+        <v>42</v>
       </c>
       <c r="J114" t="n">
         <v>0.0</v>
@@ -16035,7 +16038,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -16059,7 +16062,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -16105,13 +16108,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -16142,8 +16145,8 @@
       <c r="H115" t="n">
         <v>3.0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1.0</v>
+      <c r="I115" t="s">
+        <v>41</v>
       </c>
       <c r="J115" t="n">
         <v>0.0</v>
@@ -16164,7 +16167,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -16188,7 +16191,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16236,13 +16239,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16273,8 +16276,8 @@
       <c r="H116" t="n">
         <v>0.0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0.0</v>
+      <c r="I116" t="s">
+        <v>42</v>
       </c>
       <c r="J116" t="n">
         <v>0.0</v>
@@ -16295,7 +16298,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16319,7 +16322,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16365,13 +16368,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16402,8 +16405,8 @@
       <c r="H117" t="n">
         <v>0.0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1.0</v>
+      <c r="I117" t="s">
+        <v>41</v>
       </c>
       <c r="J117" t="n">
         <v>1.0</v>
@@ -16424,7 +16427,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16448,7 +16451,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16494,13 +16497,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16531,8 +16534,8 @@
       <c r="H118" t="n">
         <v>0.0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0.0</v>
+      <c r="I118" t="s">
+        <v>42</v>
       </c>
       <c r="J118" t="n">
         <v>0.0</v>
@@ -16553,7 +16556,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16577,7 +16580,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16623,13 +16626,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16660,8 +16663,8 @@
       <c r="H119" t="n">
         <v>3.0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0.0</v>
+      <c r="I119" t="s">
+        <v>42</v>
       </c>
       <c r="J119" t="n">
         <v>0.0</v>
@@ -16682,7 +16685,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16706,7 +16709,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16754,13 +16757,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16791,8 +16794,8 @@
       <c r="H120" t="n">
         <v>3.0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0.0</v>
+      <c r="I120" t="s">
+        <v>42</v>
       </c>
       <c r="J120" t="n">
         <v>0.0</v>
@@ -16813,7 +16816,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16837,7 +16840,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16883,13 +16886,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16920,8 +16923,8 @@
       <c r="H121" t="n">
         <v>3.0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0.0</v>
+      <c r="I121" t="s">
+        <v>42</v>
       </c>
       <c r="J121" t="n">
         <v>0.0</v>
@@ -16942,7 +16945,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16966,7 +16969,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -17012,13 +17015,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -17049,8 +17052,8 @@
       <c r="H122" t="n">
         <v>2.0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0.0</v>
+      <c r="I122" t="s">
+        <v>42</v>
       </c>
       <c r="J122" t="n">
         <v>0.0</v>
@@ -17071,7 +17074,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -17095,7 +17098,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -17141,13 +17144,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17178,8 +17181,8 @@
       <c r="H123" t="n">
         <v>0.0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0.0</v>
+      <c r="I123" t="s">
+        <v>42</v>
       </c>
       <c r="J123" t="n">
         <v>0.0</v>
@@ -17200,7 +17203,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17224,7 +17227,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17270,13 +17273,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17307,8 +17310,8 @@
       <c r="H124" t="n">
         <v>1.0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0.0</v>
+      <c r="I124" t="s">
+        <v>42</v>
       </c>
       <c r="J124" t="n">
         <v>1.0</v>
@@ -17329,7 +17332,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17353,7 +17356,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17399,13 +17402,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17436,8 +17439,8 @@
       <c r="H125" t="n">
         <v>0.0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0.0</v>
+      <c r="I125" t="s">
+        <v>42</v>
       </c>
       <c r="J125" t="n">
         <v>0.0</v>
@@ -17458,7 +17461,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17482,7 +17485,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17528,13 +17531,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -383,7 +383,7 @@
     <t>ноль</t>
   </si>
   <si>
-    <t>aaaa</t>
+    <t>нет</t>
   </si>
   <si>
     <t>0,5</t>
@@ -1524,7 +1524,7 @@
     <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.87890625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.58984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="5.54296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.67578125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="9.515625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="33.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="20.6484375" customWidth="true" bestFit="true"/>
@@ -1731,11 +1731,11 @@
       <c r="H3" t="n">
         <v>3.0</v>
       </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
       </c>
       <c r="K3" t="n">
         <v>0.0</v>
@@ -1860,11 +1860,11 @@
       <c r="H4" t="n">
         <v>3.0</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
@@ -1989,11 +1989,11 @@
       <c r="H5" t="n">
         <v>2.0</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
       </c>
       <c r="K5" t="n">
         <v>0.0</v>
@@ -2118,11 +2118,11 @@
       <c r="H6" t="n">
         <v>2.0</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
       </c>
       <c r="K6" t="n">
         <v>0.0</v>
@@ -2247,11 +2247,11 @@
       <c r="H7" t="n">
         <v>2.0</v>
       </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0</v>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="s" s="48">
+        <v>123</v>
       </c>
       <c r="K7" t="n">
         <v>1.0</v>
@@ -2376,11 +2376,11 @@
       <c r="H8" t="n">
         <v>2.0</v>
       </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0</v>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
       </c>
       <c r="K8" t="n">
         <v>0.0</v>
@@ -2505,11 +2505,11 @@
       <c r="H9" t="n">
         <v>2.0</v>
       </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0</v>
+      <c r="I9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
       </c>
       <c r="K9" t="n">
         <v>0.0</v>
@@ -2632,11 +2632,11 @@
         <v>42</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
+      <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
       </c>
       <c r="K10" t="n">
         <v>0.0</v>
@@ -2761,11 +2761,11 @@
       <c r="H11" t="n">
         <v>3.0</v>
       </c>
-      <c r="I11" t="s" s="48">
-        <v>123</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0</v>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
@@ -2890,11 +2890,11 @@
       <c r="H12" t="n">
         <v>3.0</v>
       </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.0</v>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
       </c>
       <c r="K12" t="n">
         <v>0.0</v>
@@ -3019,11 +3019,11 @@
       <c r="H13" t="n">
         <v>2.0</v>
       </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0</v>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
       </c>
       <c r="K13" t="n">
         <v>0.0</v>
@@ -3148,11 +3148,11 @@
       <c r="H14" t="n">
         <v>3.0</v>
       </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0</v>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
@@ -3277,11 +3277,11 @@
       <c r="H15" t="n">
         <v>2.0</v>
       </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.0</v>
+      <c r="I15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
@@ -3406,11 +3406,11 @@
       <c r="H16" t="n">
         <v>3.0</v>
       </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.0</v>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
       </c>
       <c r="K16" t="n">
         <v>0.0</v>
@@ -3535,11 +3535,11 @@
       <c r="H17" t="n">
         <v>3.0</v>
       </c>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.0</v>
+      <c r="I17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
       </c>
       <c r="K17" t="n">
         <v>0.0</v>
@@ -3664,11 +3664,11 @@
       <c r="H18" t="n">
         <v>3.0</v>
       </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0</v>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
       </c>
       <c r="K18" t="n">
         <v>0.0</v>
@@ -3793,11 +3793,11 @@
       <c r="H19" t="n">
         <v>2.0</v>
       </c>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0</v>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
       </c>
       <c r="K19" t="n">
         <v>0.0</v>
@@ -3922,11 +3922,11 @@
       <c r="H20" t="n">
         <v>2.0</v>
       </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.0</v>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
@@ -4051,11 +4051,11 @@
       <c r="H21" t="n">
         <v>3.0</v>
       </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.0</v>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
@@ -4180,11 +4180,11 @@
       <c r="H22" t="n">
         <v>2.0</v>
       </c>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.0</v>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
@@ -4309,11 +4309,11 @@
       <c r="H23" t="n">
         <v>3.0</v>
       </c>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.0</v>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
@@ -4438,11 +4438,11 @@
       <c r="H24" t="n">
         <v>2.0</v>
       </c>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.0</v>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -4567,11 +4567,11 @@
       <c r="H25" t="n">
         <v>2.0</v>
       </c>
-      <c r="I25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.0</v>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
       </c>
       <c r="K25" t="n">
         <v>0.0</v>
@@ -4696,11 +4696,11 @@
       <c r="H26" t="n">
         <v>1.0</v>
       </c>
-      <c r="I26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.0</v>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
@@ -4825,11 +4825,11 @@
       <c r="H27" t="n">
         <v>2.0</v>
       </c>
-      <c r="I27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.0</v>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
@@ -4950,11 +4950,11 @@
       <c r="H28" t="n">
         <v>2.0</v>
       </c>
-      <c r="I28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0</v>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
       </c>
       <c r="K28" t="n">
         <v>0.0</v>
@@ -5079,11 +5079,11 @@
       <c r="H29" t="n">
         <v>3.0</v>
       </c>
-      <c r="I29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0</v>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
       </c>
       <c r="K29" t="n">
         <v>1.0</v>
@@ -5206,11 +5206,11 @@
       <c r="H30" t="n">
         <v>2.0</v>
       </c>
-      <c r="I30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.0</v>
+      <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>41</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -5333,11 +5333,11 @@
       <c r="H31" t="n">
         <v>1.0</v>
       </c>
-      <c r="I31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.0</v>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -5462,11 +5462,11 @@
       <c r="H32" t="n">
         <v>1.0</v>
       </c>
-      <c r="I32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.0</v>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
@@ -5591,11 +5591,11 @@
       <c r="H33" t="n">
         <v>1.0</v>
       </c>
-      <c r="I33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.0</v>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
@@ -5720,11 +5720,11 @@
       <c r="H34" t="n">
         <v>3.0</v>
       </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.0</v>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
@@ -5839,11 +5839,11 @@
       <c r="H35" t="n">
         <v>3.0</v>
       </c>
-      <c r="I35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.0</v>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -5968,11 +5968,11 @@
       <c r="H36" t="n">
         <v>3.0</v>
       </c>
-      <c r="I36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.0</v>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
       </c>
       <c r="K36" t="n">
         <v>0.0</v>
@@ -6097,11 +6097,11 @@
       <c r="H37" t="n">
         <v>2.0</v>
       </c>
-      <c r="I37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.0</v>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -6226,11 +6226,11 @@
       <c r="H38" t="n">
         <v>2.0</v>
       </c>
-      <c r="I38" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.0</v>
+      <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>42</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -6355,11 +6355,11 @@
       <c r="H39" t="n">
         <v>3.0</v>
       </c>
-      <c r="I39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.0</v>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -6480,11 +6480,11 @@
       <c r="H40" t="n">
         <v>3.0</v>
       </c>
-      <c r="I40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.0</v>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -6609,11 +6609,11 @@
       <c r="H41" t="n">
         <v>3.0</v>
       </c>
-      <c r="I41" t="s">
-        <v>42</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.0</v>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>41</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -6738,11 +6738,11 @@
       <c r="H42" t="n">
         <v>3.0</v>
       </c>
-      <c r="I42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.0</v>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>42</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -6867,11 +6867,11 @@
       <c r="H43" t="n">
         <v>3.0</v>
       </c>
-      <c r="I43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.0</v>
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -6996,11 +6996,11 @@
       <c r="H44" t="n">
         <v>3.0</v>
       </c>
-      <c r="I44" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.0</v>
+      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>42</v>
       </c>
       <c r="K44" t="n">
         <v>0.0</v>
@@ -7125,11 +7125,11 @@
       <c r="H45" t="n">
         <v>3.0</v>
       </c>
-      <c r="I45" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.0</v>
+      <c r="I45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>42</v>
       </c>
       <c r="K45" t="n">
         <v>0.0</v>
@@ -7254,11 +7254,11 @@
       <c r="H46" t="n">
         <v>3.0</v>
       </c>
-      <c r="I46" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.0</v>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>42</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -7383,11 +7383,11 @@
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
-      <c r="I47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.0</v>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>41</v>
       </c>
       <c r="K47" t="n">
         <v>0.0</v>
@@ -7512,11 +7512,11 @@
       <c r="H48" t="n">
         <v>2.0</v>
       </c>
-      <c r="I48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.0</v>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>42</v>
       </c>
       <c r="K48" t="n">
         <v>0.0</v>
@@ -7641,11 +7641,11 @@
       <c r="H49" t="n">
         <v>1.0</v>
       </c>
-      <c r="I49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.0</v>
+      <c r="I49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>42</v>
       </c>
       <c r="K49" t="n">
         <v>0.0</v>
@@ -7770,11 +7770,11 @@
       <c r="H50" t="n">
         <v>3.0</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J50" t="s">
         <v>41</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.0</v>
       </c>
       <c r="K50" t="n">
         <v>0.0</v>
@@ -7899,11 +7899,11 @@
       <c r="H51" t="n">
         <v>3.0</v>
       </c>
-      <c r="I51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.0</v>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>42</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
@@ -8028,11 +8028,11 @@
       <c r="H52" t="n">
         <v>2.0</v>
       </c>
-      <c r="I52" t="s">
-        <v>42</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.0</v>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>42</v>
       </c>
       <c r="K52" t="n">
         <v>0.0</v>
@@ -8157,11 +8157,11 @@
       <c r="H53" t="n">
         <v>3.0</v>
       </c>
-      <c r="I53" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.0</v>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>42</v>
       </c>
       <c r="K53" t="n">
         <v>0.0</v>
@@ -8286,11 +8286,11 @@
       <c r="H54" t="n">
         <v>3.0</v>
       </c>
-      <c r="I54" t="s">
-        <v>42</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.0</v>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>42</v>
       </c>
       <c r="K54" t="n">
         <v>0.0</v>
@@ -8417,11 +8417,11 @@
       <c r="H55" t="n">
         <v>1.0</v>
       </c>
-      <c r="I55" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.0</v>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>42</v>
       </c>
       <c r="K55" t="n">
         <v>0.0</v>
@@ -8546,11 +8546,11 @@
       <c r="H56" t="n">
         <v>0.0</v>
       </c>
-      <c r="I56" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.0</v>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>41</v>
       </c>
       <c r="K56" t="n">
         <v>0.0</v>
@@ -8677,11 +8677,11 @@
       <c r="H57" t="n">
         <v>0.0</v>
       </c>
-      <c r="I57" t="s">
-        <v>42</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.0</v>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>41</v>
       </c>
       <c r="K57" t="n">
         <v>0.0</v>
@@ -8808,11 +8808,11 @@
       <c r="H58" t="n">
         <v>3.0</v>
       </c>
-      <c r="I58" t="s">
-        <v>42</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.0</v>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>42</v>
       </c>
       <c r="K58" t="n">
         <v>0.0</v>
@@ -8937,11 +8937,11 @@
       <c r="H59" t="n">
         <v>0.0</v>
       </c>
-      <c r="I59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.0</v>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>42</v>
       </c>
       <c r="K59" t="n">
         <v>0.0</v>
@@ -9066,11 +9066,11 @@
       <c r="H60" t="n">
         <v>1.0</v>
       </c>
-      <c r="I60" t="s">
-        <v>42</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.0</v>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>42</v>
       </c>
       <c r="K60" t="n">
         <v>0.0</v>
@@ -9195,11 +9195,11 @@
       <c r="H61" t="n">
         <v>0.0</v>
       </c>
-      <c r="I61" t="s">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.0</v>
+      <c r="I61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>42</v>
       </c>
       <c r="K61" t="n">
         <v>0.0</v>
@@ -9326,11 +9326,11 @@
       <c r="H62" t="n">
         <v>2.0</v>
       </c>
-      <c r="I62" t="s">
-        <v>42</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.0</v>
+      <c r="I62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
       </c>
       <c r="K62" t="n">
         <v>0.0</v>
@@ -9455,11 +9455,11 @@
       <c r="H63" t="n">
         <v>0.0</v>
       </c>
-      <c r="I63" t="s">
-        <v>41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.0</v>
+      <c r="I63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
       </c>
       <c r="K63" t="n">
         <v>0.0</v>
@@ -9584,11 +9584,11 @@
       <c r="H64" t="n">
         <v>3.0</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J64" t="s">
         <v>41</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.0</v>
       </c>
       <c r="K64" t="n">
         <v>0.0</v>
@@ -9713,11 +9713,11 @@
       <c r="H65" t="n">
         <v>3.0</v>
       </c>
-      <c r="I65" t="s">
-        <v>42</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.0</v>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>41</v>
       </c>
       <c r="K65" t="n">
         <v>0.0</v>
@@ -9842,11 +9842,11 @@
       <c r="H66" t="n">
         <v>1.0</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" t="s">
         <v>41</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.0</v>
       </c>
       <c r="K66" t="n">
         <v>0.0</v>
@@ -9969,11 +9969,11 @@
       <c r="H67" t="n">
         <v>3.0</v>
       </c>
-      <c r="I67" t="s">
-        <v>42</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.0</v>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>42</v>
       </c>
       <c r="K67" t="n">
         <v>0.0</v>
@@ -10098,11 +10098,11 @@
       <c r="H68" t="n">
         <v>3.0</v>
       </c>
-      <c r="I68" t="s">
-        <v>42</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.0</v>
+      <c r="I68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>42</v>
       </c>
       <c r="K68" t="n">
         <v>1.0</v>
@@ -10227,11 +10227,11 @@
       <c r="H69" t="n">
         <v>1.0</v>
       </c>
-      <c r="I69" t="s">
-        <v>42</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.0</v>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>41</v>
       </c>
       <c r="K69" t="n">
         <v>1.0</v>
@@ -10356,11 +10356,11 @@
       <c r="H70" t="n">
         <v>0.0</v>
       </c>
-      <c r="I70" t="s">
-        <v>42</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.0</v>
+      <c r="I70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>42</v>
       </c>
       <c r="K70" t="n">
         <v>0.0</v>
@@ -10483,11 +10483,11 @@
       <c r="H71" t="n">
         <v>3.0</v>
       </c>
-      <c r="I71" t="s">
-        <v>42</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.0</v>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>42</v>
       </c>
       <c r="K71" t="n">
         <v>0.0</v>
@@ -10610,11 +10610,11 @@
       <c r="H72" t="n">
         <v>0.0</v>
       </c>
-      <c r="I72" t="s">
-        <v>42</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.0</v>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>42</v>
       </c>
       <c r="K72" t="n">
         <v>0.0</v>
@@ -10739,11 +10739,11 @@
       <c r="H73" t="n">
         <v>1.0</v>
       </c>
-      <c r="I73" t="s">
-        <v>42</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.0</v>
+      <c r="I73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
       </c>
       <c r="K73" t="n">
         <v>1.0</v>
@@ -10868,11 +10868,11 @@
       <c r="H74" t="n">
         <v>2.0</v>
       </c>
-      <c r="I74" t="s">
-        <v>41</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.0</v>
+      <c r="I74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
       </c>
       <c r="K74" t="n">
         <v>0.0</v>
@@ -10997,11 +10997,11 @@
       <c r="H75" t="n">
         <v>3.0</v>
       </c>
-      <c r="I75" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.0</v>
+      <c r="I75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>41</v>
       </c>
       <c r="K75" t="n">
         <v>1.0</v>
@@ -11126,11 +11126,11 @@
       <c r="H76" t="n">
         <v>1.0</v>
       </c>
-      <c r="I76" t="s">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.0</v>
+      <c r="I76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>42</v>
       </c>
       <c r="K76" t="n">
         <v>0.0</v>
@@ -11253,11 +11253,11 @@
       <c r="H77" t="n">
         <v>2.0</v>
       </c>
-      <c r="I77" t="s">
-        <v>41</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.0</v>
+      <c r="I77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>42</v>
       </c>
       <c r="K77" t="n">
         <v>0.0</v>
@@ -11382,11 +11382,11 @@
       <c r="H78" t="n">
         <v>3.0</v>
       </c>
-      <c r="I78" t="s">
-        <v>42</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.0</v>
+      <c r="I78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>42</v>
       </c>
       <c r="K78" t="n">
         <v>0.0</v>
@@ -11511,11 +11511,11 @@
       <c r="H79" t="n">
         <v>1.0</v>
       </c>
-      <c r="I79" t="s">
-        <v>42</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.0</v>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>42</v>
       </c>
       <c r="K79" t="n">
         <v>0.0</v>
@@ -11640,11 +11640,11 @@
       <c r="H80" t="n">
         <v>1.0</v>
       </c>
-      <c r="I80" t="s">
-        <v>41</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.0</v>
+      <c r="I80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>42</v>
       </c>
       <c r="K80" t="n">
         <v>0.0</v>
@@ -11769,11 +11769,11 @@
       <c r="H81" t="n">
         <v>2.0</v>
       </c>
-      <c r="I81" t="s">
-        <v>42</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.0</v>
+      <c r="I81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>41</v>
       </c>
       <c r="K81" t="n">
         <v>0.0</v>
@@ -11900,11 +11900,11 @@
       <c r="H82" t="n">
         <v>2.0</v>
       </c>
-      <c r="I82" t="s">
-        <v>42</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.0</v>
+      <c r="I82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>42</v>
       </c>
       <c r="K82" t="n">
         <v>0.0</v>
@@ -12029,11 +12029,11 @@
       <c r="H83" t="n">
         <v>2.0</v>
       </c>
-      <c r="I83" t="s">
-        <v>42</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.0</v>
+      <c r="I83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>42</v>
       </c>
       <c r="K83" t="n">
         <v>0.0</v>
@@ -12158,11 +12158,11 @@
       <c r="H84" t="n">
         <v>3.0</v>
       </c>
-      <c r="I84" t="s">
-        <v>42</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.0</v>
+      <c r="I84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>42</v>
       </c>
       <c r="K84" t="n">
         <v>0.0</v>
@@ -12287,11 +12287,11 @@
       <c r="H85" t="n">
         <v>2.0</v>
       </c>
-      <c r="I85" t="s">
-        <v>42</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.0</v>
+      <c r="I85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>42</v>
       </c>
       <c r="K85" t="n">
         <v>0.0</v>
@@ -12416,11 +12416,11 @@
       <c r="H86" t="n">
         <v>3.0</v>
       </c>
-      <c r="I86" t="s">
-        <v>42</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.0</v>
+      <c r="I86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>42</v>
       </c>
       <c r="K86" t="n">
         <v>0.0</v>
@@ -12545,11 +12545,11 @@
       <c r="H87" t="n">
         <v>3.0</v>
       </c>
-      <c r="I87" t="s">
-        <v>42</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.0</v>
+      <c r="I87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
       </c>
       <c r="K87" t="n">
         <v>0.0</v>
@@ -12674,11 +12674,11 @@
       <c r="H88" t="n">
         <v>0.0</v>
       </c>
-      <c r="I88" t="s">
-        <v>42</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.0</v>
+      <c r="I88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
       </c>
       <c r="K88" t="n">
         <v>0.0</v>
@@ -12803,11 +12803,11 @@
       <c r="H89" t="n">
         <v>3.0</v>
       </c>
-      <c r="I89" t="s">
-        <v>42</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.0</v>
+      <c r="I89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>41</v>
       </c>
       <c r="K89" t="n">
         <v>1.0</v>
@@ -12932,11 +12932,11 @@
       <c r="H90" t="n">
         <v>3.0</v>
       </c>
-      <c r="I90" t="s">
-        <v>42</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.0</v>
+      <c r="I90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
       </c>
       <c r="K90" t="n">
         <v>1.0</v>
@@ -13059,11 +13059,11 @@
       <c r="H91" t="n">
         <v>3.0</v>
       </c>
-      <c r="I91" t="s">
-        <v>41</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.0</v>
+      <c r="I91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>42</v>
       </c>
       <c r="K91" t="n">
         <v>0.0</v>
@@ -13188,11 +13188,11 @@
       <c r="H92" t="n">
         <v>3.0</v>
       </c>
-      <c r="I92" t="s">
-        <v>42</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.0</v>
+      <c r="I92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
       </c>
       <c r="K92" t="n">
         <v>0.0</v>
@@ -13317,11 +13317,11 @@
       <c r="H93" t="n">
         <v>3.0</v>
       </c>
-      <c r="I93" t="s">
-        <v>42</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.0</v>
+      <c r="I93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>42</v>
       </c>
       <c r="K93" t="n">
         <v>1.0</v>
@@ -13446,11 +13446,11 @@
       <c r="H94" t="n">
         <v>1.0</v>
       </c>
-      <c r="I94" t="s">
-        <v>42</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.0</v>
+      <c r="I94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>42</v>
       </c>
       <c r="K94" t="n">
         <v>1.0</v>
@@ -13575,11 +13575,11 @@
       <c r="H95" t="n">
         <v>3.0</v>
       </c>
-      <c r="I95" t="s">
-        <v>42</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.0</v>
+      <c r="I95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>42</v>
       </c>
       <c r="K95" t="n">
         <v>0.0</v>
@@ -13704,11 +13704,11 @@
       <c r="H96" t="n">
         <v>3.0</v>
       </c>
-      <c r="I96" t="s">
-        <v>42</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.0</v>
+      <c r="I96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>42</v>
       </c>
       <c r="K96" t="n">
         <v>0.0</v>
@@ -13827,11 +13827,11 @@
       <c r="H97" t="n">
         <v>2.0</v>
       </c>
-      <c r="I97" t="s">
-        <v>42</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0</v>
+      <c r="I97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
       </c>
       <c r="K97" t="n">
         <v>0.0</v>
@@ -13954,11 +13954,11 @@
       <c r="H98" t="n">
         <v>0.0</v>
       </c>
-      <c r="I98" t="s">
-        <v>42</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.0</v>
+      <c r="I98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>42</v>
       </c>
       <c r="K98" t="n">
         <v>0.0</v>
@@ -14081,11 +14081,11 @@
       <c r="H99" t="n">
         <v>3.0</v>
       </c>
-      <c r="I99" t="s">
-        <v>41</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.0</v>
+      <c r="I99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>42</v>
       </c>
       <c r="K99" t="n">
         <v>0.0</v>
@@ -14210,11 +14210,11 @@
       <c r="H100" t="n">
         <v>3.0</v>
       </c>
-      <c r="I100" t="s">
-        <v>42</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.0</v>
+      <c r="I100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
       </c>
       <c r="K100" t="n">
         <v>0.0</v>
@@ -14339,11 +14339,11 @@
       <c r="H101" t="n">
         <v>3.0</v>
       </c>
-      <c r="I101" t="s">
-        <v>42</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.0</v>
+      <c r="I101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
       </c>
       <c r="K101" t="n">
         <v>0.0</v>
@@ -14466,11 +14466,11 @@
       <c r="H102" t="n">
         <v>3.0</v>
       </c>
-      <c r="I102" t="s">
-        <v>42</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.0</v>
+      <c r="I102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>42</v>
       </c>
       <c r="K102" t="n">
         <v>0.0</v>
@@ -14595,11 +14595,11 @@
       <c r="H103" t="n">
         <v>1.0</v>
       </c>
-      <c r="I103" t="s">
-        <v>42</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.0</v>
+      <c r="I103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>42</v>
       </c>
       <c r="K103" t="n">
         <v>1.0</v>
@@ -14724,11 +14724,11 @@
       <c r="H104" t="n">
         <v>1.0</v>
       </c>
-      <c r="I104" t="s">
-        <v>42</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.0</v>
+      <c r="I104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>42</v>
       </c>
       <c r="K104" t="n">
         <v>0.0</v>
@@ -14853,11 +14853,11 @@
       <c r="H105" t="n">
         <v>3.0</v>
       </c>
-      <c r="I105" t="s">
-        <v>42</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.0</v>
+      <c r="I105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>41</v>
       </c>
       <c r="K105" t="n">
         <v>1.0</v>
@@ -14982,11 +14982,11 @@
       <c r="H106" t="n">
         <v>3.0</v>
       </c>
-      <c r="I106" t="s">
-        <v>42</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.0</v>
+      <c r="I106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>42</v>
       </c>
       <c r="K106" t="n">
         <v>1.0</v>
@@ -15113,11 +15113,11 @@
       <c r="H107" t="n">
         <v>3.0</v>
       </c>
-      <c r="I107" t="s">
-        <v>41</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.0</v>
+      <c r="I107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>42</v>
       </c>
       <c r="K107" t="n">
         <v>0.0</v>
@@ -15240,11 +15240,11 @@
       <c r="H108" t="n">
         <v>3.0</v>
       </c>
-      <c r="I108" t="s">
-        <v>42</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.0</v>
+      <c r="I108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>42</v>
       </c>
       <c r="K108" t="n">
         <v>0.0</v>
@@ -15369,11 +15369,11 @@
       <c r="H109" t="n">
         <v>3.0</v>
       </c>
-      <c r="I109" t="s">
-        <v>42</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.0</v>
+      <c r="I109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>42</v>
       </c>
       <c r="K109" t="n">
         <v>0.0</v>
@@ -15498,11 +15498,11 @@
       <c r="H110" t="n">
         <v>3.0</v>
       </c>
-      <c r="I110" t="s">
-        <v>42</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.0</v>
+      <c r="I110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>42</v>
       </c>
       <c r="K110" t="n">
         <v>0.0</v>
@@ -15627,11 +15627,11 @@
       <c r="H111" t="n">
         <v>3.0</v>
       </c>
-      <c r="I111" t="s">
-        <v>42</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.0</v>
+      <c r="I111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
       </c>
       <c r="K111" t="n">
         <v>0.0</v>
@@ -15756,11 +15756,11 @@
       <c r="H112" t="n">
         <v>3.0</v>
       </c>
-      <c r="I112" t="s">
-        <v>42</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.0</v>
+      <c r="I112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>42</v>
       </c>
       <c r="K112" t="n">
         <v>1.0</v>
@@ -15887,11 +15887,11 @@
       <c r="H113" t="n">
         <v>0.0</v>
       </c>
-      <c r="I113" t="s">
-        <v>42</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.0</v>
+      <c r="I113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
       </c>
       <c r="K113" t="n">
         <v>1.0</v>
@@ -16016,11 +16016,11 @@
       <c r="H114" t="n">
         <v>0.0</v>
       </c>
-      <c r="I114" t="s">
-        <v>42</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.0</v>
+      <c r="I114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>42</v>
       </c>
       <c r="K114" t="n">
         <v>0.0</v>
@@ -16145,11 +16145,11 @@
       <c r="H115" t="n">
         <v>3.0</v>
       </c>
-      <c r="I115" t="s">
-        <v>41</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.0</v>
+      <c r="I115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>42</v>
       </c>
       <c r="K115" t="n">
         <v>0.0</v>
@@ -16276,11 +16276,11 @@
       <c r="H116" t="n">
         <v>0.0</v>
       </c>
-      <c r="I116" t="s">
-        <v>42</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.0</v>
+      <c r="I116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>42</v>
       </c>
       <c r="K116" t="n">
         <v>0.0</v>
@@ -16405,11 +16405,11 @@
       <c r="H117" t="n">
         <v>0.0</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J117" t="s">
         <v>41</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.0</v>
       </c>
       <c r="K117" t="n">
         <v>0.0</v>
@@ -16534,11 +16534,11 @@
       <c r="H118" t="n">
         <v>0.0</v>
       </c>
-      <c r="I118" t="s">
-        <v>42</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.0</v>
+      <c r="I118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
       </c>
       <c r="K118" t="n">
         <v>0.0</v>
@@ -16663,11 +16663,11 @@
       <c r="H119" t="n">
         <v>3.0</v>
       </c>
-      <c r="I119" t="s">
-        <v>42</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.0</v>
+      <c r="I119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>42</v>
       </c>
       <c r="K119" t="n">
         <v>1.0</v>
@@ -16794,11 +16794,11 @@
       <c r="H120" t="n">
         <v>3.0</v>
       </c>
-      <c r="I120" t="s">
-        <v>42</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.0</v>
+      <c r="I120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>42</v>
       </c>
       <c r="K120" t="n">
         <v>0.0</v>
@@ -16923,11 +16923,11 @@
       <c r="H121" t="n">
         <v>3.0</v>
       </c>
-      <c r="I121" t="s">
-        <v>42</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.0</v>
+      <c r="I121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
       </c>
       <c r="K121" t="n">
         <v>0.0</v>
@@ -17052,11 +17052,11 @@
       <c r="H122" t="n">
         <v>2.0</v>
       </c>
-      <c r="I122" t="s">
-        <v>42</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.0</v>
+      <c r="I122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
       </c>
       <c r="K122" t="n">
         <v>0.0</v>
@@ -17181,11 +17181,11 @@
       <c r="H123" t="n">
         <v>0.0</v>
       </c>
-      <c r="I123" t="s">
-        <v>42</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.0</v>
+      <c r="I123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>42</v>
       </c>
       <c r="K123" t="n">
         <v>0.0</v>
@@ -17310,11 +17310,11 @@
       <c r="H124" t="n">
         <v>1.0</v>
       </c>
-      <c r="I124" t="s">
-        <v>42</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.0</v>
+      <c r="I124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>41</v>
       </c>
       <c r="K124" t="n">
         <v>0.0</v>
@@ -17439,11 +17439,11 @@
       <c r="H125" t="n">
         <v>0.0</v>
       </c>
-      <c r="I125" t="s">
-        <v>42</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.0</v>
+      <c r="I125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>42</v>
       </c>
       <c r="K125" t="n">
         <v>0.0</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="388">
   <si>
     <t>Пациент</t>
   </si>
@@ -380,7 +380,13 @@
     <t>2</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>ноль</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>нет</t>
@@ -1563,16 +1569,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C1" t="s" s="48">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D1" t="s" s="68">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
@@ -1737,8 +1743,8 @@
       <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
+      <c r="K3" t="s">
+        <v>42</v>
       </c>
       <c r="L3" t="n">
         <v>3.12</v>
@@ -1753,7 +1759,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1777,7 +1783,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1829,10 +1835,10 @@
       </c>
       <c r="AO3"/>
       <c r="AP3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AQ3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
@@ -1866,8 +1872,8 @@
       <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
+      <c r="K4" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="L4" t="n">
         <v>1.16</v>
@@ -1882,7 +1888,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1906,7 +1912,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1958,10 +1964,10 @@
       </c>
       <c r="AO4"/>
       <c r="AP4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AQ4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
@@ -1995,8 +2001,8 @@
       <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
+      <c r="K5" t="s">
+        <v>42</v>
       </c>
       <c r="L5" t="n">
         <v>1.2</v>
@@ -2011,7 +2017,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -2035,7 +2041,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -2087,10 +2093,10 @@
       </c>
       <c r="AO5"/>
       <c r="AP5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AQ5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
@@ -2113,7 +2119,7 @@
         <v>119</v>
       </c>
       <c r="G6" t="s" s="48">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
@@ -2124,8 +2130,8 @@
       <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.0</v>
+      <c r="K6" t="s">
+        <v>42</v>
       </c>
       <c r="L6" t="n">
         <v>1.15</v>
@@ -2140,7 +2146,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -2164,7 +2170,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2216,10 +2222,10 @@
       </c>
       <c r="AO6"/>
       <c r="AP6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AQ6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7">
@@ -2251,10 +2257,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="s" s="48">
-        <v>123</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.0</v>
+        <v>125</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
       </c>
       <c r="L7" t="n">
         <v>2.36</v>
@@ -2269,7 +2275,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2293,7 +2299,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2345,10 +2351,10 @@
       </c>
       <c r="AO7"/>
       <c r="AP7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AQ7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8">
@@ -2382,8 +2388,8 @@
       <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.0</v>
+      <c r="K8" t="s">
+        <v>42</v>
       </c>
       <c r="L8" t="n">
         <v>1.15</v>
@@ -2398,7 +2404,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2422,7 +2428,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2474,10 +2480,10 @@
       </c>
       <c r="AO8"/>
       <c r="AP8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
@@ -2511,8 +2517,8 @@
       <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.0</v>
+      <c r="K9" t="s">
+        <v>42</v>
       </c>
       <c r="L9" t="n">
         <v>1.9</v>
@@ -2527,7 +2533,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2551,7 +2557,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2603,10 +2609,10 @@
       </c>
       <c r="AO9"/>
       <c r="AP9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AQ9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10">
@@ -2628,8 +2634,8 @@
       <c r="F10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
+      <c r="G10" t="s" s="48">
+        <v>124</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" t="n">
@@ -2638,8 +2644,8 @@
       <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.0</v>
+      <c r="K10" t="s">
+        <v>42</v>
       </c>
       <c r="L10" t="n">
         <v>4.3</v>
@@ -2654,7 +2660,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2678,7 +2684,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2730,10 +2736,10 @@
       </c>
       <c r="AO10"/>
       <c r="AP10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AQ10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11">
@@ -2767,8 +2773,8 @@
       <c r="J11" t="s">
         <v>42</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.0</v>
+      <c r="K11" t="s" s="48">
+        <v>125</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -2783,7 +2789,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2807,7 +2813,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2859,10 +2865,10 @@
       </c>
       <c r="AO11"/>
       <c r="AP11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AQ11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12">
@@ -2881,8 +2887,8 @@
       <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
-        <v>119</v>
+      <c r="F12" t="s" s="48">
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -2896,8 +2902,8 @@
       <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" t="n">
-        <v>0.0</v>
+      <c r="K12" t="s">
+        <v>42</v>
       </c>
       <c r="L12" t="n">
         <v>2.7</v>
@@ -2912,7 +2918,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2936,7 +2942,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2988,10 +2994,10 @@
       </c>
       <c r="AO12"/>
       <c r="AP12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AQ12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13">
@@ -3025,8 +3031,8 @@
       <c r="J13" t="s">
         <v>42</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.0</v>
+      <c r="K13" t="s">
+        <v>42</v>
       </c>
       <c r="L13" t="n">
         <v>2.9</v>
@@ -3041,7 +3047,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -3065,7 +3071,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -3117,10 +3123,10 @@
       </c>
       <c r="AO13"/>
       <c r="AP13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AQ13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14">
@@ -3154,8 +3160,8 @@
       <c r="J14" t="s">
         <v>42</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.0</v>
+      <c r="K14" t="s">
+        <v>42</v>
       </c>
       <c r="L14" t="n">
         <v>2.8</v>
@@ -3170,7 +3176,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -3194,7 +3200,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3246,10 +3252,10 @@
       </c>
       <c r="AO14"/>
       <c r="AP14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AQ14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15">
@@ -3283,8 +3289,8 @@
       <c r="J15" t="s">
         <v>42</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.0</v>
+      <c r="K15" t="s">
+        <v>42</v>
       </c>
       <c r="L15" t="n">
         <v>2.7</v>
@@ -3299,7 +3305,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3323,7 +3329,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3375,10 +3381,10 @@
       </c>
       <c r="AO15"/>
       <c r="AP15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AQ15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16">
@@ -3412,8 +3418,8 @@
       <c r="J16" t="s">
         <v>41</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.0</v>
+      <c r="K16" t="s">
+        <v>42</v>
       </c>
       <c r="L16" t="n">
         <v>2.0</v>
@@ -3428,7 +3434,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3452,7 +3458,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3504,10 +3510,10 @@
       </c>
       <c r="AO16"/>
       <c r="AP16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AQ16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17">
@@ -3541,8 +3547,8 @@
       <c r="J17" t="s">
         <v>42</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.0</v>
+      <c r="K17" t="s">
+        <v>42</v>
       </c>
       <c r="L17" t="n">
         <v>4.3</v>
@@ -3557,7 +3563,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3581,7 +3587,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3633,10 +3639,10 @@
       </c>
       <c r="AO17"/>
       <c r="AP17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AQ17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18">
@@ -3670,8 +3676,8 @@
       <c r="J18" t="s">
         <v>42</v>
       </c>
-      <c r="K18" t="n">
-        <v>0.0</v>
+      <c r="K18" t="s">
+        <v>42</v>
       </c>
       <c r="L18" t="n">
         <v>1.9</v>
@@ -3710,7 +3716,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3762,10 +3768,10 @@
       </c>
       <c r="AO18"/>
       <c r="AP18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AQ18" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19">
@@ -3799,8 +3805,8 @@
       <c r="J19" t="s">
         <v>42</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.0</v>
+      <c r="K19" t="s">
+        <v>42</v>
       </c>
       <c r="L19" t="n">
         <v>2.8</v>
@@ -3839,7 +3845,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3891,10 +3897,10 @@
       </c>
       <c r="AO19"/>
       <c r="AP19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AQ19" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20">
@@ -3928,8 +3934,8 @@
       <c r="J20" t="s">
         <v>42</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.0</v>
+      <c r="K20" t="s">
+        <v>42</v>
       </c>
       <c r="L20" t="n">
         <v>2.7</v>
@@ -3944,7 +3950,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3968,7 +3974,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -4020,10 +4026,10 @@
       </c>
       <c r="AO20"/>
       <c r="AP20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AQ20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21">
@@ -4057,8 +4063,8 @@
       <c r="J21" t="s">
         <v>42</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.0</v>
+      <c r="K21" t="s">
+        <v>42</v>
       </c>
       <c r="L21" t="n">
         <v>2.9</v>
@@ -4073,7 +4079,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -4097,7 +4103,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4149,10 +4155,10 @@
       </c>
       <c r="AO21"/>
       <c r="AP21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AQ21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22">
@@ -4186,8 +4192,8 @@
       <c r="J22" t="s">
         <v>41</v>
       </c>
-      <c r="K22" t="n">
-        <v>0.0</v>
+      <c r="K22" t="s">
+        <v>42</v>
       </c>
       <c r="L22" t="n" s="68">
         <v>7.2</v>
@@ -4202,7 +4208,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4226,7 +4232,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4278,10 +4284,10 @@
       </c>
       <c r="AO22"/>
       <c r="AP22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AQ22" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23">
@@ -4315,8 +4321,8 @@
       <c r="J23" t="s">
         <v>42</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.0</v>
+      <c r="K23" t="s">
+        <v>42</v>
       </c>
       <c r="L23" t="n">
         <v>1.4</v>
@@ -4331,7 +4337,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4355,7 +4361,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4407,10 +4413,10 @@
       </c>
       <c r="AO23"/>
       <c r="AP23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AQ23" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24">
@@ -4444,8 +4450,8 @@
       <c r="J24" t="s">
         <v>42</v>
       </c>
-      <c r="K24" t="n">
-        <v>1.0</v>
+      <c r="K24" t="s">
+        <v>41</v>
       </c>
       <c r="L24" t="n">
         <v>1.56</v>
@@ -4460,7 +4466,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4484,7 +4490,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4536,10 +4542,10 @@
       </c>
       <c r="AO24"/>
       <c r="AP24" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AQ24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25">
@@ -4573,8 +4579,8 @@
       <c r="J25" t="s">
         <v>42</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.0</v>
+      <c r="K25" t="s">
+        <v>42</v>
       </c>
       <c r="L25" t="n">
         <v>1.61</v>
@@ -4589,7 +4595,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4613,7 +4619,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4665,10 +4671,10 @@
       </c>
       <c r="AO25"/>
       <c r="AP25" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AQ25" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26">
@@ -4702,8 +4708,8 @@
       <c r="J26" t="s">
         <v>41</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.0</v>
+      <c r="K26" t="s">
+        <v>42</v>
       </c>
       <c r="L26" t="n">
         <v>2.29</v>
@@ -4718,7 +4724,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4742,7 +4748,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4794,10 +4800,10 @@
       </c>
       <c r="AO26"/>
       <c r="AP26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AQ26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27">
@@ -4831,8 +4837,8 @@
       <c r="J27" t="s">
         <v>41</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.0</v>
+      <c r="K27" t="s">
+        <v>42</v>
       </c>
       <c r="L27" t="n" s="68">
         <v>7.8</v>
@@ -4847,7 +4853,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4871,7 +4877,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4919,10 +4925,10 @@
       </c>
       <c r="AO27"/>
       <c r="AP27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AQ27" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28">
@@ -4956,8 +4962,8 @@
       <c r="J28" t="s">
         <v>42</v>
       </c>
-      <c r="K28" t="n">
-        <v>0.0</v>
+      <c r="K28" t="s">
+        <v>42</v>
       </c>
       <c r="L28" t="n">
         <v>1.86</v>
@@ -4972,7 +4978,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4996,7 +5002,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -5048,10 +5054,10 @@
       </c>
       <c r="AO28"/>
       <c r="AP28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AQ28" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29">
@@ -5085,8 +5091,8 @@
       <c r="J29" t="s">
         <v>42</v>
       </c>
-      <c r="K29" t="n">
-        <v>1.0</v>
+      <c r="K29" t="s">
+        <v>41</v>
       </c>
       <c r="L29" t="n">
         <v>2.32</v>
@@ -5101,7 +5107,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -5125,7 +5131,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5175,10 +5181,10 @@
       </c>
       <c r="AO29"/>
       <c r="AP29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AQ29" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30">
@@ -5212,8 +5218,8 @@
       <c r="J30" t="s">
         <v>41</v>
       </c>
-      <c r="K30" t="n">
-        <v>0.0</v>
+      <c r="K30" t="s">
+        <v>42</v>
       </c>
       <c r="L30" t="n">
         <v>3.08</v>
@@ -5228,7 +5234,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5252,7 +5258,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5302,10 +5308,10 @@
       </c>
       <c r="AO30"/>
       <c r="AP30" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AQ30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31">
@@ -5339,8 +5345,8 @@
       <c r="J31" t="s">
         <v>41</v>
       </c>
-      <c r="K31" t="n">
-        <v>0.0</v>
+      <c r="K31" t="s">
+        <v>42</v>
       </c>
       <c r="L31" t="n">
         <v>2.0</v>
@@ -5355,7 +5361,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5379,7 +5385,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5431,10 +5437,10 @@
       </c>
       <c r="AO31"/>
       <c r="AP31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AQ31" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32">
@@ -5468,8 +5474,8 @@
       <c r="J32" t="s">
         <v>42</v>
       </c>
-      <c r="K32" t="n">
-        <v>0.0</v>
+      <c r="K32" t="s">
+        <v>42</v>
       </c>
       <c r="L32" t="n">
         <v>4.06</v>
@@ -5484,7 +5490,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5508,7 +5514,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5560,10 +5566,10 @@
       </c>
       <c r="AO32"/>
       <c r="AP32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AQ32" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33">
@@ -5597,8 +5603,8 @@
       <c r="J33" t="s">
         <v>42</v>
       </c>
-      <c r="K33" t="n">
-        <v>1.0</v>
+      <c r="K33" t="s">
+        <v>41</v>
       </c>
       <c r="L33" t="n">
         <v>1.94</v>
@@ -5613,7 +5619,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5637,7 +5643,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5689,10 +5695,10 @@
       </c>
       <c r="AO33"/>
       <c r="AP33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AQ33" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34">
@@ -5726,8 +5732,8 @@
       <c r="J34" t="s">
         <v>42</v>
       </c>
-      <c r="K34" t="n">
-        <v>0.0</v>
+      <c r="K34" t="s">
+        <v>42</v>
       </c>
       <c r="L34" t="n">
         <v>2.34</v>
@@ -5742,7 +5748,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5766,7 +5772,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5808,10 +5814,10 @@
       </c>
       <c r="AO34"/>
       <c r="AP34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AQ34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35">
@@ -5845,8 +5851,8 @@
       <c r="J35" t="s">
         <v>41</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.0</v>
+      <c r="K35" t="s">
+        <v>42</v>
       </c>
       <c r="L35" t="n">
         <v>2.61</v>
@@ -5861,7 +5867,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5885,7 +5891,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5937,10 +5943,10 @@
       </c>
       <c r="AO35"/>
       <c r="AP35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AQ35" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36">
@@ -5974,8 +5980,8 @@
       <c r="J36" t="s">
         <v>42</v>
       </c>
-      <c r="K36" t="n">
-        <v>0.0</v>
+      <c r="K36" t="s">
+        <v>42</v>
       </c>
       <c r="L36" t="n">
         <v>1.86</v>
@@ -5990,7 +5996,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -6014,7 +6020,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -6066,10 +6072,10 @@
       </c>
       <c r="AO36"/>
       <c r="AP36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AQ36" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37">
@@ -6103,8 +6109,8 @@
       <c r="J37" t="s">
         <v>42</v>
       </c>
-      <c r="K37" t="n">
-        <v>0.0</v>
+      <c r="K37" t="s">
+        <v>42</v>
       </c>
       <c r="L37" t="n">
         <v>1.99</v>
@@ -6119,7 +6125,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -6143,7 +6149,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6195,10 +6201,10 @@
       </c>
       <c r="AO37"/>
       <c r="AP37" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AQ37" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38">
@@ -6232,8 +6238,8 @@
       <c r="J38" t="s">
         <v>42</v>
       </c>
-      <c r="K38" t="n">
-        <v>0.0</v>
+      <c r="K38" t="s">
+        <v>42</v>
       </c>
       <c r="L38" t="n">
         <v>1.91</v>
@@ -6248,7 +6254,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6272,7 +6278,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6324,10 +6330,10 @@
       </c>
       <c r="AO38"/>
       <c r="AP38" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AQ38" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
@@ -6361,8 +6367,8 @@
       <c r="J39" t="s">
         <v>42</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.0</v>
+      <c r="K39" t="s">
+        <v>42</v>
       </c>
       <c r="L39" t="n">
         <v>2.4</v>
@@ -6377,7 +6383,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6401,7 +6407,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6449,10 +6455,10 @@
       </c>
       <c r="AO39"/>
       <c r="AP39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AQ39" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40">
@@ -6486,8 +6492,8 @@
       <c r="J40" t="s">
         <v>42</v>
       </c>
-      <c r="K40" t="n">
-        <v>0.0</v>
+      <c r="K40" t="s">
+        <v>42</v>
       </c>
       <c r="L40" t="n">
         <v>1.9</v>
@@ -6526,7 +6532,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6578,10 +6584,10 @@
       </c>
       <c r="AO40"/>
       <c r="AP40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AQ40" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41">
@@ -6615,8 +6621,8 @@
       <c r="J41" t="s">
         <v>41</v>
       </c>
-      <c r="K41" t="n">
-        <v>0.0</v>
+      <c r="K41" t="s">
+        <v>42</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
@@ -6631,7 +6637,7 @@
         <v>38.0</v>
       </c>
       <c r="P41" t="s" s="68">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6655,7 +6661,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6707,10 +6713,10 @@
       </c>
       <c r="AO41"/>
       <c r="AP41" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AQ41" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42">
@@ -6744,8 +6750,8 @@
       <c r="J42" t="s">
         <v>42</v>
       </c>
-      <c r="K42" t="n">
-        <v>0.0</v>
+      <c r="K42" t="s">
+        <v>42</v>
       </c>
       <c r="L42" t="n">
         <v>1.71</v>
@@ -6760,7 +6766,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6784,7 +6790,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6836,10 +6842,10 @@
       </c>
       <c r="AO42"/>
       <c r="AP42" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AQ42" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43">
@@ -6873,8 +6879,8 @@
       <c r="J43" t="s">
         <v>42</v>
       </c>
-      <c r="K43" t="n">
-        <v>0.0</v>
+      <c r="K43" t="s">
+        <v>42</v>
       </c>
       <c r="L43" t="n">
         <v>1.38</v>
@@ -6889,7 +6895,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6913,7 +6919,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6965,10 +6971,10 @@
       </c>
       <c r="AO43"/>
       <c r="AP43" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AQ43" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
@@ -7002,8 +7008,8 @@
       <c r="J44" t="s">
         <v>42</v>
       </c>
-      <c r="K44" t="n">
-        <v>0.0</v>
+      <c r="K44" t="s">
+        <v>42</v>
       </c>
       <c r="L44" t="n">
         <v>2.43</v>
@@ -7018,7 +7024,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -7042,7 +7048,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -7094,10 +7100,10 @@
       </c>
       <c r="AO44"/>
       <c r="AP44" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AQ44" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45">
@@ -7131,8 +7137,8 @@
       <c r="J45" t="s">
         <v>42</v>
       </c>
-      <c r="K45" t="n">
-        <v>0.0</v>
+      <c r="K45" t="s">
+        <v>42</v>
       </c>
       <c r="L45" t="n">
         <v>3.64</v>
@@ -7147,7 +7153,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7171,7 +7177,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7223,10 +7229,10 @@
       </c>
       <c r="AO45"/>
       <c r="AP45" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AQ45" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46">
@@ -7260,8 +7266,8 @@
       <c r="J46" t="s">
         <v>42</v>
       </c>
-      <c r="K46" t="n">
-        <v>0.0</v>
+      <c r="K46" t="s">
+        <v>42</v>
       </c>
       <c r="L46" t="n">
         <v>3.88</v>
@@ -7276,7 +7282,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7300,7 +7306,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7352,10 +7358,10 @@
       </c>
       <c r="AO46"/>
       <c r="AP46" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AQ46" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47">
@@ -7389,8 +7395,8 @@
       <c r="J47" t="s">
         <v>41</v>
       </c>
-      <c r="K47" t="n">
-        <v>0.0</v>
+      <c r="K47" t="s">
+        <v>42</v>
       </c>
       <c r="L47" t="n">
         <v>3.14</v>
@@ -7405,7 +7411,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7429,7 +7435,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7481,10 +7487,10 @@
       </c>
       <c r="AO47"/>
       <c r="AP47" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AQ47" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48">
@@ -7518,8 +7524,8 @@
       <c r="J48" t="s">
         <v>42</v>
       </c>
-      <c r="K48" t="n">
-        <v>0.0</v>
+      <c r="K48" t="s">
+        <v>42</v>
       </c>
       <c r="L48" t="n">
         <v>2.95</v>
@@ -7534,7 +7540,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7558,7 +7564,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7610,10 +7616,10 @@
       </c>
       <c r="AO48"/>
       <c r="AP48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AQ48" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49">
@@ -7647,8 +7653,8 @@
       <c r="J49" t="s">
         <v>42</v>
       </c>
-      <c r="K49" t="n">
-        <v>0.0</v>
+      <c r="K49" t="s">
+        <v>42</v>
       </c>
       <c r="L49" t="n">
         <v>3.77</v>
@@ -7663,7 +7669,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7687,7 +7693,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7739,10 +7745,10 @@
       </c>
       <c r="AO49"/>
       <c r="AP49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AQ49" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
@@ -7776,8 +7782,8 @@
       <c r="J50" t="s">
         <v>41</v>
       </c>
-      <c r="K50" t="n">
-        <v>0.0</v>
+      <c r="K50" t="s">
+        <v>42</v>
       </c>
       <c r="L50" t="n">
         <v>1.7</v>
@@ -7792,7 +7798,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7816,7 +7822,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7868,10 +7874,10 @@
       </c>
       <c r="AO50"/>
       <c r="AP50" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AQ50" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51">
@@ -7905,8 +7911,8 @@
       <c r="J51" t="s">
         <v>42</v>
       </c>
-      <c r="K51" t="n">
-        <v>0.0</v>
+      <c r="K51" t="s">
+        <v>42</v>
       </c>
       <c r="L51" t="n">
         <v>1.97</v>
@@ -7921,7 +7927,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7945,7 +7951,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7997,10 +8003,10 @@
       </c>
       <c r="AO51"/>
       <c r="AP51" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AQ51" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52">
@@ -8034,8 +8040,8 @@
       <c r="J52" t="s">
         <v>42</v>
       </c>
-      <c r="K52" t="n">
-        <v>0.0</v>
+      <c r="K52" t="s">
+        <v>42</v>
       </c>
       <c r="L52" t="n">
         <v>3.91</v>
@@ -8050,7 +8056,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -8074,7 +8080,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -8126,10 +8132,10 @@
       </c>
       <c r="AO52"/>
       <c r="AP52" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AQ52" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53">
@@ -8163,8 +8169,8 @@
       <c r="J53" t="s">
         <v>42</v>
       </c>
-      <c r="K53" t="n">
-        <v>0.0</v>
+      <c r="K53" t="s">
+        <v>42</v>
       </c>
       <c r="L53" t="n">
         <v>1.94</v>
@@ -8179,7 +8185,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -8203,7 +8209,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8255,10 +8261,10 @@
       </c>
       <c r="AO53"/>
       <c r="AP53" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AQ53" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54">
@@ -8292,8 +8298,8 @@
       <c r="J54" t="s">
         <v>42</v>
       </c>
-      <c r="K54" t="n">
-        <v>0.0</v>
+      <c r="K54" t="s">
+        <v>42</v>
       </c>
       <c r="L54" t="n">
         <v>2.2</v>
@@ -8308,7 +8314,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s" s="48">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8332,7 +8338,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8380,13 +8386,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8423,8 +8429,8 @@
       <c r="J55" t="s">
         <v>42</v>
       </c>
-      <c r="K55" t="n">
-        <v>0.0</v>
+      <c r="K55" t="s">
+        <v>42</v>
       </c>
       <c r="L55" t="n">
         <v>2.8</v>
@@ -8439,7 +8445,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8463,7 +8469,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8509,13 +8515,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8552,8 +8558,8 @@
       <c r="J56" t="s">
         <v>41</v>
       </c>
-      <c r="K56" t="n">
-        <v>0.0</v>
+      <c r="K56" t="s">
+        <v>42</v>
       </c>
       <c r="L56" t="n">
         <v>2.4</v>
@@ -8568,7 +8574,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8592,7 +8598,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8640,13 +8646,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8683,8 +8689,8 @@
       <c r="J57" t="s">
         <v>41</v>
       </c>
-      <c r="K57" t="n">
-        <v>0.0</v>
+      <c r="K57" t="s">
+        <v>42</v>
       </c>
       <c r="L57" t="n">
         <v>1.2</v>
@@ -8699,7 +8705,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8723,7 +8729,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8771,13 +8777,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8814,8 +8820,8 @@
       <c r="J58" t="s">
         <v>42</v>
       </c>
-      <c r="K58" t="n">
-        <v>0.0</v>
+      <c r="K58" t="s">
+        <v>42</v>
       </c>
       <c r="L58" t="n">
         <v>2.5</v>
@@ -8830,7 +8836,7 @@
         <v>76.0</v>
       </c>
       <c r="P58" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8854,7 +8860,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8900,13 +8906,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8943,8 +8949,8 @@
       <c r="J59" t="s">
         <v>42</v>
       </c>
-      <c r="K59" t="n">
-        <v>0.0</v>
+      <c r="K59" t="s">
+        <v>42</v>
       </c>
       <c r="L59" t="n">
         <v>2.2</v>
@@ -8959,7 +8965,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q59" t="n">
         <v>3.0</v>
@@ -8983,7 +8989,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -9029,13 +9035,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -9072,8 +9078,8 @@
       <c r="J60" t="s">
         <v>42</v>
       </c>
-      <c r="K60" t="n">
-        <v>0.0</v>
+      <c r="K60" t="s">
+        <v>42</v>
       </c>
       <c r="L60" t="n">
         <v>1.8</v>
@@ -9088,7 +9094,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -9112,7 +9118,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9158,13 +9164,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9201,8 +9207,8 @@
       <c r="J61" t="s">
         <v>42</v>
       </c>
-      <c r="K61" t="n">
-        <v>0.0</v>
+      <c r="K61" t="s">
+        <v>42</v>
       </c>
       <c r="L61" t="n">
         <v>1.4</v>
@@ -9241,7 +9247,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9289,13 +9295,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9332,8 +9338,8 @@
       <c r="J62" t="s">
         <v>42</v>
       </c>
-      <c r="K62" t="n">
-        <v>0.0</v>
+      <c r="K62" t="s">
+        <v>42</v>
       </c>
       <c r="L62" t="n" s="68">
         <v>7.4</v>
@@ -9348,7 +9354,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9372,7 +9378,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9418,13 +9424,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9461,8 +9467,8 @@
       <c r="J63" t="s">
         <v>42</v>
       </c>
-      <c r="K63" t="n">
-        <v>0.0</v>
+      <c r="K63" t="s">
+        <v>42</v>
       </c>
       <c r="L63" t="n">
         <v>2.1</v>
@@ -9477,7 +9483,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9501,7 +9507,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9547,13 +9553,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9590,8 +9596,8 @@
       <c r="J64" t="s">
         <v>41</v>
       </c>
-      <c r="K64" t="n">
-        <v>0.0</v>
+      <c r="K64" t="s">
+        <v>42</v>
       </c>
       <c r="L64" t="n" s="68">
         <v>6.2</v>
@@ -9606,7 +9612,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9630,7 +9636,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9676,13 +9682,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9719,8 +9725,8 @@
       <c r="J65" t="s">
         <v>41</v>
       </c>
-      <c r="K65" t="n">
-        <v>0.0</v>
+      <c r="K65" t="s">
+        <v>42</v>
       </c>
       <c r="L65" t="n">
         <v>3.2</v>
@@ -9735,7 +9741,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9759,7 +9765,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9805,13 +9811,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9848,8 +9854,8 @@
       <c r="J66" t="s">
         <v>41</v>
       </c>
-      <c r="K66" t="n">
-        <v>0.0</v>
+      <c r="K66" t="s">
+        <v>42</v>
       </c>
       <c r="L66" t="n">
         <v>4.0</v>
@@ -9864,7 +9870,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9888,7 +9894,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9932,13 +9938,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9975,8 +9981,8 @@
       <c r="J67" t="s">
         <v>42</v>
       </c>
-      <c r="K67" t="n">
-        <v>0.0</v>
+      <c r="K67" t="s">
+        <v>42</v>
       </c>
       <c r="L67" t="n">
         <v>1.9</v>
@@ -9991,7 +9997,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -10015,7 +10021,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -10061,13 +10067,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -10104,8 +10110,8 @@
       <c r="J68" t="s">
         <v>42</v>
       </c>
-      <c r="K68" t="n">
-        <v>1.0</v>
+      <c r="K68" t="s">
+        <v>41</v>
       </c>
       <c r="L68" t="n" s="68">
         <v>12.0</v>
@@ -10120,7 +10126,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -10144,7 +10150,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10190,13 +10196,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10233,8 +10239,8 @@
       <c r="J69" t="s">
         <v>41</v>
       </c>
-      <c r="K69" t="n">
-        <v>1.0</v>
+      <c r="K69" t="s">
+        <v>41</v>
       </c>
       <c r="L69" t="n">
         <v>4.1</v>
@@ -10249,7 +10255,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10273,7 +10279,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10319,13 +10325,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10362,8 +10368,8 @@
       <c r="J70" t="s">
         <v>42</v>
       </c>
-      <c r="K70" t="n">
-        <v>0.0</v>
+      <c r="K70" t="s">
+        <v>42</v>
       </c>
       <c r="L70" t="n">
         <v>1.8</v>
@@ -10378,7 +10384,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10402,7 +10408,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10446,13 +10452,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10489,8 +10495,8 @@
       <c r="J71" t="s">
         <v>42</v>
       </c>
-      <c r="K71" t="n">
-        <v>0.0</v>
+      <c r="K71" t="s">
+        <v>42</v>
       </c>
       <c r="L71" t="n">
         <v>1.9</v>
@@ -10505,7 +10511,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10529,7 +10535,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10573,13 +10579,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10616,8 +10622,8 @@
       <c r="J72" t="s">
         <v>42</v>
       </c>
-      <c r="K72" t="n">
-        <v>0.0</v>
+      <c r="K72" t="s">
+        <v>42</v>
       </c>
       <c r="L72" t="n">
         <v>1.2</v>
@@ -10632,7 +10638,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10656,7 +10662,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10702,13 +10708,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10745,8 +10751,8 @@
       <c r="J73" t="s">
         <v>42</v>
       </c>
-      <c r="K73" t="n">
-        <v>1.0</v>
+      <c r="K73" t="s">
+        <v>41</v>
       </c>
       <c r="L73" t="n">
         <v>4.0</v>
@@ -10785,7 +10791,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10831,13 +10837,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10874,8 +10880,8 @@
       <c r="J74" t="s">
         <v>42</v>
       </c>
-      <c r="K74" t="n">
-        <v>0.0</v>
+      <c r="K74" t="s">
+        <v>42</v>
       </c>
       <c r="L74" t="n">
         <v>3.7</v>
@@ -10890,7 +10896,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10914,7 +10920,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10960,13 +10966,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -11003,8 +11009,8 @@
       <c r="J75" t="s">
         <v>41</v>
       </c>
-      <c r="K75" t="n">
-        <v>1.0</v>
+      <c r="K75" t="s">
+        <v>41</v>
       </c>
       <c r="L75" t="n">
         <v>3.9</v>
@@ -11019,7 +11025,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -11043,7 +11049,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -11089,13 +11095,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -11132,8 +11138,8 @@
       <c r="J76" t="s">
         <v>42</v>
       </c>
-      <c r="K76" t="n">
-        <v>0.0</v>
+      <c r="K76" t="s">
+        <v>42</v>
       </c>
       <c r="L76" t="n">
         <v>3.3</v>
@@ -11148,7 +11154,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -11172,7 +11178,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11216,13 +11222,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11259,8 +11265,8 @@
       <c r="J77" t="s">
         <v>42</v>
       </c>
-      <c r="K77" t="n">
-        <v>0.0</v>
+      <c r="K77" t="s">
+        <v>42</v>
       </c>
       <c r="L77" t="n">
         <v>3.6</v>
@@ -11275,7 +11281,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11299,7 +11305,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11345,13 +11351,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11388,8 +11394,8 @@
       <c r="J78" t="s">
         <v>42</v>
       </c>
-      <c r="K78" t="n">
-        <v>0.0</v>
+      <c r="K78" t="s">
+        <v>42</v>
       </c>
       <c r="L78" t="n">
         <v>1.9</v>
@@ -11404,7 +11410,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11428,7 +11434,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11474,13 +11480,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11517,8 +11523,8 @@
       <c r="J79" t="s">
         <v>42</v>
       </c>
-      <c r="K79" t="n">
-        <v>0.0</v>
+      <c r="K79" t="s">
+        <v>42</v>
       </c>
       <c r="L79" t="n">
         <v>4.0</v>
@@ -11533,7 +11539,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11557,7 +11563,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11603,13 +11609,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11646,8 +11652,8 @@
       <c r="J80" t="s">
         <v>42</v>
       </c>
-      <c r="K80" t="n">
-        <v>0.0</v>
+      <c r="K80" t="s">
+        <v>42</v>
       </c>
       <c r="L80" t="n">
         <v>4.4</v>
@@ -11662,7 +11668,7 @@
         <v>85.0</v>
       </c>
       <c r="P80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11686,7 +11692,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11732,13 +11738,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11775,8 +11781,8 @@
       <c r="J81" t="s">
         <v>41</v>
       </c>
-      <c r="K81" t="n">
-        <v>0.0</v>
+      <c r="K81" t="s">
+        <v>42</v>
       </c>
       <c r="L81" t="n">
         <v>2.9</v>
@@ -11791,7 +11797,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11815,7 +11821,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11863,13 +11869,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11906,8 +11912,8 @@
       <c r="J82" t="s">
         <v>42</v>
       </c>
-      <c r="K82" t="n">
-        <v>0.0</v>
+      <c r="K82" t="s">
+        <v>42</v>
       </c>
       <c r="L82" t="n">
         <v>1.3</v>
@@ -11946,7 +11952,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11992,13 +11998,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -12035,8 +12041,8 @@
       <c r="J83" t="s">
         <v>42</v>
       </c>
-      <c r="K83" t="n">
-        <v>0.0</v>
+      <c r="K83" t="s">
+        <v>42</v>
       </c>
       <c r="L83" t="n">
         <v>1.4</v>
@@ -12051,7 +12057,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -12075,7 +12081,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -12121,13 +12127,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -12164,8 +12170,8 @@
       <c r="J84" t="s">
         <v>42</v>
       </c>
-      <c r="K84" t="n">
-        <v>0.0</v>
+      <c r="K84" t="s">
+        <v>42</v>
       </c>
       <c r="L84" t="n">
         <v>1.1</v>
@@ -12180,7 +12186,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -12204,7 +12210,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12250,13 +12256,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12293,8 +12299,8 @@
       <c r="J85" t="s">
         <v>42</v>
       </c>
-      <c r="K85" t="n">
-        <v>0.0</v>
+      <c r="K85" t="s">
+        <v>42</v>
       </c>
       <c r="L85" t="n">
         <v>1.1</v>
@@ -12309,7 +12315,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12333,7 +12339,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12379,13 +12385,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12422,8 +12428,8 @@
       <c r="J86" t="s">
         <v>42</v>
       </c>
-      <c r="K86" t="n">
-        <v>0.0</v>
+      <c r="K86" t="s">
+        <v>42</v>
       </c>
       <c r="L86" t="n">
         <v>2.5</v>
@@ -12438,7 +12444,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12462,7 +12468,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12508,13 +12514,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12551,8 +12557,8 @@
       <c r="J87" t="s">
         <v>42</v>
       </c>
-      <c r="K87" t="n">
-        <v>0.0</v>
+      <c r="K87" t="s">
+        <v>42</v>
       </c>
       <c r="L87" t="n">
         <v>0.8</v>
@@ -12567,7 +12573,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12591,7 +12597,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12637,13 +12643,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12680,8 +12686,8 @@
       <c r="J88" t="s">
         <v>42</v>
       </c>
-      <c r="K88" t="n">
-        <v>0.0</v>
+      <c r="K88" t="s">
+        <v>42</v>
       </c>
       <c r="L88" t="n">
         <v>1.4</v>
@@ -12696,7 +12702,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12720,7 +12726,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12766,13 +12772,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12809,8 +12815,8 @@
       <c r="J89" t="s">
         <v>41</v>
       </c>
-      <c r="K89" t="n">
-        <v>1.0</v>
+      <c r="K89" t="s">
+        <v>41</v>
       </c>
       <c r="L89" t="n">
         <v>3.8</v>
@@ -12825,7 +12831,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12849,7 +12855,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12895,13 +12901,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12938,8 +12944,8 @@
       <c r="J90" t="s">
         <v>42</v>
       </c>
-      <c r="K90" t="n">
-        <v>1.0</v>
+      <c r="K90" t="s">
+        <v>41</v>
       </c>
       <c r="L90" t="n">
         <v>1.4</v>
@@ -12954,7 +12960,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12978,7 +12984,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -13022,13 +13028,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -13065,8 +13071,8 @@
       <c r="J91" t="s">
         <v>42</v>
       </c>
-      <c r="K91" t="n">
-        <v>0.0</v>
+      <c r="K91" t="s">
+        <v>42</v>
       </c>
       <c r="L91" t="n">
         <v>2.6</v>
@@ -13081,7 +13087,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -13105,7 +13111,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13151,13 +13157,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13194,8 +13200,8 @@
       <c r="J92" t="s">
         <v>42</v>
       </c>
-      <c r="K92" t="n">
-        <v>0.0</v>
+      <c r="K92" t="s">
+        <v>42</v>
       </c>
       <c r="L92" t="n">
         <v>2.7</v>
@@ -13210,7 +13216,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13234,7 +13240,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13280,13 +13286,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13323,8 +13329,8 @@
       <c r="J93" t="s">
         <v>42</v>
       </c>
-      <c r="K93" t="n">
-        <v>1.0</v>
+      <c r="K93" t="s">
+        <v>41</v>
       </c>
       <c r="L93" t="n">
         <v>2.3</v>
@@ -13339,7 +13345,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13363,7 +13369,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13409,13 +13415,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13452,8 +13458,8 @@
       <c r="J94" t="s">
         <v>42</v>
       </c>
-      <c r="K94" t="n">
-        <v>1.0</v>
+      <c r="K94" t="s">
+        <v>41</v>
       </c>
       <c r="L94" t="n">
         <v>3.3</v>
@@ -13468,7 +13474,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13492,7 +13498,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13538,13 +13544,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13581,8 +13587,8 @@
       <c r="J95" t="s">
         <v>42</v>
       </c>
-      <c r="K95" t="n">
-        <v>0.0</v>
+      <c r="K95" t="s">
+        <v>42</v>
       </c>
       <c r="L95" t="n">
         <v>2.6</v>
@@ -13621,7 +13627,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13667,13 +13673,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13710,8 +13716,8 @@
       <c r="J96" t="s">
         <v>42</v>
       </c>
-      <c r="K96" t="n">
-        <v>0.0</v>
+      <c r="K96" t="s">
+        <v>42</v>
       </c>
       <c r="L96" t="n">
         <v>1.2</v>
@@ -13726,7 +13732,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13744,7 +13750,7 @@
       <c r="V96"/>
       <c r="W96"/>
       <c r="X96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13790,13 +13796,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13833,8 +13839,8 @@
       <c r="J97" t="s">
         <v>42</v>
       </c>
-      <c r="K97" t="n">
-        <v>0.0</v>
+      <c r="K97" t="s">
+        <v>42</v>
       </c>
       <c r="L97" t="n">
         <v>1.0</v>
@@ -13849,7 +13855,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13873,7 +13879,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13917,13 +13923,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13960,8 +13966,8 @@
       <c r="J98" t="s">
         <v>42</v>
       </c>
-      <c r="K98" t="n">
-        <v>0.0</v>
+      <c r="K98" t="s">
+        <v>42</v>
       </c>
       <c r="L98" t="n">
         <v>3.3</v>
@@ -13976,7 +13982,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -14000,7 +14006,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -14044,13 +14050,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -14087,8 +14093,8 @@
       <c r="J99" t="s">
         <v>42</v>
       </c>
-      <c r="K99" t="n">
-        <v>0.0</v>
+      <c r="K99" t="s">
+        <v>42</v>
       </c>
       <c r="L99" t="n">
         <v>1.4</v>
@@ -14103,7 +14109,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -14127,7 +14133,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14173,13 +14179,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14216,8 +14222,8 @@
       <c r="J100" t="s">
         <v>41</v>
       </c>
-      <c r="K100" t="n">
-        <v>0.0</v>
+      <c r="K100" t="s">
+        <v>42</v>
       </c>
       <c r="L100" t="n">
         <v>0.8</v>
@@ -14232,7 +14238,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14256,7 +14262,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14302,13 +14308,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14345,8 +14351,8 @@
       <c r="J101" t="s">
         <v>42</v>
       </c>
-      <c r="K101" t="n">
-        <v>0.0</v>
+      <c r="K101" t="s">
+        <v>42</v>
       </c>
       <c r="L101" t="n">
         <v>1.4</v>
@@ -14361,7 +14367,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14385,7 +14391,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14429,13 +14435,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14472,8 +14478,8 @@
       <c r="J102" t="s">
         <v>42</v>
       </c>
-      <c r="K102" t="n">
-        <v>0.0</v>
+      <c r="K102" t="s">
+        <v>42</v>
       </c>
       <c r="L102" t="n">
         <v>4.0</v>
@@ -14488,7 +14494,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14512,7 +14518,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14558,13 +14564,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14601,8 +14607,8 @@
       <c r="J103" t="s">
         <v>42</v>
       </c>
-      <c r="K103" t="n">
-        <v>1.0</v>
+      <c r="K103" t="s">
+        <v>41</v>
       </c>
       <c r="L103" t="n">
         <v>4.6</v>
@@ -14617,7 +14623,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14641,7 +14647,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14687,13 +14693,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14730,8 +14736,8 @@
       <c r="J104" t="s">
         <v>42</v>
       </c>
-      <c r="K104" t="n">
-        <v>0.0</v>
+      <c r="K104" t="s">
+        <v>42</v>
       </c>
       <c r="L104" t="n">
         <v>3.3</v>
@@ -14746,7 +14752,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14770,7 +14776,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14816,13 +14822,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14859,8 +14865,8 @@
       <c r="J105" t="s">
         <v>41</v>
       </c>
-      <c r="K105" t="n">
-        <v>1.0</v>
+      <c r="K105" t="s">
+        <v>41</v>
       </c>
       <c r="L105" t="n">
         <v>3.3</v>
@@ -14875,7 +14881,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14899,7 +14905,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14945,13 +14951,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14988,8 +14994,8 @@
       <c r="J106" t="s">
         <v>42</v>
       </c>
-      <c r="K106" t="n">
-        <v>1.0</v>
+      <c r="K106" t="s">
+        <v>41</v>
       </c>
       <c r="L106" t="n">
         <v>3.6</v>
@@ -15004,7 +15010,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -15028,7 +15034,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -15076,13 +15082,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -15119,8 +15125,8 @@
       <c r="J107" t="s">
         <v>42</v>
       </c>
-      <c r="K107" t="n">
-        <v>0.0</v>
+      <c r="K107" t="s">
+        <v>42</v>
       </c>
       <c r="L107" t="n">
         <v>1.7</v>
@@ -15159,7 +15165,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15203,13 +15209,13 @@
       </c>
       <c r="AM107"/>
       <c r="AN107" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15246,8 +15252,8 @@
       <c r="J108" t="s">
         <v>42</v>
       </c>
-      <c r="K108" t="n">
-        <v>0.0</v>
+      <c r="K108" t="s">
+        <v>42</v>
       </c>
       <c r="L108" t="n">
         <v>1.4</v>
@@ -15262,7 +15268,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15286,7 +15292,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15332,13 +15338,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15375,8 +15381,8 @@
       <c r="J109" t="s">
         <v>42</v>
       </c>
-      <c r="K109" t="n">
-        <v>0.0</v>
+      <c r="K109" t="s">
+        <v>42</v>
       </c>
       <c r="L109" t="n">
         <v>4.6</v>
@@ -15391,7 +15397,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15415,7 +15421,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15461,13 +15467,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15504,8 +15510,8 @@
       <c r="J110" t="s">
         <v>42</v>
       </c>
-      <c r="K110" t="n">
-        <v>0.0</v>
+      <c r="K110" t="s">
+        <v>42</v>
       </c>
       <c r="L110" t="n" s="68">
         <v>6.9</v>
@@ -15520,7 +15526,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15544,7 +15550,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15590,13 +15596,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15633,8 +15639,8 @@
       <c r="J111" t="s">
         <v>42</v>
       </c>
-      <c r="K111" t="n">
-        <v>0.0</v>
+      <c r="K111" t="s">
+        <v>42</v>
       </c>
       <c r="L111" t="n">
         <v>3.5</v>
@@ -15649,7 +15655,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15673,7 +15679,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15719,13 +15725,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15762,8 +15768,8 @@
       <c r="J112" t="s">
         <v>42</v>
       </c>
-      <c r="K112" t="n">
-        <v>1.0</v>
+      <c r="K112" t="s">
+        <v>41</v>
       </c>
       <c r="L112" t="n">
         <v>1.9</v>
@@ -15778,7 +15784,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15802,7 +15808,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15850,13 +15856,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15893,8 +15899,8 @@
       <c r="J113" t="s">
         <v>42</v>
       </c>
-      <c r="K113" t="n">
-        <v>1.0</v>
+      <c r="K113" t="s">
+        <v>41</v>
       </c>
       <c r="L113" t="n">
         <v>1.1</v>
@@ -15909,7 +15915,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15933,7 +15939,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15979,13 +15985,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -16022,8 +16028,8 @@
       <c r="J114" t="s">
         <v>42</v>
       </c>
-      <c r="K114" t="n">
-        <v>0.0</v>
+      <c r="K114" t="s">
+        <v>42</v>
       </c>
       <c r="L114" t="n">
         <v>1.4</v>
@@ -16038,7 +16044,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -16062,7 +16068,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -16108,13 +16114,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -16151,8 +16157,8 @@
       <c r="J115" t="s">
         <v>42</v>
       </c>
-      <c r="K115" t="n">
-        <v>0.0</v>
+      <c r="K115" t="s">
+        <v>42</v>
       </c>
       <c r="L115" t="n">
         <v>3.8</v>
@@ -16167,7 +16173,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -16191,7 +16197,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16239,13 +16245,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16282,8 +16288,8 @@
       <c r="J116" t="s">
         <v>42</v>
       </c>
-      <c r="K116" t="n">
-        <v>0.0</v>
+      <c r="K116" t="s">
+        <v>42</v>
       </c>
       <c r="L116" t="n">
         <v>1.3</v>
@@ -16298,7 +16304,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16322,7 +16328,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16368,13 +16374,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16411,8 +16417,8 @@
       <c r="J117" t="s">
         <v>41</v>
       </c>
-      <c r="K117" t="n">
-        <v>0.0</v>
+      <c r="K117" t="s">
+        <v>42</v>
       </c>
       <c r="L117" t="n">
         <v>2.5</v>
@@ -16427,7 +16433,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16451,7 +16457,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16497,13 +16503,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16540,8 +16546,8 @@
       <c r="J118" t="s">
         <v>42</v>
       </c>
-      <c r="K118" t="n">
-        <v>0.0</v>
+      <c r="K118" t="s">
+        <v>42</v>
       </c>
       <c r="L118" t="n">
         <v>1.0</v>
@@ -16556,7 +16562,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16580,7 +16586,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16626,13 +16632,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16669,8 +16675,8 @@
       <c r="J119" t="s">
         <v>42</v>
       </c>
-      <c r="K119" t="n">
-        <v>1.0</v>
+      <c r="K119" t="s">
+        <v>41</v>
       </c>
       <c r="L119" t="n">
         <v>4.1</v>
@@ -16685,7 +16691,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16709,7 +16715,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16757,13 +16763,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16800,8 +16806,8 @@
       <c r="J120" t="s">
         <v>42</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.0</v>
+      <c r="K120" t="s">
+        <v>42</v>
       </c>
       <c r="L120" t="n">
         <v>1.3</v>
@@ -16816,7 +16822,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16840,7 +16846,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16886,13 +16892,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16929,8 +16935,8 @@
       <c r="J121" t="s">
         <v>42</v>
       </c>
-      <c r="K121" t="n">
-        <v>0.0</v>
+      <c r="K121" t="s">
+        <v>42</v>
       </c>
       <c r="L121" t="n">
         <v>1.4</v>
@@ -16945,7 +16951,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16969,7 +16975,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -17015,13 +17021,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -17058,8 +17064,8 @@
       <c r="J122" t="s">
         <v>42</v>
       </c>
-      <c r="K122" t="n">
-        <v>0.0</v>
+      <c r="K122" t="s">
+        <v>42</v>
       </c>
       <c r="L122" t="n">
         <v>2.2</v>
@@ -17074,7 +17080,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -17098,7 +17104,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -17144,13 +17150,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17187,8 +17193,8 @@
       <c r="J123" t="s">
         <v>42</v>
       </c>
-      <c r="K123" t="n">
-        <v>0.0</v>
+      <c r="K123" t="s">
+        <v>42</v>
       </c>
       <c r="L123" t="n">
         <v>1.4</v>
@@ -17203,7 +17209,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17227,7 +17233,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17273,13 +17279,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17316,8 +17322,8 @@
       <c r="J124" t="s">
         <v>41</v>
       </c>
-      <c r="K124" t="n">
-        <v>0.0</v>
+      <c r="K124" t="s">
+        <v>42</v>
       </c>
       <c r="L124" t="n">
         <v>4.0</v>
@@ -17332,7 +17338,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17356,7 +17362,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17402,13 +17408,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17445,8 +17451,8 @@
       <c r="J125" t="s">
         <v>42</v>
       </c>
-      <c r="K125" t="n">
-        <v>0.0</v>
+      <c r="K125" t="s">
+        <v>42</v>
       </c>
       <c r="L125" t="n">
         <v>2.3</v>
@@ -17461,7 +17467,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17485,7 +17491,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17531,13 +17537,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -1833,7 +1833,7 @@
       <c r="AN3" t="s">
         <v>37</v>
       </c>
-      <c r="AO3"/>
+      <c r="AO3" s="8"/>
       <c r="AP3" t="s">
         <v>274</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="AN4" t="s">
         <v>37</v>
       </c>
-      <c r="AO4"/>
+      <c r="AO4" s="8"/>
       <c r="AP4" t="s">
         <v>275</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="AN5" t="s">
         <v>37</v>
       </c>
-      <c r="AO5"/>
+      <c r="AO5" s="8"/>
       <c r="AP5" t="s">
         <v>276</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="AN6" t="s">
         <v>37</v>
       </c>
-      <c r="AO6"/>
+      <c r="AO6" s="8"/>
       <c r="AP6" t="s">
         <v>277</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="AN7" t="s">
         <v>37</v>
       </c>
-      <c r="AO7"/>
+      <c r="AO7" s="8"/>
       <c r="AP7" t="s">
         <v>278</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="AN8" t="s">
         <v>37</v>
       </c>
-      <c r="AO8"/>
+      <c r="AO8" s="8"/>
       <c r="AP8" t="s">
         <v>279</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="AN9" t="s">
         <v>37</v>
       </c>
-      <c r="AO9"/>
+      <c r="AO9" s="8"/>
       <c r="AP9" t="s">
         <v>280</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="AN10" t="s">
         <v>37</v>
       </c>
-      <c r="AO10"/>
+      <c r="AO10" s="8"/>
       <c r="AP10" t="s">
         <v>158</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="AN11" t="s">
         <v>37</v>
       </c>
-      <c r="AO11"/>
+      <c r="AO11" s="8"/>
       <c r="AP11" t="s">
         <v>281</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="AN12" t="s">
         <v>37</v>
       </c>
-      <c r="AO12"/>
+      <c r="AO12" s="8"/>
       <c r="AP12" t="s">
         <v>282</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="AN13" t="s">
         <v>37</v>
       </c>
-      <c r="AO13"/>
+      <c r="AO13" s="8"/>
       <c r="AP13" t="s">
         <v>283</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="AN14" t="s">
         <v>37</v>
       </c>
-      <c r="AO14"/>
+      <c r="AO14" s="8"/>
       <c r="AP14" t="s">
         <v>284</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="AN15" t="s">
         <v>37</v>
       </c>
-      <c r="AO15"/>
+      <c r="AO15" s="8"/>
       <c r="AP15" t="s">
         <v>285</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="AN16" t="s">
         <v>37</v>
       </c>
-      <c r="AO16"/>
+      <c r="AO16" s="8"/>
       <c r="AP16" t="s">
         <v>286</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="AN17" t="s">
         <v>37</v>
       </c>
-      <c r="AO17"/>
+      <c r="AO17" s="8"/>
       <c r="AP17" t="s">
         <v>287</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="AN18" t="s">
         <v>37</v>
       </c>
-      <c r="AO18"/>
+      <c r="AO18" s="8"/>
       <c r="AP18" t="s">
         <v>288</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="AN19" t="s">
         <v>37</v>
       </c>
-      <c r="AO19"/>
+      <c r="AO19" s="8"/>
       <c r="AP19" t="s">
         <v>289</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="AN20" t="s">
         <v>37</v>
       </c>
-      <c r="AO20"/>
+      <c r="AO20" s="8"/>
       <c r="AP20" t="s">
         <v>290</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="AN21" t="s">
         <v>37</v>
       </c>
-      <c r="AO21"/>
+      <c r="AO21" s="8"/>
       <c r="AP21" t="s">
         <v>291</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="AN22" t="s">
         <v>37</v>
       </c>
-      <c r="AO22"/>
+      <c r="AO22" s="8"/>
       <c r="AP22" t="s">
         <v>240</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="AN23" t="s">
         <v>37</v>
       </c>
-      <c r="AO23"/>
+      <c r="AO23" s="8"/>
       <c r="AP23" t="s">
         <v>292</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="AN24" t="s">
         <v>37</v>
       </c>
-      <c r="AO24"/>
+      <c r="AO24" s="8"/>
       <c r="AP24" t="s">
         <v>293</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="AN25" t="s">
         <v>37</v>
       </c>
-      <c r="AO25"/>
+      <c r="AO25" s="8"/>
       <c r="AP25" t="s">
         <v>294</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="AN26" t="s">
         <v>37</v>
       </c>
-      <c r="AO26"/>
+      <c r="AO26" s="8"/>
       <c r="AP26" t="s">
         <v>295</v>
       </c>
@@ -4923,7 +4923,7 @@
       <c r="AN27" t="s">
         <v>37</v>
       </c>
-      <c r="AO27"/>
+      <c r="AO27" s="8"/>
       <c r="AP27" t="s">
         <v>296</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="AN28" t="s">
         <v>37</v>
       </c>
-      <c r="AO28"/>
+      <c r="AO28" s="8"/>
       <c r="AP28" t="s">
         <v>297</v>
       </c>
@@ -5179,7 +5179,7 @@
       <c r="AN29" t="s">
         <v>37</v>
       </c>
-      <c r="AO29"/>
+      <c r="AO29" s="8"/>
       <c r="AP29" t="s">
         <v>298</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="AN30" t="s">
         <v>37</v>
       </c>
-      <c r="AO30"/>
+      <c r="AO30" s="8"/>
       <c r="AP30" t="s">
         <v>299</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="AN31" t="s">
         <v>37</v>
       </c>
-      <c r="AO31"/>
+      <c r="AO31" s="8"/>
       <c r="AP31" t="s">
         <v>300</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="AN32" t="s">
         <v>37</v>
       </c>
-      <c r="AO32"/>
+      <c r="AO32" s="8"/>
       <c r="AP32" t="s">
         <v>301</v>
       </c>
@@ -5693,7 +5693,7 @@
       <c r="AN33" t="s">
         <v>37</v>
       </c>
-      <c r="AO33"/>
+      <c r="AO33" s="8"/>
       <c r="AP33" t="s">
         <v>302</v>
       </c>
@@ -5784,7 +5784,7 @@
       <c r="AB34" s="8"/>
       <c r="AC34"/>
       <c r="AD34"/>
-      <c r="AE34"/>
+      <c r="AE34" s="8"/>
       <c r="AF34" t="n">
         <v>1.0</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="AN34" t="s">
         <v>37</v>
       </c>
-      <c r="AO34"/>
+      <c r="AO34" s="8"/>
       <c r="AP34" t="s">
         <v>303</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="AN35" t="s">
         <v>37</v>
       </c>
-      <c r="AO35"/>
+      <c r="AO35" s="8"/>
       <c r="AP35" t="s">
         <v>304</v>
       </c>
@@ -6070,7 +6070,7 @@
       <c r="AN36" t="s">
         <v>37</v>
       </c>
-      <c r="AO36"/>
+      <c r="AO36" s="8"/>
       <c r="AP36" t="s">
         <v>215</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="AN37" t="s">
         <v>37</v>
       </c>
-      <c r="AO37"/>
+      <c r="AO37" s="8"/>
       <c r="AP37" t="s">
         <v>305</v>
       </c>
@@ -6328,7 +6328,7 @@
       <c r="AN38" t="s">
         <v>37</v>
       </c>
-      <c r="AO38"/>
+      <c r="AO38" s="8"/>
       <c r="AP38" t="s">
         <v>306</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="AN39" t="s">
         <v>37</v>
       </c>
-      <c r="AO39"/>
+      <c r="AO39" s="8"/>
       <c r="AP39" t="s">
         <v>307</v>
       </c>
@@ -6582,7 +6582,7 @@
       <c r="AN40" t="s">
         <v>37</v>
       </c>
-      <c r="AO40"/>
+      <c r="AO40" s="8"/>
       <c r="AP40" t="s">
         <v>308</v>
       </c>
@@ -6711,7 +6711,7 @@
       <c r="AN41" t="s">
         <v>37</v>
       </c>
-      <c r="AO41"/>
+      <c r="AO41" s="8"/>
       <c r="AP41" t="s">
         <v>309</v>
       </c>
@@ -6840,7 +6840,7 @@
       <c r="AN42" t="s">
         <v>37</v>
       </c>
-      <c r="AO42"/>
+      <c r="AO42" s="8"/>
       <c r="AP42" t="s">
         <v>310</v>
       </c>
@@ -6969,7 +6969,7 @@
       <c r="AN43" t="s">
         <v>37</v>
       </c>
-      <c r="AO43"/>
+      <c r="AO43" s="8"/>
       <c r="AP43" t="s">
         <v>311</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="AN44" t="s">
         <v>37</v>
       </c>
-      <c r="AO44"/>
+      <c r="AO44" s="8"/>
       <c r="AP44" t="s">
         <v>312</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="AN45" t="s">
         <v>37</v>
       </c>
-      <c r="AO45"/>
+      <c r="AO45" s="8"/>
       <c r="AP45" t="s">
         <v>313</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="AN46" t="s">
         <v>37</v>
       </c>
-      <c r="AO46"/>
+      <c r="AO46" s="8"/>
       <c r="AP46" t="s">
         <v>314</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="AN47" t="s">
         <v>37</v>
       </c>
-      <c r="AO47"/>
+      <c r="AO47" s="8"/>
       <c r="AP47" t="s">
         <v>315</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="AN48" t="s">
         <v>37</v>
       </c>
-      <c r="AO48"/>
+      <c r="AO48" s="8"/>
       <c r="AP48" t="s">
         <v>195</v>
       </c>
@@ -7743,7 +7743,7 @@
       <c r="AN49" t="s">
         <v>37</v>
       </c>
-      <c r="AO49"/>
+      <c r="AO49" s="8"/>
       <c r="AP49" t="s">
         <v>196</v>
       </c>
@@ -7872,7 +7872,7 @@
       <c r="AN50" t="s">
         <v>37</v>
       </c>
-      <c r="AO50"/>
+      <c r="AO50" s="8"/>
       <c r="AP50" t="s">
         <v>316</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="AN51" t="s">
         <v>37</v>
       </c>
-      <c r="AO51"/>
+      <c r="AO51" s="8"/>
       <c r="AP51" t="s">
         <v>317</v>
       </c>
@@ -8130,7 +8130,7 @@
       <c r="AN52" t="s">
         <v>37</v>
       </c>
-      <c r="AO52"/>
+      <c r="AO52" s="8"/>
       <c r="AP52" t="s">
         <v>318</v>
       </c>
@@ -8259,7 +8259,7 @@
       <c r="AN53" t="s">
         <v>37</v>
       </c>
-      <c r="AO53"/>
+      <c r="AO53" s="8"/>
       <c r="AP53" t="s">
         <v>319</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="AH59" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI59" t="n">
+      <c r="AI59" t="n" s="48">
         <v>2.0</v>
       </c>
       <c r="AJ59" t="n">
@@ -10309,7 +10309,7 @@
       <c r="AH69" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI69" t="n">
+      <c r="AI69" t="n" s="48">
         <v>2.0</v>
       </c>
       <c r="AJ69" t="n">
@@ -11722,7 +11722,7 @@
       <c r="AH80" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI80" t="n">
+      <c r="AI80" t="n" s="48">
         <v>2.0</v>
       </c>
       <c r="AJ80" t="n">
@@ -12498,7 +12498,7 @@
       <c r="AH86" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI86" t="n">
+      <c r="AI86" t="n" s="48">
         <v>2.0</v>
       </c>
       <c r="AJ86" t="n">
@@ -13907,7 +13907,7 @@
       <c r="AH97" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI97" t="n">
+      <c r="AI97" t="n" s="48">
         <v>2.0</v>
       </c>
       <c r="AJ97" t="n">
@@ -15709,7 +15709,7 @@
       <c r="AH111" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI111" t="n">
+      <c r="AI111" t="n" s="48">
         <v>2.0</v>
       </c>
       <c r="AJ111" t="n">

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="301">
   <si>
     <t>Пациент</t>
   </si>
@@ -203,18 +203,12 @@
     <t>0,88</t>
   </si>
   <si>
-    <t>0, 92</t>
-  </si>
-  <si>
-    <t>0.7</t>
+    <t>0,92</t>
   </si>
   <si>
     <t>1,4</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>19.02.2009</t>
   </si>
   <si>
@@ -603,9 +597,6 @@
   </si>
   <si>
     <t>26.03.2011</t>
-  </si>
-  <si>
-    <t>01.02.2011</t>
   </si>
   <si>
     <t>12.02.2010</t>
@@ -1317,16 +1308,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s" s="28">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s" s="48">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s" s="68">
         <v>300</v>
-      </c>
-      <c r="B1" t="s" s="28">
-        <v>301</v>
-      </c>
-      <c r="C1" t="s" s="48">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s" s="68">
-        <v>303</v>
       </c>
     </row>
     <row r="2">
@@ -1530,8 +1521,8 @@
       <c r="W3" t="n">
         <v>0.0</v>
       </c>
-      <c r="X3" t="s" s="28">
-        <v>67</v>
+      <c r="X3" t="s">
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1583,10 +1574,10 @@
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AQ3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -1659,8 +1650,8 @@
       <c r="W4" t="n">
         <v>0.0</v>
       </c>
-      <c r="X4" t="s" s="28">
-        <v>68</v>
+      <c r="X4" t="s">
+        <v>66</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1712,10 +1703,10 @@
       </c>
       <c r="AO4" s="8"/>
       <c r="AP4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AQ4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
@@ -1789,7 +1780,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s" s="28">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -1841,10 +1832,10 @@
       </c>
       <c r="AO5" s="8"/>
       <c r="AP5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AQ5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6">
@@ -1917,8 +1908,8 @@
       <c r="W6" t="n">
         <v>0.0</v>
       </c>
-      <c r="X6" t="s" s="28">
-        <v>70</v>
+      <c r="X6" t="s">
+        <v>68</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -1970,10 +1961,10 @@
       </c>
       <c r="AO6" s="8"/>
       <c r="AP6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AQ6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
@@ -2046,8 +2037,8 @@
       <c r="W7" t="n">
         <v>0.0</v>
       </c>
-      <c r="X7" t="s" s="28">
-        <v>71</v>
+      <c r="X7" t="s">
+        <v>69</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2099,10 +2090,10 @@
       </c>
       <c r="AO7" s="8"/>
       <c r="AP7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AQ7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
@@ -2175,8 +2166,8 @@
       <c r="W8" t="n">
         <v>0.0</v>
       </c>
-      <c r="X8" t="s" s="28">
-        <v>72</v>
+      <c r="X8" t="s">
+        <v>70</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2228,10 +2219,10 @@
       </c>
       <c r="AO8" s="8"/>
       <c r="AP8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AQ8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
@@ -2304,8 +2295,8 @@
       <c r="W9" t="n">
         <v>0.0</v>
       </c>
-      <c r="X9" t="s" s="28">
-        <v>73</v>
+      <c r="X9" t="s">
+        <v>71</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2357,10 +2348,10 @@
       </c>
       <c r="AO9" s="8"/>
       <c r="AP9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AQ9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
@@ -2433,8 +2424,8 @@
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
-      <c r="X10" t="s" s="28">
-        <v>74</v>
+      <c r="X10" t="s">
+        <v>72</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2486,10 +2477,10 @@
       </c>
       <c r="AO10" s="8"/>
       <c r="AP10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AQ10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11">
@@ -2562,8 +2553,8 @@
       <c r="W11" t="n">
         <v>0.0</v>
       </c>
-      <c r="X11" t="s" s="28">
-        <v>75</v>
+      <c r="X11" t="s">
+        <v>73</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2614,11 +2605,11 @@
         <v>37</v>
       </c>
       <c r="AO11" s="8"/>
-      <c r="AP11" t="s">
-        <v>197</v>
+      <c r="AP11" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="AQ11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12">
@@ -2691,8 +2682,8 @@
       <c r="W12" t="n">
         <v>0.0</v>
       </c>
-      <c r="X12" t="s" s="28">
-        <v>76</v>
+      <c r="X12" t="s">
+        <v>74</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2744,10 +2735,10 @@
       </c>
       <c r="AO12" s="8"/>
       <c r="AP12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AQ12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13">
@@ -2820,8 +2811,8 @@
       <c r="W13" t="n">
         <v>0.0</v>
       </c>
-      <c r="X13" t="s" s="28">
-        <v>77</v>
+      <c r="X13" t="s">
+        <v>75</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -2873,10 +2864,10 @@
       </c>
       <c r="AO13" s="8"/>
       <c r="AP13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AQ13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14">
@@ -2949,8 +2940,8 @@
       <c r="W14" t="n">
         <v>2.0</v>
       </c>
-      <c r="X14" t="s" s="28">
-        <v>78</v>
+      <c r="X14" t="s">
+        <v>76</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3002,10 +2993,10 @@
       </c>
       <c r="AO14" s="8"/>
       <c r="AP14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AQ14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">
@@ -3078,8 +3069,8 @@
       <c r="W15" t="n">
         <v>1.0</v>
       </c>
-      <c r="X15" t="s" s="28">
-        <v>79</v>
+      <c r="X15" t="s">
+        <v>77</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3131,10 +3122,10 @@
       </c>
       <c r="AO15" s="8"/>
       <c r="AP15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AQ15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16">
@@ -3207,8 +3198,8 @@
       <c r="W16" t="n">
         <v>0.0</v>
       </c>
-      <c r="X16" t="s" s="28">
-        <v>80</v>
+      <c r="X16" t="s">
+        <v>78</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3260,10 +3251,10 @@
       </c>
       <c r="AO16" s="8"/>
       <c r="AP16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AQ16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17">
@@ -3336,8 +3327,8 @@
       <c r="W17" t="n">
         <v>0.0</v>
       </c>
-      <c r="X17" t="s" s="28">
-        <v>81</v>
+      <c r="X17" t="s">
+        <v>79</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3389,10 +3380,10 @@
       </c>
       <c r="AO17" s="8"/>
       <c r="AP17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AQ17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18">
@@ -3465,8 +3456,8 @@
       <c r="W18" t="n">
         <v>0.0</v>
       </c>
-      <c r="X18" t="s" s="28">
-        <v>82</v>
+      <c r="X18" t="s">
+        <v>80</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3518,10 +3509,10 @@
       </c>
       <c r="AO18" s="8"/>
       <c r="AP18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AQ18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19">
@@ -3594,8 +3585,8 @@
       <c r="W19" t="n">
         <v>0.0</v>
       </c>
-      <c r="X19" t="s" s="28">
-        <v>83</v>
+      <c r="X19" t="s">
+        <v>81</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3647,10 +3638,10 @@
       </c>
       <c r="AO19" s="8"/>
       <c r="AP19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AQ19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -3723,8 +3714,8 @@
       <c r="W20" t="n">
         <v>0.0</v>
       </c>
-      <c r="X20" t="s" s="28">
-        <v>84</v>
+      <c r="X20" t="s">
+        <v>82</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -3776,10 +3767,10 @@
       </c>
       <c r="AO20" s="8"/>
       <c r="AP20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AQ20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21">
@@ -3852,8 +3843,8 @@
       <c r="W21" t="n">
         <v>0.0</v>
       </c>
-      <c r="X21" t="s" s="28">
-        <v>85</v>
+      <c r="X21" t="s">
+        <v>83</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -3905,10 +3896,10 @@
       </c>
       <c r="AO21" s="8"/>
       <c r="AP21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AQ21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22">
@@ -3981,8 +3972,8 @@
       <c r="W22" t="n">
         <v>0.0</v>
       </c>
-      <c r="X22" t="s" s="28">
-        <v>86</v>
+      <c r="X22" t="s">
+        <v>84</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4034,10 +4025,10 @@
       </c>
       <c r="AO22" s="8"/>
       <c r="AP22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AQ22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23">
@@ -4110,8 +4101,8 @@
       <c r="W23" t="n">
         <v>0.0</v>
       </c>
-      <c r="X23" t="s" s="28">
-        <v>87</v>
+      <c r="X23" t="s">
+        <v>85</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4163,10 +4154,10 @@
       </c>
       <c r="AO23" s="8"/>
       <c r="AP23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AQ23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24">
@@ -4239,8 +4230,8 @@
       <c r="W24" t="n">
         <v>2.0</v>
       </c>
-      <c r="X24" t="s" s="28">
-        <v>88</v>
+      <c r="X24" t="s">
+        <v>86</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4292,10 +4283,10 @@
       </c>
       <c r="AO24" s="8"/>
       <c r="AP24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AQ24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25">
@@ -4368,8 +4359,8 @@
       <c r="W25" t="n">
         <v>0.0</v>
       </c>
-      <c r="X25" t="s" s="28">
-        <v>89</v>
+      <c r="X25" t="s">
+        <v>87</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4421,10 +4412,10 @@
       </c>
       <c r="AO25" s="8"/>
       <c r="AP25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AQ25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26">
@@ -4497,8 +4488,8 @@
       <c r="W26" t="n">
         <v>0.0</v>
       </c>
-      <c r="X26" t="s" s="28">
-        <v>90</v>
+      <c r="X26" t="s">
+        <v>88</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4550,10 +4541,10 @@
       </c>
       <c r="AO26" s="8"/>
       <c r="AP26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AQ26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27">
@@ -4626,8 +4617,8 @@
       <c r="W27" t="n">
         <v>2.0</v>
       </c>
-      <c r="X27" t="s" s="28">
-        <v>91</v>
+      <c r="X27" t="s">
+        <v>89</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4675,10 +4666,10 @@
       </c>
       <c r="AO27" s="8"/>
       <c r="AP27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AQ27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
@@ -4751,8 +4742,8 @@
       <c r="W28" t="n">
         <v>0.0</v>
       </c>
-      <c r="X28" t="s" s="28">
-        <v>92</v>
+      <c r="X28" t="s">
+        <v>90</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -4804,10 +4795,10 @@
       </c>
       <c r="AO28" s="8"/>
       <c r="AP28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AQ28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29">
@@ -4880,8 +4871,8 @@
       <c r="W29" t="n">
         <v>0.0</v>
       </c>
-      <c r="X29" t="s" s="28">
-        <v>93</v>
+      <c r="X29" t="s">
+        <v>91</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -4931,10 +4922,10 @@
       </c>
       <c r="AO29" s="8"/>
       <c r="AP29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AQ29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30">
@@ -5007,8 +4998,8 @@
       <c r="W30" t="n">
         <v>0.0</v>
       </c>
-      <c r="X30" t="s" s="28">
-        <v>94</v>
+      <c r="X30" t="s">
+        <v>92</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5058,10 +5049,10 @@
       </c>
       <c r="AO30" s="8"/>
       <c r="AP30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AQ30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
@@ -5134,8 +5125,8 @@
       <c r="W31" t="n">
         <v>0.0</v>
       </c>
-      <c r="X31" t="s" s="28">
-        <v>95</v>
+      <c r="X31" t="s">
+        <v>93</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5187,10 +5178,10 @@
       </c>
       <c r="AO31" s="8"/>
       <c r="AP31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AQ31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
@@ -5263,8 +5254,8 @@
       <c r="W32" t="n">
         <v>2.0</v>
       </c>
-      <c r="X32" t="s" s="28">
-        <v>91</v>
+      <c r="X32" t="s">
+        <v>89</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5316,10 +5307,10 @@
       </c>
       <c r="AO32" s="8"/>
       <c r="AP32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AQ32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
@@ -5392,8 +5383,8 @@
       <c r="W33" t="n">
         <v>0.0</v>
       </c>
-      <c r="X33" t="s" s="28">
-        <v>96</v>
+      <c r="X33" t="s">
+        <v>94</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5445,10 +5436,10 @@
       </c>
       <c r="AO33" s="8"/>
       <c r="AP33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AQ33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
@@ -5521,8 +5512,8 @@
       <c r="W34" t="n">
         <v>0.0</v>
       </c>
-      <c r="X34" t="s" s="28">
-        <v>97</v>
+      <c r="X34" t="s">
+        <v>95</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5564,10 +5555,10 @@
       </c>
       <c r="AO34" s="8"/>
       <c r="AP34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AQ34" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -5640,8 +5631,8 @@
       <c r="W35" t="n">
         <v>0.0</v>
       </c>
-      <c r="X35" t="s" s="28">
-        <v>98</v>
+      <c r="X35" t="s">
+        <v>96</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5693,10 +5684,10 @@
       </c>
       <c r="AO35" s="8"/>
       <c r="AP35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
@@ -5769,8 +5760,8 @@
       <c r="W36" t="n">
         <v>0.0</v>
       </c>
-      <c r="X36" t="s" s="28">
-        <v>99</v>
+      <c r="X36" t="s">
+        <v>97</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -5822,10 +5813,10 @@
       </c>
       <c r="AO36" s="8"/>
       <c r="AP36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AQ36" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
@@ -5898,8 +5889,8 @@
       <c r="W37" t="n">
         <v>0.0</v>
       </c>
-      <c r="X37" t="s" s="28">
-        <v>100</v>
+      <c r="X37" t="s">
+        <v>98</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -5951,10 +5942,10 @@
       </c>
       <c r="AO37" s="8"/>
       <c r="AP37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AQ37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38">
@@ -6027,8 +6018,8 @@
       <c r="W38" t="n">
         <v>0.0</v>
       </c>
-      <c r="X38" t="s" s="28">
-        <v>101</v>
+      <c r="X38" t="s">
+        <v>99</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6080,10 +6071,10 @@
       </c>
       <c r="AO38" s="8"/>
       <c r="AP38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AQ38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39">
@@ -6156,8 +6147,8 @@
       <c r="W39" t="n">
         <v>0.0</v>
       </c>
-      <c r="X39" t="s" s="28">
-        <v>102</v>
+      <c r="X39" t="s">
+        <v>100</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6205,10 +6196,10 @@
       </c>
       <c r="AO39" s="8"/>
       <c r="AP39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AQ39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -6281,8 +6272,8 @@
       <c r="W40" t="n">
         <v>0.0</v>
       </c>
-      <c r="X40" t="s" s="28">
-        <v>103</v>
+      <c r="X40" t="s">
+        <v>101</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6334,10 +6325,10 @@
       </c>
       <c r="AO40" s="8"/>
       <c r="AP40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AQ40" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41">
@@ -6410,8 +6401,8 @@
       <c r="W41" t="n">
         <v>0.0</v>
       </c>
-      <c r="X41" t="s" s="28">
-        <v>104</v>
+      <c r="X41" t="s">
+        <v>102</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6463,10 +6454,10 @@
       </c>
       <c r="AO41" s="8"/>
       <c r="AP41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AQ41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
@@ -6539,8 +6530,8 @@
       <c r="W42" t="n">
         <v>0.0</v>
       </c>
-      <c r="X42" t="s" s="28">
-        <v>105</v>
+      <c r="X42" t="s">
+        <v>103</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6592,10 +6583,10 @@
       </c>
       <c r="AO42" s="8"/>
       <c r="AP42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AQ42" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
@@ -6668,8 +6659,8 @@
       <c r="W43" t="n">
         <v>0.0</v>
       </c>
-      <c r="X43" t="s" s="28">
-        <v>106</v>
+      <c r="X43" t="s">
+        <v>104</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6721,10 +6712,10 @@
       </c>
       <c r="AO43" s="8"/>
       <c r="AP43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AQ43" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44">
@@ -6797,8 +6788,8 @@
       <c r="W44" t="n">
         <v>0.0</v>
       </c>
-      <c r="X44" t="s" s="28">
-        <v>107</v>
+      <c r="X44" t="s">
+        <v>105</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -6850,10 +6841,10 @@
       </c>
       <c r="AO44" s="8"/>
       <c r="AP44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AQ44" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45">
@@ -6926,8 +6917,8 @@
       <c r="W45" t="n">
         <v>0.0</v>
       </c>
-      <c r="X45" t="s" s="28">
-        <v>108</v>
+      <c r="X45" t="s">
+        <v>106</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -6979,10 +6970,10 @@
       </c>
       <c r="AO45" s="8"/>
       <c r="AP45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AQ45" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46">
@@ -7055,8 +7046,8 @@
       <c r="W46" t="n">
         <v>0.0</v>
       </c>
-      <c r="X46" t="s" s="28">
-        <v>109</v>
+      <c r="X46" t="s">
+        <v>107</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7108,10 +7099,10 @@
       </c>
       <c r="AO46" s="8"/>
       <c r="AP46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AQ46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
@@ -7184,8 +7175,8 @@
       <c r="W47" t="n">
         <v>0.0</v>
       </c>
-      <c r="X47" t="s" s="28">
-        <v>110</v>
+      <c r="X47" t="s">
+        <v>108</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7237,10 +7228,10 @@
       </c>
       <c r="AO47" s="8"/>
       <c r="AP47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AQ47" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48">
@@ -7313,8 +7304,8 @@
       <c r="W48" t="n">
         <v>2.0</v>
       </c>
-      <c r="X48" t="s" s="28">
-        <v>111</v>
+      <c r="X48" t="s">
+        <v>109</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7366,10 +7357,10 @@
       </c>
       <c r="AO48" s="8"/>
       <c r="AP48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AQ48" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49">
@@ -7442,8 +7433,8 @@
       <c r="W49" t="n">
         <v>0.0</v>
       </c>
-      <c r="X49" t="s" s="28">
-        <v>112</v>
+      <c r="X49" t="s">
+        <v>110</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7495,10 +7486,10 @@
       </c>
       <c r="AO49" s="8"/>
       <c r="AP49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AQ49" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50">
@@ -7571,8 +7562,8 @@
       <c r="W50" t="n">
         <v>0.0</v>
       </c>
-      <c r="X50" t="s" s="28">
-        <v>113</v>
+      <c r="X50" t="s">
+        <v>111</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7624,10 +7615,10 @@
       </c>
       <c r="AO50" s="8"/>
       <c r="AP50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AQ50" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51">
@@ -7700,8 +7691,8 @@
       <c r="W51" t="n">
         <v>0.0</v>
       </c>
-      <c r="X51" t="s" s="28">
-        <v>114</v>
+      <c r="X51" t="s">
+        <v>112</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7753,10 +7744,10 @@
       </c>
       <c r="AO51" s="8"/>
       <c r="AP51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AQ51" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52">
@@ -7829,8 +7820,8 @@
       <c r="W52" t="n">
         <v>0.0</v>
       </c>
-      <c r="X52" t="s" s="28">
-        <v>115</v>
+      <c r="X52" t="s">
+        <v>113</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -7882,10 +7873,10 @@
       </c>
       <c r="AO52" s="8"/>
       <c r="AP52" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AQ52" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53">
@@ -7958,8 +7949,8 @@
       <c r="W53" t="n">
         <v>0.0</v>
       </c>
-      <c r="X53" t="s" s="28">
-        <v>116</v>
+      <c r="X53" t="s">
+        <v>114</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8011,10 +8002,10 @@
       </c>
       <c r="AO53" s="8"/>
       <c r="AP53" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AQ53" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54">
@@ -8063,7 +8054,7 @@
       <c r="O54" t="n">
         <v>54.0</v>
       </c>
-      <c r="P54" t="s" s="48">
+      <c r="P54" t="s" s="28">
         <v>63</v>
       </c>
       <c r="Q54" t="n">
@@ -8087,8 +8078,8 @@
       <c r="W54" t="n">
         <v>0.0</v>
       </c>
-      <c r="X54" t="s" s="28">
-        <v>117</v>
+      <c r="X54" t="s">
+        <v>115</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8136,13 +8127,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8218,8 +8209,8 @@
       <c r="W55" t="n">
         <v>1.0</v>
       </c>
-      <c r="X55" t="s" s="28">
-        <v>101</v>
+      <c r="X55" t="s">
+        <v>99</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8265,13 +8256,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8347,8 +8338,8 @@
       <c r="W56" t="n">
         <v>0.0</v>
       </c>
-      <c r="X56" t="s" s="28">
-        <v>118</v>
+      <c r="X56" t="s">
+        <v>116</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8396,13 +8387,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8478,8 +8469,8 @@
       <c r="W57" t="n">
         <v>0.0</v>
       </c>
-      <c r="X57" t="s" s="28">
-        <v>119</v>
+      <c r="X57" t="s">
+        <v>117</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8527,13 +8518,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8585,8 +8576,8 @@
       <c r="O58" t="n">
         <v>76.0</v>
       </c>
-      <c r="P58" t="s">
-        <v>64</v>
+      <c r="P58" t="s" s="28">
+        <v>47</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8609,8 +8600,8 @@
       <c r="W58" t="n">
         <v>0.0</v>
       </c>
-      <c r="X58" t="s" s="28">
-        <v>120</v>
+      <c r="X58" t="s">
+        <v>118</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8656,13 +8647,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8738,8 +8729,8 @@
       <c r="W59" t="n">
         <v>0.0</v>
       </c>
-      <c r="X59" t="s" s="28">
-        <v>121</v>
+      <c r="X59" t="s">
+        <v>119</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -8785,13 +8776,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -8867,8 +8858,8 @@
       <c r="W60" t="n">
         <v>0.0</v>
       </c>
-      <c r="X60" t="s" s="28">
-        <v>122</v>
+      <c r="X60" t="s">
+        <v>120</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -8914,13 +8905,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -8996,8 +8987,8 @@
       <c r="W61" t="n">
         <v>0.0</v>
       </c>
-      <c r="X61" t="s" s="28">
-        <v>123</v>
+      <c r="X61" t="s">
+        <v>121</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9045,13 +9036,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9127,8 +9118,8 @@
       <c r="W62" t="n">
         <v>0.0</v>
       </c>
-      <c r="X62" t="s" s="28">
-        <v>124</v>
+      <c r="X62" t="s">
+        <v>122</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9174,13 +9165,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9256,8 +9247,8 @@
       <c r="W63" t="n">
         <v>0.0</v>
       </c>
-      <c r="X63" t="s" s="28">
-        <v>125</v>
+      <c r="X63" t="s">
+        <v>123</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9303,13 +9294,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9385,8 +9376,8 @@
       <c r="W64" t="n">
         <v>0.0</v>
       </c>
-      <c r="X64" t="s" s="28">
-        <v>126</v>
+      <c r="X64" t="s">
+        <v>124</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9432,13 +9423,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9514,8 +9505,8 @@
       <c r="W65" t="n">
         <v>0.0</v>
       </c>
-      <c r="X65" t="s" s="28">
-        <v>127</v>
+      <c r="X65" t="s">
+        <v>125</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9561,13 +9552,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9643,8 +9634,8 @@
       <c r="W66" t="n">
         <v>0.0</v>
       </c>
-      <c r="X66" t="s" s="28">
-        <v>128</v>
+      <c r="X66" t="s">
+        <v>126</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9688,13 +9679,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9770,8 +9761,8 @@
       <c r="W67" t="n">
         <v>0.0</v>
       </c>
-      <c r="X67" t="s" s="28">
-        <v>129</v>
+      <c r="X67" t="s">
+        <v>127</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -9817,13 +9808,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -9899,8 +9890,8 @@
       <c r="W68" t="n">
         <v>0.0</v>
       </c>
-      <c r="X68" t="s" s="28">
-        <v>130</v>
+      <c r="X68" t="s">
+        <v>128</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -9946,13 +9937,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10028,8 +10019,8 @@
       <c r="W69" t="n">
         <v>0.0</v>
       </c>
-      <c r="X69" t="s" s="28">
-        <v>131</v>
+      <c r="X69" t="s">
+        <v>129</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10075,13 +10066,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10157,8 +10148,8 @@
       <c r="W70" t="n">
         <v>0.0</v>
       </c>
-      <c r="X70" t="s" s="28">
-        <v>132</v>
+      <c r="X70" t="s">
+        <v>130</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10202,13 +10193,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10284,8 +10275,8 @@
       <c r="W71" t="n">
         <v>0.0</v>
       </c>
-      <c r="X71" t="s" s="28">
-        <v>133</v>
+      <c r="X71" t="s">
+        <v>131</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10329,13 +10320,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10388,7 +10379,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10411,8 +10402,8 @@
       <c r="W72" t="n">
         <v>0.0</v>
       </c>
-      <c r="X72" t="s" s="28">
-        <v>134</v>
+      <c r="X72" t="s">
+        <v>132</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10458,13 +10449,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10540,8 +10531,8 @@
       <c r="W73" t="n">
         <v>0.0</v>
       </c>
-      <c r="X73" t="s" s="28">
-        <v>135</v>
+      <c r="X73" t="s">
+        <v>133</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10587,13 +10578,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10669,8 +10660,8 @@
       <c r="W74" t="n">
         <v>0.0</v>
       </c>
-      <c r="X74" t="s" s="28">
-        <v>136</v>
+      <c r="X74" t="s">
+        <v>134</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10716,13 +10707,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -10798,8 +10789,8 @@
       <c r="W75" t="n">
         <v>0.0</v>
       </c>
-      <c r="X75" t="s" s="28">
-        <v>137</v>
+      <c r="X75" t="s">
+        <v>135</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -10845,13 +10836,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -10927,8 +10918,8 @@
       <c r="W76" t="n">
         <v>0.0</v>
       </c>
-      <c r="X76" t="s" s="28">
-        <v>138</v>
+      <c r="X76" t="s">
+        <v>136</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -10972,13 +10963,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11054,8 +11045,8 @@
       <c r="W77" t="n">
         <v>0.0</v>
       </c>
-      <c r="X77" t="s" s="28">
-        <v>139</v>
+      <c r="X77" t="s">
+        <v>137</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11101,13 +11092,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11183,8 +11174,8 @@
       <c r="W78" t="n">
         <v>0.0</v>
       </c>
-      <c r="X78" t="s" s="28">
-        <v>140</v>
+      <c r="X78" t="s">
+        <v>138</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11230,13 +11221,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11312,8 +11303,8 @@
       <c r="W79" t="n">
         <v>2.0</v>
       </c>
-      <c r="X79" t="s" s="28">
-        <v>91</v>
+      <c r="X79" t="s">
+        <v>89</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11359,13 +11350,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s" s="48">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11417,8 +11408,8 @@
       <c r="O80" t="n">
         <v>85.0</v>
       </c>
-      <c r="P80" t="s">
-        <v>66</v>
+      <c r="P80" t="s" s="28">
+        <v>61</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11441,8 +11432,8 @@
       <c r="W80" t="n">
         <v>0.0</v>
       </c>
-      <c r="X80" t="s" s="28">
-        <v>141</v>
+      <c r="X80" t="s">
+        <v>139</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11488,13 +11479,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11570,8 +11561,8 @@
       <c r="W81" t="n">
         <v>0.0</v>
       </c>
-      <c r="X81" t="s" s="28">
-        <v>142</v>
+      <c r="X81" t="s">
+        <v>140</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11619,13 +11610,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11701,8 +11692,8 @@
       <c r="W82" t="n">
         <v>0.0</v>
       </c>
-      <c r="X82" t="s" s="28">
-        <v>143</v>
+      <c r="X82" t="s">
+        <v>141</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11748,13 +11739,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -11830,8 +11821,8 @@
       <c r="W83" t="n">
         <v>0.0</v>
       </c>
-      <c r="X83" t="s" s="28">
-        <v>144</v>
+      <c r="X83" t="s">
+        <v>142</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -11877,13 +11868,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -11936,7 +11927,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -11959,8 +11950,8 @@
       <c r="W84" t="n">
         <v>0.0</v>
       </c>
-      <c r="X84" t="s" s="28">
-        <v>145</v>
+      <c r="X84" t="s">
+        <v>143</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12006,13 +11997,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12088,8 +12079,8 @@
       <c r="W85" t="n">
         <v>0.0</v>
       </c>
-      <c r="X85" t="s" s="28">
-        <v>146</v>
+      <c r="X85" t="s">
+        <v>144</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12135,13 +12126,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12217,8 +12208,8 @@
       <c r="W86" t="n">
         <v>0.0</v>
       </c>
-      <c r="X86" t="s" s="28">
-        <v>147</v>
+      <c r="X86" t="s">
+        <v>145</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12264,13 +12255,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12346,8 +12337,8 @@
       <c r="W87" t="n">
         <v>0.0</v>
       </c>
-      <c r="X87" t="s" s="28">
-        <v>148</v>
+      <c r="X87" t="s">
+        <v>146</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12393,13 +12384,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12475,8 +12466,8 @@
       <c r="W88" t="n">
         <v>0.0</v>
       </c>
-      <c r="X88" t="s" s="28">
-        <v>149</v>
+      <c r="X88" t="s">
+        <v>147</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12522,13 +12513,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12604,8 +12595,8 @@
       <c r="W89" t="n">
         <v>0.0</v>
       </c>
-      <c r="X89" t="s" s="28">
-        <v>150</v>
+      <c r="X89" t="s">
+        <v>148</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12651,13 +12642,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12733,8 +12724,8 @@
       <c r="W90" t="n">
         <v>0.0</v>
       </c>
-      <c r="X90" t="s" s="28">
-        <v>93</v>
+      <c r="X90" t="s">
+        <v>91</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -12778,13 +12769,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -12860,8 +12851,8 @@
       <c r="W91" t="n">
         <v>0.0</v>
       </c>
-      <c r="X91" t="s" s="28">
-        <v>151</v>
+      <c r="X91" t="s">
+        <v>149</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -12907,13 +12898,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -12989,8 +12980,8 @@
       <c r="W92" t="n">
         <v>0.0</v>
       </c>
-      <c r="X92" t="s" s="28">
-        <v>152</v>
+      <c r="X92" t="s">
+        <v>150</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13036,13 +13027,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13118,8 +13109,8 @@
       <c r="W93" t="n">
         <v>0.0</v>
       </c>
-      <c r="X93" t="s" s="28">
-        <v>153</v>
+      <c r="X93" t="s">
+        <v>151</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13165,13 +13156,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13247,8 +13238,8 @@
       <c r="W94" t="n">
         <v>0.0</v>
       </c>
-      <c r="X94" t="s" s="28">
-        <v>154</v>
+      <c r="X94" t="s">
+        <v>152</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13294,13 +13285,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13376,8 +13367,8 @@
       <c r="W95" t="n">
         <v>0.0</v>
       </c>
-      <c r="X95" t="s" s="28">
-        <v>155</v>
+      <c r="X95" t="s">
+        <v>153</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13423,13 +13414,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13499,8 +13490,8 @@
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
-      <c r="X96" t="s" s="28">
-        <v>156</v>
+      <c r="X96" t="s">
+        <v>154</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13546,13 +13537,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13628,8 +13619,8 @@
       <c r="W97" t="n">
         <v>2.0</v>
       </c>
-      <c r="X97" t="s" s="28">
-        <v>157</v>
+      <c r="X97" t="s">
+        <v>155</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13673,13 +13664,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s" s="48">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13755,8 +13746,8 @@
       <c r="W98" t="n">
         <v>0.0</v>
       </c>
-      <c r="X98" t="s" s="28">
-        <v>158</v>
+      <c r="X98" t="s">
+        <v>156</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -13800,13 +13791,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -13882,8 +13873,8 @@
       <c r="W99" t="n">
         <v>0.0</v>
       </c>
-      <c r="X99" t="s" s="28">
-        <v>159</v>
+      <c r="X99" t="s">
+        <v>157</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -13929,13 +13920,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14011,8 +14002,8 @@
       <c r="W100" t="n">
         <v>0.0</v>
       </c>
-      <c r="X100" t="s" s="28">
-        <v>160</v>
+      <c r="X100" t="s">
+        <v>158</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14058,13 +14049,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14140,8 +14131,8 @@
       <c r="W101" t="n">
         <v>2.0</v>
       </c>
-      <c r="X101" t="s" s="28">
-        <v>161</v>
+      <c r="X101" t="s">
+        <v>159</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14185,13 +14176,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14267,8 +14258,8 @@
       <c r="W102" t="n">
         <v>0.0</v>
       </c>
-      <c r="X102" t="s" s="28">
-        <v>162</v>
+      <c r="X102" t="s">
+        <v>160</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14314,13 +14305,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14396,8 +14387,8 @@
       <c r="W103" t="n">
         <v>0.0</v>
       </c>
-      <c r="X103" t="s" s="28">
-        <v>163</v>
+      <c r="X103" t="s">
+        <v>161</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14443,13 +14434,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14525,8 +14516,8 @@
       <c r="W104" t="n">
         <v>0.0</v>
       </c>
-      <c r="X104" t="s" s="28">
-        <v>164</v>
+      <c r="X104" t="s">
+        <v>162</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14572,13 +14563,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14654,8 +14645,8 @@
       <c r="W105" t="n">
         <v>0.0</v>
       </c>
-      <c r="X105" t="s" s="28">
-        <v>165</v>
+      <c r="X105" t="s">
+        <v>163</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14701,13 +14692,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14783,8 +14774,8 @@
       <c r="W106" t="n">
         <v>0.0</v>
       </c>
-      <c r="X106" t="s" s="28">
-        <v>166</v>
+      <c r="X106" t="s">
+        <v>164</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -14832,13 +14823,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -14914,8 +14905,8 @@
       <c r="W107" t="n">
         <v>0.0</v>
       </c>
-      <c r="X107" t="s" s="28">
-        <v>167</v>
+      <c r="X107" t="s">
+        <v>165</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -14959,13 +14950,13 @@
       </c>
       <c r="AM107" s="8"/>
       <c r="AN107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15041,8 +15032,8 @@
       <c r="W108" t="n">
         <v>2.0</v>
       </c>
-      <c r="X108" t="s" s="28">
-        <v>168</v>
+      <c r="X108" t="s">
+        <v>166</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15088,13 +15079,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15170,8 +15161,8 @@
       <c r="W109" t="n">
         <v>0.0</v>
       </c>
-      <c r="X109" t="s" s="28">
-        <v>169</v>
+      <c r="X109" t="s">
+        <v>167</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15217,13 +15208,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15299,8 +15290,8 @@
       <c r="W110" t="n">
         <v>2.0</v>
       </c>
-      <c r="X110" t="s" s="28">
-        <v>170</v>
+      <c r="X110" t="s">
+        <v>168</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15346,13 +15337,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15428,8 +15419,8 @@
       <c r="W111" t="n">
         <v>2.0</v>
       </c>
-      <c r="X111" t="s" s="28">
-        <v>171</v>
+      <c r="X111" t="s">
+        <v>169</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15475,13 +15466,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15534,7 +15525,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15557,8 +15548,8 @@
       <c r="W112" t="n">
         <v>0.0</v>
       </c>
-      <c r="X112" t="s" s="28">
-        <v>172</v>
+      <c r="X112" t="s">
+        <v>170</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15606,13 +15597,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15688,8 +15679,8 @@
       <c r="W113" t="n">
         <v>2.0</v>
       </c>
-      <c r="X113" t="s" s="28">
-        <v>173</v>
+      <c r="X113" t="s">
+        <v>171</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15735,13 +15726,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -15817,8 +15808,8 @@
       <c r="W114" t="n">
         <v>0.0</v>
       </c>
-      <c r="X114" t="s" s="28">
-        <v>174</v>
+      <c r="X114" t="s">
+        <v>172</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -15864,13 +15855,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -15946,8 +15937,8 @@
       <c r="W115" t="n">
         <v>0.0</v>
       </c>
-      <c r="X115" t="s" s="28">
-        <v>175</v>
+      <c r="X115" t="s">
+        <v>173</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -15995,13 +15986,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16077,8 +16068,8 @@
       <c r="W116" t="n">
         <v>0.0</v>
       </c>
-      <c r="X116" t="s" s="28">
-        <v>176</v>
+      <c r="X116" t="s">
+        <v>174</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16124,13 +16115,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16206,8 +16197,8 @@
       <c r="W117" t="n">
         <v>0.0</v>
       </c>
-      <c r="X117" t="s" s="28">
-        <v>177</v>
+      <c r="X117" t="s">
+        <v>175</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16253,13 +16244,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16335,8 +16326,8 @@
       <c r="W118" t="n">
         <v>0.0</v>
       </c>
-      <c r="X118" t="s" s="28">
-        <v>178</v>
+      <c r="X118" t="s">
+        <v>176</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16382,13 +16373,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16464,8 +16455,8 @@
       <c r="W119" t="n">
         <v>0.0</v>
       </c>
-      <c r="X119" t="s" s="28">
-        <v>179</v>
+      <c r="X119" t="s">
+        <v>177</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16513,13 +16504,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16595,8 +16586,8 @@
       <c r="W120" t="n">
         <v>0.0</v>
       </c>
-      <c r="X120" t="s" s="28">
-        <v>180</v>
+      <c r="X120" t="s">
+        <v>178</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16642,13 +16633,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16724,8 +16715,8 @@
       <c r="W121" t="n">
         <v>0.0</v>
       </c>
-      <c r="X121" t="s" s="28">
-        <v>181</v>
+      <c r="X121" t="s">
+        <v>179</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -16771,13 +16762,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -16853,8 +16844,8 @@
       <c r="W122" t="n">
         <v>2.0</v>
       </c>
-      <c r="X122" t="s" s="28">
-        <v>182</v>
+      <c r="X122" t="s">
+        <v>180</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -16900,13 +16891,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -16982,8 +16973,8 @@
       <c r="W123" t="n">
         <v>0.0</v>
       </c>
-      <c r="X123" t="s" s="28">
-        <v>183</v>
+      <c r="X123" t="s">
+        <v>181</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17029,13 +17020,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17111,8 +17102,8 @@
       <c r="W124" t="n">
         <v>2.0</v>
       </c>
-      <c r="X124" t="s" s="28">
-        <v>184</v>
+      <c r="X124" t="s">
+        <v>182</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17158,13 +17149,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17240,8 +17231,8 @@
       <c r="W125" t="n">
         <v>0.0</v>
       </c>
-      <c r="X125" t="s" s="28">
-        <v>185</v>
+      <c r="X125" t="s">
+        <v>183</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17287,13 +17278,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="302">
   <si>
     <t>Пациент</t>
   </si>
@@ -578,7 +578,7 @@
     <t>des_bms</t>
   </si>
   <si>
-    <t>20.02.2010</t>
+    <t>20.02.2008</t>
   </si>
   <si>
     <t>09.05.2009</t>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>Выбросы</t>
+  </si>
+  <si>
+    <t>Непоследовательные даты</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="27">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1015,8 +1018,53 @@
       <sz val="11.0"/>
       <i val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,6 +1136,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3030"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="CDBE70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="CDBE70"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="CDBE70"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -1172,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1200,52 +1265,88 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1265,7 +1366,7 @@
     <col min="2" max="2" width="13.3125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.67578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.4921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.75390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.87890625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.87890625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.58984375" customWidth="true" bestFit="true"/>
@@ -1302,7 +1403,7 @@
     <col min="39" max="39" width="14.83984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="11.05859375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="23.390625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="10.98828125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="11.10546875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="4.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1310,14 +1411,17 @@
       <c r="A1" t="s" s="8">
         <v>297</v>
       </c>
-      <c r="B1" t="s" s="28">
+      <c r="B1" t="s" s="32">
         <v>298</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" t="s" s="56">
         <v>299</v>
       </c>
-      <c r="D1" t="s" s="68">
+      <c r="D1" t="s" s="80">
         <v>300</v>
+      </c>
+      <c r="E1" t="s" s="104">
+        <v>301</v>
       </c>
     </row>
     <row r="2">
@@ -1455,7 +1559,7 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s" s="28">
+      <c r="B3" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C3" t="n">
@@ -1521,7 +1625,7 @@
       <c r="W3" t="n">
         <v>0.0</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" t="s" s="104">
         <v>65</v>
       </c>
       <c r="Y3" t="n">
@@ -1573,7 +1677,7 @@
         <v>37</v>
       </c>
       <c r="AO3" s="8"/>
-      <c r="AP3" t="s">
+      <c r="AP3" t="s" s="104">
         <v>188</v>
       </c>
       <c r="AQ3" t="s">
@@ -1584,7 +1688,7 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s" s="28">
+      <c r="B4" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C4" t="n">
@@ -1656,7 +1760,7 @@
       <c r="Y4" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z4" t="n" s="68">
+      <c r="Z4" t="n" s="80">
         <v>434.0</v>
       </c>
       <c r="AA4" t="n">
@@ -1713,7 +1817,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s" s="28">
+      <c r="B5" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C5" t="n">
@@ -1779,7 +1883,7 @@
       <c r="W5" t="n">
         <v>0.0</v>
       </c>
-      <c r="X5" t="s" s="28">
+      <c r="X5" t="s" s="32">
         <v>67</v>
       </c>
       <c r="Y5" t="n">
@@ -1842,10 +1946,10 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s" s="28">
+      <c r="B6" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C6" t="n" s="68">
+      <c r="C6" t="n" s="80">
         <v>37.0</v>
       </c>
       <c r="D6" t="n">
@@ -1914,7 +2018,7 @@
       <c r="Y6" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z6" t="n" s="68">
+      <c r="Z6" t="n" s="80">
         <v>410.0</v>
       </c>
       <c r="AA6" t="n">
@@ -1971,7 +2075,7 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s" s="28">
+      <c r="B7" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C7" t="n">
@@ -2100,7 +2204,7 @@
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s" s="28">
+      <c r="B8" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C8" t="n">
@@ -2229,7 +2333,7 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s" s="28">
+      <c r="B9" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C9" t="n">
@@ -2358,7 +2462,7 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s" s="28">
+      <c r="B10" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C10" t="n">
@@ -2430,7 +2534,7 @@
       <c r="Y10" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z10" t="n" s="68">
+      <c r="Z10" t="n" s="80">
         <v>483.0</v>
       </c>
       <c r="AA10" t="n">
@@ -2487,7 +2591,7 @@
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s" s="28">
+      <c r="B11" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C11" t="n">
@@ -2616,7 +2720,7 @@
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s" s="28">
+      <c r="B12" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C12" t="n">
@@ -2745,7 +2849,7 @@
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s" s="28">
+      <c r="B13" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C13" t="n">
@@ -2874,7 +2978,7 @@
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="28">
+      <c r="B14" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C14" t="n">
@@ -3003,7 +3107,7 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s" s="28">
+      <c r="B15" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C15" t="n">
@@ -3132,7 +3236,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s" s="28">
+      <c r="B16" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C16" t="n">
@@ -3261,7 +3365,7 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s" s="28">
+      <c r="B17" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C17" t="n">
@@ -3390,7 +3494,7 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s" s="28">
+      <c r="B18" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C18" t="n">
@@ -3519,7 +3623,7 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s" s="28">
+      <c r="B19" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C19" t="n">
@@ -3648,7 +3752,7 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s" s="28">
+      <c r="B20" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C20" t="n">
@@ -3777,7 +3881,7 @@
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="28">
+      <c r="B21" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C21" t="n">
@@ -3906,7 +4010,7 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s" s="28">
+      <c r="B22" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C22" t="n">
@@ -3936,10 +4040,10 @@
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
-      <c r="L22" t="n" s="68">
+      <c r="L22" t="n" s="80">
         <v>7.2</v>
       </c>
-      <c r="M22" t="n" s="68">
+      <c r="M22" t="n" s="80">
         <v>8.9</v>
       </c>
       <c r="N22" t="n">
@@ -4035,7 +4139,7 @@
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s" s="28">
+      <c r="B23" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C23" t="n">
@@ -4164,7 +4268,7 @@
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s" s="28">
+      <c r="B24" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C24" t="n">
@@ -4293,7 +4397,7 @@
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s" s="28">
+      <c r="B25" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C25" t="n">
@@ -4422,7 +4526,7 @@
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s" s="28">
+      <c r="B26" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C26" t="n">
@@ -4551,7 +4655,7 @@
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s" s="28">
+      <c r="B27" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C27" t="n">
@@ -4581,7 +4685,7 @@
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
-      <c r="L27" t="n" s="68">
+      <c r="L27" t="n" s="80">
         <v>7.8</v>
       </c>
       <c r="M27" t="n">
@@ -4602,7 +4706,7 @@
       <c r="R27" t="n">
         <v>1.0</v>
       </c>
-      <c r="S27" t="n" s="68">
+      <c r="S27" t="n" s="80">
         <v>24.0</v>
       </c>
       <c r="T27" t="n">
@@ -4617,7 +4721,7 @@
       <c r="W27" t="n">
         <v>2.0</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27" t="s" s="104">
         <v>89</v>
       </c>
       <c r="Y27" t="n">
@@ -4665,7 +4769,7 @@
         <v>37</v>
       </c>
       <c r="AO27" s="8"/>
-      <c r="AP27" t="s">
+      <c r="AP27" t="s" s="104">
         <v>209</v>
       </c>
       <c r="AQ27" t="s">
@@ -4676,7 +4780,7 @@
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s" s="28">
+      <c r="B28" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C28" t="n">
@@ -4805,7 +4909,7 @@
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s" s="28">
+      <c r="B29" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C29" t="n">
@@ -4932,7 +5036,7 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s" s="28">
+      <c r="B30" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C30" t="n">
@@ -5059,7 +5163,7 @@
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s" s="28">
+      <c r="B31" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C31" t="n">
@@ -5188,7 +5292,7 @@
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s" s="28">
+      <c r="B32" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C32" t="n">
@@ -5317,7 +5421,7 @@
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s" s="28">
+      <c r="B33" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C33" t="n">
@@ -5446,7 +5550,7 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s" s="28">
+      <c r="B34" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C34" t="n">
@@ -5565,7 +5669,7 @@
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s" s="28">
+      <c r="B35" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C35" t="n">
@@ -5637,7 +5741,7 @@
       <c r="Y35" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z35" t="n" s="68">
+      <c r="Z35" t="n" s="80">
         <v>443.0</v>
       </c>
       <c r="AA35" t="n">
@@ -5694,7 +5798,7 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s" s="28">
+      <c r="B36" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C36" t="n">
@@ -5823,7 +5927,7 @@
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s" s="28">
+      <c r="B37" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C37" t="n">
@@ -5952,7 +6056,7 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s" s="28">
+      <c r="B38" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C38" t="n">
@@ -5961,7 +6065,7 @@
       <c r="D38" t="n">
         <v>57.0</v>
       </c>
-      <c r="E38" t="s" s="28">
+      <c r="E38" t="s" s="32">
         <v>40</v>
       </c>
       <c r="F38" t="n">
@@ -6081,7 +6185,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s" s="28">
+      <c r="B39" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C39" t="n">
@@ -6117,10 +6221,10 @@
       <c r="M39" t="n">
         <v>1.64</v>
       </c>
-      <c r="N39" t="n" s="68">
+      <c r="N39" t="n" s="80">
         <v>158.0</v>
       </c>
-      <c r="O39" t="n" s="68">
+      <c r="O39" t="n" s="80">
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
@@ -6153,7 +6257,7 @@
       <c r="Y39" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z39" t="n" s="68">
+      <c r="Z39" t="n" s="80">
         <v>410.0</v>
       </c>
       <c r="AA39" t="n">
@@ -6206,7 +6310,7 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="28">
+      <c r="B40" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C40" t="n">
@@ -6335,7 +6439,7 @@
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s" s="28">
+      <c r="B41" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C41" t="n">
@@ -6377,7 +6481,7 @@
       <c r="O41" t="n">
         <v>38.0</v>
       </c>
-      <c r="P41" t="s" s="68">
+      <c r="P41" t="s" s="80">
         <v>57</v>
       </c>
       <c r="Q41" t="n">
@@ -6464,7 +6568,7 @@
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s" s="28">
+      <c r="B42" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C42" t="n">
@@ -6515,7 +6619,7 @@
       <c r="R42" t="n">
         <v>1.0</v>
       </c>
-      <c r="S42" t="n" s="68">
+      <c r="S42" t="n" s="80">
         <v>1.0</v>
       </c>
       <c r="T42" t="n">
@@ -6593,7 +6697,7 @@
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s" s="28">
+      <c r="B43" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C43" t="n">
@@ -6722,7 +6826,7 @@
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s" s="28">
+      <c r="B44" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C44" t="n">
@@ -6851,7 +6955,7 @@
       <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" t="s" s="28">
+      <c r="B45" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C45" t="n">
@@ -6860,7 +6964,7 @@
       <c r="D45" t="n">
         <v>73.0</v>
       </c>
-      <c r="E45" t="s" s="28">
+      <c r="E45" t="s" s="32">
         <v>40</v>
       </c>
       <c r="F45" t="n">
@@ -6884,7 +6988,7 @@
       <c r="L45" t="n">
         <v>3.64</v>
       </c>
-      <c r="M45" t="n" s="68">
+      <c r="M45" t="n" s="80">
         <v>4.59</v>
       </c>
       <c r="N45" t="n">
@@ -6923,7 +7027,7 @@
       <c r="Y45" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z45" t="n" s="68">
+      <c r="Z45" t="n" s="80">
         <v>592.0</v>
       </c>
       <c r="AA45" t="n">
@@ -6980,7 +7084,7 @@
       <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s" s="28">
+      <c r="B46" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C46" t="n">
@@ -7109,7 +7213,7 @@
       <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s" s="28">
+      <c r="B47" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C47" t="n">
@@ -7238,7 +7342,7 @@
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s" s="28">
+      <c r="B48" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C48" t="n">
@@ -7367,7 +7471,7 @@
       <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s" s="28">
+      <c r="B49" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C49" t="n">
@@ -7496,7 +7600,7 @@
       <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B50" t="s" s="28">
+      <c r="B50" t="s" s="32">
         <v>41</v>
       </c>
       <c r="C50" t="n">
@@ -7529,7 +7633,7 @@
       <c r="L50" t="n">
         <v>1.7</v>
       </c>
-      <c r="M50" t="n" s="68">
+      <c r="M50" t="n" s="80">
         <v>3.72</v>
       </c>
       <c r="N50" t="n">
@@ -7625,7 +7729,7 @@
       <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" t="s" s="28">
+      <c r="B51" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C51" t="n">
@@ -7754,7 +7858,7 @@
       <c r="A52" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="s" s="28">
+      <c r="B52" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C52" t="n">
@@ -7883,7 +7987,7 @@
       <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B53" t="s" s="28">
+      <c r="B53" t="s" s="32">
         <v>40</v>
       </c>
       <c r="C53" t="n">
@@ -8054,7 +8158,7 @@
       <c r="O54" t="n">
         <v>54.0</v>
       </c>
-      <c r="P54" t="s" s="28">
+      <c r="P54" t="s" s="32">
         <v>63</v>
       </c>
       <c r="Q54" t="n">
@@ -8576,7 +8680,7 @@
       <c r="O58" t="n">
         <v>76.0</v>
       </c>
-      <c r="P58" t="s" s="28">
+      <c r="P58" t="s" s="32">
         <v>47</v>
       </c>
       <c r="Q58" t="n">
@@ -8708,7 +8812,7 @@
       <c r="P59" t="s">
         <v>49</v>
       </c>
-      <c r="Q59" t="n" s="48">
+      <c r="Q59" t="n" s="56">
         <v>3.0</v>
       </c>
       <c r="R59" t="n">
@@ -8760,7 +8864,7 @@
       <c r="AH59" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI59" t="n" s="28">
+      <c r="AI59" t="n" s="32">
         <v>1.0</v>
       </c>
       <c r="AJ59" t="n">
@@ -8924,7 +9028,7 @@
       <c r="B61" t="s">
         <v>40</v>
       </c>
-      <c r="C61" t="n" s="68">
+      <c r="C61" t="n" s="80">
         <v>32.0</v>
       </c>
       <c r="D61" t="n">
@@ -9082,10 +9186,10 @@
       <c r="K62" t="n">
         <v>0.0</v>
       </c>
-      <c r="L62" t="n" s="68">
+      <c r="L62" t="n" s="80">
         <v>7.4</v>
       </c>
-      <c r="M62" t="n" s="68">
+      <c r="M62" t="n" s="80">
         <v>4.7</v>
       </c>
       <c r="N62" t="n">
@@ -9340,7 +9444,7 @@
       <c r="K64" t="n">
         <v>0.0</v>
       </c>
-      <c r="L64" t="n" s="68">
+      <c r="L64" t="n" s="80">
         <v>6.2</v>
       </c>
       <c r="M64" t="n">
@@ -9361,7 +9465,7 @@
       <c r="R64" t="n">
         <v>1.0</v>
       </c>
-      <c r="S64" t="n" s="68">
+      <c r="S64" t="n" s="80">
         <v>19.0</v>
       </c>
       <c r="T64" t="n">
@@ -9854,10 +9958,10 @@
       <c r="K68" t="n">
         <v>1.0</v>
       </c>
-      <c r="L68" t="n" s="68">
+      <c r="L68" t="n" s="80">
         <v>12.0</v>
       </c>
-      <c r="M68" t="n" s="68">
+      <c r="M68" t="n" s="80">
         <v>4.2</v>
       </c>
       <c r="N68" t="n">
@@ -9986,7 +10090,7 @@
       <c r="L69" t="n">
         <v>4.1</v>
       </c>
-      <c r="M69" t="n" s="68">
+      <c r="M69" t="n" s="80">
         <v>6.4</v>
       </c>
       <c r="N69" t="n">
@@ -10028,10 +10132,10 @@
       <c r="Z69" t="n">
         <v>240.0</v>
       </c>
-      <c r="AA69" t="n" s="68">
+      <c r="AA69" t="n" s="80">
         <v>36.0</v>
       </c>
-      <c r="AB69" t="n" s="68">
+      <c r="AB69" t="n" s="80">
         <v>21.0</v>
       </c>
       <c r="AC69" s="8"/>
@@ -10050,7 +10154,7 @@
       <c r="AH69" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI69" t="n" s="28">
+      <c r="AI69" t="n" s="32">
         <v>1.0</v>
       </c>
       <c r="AJ69" t="n">
@@ -10154,7 +10258,7 @@
       <c r="Y70" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z70" t="n" s="68">
+      <c r="Z70" t="n" s="80">
         <v>480.0</v>
       </c>
       <c r="AA70" t="n">
@@ -10339,7 +10443,7 @@
       <c r="B72" t="s">
         <v>41</v>
       </c>
-      <c r="C72" t="n" s="68">
+      <c r="C72" t="n" s="80">
         <v>37.0</v>
       </c>
       <c r="D72" t="n">
@@ -10540,7 +10644,7 @@
       <c r="Z73" t="n">
         <v>74.0</v>
       </c>
-      <c r="AA73" t="n" s="68">
+      <c r="AA73" t="n" s="80">
         <v>23.0</v>
       </c>
       <c r="AB73" t="n">
@@ -10798,7 +10902,7 @@
       <c r="Z75" t="n">
         <v>164.0</v>
       </c>
-      <c r="AA75" t="n" s="68">
+      <c r="AA75" t="n" s="80">
         <v>27.0</v>
       </c>
       <c r="AB75" t="n">
@@ -10927,7 +11031,7 @@
       <c r="Z76" t="n">
         <v>147.0</v>
       </c>
-      <c r="AA76" t="n" s="68">
+      <c r="AA76" t="n" s="80">
         <v>23.0</v>
       </c>
       <c r="AB76" t="n">
@@ -11270,7 +11374,7 @@
       <c r="L79" t="n">
         <v>4.0</v>
       </c>
-      <c r="M79" t="n" s="68">
+      <c r="M79" t="n" s="80">
         <v>4.2</v>
       </c>
       <c r="N79" t="n">
@@ -11349,7 +11453,7 @@
       <c r="AM79" t="n">
         <v>2.0</v>
       </c>
-      <c r="AN79" t="s" s="48">
+      <c r="AN79" t="s" s="56">
         <v>186</v>
       </c>
       <c r="AO79" t="n">
@@ -11408,7 +11512,7 @@
       <c r="O80" t="n">
         <v>85.0</v>
       </c>
-      <c r="P80" t="s" s="28">
+      <c r="P80" t="s" s="32">
         <v>61</v>
       </c>
       <c r="Q80" t="n">
@@ -11463,7 +11567,7 @@
       <c r="AH80" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI80" t="n" s="28">
+      <c r="AI80" t="n" s="32">
         <v>1.0</v>
       </c>
       <c r="AJ80" t="n">
@@ -11570,7 +11674,7 @@
       <c r="Z81" t="n">
         <v>130.0</v>
       </c>
-      <c r="AA81" t="n" s="68">
+      <c r="AA81" t="n" s="80">
         <v>49.0</v>
       </c>
       <c r="AB81" t="n">
@@ -11629,7 +11733,7 @@
       <c r="B82" t="s">
         <v>40</v>
       </c>
-      <c r="C82" t="n" s="68">
+      <c r="C82" t="n" s="80">
         <v>38.0</v>
       </c>
       <c r="D82" t="n">
@@ -11701,7 +11805,7 @@
       <c r="Z82" t="n">
         <v>150.0</v>
       </c>
-      <c r="AA82" t="n" s="68">
+      <c r="AA82" t="n" s="80">
         <v>26.0</v>
       </c>
       <c r="AB82" t="n">
@@ -12049,7 +12153,7 @@
       <c r="M85" t="n">
         <v>1.0</v>
       </c>
-      <c r="N85" t="n" s="68">
+      <c r="N85" t="n" s="80">
         <v>163.0</v>
       </c>
       <c r="O85" t="n">
@@ -12239,7 +12343,7 @@
       <c r="AH86" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI86" t="n" s="28">
+      <c r="AI86" t="n" s="32">
         <v>1.0</v>
       </c>
       <c r="AJ86" t="n">
@@ -12436,10 +12540,10 @@
       <c r="M88" t="n">
         <v>0.9</v>
       </c>
-      <c r="N88" t="n" s="68">
+      <c r="N88" t="n" s="80">
         <v>169.0</v>
       </c>
-      <c r="O88" t="n" s="68">
+      <c r="O88" t="n" s="80">
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
@@ -12602,10 +12706,10 @@
         <v>1.0</v>
       </c>
       <c r="Z89" s="8"/>
-      <c r="AA89" t="n" s="68">
+      <c r="AA89" t="n" s="80">
         <v>34.0</v>
       </c>
-      <c r="AB89" t="n" s="68">
+      <c r="AB89" t="n" s="80">
         <v>21.0</v>
       </c>
       <c r="AC89" t="n">
@@ -13376,7 +13480,7 @@
       <c r="Z95" t="n">
         <v>172.0</v>
       </c>
-      <c r="AA95" t="n" s="68">
+      <c r="AA95" t="n" s="80">
         <v>29.0</v>
       </c>
       <c r="AB95" t="n">
@@ -13625,7 +13729,7 @@
       <c r="Y97" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z97" t="n" s="68">
+      <c r="Z97" t="n" s="80">
         <v>467.0</v>
       </c>
       <c r="AA97" s="8"/>
@@ -13648,7 +13752,7 @@
       <c r="AH97" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI97" t="n" s="28">
+      <c r="AI97" t="n" s="32">
         <v>1.0</v>
       </c>
       <c r="AJ97" t="n">
@@ -13663,7 +13767,7 @@
       <c r="AM97" t="n">
         <v>0.0</v>
       </c>
-      <c r="AN97" t="s" s="48">
+      <c r="AN97" t="s" s="56">
         <v>187</v>
       </c>
       <c r="AO97" t="n">
@@ -13719,7 +13823,7 @@
       <c r="N98" t="n">
         <v>138.0</v>
       </c>
-      <c r="O98" t="n" s="68">
+      <c r="O98" t="n" s="80">
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
@@ -14068,7 +14172,7 @@
       <c r="B101" t="s">
         <v>40</v>
       </c>
-      <c r="C101" t="n" s="68">
+      <c r="C101" t="n" s="80">
         <v>38.0</v>
       </c>
       <c r="D101" t="n">
@@ -14354,7 +14458,7 @@
       <c r="L103" t="n">
         <v>4.6</v>
       </c>
-      <c r="M103" t="n" s="68">
+      <c r="M103" t="n" s="80">
         <v>4.1</v>
       </c>
       <c r="N103" t="n">
@@ -14396,7 +14500,7 @@
       <c r="Z103" t="n">
         <v>114.0</v>
       </c>
-      <c r="AA103" t="n" s="68">
+      <c r="AA103" t="n" s="80">
         <v>27.0</v>
       </c>
       <c r="AB103" t="n">
@@ -14522,7 +14626,7 @@
       <c r="Y104" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z104" t="n" s="68">
+      <c r="Z104" t="n" s="80">
         <v>436.0</v>
       </c>
       <c r="AA104" t="n">
@@ -14845,7 +14949,7 @@
       <c r="C107" t="n">
         <v>51.0</v>
       </c>
-      <c r="D107" t="n" s="68">
+      <c r="D107" t="n" s="80">
         <v>144.0</v>
       </c>
       <c r="E107" t="s">
@@ -14969,7 +15073,7 @@
       <c r="B108" t="s">
         <v>40</v>
       </c>
-      <c r="C108" t="n" s="68">
+      <c r="C108" t="n" s="80">
         <v>32.0</v>
       </c>
       <c r="D108" t="n">
@@ -15098,7 +15202,7 @@
       <c r="B109" t="s">
         <v>40</v>
       </c>
-      <c r="C109" t="n" s="68">
+      <c r="C109" t="n" s="80">
         <v>78.0</v>
       </c>
       <c r="D109" t="n">
@@ -15170,7 +15274,7 @@
       <c r="Z109" t="n">
         <v>133.0</v>
       </c>
-      <c r="AA109" t="n" s="68">
+      <c r="AA109" t="n" s="80">
         <v>24.0</v>
       </c>
       <c r="AB109" t="n">
@@ -15254,10 +15358,10 @@
       <c r="K110" t="n">
         <v>0.0</v>
       </c>
-      <c r="L110" t="n" s="68">
+      <c r="L110" t="n" s="80">
         <v>6.9</v>
       </c>
-      <c r="M110" t="n" s="68">
+      <c r="M110" t="n" s="80">
         <v>3.9</v>
       </c>
       <c r="N110" t="n">
@@ -15299,7 +15403,7 @@
       <c r="Z110" t="n">
         <v>155.0</v>
       </c>
-      <c r="AA110" t="n" s="68">
+      <c r="AA110" t="n" s="80">
         <v>27.0</v>
       </c>
       <c r="AB110" t="n">
@@ -15428,11 +15532,11 @@
       <c r="Z111" t="n">
         <v>192.0</v>
       </c>
-      <c r="AA111" t="n" s="68">
+      <c r="AA111" t="n" s="80">
         <v>26.0</v>
       </c>
       <c r="AB111" s="8"/>
-      <c r="AC111" t="n" s="48">
+      <c r="AC111" t="n" s="56">
         <v>3.0</v>
       </c>
       <c r="AD111" t="n">
@@ -15450,7 +15554,7 @@
       <c r="AH111" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI111" t="n" s="28">
+      <c r="AI111" t="n" s="32">
         <v>1.0</v>
       </c>
       <c r="AJ111" t="n">
@@ -15488,7 +15592,7 @@
       <c r="C112" t="n">
         <v>72.0</v>
       </c>
-      <c r="D112" t="n" s="68">
+      <c r="D112" t="n" s="80">
         <v>126.0</v>
       </c>
       <c r="E112" t="s">
@@ -15616,7 +15720,7 @@
       <c r="B113" t="s">
         <v>40</v>
       </c>
-      <c r="C113" t="n" s="68">
+      <c r="C113" t="n" s="80">
         <v>22.0</v>
       </c>
       <c r="D113" t="n">
@@ -16263,7 +16367,7 @@
       <c r="B118" t="s">
         <v>40</v>
       </c>
-      <c r="C118" t="n" s="68">
+      <c r="C118" t="n" s="80">
         <v>24.0</v>
       </c>
       <c r="D118" t="n">
@@ -16422,7 +16526,7 @@
       <c r="L119" t="n">
         <v>4.1</v>
       </c>
-      <c r="M119" t="n" s="68">
+      <c r="M119" t="n" s="80">
         <v>4.3</v>
       </c>
       <c r="N119" t="n">
@@ -16523,7 +16627,7 @@
       <c r="B120" t="s">
         <v>40</v>
       </c>
-      <c r="C120" t="n" s="68">
+      <c r="C120" t="n" s="80">
         <v>25.0</v>
       </c>
       <c r="D120" t="n">
@@ -17087,7 +17191,7 @@
       <c r="R124" t="n">
         <v>1.0</v>
       </c>
-      <c r="S124" t="n" s="68">
+      <c r="S124" t="n" s="80">
         <v>24.0</v>
       </c>
       <c r="T124" t="n">
@@ -17198,7 +17302,7 @@
       <c r="L125" t="n">
         <v>2.3</v>
       </c>
-      <c r="M125" t="n" s="68">
+      <c r="M125" t="n" s="80">
         <v>3.9</v>
       </c>
       <c r="N125" t="n">
@@ -17237,7 +17341,7 @@
       <c r="Y125" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z125" t="n" s="68">
+      <c r="Z125" t="n" s="80">
         <v>526.0</v>
       </c>
       <c r="AA125" t="n">

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="378">
   <si>
     <t>Пациент</t>
   </si>
@@ -138,6 +138,234 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>бальзаковский</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>центнер</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>81,5</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>60,5</t>
+  </si>
+  <si>
+    <t>70,5</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>108</t>
   </si>
   <si>
     <t>0,5</t>
@@ -1141,18 +1369,18 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="CDBE70"/>
+        <fgColor rgb="8B5F65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="CDBE70"/>
+        <fgColor rgb="8B5F65"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CDBE70"/>
+        <fgColor rgb="8B5F65"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -1364,7 +1592,7 @@
   <cols>
     <col min="1" max="1" width="23.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.91015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.4921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.87890625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
@@ -1409,19 +1637,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="32">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="C1" t="s" s="56">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s" s="80">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s" s="104">
-        <v>301</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
@@ -1562,11 +1790,11 @@
       <c r="B3" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75.0</v>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -1602,7 +1830,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1626,7 +1854,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s" s="104">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1678,10 +1906,10 @@
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" t="s" s="104">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="AQ3" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4">
@@ -1691,11 +1919,11 @@
       <c r="B4" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C4" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.0</v>
+      <c r="C4" t="s" s="56">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -1731,7 +1959,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1755,7 +1983,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1807,10 +2035,10 @@
       </c>
       <c r="AO4" s="8"/>
       <c r="AP4" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="AQ4" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5">
@@ -1820,11 +2048,11 @@
       <c r="B5" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>83.0</v>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -1860,7 +2088,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -1884,7 +2112,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s" s="32">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -1936,10 +2164,10 @@
       </c>
       <c r="AO5" s="8"/>
       <c r="AP5" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="AQ5" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6">
@@ -1949,11 +2177,11 @@
       <c r="B6" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C6" t="n" s="80">
-        <v>37.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>79.0</v>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s" s="56">
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -1989,7 +2217,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -2013,7 +2241,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2065,10 +2293,10 @@
       </c>
       <c r="AO6" s="8"/>
       <c r="AP6" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="AQ6" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7">
@@ -2078,11 +2306,11 @@
       <c r="B7" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C7" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75.0</v>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -2118,7 +2346,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2142,7 +2370,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2194,10 +2422,10 @@
       </c>
       <c r="AO7" s="8"/>
       <c r="AP7" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="AQ7" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8">
@@ -2207,11 +2435,11 @@
       <c r="B8" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C8" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>61.0</v>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -2247,7 +2475,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2271,7 +2499,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2323,10 +2551,10 @@
       </c>
       <c r="AO8" s="8"/>
       <c r="AP8" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="AQ8" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9">
@@ -2336,11 +2564,11 @@
       <c r="B9" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C9" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>81.0</v>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -2376,7 +2604,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2400,7 +2628,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2452,10 +2680,10 @@
       </c>
       <c r="AO9" s="8"/>
       <c r="AP9" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="AQ9" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10">
@@ -2465,11 +2693,11 @@
       <c r="B10" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C10" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>66.0</v>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
@@ -2505,7 +2733,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2529,7 +2757,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2581,10 +2809,10 @@
       </c>
       <c r="AO10" s="8"/>
       <c r="AP10" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="AQ10" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11">
@@ -2594,11 +2822,11 @@
       <c r="B11" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C11" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>84.0</v>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -2634,7 +2862,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2658,7 +2886,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2713,7 +2941,7 @@
         <v>37</v>
       </c>
       <c r="AQ11" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12">
@@ -2723,11 +2951,11 @@
       <c r="B12" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C12" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86.0</v>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
@@ -2763,7 +2991,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -2787,7 +3015,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2839,10 +3067,10 @@
       </c>
       <c r="AO12" s="8"/>
       <c r="AP12" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="AQ12" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
@@ -2852,11 +3080,11 @@
       <c r="B13" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C13" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>84.0</v>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -2892,7 +3120,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -2916,7 +3144,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -2968,10 +3196,10 @@
       </c>
       <c r="AO13" s="8"/>
       <c r="AP13" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="AQ13" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14">
@@ -2981,11 +3209,11 @@
       <c r="B14" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C14" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>88.0</v>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -3021,7 +3249,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -3045,7 +3273,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3097,10 +3325,10 @@
       </c>
       <c r="AO14" s="8"/>
       <c r="AP14" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="AQ14" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15">
@@ -3110,11 +3338,11 @@
       <c r="B15" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C15" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>59.0</v>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -3150,7 +3378,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3174,7 +3402,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3226,10 +3454,10 @@
       </c>
       <c r="AO15" s="8"/>
       <c r="AP15" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="AQ15" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16">
@@ -3239,11 +3467,11 @@
       <c r="B16" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C16" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>74.0</v>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -3279,7 +3507,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3303,7 +3531,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3355,10 +3583,10 @@
       </c>
       <c r="AO16" s="8"/>
       <c r="AP16" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="AQ16" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17">
@@ -3368,11 +3596,11 @@
       <c r="B17" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C17" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>89.0</v>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -3408,7 +3636,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3432,7 +3660,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3484,10 +3712,10 @@
       </c>
       <c r="AO17" s="8"/>
       <c r="AP17" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="AQ17" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18">
@@ -3497,11 +3725,11 @@
       <c r="B18" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C18" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>71.0</v>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -3561,7 +3789,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3613,10 +3841,10 @@
       </c>
       <c r="AO18" s="8"/>
       <c r="AP18" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="AQ18" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19">
@@ -3626,11 +3854,11 @@
       <c r="B19" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C19" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>74.0</v>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>41</v>
@@ -3690,7 +3918,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3742,10 +3970,10 @@
       </c>
       <c r="AO19" s="8"/>
       <c r="AP19" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="AQ19" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20">
@@ -3755,11 +3983,11 @@
       <c r="B20" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C20" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>79.0</v>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -3795,7 +4023,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -3819,7 +4047,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -3871,10 +4099,10 @@
       </c>
       <c r="AO20" s="8"/>
       <c r="AP20" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="AQ20" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21">
@@ -3884,11 +4112,11 @@
       <c r="B21" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C21" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>102.0</v>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -3924,7 +4152,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -3948,7 +4176,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4000,10 +4228,10 @@
       </c>
       <c r="AO21" s="8"/>
       <c r="AP21" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="AQ21" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22">
@@ -4013,11 +4241,11 @@
       <c r="B22" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C22" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>71.0</v>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
@@ -4053,7 +4281,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4077,7 +4305,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4129,10 +4357,10 @@
       </c>
       <c r="AO22" s="8"/>
       <c r="AP22" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="AQ22" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23">
@@ -4142,11 +4370,11 @@
       <c r="B23" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>64.0</v>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
@@ -4182,7 +4410,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4206,7 +4434,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4258,10 +4486,10 @@
       </c>
       <c r="AO23" s="8"/>
       <c r="AP23" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="AQ23" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24">
@@ -4271,11 +4499,11 @@
       <c r="B24" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C24" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>64.0</v>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
@@ -4311,7 +4539,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4335,7 +4563,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4387,10 +4615,10 @@
       </c>
       <c r="AO24" s="8"/>
       <c r="AP24" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="AQ24" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25">
@@ -4400,11 +4628,11 @@
       <c r="B25" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C25" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>61.0</v>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
@@ -4440,7 +4668,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4464,7 +4692,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4516,10 +4744,10 @@
       </c>
       <c r="AO25" s="8"/>
       <c r="AP25" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="AQ25" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26">
@@ -4529,11 +4757,11 @@
       <c r="B26" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C26" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>71.0</v>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -4569,7 +4797,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4593,7 +4821,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4645,10 +4873,10 @@
       </c>
       <c r="AO26" s="8"/>
       <c r="AP26" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="AQ26" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27">
@@ -4658,11 +4886,11 @@
       <c r="B27" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C27" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>93.0</v>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
@@ -4698,7 +4926,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4722,7 +4950,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s" s="104">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4770,10 +4998,10 @@
       </c>
       <c r="AO27" s="8"/>
       <c r="AP27" t="s" s="104">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="AQ27" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28">
@@ -4783,11 +5011,11 @@
       <c r="B28" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C28" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>80.0</v>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -4823,7 +5051,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -4847,7 +5075,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -4899,10 +5127,10 @@
       </c>
       <c r="AO28" s="8"/>
       <c r="AP28" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="AQ28" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29">
@@ -4912,11 +5140,11 @@
       <c r="B29" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C29" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>79.0</v>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
@@ -4952,7 +5180,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -4976,7 +5204,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5026,10 +5254,10 @@
       </c>
       <c r="AO29" s="8"/>
       <c r="AP29" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="AQ29" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30">
@@ -5039,11 +5267,11 @@
       <c r="B30" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C30" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>70.0</v>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -5079,7 +5307,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5103,7 +5331,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5153,10 +5381,10 @@
       </c>
       <c r="AO30" s="8"/>
       <c r="AP30" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="AQ30" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31">
@@ -5166,11 +5394,11 @@
       <c r="B31" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C31" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>66.0</v>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
@@ -5206,7 +5434,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5230,7 +5458,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5282,10 +5510,10 @@
       </c>
       <c r="AO31" s="8"/>
       <c r="AP31" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="AQ31" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32">
@@ -5295,11 +5523,11 @@
       <c r="B32" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C32" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>45.0</v>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -5335,7 +5563,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5359,7 +5587,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5411,10 +5639,10 @@
       </c>
       <c r="AO32" s="8"/>
       <c r="AP32" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="AQ32" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33">
@@ -5424,11 +5652,11 @@
       <c r="B33" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C33" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>92.0</v>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
@@ -5464,7 +5692,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5488,7 +5716,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5540,10 +5768,10 @@
       </c>
       <c r="AO33" s="8"/>
       <c r="AP33" t="s">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="AQ33" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34">
@@ -5553,11 +5781,11 @@
       <c r="B34" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C34" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>103.0</v>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
@@ -5593,7 +5821,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5617,7 +5845,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5659,10 +5887,10 @@
       </c>
       <c r="AO34" s="8"/>
       <c r="AP34" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="AQ34" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35">
@@ -5672,11 +5900,11 @@
       <c r="B35" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C35" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>75.0</v>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
@@ -5712,7 +5940,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5736,7 +5964,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5788,10 +6016,10 @@
       </c>
       <c r="AO35" s="8"/>
       <c r="AP35" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="AQ35" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36">
@@ -5801,11 +6029,11 @@
       <c r="B36" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C36" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>65.0</v>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
@@ -5841,7 +6069,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -5865,7 +6093,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -5917,10 +6145,10 @@
       </c>
       <c r="AO36" s="8"/>
       <c r="AP36" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="AQ36" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
@@ -5930,11 +6158,11 @@
       <c r="B37" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C37" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>53.0</v>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
       </c>
       <c r="E37" t="s">
         <v>41</v>
@@ -5970,7 +6198,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -5994,7 +6222,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6046,10 +6274,10 @@
       </c>
       <c r="AO37" s="8"/>
       <c r="AP37" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="AQ37" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38">
@@ -6059,11 +6287,11 @@
       <c r="B38" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C38" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>57.0</v>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
       </c>
       <c r="E38" t="s" s="32">
         <v>40</v>
@@ -6099,7 +6327,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6123,7 +6351,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6175,10 +6403,10 @@
       </c>
       <c r="AO38" s="8"/>
       <c r="AP38" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="AQ38" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39">
@@ -6188,11 +6416,11 @@
       <c r="B39" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C39" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>76.0</v>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6228,7 +6456,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6252,7 +6480,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6300,10 +6528,10 @@
       </c>
       <c r="AO39" s="8"/>
       <c r="AP39" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="AQ39" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40">
@@ -6313,11 +6541,11 @@
       <c r="B40" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C40" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>81.5</v>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
@@ -6377,7 +6605,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6429,10 +6657,10 @@
       </c>
       <c r="AO40" s="8"/>
       <c r="AP40" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="AQ40" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41">
@@ -6442,11 +6670,11 @@
       <c r="B41" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C41" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>105.0</v>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
       </c>
       <c r="E41" t="s">
         <v>41</v>
@@ -6481,8 +6709,8 @@
       <c r="O41" t="n">
         <v>38.0</v>
       </c>
-      <c r="P41" t="s" s="80">
-        <v>57</v>
+      <c r="P41" t="s">
+        <v>133</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6506,7 +6734,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6558,10 +6786,10 @@
       </c>
       <c r="AO41" s="8"/>
       <c r="AP41" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="AQ41" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
@@ -6571,11 +6799,11 @@
       <c r="B42" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C42" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>68.0</v>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
@@ -6611,7 +6839,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6635,7 +6863,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6687,10 +6915,10 @@
       </c>
       <c r="AO42" s="8"/>
       <c r="AP42" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="AQ42" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
@@ -6700,11 +6928,11 @@
       <c r="B43" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C43" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>86.0</v>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>83</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
@@ -6740,7 +6968,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6764,7 +6992,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6816,10 +7044,10 @@
       </c>
       <c r="AO43" s="8"/>
       <c r="AP43" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="AQ43" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44">
@@ -6829,11 +7057,11 @@
       <c r="B44" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C44" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>76.0</v>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
       </c>
       <c r="E44" t="s">
         <v>41</v>
@@ -6869,7 +7097,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -6893,7 +7121,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -6945,10 +7173,10 @@
       </c>
       <c r="AO44" s="8"/>
       <c r="AP44" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="AQ44" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45">
@@ -6958,11 +7186,11 @@
       <c r="B45" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C45" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>73.0</v>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
       </c>
       <c r="E45" t="s" s="32">
         <v>40</v>
@@ -6998,7 +7226,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7022,7 +7250,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7074,10 +7302,10 @@
       </c>
       <c r="AO45" s="8"/>
       <c r="AP45" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="AQ45" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46">
@@ -7087,11 +7315,11 @@
       <c r="B46" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C46" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>60.5</v>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
@@ -7127,7 +7355,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7151,7 +7379,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7203,10 +7431,10 @@
       </c>
       <c r="AO46" s="8"/>
       <c r="AP46" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="AQ46" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47">
@@ -7216,11 +7444,11 @@
       <c r="B47" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C47" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>70.5</v>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
       </c>
       <c r="E47" t="s">
         <v>41</v>
@@ -7256,7 +7484,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7280,7 +7508,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7332,10 +7560,10 @@
       </c>
       <c r="AO47" s="8"/>
       <c r="AP47" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="AQ47" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
@@ -7345,11 +7573,11 @@
       <c r="B48" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C48" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>56.0</v>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
       </c>
       <c r="E48" t="s">
         <v>41</v>
@@ -7385,7 +7613,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7409,7 +7637,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7461,10 +7689,10 @@
       </c>
       <c r="AO48" s="8"/>
       <c r="AP48" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AQ48" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
@@ -7474,11 +7702,11 @@
       <c r="B49" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C49" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>61.0</v>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
       </c>
       <c r="E49" t="s">
         <v>41</v>
@@ -7514,7 +7742,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7538,7 +7766,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7590,10 +7818,10 @@
       </c>
       <c r="AO49" s="8"/>
       <c r="AP49" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="AQ49" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50">
@@ -7603,11 +7831,11 @@
       <c r="B50" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C50" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>77.0</v>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
@@ -7643,7 +7871,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7667,7 +7895,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7719,10 +7947,10 @@
       </c>
       <c r="AO50" s="8"/>
       <c r="AP50" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="AQ50" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51">
@@ -7732,11 +7960,11 @@
       <c r="B51" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C51" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>65.0</v>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
@@ -7772,7 +8000,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -7796,7 +8024,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7848,10 +8076,10 @@
       </c>
       <c r="AO51" s="8"/>
       <c r="AP51" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="AQ51" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52">
@@ -7861,11 +8089,11 @@
       <c r="B52" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C52" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>67.0</v>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>67</v>
       </c>
       <c r="E52" t="s">
         <v>41</v>
@@ -7901,7 +8129,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -7925,7 +8153,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -7977,10 +8205,10 @@
       </c>
       <c r="AO52" s="8"/>
       <c r="AP52" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AQ52" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53">
@@ -7990,11 +8218,11 @@
       <c r="B53" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C53" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>76.0</v>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
       </c>
       <c r="E53" t="s">
         <v>41</v>
@@ -8030,7 +8258,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -8054,7 +8282,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8106,10 +8334,10 @@
       </c>
       <c r="AO53" s="8"/>
       <c r="AP53" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AQ53" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54">
@@ -8119,11 +8347,11 @@
       <c r="B54" t="s">
         <v>40</v>
       </c>
-      <c r="C54" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>71.0</v>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>87</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -8159,7 +8387,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s" s="32">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8183,7 +8411,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8231,13 +8459,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8250,11 +8478,11 @@
       <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="C55" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>57.0</v>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
       </c>
       <c r="E55" t="s">
         <v>40</v>
@@ -8290,7 +8518,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8314,7 +8542,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8360,13 +8588,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8379,11 +8607,11 @@
       <c r="B56" t="s">
         <v>40</v>
       </c>
-      <c r="C56" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>89.0</v>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
       </c>
       <c r="E56" t="s">
         <v>40</v>
@@ -8419,7 +8647,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8443,7 +8671,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8491,13 +8719,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8510,11 +8738,11 @@
       <c r="B57" t="s">
         <v>40</v>
       </c>
-      <c r="C57" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>118.0</v>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
       </c>
       <c r="E57" t="s">
         <v>41</v>
@@ -8550,7 +8778,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8574,7 +8802,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8622,13 +8850,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8641,11 +8869,11 @@
       <c r="B58" t="s">
         <v>40</v>
       </c>
-      <c r="C58" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>71.0</v>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
       </c>
       <c r="E58" t="s">
         <v>41</v>
@@ -8680,8 +8908,8 @@
       <c r="O58" t="n">
         <v>76.0</v>
       </c>
-      <c r="P58" t="s" s="32">
-        <v>47</v>
+      <c r="P58" t="s" s="80">
+        <v>123</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8705,7 +8933,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8751,13 +8979,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8770,11 +8998,11 @@
       <c r="B59" t="s">
         <v>40</v>
       </c>
-      <c r="C59" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>67.0</v>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
       </c>
       <c r="E59" t="s">
         <v>41</v>
@@ -8810,7 +9038,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q59" t="n" s="56">
         <v>3.0</v>
@@ -8834,7 +9062,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -8880,13 +9108,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -8899,11 +9127,11 @@
       <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="C60" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>70.0</v>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>92</v>
       </c>
       <c r="E60" t="s">
         <v>41</v>
@@ -8939,7 +9167,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -8963,7 +9191,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9009,13 +9237,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9028,11 +9256,11 @@
       <c r="B61" t="s">
         <v>40</v>
       </c>
-      <c r="C61" t="n" s="80">
-        <v>32.0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>100.0</v>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
       </c>
       <c r="E61" t="s">
         <v>41</v>
@@ -9092,7 +9320,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9140,13 +9368,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9159,11 +9387,11 @@
       <c r="B62" t="s">
         <v>41</v>
       </c>
-      <c r="C62" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>55.0</v>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -9199,7 +9427,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9223,7 +9451,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9269,13 +9497,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9288,11 +9516,11 @@
       <c r="B63" t="s">
         <v>40</v>
       </c>
-      <c r="C63" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>67.0</v>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
       </c>
       <c r="E63" t="s">
         <v>41</v>
@@ -9328,7 +9556,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9352,7 +9580,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9398,13 +9626,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9417,11 +9645,11 @@
       <c r="B64" t="s">
         <v>40</v>
       </c>
-      <c r="C64" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>98.0</v>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
       </c>
       <c r="E64" t="s">
         <v>41</v>
@@ -9457,7 +9685,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9481,7 +9709,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9527,13 +9755,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9546,11 +9774,11 @@
       <c r="B65" t="s">
         <v>40</v>
       </c>
-      <c r="C65" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>87.0</v>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>104</v>
       </c>
       <c r="E65" t="s">
         <v>41</v>
@@ -9586,7 +9814,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9610,7 +9838,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9656,13 +9884,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9675,11 +9903,11 @@
       <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="C66" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>80.0</v>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>91</v>
       </c>
       <c r="E66" t="s">
         <v>41</v>
@@ -9715,7 +9943,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9739,7 +9967,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9783,13 +10011,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9802,11 +10030,11 @@
       <c r="B67" t="s">
         <v>40</v>
       </c>
-      <c r="C67" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>83.0</v>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
       </c>
       <c r="E67" t="s">
         <v>41</v>
@@ -9842,7 +10070,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -9866,7 +10094,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -9912,13 +10140,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -9931,11 +10159,11 @@
       <c r="B68" t="s">
         <v>40</v>
       </c>
-      <c r="C68" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>76.0</v>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
       </c>
       <c r="E68" t="s">
         <v>41</v>
@@ -9971,7 +10199,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -9995,7 +10223,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10041,13 +10269,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10060,11 +10288,11 @@
       <c r="B69" t="s">
         <v>40</v>
       </c>
-      <c r="C69" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>95.0</v>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" t="s">
+        <v>105</v>
       </c>
       <c r="E69" t="s">
         <v>41</v>
@@ -10100,7 +10328,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10124,7 +10352,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10170,13 +10398,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10189,11 +10417,11 @@
       <c r="B70" t="s">
         <v>40</v>
       </c>
-      <c r="C70" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>85.0</v>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" t="s">
+        <v>106</v>
       </c>
       <c r="E70" t="s">
         <v>41</v>
@@ -10229,7 +10457,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10253,7 +10481,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10297,13 +10525,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10316,11 +10544,11 @@
       <c r="B71" t="s">
         <v>40</v>
       </c>
-      <c r="C71" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>67.0</v>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>67</v>
       </c>
       <c r="E71" t="s">
         <v>41</v>
@@ -10356,7 +10584,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10380,7 +10608,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10424,13 +10652,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10443,11 +10671,11 @@
       <c r="B72" t="s">
         <v>41</v>
       </c>
-      <c r="C72" t="n" s="80">
-        <v>37.0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>55.0</v>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>52</v>
       </c>
       <c r="E72" t="s">
         <v>41</v>
@@ -10483,7 +10711,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10507,7 +10735,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10553,13 +10781,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10572,11 +10800,11 @@
       <c r="B73" t="s">
         <v>41</v>
       </c>
-      <c r="C73" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>62.0</v>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>56</v>
       </c>
       <c r="E73" t="s">
         <v>41</v>
@@ -10636,7 +10864,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10682,13 +10910,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10701,11 +10929,11 @@
       <c r="B74" t="s">
         <v>40</v>
       </c>
-      <c r="C74" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>60.0</v>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" t="s">
+        <v>51</v>
       </c>
       <c r="E74" t="s">
         <v>41</v>
@@ -10741,7 +10969,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10765,7 +10993,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10811,13 +11039,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -10830,11 +11058,11 @@
       <c r="B75" t="s">
         <v>40</v>
       </c>
-      <c r="C75" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>87.0</v>
+      <c r="C75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>104</v>
       </c>
       <c r="E75" t="s">
         <v>41</v>
@@ -10870,7 +11098,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -10894,7 +11122,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -10940,13 +11168,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -10959,11 +11187,11 @@
       <c r="B76" t="s">
         <v>40</v>
       </c>
-      <c r="C76" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>60.0</v>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
       </c>
       <c r="E76" t="s">
         <v>41</v>
@@ -10999,7 +11227,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -11023,7 +11251,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11067,13 +11295,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11086,11 +11314,11 @@
       <c r="B77" t="s">
         <v>40</v>
       </c>
-      <c r="C77" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>69.0</v>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>65</v>
       </c>
       <c r="E77" t="s">
         <v>41</v>
@@ -11126,7 +11354,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11150,7 +11378,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11196,13 +11424,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11215,11 +11443,11 @@
       <c r="B78" t="s">
         <v>40</v>
       </c>
-      <c r="C78" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>115.0</v>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" t="s">
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>41</v>
@@ -11255,7 +11483,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11279,7 +11507,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11325,13 +11553,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11344,11 +11572,11 @@
       <c r="B79" t="s">
         <v>41</v>
       </c>
-      <c r="C79" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>45.0</v>
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
       </c>
       <c r="E79" t="s">
         <v>41</v>
@@ -11384,7 +11612,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11408,7 +11636,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11454,13 +11682,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s" s="56">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11473,11 +11701,11 @@
       <c r="B80" t="s">
         <v>41</v>
       </c>
-      <c r="C80" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>79.0</v>
+      <c r="C80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
       </c>
       <c r="E80" t="s">
         <v>41</v>
@@ -11512,8 +11740,8 @@
       <c r="O80" t="n">
         <v>85.0</v>
       </c>
-      <c r="P80" t="s" s="32">
-        <v>61</v>
+      <c r="P80" t="s" s="80">
+        <v>137</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11537,7 +11765,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11583,13 +11811,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11602,11 +11830,11 @@
       <c r="B81" t="s">
         <v>40</v>
       </c>
-      <c r="C81" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>62.0</v>
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>56</v>
       </c>
       <c r="E81" t="s">
         <v>41</v>
@@ -11642,7 +11870,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11666,7 +11894,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11714,13 +11942,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11733,11 +11961,11 @@
       <c r="B82" t="s">
         <v>40</v>
       </c>
-      <c r="C82" t="n" s="80">
-        <v>38.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>93.0</v>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
       </c>
       <c r="E82" t="s">
         <v>41</v>
@@ -11797,7 +12025,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11843,13 +12071,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -11862,11 +12090,11 @@
       <c r="B83" t="s">
         <v>40</v>
       </c>
-      <c r="C83" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>81.0</v>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="s">
+        <v>81</v>
       </c>
       <c r="E83" t="s">
         <v>41</v>
@@ -11902,7 +12130,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -11926,7 +12154,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -11972,13 +12200,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -11991,11 +12219,11 @@
       <c r="B84" t="s">
         <v>41</v>
       </c>
-      <c r="C84" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>68.0</v>
+      <c r="C84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
       </c>
       <c r="E84" t="s">
         <v>41</v>
@@ -12031,7 +12259,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -12055,7 +12283,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12101,13 +12329,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12120,11 +12348,11 @@
       <c r="B85" t="s">
         <v>40</v>
       </c>
-      <c r="C85" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>69.0</v>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" t="s">
+        <v>65</v>
       </c>
       <c r="E85" t="s">
         <v>41</v>
@@ -12160,7 +12388,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12184,7 +12412,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12230,13 +12458,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12249,11 +12477,11 @@
       <c r="B86" t="s">
         <v>41</v>
       </c>
-      <c r="C86" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>58.0</v>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>54</v>
       </c>
       <c r="E86" t="s">
         <v>41</v>
@@ -12289,7 +12517,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12313,7 +12541,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12359,13 +12587,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12378,11 +12606,11 @@
       <c r="B87" t="s">
         <v>40</v>
       </c>
-      <c r="C87" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>122.0</v>
+      <c r="C87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>40</v>
@@ -12418,7 +12646,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12442,7 +12670,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12488,13 +12716,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12507,11 +12735,11 @@
       <c r="B88" t="s">
         <v>41</v>
       </c>
-      <c r="C88" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>74.0</v>
+      <c r="C88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" t="s">
+        <v>85</v>
       </c>
       <c r="E88" t="s">
         <v>41</v>
@@ -12547,7 +12775,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12571,7 +12799,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12617,13 +12845,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12636,11 +12864,11 @@
       <c r="B89" t="s">
         <v>40</v>
       </c>
-      <c r="C89" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>75.0</v>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" t="s">
+        <v>66</v>
       </c>
       <c r="E89" t="s">
         <v>41</v>
@@ -12676,7 +12904,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12700,7 +12928,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12746,13 +12974,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12765,11 +12993,11 @@
       <c r="B90" t="s">
         <v>40</v>
       </c>
-      <c r="C90" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>79.0</v>
+      <c r="C90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" t="s">
+        <v>88</v>
       </c>
       <c r="E90" t="s">
         <v>41</v>
@@ -12805,7 +13033,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -12829,7 +13057,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -12873,13 +13101,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -12892,11 +13120,11 @@
       <c r="B91" t="s">
         <v>40</v>
       </c>
-      <c r="C91" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>63.0</v>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>53</v>
       </c>
       <c r="E91" t="s">
         <v>41</v>
@@ -12932,7 +13160,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -12956,7 +13184,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13002,13 +13230,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13021,11 +13249,11 @@
       <c r="B92" t="s">
         <v>40</v>
       </c>
-      <c r="C92" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>85.0</v>
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" t="s">
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>41</v>
@@ -13061,7 +13289,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13085,7 +13313,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13131,13 +13359,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13150,11 +13378,11 @@
       <c r="B93" t="s">
         <v>40</v>
       </c>
-      <c r="C93" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>104.0</v>
+      <c r="C93" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>41</v>
@@ -13190,7 +13418,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13214,7 +13442,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13260,13 +13488,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13279,11 +13507,11 @@
       <c r="B94" t="s">
         <v>40</v>
       </c>
-      <c r="C94" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>67.0</v>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" t="s">
+        <v>67</v>
       </c>
       <c r="E94" t="s">
         <v>41</v>
@@ -13319,7 +13547,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13343,7 +13571,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13389,13 +13617,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13408,11 +13636,11 @@
       <c r="B95" t="s">
         <v>40</v>
       </c>
-      <c r="C95" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>83.0</v>
+      <c r="C95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" t="s">
+        <v>79</v>
       </c>
       <c r="E95" t="s">
         <v>41</v>
@@ -13472,7 +13700,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13518,13 +13746,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13537,11 +13765,11 @@
       <c r="B96" t="s">
         <v>40</v>
       </c>
-      <c r="C96" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>75.0</v>
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" t="s">
+        <v>66</v>
       </c>
       <c r="E96" t="s">
         <v>41</v>
@@ -13577,7 +13805,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13595,7 +13823,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
       <c r="X96" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13641,13 +13869,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13660,11 +13888,11 @@
       <c r="B97" t="s">
         <v>41</v>
       </c>
-      <c r="C97" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>92.0</v>
+      <c r="C97" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
       </c>
       <c r="E97" t="s">
         <v>40</v>
@@ -13700,7 +13928,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13724,7 +13952,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13768,13 +13996,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s" s="56">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13787,11 +14015,11 @@
       <c r="B98" t="s">
         <v>41</v>
       </c>
-      <c r="C98" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>59.0</v>
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" t="s">
+        <v>48</v>
       </c>
       <c r="E98" t="s">
         <v>41</v>
@@ -13827,7 +14055,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -13851,7 +14079,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -13895,13 +14123,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -13914,11 +14142,11 @@
       <c r="B99" t="s">
         <v>40</v>
       </c>
-      <c r="C99" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>118.0</v>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>101</v>
       </c>
       <c r="E99" t="s">
         <v>41</v>
@@ -13954,7 +14182,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -13978,7 +14206,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14024,13 +14252,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14043,11 +14271,11 @@
       <c r="B100" t="s">
         <v>40</v>
       </c>
-      <c r="C100" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>91.0</v>
+      <c r="C100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" t="s">
+        <v>110</v>
       </c>
       <c r="E100" t="s">
         <v>41</v>
@@ -14083,7 +14311,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14107,7 +14335,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14153,13 +14381,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14172,11 +14400,11 @@
       <c r="B101" t="s">
         <v>40</v>
       </c>
-      <c r="C101" t="n" s="80">
-        <v>38.0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>82.0</v>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
       </c>
       <c r="E101" t="s">
         <v>41</v>
@@ -14212,7 +14440,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14236,7 +14464,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14280,13 +14508,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14299,11 +14527,11 @@
       <c r="B102" t="s">
         <v>40</v>
       </c>
-      <c r="C102" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>91.0</v>
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" t="s">
+        <v>110</v>
       </c>
       <c r="E102" t="s">
         <v>41</v>
@@ -14339,7 +14567,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14363,7 +14591,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14409,13 +14637,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14428,11 +14656,11 @@
       <c r="B103" t="s">
         <v>40</v>
       </c>
-      <c r="C103" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>57.0</v>
+      <c r="C103" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" t="s">
+        <v>46</v>
       </c>
       <c r="E103" t="s">
         <v>41</v>
@@ -14468,7 +14696,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14492,7 +14720,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14538,13 +14766,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14557,11 +14785,11 @@
       <c r="B104" t="s">
         <v>40</v>
       </c>
-      <c r="C104" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>64.0</v>
+      <c r="C104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" t="s">
+        <v>61</v>
       </c>
       <c r="E104" t="s">
         <v>41</v>
@@ -14597,7 +14825,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14621,7 +14849,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14667,13 +14895,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14686,11 +14914,11 @@
       <c r="B105" t="s">
         <v>40</v>
       </c>
-      <c r="C105" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>106.0</v>
+      <c r="C105" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" t="s">
+        <v>112</v>
       </c>
       <c r="E105" t="s">
         <v>41</v>
@@ -14726,7 +14954,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14750,7 +14978,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14796,13 +15024,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14815,11 +15043,11 @@
       <c r="B106" t="s">
         <v>41</v>
       </c>
-      <c r="C106" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>78.0</v>
+      <c r="C106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" t="s">
+        <v>73</v>
       </c>
       <c r="E106" t="s">
         <v>41</v>
@@ -14855,7 +15083,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -14879,7 +15107,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -14927,13 +15155,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -14946,11 +15174,11 @@
       <c r="B107" t="s">
         <v>40</v>
       </c>
-      <c r="C107" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="D107" t="n" s="80">
-        <v>144.0</v>
+      <c r="C107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
       </c>
       <c r="E107" t="s">
         <v>41</v>
@@ -15010,7 +15238,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15054,13 +15282,13 @@
       </c>
       <c r="AM107" s="8"/>
       <c r="AN107" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15073,11 +15301,11 @@
       <c r="B108" t="s">
         <v>40</v>
       </c>
-      <c r="C108" t="n" s="80">
-        <v>32.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>86.0</v>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" t="s">
+        <v>83</v>
       </c>
       <c r="E108" t="s">
         <v>41</v>
@@ -15113,7 +15341,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15137,7 +15365,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15183,13 +15411,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15202,11 +15430,11 @@
       <c r="B109" t="s">
         <v>40</v>
       </c>
-      <c r="C109" t="n" s="80">
-        <v>78.0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>72.0</v>
+      <c r="C109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" t="s">
+        <v>70</v>
       </c>
       <c r="E109" t="s">
         <v>41</v>
@@ -15242,7 +15470,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15266,7 +15494,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15312,13 +15540,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15331,11 +15559,11 @@
       <c r="B110" t="s">
         <v>40</v>
       </c>
-      <c r="C110" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>93.0</v>
+      <c r="C110" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" t="s">
+        <v>90</v>
       </c>
       <c r="E110" t="s">
         <v>41</v>
@@ -15371,7 +15599,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15395,7 +15623,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15441,13 +15669,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>283</v>
+        <v>359</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15460,11 +15688,11 @@
       <c r="B111" t="s">
         <v>41</v>
       </c>
-      <c r="C111" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>93.0</v>
+      <c r="C111" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" t="s">
+        <v>90</v>
       </c>
       <c r="E111" t="s">
         <v>41</v>
@@ -15500,7 +15728,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15524,7 +15752,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15570,13 +15798,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15589,11 +15817,11 @@
       <c r="B112" t="s">
         <v>40</v>
       </c>
-      <c r="C112" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D112" t="n" s="80">
-        <v>126.0</v>
+      <c r="C112" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" t="s">
+        <v>114</v>
       </c>
       <c r="E112" t="s">
         <v>40</v>
@@ -15629,7 +15857,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15653,7 +15881,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15701,13 +15929,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15720,11 +15948,11 @@
       <c r="B113" t="s">
         <v>40</v>
       </c>
-      <c r="C113" t="n" s="80">
-        <v>22.0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>97.0</v>
+      <c r="C113" t="s">
+        <v>74</v>
+      </c>
+      <c r="D113" t="s">
+        <v>115</v>
       </c>
       <c r="E113" t="s">
         <v>41</v>
@@ -15760,7 +15988,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -15784,7 +16012,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15830,13 +16058,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -15849,11 +16077,11 @@
       <c r="B114" t="s">
         <v>40</v>
       </c>
-      <c r="C114" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>89.0</v>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" t="s">
+        <v>86</v>
       </c>
       <c r="E114" t="s">
         <v>41</v>
@@ -15889,7 +16117,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -15913,7 +16141,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -15959,13 +16187,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -15978,11 +16206,11 @@
       <c r="B115" t="s">
         <v>40</v>
       </c>
-      <c r="C115" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>80.0</v>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>91</v>
       </c>
       <c r="E115" t="s">
         <v>41</v>
@@ -16018,7 +16246,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -16042,7 +16270,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16090,13 +16318,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16109,11 +16337,11 @@
       <c r="B116" t="s">
         <v>40</v>
       </c>
-      <c r="C116" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>75.0</v>
+      <c r="C116" t="s">
+        <v>46</v>
+      </c>
+      <c r="D116" t="s">
+        <v>66</v>
       </c>
       <c r="E116" t="s">
         <v>41</v>
@@ -16149,7 +16377,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16173,7 +16401,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16219,13 +16447,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16238,11 +16466,11 @@
       <c r="B117" t="s">
         <v>40</v>
       </c>
-      <c r="C117" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>69.0</v>
+      <c r="C117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D117" t="s">
+        <v>65</v>
       </c>
       <c r="E117" t="s">
         <v>41</v>
@@ -16278,7 +16506,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16302,7 +16530,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16348,13 +16576,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16367,11 +16595,11 @@
       <c r="B118" t="s">
         <v>40</v>
       </c>
-      <c r="C118" t="n" s="80">
-        <v>24.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>106.0</v>
+      <c r="C118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" t="s">
+        <v>112</v>
       </c>
       <c r="E118" t="s">
         <v>41</v>
@@ -16407,7 +16635,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16431,7 +16659,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16477,13 +16705,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16496,11 +16724,11 @@
       <c r="B119" t="s">
         <v>40</v>
       </c>
-      <c r="C119" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>110.0</v>
+      <c r="C119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>116</v>
       </c>
       <c r="E119" t="s">
         <v>40</v>
@@ -16536,7 +16764,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16560,7 +16788,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16608,13 +16836,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16627,11 +16855,11 @@
       <c r="B120" t="s">
         <v>40</v>
       </c>
-      <c r="C120" t="n" s="80">
-        <v>25.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>108.0</v>
+      <c r="C120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" t="s">
+        <v>117</v>
       </c>
       <c r="E120" t="s">
         <v>41</v>
@@ -16667,7 +16895,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16691,7 +16919,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16737,13 +16965,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16756,11 +16984,11 @@
       <c r="B121" t="s">
         <v>40</v>
       </c>
-      <c r="C121" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>82.0</v>
+      <c r="C121" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" t="s">
+        <v>111</v>
       </c>
       <c r="E121" t="s">
         <v>41</v>
@@ -16796,7 +17024,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -16820,7 +17048,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -16866,13 +17094,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -16885,11 +17113,11 @@
       <c r="B122" t="s">
         <v>40</v>
       </c>
-      <c r="C122" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>97.0</v>
+      <c r="C122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" t="s">
+        <v>115</v>
       </c>
       <c r="E122" t="s">
         <v>41</v>
@@ -16925,7 +17153,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -16949,7 +17177,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -16995,13 +17223,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17014,11 +17242,11 @@
       <c r="B123" t="s">
         <v>40</v>
       </c>
-      <c r="C123" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>104.0</v>
+      <c r="C123" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" t="s">
+        <v>109</v>
       </c>
       <c r="E123" t="s">
         <v>41</v>
@@ -17054,7 +17282,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17078,7 +17306,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17124,13 +17352,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17143,11 +17371,11 @@
       <c r="B124" t="s">
         <v>40</v>
       </c>
-      <c r="C124" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>93.0</v>
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s">
+        <v>90</v>
       </c>
       <c r="E124" t="s">
         <v>41</v>
@@ -17183,7 +17411,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17207,7 +17435,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17253,13 +17481,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17272,11 +17500,11 @@
       <c r="B125" t="s">
         <v>40</v>
       </c>
-      <c r="C125" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>83.0</v>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125" t="s">
+        <v>79</v>
       </c>
       <c r="E125" t="s">
         <v>41</v>
@@ -17312,7 +17540,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17336,7 +17564,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17382,13 +17610,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -443,7 +443,7 @@
     <t>08.05.2009</t>
   </si>
   <si>
-    <t>13.05.2009</t>
+    <t>13,05,2009</t>
   </si>
   <si>
     <t>12.05.2009</t>
@@ -6709,7 +6709,7 @@
       <c r="O41" t="n">
         <v>38.0</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" t="s" s="80">
         <v>133</v>
       </c>
       <c r="Q41" t="n">
@@ -8908,7 +8908,7 @@
       <c r="O58" t="n">
         <v>76.0</v>
       </c>
-      <c r="P58" t="s" s="80">
+      <c r="P58" t="s" s="32">
         <v>123</v>
       </c>
       <c r="Q58" t="n">
@@ -11740,7 +11740,7 @@
       <c r="O80" t="n">
         <v>85.0</v>
       </c>
-      <c r="P80" t="s" s="80">
+      <c r="P80" t="s" s="32">
         <v>137</v>
       </c>
       <c r="Q80" t="n">

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="339">
   <si>
     <t>Пациент</t>
   </si>
@@ -140,72 +140,72 @@
     <t>0</t>
   </si>
   <si>
+    <t>бальзаковский</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>54</t>
   </si>
   <si>
-    <t>бальзаковский</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -251,123 +251,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>центнер</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>81,5</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>60,5</t>
-  </si>
-  <si>
-    <t>70,5</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
     <t>0,5</t>
   </si>
   <si>
@@ -443,7 +326,7 @@
     <t>08.05.2009</t>
   </si>
   <si>
-    <t>13,05,2009</t>
+    <t>13.05.2009</t>
   </si>
   <si>
     <t>12.05.2009</t>
@@ -1637,19 +1520,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="32">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s" s="56">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s" s="80">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="E1" t="s" s="104">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -1790,11 +1673,11 @@
       <c r="B3" t="s" s="32">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
+      <c r="C3" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75.0</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -1830,7 +1713,7 @@
         <v>36.0</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="n">
         <v>1.0</v>
@@ -1854,7 +1737,7 @@
         <v>0.0</v>
       </c>
       <c r="X3" t="s" s="104">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1906,10 +1789,10 @@
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" t="s" s="104">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="AQ3" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
@@ -1920,10 +1803,10 @@
         <v>40</v>
       </c>
       <c r="C4" t="s" s="56">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.0</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -1959,7 +1842,7 @@
         <v>45.0</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1983,7 +1866,7 @@
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -2035,10 +1918,10 @@
       </c>
       <c r="AO4" s="8"/>
       <c r="AP4" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="AQ4" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5">
@@ -2049,10 +1932,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="D5" t="n" s="80">
+        <v>300.0</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -2088,7 +1971,7 @@
         <v>85.0</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -2112,7 +1995,7 @@
         <v>0.0</v>
       </c>
       <c r="X5" t="s" s="32">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -2164,10 +2047,10 @@
       </c>
       <c r="AO5" s="8"/>
       <c r="AP5" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="AQ5" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
@@ -2178,10 +2061,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s" s="56">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="D6" t="n" s="80">
+        <v>200.0</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -2217,7 +2100,7 @@
         <v>49.0</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -2241,7 +2124,7 @@
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2293,10 +2176,10 @@
       </c>
       <c r="AO6" s="8"/>
       <c r="AP6" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="AQ6" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
@@ -2307,11 +2190,9 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" t="s">
         <v>41</v>
       </c>
@@ -2346,7 +2227,7 @@
         <v>43.0</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="n">
         <v>1.0</v>
@@ -2370,7 +2251,7 @@
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2422,10 +2303,10 @@
       </c>
       <c r="AO7" s="8"/>
       <c r="AP7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="AQ7" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
@@ -2436,10 +2317,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.0</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -2475,7 +2356,7 @@
         <v>53.0</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -2499,7 +2380,7 @@
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2551,10 +2432,10 @@
       </c>
       <c r="AO8" s="8"/>
       <c r="AP8" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="AQ8" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
@@ -2565,10 +2446,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>81.0</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -2604,7 +2485,7 @@
         <v>70.0</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -2628,7 +2509,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2680,10 +2561,10 @@
       </c>
       <c r="AO9" s="8"/>
       <c r="AP9" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="AQ9" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10">
@@ -2694,10 +2575,10 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D10" t="n">
+        <v>66.0</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
@@ -2733,7 +2614,7 @@
         <v>40.0</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -2757,7 +2638,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2809,10 +2690,10 @@
       </c>
       <c r="AO10" s="8"/>
       <c r="AP10" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="AQ10" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11">
@@ -2823,10 +2704,10 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
+        <v>47</v>
+      </c>
+      <c r="D11" t="n">
+        <v>84.0</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -2862,7 +2743,7 @@
         <v>45.0</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -2886,7 +2767,7 @@
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2941,7 +2822,7 @@
         <v>37</v>
       </c>
       <c r="AQ11" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12">
@@ -2952,10 +2833,10 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="D12" t="n">
+        <v>86.0</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
@@ -2991,7 +2872,7 @@
         <v>39.0</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -3015,7 +2896,7 @@
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -3067,10 +2948,10 @@
       </c>
       <c r="AO12" s="8"/>
       <c r="AP12" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="AQ12" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +2962,10 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
+        <v>48</v>
+      </c>
+      <c r="D13" t="n">
+        <v>84.0</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -3120,7 +3001,7 @@
         <v>45.0</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="n">
         <v>1.0</v>
@@ -3144,7 +3025,7 @@
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -3196,10 +3077,10 @@
       </c>
       <c r="AO13" s="8"/>
       <c r="AP13" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="AQ13" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
@@ -3210,10 +3091,10 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
+        <v>49</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88.0</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -3249,7 +3130,7 @@
         <v>40.0</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -3273,7 +3154,7 @@
         <v>2.0</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3325,10 +3206,10 @@
       </c>
       <c r="AO14" s="8"/>
       <c r="AP14" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="AQ14" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
@@ -3339,10 +3220,10 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>59.0</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -3378,7 +3259,7 @@
         <v>75.0</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q15" t="n">
         <v>2.0</v>
@@ -3402,7 +3283,7 @@
         <v>1.0</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3454,10 +3335,10 @@
       </c>
       <c r="AO15" s="8"/>
       <c r="AP15" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="AQ15" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16">
@@ -3468,10 +3349,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>85</v>
+        <v>51</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74.0</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -3507,7 +3388,7 @@
         <v>45.0</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -3531,7 +3412,7 @@
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3583,10 +3464,10 @@
       </c>
       <c r="AO16" s="8"/>
       <c r="AP16" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="AQ16" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17">
@@ -3597,10 +3478,10 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
+        <v>52</v>
+      </c>
+      <c r="D17" t="n">
+        <v>89.0</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -3636,7 +3517,7 @@
         <v>62.0</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
@@ -3660,7 +3541,7 @@
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3712,10 +3593,10 @@
       </c>
       <c r="AO17" s="8"/>
       <c r="AP17" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="AQ17" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18">
@@ -3726,10 +3607,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
+        <v>53</v>
+      </c>
+      <c r="D18" t="n">
+        <v>71.0</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -3789,7 +3670,7 @@
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3841,10 +3722,10 @@
       </c>
       <c r="AO18" s="8"/>
       <c r="AP18" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="AQ18" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19">
@@ -3855,10 +3736,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="D19" t="n">
+        <v>74.0</v>
       </c>
       <c r="E19" t="s">
         <v>41</v>
@@ -3918,7 +3799,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3970,10 +3851,10 @@
       </c>
       <c r="AO19" s="8"/>
       <c r="AP19" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="AQ19" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20">
@@ -3984,10 +3865,10 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="D20" t="n">
+        <v>79.0</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -4023,7 +3904,7 @@
         <v>63.0</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q20" t="n">
         <v>1.0</v>
@@ -4047,7 +3928,7 @@
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -4099,10 +3980,10 @@
       </c>
       <c r="AO20" s="8"/>
       <c r="AP20" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="AQ20" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21">
@@ -4113,10 +3994,10 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+      <c r="D21" t="n">
+        <v>102.0</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -4152,7 +4033,7 @@
         <v>42.0</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q21" t="n">
         <v>1.0</v>
@@ -4176,7 +4057,7 @@
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4228,10 +4109,10 @@
       </c>
       <c r="AO21" s="8"/>
       <c r="AP21" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="AQ21" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22">
@@ -4242,10 +4123,10 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
+        <v>47</v>
+      </c>
+      <c r="D22" t="n">
+        <v>71.0</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
@@ -4281,7 +4162,7 @@
         <v>34.0</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q22" t="n">
         <v>1.0</v>
@@ -4305,7 +4186,7 @@
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4357,10 +4238,10 @@
       </c>
       <c r="AO22" s="8"/>
       <c r="AP22" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="AQ22" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23">
@@ -4371,10 +4252,10 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64.0</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
@@ -4410,7 +4291,7 @@
         <v>54.0</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -4434,7 +4315,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4486,10 +4367,10 @@
       </c>
       <c r="AO23" s="8"/>
       <c r="AP23" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AQ23" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24">
@@ -4500,10 +4381,10 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64.0</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
@@ -4539,7 +4420,7 @@
         <v>56.0</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -4563,7 +4444,7 @@
         <v>2.0</v>
       </c>
       <c r="X24" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4615,10 +4496,10 @@
       </c>
       <c r="AO24" s="8"/>
       <c r="AP24" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AQ24" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25">
@@ -4629,10 +4510,10 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D25" t="n">
+        <v>61.0</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
@@ -4668,7 +4549,7 @@
         <v>51.0</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="Q25" t="n">
         <v>1.0</v>
@@ -4692,7 +4573,7 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4744,10 +4625,10 @@
       </c>
       <c r="AO25" s="8"/>
       <c r="AP25" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="AQ25" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26">
@@ -4758,10 +4639,10 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
+        <v>52</v>
+      </c>
+      <c r="D26" t="n">
+        <v>71.0</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -4797,7 +4678,7 @@
         <v>58.0</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -4821,7 +4702,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4873,10 +4754,10 @@
       </c>
       <c r="AO26" s="8"/>
       <c r="AP26" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="AQ26" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27">
@@ -4887,10 +4768,10 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="D27" t="n">
+        <v>93.0</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
@@ -4926,7 +4807,7 @@
         <v>39.0</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -4950,7 +4831,7 @@
         <v>2.0</v>
       </c>
       <c r="X27" t="s" s="104">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4998,10 +4879,10 @@
       </c>
       <c r="AO27" s="8"/>
       <c r="AP27" t="s" s="104">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="AQ27" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28">
@@ -5012,10 +4893,10 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="D28" t="n">
+        <v>80.0</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -5051,7 +4932,7 @@
         <v>36.0</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q28" t="n">
         <v>2.0</v>
@@ -5075,7 +4956,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -5127,10 +5008,10 @@
       </c>
       <c r="AO28" s="8"/>
       <c r="AP28" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AQ28" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29">
@@ -5141,10 +5022,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="D29" t="n">
+        <v>79.0</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
@@ -5180,7 +5061,7 @@
         <v>55.0</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="Q29" t="n">
         <v>1.0</v>
@@ -5204,7 +5085,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5254,10 +5135,10 @@
       </c>
       <c r="AO29" s="8"/>
       <c r="AP29" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="AQ29" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30">
@@ -5268,10 +5149,10 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
+        <v>52</v>
+      </c>
+      <c r="D30" t="n">
+        <v>70.0</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -5307,7 +5188,7 @@
         <v>64.0</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q30" t="n">
         <v>2.0</v>
@@ -5331,7 +5212,7 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5381,10 +5262,10 @@
       </c>
       <c r="AO30" s="8"/>
       <c r="AP30" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="AQ30" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31">
@@ -5395,10 +5276,10 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="D31" t="n">
+        <v>66.0</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
@@ -5434,7 +5315,7 @@
         <v>52.0</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q31" t="n">
         <v>1.0</v>
@@ -5458,7 +5339,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5510,10 +5391,10 @@
       </c>
       <c r="AO31" s="8"/>
       <c r="AP31" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AQ31" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
@@ -5524,10 +5405,10 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="D32" t="n">
+        <v>45.0</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -5563,7 +5444,7 @@
         <v>81.0</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="Q32" t="n">
         <v>1.0</v>
@@ -5587,7 +5468,7 @@
         <v>2.0</v>
       </c>
       <c r="X32" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5639,10 +5520,10 @@
       </c>
       <c r="AO32" s="8"/>
       <c r="AP32" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="AQ32" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
@@ -5653,10 +5534,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
+        <v>54</v>
+      </c>
+      <c r="D33" t="n">
+        <v>92.0</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
@@ -5692,7 +5573,7 @@
         <v>40.0</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q33" t="n">
         <v>1.0</v>
@@ -5716,7 +5597,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5768,10 +5649,10 @@
       </c>
       <c r="AO33" s="8"/>
       <c r="AP33" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="AQ33" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34">
@@ -5782,10 +5663,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
+        <v>45</v>
+      </c>
+      <c r="D34" t="n">
+        <v>103.0</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
@@ -5821,7 +5702,7 @@
         <v>73.0</v>
       </c>
       <c r="P34" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q34" t="n">
         <v>1.0</v>
@@ -5845,7 +5726,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5887,10 +5768,10 @@
       </c>
       <c r="AO34" s="8"/>
       <c r="AP34" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ34" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
@@ -5901,10 +5782,10 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="D35" t="n">
+        <v>75.0</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
@@ -5940,7 +5821,7 @@
         <v>45.0</v>
       </c>
       <c r="P35" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q35" t="n">
         <v>2.0</v>
@@ -5964,7 +5845,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -6016,10 +5897,10 @@
       </c>
       <c r="AO35" s="8"/>
       <c r="AP35" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="AQ35" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36">
@@ -6030,10 +5911,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="D36" t="n">
+        <v>65.0</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
@@ -6069,7 +5950,7 @@
         <v>54.0</v>
       </c>
       <c r="P36" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q36" t="n">
         <v>1.0</v>
@@ -6093,7 +5974,7 @@
         <v>0.0</v>
       </c>
       <c r="X36" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -6145,10 +6026,10 @@
       </c>
       <c r="AO36" s="8"/>
       <c r="AP36" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="AQ36" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
@@ -6159,10 +6040,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="D37" t="n">
+        <v>53.0</v>
       </c>
       <c r="E37" t="s">
         <v>41</v>
@@ -6198,7 +6079,7 @@
         <v>42.0</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="Q37" t="n">
         <v>2.0</v>
@@ -6222,7 +6103,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6274,10 +6155,10 @@
       </c>
       <c r="AO37" s="8"/>
       <c r="AP37" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="AQ37" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
@@ -6288,10 +6169,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="D38" t="n">
+        <v>57.0</v>
       </c>
       <c r="E38" t="s" s="32">
         <v>40</v>
@@ -6327,7 +6208,7 @@
         <v>66.0</v>
       </c>
       <c r="P38" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="Q38" t="n">
         <v>2.0</v>
@@ -6351,7 +6232,7 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6403,10 +6284,10 @@
       </c>
       <c r="AO38" s="8"/>
       <c r="AP38" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="AQ38" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39">
@@ -6417,10 +6298,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="D39" t="n">
+        <v>76.0</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6456,7 +6337,7 @@
         <v>104.0</v>
       </c>
       <c r="P39" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="Q39" t="n">
         <v>1.0</v>
@@ -6480,7 +6361,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6528,10 +6409,10 @@
       </c>
       <c r="AO39" s="8"/>
       <c r="AP39" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="AQ39" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40">
@@ -6542,10 +6423,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>95</v>
+        <v>53</v>
+      </c>
+      <c r="D40" t="n">
+        <v>81.5</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
@@ -6605,7 +6486,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6657,10 +6538,10 @@
       </c>
       <c r="AO40" s="8"/>
       <c r="AP40" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="AQ40" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
@@ -6671,10 +6552,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
+        <v>54</v>
+      </c>
+      <c r="D41" t="n">
+        <v>105.0</v>
       </c>
       <c r="E41" t="s">
         <v>41</v>
@@ -6710,7 +6591,7 @@
         <v>38.0</v>
       </c>
       <c r="P41" t="s" s="80">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="Q41" t="n">
         <v>1.0</v>
@@ -6734,7 +6615,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6786,10 +6667,10 @@
       </c>
       <c r="AO41" s="8"/>
       <c r="AP41" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="AQ41" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
@@ -6800,10 +6681,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="D42" t="n">
+        <v>68.0</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
@@ -6839,7 +6720,7 @@
         <v>37.0</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="Q42" t="n">
         <v>1.0</v>
@@ -6863,7 +6744,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6915,10 +6796,10 @@
       </c>
       <c r="AO42" s="8"/>
       <c r="AP42" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="AQ42" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
@@ -6929,10 +6810,10 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="D43" t="n">
+        <v>86.0</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
@@ -6968,7 +6849,7 @@
         <v>80.0</v>
       </c>
       <c r="P43" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q43" t="n">
         <v>2.0</v>
@@ -6992,7 +6873,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -7044,10 +6925,10 @@
       </c>
       <c r="AO43" s="8"/>
       <c r="AP43" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="AQ43" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
@@ -7058,10 +6939,10 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>72</v>
+        <v>43</v>
+      </c>
+      <c r="D44" t="n">
+        <v>76.0</v>
       </c>
       <c r="E44" t="s">
         <v>41</v>
@@ -7097,7 +6978,7 @@
         <v>40.0</v>
       </c>
       <c r="P44" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q44" t="n">
         <v>1.0</v>
@@ -7121,7 +7002,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -7173,10 +7054,10 @@
       </c>
       <c r="AO44" s="8"/>
       <c r="AP44" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="AQ44" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45">
@@ -7187,10 +7068,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>97</v>
+        <v>60</v>
+      </c>
+      <c r="D45" t="n">
+        <v>73.0</v>
       </c>
       <c r="E45" t="s" s="32">
         <v>40</v>
@@ -7226,7 +7107,7 @@
         <v>36.0</v>
       </c>
       <c r="P45" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7250,7 +7131,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7302,10 +7183,10 @@
       </c>
       <c r="AO45" s="8"/>
       <c r="AP45" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="AQ45" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46">
@@ -7316,10 +7197,10 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" t="s">
-        <v>98</v>
+        <v>47</v>
+      </c>
+      <c r="D46" t="n">
+        <v>60.5</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
@@ -7355,7 +7236,7 @@
         <v>77.0</v>
       </c>
       <c r="P46" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="Q46" t="n">
         <v>1.0</v>
@@ -7379,7 +7260,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7431,10 +7312,10 @@
       </c>
       <c r="AO46" s="8"/>
       <c r="AP46" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="AQ46" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47">
@@ -7445,10 +7326,10 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+      <c r="D47" t="n">
+        <v>70.5</v>
       </c>
       <c r="E47" t="s">
         <v>41</v>
@@ -7484,7 +7365,7 @@
         <v>62.0</v>
       </c>
       <c r="P47" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="Q47" t="n">
         <v>2.0</v>
@@ -7508,7 +7389,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7560,10 +7441,10 @@
       </c>
       <c r="AO47" s="8"/>
       <c r="AP47" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="AQ47" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48">
@@ -7574,10 +7455,10 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="D48" t="n">
+        <v>56.0</v>
       </c>
       <c r="E48" t="s">
         <v>41</v>
@@ -7613,7 +7494,7 @@
         <v>54.0</v>
       </c>
       <c r="P48" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q48" t="n">
         <v>1.0</v>
@@ -7637,7 +7518,7 @@
         <v>2.0</v>
       </c>
       <c r="X48" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7689,10 +7570,10 @@
       </c>
       <c r="AO48" s="8"/>
       <c r="AP48" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="AQ48" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49">
@@ -7703,10 +7584,10 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="D49" t="n">
+        <v>61.0</v>
       </c>
       <c r="E49" t="s">
         <v>41</v>
@@ -7742,7 +7623,7 @@
         <v>52.0</v>
       </c>
       <c r="P49" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="Q49" t="n">
         <v>1.0</v>
@@ -7766,7 +7647,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7818,10 +7699,10 @@
       </c>
       <c r="AO49" s="8"/>
       <c r="AP49" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="AQ49" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50">
@@ -7832,10 +7713,10 @@
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" t="s">
-        <v>100</v>
+        <v>61</v>
+      </c>
+      <c r="D50" t="n">
+        <v>77.0</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
@@ -7871,7 +7752,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q50" t="n">
         <v>2.0</v>
@@ -7895,7 +7776,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7947,10 +7828,10 @@
       </c>
       <c r="AO50" s="8"/>
       <c r="AP50" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="AQ50" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51">
@@ -7961,10 +7842,10 @@
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D51" t="n">
+        <v>65.0</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
@@ -8000,7 +7881,7 @@
         <v>23.0</v>
       </c>
       <c r="P51" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q51" t="n">
         <v>1.0</v>
@@ -8024,7 +7905,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -8076,10 +7957,10 @@
       </c>
       <c r="AO51" s="8"/>
       <c r="AP51" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="AQ51" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52">
@@ -8090,10 +7971,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="D52" t="n">
+        <v>67.0</v>
       </c>
       <c r="E52" t="s">
         <v>41</v>
@@ -8129,7 +8010,7 @@
         <v>61.0</v>
       </c>
       <c r="P52" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="Q52" t="n">
         <v>2.0</v>
@@ -8153,7 +8034,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -8205,10 +8086,10 @@
       </c>
       <c r="AO52" s="8"/>
       <c r="AP52" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="AQ52" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53">
@@ -8219,10 +8100,10 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="D53" t="n">
+        <v>76.0</v>
       </c>
       <c r="E53" t="s">
         <v>41</v>
@@ -8258,7 +8139,7 @@
         <v>50.0</v>
       </c>
       <c r="P53" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="Q53" t="n">
         <v>1.0</v>
@@ -8282,7 +8163,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8334,10 +8215,10 @@
       </c>
       <c r="AO53" s="8"/>
       <c r="AP53" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="AQ53" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54">
@@ -8348,10 +8229,10 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="D54" t="n">
+        <v>71.0</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -8387,7 +8268,7 @@
         <v>54.0</v>
       </c>
       <c r="P54" t="s" s="32">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="Q54" t="n">
         <v>1.0</v>
@@ -8411,7 +8292,7 @@
         <v>0.0</v>
       </c>
       <c r="X54" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8459,13 +8340,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8479,10 +8360,10 @@
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="D55" t="n">
+        <v>57.0</v>
       </c>
       <c r="E55" t="s">
         <v>40</v>
@@ -8518,7 +8399,7 @@
         <v>60.0</v>
       </c>
       <c r="P55" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q55" t="n">
         <v>2.0</v>
@@ -8542,7 +8423,7 @@
         <v>1.0</v>
       </c>
       <c r="X55" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8588,13 +8469,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8608,10 +8489,10 @@
         <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>86</v>
+        <v>51</v>
+      </c>
+      <c r="D56" t="n">
+        <v>89.0</v>
       </c>
       <c r="E56" t="s">
         <v>40</v>
@@ -8647,7 +8528,7 @@
         <v>39.0</v>
       </c>
       <c r="P56" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q56" t="n">
         <v>1.0</v>
@@ -8671,7 +8552,7 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8719,13 +8600,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8739,10 +8620,10 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="D57" t="n">
+        <v>118.0</v>
       </c>
       <c r="E57" t="s">
         <v>41</v>
@@ -8778,7 +8659,7 @@
         <v>42.0</v>
       </c>
       <c r="P57" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q57" t="n">
         <v>2.0</v>
@@ -8802,7 +8683,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8850,13 +8731,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8870,10 +8751,10 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="D58" t="n">
+        <v>71.0</v>
       </c>
       <c r="E58" t="s">
         <v>41</v>
@@ -8909,7 +8790,7 @@
         <v>76.0</v>
       </c>
       <c r="P58" t="s" s="32">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q58" t="n">
         <v>1.0</v>
@@ -8933,7 +8814,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8979,13 +8860,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8999,10 +8880,10 @@
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D59" t="n">
+        <v>67.0</v>
       </c>
       <c r="E59" t="s">
         <v>41</v>
@@ -9038,7 +8919,7 @@
         <v>62.0</v>
       </c>
       <c r="P59" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q59" t="n" s="56">
         <v>3.0</v>
@@ -9062,7 +8943,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -9108,13 +8989,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -9128,10 +9009,10 @@
         <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" t="s">
-        <v>92</v>
+        <v>61</v>
+      </c>
+      <c r="D60" t="n">
+        <v>70.0</v>
       </c>
       <c r="E60" t="s">
         <v>41</v>
@@ -9167,7 +9048,7 @@
         <v>73.0</v>
       </c>
       <c r="P60" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q60" t="n">
         <v>1.0</v>
@@ -9191,7 +9072,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9237,13 +9118,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9259,8 +9140,8 @@
       <c r="C61" t="s">
         <v>64</v>
       </c>
-      <c r="D61" t="s">
-        <v>102</v>
+      <c r="D61" t="n">
+        <v>100.0</v>
       </c>
       <c r="E61" t="s">
         <v>41</v>
@@ -9320,7 +9201,7 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9368,13 +9249,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9390,8 +9271,8 @@
       <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D62" t="s">
-        <v>52</v>
+      <c r="D62" t="n">
+        <v>55.0</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -9427,7 +9308,7 @@
         <v>84.0</v>
       </c>
       <c r="P62" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q62" t="n">
         <v>1.0</v>
@@ -9451,7 +9332,7 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9497,13 +9378,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9517,10 +9398,10 @@
         <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="D63" t="n">
+        <v>67.0</v>
       </c>
       <c r="E63" t="s">
         <v>41</v>
@@ -9556,7 +9437,7 @@
         <v>52.0</v>
       </c>
       <c r="P63" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q63" t="n">
         <v>1.0</v>
@@ -9580,7 +9461,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9626,13 +9507,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9646,10 +9527,10 @@
         <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" t="s">
-        <v>103</v>
+        <v>59</v>
+      </c>
+      <c r="D64" t="n">
+        <v>98.0</v>
       </c>
       <c r="E64" t="s">
         <v>41</v>
@@ -9685,7 +9566,7 @@
         <v>37.0</v>
       </c>
       <c r="P64" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q64" t="n">
         <v>2.0</v>
@@ -9709,7 +9590,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9755,13 +9636,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9775,10 +9656,10 @@
         <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" t="s">
-        <v>104</v>
+        <v>47</v>
+      </c>
+      <c r="D65" t="n">
+        <v>87.0</v>
       </c>
       <c r="E65" t="s">
         <v>41</v>
@@ -9814,7 +9695,7 @@
         <v>81.0</v>
       </c>
       <c r="P65" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q65" t="n">
         <v>2.0</v>
@@ -9838,7 +9719,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9884,13 +9765,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9904,10 +9785,10 @@
         <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" t="s">
-        <v>91</v>
+        <v>49</v>
+      </c>
+      <c r="D66" t="n">
+        <v>80.0</v>
       </c>
       <c r="E66" t="s">
         <v>41</v>
@@ -9943,7 +9824,7 @@
         <v>42.0</v>
       </c>
       <c r="P66" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q66" t="n">
         <v>2.0</v>
@@ -9967,7 +9848,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -10011,13 +9892,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -10031,10 +9912,10 @@
         <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="D67" t="n">
+        <v>83.0</v>
       </c>
       <c r="E67" t="s">
         <v>41</v>
@@ -10070,7 +9951,7 @@
         <v>37.0</v>
       </c>
       <c r="P67" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q67" t="n">
         <v>1.0</v>
@@ -10094,7 +9975,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -10140,13 +10021,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -10162,8 +10043,8 @@
       <c r="C68" t="s">
         <v>66</v>
       </c>
-      <c r="D68" t="s">
-        <v>72</v>
+      <c r="D68" t="n">
+        <v>76.0</v>
       </c>
       <c r="E68" t="s">
         <v>41</v>
@@ -10199,7 +10080,7 @@
         <v>43.0</v>
       </c>
       <c r="P68" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q68" t="n">
         <v>1.0</v>
@@ -10223,7 +10104,7 @@
         <v>0.0</v>
       </c>
       <c r="X68" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10269,13 +10150,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10289,10 +10170,10 @@
         <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" t="s">
-        <v>105</v>
+        <v>60</v>
+      </c>
+      <c r="D69" t="n">
+        <v>95.0</v>
       </c>
       <c r="E69" t="s">
         <v>41</v>
@@ -10328,7 +10209,7 @@
         <v>38.0</v>
       </c>
       <c r="P69" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q69" t="n">
         <v>1.0</v>
@@ -10352,7 +10233,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10398,13 +10279,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10418,10 +10299,10 @@
         <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" t="s">
-        <v>106</v>
+        <v>46</v>
+      </c>
+      <c r="D70" t="n">
+        <v>85.0</v>
       </c>
       <c r="E70" t="s">
         <v>41</v>
@@ -10457,7 +10338,7 @@
         <v>54.0</v>
       </c>
       <c r="P70" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q70" t="n">
         <v>1.0</v>
@@ -10481,7 +10362,7 @@
         <v>0.0</v>
       </c>
       <c r="X70" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10525,13 +10406,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10545,10 +10426,10 @@
         <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="D71" t="n">
+        <v>67.0</v>
       </c>
       <c r="E71" t="s">
         <v>41</v>
@@ -10584,7 +10465,7 @@
         <v>43.0</v>
       </c>
       <c r="P71" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
@@ -10608,7 +10489,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10652,13 +10533,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10672,10 +10553,10 @@
         <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="D72" t="n">
+        <v>55.0</v>
       </c>
       <c r="E72" t="s">
         <v>41</v>
@@ -10711,7 +10592,7 @@
         <v>40.0</v>
       </c>
       <c r="P72" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="Q72" t="n">
         <v>1.0</v>
@@ -10735,7 +10616,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10781,13 +10662,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10801,10 +10682,10 @@
         <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="D73" t="n">
+        <v>62.0</v>
       </c>
       <c r="E73" t="s">
         <v>41</v>
@@ -10864,7 +10745,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10910,13 +10791,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10930,10 +10811,10 @@
         <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D74" t="n">
+        <v>60.0</v>
       </c>
       <c r="E74" t="s">
         <v>41</v>
@@ -10969,7 +10850,7 @@
         <v>45.0</v>
       </c>
       <c r="P74" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q74" t="n">
         <v>1.0</v>
@@ -10993,7 +10874,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -11039,13 +10920,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -11061,8 +10942,8 @@
       <c r="C75" t="s">
         <v>67</v>
       </c>
-      <c r="D75" t="s">
-        <v>104</v>
+      <c r="D75" t="n">
+        <v>87.0</v>
       </c>
       <c r="E75" t="s">
         <v>41</v>
@@ -11098,7 +10979,7 @@
         <v>38.0</v>
       </c>
       <c r="P75" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q75" t="n">
         <v>1.0</v>
@@ -11122,7 +11003,7 @@
         <v>0.0</v>
       </c>
       <c r="X75" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -11168,13 +11049,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -11188,10 +11069,10 @@
         <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D76" t="n">
+        <v>60.0</v>
       </c>
       <c r="E76" t="s">
         <v>41</v>
@@ -11227,7 +11108,7 @@
         <v>37.0</v>
       </c>
       <c r="P76" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q76" t="n">
         <v>2.0</v>
@@ -11251,7 +11132,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11295,13 +11176,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11315,10 +11196,10 @@
         <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="D77" t="n">
+        <v>69.0</v>
       </c>
       <c r="E77" t="s">
         <v>41</v>
@@ -11354,7 +11235,7 @@
         <v>37.0</v>
       </c>
       <c r="P77" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q77" t="n">
         <v>2.0</v>
@@ -11378,7 +11259,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11424,13 +11305,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11444,10 +11325,10 @@
         <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" t="s">
-        <v>107</v>
+        <v>56</v>
+      </c>
+      <c r="D78" t="n">
+        <v>115.0</v>
       </c>
       <c r="E78" t="s">
         <v>41</v>
@@ -11483,7 +11364,7 @@
         <v>56.0</v>
       </c>
       <c r="P78" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q78" t="n">
         <v>2.0</v>
@@ -11507,7 +11388,7 @@
         <v>0.0</v>
       </c>
       <c r="X78" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11553,13 +11434,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11573,10 +11454,10 @@
         <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="D79" t="n">
+        <v>45.0</v>
       </c>
       <c r="E79" t="s">
         <v>41</v>
@@ -11612,7 +11493,7 @@
         <v>81.0</v>
       </c>
       <c r="P79" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q79" t="n">
         <v>1.0</v>
@@ -11636,7 +11517,7 @@
         <v>2.0</v>
       </c>
       <c r="X79" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11682,13 +11563,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s" s="56">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11702,10 +11583,10 @@
         <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="D80" t="n">
+        <v>79.0</v>
       </c>
       <c r="E80" t="s">
         <v>41</v>
@@ -11741,7 +11622,7 @@
         <v>85.0</v>
       </c>
       <c r="P80" t="s" s="32">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="Q80" t="n">
         <v>1.0</v>
@@ -11765,7 +11646,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11811,13 +11692,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11831,10 +11712,10 @@
         <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D81" t="n">
+        <v>62.0</v>
       </c>
       <c r="E81" t="s">
         <v>41</v>
@@ -11870,7 +11751,7 @@
         <v>49.0</v>
       </c>
       <c r="P81" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q81" t="n">
         <v>2.0</v>
@@ -11894,7 +11775,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11942,13 +11823,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11964,8 +11845,8 @@
       <c r="C82" t="s">
         <v>68</v>
       </c>
-      <c r="D82" t="s">
-        <v>90</v>
+      <c r="D82" t="n">
+        <v>93.0</v>
       </c>
       <c r="E82" t="s">
         <v>41</v>
@@ -12025,7 +11906,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -12071,13 +11952,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -12091,10 +11972,10 @@
         <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D83" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="D83" t="n">
+        <v>81.0</v>
       </c>
       <c r="E83" t="s">
         <v>41</v>
@@ -12130,7 +12011,7 @@
         <v>57.0</v>
       </c>
       <c r="P83" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q83" t="n">
         <v>1.0</v>
@@ -12154,7 +12035,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -12200,13 +12081,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -12220,10 +12101,10 @@
         <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="D84" t="n">
+        <v>68.0</v>
       </c>
       <c r="E84" t="s">
         <v>41</v>
@@ -12259,7 +12140,7 @@
         <v>43.0</v>
       </c>
       <c r="P84" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="Q84" t="n">
         <v>2.0</v>
@@ -12283,7 +12164,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12329,13 +12210,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12349,10 +12230,10 @@
         <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="D85" t="n">
+        <v>69.0</v>
       </c>
       <c r="E85" t="s">
         <v>41</v>
@@ -12388,7 +12269,7 @@
         <v>75.0</v>
       </c>
       <c r="P85" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q85" t="n">
         <v>0.0</v>
@@ -12412,7 +12293,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12458,13 +12339,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12478,10 +12359,10 @@
         <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D86" t="n">
+        <v>58.0</v>
       </c>
       <c r="E86" t="s">
         <v>41</v>
@@ -12517,7 +12398,7 @@
         <v>35.0</v>
       </c>
       <c r="P86" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q86" t="n">
         <v>2.0</v>
@@ -12541,7 +12422,7 @@
         <v>0.0</v>
       </c>
       <c r="X86" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12587,13 +12468,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12607,10 +12488,10 @@
         <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" t="s">
-        <v>108</v>
+        <v>51</v>
+      </c>
+      <c r="D87" t="n">
+        <v>122.0</v>
       </c>
       <c r="E87" t="s">
         <v>40</v>
@@ -12646,7 +12527,7 @@
         <v>52.0</v>
       </c>
       <c r="P87" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q87" t="n">
         <v>1.0</v>
@@ -12670,7 +12551,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12716,13 +12597,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12736,10 +12617,10 @@
         <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="D88" t="n">
+        <v>74.0</v>
       </c>
       <c r="E88" t="s">
         <v>41</v>
@@ -12775,7 +12656,7 @@
         <v>103.0</v>
       </c>
       <c r="P88" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="Q88" t="n">
         <v>2.0</v>
@@ -12799,7 +12680,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12845,13 +12726,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12865,10 +12746,10 @@
         <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="D89" t="n">
+        <v>75.0</v>
       </c>
       <c r="E89" t="s">
         <v>41</v>
@@ -12904,7 +12785,7 @@
         <v>48.0</v>
       </c>
       <c r="P89" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q89" t="n">
         <v>1.0</v>
@@ -12928,7 +12809,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12974,13 +12855,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12994,10 +12875,10 @@
         <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="D90" t="n">
+        <v>79.0</v>
       </c>
       <c r="E90" t="s">
         <v>41</v>
@@ -13033,7 +12914,7 @@
         <v>45.0</v>
       </c>
       <c r="P90" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q90" t="n">
         <v>1.0</v>
@@ -13057,7 +12938,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -13101,13 +12982,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -13121,10 +13002,10 @@
         <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="D91" t="n">
+        <v>63.0</v>
       </c>
       <c r="E91" t="s">
         <v>41</v>
@@ -13160,7 +13041,7 @@
         <v>42.0</v>
       </c>
       <c r="P91" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q91" t="n">
         <v>1.0</v>
@@ -13184,7 +13065,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13230,13 +13111,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13250,10 +13131,10 @@
         <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
-      </c>
-      <c r="D92" t="s">
-        <v>106</v>
+        <v>52</v>
+      </c>
+      <c r="D92" t="n">
+        <v>85.0</v>
       </c>
       <c r="E92" t="s">
         <v>41</v>
@@ -13289,7 +13170,7 @@
         <v>50.0</v>
       </c>
       <c r="P92" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q92" t="n">
         <v>2.0</v>
@@ -13313,7 +13194,7 @@
         <v>0.0</v>
       </c>
       <c r="X92" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13359,13 +13240,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13379,10 +13260,10 @@
         <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" t="s">
-        <v>109</v>
+        <v>61</v>
+      </c>
+      <c r="D93" t="n">
+        <v>104.0</v>
       </c>
       <c r="E93" t="s">
         <v>41</v>
@@ -13418,7 +13299,7 @@
         <v>38.0</v>
       </c>
       <c r="P93" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0</v>
@@ -13442,7 +13323,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13488,13 +13369,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13510,8 +13391,8 @@
       <c r="C94" t="s">
         <v>69</v>
       </c>
-      <c r="D94" t="s">
-        <v>67</v>
+      <c r="D94" t="n">
+        <v>67.0</v>
       </c>
       <c r="E94" t="s">
         <v>41</v>
@@ -13547,7 +13428,7 @@
         <v>52.0</v>
       </c>
       <c r="P94" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q94" t="n">
         <v>1.0</v>
@@ -13571,7 +13452,7 @@
         <v>0.0</v>
       </c>
       <c r="X94" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13617,13 +13498,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13639,8 +13520,8 @@
       <c r="C95" t="s">
         <v>70</v>
       </c>
-      <c r="D95" t="s">
-        <v>79</v>
+      <c r="D95" t="n">
+        <v>83.0</v>
       </c>
       <c r="E95" t="s">
         <v>41</v>
@@ -13700,7 +13581,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13746,13 +13627,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13766,10 +13647,10 @@
         <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="D96" t="n">
+        <v>75.0</v>
       </c>
       <c r="E96" t="s">
         <v>41</v>
@@ -13805,7 +13686,7 @@
         <v>71.0</v>
       </c>
       <c r="P96" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q96" t="n">
         <v>1.0</v>
@@ -13823,7 +13704,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
       <c r="X96" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13869,13 +13750,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13891,8 +13772,8 @@
       <c r="C97" t="s">
         <v>71</v>
       </c>
-      <c r="D97" t="s">
-        <v>93</v>
+      <c r="D97" t="n">
+        <v>92.0</v>
       </c>
       <c r="E97" t="s">
         <v>40</v>
@@ -13928,7 +13809,7 @@
         <v>78.0</v>
       </c>
       <c r="P97" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q97" t="n">
         <v>1.0</v>
@@ -13952,7 +13833,7 @@
         <v>2.0</v>
       </c>
       <c r="X97" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13996,13 +13877,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s" s="56">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -14018,8 +13899,8 @@
       <c r="C98" t="s">
         <v>70</v>
       </c>
-      <c r="D98" t="s">
-        <v>48</v>
+      <c r="D98" t="n">
+        <v>59.0</v>
       </c>
       <c r="E98" t="s">
         <v>41</v>
@@ -14055,7 +13936,7 @@
         <v>90.0</v>
       </c>
       <c r="P98" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q98" t="n">
         <v>0.0</v>
@@ -14079,7 +13960,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -14123,13 +14004,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -14143,10 +14024,10 @@
         <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="D99" t="n">
+        <v>118.0</v>
       </c>
       <c r="E99" t="s">
         <v>41</v>
@@ -14182,7 +14063,7 @@
         <v>49.0</v>
       </c>
       <c r="P99" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q99" t="n">
         <v>1.0</v>
@@ -14206,7 +14087,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14252,13 +14133,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14272,10 +14153,10 @@
         <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
-      </c>
-      <c r="D100" t="s">
-        <v>110</v>
+        <v>54</v>
+      </c>
+      <c r="D100" t="n">
+        <v>91.0</v>
       </c>
       <c r="E100" t="s">
         <v>41</v>
@@ -14311,7 +14192,7 @@
         <v>55.0</v>
       </c>
       <c r="P100" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q100" t="n">
         <v>1.0</v>
@@ -14335,7 +14216,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14381,13 +14262,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14403,8 +14284,8 @@
       <c r="C101" t="s">
         <v>68</v>
       </c>
-      <c r="D101" t="s">
-        <v>111</v>
+      <c r="D101" t="n">
+        <v>82.0</v>
       </c>
       <c r="E101" t="s">
         <v>41</v>
@@ -14440,7 +14321,7 @@
         <v>41.0</v>
       </c>
       <c r="P101" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q101" t="n">
         <v>1.0</v>
@@ -14464,7 +14345,7 @@
         <v>2.0</v>
       </c>
       <c r="X101" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14508,13 +14389,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14528,10 +14409,10 @@
         <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>54</v>
-      </c>
-      <c r="D102" t="s">
-        <v>110</v>
+        <v>53</v>
+      </c>
+      <c r="D102" t="n">
+        <v>91.0</v>
       </c>
       <c r="E102" t="s">
         <v>41</v>
@@ -14567,7 +14448,7 @@
         <v>48.0</v>
       </c>
       <c r="P102" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q102" t="n">
         <v>1.0</v>
@@ -14591,7 +14472,7 @@
         <v>0.0</v>
       </c>
       <c r="X102" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14637,13 +14518,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14657,10 +14538,10 @@
         <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
-      </c>
-      <c r="D103" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="D103" t="n">
+        <v>57.0</v>
       </c>
       <c r="E103" t="s">
         <v>41</v>
@@ -14696,7 +14577,7 @@
         <v>58.0</v>
       </c>
       <c r="P103" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q103" t="n">
         <v>1.0</v>
@@ -14720,7 +14601,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14766,13 +14647,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14786,10 +14667,10 @@
         <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>61</v>
-      </c>
-      <c r="D104" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D104" t="n">
+        <v>64.0</v>
       </c>
       <c r="E104" t="s">
         <v>41</v>
@@ -14825,7 +14706,7 @@
         <v>55.0</v>
       </c>
       <c r="P104" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q104" t="n">
         <v>2.0</v>
@@ -14849,7 +14730,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14895,13 +14776,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14915,10 +14796,10 @@
         <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" t="s">
-        <v>112</v>
+        <v>50</v>
+      </c>
+      <c r="D105" t="n">
+        <v>106.0</v>
       </c>
       <c r="E105" t="s">
         <v>41</v>
@@ -14954,7 +14835,7 @@
         <v>48.0</v>
       </c>
       <c r="P105" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q105" t="n">
         <v>1.0</v>
@@ -14978,7 +14859,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -15024,13 +14905,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -15046,8 +14927,8 @@
       <c r="C106" t="s">
         <v>72</v>
       </c>
-      <c r="D106" t="s">
-        <v>73</v>
+      <c r="D106" t="n">
+        <v>78.0</v>
       </c>
       <c r="E106" t="s">
         <v>41</v>
@@ -15083,7 +14964,7 @@
         <v>69.0</v>
       </c>
       <c r="P106" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
@@ -15107,7 +14988,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -15155,13 +15036,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -15175,10 +15056,10 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107" t="s">
-        <v>113</v>
+        <v>59</v>
+      </c>
+      <c r="D107" t="n" s="80">
+        <v>144.0</v>
       </c>
       <c r="E107" t="s">
         <v>41</v>
@@ -15238,7 +15119,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15282,13 +15163,13 @@
       </c>
       <c r="AM107" s="8"/>
       <c r="AN107" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15304,8 +15185,8 @@
       <c r="C108" t="s">
         <v>64</v>
       </c>
-      <c r="D108" t="s">
-        <v>83</v>
+      <c r="D108" t="n">
+        <v>86.0</v>
       </c>
       <c r="E108" t="s">
         <v>41</v>
@@ -15341,7 +15222,7 @@
         <v>54.0</v>
       </c>
       <c r="P108" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q108" t="n">
         <v>1.0</v>
@@ -15365,7 +15246,7 @@
         <v>2.0</v>
       </c>
       <c r="X108" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15411,13 +15292,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15433,8 +15314,8 @@
       <c r="C109" t="s">
         <v>73</v>
       </c>
-      <c r="D109" t="s">
-        <v>70</v>
+      <c r="D109" t="n">
+        <v>72.0</v>
       </c>
       <c r="E109" t="s">
         <v>41</v>
@@ -15470,7 +15351,7 @@
         <v>73.0</v>
       </c>
       <c r="P109" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q109" t="n">
         <v>1.0</v>
@@ -15494,7 +15375,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15540,13 +15421,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15560,10 +15441,10 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
-      </c>
-      <c r="D110" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="D110" t="n">
+        <v>93.0</v>
       </c>
       <c r="E110" t="s">
         <v>41</v>
@@ -15599,7 +15480,7 @@
         <v>51.0</v>
       </c>
       <c r="P110" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q110" t="n">
         <v>1.0</v>
@@ -15623,7 +15504,7 @@
         <v>2.0</v>
       </c>
       <c r="X110" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15669,13 +15550,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15689,10 +15570,10 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
-      </c>
-      <c r="D111" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="D111" t="n">
+        <v>93.0</v>
       </c>
       <c r="E111" t="s">
         <v>41</v>
@@ -15728,7 +15609,7 @@
         <v>46.0</v>
       </c>
       <c r="P111" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q111" t="n">
         <v>2.0</v>
@@ -15752,7 +15633,7 @@
         <v>2.0</v>
       </c>
       <c r="X111" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15798,13 +15679,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15820,8 +15701,8 @@
       <c r="C112" t="s">
         <v>70</v>
       </c>
-      <c r="D112" t="s">
-        <v>114</v>
+      <c r="D112" t="n">
+        <v>126.0</v>
       </c>
       <c r="E112" t="s">
         <v>40</v>
@@ -15857,7 +15738,7 @@
         <v>37.0</v>
       </c>
       <c r="P112" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="Q112" t="n">
         <v>2.0</v>
@@ -15881,7 +15762,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15929,13 +15810,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15951,8 +15832,8 @@
       <c r="C113" t="s">
         <v>74</v>
       </c>
-      <c r="D113" t="s">
-        <v>115</v>
+      <c r="D113" t="n">
+        <v>97.0</v>
       </c>
       <c r="E113" t="s">
         <v>41</v>
@@ -15988,7 +15869,7 @@
         <v>45.0</v>
       </c>
       <c r="P113" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q113" t="n">
         <v>1.0</v>
@@ -16012,7 +15893,7 @@
         <v>2.0</v>
       </c>
       <c r="X113" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -16058,13 +15939,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -16080,8 +15961,8 @@
       <c r="C114" t="s">
         <v>75</v>
       </c>
-      <c r="D114" t="s">
-        <v>86</v>
+      <c r="D114" t="n">
+        <v>89.0</v>
       </c>
       <c r="E114" t="s">
         <v>41</v>
@@ -16117,7 +15998,7 @@
         <v>55.0</v>
       </c>
       <c r="P114" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q114" t="n">
         <v>2.0</v>
@@ -16141,7 +16022,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -16187,13 +16068,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -16207,10 +16088,10 @@
         <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>63</v>
-      </c>
-      <c r="D115" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="D115" t="n">
+        <v>80.0</v>
       </c>
       <c r="E115" t="s">
         <v>41</v>
@@ -16246,7 +16127,7 @@
         <v>48.0</v>
       </c>
       <c r="P115" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q115" t="n">
         <v>1.0</v>
@@ -16270,7 +16151,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16318,13 +16199,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16338,10 +16219,10 @@
         <v>40</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
-      </c>
-      <c r="D116" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="D116" t="n">
+        <v>75.0</v>
       </c>
       <c r="E116" t="s">
         <v>41</v>
@@ -16377,7 +16258,7 @@
         <v>65.0</v>
       </c>
       <c r="P116" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q116" t="n">
         <v>0.0</v>
@@ -16401,7 +16282,7 @@
         <v>0.0</v>
       </c>
       <c r="X116" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16447,13 +16328,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16467,10 +16348,10 @@
         <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
-      </c>
-      <c r="D117" t="s">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="D117" t="n">
+        <v>69.0</v>
       </c>
       <c r="E117" t="s">
         <v>41</v>
@@ -16506,7 +16387,7 @@
         <v>35.0</v>
       </c>
       <c r="P117" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q117" t="n">
         <v>2.0</v>
@@ -16530,7 +16411,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16576,13 +16457,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16598,8 +16479,8 @@
       <c r="C118" t="s">
         <v>76</v>
       </c>
-      <c r="D118" t="s">
-        <v>112</v>
+      <c r="D118" t="n">
+        <v>106.0</v>
       </c>
       <c r="E118" t="s">
         <v>41</v>
@@ -16635,7 +16516,7 @@
         <v>49.0</v>
       </c>
       <c r="P118" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q118" t="n">
         <v>1.0</v>
@@ -16659,7 +16540,7 @@
         <v>0.0</v>
       </c>
       <c r="X118" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16705,13 +16586,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16725,10 +16606,10 @@
         <v>40</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D119" t="s">
-        <v>116</v>
+        <v>45</v>
+      </c>
+      <c r="D119" t="n">
+        <v>110.0</v>
       </c>
       <c r="E119" t="s">
         <v>40</v>
@@ -16764,7 +16645,7 @@
         <v>51.0</v>
       </c>
       <c r="P119" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -16788,7 +16669,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16836,13 +16717,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16858,8 +16739,8 @@
       <c r="C120" t="s">
         <v>77</v>
       </c>
-      <c r="D120" t="s">
-        <v>117</v>
+      <c r="D120" t="n">
+        <v>108.0</v>
       </c>
       <c r="E120" t="s">
         <v>41</v>
@@ -16895,7 +16776,7 @@
         <v>61.0</v>
       </c>
       <c r="P120" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="Q120" t="n">
         <v>1.0</v>
@@ -16919,7 +16800,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16965,13 +16846,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16985,10 +16866,10 @@
         <v>40</v>
       </c>
       <c r="C121" t="s">
-        <v>58</v>
-      </c>
-      <c r="D121" t="s">
-        <v>111</v>
+        <v>57</v>
+      </c>
+      <c r="D121" t="n">
+        <v>82.0</v>
       </c>
       <c r="E121" t="s">
         <v>41</v>
@@ -17024,7 +16905,7 @@
         <v>39.0</v>
       </c>
       <c r="P121" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q121" t="n">
         <v>1.0</v>
@@ -17048,7 +16929,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -17094,13 +16975,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -17114,10 +16995,10 @@
         <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
-      </c>
-      <c r="D122" t="s">
-        <v>115</v>
+        <v>55</v>
+      </c>
+      <c r="D122" t="n">
+        <v>97.0</v>
       </c>
       <c r="E122" t="s">
         <v>41</v>
@@ -17153,7 +17034,7 @@
         <v>46.0</v>
       </c>
       <c r="P122" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q122" t="n">
         <v>0.0</v>
@@ -17177,7 +17058,7 @@
         <v>2.0</v>
       </c>
       <c r="X122" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -17223,13 +17104,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17243,10 +17124,10 @@
         <v>40</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
-      </c>
-      <c r="D123" t="s">
-        <v>109</v>
+        <v>43</v>
+      </c>
+      <c r="D123" t="n">
+        <v>104.0</v>
       </c>
       <c r="E123" t="s">
         <v>41</v>
@@ -17282,7 +17163,7 @@
         <v>57.0</v>
       </c>
       <c r="P123" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q123" t="n">
         <v>1.0</v>
@@ -17306,7 +17187,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17352,13 +17233,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17372,10 +17253,10 @@
         <v>40</v>
       </c>
       <c r="C124" t="s">
-        <v>54</v>
-      </c>
-      <c r="D124" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="D124" t="n">
+        <v>93.0</v>
       </c>
       <c r="E124" t="s">
         <v>41</v>
@@ -17411,7 +17292,7 @@
         <v>39.0</v>
       </c>
       <c r="P124" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q124" t="n">
         <v>1.0</v>
@@ -17435,7 +17316,7 @@
         <v>2.0</v>
       </c>
       <c r="X124" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17481,13 +17362,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17503,8 +17384,8 @@
       <c r="C125" t="s">
         <v>78</v>
       </c>
-      <c r="D125" t="s">
-        <v>79</v>
+      <c r="D125" t="n">
+        <v>83.0</v>
       </c>
       <c r="E125" t="s">
         <v>41</v>
@@ -17540,7 +17421,7 @@
         <v>39.0</v>
       </c>
       <c r="P125" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q125" t="n">
         <v>1.0</v>
@@ -17564,7 +17445,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17610,13 +17491,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>

--- a/data_CABG_PCI_2_coloring.xlsx
+++ b/data_CABG_PCI_2_coloring.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="341">
   <si>
     <t>Пациент</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>1,4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ноль</t>
   </si>
   <si>
     <t>19.02.2009</t>
@@ -1520,19 +1526,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="32">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s" s="56">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D1" t="s" s="80">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E1" t="s" s="104">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
@@ -1733,11 +1739,11 @@
       <c r="V3" t="n">
         <v>2.0</v>
       </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
+      <c r="W3" t="s">
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="104">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1789,10 +1795,10 @@
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" t="s" s="104">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AQ3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4">
@@ -1862,11 +1868,11 @@
       <c r="V4" t="n">
         <v>2.0</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.0</v>
+      <c r="W4" t="s">
+        <v>41</v>
       </c>
       <c r="X4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1918,10 +1924,10 @@
       </c>
       <c r="AO4" s="8"/>
       <c r="AP4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AQ4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5">
@@ -1991,11 +1997,11 @@
       <c r="V5" t="n">
         <v>0.0</v>
       </c>
-      <c r="W5" t="n">
-        <v>0.0</v>
+      <c r="W5" t="s">
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="32">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -2047,10 +2053,10 @@
       </c>
       <c r="AO5" s="8"/>
       <c r="AP5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AQ5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
@@ -2120,11 +2126,11 @@
       <c r="V6" t="n">
         <v>0.0</v>
       </c>
-      <c r="W6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X6" t="s">
-        <v>105</v>
+      <c r="W6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" t="s" s="32">
+        <v>107</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -2176,10 +2182,10 @@
       </c>
       <c r="AO6" s="8"/>
       <c r="AP6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AQ6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
@@ -2247,11 +2253,11 @@
       <c r="V7" t="n">
         <v>2.0</v>
       </c>
-      <c r="W7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X7" t="s">
-        <v>106</v>
+      <c r="W7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" t="s" s="32">
+        <v>108</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -2303,10 +2309,10 @@
       </c>
       <c r="AO7" s="8"/>
       <c r="AP7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AQ7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
@@ -2376,11 +2382,11 @@
       <c r="V8" t="n">
         <v>0.0</v>
       </c>
-      <c r="W8" t="n">
-        <v>0.0</v>
+      <c r="W8" t="s">
+        <v>41</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -2432,10 +2438,10 @@
       </c>
       <c r="AO8" s="8"/>
       <c r="AP8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AQ8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
@@ -2505,11 +2511,11 @@
       <c r="V9" t="n">
         <v>0.0</v>
       </c>
-      <c r="W9" t="n">
-        <v>0.0</v>
+      <c r="W9" t="s">
+        <v>41</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -2561,10 +2567,10 @@
       </c>
       <c r="AO9" s="8"/>
       <c r="AP9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AQ9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10">
@@ -2634,11 +2640,11 @@
       <c r="V10" t="n">
         <v>0.0</v>
       </c>
-      <c r="W10" t="n">
-        <v>0.0</v>
+      <c r="W10" t="s">
+        <v>41</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -2690,10 +2696,10 @@
       </c>
       <c r="AO10" s="8"/>
       <c r="AP10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AQ10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
@@ -2763,11 +2769,11 @@
       <c r="V11" t="n">
         <v>0.0</v>
       </c>
-      <c r="W11" t="n">
-        <v>0.0</v>
+      <c r="W11" t="s">
+        <v>41</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -2822,7 +2828,7 @@
         <v>37</v>
       </c>
       <c r="AQ11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12">
@@ -2892,11 +2898,11 @@
       <c r="V12" t="n">
         <v>0.0</v>
       </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
+      <c r="W12" t="s">
+        <v>41</v>
       </c>
       <c r="X12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -2948,10 +2954,10 @@
       </c>
       <c r="AO12" s="8"/>
       <c r="AP12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AQ12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13">
@@ -3021,11 +3027,11 @@
       <c r="V13" t="n">
         <v>2.0</v>
       </c>
-      <c r="W13" t="n">
-        <v>0.0</v>
+      <c r="W13" t="s">
+        <v>41</v>
       </c>
       <c r="X13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -3077,10 +3083,10 @@
       </c>
       <c r="AO13" s="8"/>
       <c r="AP13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AQ13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14">
@@ -3150,11 +3156,11 @@
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
-      <c r="W14" t="n">
-        <v>2.0</v>
+      <c r="W14" t="s">
+        <v>102</v>
       </c>
       <c r="X14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -3206,10 +3212,10 @@
       </c>
       <c r="AO14" s="8"/>
       <c r="AP14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AQ14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15">
@@ -3279,11 +3285,11 @@
       <c r="V15" t="n">
         <v>1.0</v>
       </c>
-      <c r="W15" t="n">
-        <v>1.0</v>
+      <c r="W15" t="s">
+        <v>40</v>
       </c>
       <c r="X15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -3335,10 +3341,10 @@
       </c>
       <c r="AO15" s="8"/>
       <c r="AP15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AQ15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16">
@@ -3408,11 +3414,11 @@
       <c r="V16" t="n">
         <v>1.0</v>
       </c>
-      <c r="W16" t="n">
-        <v>0.0</v>
+      <c r="W16" t="s">
+        <v>41</v>
       </c>
       <c r="X16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -3464,10 +3470,10 @@
       </c>
       <c r="AO16" s="8"/>
       <c r="AP16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AQ16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17">
@@ -3537,11 +3543,11 @@
       <c r="V17" t="n">
         <v>2.0</v>
       </c>
-      <c r="W17" t="n">
-        <v>0.0</v>
+      <c r="W17" t="s">
+        <v>41</v>
       </c>
       <c r="X17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -3593,10 +3599,10 @@
       </c>
       <c r="AO17" s="8"/>
       <c r="AP17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AQ17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18">
@@ -3666,11 +3672,11 @@
       <c r="V18" t="n">
         <v>2.0</v>
       </c>
-      <c r="W18" t="n">
-        <v>0.0</v>
+      <c r="W18" t="s">
+        <v>41</v>
       </c>
       <c r="X18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -3722,10 +3728,10 @@
       </c>
       <c r="AO18" s="8"/>
       <c r="AP18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AQ18" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19">
@@ -3795,11 +3801,11 @@
       <c r="V19" t="n">
         <v>0.0</v>
       </c>
-      <c r="W19" t="n">
-        <v>0.0</v>
+      <c r="W19" t="s">
+        <v>41</v>
       </c>
       <c r="X19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -3851,10 +3857,10 @@
       </c>
       <c r="AO19" s="8"/>
       <c r="AP19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AQ19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20">
@@ -3924,11 +3930,11 @@
       <c r="V20" t="n">
         <v>2.0</v>
       </c>
-      <c r="W20" t="n">
-        <v>0.0</v>
+      <c r="W20" t="s">
+        <v>41</v>
       </c>
       <c r="X20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -3980,10 +3986,10 @@
       </c>
       <c r="AO20" s="8"/>
       <c r="AP20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AQ20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21">
@@ -4053,11 +4059,11 @@
       <c r="V21" t="n">
         <v>0.0</v>
       </c>
-      <c r="W21" t="n">
-        <v>0.0</v>
+      <c r="W21" t="s">
+        <v>41</v>
       </c>
       <c r="X21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -4109,10 +4115,10 @@
       </c>
       <c r="AO21" s="8"/>
       <c r="AP21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AQ21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22">
@@ -4182,11 +4188,11 @@
       <c r="V22" t="n">
         <v>2.0</v>
       </c>
-      <c r="W22" t="n">
-        <v>0.0</v>
+      <c r="W22" t="s">
+        <v>41</v>
       </c>
       <c r="X22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -4238,10 +4244,10 @@
       </c>
       <c r="AO22" s="8"/>
       <c r="AP22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AQ22" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23">
@@ -4311,11 +4317,11 @@
       <c r="V23" t="n">
         <v>2.0</v>
       </c>
-      <c r="W23" t="n">
-        <v>0.0</v>
+      <c r="W23" t="s">
+        <v>41</v>
       </c>
       <c r="X23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Y23" t="n">
         <v>1.0</v>
@@ -4367,10 +4373,10 @@
       </c>
       <c r="AO23" s="8"/>
       <c r="AP23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AQ23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24">
@@ -4440,11 +4446,11 @@
       <c r="V24" t="n">
         <v>2.0</v>
       </c>
-      <c r="W24" t="n">
-        <v>2.0</v>
+      <c r="W24" t="s">
+        <v>102</v>
       </c>
       <c r="X24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Y24" t="n">
         <v>1.0</v>
@@ -4496,10 +4502,10 @@
       </c>
       <c r="AO24" s="8"/>
       <c r="AP24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AQ24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25">
@@ -4569,11 +4575,11 @@
       <c r="V25" t="n">
         <v>0.0</v>
       </c>
-      <c r="W25" t="n">
-        <v>0.0</v>
+      <c r="W25" t="s">
+        <v>41</v>
       </c>
       <c r="X25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y25" t="n">
         <v>1.0</v>
@@ -4625,10 +4631,10 @@
       </c>
       <c r="AO25" s="8"/>
       <c r="AP25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AQ25" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26">
@@ -4698,11 +4704,11 @@
       <c r="V26" t="n">
         <v>2.0</v>
       </c>
-      <c r="W26" t="n">
-        <v>0.0</v>
+      <c r="W26" t="s">
+        <v>41</v>
       </c>
       <c r="X26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y26" t="n">
         <v>1.0</v>
@@ -4754,10 +4760,10 @@
       </c>
       <c r="AO26" s="8"/>
       <c r="AP26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AQ26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27">
@@ -4827,11 +4833,11 @@
       <c r="V27" t="n">
         <v>2.0</v>
       </c>
-      <c r="W27" t="n">
-        <v>2.0</v>
+      <c r="W27" t="s">
+        <v>102</v>
       </c>
       <c r="X27" t="s" s="104">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y27" t="n">
         <v>1.0</v>
@@ -4879,10 +4885,10 @@
       </c>
       <c r="AO27" s="8"/>
       <c r="AP27" t="s" s="104">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AQ27" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28">
@@ -4952,11 +4958,11 @@
       <c r="V28" t="n">
         <v>2.0</v>
       </c>
-      <c r="W28" t="n">
-        <v>0.0</v>
+      <c r="W28" t="s">
+        <v>41</v>
       </c>
       <c r="X28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y28" t="n">
         <v>1.0</v>
@@ -5008,10 +5014,10 @@
       </c>
       <c r="AO28" s="8"/>
       <c r="AP28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AQ28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29">
@@ -5081,11 +5087,11 @@
       <c r="V29" t="n">
         <v>2.0</v>
       </c>
-      <c r="W29" t="n">
-        <v>0.0</v>
+      <c r="W29" t="s">
+        <v>41</v>
       </c>
       <c r="X29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
@@ -5135,10 +5141,10 @@
       </c>
       <c r="AO29" s="8"/>
       <c r="AP29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AQ29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30">
@@ -5208,11 +5214,11 @@
       <c r="V30" t="n">
         <v>0.0</v>
       </c>
-      <c r="W30" t="n">
-        <v>0.0</v>
+      <c r="W30" t="s">
+        <v>41</v>
       </c>
       <c r="X30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y30" t="n">
         <v>1.0</v>
@@ -5262,10 +5268,10 @@
       </c>
       <c r="AO30" s="8"/>
       <c r="AP30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AQ30" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31">
@@ -5335,11 +5341,11 @@
       <c r="V31" t="n">
         <v>0.0</v>
       </c>
-      <c r="W31" t="n">
-        <v>0.0</v>
+      <c r="W31" t="s">
+        <v>41</v>
       </c>
       <c r="X31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y31" t="n">
         <v>1.0</v>
@@ -5391,10 +5397,10 @@
       </c>
       <c r="AO31" s="8"/>
       <c r="AP31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AQ31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32">
@@ -5464,11 +5470,11 @@
       <c r="V32" t="n">
         <v>2.0</v>
       </c>
-      <c r="W32" t="n">
-        <v>2.0</v>
+      <c r="W32" t="s">
+        <v>102</v>
       </c>
       <c r="X32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
@@ -5520,10 +5526,10 @@
       </c>
       <c r="AO32" s="8"/>
       <c r="AP32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AQ32" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
@@ -5593,11 +5599,11 @@
       <c r="V33" t="n">
         <v>0.0</v>
       </c>
-      <c r="W33" t="n">
-        <v>0.0</v>
+      <c r="W33" t="s">
+        <v>41</v>
       </c>
       <c r="X33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
@@ -5649,10 +5655,10 @@
       </c>
       <c r="AO33" s="8"/>
       <c r="AP33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AQ33" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34">
@@ -5722,11 +5728,11 @@
       <c r="V34" t="n">
         <v>0.0</v>
       </c>
-      <c r="W34" t="n">
-        <v>0.0</v>
+      <c r="W34" t="s">
+        <v>41</v>
       </c>
       <c r="X34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
@@ -5768,10 +5774,10 @@
       </c>
       <c r="AO34" s="8"/>
       <c r="AP34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AQ34" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35">
@@ -5841,11 +5847,11 @@
       <c r="V35" t="n">
         <v>0.0</v>
       </c>
-      <c r="W35" t="n">
-        <v>0.0</v>
+      <c r="W35" t="s">
+        <v>41</v>
       </c>
       <c r="X35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Y35" t="n">
         <v>1.0</v>
@@ -5897,10 +5903,10 @@
       </c>
       <c r="AO35" s="8"/>
       <c r="AP35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AQ35" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
@@ -5970,11 +5976,11 @@
       <c r="V36" t="n">
         <v>2.0</v>
       </c>
-      <c r="W36" t="n">
-        <v>0.0</v>
+      <c r="W36" t="s">
+        <v>41</v>
       </c>
       <c r="X36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y36" t="n">
         <v>1.0</v>
@@ -6026,10 +6032,10 @@
       </c>
       <c r="AO36" s="8"/>
       <c r="AP36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AQ36" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
@@ -6099,11 +6105,11 @@
       <c r="V37" t="n">
         <v>0.0</v>
       </c>
-      <c r="W37" t="n">
-        <v>0.0</v>
+      <c r="W37" t="s">
+        <v>41</v>
       </c>
       <c r="X37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Y37" t="n">
         <v>1.0</v>
@@ -6155,10 +6161,10 @@
       </c>
       <c r="AO37" s="8"/>
       <c r="AP37" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AQ37" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
@@ -6228,11 +6234,11 @@
       <c r="V38" t="n">
         <v>0.0</v>
       </c>
-      <c r="W38" t="n">
-        <v>0.0</v>
+      <c r="W38" t="s">
+        <v>41</v>
       </c>
       <c r="X38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Y38" t="n">
         <v>1.0</v>
@@ -6284,10 +6290,10 @@
       </c>
       <c r="AO38" s="8"/>
       <c r="AP38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AQ38" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39">
@@ -6357,11 +6363,11 @@
       <c r="V39" t="n">
         <v>2.0</v>
       </c>
-      <c r="W39" t="n">
-        <v>0.0</v>
+      <c r="W39" t="s">
+        <v>41</v>
       </c>
       <c r="X39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
@@ -6409,10 +6415,10 @@
       </c>
       <c r="AO39" s="8"/>
       <c r="AP39" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AQ39" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40">
@@ -6482,11 +6488,11 @@
       <c r="V40" t="n">
         <v>2.0</v>
       </c>
-      <c r="W40" t="n">
-        <v>0.0</v>
+      <c r="W40" t="s">
+        <v>41</v>
       </c>
       <c r="X40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Y40" t="n">
         <v>1.0</v>
@@ -6538,10 +6544,10 @@
       </c>
       <c r="AO40" s="8"/>
       <c r="AP40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AQ40" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
@@ -6611,11 +6617,11 @@
       <c r="V41" t="n">
         <v>0.0</v>
       </c>
-      <c r="W41" t="n">
-        <v>0.0</v>
+      <c r="W41" t="s">
+        <v>41</v>
       </c>
       <c r="X41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Y41" t="n">
         <v>1.0</v>
@@ -6667,10 +6673,10 @@
       </c>
       <c r="AO41" s="8"/>
       <c r="AP41" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AQ41" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
@@ -6740,11 +6746,11 @@
       <c r="V42" t="n">
         <v>0.0</v>
       </c>
-      <c r="W42" t="n">
-        <v>0.0</v>
+      <c r="W42" t="s">
+        <v>41</v>
       </c>
       <c r="X42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Y42" t="n">
         <v>1.0</v>
@@ -6796,10 +6802,10 @@
       </c>
       <c r="AO42" s="8"/>
       <c r="AP42" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AQ42" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
@@ -6869,11 +6875,11 @@
       <c r="V43" t="n">
         <v>0.0</v>
       </c>
-      <c r="W43" t="n">
-        <v>0.0</v>
+      <c r="W43" t="s">
+        <v>41</v>
       </c>
       <c r="X43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Y43" t="n">
         <v>1.0</v>
@@ -6925,10 +6931,10 @@
       </c>
       <c r="AO43" s="8"/>
       <c r="AP43" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AQ43" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44">
@@ -6998,11 +7004,11 @@
       <c r="V44" t="n">
         <v>2.0</v>
       </c>
-      <c r="W44" t="n">
-        <v>0.0</v>
+      <c r="W44" t="s">
+        <v>41</v>
       </c>
       <c r="X44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Y44" t="n">
         <v>1.0</v>
@@ -7054,10 +7060,10 @@
       </c>
       <c r="AO44" s="8"/>
       <c r="AP44" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AQ44" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45">
@@ -7127,11 +7133,11 @@
       <c r="V45" t="n">
         <v>2.0</v>
       </c>
-      <c r="W45" t="n">
-        <v>0.0</v>
+      <c r="W45" t="s">
+        <v>41</v>
       </c>
       <c r="X45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y45" t="n">
         <v>1.0</v>
@@ -7183,10 +7189,10 @@
       </c>
       <c r="AO45" s="8"/>
       <c r="AP45" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AQ45" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46">
@@ -7256,11 +7262,11 @@
       <c r="V46" t="n">
         <v>0.0</v>
       </c>
-      <c r="W46" t="n">
-        <v>0.0</v>
+      <c r="W46" t="s">
+        <v>41</v>
       </c>
       <c r="X46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y46" t="n">
         <v>1.0</v>
@@ -7312,10 +7318,10 @@
       </c>
       <c r="AO46" s="8"/>
       <c r="AP46" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AQ46" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
@@ -7385,11 +7391,11 @@
       <c r="V47" t="n">
         <v>0.0</v>
       </c>
-      <c r="W47" t="n">
-        <v>0.0</v>
+      <c r="W47" t="s">
+        <v>41</v>
       </c>
       <c r="X47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y47" t="n">
         <v>1.0</v>
@@ -7441,10 +7447,10 @@
       </c>
       <c r="AO47" s="8"/>
       <c r="AP47" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AQ47" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48">
@@ -7514,11 +7520,11 @@
       <c r="V48" t="n">
         <v>2.0</v>
       </c>
-      <c r="W48" t="n">
-        <v>2.0</v>
+      <c r="W48" t="s">
+        <v>102</v>
       </c>
       <c r="X48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Y48" t="n">
         <v>1.0</v>
@@ -7570,10 +7576,10 @@
       </c>
       <c r="AO48" s="8"/>
       <c r="AP48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AQ48" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
@@ -7643,11 +7649,11 @@
       <c r="V49" t="n">
         <v>2.0</v>
       </c>
-      <c r="W49" t="n">
-        <v>0.0</v>
+      <c r="W49" t="s">
+        <v>41</v>
       </c>
       <c r="X49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y49" t="n">
         <v>1.0</v>
@@ -7699,10 +7705,10 @@
       </c>
       <c r="AO49" s="8"/>
       <c r="AP49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AQ49" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50">
@@ -7772,11 +7778,11 @@
       <c r="V50" t="n">
         <v>2.0</v>
       </c>
-      <c r="W50" t="n">
-        <v>0.0</v>
+      <c r="W50" t="s">
+        <v>41</v>
       </c>
       <c r="X50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y50" t="n">
         <v>1.0</v>
@@ -7828,10 +7834,10 @@
       </c>
       <c r="AO50" s="8"/>
       <c r="AP50" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AQ50" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
@@ -7901,11 +7907,11 @@
       <c r="V51" t="n">
         <v>2.0</v>
       </c>
-      <c r="W51" t="n">
-        <v>0.0</v>
+      <c r="W51" t="s">
+        <v>41</v>
       </c>
       <c r="X51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Y51" t="n">
         <v>1.0</v>
@@ -7957,10 +7963,10 @@
       </c>
       <c r="AO51" s="8"/>
       <c r="AP51" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AQ51" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52">
@@ -8030,11 +8036,11 @@
       <c r="V52" t="n">
         <v>2.0</v>
       </c>
-      <c r="W52" t="n">
-        <v>0.0</v>
+      <c r="W52" t="s">
+        <v>41</v>
       </c>
       <c r="X52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y52" t="n">
         <v>1.0</v>
@@ -8086,10 +8092,10 @@
       </c>
       <c r="AO52" s="8"/>
       <c r="AP52" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ52" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53">
@@ -8159,11 +8165,11 @@
       <c r="V53" t="n">
         <v>2.0</v>
       </c>
-      <c r="W53" t="n">
-        <v>0.0</v>
+      <c r="W53" t="s">
+        <v>41</v>
       </c>
       <c r="X53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y53" t="n">
         <v>1.0</v>
@@ -8215,10 +8221,10 @@
       </c>
       <c r="AO53" s="8"/>
       <c r="AP53" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AQ53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54">
@@ -8288,11 +8294,11 @@
       <c r="V54" t="n">
         <v>2.0</v>
       </c>
-      <c r="W54" t="n">
-        <v>0.0</v>
+      <c r="W54" t="s">
+        <v>41</v>
       </c>
       <c r="X54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y54" t="n">
         <v>1.0</v>
@@ -8340,13 +8346,13 @@
         <v>3.0</v>
       </c>
       <c r="AN54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO54" t="n">
         <v>0.0</v>
       </c>
       <c r="AP54" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AQ54" t="s">
         <v>37</v>
@@ -8419,11 +8425,11 @@
       <c r="V55" t="n">
         <v>1.0</v>
       </c>
-      <c r="W55" t="n">
-        <v>1.0</v>
+      <c r="W55" t="s">
+        <v>40</v>
       </c>
       <c r="X55" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Y55" t="n">
         <v>1.0</v>
@@ -8469,13 +8475,13 @@
         <v>2.0</v>
       </c>
       <c r="AN55" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO55" t="n">
         <v>1.0</v>
       </c>
       <c r="AP55" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AQ55" t="s">
         <v>37</v>
@@ -8548,11 +8554,11 @@
       <c r="V56" t="n">
         <v>0.0</v>
       </c>
-      <c r="W56" t="n">
-        <v>0.0</v>
+      <c r="W56" t="s">
+        <v>41</v>
       </c>
       <c r="X56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y56" t="n">
         <v>1.0</v>
@@ -8600,13 +8606,13 @@
         <v>0.0</v>
       </c>
       <c r="AN56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO56" t="n">
         <v>0.0</v>
       </c>
       <c r="AP56" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AQ56" t="s">
         <v>37</v>
@@ -8679,11 +8685,11 @@
       <c r="V57" t="n">
         <v>0.0</v>
       </c>
-      <c r="W57" t="n">
-        <v>0.0</v>
+      <c r="W57" t="s">
+        <v>41</v>
       </c>
       <c r="X57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y57" t="n">
         <v>1.0</v>
@@ -8731,13 +8737,13 @@
         <v>0.0</v>
       </c>
       <c r="AN57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO57" t="n">
         <v>0.0</v>
       </c>
       <c r="AP57" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AQ57" t="s">
         <v>37</v>
@@ -8810,11 +8816,11 @@
       <c r="V58" t="n">
         <v>0.0</v>
       </c>
-      <c r="W58" t="n">
-        <v>0.0</v>
+      <c r="W58" t="s">
+        <v>41</v>
       </c>
       <c r="X58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y58" t="n">
         <v>1.0</v>
@@ -8860,13 +8866,13 @@
         <v>0.0</v>
       </c>
       <c r="AN58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO58" t="n">
         <v>0.0</v>
       </c>
       <c r="AP58" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AQ58" t="s">
         <v>37</v>
@@ -8939,11 +8945,11 @@
       <c r="V59" t="n">
         <v>0.0</v>
       </c>
-      <c r="W59" t="n">
-        <v>0.0</v>
+      <c r="W59" t="s">
+        <v>41</v>
       </c>
       <c r="X59" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y59" t="n">
         <v>1.0</v>
@@ -8989,13 +8995,13 @@
         <v>0.0</v>
       </c>
       <c r="AN59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO59" t="n">
         <v>0.0</v>
       </c>
       <c r="AP59" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AQ59" t="s">
         <v>37</v>
@@ -9068,11 +9074,11 @@
       <c r="V60" t="n">
         <v>1.0</v>
       </c>
-      <c r="W60" t="n">
-        <v>0.0</v>
+      <c r="W60" t="s">
+        <v>41</v>
       </c>
       <c r="X60" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y60" t="n">
         <v>1.0</v>
@@ -9118,13 +9124,13 @@
         <v>0.0</v>
       </c>
       <c r="AN60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO60" t="n">
         <v>1.0</v>
       </c>
       <c r="AP60" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AQ60" t="s">
         <v>37</v>
@@ -9197,11 +9203,11 @@
       <c r="V61" t="n">
         <v>2.0</v>
       </c>
-      <c r="W61" t="n">
-        <v>0.0</v>
+      <c r="W61" t="s">
+        <v>41</v>
       </c>
       <c r="X61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y61" t="n">
         <v>1.0</v>
@@ -9249,13 +9255,13 @@
         <v>0.0</v>
       </c>
       <c r="AN61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO61" t="n">
         <v>0.0</v>
       </c>
       <c r="AP61" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AQ61" t="s">
         <v>37</v>
@@ -9328,11 +9334,11 @@
       <c r="V62" t="n">
         <v>2.0</v>
       </c>
-      <c r="W62" t="n">
-        <v>0.0</v>
+      <c r="W62" t="s">
+        <v>41</v>
       </c>
       <c r="X62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y62" t="n">
         <v>1.0</v>
@@ -9378,13 +9384,13 @@
         <v>0.0</v>
       </c>
       <c r="AN62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO62" t="n">
         <v>0.0</v>
       </c>
       <c r="AP62" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ62" t="s">
         <v>37</v>
@@ -9457,11 +9463,11 @@
       <c r="V63" t="n">
         <v>1.0</v>
       </c>
-      <c r="W63" t="n">
-        <v>0.0</v>
+      <c r="W63" t="s">
+        <v>41</v>
       </c>
       <c r="X63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Y63" t="n">
         <v>1.0</v>
@@ -9507,13 +9513,13 @@
         <v>0.0</v>
       </c>
       <c r="AN63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO63" t="n">
         <v>0.0</v>
       </c>
       <c r="AP63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AQ63" t="s">
         <v>37</v>
@@ -9586,11 +9592,11 @@
       <c r="V64" t="n">
         <v>0.0</v>
       </c>
-      <c r="W64" t="n">
-        <v>0.0</v>
+      <c r="W64" t="s">
+        <v>41</v>
       </c>
       <c r="X64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y64" t="n">
         <v>1.0</v>
@@ -9636,13 +9642,13 @@
         <v>0.0</v>
       </c>
       <c r="AN64" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO64" t="n">
         <v>0.0</v>
       </c>
       <c r="AP64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AQ64" t="s">
         <v>37</v>
@@ -9715,11 +9721,11 @@
       <c r="V65" t="n">
         <v>2.0</v>
       </c>
-      <c r="W65" t="n">
-        <v>0.0</v>
+      <c r="W65" t="s">
+        <v>41</v>
       </c>
       <c r="X65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y65" t="n">
         <v>1.0</v>
@@ -9765,13 +9771,13 @@
         <v>0.0</v>
       </c>
       <c r="AN65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO65" t="n">
         <v>0.0</v>
       </c>
       <c r="AP65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AQ65" t="s">
         <v>37</v>
@@ -9844,11 +9850,11 @@
       <c r="V66" t="n">
         <v>2.0</v>
       </c>
-      <c r="W66" t="n">
-        <v>0.0</v>
+      <c r="W66" t="s">
+        <v>41</v>
       </c>
       <c r="X66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y66" t="n">
         <v>1.0</v>
@@ -9892,13 +9898,13 @@
         <v>0.0</v>
       </c>
       <c r="AN66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO66" t="n">
         <v>0.0</v>
       </c>
       <c r="AP66" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AQ66" t="s">
         <v>37</v>
@@ -9971,11 +9977,11 @@
       <c r="V67" t="n">
         <v>2.0</v>
       </c>
-      <c r="W67" t="n">
-        <v>0.0</v>
+      <c r="W67" t="s">
+        <v>41</v>
       </c>
       <c r="X67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y67" t="n">
         <v>1.0</v>
@@ -10021,13 +10027,13 @@
         <v>0.0</v>
       </c>
       <c r="AN67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO67" t="n">
         <v>0.0</v>
       </c>
       <c r="AP67" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AQ67" t="s">
         <v>37</v>
@@ -10100,11 +10106,11 @@
       <c r="V68" t="n">
         <v>0.0</v>
       </c>
-      <c r="W68" t="n">
-        <v>0.0</v>
+      <c r="W68" t="s">
+        <v>41</v>
       </c>
       <c r="X68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y68" t="n">
         <v>1.0</v>
@@ -10150,13 +10156,13 @@
         <v>0.0</v>
       </c>
       <c r="AN68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO68" t="n">
         <v>0.0</v>
       </c>
       <c r="AP68" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AQ68" t="s">
         <v>37</v>
@@ -10229,11 +10235,11 @@
       <c r="V69" t="n">
         <v>2.0</v>
       </c>
-      <c r="W69" t="n">
-        <v>0.0</v>
+      <c r="W69" t="s">
+        <v>41</v>
       </c>
       <c r="X69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Y69" t="n">
         <v>1.0</v>
@@ -10279,13 +10285,13 @@
         <v>0.0</v>
       </c>
       <c r="AN69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO69" t="n">
         <v>1.0</v>
       </c>
       <c r="AP69" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AQ69" t="s">
         <v>37</v>
@@ -10358,11 +10364,11 @@
       <c r="V70" t="n">
         <v>2.0</v>
       </c>
-      <c r="W70" t="n">
-        <v>0.0</v>
+      <c r="W70" t="s">
+        <v>41</v>
       </c>
       <c r="X70" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y70" t="n">
         <v>1.0</v>
@@ -10406,13 +10412,13 @@
         <v>0.0</v>
       </c>
       <c r="AN70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO70" t="n">
         <v>0.0</v>
       </c>
       <c r="AP70" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AQ70" t="s">
         <v>37</v>
@@ -10485,11 +10491,11 @@
       <c r="V71" t="n">
         <v>1.0</v>
       </c>
-      <c r="W71" t="n">
-        <v>0.0</v>
+      <c r="W71" t="s">
+        <v>41</v>
       </c>
       <c r="X71" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y71" t="n">
         <v>1.0</v>
@@ -10533,13 +10539,13 @@
         <v>1.0</v>
       </c>
       <c r="AN71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO71" t="n">
         <v>0.0</v>
       </c>
       <c r="AP71" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AQ71" t="s">
         <v>37</v>
@@ -10612,11 +10618,11 @@
       <c r="V72" t="n">
         <v>0.0</v>
       </c>
-      <c r="W72" t="n">
-        <v>0.0</v>
+      <c r="W72" t="s">
+        <v>41</v>
       </c>
       <c r="X72" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y72" t="n">
         <v>1.0</v>
@@ -10662,13 +10668,13 @@
         <v>0.0</v>
       </c>
       <c r="AN72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO72" t="n">
         <v>0.0</v>
       </c>
       <c r="AP72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AQ72" t="s">
         <v>37</v>
@@ -10741,11 +10747,11 @@
       <c r="V73" t="n">
         <v>0.0</v>
       </c>
-      <c r="W73" t="n">
-        <v>0.0</v>
+      <c r="W73" t="s">
+        <v>41</v>
       </c>
       <c r="X73" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y73" t="n">
         <v>1.0</v>
@@ -10791,13 +10797,13 @@
         <v>0.0</v>
       </c>
       <c r="AN73" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO73" t="n">
         <v>0.0</v>
       </c>
       <c r="AP73" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AQ73" t="s">
         <v>37</v>
@@ -10870,11 +10876,11 @@
       <c r="V74" t="n">
         <v>2.0</v>
       </c>
-      <c r="W74" t="n">
-        <v>0.0</v>
+      <c r="W74" t="s">
+        <v>41</v>
       </c>
       <c r="X74" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y74" t="n">
         <v>1.0</v>
@@ -10920,13 +10926,13 @@
         <v>0.0</v>
       </c>
       <c r="AN74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO74" t="n">
         <v>0.0</v>
       </c>
       <c r="AP74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AQ74" t="s">
         <v>37</v>
@@ -10999,11 +11005,11 @@
       <c r="V75" t="n">
         <v>0.0</v>
       </c>
-      <c r="W75" t="n">
-        <v>0.0</v>
+      <c r="W75" t="s">
+        <v>41</v>
       </c>
       <c r="X75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y75" t="n">
         <v>1.0</v>
@@ -11049,13 +11055,13 @@
         <v>0.0</v>
       </c>
       <c r="AN75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO75" t="n">
         <v>0.0</v>
       </c>
       <c r="AP75" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AQ75" t="s">
         <v>37</v>
@@ -11128,11 +11134,11 @@
       <c r="V76" t="n">
         <v>0.0</v>
       </c>
-      <c r="W76" t="n">
-        <v>0.0</v>
+      <c r="W76" t="s">
+        <v>41</v>
       </c>
       <c r="X76" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y76" t="n">
         <v>1.0</v>
@@ -11176,13 +11182,13 @@
         <v>0.0</v>
       </c>
       <c r="AN76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO76" t="n">
         <v>0.0</v>
       </c>
       <c r="AP76" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AQ76" t="s">
         <v>37</v>
@@ -11255,11 +11261,11 @@
       <c r="V77" t="n">
         <v>0.0</v>
       </c>
-      <c r="W77" t="n">
-        <v>0.0</v>
+      <c r="W77" t="s">
+        <v>41</v>
       </c>
       <c r="X77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Y77" t="n">
         <v>1.0</v>
@@ -11305,13 +11311,13 @@
         <v>0.0</v>
       </c>
       <c r="AN77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO77" t="n">
         <v>0.0</v>
       </c>
       <c r="AP77" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AQ77" t="s">
         <v>37</v>
@@ -11384,11 +11390,11 @@
       <c r="V78" t="n">
         <v>1.0</v>
       </c>
-      <c r="W78" t="n">
-        <v>0.0</v>
+      <c r="W78" t="s">
+        <v>41</v>
       </c>
       <c r="X78" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Y78" t="n">
         <v>1.0</v>
@@ -11434,13 +11440,13 @@
         <v>0.0</v>
       </c>
       <c r="AN78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO78" t="n">
         <v>0.0</v>
       </c>
       <c r="AP78" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AQ78" t="s">
         <v>37</v>
@@ -11513,11 +11519,11 @@
       <c r="V79" t="n">
         <v>2.0</v>
       </c>
-      <c r="W79" t="n">
-        <v>2.0</v>
+      <c r="W79" t="s">
+        <v>102</v>
       </c>
       <c r="X79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y79" t="n">
         <v>1.0</v>
@@ -11563,13 +11569,13 @@
         <v>2.0</v>
       </c>
       <c r="AN79" t="s" s="56">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AO79" t="n">
         <v>0.0</v>
       </c>
       <c r="AP79" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AQ79" t="s">
         <v>37</v>
@@ -11642,11 +11648,11 @@
       <c r="V80" t="n">
         <v>0.0</v>
       </c>
-      <c r="W80" t="n">
-        <v>0.0</v>
+      <c r="W80" t="s">
+        <v>41</v>
       </c>
       <c r="X80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y80" t="n">
         <v>1.0</v>
@@ -11692,13 +11698,13 @@
         <v>0.0</v>
       </c>
       <c r="AN80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO80" t="n">
         <v>0.0</v>
       </c>
       <c r="AP80" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AQ80" t="s">
         <v>37</v>
@@ -11771,11 +11777,11 @@
       <c r="V81" t="n">
         <v>0.0</v>
       </c>
-      <c r="W81" t="n">
-        <v>0.0</v>
+      <c r="W81" t="s">
+        <v>41</v>
       </c>
       <c r="X81" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y81" t="n">
         <v>1.0</v>
@@ -11823,13 +11829,13 @@
         <v>0.0</v>
       </c>
       <c r="AN81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO81" t="n">
         <v>0.0</v>
       </c>
       <c r="AP81" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AQ81" t="s">
         <v>37</v>
@@ -11902,11 +11908,11 @@
       <c r="V82" t="n">
         <v>2.0</v>
       </c>
-      <c r="W82" t="n">
-        <v>0.0</v>
+      <c r="W82" t="s">
+        <v>41</v>
       </c>
       <c r="X82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y82" t="n">
         <v>1.0</v>
@@ -11952,13 +11958,13 @@
         <v>0.0</v>
       </c>
       <c r="AN82" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO82" t="n">
         <v>0.0</v>
       </c>
       <c r="AP82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AQ82" t="s">
         <v>37</v>
@@ -12031,11 +12037,11 @@
       <c r="V83" t="n">
         <v>0.0</v>
       </c>
-      <c r="W83" t="n">
-        <v>0.0</v>
+      <c r="W83" t="s">
+        <v>41</v>
       </c>
       <c r="X83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Y83" t="n">
         <v>1.0</v>
@@ -12081,13 +12087,13 @@
         <v>0.0</v>
       </c>
       <c r="AN83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO83" t="n">
         <v>0.0</v>
       </c>
       <c r="AP83" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AQ83" t="s">
         <v>37</v>
@@ -12160,11 +12166,11 @@
       <c r="V84" t="n">
         <v>0.0</v>
       </c>
-      <c r="W84" t="n">
-        <v>0.0</v>
+      <c r="W84" t="s">
+        <v>41</v>
       </c>
       <c r="X84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y84" t="n">
         <v>1.0</v>
@@ -12210,13 +12216,13 @@
         <v>0.0</v>
       </c>
       <c r="AN84" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO84" t="n">
         <v>0.0</v>
       </c>
       <c r="AP84" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AQ84" t="s">
         <v>37</v>
@@ -12289,11 +12295,11 @@
       <c r="V85" t="n">
         <v>2.0</v>
       </c>
-      <c r="W85" t="n">
-        <v>0.0</v>
+      <c r="W85" t="s">
+        <v>41</v>
       </c>
       <c r="X85" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Y85" t="n">
         <v>1.0</v>
@@ -12339,13 +12345,13 @@
         <v>0.0</v>
       </c>
       <c r="AN85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO85" t="n">
         <v>0.0</v>
       </c>
       <c r="AP85" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AQ85" t="s">
         <v>37</v>
@@ -12418,11 +12424,11 @@
       <c r="V86" t="n">
         <v>0.0</v>
       </c>
-      <c r="W86" t="n">
-        <v>0.0</v>
+      <c r="W86" t="s">
+        <v>41</v>
       </c>
       <c r="X86" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y86" t="n">
         <v>1.0</v>
@@ -12468,13 +12474,13 @@
         <v>0.0</v>
       </c>
       <c r="AN86" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO86" t="n">
         <v>1.0</v>
       </c>
       <c r="AP86" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AQ86" t="s">
         <v>37</v>
@@ -12547,11 +12553,11 @@
       <c r="V87" t="n">
         <v>0.0</v>
       </c>
-      <c r="W87" t="n">
-        <v>0.0</v>
+      <c r="W87" t="s">
+        <v>41</v>
       </c>
       <c r="X87" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Y87" t="n">
         <v>1.0</v>
@@ -12597,13 +12603,13 @@
         <v>0.0</v>
       </c>
       <c r="AN87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO87" t="n">
         <v>0.0</v>
       </c>
       <c r="AP87" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AQ87" t="s">
         <v>37</v>
@@ -12676,11 +12682,11 @@
       <c r="V88" t="n">
         <v>0.0</v>
       </c>
-      <c r="W88" t="n">
-        <v>0.0</v>
+      <c r="W88" t="s">
+        <v>41</v>
       </c>
       <c r="X88" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y88" t="n">
         <v>1.0</v>
@@ -12726,13 +12732,13 @@
         <v>0.0</v>
       </c>
       <c r="AN88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO88" t="n">
         <v>0.0</v>
       </c>
       <c r="AP88" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AQ88" t="s">
         <v>37</v>
@@ -12805,11 +12811,11 @@
       <c r="V89" t="n">
         <v>2.0</v>
       </c>
-      <c r="W89" t="n">
-        <v>0.0</v>
+      <c r="W89" t="s">
+        <v>41</v>
       </c>
       <c r="X89" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y89" t="n">
         <v>1.0</v>
@@ -12855,13 +12861,13 @@
         <v>1.0</v>
       </c>
       <c r="AN89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO89" t="n">
         <v>0.0</v>
       </c>
       <c r="AP89" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AQ89" t="s">
         <v>37</v>
@@ -12934,11 +12940,11 @@
       <c r="V90" t="n">
         <v>1.0</v>
       </c>
-      <c r="W90" t="n">
-        <v>0.0</v>
+      <c r="W90" t="s">
+        <v>41</v>
       </c>
       <c r="X90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Y90" t="n">
         <v>1.0</v>
@@ -12982,13 +12988,13 @@
         <v>2.0</v>
       </c>
       <c r="AN90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO90" t="n">
         <v>0.0</v>
       </c>
       <c r="AP90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AQ90" t="s">
         <v>37</v>
@@ -13061,11 +13067,11 @@
       <c r="V91" t="n">
         <v>2.0</v>
       </c>
-      <c r="W91" t="n">
-        <v>0.0</v>
+      <c r="W91" t="s">
+        <v>41</v>
       </c>
       <c r="X91" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y91" t="n">
         <v>1.0</v>
@@ -13111,13 +13117,13 @@
         <v>0.0</v>
       </c>
       <c r="AN91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO91" t="n">
         <v>0.0</v>
       </c>
       <c r="AP91" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AQ91" t="s">
         <v>37</v>
@@ -13190,11 +13196,11 @@
       <c r="V92" t="n">
         <v>2.0</v>
       </c>
-      <c r="W92" t="n">
-        <v>0.0</v>
+      <c r="W92" t="s">
+        <v>41</v>
       </c>
       <c r="X92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y92" t="n">
         <v>1.0</v>
@@ -13240,13 +13246,13 @@
         <v>0.0</v>
       </c>
       <c r="AN92" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO92" t="n">
         <v>1.0</v>
       </c>
       <c r="AP92" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AQ92" t="s">
         <v>37</v>
@@ -13319,11 +13325,11 @@
       <c r="V93" t="n">
         <v>0.0</v>
       </c>
-      <c r="W93" t="n">
-        <v>0.0</v>
+      <c r="W93" t="s">
+        <v>41</v>
       </c>
       <c r="X93" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Y93" t="n">
         <v>1.0</v>
@@ -13369,13 +13375,13 @@
         <v>0.0</v>
       </c>
       <c r="AN93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO93" t="n">
         <v>0.0</v>
       </c>
       <c r="AP93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AQ93" t="s">
         <v>37</v>
@@ -13448,11 +13454,11 @@
       <c r="V94" t="n">
         <v>2.0</v>
       </c>
-      <c r="W94" t="n">
-        <v>0.0</v>
+      <c r="W94" t="s">
+        <v>41</v>
       </c>
       <c r="X94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Y94" t="n">
         <v>1.0</v>
@@ -13498,13 +13504,13 @@
         <v>0.0</v>
       </c>
       <c r="AN94" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO94" t="n">
         <v>0.0</v>
       </c>
       <c r="AP94" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AQ94" t="s">
         <v>37</v>
@@ -13577,11 +13583,11 @@
       <c r="V95" t="n">
         <v>1.0</v>
       </c>
-      <c r="W95" t="n">
-        <v>0.0</v>
+      <c r="W95" t="s">
+        <v>41</v>
       </c>
       <c r="X95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Y95" t="n">
         <v>1.0</v>
@@ -13627,13 +13633,13 @@
         <v>2.0</v>
       </c>
       <c r="AN95" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO95" t="n">
         <v>1.0</v>
       </c>
       <c r="AP95" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AQ95" t="s">
         <v>37</v>
@@ -13702,9 +13708,11 @@
       </c>
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
+      <c r="W96" t="s" s="8">
+        <v>37</v>
+      </c>
       <c r="X96" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y96" t="n">
         <v>1.0</v>
@@ -13750,13 +13758,13 @@
         <v>0.0</v>
       </c>
       <c r="AN96" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO96" t="n">
         <v>0.0</v>
       </c>
       <c r="AP96" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AQ96" t="s">
         <v>37</v>
@@ -13829,11 +13837,11 @@
       <c r="V97" t="n">
         <v>0.0</v>
       </c>
-      <c r="W97" t="n">
-        <v>2.0</v>
+      <c r="W97" t="s">
+        <v>102</v>
       </c>
       <c r="X97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Y97" t="n">
         <v>1.0</v>
@@ -13877,13 +13885,13 @@
         <v>0.0</v>
       </c>
       <c r="AN97" t="s" s="56">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AO97" t="n">
         <v>0.0</v>
       </c>
       <c r="AP97" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AQ97" t="s">
         <v>37</v>
@@ -13956,11 +13964,11 @@
       <c r="V98" t="n">
         <v>0.0</v>
       </c>
-      <c r="W98" t="n">
-        <v>0.0</v>
+      <c r="W98" t="s">
+        <v>41</v>
       </c>
       <c r="X98" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Y98" t="n">
         <v>1.0</v>
@@ -14004,13 +14012,13 @@
         <v>0.0</v>
       </c>
       <c r="AN98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO98" t="n">
         <v>0.0</v>
       </c>
       <c r="AP98" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ98" t="s">
         <v>37</v>
@@ -14083,11 +14091,11 @@
       <c r="V99" t="n">
         <v>2.0</v>
       </c>
-      <c r="W99" t="n">
-        <v>0.0</v>
+      <c r="W99" t="s">
+        <v>41</v>
       </c>
       <c r="X99" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Y99" t="n">
         <v>1.0</v>
@@ -14133,13 +14141,13 @@
         <v>0.0</v>
       </c>
       <c r="AN99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO99" t="n">
         <v>0.0</v>
       </c>
       <c r="AP99" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AQ99" t="s">
         <v>37</v>
@@ -14212,11 +14220,11 @@
       <c r="V100" t="n">
         <v>0.0</v>
       </c>
-      <c r="W100" t="n">
-        <v>0.0</v>
+      <c r="W100" t="s">
+        <v>41</v>
       </c>
       <c r="X100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y100" t="n">
         <v>1.0</v>
@@ -14262,13 +14270,13 @@
         <v>0.0</v>
       </c>
       <c r="AN100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO100" t="n">
         <v>0.0</v>
       </c>
       <c r="AP100" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AQ100" t="s">
         <v>37</v>
@@ -14341,11 +14349,11 @@
       <c r="V101" t="n">
         <v>0.0</v>
       </c>
-      <c r="W101" t="n">
-        <v>2.0</v>
+      <c r="W101" t="s">
+        <v>102</v>
       </c>
       <c r="X101" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y101" t="n">
         <v>1.0</v>
@@ -14389,13 +14397,13 @@
         <v>0.0</v>
       </c>
       <c r="AN101" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO101" t="n">
         <v>0.0</v>
       </c>
       <c r="AP101" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AQ101" t="s">
         <v>37</v>
@@ -14468,11 +14476,11 @@
       <c r="V102" t="n">
         <v>0.0</v>
       </c>
-      <c r="W102" t="n">
-        <v>0.0</v>
+      <c r="W102" t="s">
+        <v>41</v>
       </c>
       <c r="X102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Y102" t="n">
         <v>1.0</v>
@@ -14518,13 +14526,13 @@
         <v>0.0</v>
       </c>
       <c r="AN102" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO102" t="n">
         <v>0.0</v>
       </c>
       <c r="AP102" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AQ102" t="s">
         <v>37</v>
@@ -14597,11 +14605,11 @@
       <c r="V103" t="n">
         <v>0.0</v>
       </c>
-      <c r="W103" t="n">
-        <v>0.0</v>
+      <c r="W103" t="s">
+        <v>41</v>
       </c>
       <c r="X103" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y103" t="n">
         <v>1.0</v>
@@ -14647,13 +14655,13 @@
         <v>0.0</v>
       </c>
       <c r="AN103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO103" t="n">
         <v>0.0</v>
       </c>
       <c r="AP103" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AQ103" t="s">
         <v>37</v>
@@ -14726,11 +14734,11 @@
       <c r="V104" t="n">
         <v>0.0</v>
       </c>
-      <c r="W104" t="n">
-        <v>0.0</v>
+      <c r="W104" t="s">
+        <v>41</v>
       </c>
       <c r="X104" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Y104" t="n">
         <v>1.0</v>
@@ -14776,13 +14784,13 @@
         <v>0.0</v>
       </c>
       <c r="AN104" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO104" t="n">
         <v>0.0</v>
       </c>
       <c r="AP104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AQ104" t="s">
         <v>37</v>
@@ -14855,11 +14863,11 @@
       <c r="V105" t="n">
         <v>0.0</v>
       </c>
-      <c r="W105" t="n">
-        <v>0.0</v>
+      <c r="W105" t="s">
+        <v>41</v>
       </c>
       <c r="X105" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y105" t="n">
         <v>1.0</v>
@@ -14905,13 +14913,13 @@
         <v>0.0</v>
       </c>
       <c r="AN105" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO105" t="n">
         <v>0.0</v>
       </c>
       <c r="AP105" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AQ105" t="s">
         <v>37</v>
@@ -14984,11 +14992,11 @@
       <c r="V106" t="n">
         <v>2.0</v>
       </c>
-      <c r="W106" t="n">
-        <v>0.0</v>
+      <c r="W106" t="s">
+        <v>41</v>
       </c>
       <c r="X106" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y106" t="n">
         <v>1.0</v>
@@ -15036,13 +15044,13 @@
         <v>2.0</v>
       </c>
       <c r="AN106" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO106" t="n">
         <v>0.0</v>
       </c>
       <c r="AP106" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AQ106" t="s">
         <v>37</v>
@@ -15115,11 +15123,11 @@
       <c r="V107" t="n">
         <v>0.0</v>
       </c>
-      <c r="W107" t="n">
-        <v>0.0</v>
+      <c r="W107" t="s">
+        <v>41</v>
       </c>
       <c r="X107" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y107" t="n">
         <v>1.0</v>
@@ -15163,13 +15171,13 @@
       </c>
       <c r="AM107" s="8"/>
       <c r="AN107" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO107" t="n">
         <v>0.0</v>
       </c>
       <c r="AP107" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AQ107" t="s">
         <v>37</v>
@@ -15242,11 +15250,11 @@
       <c r="V108" t="n">
         <v>0.0</v>
       </c>
-      <c r="W108" t="n">
-        <v>2.0</v>
+      <c r="W108" t="s">
+        <v>102</v>
       </c>
       <c r="X108" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y108" t="n">
         <v>1.0</v>
@@ -15292,13 +15300,13 @@
         <v>0.0</v>
       </c>
       <c r="AN108" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO108" t="n">
         <v>0.0</v>
       </c>
       <c r="AP108" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AQ108" t="s">
         <v>37</v>
@@ -15371,11 +15379,11 @@
       <c r="V109" t="n">
         <v>0.0</v>
       </c>
-      <c r="W109" t="n">
-        <v>0.0</v>
+      <c r="W109" t="s">
+        <v>41</v>
       </c>
       <c r="X109" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Y109" t="n">
         <v>1.0</v>
@@ -15421,13 +15429,13 @@
         <v>1.0</v>
       </c>
       <c r="AN109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO109" t="n">
         <v>0.0</v>
       </c>
       <c r="AP109" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AQ109" t="s">
         <v>37</v>
@@ -15500,11 +15508,11 @@
       <c r="V110" t="n">
         <v>2.0</v>
       </c>
-      <c r="W110" t="n">
-        <v>2.0</v>
+      <c r="W110" t="s">
+        <v>102</v>
       </c>
       <c r="X110" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y110" t="n">
         <v>1.0</v>
@@ -15550,13 +15558,13 @@
         <v>2.0</v>
       </c>
       <c r="AN110" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO110" t="n">
         <v>0.0</v>
       </c>
       <c r="AP110" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AQ110" t="s">
         <v>37</v>
@@ -15629,11 +15637,11 @@
       <c r="V111" t="n">
         <v>0.0</v>
       </c>
-      <c r="W111" t="n">
-        <v>2.0</v>
+      <c r="W111" t="s">
+        <v>102</v>
       </c>
       <c r="X111" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y111" t="n">
         <v>1.0</v>
@@ -15679,13 +15687,13 @@
         <v>0.0</v>
       </c>
       <c r="AN111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO111" t="n">
         <v>0.0</v>
       </c>
       <c r="AP111" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AQ111" t="s">
         <v>37</v>
@@ -15758,11 +15766,11 @@
       <c r="V112" t="n">
         <v>2.0</v>
       </c>
-      <c r="W112" t="n">
-        <v>0.0</v>
+      <c r="W112" t="s">
+        <v>41</v>
       </c>
       <c r="X112" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y112" t="n">
         <v>1.0</v>
@@ -15810,13 +15818,13 @@
         <v>0.0</v>
       </c>
       <c r="AN112" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO112" t="n">
         <v>0.0</v>
       </c>
       <c r="AP112" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AQ112" t="s">
         <v>37</v>
@@ -15889,11 +15897,11 @@
       <c r="V113" t="n">
         <v>0.0</v>
       </c>
-      <c r="W113" t="n">
-        <v>2.0</v>
+      <c r="W113" t="s">
+        <v>102</v>
       </c>
       <c r="X113" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y113" t="n">
         <v>1.0</v>
@@ -15939,13 +15947,13 @@
         <v>0.0</v>
       </c>
       <c r="AN113" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO113" t="n">
         <v>0.0</v>
       </c>
       <c r="AP113" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AQ113" t="s">
         <v>37</v>
@@ -16018,11 +16026,11 @@
       <c r="V114" t="n">
         <v>0.0</v>
       </c>
-      <c r="W114" t="n">
-        <v>0.0</v>
+      <c r="W114" t="s">
+        <v>41</v>
       </c>
       <c r="X114" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y114" t="n">
         <v>1.0</v>
@@ -16068,13 +16076,13 @@
         <v>0.0</v>
       </c>
       <c r="AN114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO114" t="n">
         <v>0.0</v>
       </c>
       <c r="AP114" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AQ114" t="s">
         <v>37</v>
@@ -16147,11 +16155,11 @@
       <c r="V115" t="n">
         <v>2.0</v>
       </c>
-      <c r="W115" t="n">
-        <v>0.0</v>
+      <c r="W115" t="s">
+        <v>41</v>
       </c>
       <c r="X115" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Y115" t="n">
         <v>1.0</v>
@@ -16199,13 +16207,13 @@
         <v>0.0</v>
       </c>
       <c r="AN115" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO115" t="n">
         <v>0.0</v>
       </c>
       <c r="AP115" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AQ115" t="s">
         <v>37</v>
@@ -16278,11 +16286,11 @@
       <c r="V116" t="n">
         <v>0.0</v>
       </c>
-      <c r="W116" t="n">
-        <v>0.0</v>
+      <c r="W116" t="s" s="56">
+        <v>103</v>
       </c>
       <c r="X116" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y116" t="n">
         <v>1.0</v>
@@ -16328,13 +16336,13 @@
         <v>0.0</v>
       </c>
       <c r="AN116" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO116" t="n">
         <v>0.0</v>
       </c>
       <c r="AP116" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AQ116" t="s">
         <v>37</v>
@@ -16407,11 +16415,11 @@
       <c r="V117" t="n">
         <v>0.0</v>
       </c>
-      <c r="W117" t="n">
-        <v>0.0</v>
+      <c r="W117" t="s" s="56">
+        <v>103</v>
       </c>
       <c r="X117" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y117" t="n">
         <v>1.0</v>
@@ -16457,13 +16465,13 @@
         <v>0.0</v>
       </c>
       <c r="AN117" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO117" t="n">
         <v>0.0</v>
       </c>
       <c r="AP117" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AQ117" t="s">
         <v>37</v>
@@ -16536,11 +16544,11 @@
       <c r="V118" t="n">
         <v>0.0</v>
       </c>
-      <c r="W118" t="n">
-        <v>0.0</v>
+      <c r="W118" t="s" s="56">
+        <v>103</v>
       </c>
       <c r="X118" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Y118" t="n">
         <v>1.0</v>
@@ -16586,13 +16594,13 @@
         <v>0.0</v>
       </c>
       <c r="AN118" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO118" t="n">
         <v>0.0</v>
       </c>
       <c r="AP118" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AQ118" t="s">
         <v>37</v>
@@ -16665,11 +16673,11 @@
       <c r="V119" t="n">
         <v>2.0</v>
       </c>
-      <c r="W119" t="n">
-        <v>0.0</v>
+      <c r="W119" t="s" s="56">
+        <v>103</v>
       </c>
       <c r="X119" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y119" t="n">
         <v>1.0</v>
@@ -16717,13 +16725,13 @@
         <v>0.0</v>
       </c>
       <c r="AN119" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO119" t="n">
         <v>0.0</v>
       </c>
       <c r="AP119" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AQ119" t="s">
         <v>37</v>
@@ -16796,11 +16804,11 @@
       <c r="V120" t="n">
         <v>2.0</v>
       </c>
-      <c r="W120" t="n">
-        <v>0.0</v>
+      <c r="W120" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="X120" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Y120" t="n">
         <v>1.0</v>
@@ -16846,13 +16854,13 @@
         <v>0.0</v>
       </c>
       <c r="AN120" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO120" t="n">
         <v>0.0</v>
       </c>
       <c r="AP120" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AQ120" t="s">
         <v>37</v>
@@ -16925,11 +16933,11 @@
       <c r="V121" t="n">
         <v>1.0</v>
       </c>
-      <c r="W121" t="n">
-        <v>0.0</v>
+      <c r="W121" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="X121" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y121" t="n">
         <v>1.0</v>
@@ -16975,13 +16983,13 @@
         <v>3.0</v>
       </c>
       <c r="AN121" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO121" t="n">
         <v>0.0</v>
       </c>
       <c r="AP121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AQ121" t="s">
         <v>37</v>
@@ -17054,11 +17062,11 @@
       <c r="V122" t="n">
         <v>0.0</v>
       </c>
-      <c r="W122" t="n">
-        <v>2.0</v>
+      <c r="W122" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="X122" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Y122" t="n">
         <v>1.0</v>
@@ -17104,13 +17112,13 @@
         <v>0.0</v>
       </c>
       <c r="AN122" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO122" t="n">
         <v>0.0</v>
       </c>
       <c r="AP122" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AQ122" t="s">
         <v>37</v>
@@ -17183,11 +17191,11 @@
       <c r="V123" t="n">
         <v>2.0</v>
       </c>
-      <c r="W123" t="n">
-        <v>0.0</v>
+      <c r="W123" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="X123" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y123" t="n">
         <v>1.0</v>
@@ -17233,13 +17241,13 @@
         <v>0.0</v>
       </c>
       <c r="AN123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO123" t="n">
         <v>1.0</v>
       </c>
       <c r="AP123" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ123" t="s">
         <v>37</v>
@@ -17312,11 +17320,11 @@
       <c r="V124" t="n">
         <v>2.0</v>
       </c>
-      <c r="W124" t="n">
-        <v>2.0</v>
+      <c r="W124" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="X124" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Y124" t="n">
         <v>1.0</v>
@@ -17362,13 +17370,13 @@
         <v>2.0</v>
       </c>
       <c r="AN124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO124" t="n">
         <v>0.0</v>
       </c>
       <c r="AP124" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AQ124" t="s">
         <v>37</v>
@@ -17441,11 +17449,11 @@
       <c r="V125" t="n">
         <v>2.0</v>
       </c>
-      <c r="W125" t="n">
-        <v>0.0</v>
+      <c r="W125" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="X125" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y125" t="n">
         <v>1.0</v>
@@ -17491,13 +17499,13 @@
         <v>1.0</v>
       </c>
       <c r="AN125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO125" t="n">
         <v>0.0</v>
       </c>
       <c r="AP125" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AQ125" t="s">
         <v>37</v>
